--- a/CFC/Docs/CFC DWH Bus Matrix.xlsx
+++ b/CFC/Docs/CFC DWH Bus Matrix.xlsx
@@ -994,7 +994,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1236,26 +1236,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1263,21 +1247,52 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1289,51 +1304,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1660,74 +1660,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:176" s="2" customFormat="1">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="118"/>
-      <c r="S1" s="118"/>
-      <c r="T1" s="118"/>
-      <c r="U1" s="118"/>
-      <c r="V1" s="118"/>
-      <c r="W1" s="118"/>
-      <c r="X1" s="118"/>
-      <c r="Y1" s="118"/>
-      <c r="Z1" s="118"/>
-      <c r="AA1" s="118"/>
-      <c r="AB1" s="118"/>
-      <c r="AC1" s="118"/>
-      <c r="AD1" s="118"/>
-      <c r="AE1" s="118"/>
-      <c r="AF1" s="118"/>
-      <c r="AG1" s="118"/>
-      <c r="AH1" s="118"/>
-      <c r="AI1" s="118"/>
-      <c r="AJ1" s="118"/>
-      <c r="AK1" s="118"/>
-      <c r="AL1" s="118"/>
-      <c r="AM1" s="118"/>
-      <c r="AN1" s="118"/>
-      <c r="AO1" s="118"/>
-      <c r="AP1" s="118"/>
-      <c r="AQ1" s="118"/>
-      <c r="AR1" s="118"/>
-      <c r="AS1" s="118"/>
-      <c r="AT1" s="118"/>
-      <c r="AU1" s="118"/>
-      <c r="AV1" s="118"/>
-      <c r="AW1" s="118"/>
-      <c r="AX1" s="118"/>
-      <c r="AY1" s="118"/>
-      <c r="AZ1" s="118"/>
-      <c r="BA1" s="118"/>
-      <c r="BB1" s="118"/>
-      <c r="BC1" s="118"/>
-      <c r="BD1" s="118"/>
-      <c r="BE1" s="118"/>
-      <c r="BF1" s="118"/>
-      <c r="BG1" s="118"/>
-      <c r="BH1" s="118"/>
-      <c r="BI1" s="118"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="95"/>
+      <c r="Y1" s="95"/>
+      <c r="Z1" s="95"/>
+      <c r="AA1" s="95"/>
+      <c r="AB1" s="95"/>
+      <c r="AC1" s="95"/>
+      <c r="AD1" s="95"/>
+      <c r="AE1" s="95"/>
+      <c r="AF1" s="95"/>
+      <c r="AG1" s="95"/>
+      <c r="AH1" s="95"/>
+      <c r="AI1" s="95"/>
+      <c r="AJ1" s="95"/>
+      <c r="AK1" s="95"/>
+      <c r="AL1" s="95"/>
+      <c r="AM1" s="95"/>
+      <c r="AN1" s="95"/>
+      <c r="AO1" s="95"/>
+      <c r="AP1" s="95"/>
+      <c r="AQ1" s="95"/>
+      <c r="AR1" s="95"/>
+      <c r="AS1" s="95"/>
+      <c r="AT1" s="95"/>
+      <c r="AU1" s="95"/>
+      <c r="AV1" s="95"/>
+      <c r="AW1" s="95"/>
+      <c r="AX1" s="95"/>
+      <c r="AY1" s="95"/>
+      <c r="AZ1" s="95"/>
+      <c r="BA1" s="95"/>
+      <c r="BB1" s="95"/>
+      <c r="BC1" s="95"/>
+      <c r="BD1" s="95"/>
+      <c r="BE1" s="95"/>
+      <c r="BF1" s="95"/>
+      <c r="BG1" s="95"/>
+      <c r="BH1" s="95"/>
+      <c r="BI1" s="95"/>
     </row>
     <row r="2" spans="1:176" s="2" customFormat="1">
-      <c r="A2" s="90"/>
+      <c r="A2" s="116"/>
       <c r="B2" s="49">
         <v>1</v>
       </c>
@@ -2426,7 +2426,7 @@
       <c r="FT2" s="49"/>
     </row>
     <row r="3" spans="1:176" s="2" customFormat="1" ht="248.25" customHeight="1">
-      <c r="A3" s="90"/>
+      <c r="A3" s="116"/>
       <c r="B3" s="67" t="s">
         <v>5</v>
       </c>
@@ -2800,98 +2800,98 @@
     <row r="20" spans="1:104" s="3" customFormat="1"/>
     <row r="21" spans="1:104">
       <c r="A21" s="71"/>
-      <c r="B21" s="91" t="s">
+      <c r="B21" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
-      <c r="N21" s="91"/>
-      <c r="O21" s="91"/>
-      <c r="P21" s="91"/>
-      <c r="Q21" s="91"/>
-      <c r="R21" s="91"/>
-      <c r="S21" s="91"/>
-      <c r="T21" s="91"/>
-      <c r="U21" s="91"/>
-      <c r="V21" s="91"/>
-      <c r="W21" s="91"/>
-      <c r="X21" s="91"/>
-      <c r="Y21" s="91"/>
-      <c r="Z21" s="91"/>
-      <c r="AA21" s="91"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="117"/>
+      <c r="K21" s="117"/>
+      <c r="L21" s="117"/>
+      <c r="M21" s="117"/>
+      <c r="N21" s="117"/>
+      <c r="O21" s="117"/>
+      <c r="P21" s="117"/>
+      <c r="Q21" s="117"/>
+      <c r="R21" s="117"/>
+      <c r="S21" s="117"/>
+      <c r="T21" s="117"/>
+      <c r="U21" s="117"/>
+      <c r="V21" s="117"/>
+      <c r="W21" s="117"/>
+      <c r="X21" s="117"/>
+      <c r="Y21" s="117"/>
+      <c r="Z21" s="117"/>
+      <c r="AA21" s="117"/>
     </row>
     <row r="22" spans="1:104" s="12" customFormat="1">
       <c r="A22" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="94" t="s">
+      <c r="B22" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="95" t="s">
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="L22" s="95"/>
-      <c r="M22" s="95"/>
-      <c r="N22" s="95"/>
-      <c r="O22" s="95"/>
-      <c r="P22" s="95"/>
-      <c r="Q22" s="95"/>
-      <c r="R22" s="96" t="s">
+      <c r="L22" s="89"/>
+      <c r="M22" s="89"/>
+      <c r="N22" s="89"/>
+      <c r="O22" s="89"/>
+      <c r="P22" s="89"/>
+      <c r="Q22" s="89"/>
+      <c r="R22" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="S22" s="96"/>
-      <c r="T22" s="96"/>
-      <c r="U22" s="96"/>
-      <c r="V22" s="96"/>
-      <c r="W22" s="96"/>
-      <c r="X22" s="96"/>
-      <c r="Y22" s="96"/>
-      <c r="Z22" s="96"/>
-      <c r="AA22" s="96"/>
-      <c r="AB22" s="96"/>
-      <c r="AC22" s="96"/>
-      <c r="AD22" s="96"/>
-      <c r="AE22" s="96"/>
-      <c r="AF22" s="119" t="s">
+      <c r="S22" s="119"/>
+      <c r="T22" s="119"/>
+      <c r="U22" s="119"/>
+      <c r="V22" s="119"/>
+      <c r="W22" s="119"/>
+      <c r="X22" s="119"/>
+      <c r="Y22" s="119"/>
+      <c r="Z22" s="119"/>
+      <c r="AA22" s="119"/>
+      <c r="AB22" s="119"/>
+      <c r="AC22" s="119"/>
+      <c r="AD22" s="119"/>
+      <c r="AE22" s="119"/>
+      <c r="AF22" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="AG22" s="119"/>
-      <c r="AH22" s="119"/>
-      <c r="AI22" s="119"/>
-      <c r="AJ22" s="119"/>
-      <c r="AK22" s="119"/>
-      <c r="AL22" s="119"/>
-      <c r="AM22" s="119"/>
-      <c r="AN22" s="119"/>
-      <c r="AO22" s="119"/>
-      <c r="AP22" s="120" t="s">
+      <c r="AG22" s="96"/>
+      <c r="AH22" s="96"/>
+      <c r="AI22" s="96"/>
+      <c r="AJ22" s="96"/>
+      <c r="AK22" s="96"/>
+      <c r="AL22" s="96"/>
+      <c r="AM22" s="96"/>
+      <c r="AN22" s="96"/>
+      <c r="AO22" s="96"/>
+      <c r="AP22" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="AQ22" s="120"/>
-      <c r="AR22" s="120"/>
-      <c r="AS22" s="120"/>
-      <c r="AT22" s="120"/>
-      <c r="AU22" s="120"/>
-      <c r="AV22" s="120"/>
-      <c r="AW22" s="120"/>
-      <c r="AX22" s="120"/>
+      <c r="AQ22" s="97"/>
+      <c r="AR22" s="97"/>
+      <c r="AS22" s="97"/>
+      <c r="AT22" s="97"/>
+      <c r="AU22" s="97"/>
+      <c r="AV22" s="97"/>
+      <c r="AW22" s="97"/>
+      <c r="AX22" s="97"/>
       <c r="AY22" s="64"/>
       <c r="AZ22" s="64"/>
       <c r="BA22" s="64"/>
@@ -2909,303 +2909,303 @@
     </row>
     <row r="23" spans="1:104" s="12" customFormat="1">
       <c r="A23" s="66"/>
-      <c r="B23" s="102">
+      <c r="B23" s="111">
         <v>1</v>
       </c>
-      <c r="C23" s="102"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="102"/>
-      <c r="I23" s="102"/>
-      <c r="J23" s="102">
+      <c r="C23" s="111"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="111"/>
+      <c r="I23" s="111"/>
+      <c r="J23" s="111">
         <v>2</v>
       </c>
-      <c r="K23" s="102"/>
-      <c r="L23" s="102"/>
-      <c r="M23" s="102"/>
-      <c r="N23" s="102"/>
-      <c r="O23" s="102"/>
-      <c r="P23" s="102"/>
-      <c r="Q23" s="102"/>
-      <c r="R23" s="107">
+      <c r="K23" s="111"/>
+      <c r="L23" s="111"/>
+      <c r="M23" s="111"/>
+      <c r="N23" s="111"/>
+      <c r="O23" s="111"/>
+      <c r="P23" s="111"/>
+      <c r="Q23" s="111"/>
+      <c r="R23" s="112">
         <v>3</v>
       </c>
-      <c r="S23" s="107"/>
-      <c r="T23" s="107"/>
-      <c r="U23" s="107"/>
-      <c r="V23" s="107"/>
-      <c r="W23" s="107"/>
-      <c r="X23" s="107"/>
-      <c r="Y23" s="107"/>
-      <c r="Z23" s="107">
+      <c r="S23" s="112"/>
+      <c r="T23" s="112"/>
+      <c r="U23" s="112"/>
+      <c r="V23" s="112"/>
+      <c r="W23" s="112"/>
+      <c r="X23" s="112"/>
+      <c r="Y23" s="112"/>
+      <c r="Z23" s="112">
         <v>4</v>
       </c>
-      <c r="AA23" s="107"/>
-      <c r="AB23" s="107"/>
-      <c r="AC23" s="107"/>
-      <c r="AD23" s="107"/>
-      <c r="AE23" s="107"/>
-      <c r="AF23" s="107"/>
-      <c r="AG23" s="107"/>
-      <c r="AH23" s="111">
+      <c r="AA23" s="112"/>
+      <c r="AB23" s="112"/>
+      <c r="AC23" s="112"/>
+      <c r="AD23" s="112"/>
+      <c r="AE23" s="112"/>
+      <c r="AF23" s="112"/>
+      <c r="AG23" s="112"/>
+      <c r="AH23" s="102">
         <v>5</v>
       </c>
-      <c r="AI23" s="111"/>
-      <c r="AJ23" s="111"/>
-      <c r="AK23" s="111"/>
-      <c r="AL23" s="111"/>
-      <c r="AM23" s="111"/>
-      <c r="AN23" s="111"/>
-      <c r="AO23" s="111"/>
-      <c r="AP23" s="111">
+      <c r="AI23" s="102"/>
+      <c r="AJ23" s="102"/>
+      <c r="AK23" s="102"/>
+      <c r="AL23" s="102"/>
+      <c r="AM23" s="102"/>
+      <c r="AN23" s="102"/>
+      <c r="AO23" s="102"/>
+      <c r="AP23" s="102">
         <v>6</v>
       </c>
-      <c r="AQ23" s="111"/>
-      <c r="AR23" s="111"/>
-      <c r="AS23" s="111"/>
-      <c r="AT23" s="111"/>
-      <c r="AU23" s="111"/>
-      <c r="AV23" s="111"/>
-      <c r="AW23" s="111"/>
-      <c r="AX23" s="111">
+      <c r="AQ23" s="102"/>
+      <c r="AR23" s="102"/>
+      <c r="AS23" s="102"/>
+      <c r="AT23" s="102"/>
+      <c r="AU23" s="102"/>
+      <c r="AV23" s="102"/>
+      <c r="AW23" s="102"/>
+      <c r="AX23" s="102">
         <v>7</v>
       </c>
-      <c r="AY23" s="111"/>
-      <c r="AZ23" s="111"/>
-      <c r="BA23" s="111"/>
-      <c r="BB23" s="111"/>
-      <c r="BC23" s="111"/>
-      <c r="BD23" s="111"/>
-      <c r="BE23" s="111"/>
-      <c r="BF23" s="111">
+      <c r="AY23" s="102"/>
+      <c r="AZ23" s="102"/>
+      <c r="BA23" s="102"/>
+      <c r="BB23" s="102"/>
+      <c r="BC23" s="102"/>
+      <c r="BD23" s="102"/>
+      <c r="BE23" s="102"/>
+      <c r="BF23" s="102">
         <v>8</v>
       </c>
-      <c r="BG23" s="111"/>
-      <c r="BH23" s="111"/>
-      <c r="BI23" s="111"/>
-      <c r="BJ23" s="111"/>
-      <c r="BK23" s="111"/>
-      <c r="BL23" s="111"/>
-      <c r="BM23" s="111"/>
-      <c r="BN23" s="111">
+      <c r="BG23" s="102"/>
+      <c r="BH23" s="102"/>
+      <c r="BI23" s="102"/>
+      <c r="BJ23" s="102"/>
+      <c r="BK23" s="102"/>
+      <c r="BL23" s="102"/>
+      <c r="BM23" s="102"/>
+      <c r="BN23" s="102">
         <v>9</v>
       </c>
-      <c r="BO23" s="111"/>
-      <c r="BP23" s="111"/>
-      <c r="BQ23" s="111"/>
-      <c r="BR23" s="111"/>
-      <c r="BS23" s="111"/>
-      <c r="BT23" s="111"/>
-      <c r="BU23" s="111"/>
-      <c r="BV23" s="111">
+      <c r="BO23" s="102"/>
+      <c r="BP23" s="102"/>
+      <c r="BQ23" s="102"/>
+      <c r="BR23" s="102"/>
+      <c r="BS23" s="102"/>
+      <c r="BT23" s="102"/>
+      <c r="BU23" s="102"/>
+      <c r="BV23" s="102">
         <v>10</v>
       </c>
-      <c r="BW23" s="111"/>
-      <c r="BX23" s="111"/>
-      <c r="BY23" s="111"/>
-      <c r="BZ23" s="111"/>
-      <c r="CA23" s="111"/>
-      <c r="CB23" s="111"/>
-      <c r="CC23" s="111"/>
-      <c r="CD23" s="111">
+      <c r="BW23" s="102"/>
+      <c r="BX23" s="102"/>
+      <c r="BY23" s="102"/>
+      <c r="BZ23" s="102"/>
+      <c r="CA23" s="102"/>
+      <c r="CB23" s="102"/>
+      <c r="CC23" s="102"/>
+      <c r="CD23" s="102">
         <v>11</v>
       </c>
-      <c r="CE23" s="111"/>
-      <c r="CF23" s="111"/>
-      <c r="CG23" s="111"/>
-      <c r="CH23" s="111"/>
-      <c r="CI23" s="111"/>
-      <c r="CJ23" s="111"/>
-      <c r="CK23" s="111"/>
-    </row>
-    <row r="24" spans="1:104" s="93" customFormat="1">
-      <c r="A24" s="92"/>
-      <c r="B24" s="92"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="92"/>
-      <c r="J24" s="92"/>
-      <c r="K24" s="92"/>
-      <c r="L24" s="92"/>
-      <c r="M24" s="92"/>
-      <c r="N24" s="92"/>
-      <c r="O24" s="92"/>
-      <c r="P24" s="92"/>
-      <c r="Q24" s="92"/>
-      <c r="R24" s="92"/>
-      <c r="S24" s="92"/>
-      <c r="T24" s="92"/>
-      <c r="U24" s="92"/>
-      <c r="V24" s="92"/>
-      <c r="W24" s="92"/>
-      <c r="X24" s="92"/>
-      <c r="Y24" s="92"/>
-      <c r="Z24" s="92"/>
-      <c r="AA24" s="92"/>
-      <c r="AB24" s="92"/>
-      <c r="AC24" s="92"/>
-      <c r="AD24" s="92"/>
-      <c r="AE24" s="92"/>
-      <c r="AF24" s="92"/>
-      <c r="AG24" s="92"/>
-      <c r="AH24" s="92"/>
-      <c r="AI24" s="92"/>
-      <c r="AJ24" s="92"/>
-      <c r="AK24" s="92"/>
-      <c r="AL24" s="92"/>
-      <c r="AM24" s="92"/>
-      <c r="AN24" s="92"/>
-      <c r="AO24" s="92"/>
-      <c r="AP24" s="92"/>
-      <c r="AQ24" s="92"/>
-      <c r="AR24" s="92"/>
-      <c r="AS24" s="92"/>
-      <c r="AT24" s="92"/>
-      <c r="AU24" s="92"/>
-      <c r="AV24" s="92"/>
-      <c r="AW24" s="92"/>
-      <c r="AX24" s="92"/>
-      <c r="AY24" s="92"/>
-      <c r="AZ24" s="92"/>
-      <c r="BA24" s="92"/>
-      <c r="BB24" s="92"/>
-      <c r="BC24" s="92"/>
-      <c r="BD24" s="92"/>
-      <c r="BE24" s="92"/>
-      <c r="BF24" s="92"/>
-      <c r="BG24" s="92"/>
-      <c r="BH24" s="92"/>
-      <c r="BI24" s="92"/>
-      <c r="BJ24" s="92"/>
-      <c r="BK24" s="92"/>
-      <c r="BL24" s="92"/>
+      <c r="CE23" s="102"/>
+      <c r="CF23" s="102"/>
+      <c r="CG23" s="102"/>
+      <c r="CH23" s="102"/>
+      <c r="CI23" s="102"/>
+      <c r="CJ23" s="102"/>
+      <c r="CK23" s="102"/>
+    </row>
+    <row r="24" spans="1:104" s="99" customFormat="1">
+      <c r="A24" s="118"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="118"/>
+      <c r="L24" s="118"/>
+      <c r="M24" s="118"/>
+      <c r="N24" s="118"/>
+      <c r="O24" s="118"/>
+      <c r="P24" s="118"/>
+      <c r="Q24" s="118"/>
+      <c r="R24" s="118"/>
+      <c r="S24" s="118"/>
+      <c r="T24" s="118"/>
+      <c r="U24" s="118"/>
+      <c r="V24" s="118"/>
+      <c r="W24" s="118"/>
+      <c r="X24" s="118"/>
+      <c r="Y24" s="118"/>
+      <c r="Z24" s="118"/>
+      <c r="AA24" s="118"/>
+      <c r="AB24" s="118"/>
+      <c r="AC24" s="118"/>
+      <c r="AD24" s="118"/>
+      <c r="AE24" s="118"/>
+      <c r="AF24" s="118"/>
+      <c r="AG24" s="118"/>
+      <c r="AH24" s="118"/>
+      <c r="AI24" s="118"/>
+      <c r="AJ24" s="118"/>
+      <c r="AK24" s="118"/>
+      <c r="AL24" s="118"/>
+      <c r="AM24" s="118"/>
+      <c r="AN24" s="118"/>
+      <c r="AO24" s="118"/>
+      <c r="AP24" s="118"/>
+      <c r="AQ24" s="118"/>
+      <c r="AR24" s="118"/>
+      <c r="AS24" s="118"/>
+      <c r="AT24" s="118"/>
+      <c r="AU24" s="118"/>
+      <c r="AV24" s="118"/>
+      <c r="AW24" s="118"/>
+      <c r="AX24" s="118"/>
+      <c r="AY24" s="118"/>
+      <c r="AZ24" s="118"/>
+      <c r="BA24" s="118"/>
+      <c r="BB24" s="118"/>
+      <c r="BC24" s="118"/>
+      <c r="BD24" s="118"/>
+      <c r="BE24" s="118"/>
+      <c r="BF24" s="118"/>
+      <c r="BG24" s="118"/>
+      <c r="BH24" s="118"/>
+      <c r="BI24" s="118"/>
+      <c r="BJ24" s="118"/>
+      <c r="BK24" s="118"/>
+      <c r="BL24" s="118"/>
     </row>
     <row r="25" spans="1:104" s="4" customFormat="1">
-      <c r="B25" s="103" t="s">
+      <c r="B25" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="104"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="105"/>
-      <c r="J25" s="103" t="s">
+      <c r="C25" s="107"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="108"/>
+      <c r="J25" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="K25" s="104"/>
-      <c r="L25" s="104"/>
-      <c r="M25" s="104"/>
-      <c r="N25" s="104"/>
-      <c r="O25" s="104"/>
-      <c r="P25" s="104"/>
-      <c r="Q25" s="105"/>
-      <c r="R25" s="103" t="s">
+      <c r="K25" s="107"/>
+      <c r="L25" s="107"/>
+      <c r="M25" s="107"/>
+      <c r="N25" s="107"/>
+      <c r="O25" s="107"/>
+      <c r="P25" s="107"/>
+      <c r="Q25" s="108"/>
+      <c r="R25" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="S25" s="104"/>
-      <c r="T25" s="104"/>
-      <c r="U25" s="104"/>
-      <c r="V25" s="104"/>
-      <c r="W25" s="104"/>
-      <c r="X25" s="104"/>
-      <c r="Y25" s="105"/>
-      <c r="Z25" s="108" t="s">
+      <c r="S25" s="107"/>
+      <c r="T25" s="107"/>
+      <c r="U25" s="107"/>
+      <c r="V25" s="107"/>
+      <c r="W25" s="107"/>
+      <c r="X25" s="107"/>
+      <c r="Y25" s="108"/>
+      <c r="Z25" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="AA25" s="109"/>
-      <c r="AB25" s="109"/>
-      <c r="AC25" s="109"/>
-      <c r="AD25" s="109"/>
-      <c r="AE25" s="109"/>
-      <c r="AF25" s="109"/>
-      <c r="AG25" s="110"/>
-      <c r="AH25" s="108" t="s">
+      <c r="AA25" s="104"/>
+      <c r="AB25" s="104"/>
+      <c r="AC25" s="104"/>
+      <c r="AD25" s="104"/>
+      <c r="AE25" s="104"/>
+      <c r="AF25" s="104"/>
+      <c r="AG25" s="105"/>
+      <c r="AH25" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="AI25" s="109"/>
-      <c r="AJ25" s="109"/>
-      <c r="AK25" s="109"/>
-      <c r="AL25" s="109"/>
-      <c r="AM25" s="109"/>
-      <c r="AN25" s="109"/>
-      <c r="AO25" s="110"/>
-      <c r="AP25" s="103" t="s">
+      <c r="AI25" s="104"/>
+      <c r="AJ25" s="104"/>
+      <c r="AK25" s="104"/>
+      <c r="AL25" s="104"/>
+      <c r="AM25" s="104"/>
+      <c r="AN25" s="104"/>
+      <c r="AO25" s="105"/>
+      <c r="AP25" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="AQ25" s="104"/>
-      <c r="AR25" s="104"/>
-      <c r="AS25" s="104"/>
-      <c r="AT25" s="104"/>
-      <c r="AU25" s="104"/>
-      <c r="AV25" s="104"/>
-      <c r="AW25" s="105"/>
-      <c r="AX25" s="103" t="s">
+      <c r="AQ25" s="107"/>
+      <c r="AR25" s="107"/>
+      <c r="AS25" s="107"/>
+      <c r="AT25" s="107"/>
+      <c r="AU25" s="107"/>
+      <c r="AV25" s="107"/>
+      <c r="AW25" s="108"/>
+      <c r="AX25" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="AY25" s="104"/>
-      <c r="AZ25" s="104"/>
-      <c r="BA25" s="104"/>
-      <c r="BB25" s="104"/>
-      <c r="BC25" s="104"/>
-      <c r="BD25" s="104"/>
-      <c r="BE25" s="105"/>
-      <c r="BF25" s="103" t="s">
+      <c r="AY25" s="107"/>
+      <c r="AZ25" s="107"/>
+      <c r="BA25" s="107"/>
+      <c r="BB25" s="107"/>
+      <c r="BC25" s="107"/>
+      <c r="BD25" s="107"/>
+      <c r="BE25" s="108"/>
+      <c r="BF25" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="BG25" s="104"/>
-      <c r="BH25" s="104"/>
-      <c r="BI25" s="104"/>
-      <c r="BJ25" s="104"/>
-      <c r="BK25" s="104"/>
-      <c r="BL25" s="104"/>
-      <c r="BM25" s="105"/>
-      <c r="BN25" s="113" t="s">
+      <c r="BG25" s="107"/>
+      <c r="BH25" s="107"/>
+      <c r="BI25" s="107"/>
+      <c r="BJ25" s="107"/>
+      <c r="BK25" s="107"/>
+      <c r="BL25" s="107"/>
+      <c r="BM25" s="108"/>
+      <c r="BN25" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="BO25" s="114"/>
-      <c r="BP25" s="114"/>
-      <c r="BQ25" s="114"/>
-      <c r="BR25" s="114"/>
-      <c r="BS25" s="114"/>
-      <c r="BT25" s="114"/>
-      <c r="BU25" s="115"/>
-      <c r="BV25" s="113" t="s">
+      <c r="BO25" s="91"/>
+      <c r="BP25" s="91"/>
+      <c r="BQ25" s="91"/>
+      <c r="BR25" s="91"/>
+      <c r="BS25" s="91"/>
+      <c r="BT25" s="91"/>
+      <c r="BU25" s="92"/>
+      <c r="BV25" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="BW25" s="114"/>
-      <c r="BX25" s="114"/>
-      <c r="BY25" s="114"/>
-      <c r="BZ25" s="114"/>
-      <c r="CA25" s="114"/>
-      <c r="CB25" s="114"/>
-      <c r="CC25" s="115"/>
-      <c r="CD25" s="113" t="s">
+      <c r="BW25" s="91"/>
+      <c r="BX25" s="91"/>
+      <c r="BY25" s="91"/>
+      <c r="BZ25" s="91"/>
+      <c r="CA25" s="91"/>
+      <c r="CB25" s="91"/>
+      <c r="CC25" s="92"/>
+      <c r="CD25" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="CE25" s="114"/>
-      <c r="CF25" s="114"/>
-      <c r="CG25" s="114"/>
-      <c r="CH25" s="114"/>
-      <c r="CI25" s="114"/>
-      <c r="CJ25" s="114"/>
-      <c r="CK25" s="115"/>
-      <c r="CL25" s="113" t="s">
+      <c r="CE25" s="91"/>
+      <c r="CF25" s="91"/>
+      <c r="CG25" s="91"/>
+      <c r="CH25" s="91"/>
+      <c r="CI25" s="91"/>
+      <c r="CJ25" s="91"/>
+      <c r="CK25" s="92"/>
+      <c r="CL25" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="CM25" s="114"/>
-      <c r="CN25" s="114"/>
-      <c r="CO25" s="114"/>
-      <c r="CP25" s="114"/>
-      <c r="CQ25" s="114"/>
-      <c r="CR25" s="115"/>
+      <c r="CM25" s="91"/>
+      <c r="CN25" s="91"/>
+      <c r="CO25" s="91"/>
+      <c r="CP25" s="91"/>
+      <c r="CQ25" s="91"/>
+      <c r="CR25" s="92"/>
       <c r="CS25" s="4" t="s">
         <v>52</v>
       </c>
@@ -3214,2429 +3214,2429 @@
       <c r="A26">
         <v>1</v>
       </c>
-      <c r="B26" s="106" t="s">
+      <c r="B26" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="106"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="106"/>
-      <c r="J26" s="106"/>
-      <c r="K26" s="106"/>
-      <c r="L26" s="106"/>
-      <c r="M26" s="106"/>
-      <c r="N26" s="106"/>
-      <c r="O26" s="106"/>
-      <c r="P26" s="106"/>
-      <c r="Q26" s="106"/>
-      <c r="R26" s="106"/>
-      <c r="S26" s="106"/>
-      <c r="T26" s="106"/>
-      <c r="U26" s="106"/>
-      <c r="V26" s="106"/>
-      <c r="W26" s="106"/>
-      <c r="X26" s="106"/>
-      <c r="Y26" s="106"/>
-      <c r="Z26" s="106"/>
-      <c r="AA26" s="106"/>
-      <c r="AB26" s="106"/>
-      <c r="AC26" s="106"/>
-      <c r="AD26" s="106"/>
-      <c r="AE26" s="106"/>
-      <c r="AF26" s="106"/>
-      <c r="AG26" s="106"/>
-      <c r="AH26" s="106"/>
-      <c r="AI26" s="106"/>
-      <c r="AJ26" s="106"/>
-      <c r="AK26" s="106"/>
-      <c r="AL26" s="106"/>
-      <c r="AM26" s="106"/>
-      <c r="AN26" s="106"/>
-      <c r="AO26" s="106"/>
-      <c r="AP26" s="106"/>
-      <c r="AQ26" s="106"/>
-      <c r="AR26" s="106"/>
-      <c r="AS26" s="106"/>
-      <c r="AT26" s="106"/>
-      <c r="AU26" s="106"/>
-      <c r="AV26" s="106"/>
-      <c r="AW26" s="106"/>
-      <c r="AX26" s="112"/>
-      <c r="AY26" s="112"/>
-      <c r="AZ26" s="112"/>
-      <c r="BA26" s="112"/>
-      <c r="BB26" s="112"/>
-      <c r="BC26" s="112"/>
-      <c r="BD26" s="112"/>
-      <c r="BE26" s="112"/>
-      <c r="BF26" s="112"/>
-      <c r="BG26" s="112"/>
-      <c r="BH26" s="112"/>
-      <c r="BI26" s="112"/>
-      <c r="BJ26" s="112"/>
-      <c r="BK26" s="112"/>
-      <c r="BL26" s="112"/>
-      <c r="BM26" s="112"/>
-      <c r="BN26" s="116"/>
-      <c r="BO26" s="116"/>
-      <c r="BP26" s="116"/>
-      <c r="BQ26" s="116"/>
-      <c r="BR26" s="116"/>
-      <c r="BS26" s="116"/>
-      <c r="BT26" s="116"/>
-      <c r="BU26" s="116"/>
-      <c r="BV26" s="106"/>
-      <c r="BW26" s="106"/>
-      <c r="BX26" s="106"/>
-      <c r="BY26" s="106"/>
-      <c r="BZ26" s="106"/>
-      <c r="CA26" s="106"/>
-      <c r="CB26" s="106"/>
-      <c r="CC26" s="106"/>
-      <c r="CD26" s="106"/>
-      <c r="CE26" s="106"/>
-      <c r="CF26" s="106"/>
-      <c r="CG26" s="106"/>
-      <c r="CH26" s="106"/>
-      <c r="CI26" s="106"/>
-      <c r="CJ26" s="106"/>
-      <c r="CK26" s="106"/>
-      <c r="CL26" s="106"/>
-      <c r="CM26" s="106"/>
-      <c r="CN26" s="106"/>
-      <c r="CO26" s="106"/>
-      <c r="CP26" s="106"/>
-      <c r="CQ26" s="106"/>
-      <c r="CR26" s="106"/>
-      <c r="CS26" s="106"/>
-      <c r="CT26" s="106"/>
-      <c r="CU26" s="106"/>
-      <c r="CV26" s="106"/>
-      <c r="CW26" s="106"/>
-      <c r="CX26" s="106"/>
-      <c r="CY26" s="106"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="87"/>
+      <c r="K26" s="87"/>
+      <c r="L26" s="87"/>
+      <c r="M26" s="87"/>
+      <c r="N26" s="87"/>
+      <c r="O26" s="87"/>
+      <c r="P26" s="87"/>
+      <c r="Q26" s="87"/>
+      <c r="R26" s="87"/>
+      <c r="S26" s="87"/>
+      <c r="T26" s="87"/>
+      <c r="U26" s="87"/>
+      <c r="V26" s="87"/>
+      <c r="W26" s="87"/>
+      <c r="X26" s="87"/>
+      <c r="Y26" s="87"/>
+      <c r="Z26" s="87"/>
+      <c r="AA26" s="87"/>
+      <c r="AB26" s="87"/>
+      <c r="AC26" s="87"/>
+      <c r="AD26" s="87"/>
+      <c r="AE26" s="87"/>
+      <c r="AF26" s="87"/>
+      <c r="AG26" s="87"/>
+      <c r="AH26" s="87"/>
+      <c r="AI26" s="87"/>
+      <c r="AJ26" s="87"/>
+      <c r="AK26" s="87"/>
+      <c r="AL26" s="87"/>
+      <c r="AM26" s="87"/>
+      <c r="AN26" s="87"/>
+      <c r="AO26" s="87"/>
+      <c r="AP26" s="87"/>
+      <c r="AQ26" s="87"/>
+      <c r="AR26" s="87"/>
+      <c r="AS26" s="87"/>
+      <c r="AT26" s="87"/>
+      <c r="AU26" s="87"/>
+      <c r="AV26" s="87"/>
+      <c r="AW26" s="87"/>
+      <c r="AX26" s="109"/>
+      <c r="AY26" s="109"/>
+      <c r="AZ26" s="109"/>
+      <c r="BA26" s="109"/>
+      <c r="BB26" s="109"/>
+      <c r="BC26" s="109"/>
+      <c r="BD26" s="109"/>
+      <c r="BE26" s="109"/>
+      <c r="BF26" s="109"/>
+      <c r="BG26" s="109"/>
+      <c r="BH26" s="109"/>
+      <c r="BI26" s="109"/>
+      <c r="BJ26" s="109"/>
+      <c r="BK26" s="109"/>
+      <c r="BL26" s="109"/>
+      <c r="BM26" s="109"/>
+      <c r="BN26" s="110"/>
+      <c r="BO26" s="110"/>
+      <c r="BP26" s="110"/>
+      <c r="BQ26" s="110"/>
+      <c r="BR26" s="110"/>
+      <c r="BS26" s="110"/>
+      <c r="BT26" s="110"/>
+      <c r="BU26" s="110"/>
+      <c r="BV26" s="87"/>
+      <c r="BW26" s="87"/>
+      <c r="BX26" s="87"/>
+      <c r="BY26" s="87"/>
+      <c r="BZ26" s="87"/>
+      <c r="CA26" s="87"/>
+      <c r="CB26" s="87"/>
+      <c r="CC26" s="87"/>
+      <c r="CD26" s="87"/>
+      <c r="CE26" s="87"/>
+      <c r="CF26" s="87"/>
+      <c r="CG26" s="87"/>
+      <c r="CH26" s="87"/>
+      <c r="CI26" s="87"/>
+      <c r="CJ26" s="87"/>
+      <c r="CK26" s="87"/>
+      <c r="CL26" s="87"/>
+      <c r="CM26" s="87"/>
+      <c r="CN26" s="87"/>
+      <c r="CO26" s="87"/>
+      <c r="CP26" s="87"/>
+      <c r="CQ26" s="87"/>
+      <c r="CR26" s="87"/>
+      <c r="CS26" s="87"/>
+      <c r="CT26" s="87"/>
+      <c r="CU26" s="87"/>
+      <c r="CV26" s="87"/>
+      <c r="CW26" s="87"/>
+      <c r="CX26" s="87"/>
+      <c r="CY26" s="87"/>
     </row>
     <row r="27" spans="1:104">
       <c r="A27">
         <v>2</v>
       </c>
-      <c r="B27" s="95" t="s">
+      <c r="B27" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="95"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="95"/>
-      <c r="H27" s="95"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="95"/>
-      <c r="K27" s="95"/>
-      <c r="L27" s="95"/>
-      <c r="M27" s="95"/>
-      <c r="N27" s="95"/>
-      <c r="O27" s="95"/>
-      <c r="P27" s="95"/>
-      <c r="Q27" s="95"/>
-      <c r="R27" s="94"/>
-      <c r="S27" s="94"/>
-      <c r="T27" s="94"/>
-      <c r="U27" s="94"/>
-      <c r="V27" s="94"/>
-      <c r="W27" s="94"/>
-      <c r="X27" s="94"/>
-      <c r="Y27" s="94"/>
-      <c r="Z27" s="98"/>
-      <c r="AA27" s="98"/>
-      <c r="AB27" s="98"/>
-      <c r="AC27" s="98"/>
-      <c r="AD27" s="98"/>
-      <c r="AE27" s="98"/>
-      <c r="AF27" s="98"/>
-      <c r="AG27" s="98"/>
-      <c r="AH27" s="88"/>
-      <c r="AI27" s="88"/>
-      <c r="AJ27" s="88"/>
-      <c r="AK27" s="88"/>
-      <c r="AL27" s="88"/>
-      <c r="AM27" s="88"/>
-      <c r="AN27" s="88"/>
-      <c r="AO27" s="88"/>
-      <c r="AP27" s="94"/>
-      <c r="AQ27" s="94"/>
-      <c r="AR27" s="94"/>
-      <c r="AS27" s="94"/>
-      <c r="AT27" s="94"/>
-      <c r="AU27" s="94"/>
-      <c r="AV27" s="94"/>
-      <c r="AW27" s="94"/>
-      <c r="AX27" s="89"/>
-      <c r="AY27" s="89"/>
-      <c r="AZ27" s="89"/>
-      <c r="BA27" s="89"/>
-      <c r="BB27" s="89"/>
-      <c r="BC27" s="89"/>
-      <c r="BD27" s="89"/>
-      <c r="BE27" s="89"/>
-      <c r="BF27" s="89"/>
-      <c r="BG27" s="89"/>
-      <c r="BH27" s="89"/>
-      <c r="BI27" s="89"/>
-      <c r="BJ27" s="89"/>
-      <c r="BK27" s="89"/>
-      <c r="BL27" s="89"/>
-      <c r="BM27" s="89"/>
-      <c r="BN27" s="93"/>
-      <c r="BO27" s="93"/>
-      <c r="BP27" s="93"/>
-      <c r="BQ27" s="93"/>
-      <c r="BR27" s="93"/>
-      <c r="BS27" s="93"/>
-      <c r="BT27" s="93"/>
-      <c r="BU27" s="93"/>
-      <c r="BV27" s="117"/>
-      <c r="BW27" s="117"/>
-      <c r="BX27" s="117"/>
-      <c r="BY27" s="117"/>
-      <c r="BZ27" s="117"/>
-      <c r="CA27" s="117"/>
-      <c r="CB27" s="117"/>
-      <c r="CC27" s="117"/>
-      <c r="CD27" s="95"/>
-      <c r="CE27" s="95"/>
-      <c r="CF27" s="95"/>
-      <c r="CG27" s="95"/>
-      <c r="CH27" s="95"/>
-      <c r="CI27" s="95"/>
-      <c r="CJ27" s="95"/>
-      <c r="CK27" s="95"/>
-      <c r="CL27" s="95"/>
-      <c r="CM27" s="95"/>
-      <c r="CN27" s="95"/>
-      <c r="CO27" s="95"/>
-      <c r="CP27" s="95"/>
-      <c r="CQ27" s="95"/>
-      <c r="CR27" s="95"/>
-      <c r="CS27" s="94"/>
-      <c r="CT27" s="94"/>
-      <c r="CU27" s="94"/>
-      <c r="CV27" s="94"/>
-      <c r="CW27" s="94"/>
-      <c r="CX27" s="94"/>
-      <c r="CY27" s="94"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="89"/>
+      <c r="L27" s="89"/>
+      <c r="M27" s="89"/>
+      <c r="N27" s="89"/>
+      <c r="O27" s="89"/>
+      <c r="P27" s="89"/>
+      <c r="Q27" s="89"/>
+      <c r="R27" s="88"/>
+      <c r="S27" s="88"/>
+      <c r="T27" s="88"/>
+      <c r="U27" s="88"/>
+      <c r="V27" s="88"/>
+      <c r="W27" s="88"/>
+      <c r="X27" s="88"/>
+      <c r="Y27" s="88"/>
+      <c r="Z27" s="94"/>
+      <c r="AA27" s="94"/>
+      <c r="AB27" s="94"/>
+      <c r="AC27" s="94"/>
+      <c r="AD27" s="94"/>
+      <c r="AE27" s="94"/>
+      <c r="AF27" s="94"/>
+      <c r="AG27" s="94"/>
+      <c r="AH27" s="100"/>
+      <c r="AI27" s="100"/>
+      <c r="AJ27" s="100"/>
+      <c r="AK27" s="100"/>
+      <c r="AL27" s="100"/>
+      <c r="AM27" s="100"/>
+      <c r="AN27" s="100"/>
+      <c r="AO27" s="100"/>
+      <c r="AP27" s="88"/>
+      <c r="AQ27" s="88"/>
+      <c r="AR27" s="88"/>
+      <c r="AS27" s="88"/>
+      <c r="AT27" s="88"/>
+      <c r="AU27" s="88"/>
+      <c r="AV27" s="88"/>
+      <c r="AW27" s="88"/>
+      <c r="AX27" s="93"/>
+      <c r="AY27" s="93"/>
+      <c r="AZ27" s="93"/>
+      <c r="BA27" s="93"/>
+      <c r="BB27" s="93"/>
+      <c r="BC27" s="93"/>
+      <c r="BD27" s="93"/>
+      <c r="BE27" s="93"/>
+      <c r="BF27" s="93"/>
+      <c r="BG27" s="93"/>
+      <c r="BH27" s="93"/>
+      <c r="BI27" s="93"/>
+      <c r="BJ27" s="93"/>
+      <c r="BK27" s="93"/>
+      <c r="BL27" s="93"/>
+      <c r="BM27" s="93"/>
+      <c r="BN27" s="99"/>
+      <c r="BO27" s="99"/>
+      <c r="BP27" s="99"/>
+      <c r="BQ27" s="99"/>
+      <c r="BR27" s="99"/>
+      <c r="BS27" s="99"/>
+      <c r="BT27" s="99"/>
+      <c r="BU27" s="99"/>
+      <c r="BV27" s="98"/>
+      <c r="BW27" s="98"/>
+      <c r="BX27" s="98"/>
+      <c r="BY27" s="98"/>
+      <c r="BZ27" s="98"/>
+      <c r="CA27" s="98"/>
+      <c r="CB27" s="98"/>
+      <c r="CC27" s="98"/>
+      <c r="CD27" s="89"/>
+      <c r="CE27" s="89"/>
+      <c r="CF27" s="89"/>
+      <c r="CG27" s="89"/>
+      <c r="CH27" s="89"/>
+      <c r="CI27" s="89"/>
+      <c r="CJ27" s="89"/>
+      <c r="CK27" s="89"/>
+      <c r="CL27" s="89"/>
+      <c r="CM27" s="89"/>
+      <c r="CN27" s="89"/>
+      <c r="CO27" s="89"/>
+      <c r="CP27" s="89"/>
+      <c r="CQ27" s="89"/>
+      <c r="CR27" s="89"/>
+      <c r="CS27" s="88"/>
+      <c r="CT27" s="88"/>
+      <c r="CU27" s="88"/>
+      <c r="CV27" s="88"/>
+      <c r="CW27" s="88"/>
+      <c r="CX27" s="88"/>
+      <c r="CY27" s="88"/>
     </row>
     <row r="28" spans="1:104">
       <c r="A28" s="63">
         <v>3</v>
       </c>
-      <c r="B28" s="95" t="s">
+      <c r="B28" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="95"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="95"/>
-      <c r="I28" s="95"/>
-      <c r="J28" s="95"/>
-      <c r="K28" s="95"/>
-      <c r="L28" s="95"/>
-      <c r="M28" s="95"/>
-      <c r="N28" s="95"/>
-      <c r="O28" s="95"/>
-      <c r="P28" s="95"/>
-      <c r="Q28" s="95"/>
-      <c r="R28" s="94"/>
-      <c r="S28" s="94"/>
-      <c r="T28" s="94"/>
-      <c r="U28" s="94"/>
-      <c r="V28" s="94"/>
-      <c r="W28" s="94"/>
-      <c r="X28" s="94"/>
-      <c r="Y28" s="94"/>
-      <c r="Z28" s="98"/>
-      <c r="AA28" s="98"/>
-      <c r="AB28" s="98"/>
-      <c r="AC28" s="98"/>
-      <c r="AD28" s="98"/>
-      <c r="AE28" s="98"/>
-      <c r="AF28" s="98"/>
-      <c r="AG28" s="98"/>
-      <c r="AH28" s="88"/>
-      <c r="AI28" s="88"/>
-      <c r="AJ28" s="88"/>
-      <c r="AK28" s="88"/>
-      <c r="AL28" s="88"/>
-      <c r="AM28" s="88"/>
-      <c r="AN28" s="88"/>
-      <c r="AO28" s="88"/>
-      <c r="AP28" s="94"/>
-      <c r="AQ28" s="94"/>
-      <c r="AR28" s="94"/>
-      <c r="AS28" s="94"/>
-      <c r="AT28" s="94"/>
-      <c r="AU28" s="94"/>
-      <c r="AV28" s="94"/>
-      <c r="AW28" s="94"/>
-      <c r="AX28" s="89"/>
-      <c r="AY28" s="89"/>
-      <c r="AZ28" s="89"/>
-      <c r="BA28" s="89"/>
-      <c r="BB28" s="89"/>
-      <c r="BC28" s="89"/>
-      <c r="BD28" s="89"/>
-      <c r="BE28" s="89"/>
-      <c r="BF28" s="89"/>
-      <c r="BG28" s="89"/>
-      <c r="BH28" s="89"/>
-      <c r="BI28" s="89"/>
-      <c r="BJ28" s="89"/>
-      <c r="BK28" s="89"/>
-      <c r="BL28" s="89"/>
-      <c r="BM28" s="89"/>
-      <c r="BN28" s="93"/>
-      <c r="BO28" s="93"/>
-      <c r="BP28" s="93"/>
-      <c r="BQ28" s="93"/>
-      <c r="BR28" s="93"/>
-      <c r="BS28" s="93"/>
-      <c r="BT28" s="93"/>
-      <c r="BU28" s="93"/>
-      <c r="BV28" s="89"/>
-      <c r="BW28" s="89"/>
-      <c r="BX28" s="89"/>
-      <c r="BY28" s="89"/>
-      <c r="BZ28" s="89"/>
-      <c r="CA28" s="89"/>
-      <c r="CB28" s="89"/>
-      <c r="CC28" s="89"/>
-      <c r="CD28" s="95"/>
-      <c r="CE28" s="95"/>
-      <c r="CF28" s="95"/>
-      <c r="CG28" s="95"/>
-      <c r="CH28" s="95"/>
-      <c r="CI28" s="95"/>
-      <c r="CJ28" s="95"/>
-      <c r="CK28" s="95"/>
-      <c r="CL28" s="94"/>
-      <c r="CM28" s="94"/>
-      <c r="CN28" s="94"/>
-      <c r="CO28" s="94"/>
-      <c r="CP28" s="94"/>
-      <c r="CQ28" s="94"/>
-      <c r="CR28" s="94"/>
-      <c r="CS28" s="94"/>
-      <c r="CT28" s="94"/>
-      <c r="CU28" s="94"/>
-      <c r="CV28" s="94"/>
-      <c r="CW28" s="94"/>
-      <c r="CX28" s="94"/>
-      <c r="CY28" s="94"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="89"/>
+      <c r="K28" s="89"/>
+      <c r="L28" s="89"/>
+      <c r="M28" s="89"/>
+      <c r="N28" s="89"/>
+      <c r="O28" s="89"/>
+      <c r="P28" s="89"/>
+      <c r="Q28" s="89"/>
+      <c r="R28" s="88"/>
+      <c r="S28" s="88"/>
+      <c r="T28" s="88"/>
+      <c r="U28" s="88"/>
+      <c r="V28" s="88"/>
+      <c r="W28" s="88"/>
+      <c r="X28" s="88"/>
+      <c r="Y28" s="88"/>
+      <c r="Z28" s="94"/>
+      <c r="AA28" s="94"/>
+      <c r="AB28" s="94"/>
+      <c r="AC28" s="94"/>
+      <c r="AD28" s="94"/>
+      <c r="AE28" s="94"/>
+      <c r="AF28" s="94"/>
+      <c r="AG28" s="94"/>
+      <c r="AH28" s="100"/>
+      <c r="AI28" s="100"/>
+      <c r="AJ28" s="100"/>
+      <c r="AK28" s="100"/>
+      <c r="AL28" s="100"/>
+      <c r="AM28" s="100"/>
+      <c r="AN28" s="100"/>
+      <c r="AO28" s="100"/>
+      <c r="AP28" s="88"/>
+      <c r="AQ28" s="88"/>
+      <c r="AR28" s="88"/>
+      <c r="AS28" s="88"/>
+      <c r="AT28" s="88"/>
+      <c r="AU28" s="88"/>
+      <c r="AV28" s="88"/>
+      <c r="AW28" s="88"/>
+      <c r="AX28" s="93"/>
+      <c r="AY28" s="93"/>
+      <c r="AZ28" s="93"/>
+      <c r="BA28" s="93"/>
+      <c r="BB28" s="93"/>
+      <c r="BC28" s="93"/>
+      <c r="BD28" s="93"/>
+      <c r="BE28" s="93"/>
+      <c r="BF28" s="93"/>
+      <c r="BG28" s="93"/>
+      <c r="BH28" s="93"/>
+      <c r="BI28" s="93"/>
+      <c r="BJ28" s="93"/>
+      <c r="BK28" s="93"/>
+      <c r="BL28" s="93"/>
+      <c r="BM28" s="93"/>
+      <c r="BN28" s="99"/>
+      <c r="BO28" s="99"/>
+      <c r="BP28" s="99"/>
+      <c r="BQ28" s="99"/>
+      <c r="BR28" s="99"/>
+      <c r="BS28" s="99"/>
+      <c r="BT28" s="99"/>
+      <c r="BU28" s="99"/>
+      <c r="BV28" s="93"/>
+      <c r="BW28" s="93"/>
+      <c r="BX28" s="93"/>
+      <c r="BY28" s="93"/>
+      <c r="BZ28" s="93"/>
+      <c r="CA28" s="93"/>
+      <c r="CB28" s="93"/>
+      <c r="CC28" s="93"/>
+      <c r="CD28" s="89"/>
+      <c r="CE28" s="89"/>
+      <c r="CF28" s="89"/>
+      <c r="CG28" s="89"/>
+      <c r="CH28" s="89"/>
+      <c r="CI28" s="89"/>
+      <c r="CJ28" s="89"/>
+      <c r="CK28" s="89"/>
+      <c r="CL28" s="88"/>
+      <c r="CM28" s="88"/>
+      <c r="CN28" s="88"/>
+      <c r="CO28" s="88"/>
+      <c r="CP28" s="88"/>
+      <c r="CQ28" s="88"/>
+      <c r="CR28" s="88"/>
+      <c r="CS28" s="88"/>
+      <c r="CT28" s="88"/>
+      <c r="CU28" s="88"/>
+      <c r="CV28" s="88"/>
+      <c r="CW28" s="88"/>
+      <c r="CX28" s="88"/>
+      <c r="CY28" s="88"/>
     </row>
     <row r="29" spans="1:104">
       <c r="A29" s="63">
         <v>4</v>
       </c>
-      <c r="B29" s="95" t="s">
+      <c r="B29" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="95"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="95"/>
-      <c r="I29" s="95"/>
-      <c r="J29" s="95"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="95"/>
-      <c r="M29" s="95"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="94"/>
-      <c r="S29" s="94"/>
-      <c r="T29" s="94"/>
-      <c r="U29" s="94"/>
-      <c r="V29" s="94"/>
-      <c r="W29" s="94"/>
-      <c r="X29" s="94"/>
-      <c r="Y29" s="94"/>
-      <c r="Z29" s="98"/>
-      <c r="AA29" s="98"/>
-      <c r="AB29" s="98"/>
-      <c r="AC29" s="98"/>
-      <c r="AD29" s="98"/>
-      <c r="AE29" s="98"/>
-      <c r="AF29" s="98"/>
-      <c r="AG29" s="98"/>
-      <c r="AH29" s="88"/>
-      <c r="AI29" s="88"/>
-      <c r="AJ29" s="88"/>
-      <c r="AK29" s="88"/>
-      <c r="AL29" s="88"/>
-      <c r="AM29" s="88"/>
-      <c r="AN29" s="88"/>
-      <c r="AO29" s="88"/>
-      <c r="AP29" s="94"/>
-      <c r="AQ29" s="94"/>
-      <c r="AR29" s="94"/>
-      <c r="AS29" s="94"/>
-      <c r="AT29" s="94"/>
-      <c r="AU29" s="94"/>
-      <c r="AV29" s="94"/>
-      <c r="AW29" s="94"/>
-      <c r="AX29" s="89"/>
-      <c r="AY29" s="89"/>
-      <c r="AZ29" s="89"/>
-      <c r="BA29" s="89"/>
-      <c r="BB29" s="89"/>
-      <c r="BC29" s="89"/>
-      <c r="BD29" s="89"/>
-      <c r="BE29" s="89"/>
-      <c r="BF29" s="89"/>
-      <c r="BG29" s="89"/>
-      <c r="BH29" s="89"/>
-      <c r="BI29" s="89"/>
-      <c r="BJ29" s="89"/>
-      <c r="BK29" s="89"/>
-      <c r="BL29" s="89"/>
-      <c r="BM29" s="89"/>
-      <c r="BN29" s="88"/>
-      <c r="BO29" s="88"/>
-      <c r="BP29" s="88"/>
-      <c r="BQ29" s="88"/>
-      <c r="BR29" s="88"/>
-      <c r="BS29" s="88"/>
-      <c r="BT29" s="88"/>
-      <c r="BU29" s="88"/>
-      <c r="BV29" s="89"/>
-      <c r="BW29" s="89"/>
-      <c r="BX29" s="89"/>
-      <c r="BY29" s="89"/>
-      <c r="BZ29" s="89"/>
-      <c r="CA29" s="89"/>
-      <c r="CB29" s="89"/>
-      <c r="CC29" s="89"/>
-      <c r="CD29" s="95"/>
-      <c r="CE29" s="95"/>
-      <c r="CF29" s="95"/>
-      <c r="CG29" s="95"/>
-      <c r="CH29" s="95"/>
-      <c r="CI29" s="95"/>
-      <c r="CJ29" s="95"/>
-      <c r="CK29" s="95"/>
-      <c r="CL29" s="106"/>
-      <c r="CM29" s="106"/>
-      <c r="CN29" s="106"/>
-      <c r="CO29" s="106"/>
-      <c r="CP29" s="106"/>
-      <c r="CQ29" s="106"/>
-      <c r="CR29" s="106"/>
-      <c r="CS29" s="94"/>
-      <c r="CT29" s="94"/>
-      <c r="CU29" s="94"/>
-      <c r="CV29" s="94"/>
-      <c r="CW29" s="94"/>
-      <c r="CX29" s="94"/>
-      <c r="CY29" s="94"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="89"/>
+      <c r="J29" s="89"/>
+      <c r="K29" s="89"/>
+      <c r="L29" s="89"/>
+      <c r="M29" s="89"/>
+      <c r="N29" s="89"/>
+      <c r="O29" s="89"/>
+      <c r="P29" s="89"/>
+      <c r="Q29" s="89"/>
+      <c r="R29" s="88"/>
+      <c r="S29" s="88"/>
+      <c r="T29" s="88"/>
+      <c r="U29" s="88"/>
+      <c r="V29" s="88"/>
+      <c r="W29" s="88"/>
+      <c r="X29" s="88"/>
+      <c r="Y29" s="88"/>
+      <c r="Z29" s="94"/>
+      <c r="AA29" s="94"/>
+      <c r="AB29" s="94"/>
+      <c r="AC29" s="94"/>
+      <c r="AD29" s="94"/>
+      <c r="AE29" s="94"/>
+      <c r="AF29" s="94"/>
+      <c r="AG29" s="94"/>
+      <c r="AH29" s="100"/>
+      <c r="AI29" s="100"/>
+      <c r="AJ29" s="100"/>
+      <c r="AK29" s="100"/>
+      <c r="AL29" s="100"/>
+      <c r="AM29" s="100"/>
+      <c r="AN29" s="100"/>
+      <c r="AO29" s="100"/>
+      <c r="AP29" s="88"/>
+      <c r="AQ29" s="88"/>
+      <c r="AR29" s="88"/>
+      <c r="AS29" s="88"/>
+      <c r="AT29" s="88"/>
+      <c r="AU29" s="88"/>
+      <c r="AV29" s="88"/>
+      <c r="AW29" s="88"/>
+      <c r="AX29" s="93"/>
+      <c r="AY29" s="93"/>
+      <c r="AZ29" s="93"/>
+      <c r="BA29" s="93"/>
+      <c r="BB29" s="93"/>
+      <c r="BC29" s="93"/>
+      <c r="BD29" s="93"/>
+      <c r="BE29" s="93"/>
+      <c r="BF29" s="93"/>
+      <c r="BG29" s="93"/>
+      <c r="BH29" s="93"/>
+      <c r="BI29" s="93"/>
+      <c r="BJ29" s="93"/>
+      <c r="BK29" s="93"/>
+      <c r="BL29" s="93"/>
+      <c r="BM29" s="93"/>
+      <c r="BN29" s="100"/>
+      <c r="BO29" s="100"/>
+      <c r="BP29" s="100"/>
+      <c r="BQ29" s="100"/>
+      <c r="BR29" s="100"/>
+      <c r="BS29" s="100"/>
+      <c r="BT29" s="100"/>
+      <c r="BU29" s="100"/>
+      <c r="BV29" s="93"/>
+      <c r="BW29" s="93"/>
+      <c r="BX29" s="93"/>
+      <c r="BY29" s="93"/>
+      <c r="BZ29" s="93"/>
+      <c r="CA29" s="93"/>
+      <c r="CB29" s="93"/>
+      <c r="CC29" s="93"/>
+      <c r="CD29" s="89"/>
+      <c r="CE29" s="89"/>
+      <c r="CF29" s="89"/>
+      <c r="CG29" s="89"/>
+      <c r="CH29" s="89"/>
+      <c r="CI29" s="89"/>
+      <c r="CJ29" s="89"/>
+      <c r="CK29" s="89"/>
+      <c r="CL29" s="87"/>
+      <c r="CM29" s="87"/>
+      <c r="CN29" s="87"/>
+      <c r="CO29" s="87"/>
+      <c r="CP29" s="87"/>
+      <c r="CQ29" s="87"/>
+      <c r="CR29" s="87"/>
+      <c r="CS29" s="88"/>
+      <c r="CT29" s="88"/>
+      <c r="CU29" s="88"/>
+      <c r="CV29" s="88"/>
+      <c r="CW29" s="88"/>
+      <c r="CX29" s="88"/>
+      <c r="CY29" s="88"/>
       <c r="CZ29" s="76"/>
     </row>
     <row r="30" spans="1:104">
       <c r="A30" s="63">
         <v>5</v>
       </c>
-      <c r="B30" s="95" t="s">
+      <c r="B30" s="89" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="95"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="95"/>
-      <c r="H30" s="95"/>
-      <c r="I30" s="95"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="95"/>
-      <c r="N30" s="95"/>
-      <c r="O30" s="95"/>
-      <c r="P30" s="95"/>
-      <c r="Q30" s="95"/>
-      <c r="R30" s="94"/>
-      <c r="S30" s="94"/>
-      <c r="T30" s="94"/>
-      <c r="U30" s="94"/>
-      <c r="V30" s="94"/>
-      <c r="W30" s="94"/>
-      <c r="X30" s="94"/>
-      <c r="Y30" s="94"/>
-      <c r="Z30" s="98"/>
-      <c r="AA30" s="98"/>
-      <c r="AB30" s="98"/>
-      <c r="AC30" s="98"/>
-      <c r="AD30" s="98"/>
-      <c r="AE30" s="98"/>
-      <c r="AF30" s="98"/>
-      <c r="AG30" s="98"/>
-      <c r="AH30" s="88"/>
-      <c r="AI30" s="88"/>
-      <c r="AJ30" s="88"/>
-      <c r="AK30" s="88"/>
-      <c r="AL30" s="88"/>
-      <c r="AM30" s="88"/>
-      <c r="AN30" s="88"/>
-      <c r="AO30" s="88"/>
-      <c r="AP30" s="95"/>
-      <c r="AQ30" s="95"/>
-      <c r="AR30" s="95"/>
-      <c r="AS30" s="95"/>
-      <c r="AT30" s="95"/>
-      <c r="AU30" s="95"/>
-      <c r="AV30" s="95"/>
-      <c r="AW30" s="95"/>
-      <c r="AX30" s="88"/>
-      <c r="AY30" s="88"/>
-      <c r="AZ30" s="88"/>
-      <c r="BA30" s="88"/>
-      <c r="BB30" s="88"/>
-      <c r="BC30" s="88"/>
-      <c r="BD30" s="88"/>
-      <c r="BE30" s="88"/>
-      <c r="BF30" s="88"/>
-      <c r="BG30" s="88"/>
-      <c r="BH30" s="88"/>
-      <c r="BI30" s="88"/>
-      <c r="BJ30" s="88"/>
-      <c r="BK30" s="88"/>
-      <c r="BL30" s="88"/>
-      <c r="BM30" s="88"/>
-      <c r="BN30" s="88"/>
-      <c r="BO30" s="88"/>
-      <c r="BP30" s="88"/>
-      <c r="BQ30" s="88"/>
-      <c r="BR30" s="88"/>
-      <c r="BS30" s="88"/>
-      <c r="BT30" s="88"/>
-      <c r="BU30" s="88"/>
-      <c r="BV30" s="89"/>
-      <c r="BW30" s="89"/>
-      <c r="BX30" s="89"/>
-      <c r="BY30" s="89"/>
-      <c r="BZ30" s="89"/>
-      <c r="CA30" s="89"/>
-      <c r="CB30" s="89"/>
-      <c r="CC30" s="89"/>
-      <c r="CD30" s="89"/>
-      <c r="CE30" s="89"/>
-      <c r="CF30" s="89"/>
-      <c r="CG30" s="89"/>
-      <c r="CH30" s="89"/>
-      <c r="CI30" s="89"/>
-      <c r="CJ30" s="89"/>
-      <c r="CK30" s="89"/>
-      <c r="CL30" s="106"/>
-      <c r="CM30" s="106"/>
-      <c r="CN30" s="106"/>
-      <c r="CO30" s="106"/>
-      <c r="CP30" s="106"/>
-      <c r="CQ30" s="106"/>
-      <c r="CR30" s="106"/>
-      <c r="CS30" s="94"/>
-      <c r="CT30" s="94"/>
-      <c r="CU30" s="94"/>
-      <c r="CV30" s="94"/>
-      <c r="CW30" s="94"/>
-      <c r="CX30" s="94"/>
-      <c r="CY30" s="94"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="89"/>
+      <c r="I30" s="89"/>
+      <c r="J30" s="89"/>
+      <c r="K30" s="89"/>
+      <c r="L30" s="89"/>
+      <c r="M30" s="89"/>
+      <c r="N30" s="89"/>
+      <c r="O30" s="89"/>
+      <c r="P30" s="89"/>
+      <c r="Q30" s="89"/>
+      <c r="R30" s="88"/>
+      <c r="S30" s="88"/>
+      <c r="T30" s="88"/>
+      <c r="U30" s="88"/>
+      <c r="V30" s="88"/>
+      <c r="W30" s="88"/>
+      <c r="X30" s="88"/>
+      <c r="Y30" s="88"/>
+      <c r="Z30" s="94"/>
+      <c r="AA30" s="94"/>
+      <c r="AB30" s="94"/>
+      <c r="AC30" s="94"/>
+      <c r="AD30" s="94"/>
+      <c r="AE30" s="94"/>
+      <c r="AF30" s="94"/>
+      <c r="AG30" s="94"/>
+      <c r="AH30" s="100"/>
+      <c r="AI30" s="100"/>
+      <c r="AJ30" s="100"/>
+      <c r="AK30" s="100"/>
+      <c r="AL30" s="100"/>
+      <c r="AM30" s="100"/>
+      <c r="AN30" s="100"/>
+      <c r="AO30" s="100"/>
+      <c r="AP30" s="89"/>
+      <c r="AQ30" s="89"/>
+      <c r="AR30" s="89"/>
+      <c r="AS30" s="89"/>
+      <c r="AT30" s="89"/>
+      <c r="AU30" s="89"/>
+      <c r="AV30" s="89"/>
+      <c r="AW30" s="89"/>
+      <c r="AX30" s="100"/>
+      <c r="AY30" s="100"/>
+      <c r="AZ30" s="100"/>
+      <c r="BA30" s="100"/>
+      <c r="BB30" s="100"/>
+      <c r="BC30" s="100"/>
+      <c r="BD30" s="100"/>
+      <c r="BE30" s="100"/>
+      <c r="BF30" s="100"/>
+      <c r="BG30" s="100"/>
+      <c r="BH30" s="100"/>
+      <c r="BI30" s="100"/>
+      <c r="BJ30" s="100"/>
+      <c r="BK30" s="100"/>
+      <c r="BL30" s="100"/>
+      <c r="BM30" s="100"/>
+      <c r="BN30" s="100"/>
+      <c r="BO30" s="100"/>
+      <c r="BP30" s="100"/>
+      <c r="BQ30" s="100"/>
+      <c r="BR30" s="100"/>
+      <c r="BS30" s="100"/>
+      <c r="BT30" s="100"/>
+      <c r="BU30" s="100"/>
+      <c r="BV30" s="93"/>
+      <c r="BW30" s="93"/>
+      <c r="BX30" s="93"/>
+      <c r="BY30" s="93"/>
+      <c r="BZ30" s="93"/>
+      <c r="CA30" s="93"/>
+      <c r="CB30" s="93"/>
+      <c r="CC30" s="93"/>
+      <c r="CD30" s="93"/>
+      <c r="CE30" s="93"/>
+      <c r="CF30" s="93"/>
+      <c r="CG30" s="93"/>
+      <c r="CH30" s="93"/>
+      <c r="CI30" s="93"/>
+      <c r="CJ30" s="93"/>
+      <c r="CK30" s="93"/>
+      <c r="CL30" s="87"/>
+      <c r="CM30" s="87"/>
+      <c r="CN30" s="87"/>
+      <c r="CO30" s="87"/>
+      <c r="CP30" s="87"/>
+      <c r="CQ30" s="87"/>
+      <c r="CR30" s="87"/>
+      <c r="CS30" s="88"/>
+      <c r="CT30" s="88"/>
+      <c r="CU30" s="88"/>
+      <c r="CV30" s="88"/>
+      <c r="CW30" s="88"/>
+      <c r="CX30" s="88"/>
+      <c r="CY30" s="88"/>
       <c r="CZ30" s="76"/>
     </row>
     <row r="31" spans="1:104">
       <c r="A31" s="63">
         <v>6</v>
       </c>
-      <c r="B31" s="95" t="s">
+      <c r="B31" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="95"/>
-      <c r="D31" s="95"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="95"/>
-      <c r="H31" s="95"/>
-      <c r="I31" s="95"/>
-      <c r="J31" s="95"/>
-      <c r="K31" s="95"/>
-      <c r="L31" s="95"/>
-      <c r="M31" s="95"/>
-      <c r="N31" s="95"/>
-      <c r="O31" s="95"/>
-      <c r="P31" s="95"/>
-      <c r="Q31" s="95"/>
-      <c r="R31" s="94"/>
-      <c r="S31" s="94"/>
-      <c r="T31" s="94"/>
-      <c r="U31" s="94"/>
-      <c r="V31" s="94"/>
-      <c r="W31" s="94"/>
-      <c r="X31" s="94"/>
-      <c r="Y31" s="94"/>
-      <c r="Z31" s="98"/>
-      <c r="AA31" s="98"/>
-      <c r="AB31" s="98"/>
-      <c r="AC31" s="98"/>
-      <c r="AD31" s="98"/>
-      <c r="AE31" s="98"/>
-      <c r="AF31" s="98"/>
-      <c r="AG31" s="98"/>
-      <c r="AH31" s="98"/>
-      <c r="AI31" s="98"/>
-      <c r="AJ31" s="98"/>
-      <c r="AK31" s="98"/>
-      <c r="AL31" s="98"/>
-      <c r="AM31" s="98"/>
-      <c r="AN31" s="98"/>
-      <c r="AO31" s="98"/>
-      <c r="AP31" s="99"/>
-      <c r="AQ31" s="99"/>
-      <c r="AR31" s="99"/>
-      <c r="AS31" s="99"/>
-      <c r="AT31" s="99"/>
-      <c r="AU31" s="99"/>
-      <c r="AV31" s="99"/>
-      <c r="AW31" s="99"/>
-      <c r="AX31" s="88"/>
-      <c r="AY31" s="88"/>
-      <c r="AZ31" s="88"/>
-      <c r="BA31" s="88"/>
-      <c r="BB31" s="88"/>
-      <c r="BC31" s="88"/>
-      <c r="BD31" s="88"/>
-      <c r="BE31" s="88"/>
-      <c r="BF31" s="88"/>
-      <c r="BG31" s="88"/>
-      <c r="BH31" s="88"/>
-      <c r="BI31" s="88"/>
-      <c r="BJ31" s="88"/>
-      <c r="BK31" s="88"/>
-      <c r="BL31" s="88"/>
-      <c r="BM31" s="88"/>
-      <c r="BN31" s="88"/>
-      <c r="BO31" s="88"/>
-      <c r="BP31" s="88"/>
-      <c r="BQ31" s="88"/>
-      <c r="BR31" s="88"/>
-      <c r="BS31" s="88"/>
-      <c r="BT31" s="88"/>
-      <c r="BU31" s="88"/>
-      <c r="BV31" s="89"/>
-      <c r="BW31" s="89"/>
-      <c r="BX31" s="89"/>
-      <c r="BY31" s="89"/>
-      <c r="BZ31" s="89"/>
-      <c r="CA31" s="89"/>
-      <c r="CB31" s="89"/>
-      <c r="CC31" s="89"/>
-      <c r="CD31" s="89"/>
-      <c r="CE31" s="89"/>
-      <c r="CF31" s="89"/>
-      <c r="CG31" s="89"/>
-      <c r="CH31" s="89"/>
-      <c r="CI31" s="89"/>
-      <c r="CJ31" s="89"/>
-      <c r="CK31" s="89"/>
-      <c r="CL31" s="106"/>
-      <c r="CM31" s="106"/>
-      <c r="CN31" s="106"/>
-      <c r="CO31" s="106"/>
-      <c r="CP31" s="106"/>
-      <c r="CQ31" s="106"/>
-      <c r="CR31" s="106"/>
-      <c r="CS31" s="94"/>
-      <c r="CT31" s="94"/>
-      <c r="CU31" s="94"/>
-      <c r="CV31" s="94"/>
-      <c r="CW31" s="94"/>
-      <c r="CX31" s="94"/>
-      <c r="CY31" s="94"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="89"/>
+      <c r="K31" s="89"/>
+      <c r="L31" s="89"/>
+      <c r="M31" s="89"/>
+      <c r="N31" s="89"/>
+      <c r="O31" s="89"/>
+      <c r="P31" s="89"/>
+      <c r="Q31" s="89"/>
+      <c r="R31" s="88"/>
+      <c r="S31" s="88"/>
+      <c r="T31" s="88"/>
+      <c r="U31" s="88"/>
+      <c r="V31" s="88"/>
+      <c r="W31" s="88"/>
+      <c r="X31" s="88"/>
+      <c r="Y31" s="88"/>
+      <c r="Z31" s="94"/>
+      <c r="AA31" s="94"/>
+      <c r="AB31" s="94"/>
+      <c r="AC31" s="94"/>
+      <c r="AD31" s="94"/>
+      <c r="AE31" s="94"/>
+      <c r="AF31" s="94"/>
+      <c r="AG31" s="94"/>
+      <c r="AH31" s="94"/>
+      <c r="AI31" s="94"/>
+      <c r="AJ31" s="94"/>
+      <c r="AK31" s="94"/>
+      <c r="AL31" s="94"/>
+      <c r="AM31" s="94"/>
+      <c r="AN31" s="94"/>
+      <c r="AO31" s="94"/>
+      <c r="AP31" s="101"/>
+      <c r="AQ31" s="101"/>
+      <c r="AR31" s="101"/>
+      <c r="AS31" s="101"/>
+      <c r="AT31" s="101"/>
+      <c r="AU31" s="101"/>
+      <c r="AV31" s="101"/>
+      <c r="AW31" s="101"/>
+      <c r="AX31" s="100"/>
+      <c r="AY31" s="100"/>
+      <c r="AZ31" s="100"/>
+      <c r="BA31" s="100"/>
+      <c r="BB31" s="100"/>
+      <c r="BC31" s="100"/>
+      <c r="BD31" s="100"/>
+      <c r="BE31" s="100"/>
+      <c r="BF31" s="100"/>
+      <c r="BG31" s="100"/>
+      <c r="BH31" s="100"/>
+      <c r="BI31" s="100"/>
+      <c r="BJ31" s="100"/>
+      <c r="BK31" s="100"/>
+      <c r="BL31" s="100"/>
+      <c r="BM31" s="100"/>
+      <c r="BN31" s="100"/>
+      <c r="BO31" s="100"/>
+      <c r="BP31" s="100"/>
+      <c r="BQ31" s="100"/>
+      <c r="BR31" s="100"/>
+      <c r="BS31" s="100"/>
+      <c r="BT31" s="100"/>
+      <c r="BU31" s="100"/>
+      <c r="BV31" s="93"/>
+      <c r="BW31" s="93"/>
+      <c r="BX31" s="93"/>
+      <c r="BY31" s="93"/>
+      <c r="BZ31" s="93"/>
+      <c r="CA31" s="93"/>
+      <c r="CB31" s="93"/>
+      <c r="CC31" s="93"/>
+      <c r="CD31" s="93"/>
+      <c r="CE31" s="93"/>
+      <c r="CF31" s="93"/>
+      <c r="CG31" s="93"/>
+      <c r="CH31" s="93"/>
+      <c r="CI31" s="93"/>
+      <c r="CJ31" s="93"/>
+      <c r="CK31" s="93"/>
+      <c r="CL31" s="87"/>
+      <c r="CM31" s="87"/>
+      <c r="CN31" s="87"/>
+      <c r="CO31" s="87"/>
+      <c r="CP31" s="87"/>
+      <c r="CQ31" s="87"/>
+      <c r="CR31" s="87"/>
+      <c r="CS31" s="88"/>
+      <c r="CT31" s="88"/>
+      <c r="CU31" s="88"/>
+      <c r="CV31" s="88"/>
+      <c r="CW31" s="88"/>
+      <c r="CX31" s="88"/>
+      <c r="CY31" s="88"/>
       <c r="CZ31" s="76"/>
     </row>
     <row r="32" spans="1:104">
       <c r="A32" s="63">
         <v>7</v>
       </c>
-      <c r="B32" s="95" t="s">
+      <c r="B32" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="95"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="95"/>
-      <c r="G32" s="95"/>
-      <c r="H32" s="95"/>
-      <c r="I32" s="95"/>
-      <c r="J32" s="95"/>
-      <c r="K32" s="95"/>
-      <c r="L32" s="95"/>
-      <c r="M32" s="95"/>
-      <c r="N32" s="95"/>
-      <c r="O32" s="95"/>
-      <c r="P32" s="95"/>
-      <c r="Q32" s="95"/>
-      <c r="R32" s="94"/>
-      <c r="S32" s="94"/>
-      <c r="T32" s="94"/>
-      <c r="U32" s="94"/>
-      <c r="V32" s="94"/>
-      <c r="W32" s="94"/>
-      <c r="X32" s="94"/>
-      <c r="Y32" s="94"/>
-      <c r="Z32" s="98"/>
-      <c r="AA32" s="98"/>
-      <c r="AB32" s="98"/>
-      <c r="AC32" s="98"/>
-      <c r="AD32" s="98"/>
-      <c r="AE32" s="98"/>
-      <c r="AF32" s="98"/>
-      <c r="AG32" s="98"/>
-      <c r="AH32" s="98"/>
-      <c r="AI32" s="98"/>
-      <c r="AJ32" s="98"/>
-      <c r="AK32" s="98"/>
-      <c r="AL32" s="98"/>
-      <c r="AM32" s="98"/>
-      <c r="AN32" s="98"/>
-      <c r="AO32" s="98"/>
-      <c r="AP32" s="99"/>
-      <c r="AQ32" s="99"/>
-      <c r="AR32" s="99"/>
-      <c r="AS32" s="99"/>
-      <c r="AT32" s="99"/>
-      <c r="AU32" s="99"/>
-      <c r="AV32" s="99"/>
-      <c r="AW32" s="99"/>
-      <c r="AX32" s="88"/>
-      <c r="AY32" s="88"/>
-      <c r="AZ32" s="88"/>
-      <c r="BA32" s="88"/>
-      <c r="BB32" s="88"/>
-      <c r="BC32" s="88"/>
-      <c r="BD32" s="88"/>
-      <c r="BE32" s="88"/>
-      <c r="BF32" s="88"/>
-      <c r="BG32" s="88"/>
-      <c r="BH32" s="88"/>
-      <c r="BI32" s="88"/>
-      <c r="BJ32" s="88"/>
-      <c r="BK32" s="88"/>
-      <c r="BL32" s="88"/>
-      <c r="BM32" s="88"/>
-      <c r="BN32" s="88"/>
-      <c r="BO32" s="88"/>
-      <c r="BP32" s="88"/>
-      <c r="BQ32" s="88"/>
-      <c r="BR32" s="88"/>
-      <c r="BS32" s="88"/>
-      <c r="BT32" s="88"/>
-      <c r="BU32" s="88"/>
-      <c r="BV32" s="89"/>
-      <c r="BW32" s="89"/>
-      <c r="BX32" s="89"/>
-      <c r="BY32" s="89"/>
-      <c r="BZ32" s="89"/>
-      <c r="CA32" s="89"/>
-      <c r="CB32" s="89"/>
-      <c r="CC32" s="89"/>
-      <c r="CD32" s="89"/>
-      <c r="CE32" s="89"/>
-      <c r="CF32" s="89"/>
-      <c r="CG32" s="89"/>
-      <c r="CH32" s="89"/>
-      <c r="CI32" s="89"/>
-      <c r="CJ32" s="89"/>
-      <c r="CK32" s="89"/>
-      <c r="CL32" s="89"/>
-      <c r="CM32" s="89"/>
-      <c r="CN32" s="89"/>
-      <c r="CO32" s="89"/>
-      <c r="CP32" s="89"/>
-      <c r="CQ32" s="89"/>
-      <c r="CR32" s="89"/>
-      <c r="CS32" s="94"/>
-      <c r="CT32" s="94"/>
-      <c r="CU32" s="94"/>
-      <c r="CV32" s="94"/>
-      <c r="CW32" s="94"/>
-      <c r="CX32" s="94"/>
-      <c r="CY32" s="94"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="89"/>
+      <c r="I32" s="89"/>
+      <c r="J32" s="89"/>
+      <c r="K32" s="89"/>
+      <c r="L32" s="89"/>
+      <c r="M32" s="89"/>
+      <c r="N32" s="89"/>
+      <c r="O32" s="89"/>
+      <c r="P32" s="89"/>
+      <c r="Q32" s="89"/>
+      <c r="R32" s="88"/>
+      <c r="S32" s="88"/>
+      <c r="T32" s="88"/>
+      <c r="U32" s="88"/>
+      <c r="V32" s="88"/>
+      <c r="W32" s="88"/>
+      <c r="X32" s="88"/>
+      <c r="Y32" s="88"/>
+      <c r="Z32" s="94"/>
+      <c r="AA32" s="94"/>
+      <c r="AB32" s="94"/>
+      <c r="AC32" s="94"/>
+      <c r="AD32" s="94"/>
+      <c r="AE32" s="94"/>
+      <c r="AF32" s="94"/>
+      <c r="AG32" s="94"/>
+      <c r="AH32" s="94"/>
+      <c r="AI32" s="94"/>
+      <c r="AJ32" s="94"/>
+      <c r="AK32" s="94"/>
+      <c r="AL32" s="94"/>
+      <c r="AM32" s="94"/>
+      <c r="AN32" s="94"/>
+      <c r="AO32" s="94"/>
+      <c r="AP32" s="101"/>
+      <c r="AQ32" s="101"/>
+      <c r="AR32" s="101"/>
+      <c r="AS32" s="101"/>
+      <c r="AT32" s="101"/>
+      <c r="AU32" s="101"/>
+      <c r="AV32" s="101"/>
+      <c r="AW32" s="101"/>
+      <c r="AX32" s="100"/>
+      <c r="AY32" s="100"/>
+      <c r="AZ32" s="100"/>
+      <c r="BA32" s="100"/>
+      <c r="BB32" s="100"/>
+      <c r="BC32" s="100"/>
+      <c r="BD32" s="100"/>
+      <c r="BE32" s="100"/>
+      <c r="BF32" s="100"/>
+      <c r="BG32" s="100"/>
+      <c r="BH32" s="100"/>
+      <c r="BI32" s="100"/>
+      <c r="BJ32" s="100"/>
+      <c r="BK32" s="100"/>
+      <c r="BL32" s="100"/>
+      <c r="BM32" s="100"/>
+      <c r="BN32" s="100"/>
+      <c r="BO32" s="100"/>
+      <c r="BP32" s="100"/>
+      <c r="BQ32" s="100"/>
+      <c r="BR32" s="100"/>
+      <c r="BS32" s="100"/>
+      <c r="BT32" s="100"/>
+      <c r="BU32" s="100"/>
+      <c r="BV32" s="93"/>
+      <c r="BW32" s="93"/>
+      <c r="BX32" s="93"/>
+      <c r="BY32" s="93"/>
+      <c r="BZ32" s="93"/>
+      <c r="CA32" s="93"/>
+      <c r="CB32" s="93"/>
+      <c r="CC32" s="93"/>
+      <c r="CD32" s="93"/>
+      <c r="CE32" s="93"/>
+      <c r="CF32" s="93"/>
+      <c r="CG32" s="93"/>
+      <c r="CH32" s="93"/>
+      <c r="CI32" s="93"/>
+      <c r="CJ32" s="93"/>
+      <c r="CK32" s="93"/>
+      <c r="CL32" s="93"/>
+      <c r="CM32" s="93"/>
+      <c r="CN32" s="93"/>
+      <c r="CO32" s="93"/>
+      <c r="CP32" s="93"/>
+      <c r="CQ32" s="93"/>
+      <c r="CR32" s="93"/>
+      <c r="CS32" s="88"/>
+      <c r="CT32" s="88"/>
+      <c r="CU32" s="88"/>
+      <c r="CV32" s="88"/>
+      <c r="CW32" s="88"/>
+      <c r="CX32" s="88"/>
+      <c r="CY32" s="88"/>
       <c r="CZ32" s="76"/>
     </row>
     <row r="33" spans="1:104">
       <c r="A33" s="63">
         <v>8</v>
       </c>
-      <c r="B33" s="95"/>
-      <c r="C33" s="95"/>
-      <c r="D33" s="95"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="95"/>
-      <c r="H33" s="95"/>
-      <c r="I33" s="95"/>
-      <c r="J33" s="95"/>
-      <c r="K33" s="95"/>
-      <c r="L33" s="95"/>
-      <c r="M33" s="95"/>
-      <c r="N33" s="95"/>
-      <c r="O33" s="95"/>
-      <c r="P33" s="95"/>
-      <c r="Q33" s="95"/>
-      <c r="R33" s="94"/>
-      <c r="S33" s="94"/>
-      <c r="T33" s="94"/>
-      <c r="U33" s="94"/>
-      <c r="V33" s="94"/>
-      <c r="W33" s="94"/>
-      <c r="X33" s="94"/>
-      <c r="Y33" s="94"/>
-      <c r="Z33" s="98"/>
-      <c r="AA33" s="98"/>
-      <c r="AB33" s="98"/>
-      <c r="AC33" s="98"/>
-      <c r="AD33" s="98"/>
-      <c r="AE33" s="98"/>
-      <c r="AF33" s="98"/>
-      <c r="AG33" s="98"/>
-      <c r="AH33" s="98"/>
-      <c r="AI33" s="98"/>
-      <c r="AJ33" s="98"/>
-      <c r="AK33" s="98"/>
-      <c r="AL33" s="98"/>
-      <c r="AM33" s="98"/>
-      <c r="AN33" s="98"/>
-      <c r="AO33" s="98"/>
-      <c r="AP33" s="99"/>
-      <c r="AQ33" s="99"/>
-      <c r="AR33" s="99"/>
-      <c r="AS33" s="99"/>
-      <c r="AT33" s="99"/>
-      <c r="AU33" s="99"/>
-      <c r="AV33" s="99"/>
-      <c r="AW33" s="99"/>
-      <c r="AX33" s="88"/>
-      <c r="AY33" s="88"/>
-      <c r="AZ33" s="88"/>
-      <c r="BA33" s="88"/>
-      <c r="BB33" s="88"/>
-      <c r="BC33" s="88"/>
-      <c r="BD33" s="88"/>
-      <c r="BE33" s="88"/>
-      <c r="BF33" s="88"/>
-      <c r="BG33" s="88"/>
-      <c r="BH33" s="88"/>
-      <c r="BI33" s="88"/>
-      <c r="BJ33" s="88"/>
-      <c r="BK33" s="88"/>
-      <c r="BL33" s="88"/>
-      <c r="BM33" s="88"/>
-      <c r="BN33" s="88"/>
-      <c r="BO33" s="88"/>
-      <c r="BP33" s="88"/>
-      <c r="BQ33" s="88"/>
-      <c r="BR33" s="88"/>
-      <c r="BS33" s="88"/>
-      <c r="BT33" s="88"/>
-      <c r="BU33" s="88"/>
-      <c r="BV33" s="89"/>
-      <c r="BW33" s="89"/>
-      <c r="BX33" s="89"/>
-      <c r="BY33" s="89"/>
-      <c r="BZ33" s="89"/>
-      <c r="CA33" s="89"/>
-      <c r="CB33" s="89"/>
-      <c r="CC33" s="89"/>
-      <c r="CD33" s="89"/>
-      <c r="CE33" s="89"/>
-      <c r="CF33" s="89"/>
-      <c r="CG33" s="89"/>
-      <c r="CH33" s="89"/>
-      <c r="CI33" s="89"/>
-      <c r="CJ33" s="89"/>
-      <c r="CK33" s="89"/>
-      <c r="CS33" s="95"/>
-      <c r="CT33" s="95"/>
-      <c r="CU33" s="95"/>
-      <c r="CV33" s="95"/>
-      <c r="CW33" s="95"/>
-      <c r="CX33" s="95"/>
-      <c r="CY33" s="95"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="89"/>
+      <c r="I33" s="89"/>
+      <c r="J33" s="89"/>
+      <c r="K33" s="89"/>
+      <c r="L33" s="89"/>
+      <c r="M33" s="89"/>
+      <c r="N33" s="89"/>
+      <c r="O33" s="89"/>
+      <c r="P33" s="89"/>
+      <c r="Q33" s="89"/>
+      <c r="R33" s="88"/>
+      <c r="S33" s="88"/>
+      <c r="T33" s="88"/>
+      <c r="U33" s="88"/>
+      <c r="V33" s="88"/>
+      <c r="W33" s="88"/>
+      <c r="X33" s="88"/>
+      <c r="Y33" s="88"/>
+      <c r="Z33" s="94"/>
+      <c r="AA33" s="94"/>
+      <c r="AB33" s="94"/>
+      <c r="AC33" s="94"/>
+      <c r="AD33" s="94"/>
+      <c r="AE33" s="94"/>
+      <c r="AF33" s="94"/>
+      <c r="AG33" s="94"/>
+      <c r="AH33" s="94"/>
+      <c r="AI33" s="94"/>
+      <c r="AJ33" s="94"/>
+      <c r="AK33" s="94"/>
+      <c r="AL33" s="94"/>
+      <c r="AM33" s="94"/>
+      <c r="AN33" s="94"/>
+      <c r="AO33" s="94"/>
+      <c r="AP33" s="101"/>
+      <c r="AQ33" s="101"/>
+      <c r="AR33" s="101"/>
+      <c r="AS33" s="101"/>
+      <c r="AT33" s="101"/>
+      <c r="AU33" s="101"/>
+      <c r="AV33" s="101"/>
+      <c r="AW33" s="101"/>
+      <c r="AX33" s="100"/>
+      <c r="AY33" s="100"/>
+      <c r="AZ33" s="100"/>
+      <c r="BA33" s="100"/>
+      <c r="BB33" s="100"/>
+      <c r="BC33" s="100"/>
+      <c r="BD33" s="100"/>
+      <c r="BE33" s="100"/>
+      <c r="BF33" s="100"/>
+      <c r="BG33" s="100"/>
+      <c r="BH33" s="100"/>
+      <c r="BI33" s="100"/>
+      <c r="BJ33" s="100"/>
+      <c r="BK33" s="100"/>
+      <c r="BL33" s="100"/>
+      <c r="BM33" s="100"/>
+      <c r="BN33" s="100"/>
+      <c r="BO33" s="100"/>
+      <c r="BP33" s="100"/>
+      <c r="BQ33" s="100"/>
+      <c r="BR33" s="100"/>
+      <c r="BS33" s="100"/>
+      <c r="BT33" s="100"/>
+      <c r="BU33" s="100"/>
+      <c r="BV33" s="93"/>
+      <c r="BW33" s="93"/>
+      <c r="BX33" s="93"/>
+      <c r="BY33" s="93"/>
+      <c r="BZ33" s="93"/>
+      <c r="CA33" s="93"/>
+      <c r="CB33" s="93"/>
+      <c r="CC33" s="93"/>
+      <c r="CD33" s="93"/>
+      <c r="CE33" s="93"/>
+      <c r="CF33" s="93"/>
+      <c r="CG33" s="93"/>
+      <c r="CH33" s="93"/>
+      <c r="CI33" s="93"/>
+      <c r="CJ33" s="93"/>
+      <c r="CK33" s="93"/>
+      <c r="CS33" s="89"/>
+      <c r="CT33" s="89"/>
+      <c r="CU33" s="89"/>
+      <c r="CV33" s="89"/>
+      <c r="CW33" s="89"/>
+      <c r="CX33" s="89"/>
+      <c r="CY33" s="89"/>
       <c r="CZ33" s="76"/>
     </row>
     <row r="34" spans="1:104">
       <c r="A34" s="63">
         <v>9</v>
       </c>
-      <c r="B34" s="95"/>
-      <c r="C34" s="95"/>
-      <c r="D34" s="95"/>
-      <c r="E34" s="95"/>
-      <c r="F34" s="95"/>
-      <c r="G34" s="95"/>
-      <c r="H34" s="95"/>
-      <c r="I34" s="95"/>
-      <c r="J34" s="95"/>
-      <c r="K34" s="95"/>
-      <c r="L34" s="95"/>
-      <c r="M34" s="95"/>
-      <c r="N34" s="95"/>
-      <c r="O34" s="95"/>
-      <c r="P34" s="95"/>
-      <c r="Q34" s="95"/>
-      <c r="R34" s="94"/>
-      <c r="S34" s="94"/>
-      <c r="T34" s="94"/>
-      <c r="U34" s="94"/>
-      <c r="V34" s="94"/>
-      <c r="W34" s="94"/>
-      <c r="X34" s="94"/>
-      <c r="Y34" s="94"/>
-      <c r="Z34" s="98"/>
-      <c r="AA34" s="98"/>
-      <c r="AB34" s="98"/>
-      <c r="AC34" s="98"/>
-      <c r="AD34" s="98"/>
-      <c r="AE34" s="98"/>
-      <c r="AF34" s="98"/>
-      <c r="AG34" s="98"/>
-      <c r="AH34" s="98"/>
-      <c r="AI34" s="98"/>
-      <c r="AJ34" s="98"/>
-      <c r="AK34" s="98"/>
-      <c r="AL34" s="98"/>
-      <c r="AM34" s="98"/>
-      <c r="AN34" s="98"/>
-      <c r="AO34" s="98"/>
-      <c r="AP34" s="99"/>
-      <c r="AQ34" s="99"/>
-      <c r="AR34" s="99"/>
-      <c r="AS34" s="99"/>
-      <c r="AT34" s="99"/>
-      <c r="AU34" s="99"/>
-      <c r="AV34" s="99"/>
-      <c r="AW34" s="99"/>
-      <c r="AX34" s="89"/>
-      <c r="AY34" s="89"/>
-      <c r="AZ34" s="89"/>
-      <c r="BA34" s="89"/>
-      <c r="BB34" s="89"/>
-      <c r="BC34" s="89"/>
-      <c r="BD34" s="89"/>
-      <c r="BE34" s="89"/>
-      <c r="BF34" s="89"/>
-      <c r="BG34" s="89"/>
-      <c r="BH34" s="89"/>
-      <c r="BI34" s="89"/>
-      <c r="BJ34" s="89"/>
-      <c r="BK34" s="89"/>
-      <c r="BL34" s="89"/>
-      <c r="BM34" s="89"/>
-      <c r="BN34" s="88"/>
-      <c r="BO34" s="88"/>
-      <c r="BP34" s="88"/>
-      <c r="BQ34" s="88"/>
-      <c r="BR34" s="88"/>
-      <c r="BS34" s="88"/>
-      <c r="BT34" s="88"/>
-      <c r="BU34" s="88"/>
-      <c r="BV34" s="89"/>
-      <c r="BW34" s="89"/>
-      <c r="BX34" s="89"/>
-      <c r="BY34" s="89"/>
-      <c r="BZ34" s="89"/>
-      <c r="CA34" s="89"/>
-      <c r="CB34" s="89"/>
-      <c r="CC34" s="89"/>
-      <c r="CD34" s="89"/>
-      <c r="CE34" s="89"/>
-      <c r="CF34" s="89"/>
-      <c r="CG34" s="89"/>
-      <c r="CH34" s="89"/>
-      <c r="CI34" s="89"/>
-      <c r="CJ34" s="89"/>
-      <c r="CK34" s="89"/>
-      <c r="CS34" s="94"/>
-      <c r="CT34" s="94"/>
-      <c r="CU34" s="94"/>
-      <c r="CV34" s="94"/>
-      <c r="CW34" s="94"/>
-      <c r="CX34" s="94"/>
-      <c r="CY34" s="94"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="89"/>
+      <c r="J34" s="89"/>
+      <c r="K34" s="89"/>
+      <c r="L34" s="89"/>
+      <c r="M34" s="89"/>
+      <c r="N34" s="89"/>
+      <c r="O34" s="89"/>
+      <c r="P34" s="89"/>
+      <c r="Q34" s="89"/>
+      <c r="R34" s="88"/>
+      <c r="S34" s="88"/>
+      <c r="T34" s="88"/>
+      <c r="U34" s="88"/>
+      <c r="V34" s="88"/>
+      <c r="W34" s="88"/>
+      <c r="X34" s="88"/>
+      <c r="Y34" s="88"/>
+      <c r="Z34" s="94"/>
+      <c r="AA34" s="94"/>
+      <c r="AB34" s="94"/>
+      <c r="AC34" s="94"/>
+      <c r="AD34" s="94"/>
+      <c r="AE34" s="94"/>
+      <c r="AF34" s="94"/>
+      <c r="AG34" s="94"/>
+      <c r="AH34" s="94"/>
+      <c r="AI34" s="94"/>
+      <c r="AJ34" s="94"/>
+      <c r="AK34" s="94"/>
+      <c r="AL34" s="94"/>
+      <c r="AM34" s="94"/>
+      <c r="AN34" s="94"/>
+      <c r="AO34" s="94"/>
+      <c r="AP34" s="101"/>
+      <c r="AQ34" s="101"/>
+      <c r="AR34" s="101"/>
+      <c r="AS34" s="101"/>
+      <c r="AT34" s="101"/>
+      <c r="AU34" s="101"/>
+      <c r="AV34" s="101"/>
+      <c r="AW34" s="101"/>
+      <c r="AX34" s="93"/>
+      <c r="AY34" s="93"/>
+      <c r="AZ34" s="93"/>
+      <c r="BA34" s="93"/>
+      <c r="BB34" s="93"/>
+      <c r="BC34" s="93"/>
+      <c r="BD34" s="93"/>
+      <c r="BE34" s="93"/>
+      <c r="BF34" s="93"/>
+      <c r="BG34" s="93"/>
+      <c r="BH34" s="93"/>
+      <c r="BI34" s="93"/>
+      <c r="BJ34" s="93"/>
+      <c r="BK34" s="93"/>
+      <c r="BL34" s="93"/>
+      <c r="BM34" s="93"/>
+      <c r="BN34" s="100"/>
+      <c r="BO34" s="100"/>
+      <c r="BP34" s="100"/>
+      <c r="BQ34" s="100"/>
+      <c r="BR34" s="100"/>
+      <c r="BS34" s="100"/>
+      <c r="BT34" s="100"/>
+      <c r="BU34" s="100"/>
+      <c r="BV34" s="93"/>
+      <c r="BW34" s="93"/>
+      <c r="BX34" s="93"/>
+      <c r="BY34" s="93"/>
+      <c r="BZ34" s="93"/>
+      <c r="CA34" s="93"/>
+      <c r="CB34" s="93"/>
+      <c r="CC34" s="93"/>
+      <c r="CD34" s="93"/>
+      <c r="CE34" s="93"/>
+      <c r="CF34" s="93"/>
+      <c r="CG34" s="93"/>
+      <c r="CH34" s="93"/>
+      <c r="CI34" s="93"/>
+      <c r="CJ34" s="93"/>
+      <c r="CK34" s="93"/>
+      <c r="CS34" s="88"/>
+      <c r="CT34" s="88"/>
+      <c r="CU34" s="88"/>
+      <c r="CV34" s="88"/>
+      <c r="CW34" s="88"/>
+      <c r="CX34" s="88"/>
+      <c r="CY34" s="88"/>
       <c r="CZ34" s="76"/>
     </row>
     <row r="35" spans="1:104">
       <c r="A35" s="63">
         <v>10</v>
       </c>
-      <c r="B35" s="95"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="95"/>
-      <c r="I35" s="95"/>
-      <c r="J35" s="95"/>
-      <c r="K35" s="95"/>
-      <c r="L35" s="95"/>
-      <c r="M35" s="95"/>
-      <c r="N35" s="95"/>
-      <c r="O35" s="95"/>
-      <c r="P35" s="95"/>
-      <c r="Q35" s="95"/>
-      <c r="R35" s="94"/>
-      <c r="S35" s="94"/>
-      <c r="T35" s="94"/>
-      <c r="U35" s="94"/>
-      <c r="V35" s="94"/>
-      <c r="W35" s="94"/>
-      <c r="X35" s="94"/>
-      <c r="Y35" s="94"/>
-      <c r="Z35" s="98"/>
-      <c r="AA35" s="98"/>
-      <c r="AB35" s="98"/>
-      <c r="AC35" s="98"/>
-      <c r="AD35" s="98"/>
-      <c r="AE35" s="98"/>
-      <c r="AF35" s="98"/>
-      <c r="AG35" s="98"/>
-      <c r="AH35" s="98"/>
-      <c r="AI35" s="98"/>
-      <c r="AJ35" s="98"/>
-      <c r="AK35" s="98"/>
-      <c r="AL35" s="98"/>
-      <c r="AM35" s="98"/>
-      <c r="AN35" s="98"/>
-      <c r="AO35" s="98"/>
-      <c r="AP35" s="99"/>
-      <c r="AQ35" s="99"/>
-      <c r="AR35" s="99"/>
-      <c r="AS35" s="99"/>
-      <c r="AT35" s="99"/>
-      <c r="AU35" s="99"/>
-      <c r="AV35" s="99"/>
-      <c r="AW35" s="99"/>
-      <c r="AX35" s="89"/>
-      <c r="AY35" s="89"/>
-      <c r="AZ35" s="89"/>
-      <c r="BA35" s="89"/>
-      <c r="BB35" s="89"/>
-      <c r="BC35" s="89"/>
-      <c r="BD35" s="89"/>
-      <c r="BE35" s="89"/>
-      <c r="BF35" s="89"/>
-      <c r="BG35" s="89"/>
-      <c r="BH35" s="89"/>
-      <c r="BI35" s="89"/>
-      <c r="BJ35" s="89"/>
-      <c r="BK35" s="89"/>
-      <c r="BL35" s="89"/>
-      <c r="BM35" s="89"/>
-      <c r="BN35" s="88"/>
-      <c r="BO35" s="88"/>
-      <c r="BP35" s="88"/>
-      <c r="BQ35" s="88"/>
-      <c r="BR35" s="88"/>
-      <c r="BS35" s="88"/>
-      <c r="BT35" s="88"/>
-      <c r="BU35" s="88"/>
-      <c r="BV35" s="89"/>
-      <c r="BW35" s="89"/>
-      <c r="BX35" s="89"/>
-      <c r="BY35" s="89"/>
-      <c r="BZ35" s="89"/>
-      <c r="CA35" s="89"/>
-      <c r="CB35" s="89"/>
-      <c r="CC35" s="89"/>
-      <c r="CD35" s="89"/>
-      <c r="CE35" s="89"/>
-      <c r="CF35" s="89"/>
-      <c r="CG35" s="89"/>
-      <c r="CH35" s="89"/>
-      <c r="CI35" s="89"/>
-      <c r="CJ35" s="89"/>
-      <c r="CK35" s="89"/>
-      <c r="CS35" s="94"/>
-      <c r="CT35" s="94"/>
-      <c r="CU35" s="94"/>
-      <c r="CV35" s="94"/>
-      <c r="CW35" s="94"/>
-      <c r="CX35" s="94"/>
-      <c r="CY35" s="94"/>
+      <c r="B35" s="89"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="89"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="89"/>
+      <c r="I35" s="89"/>
+      <c r="J35" s="89"/>
+      <c r="K35" s="89"/>
+      <c r="L35" s="89"/>
+      <c r="M35" s="89"/>
+      <c r="N35" s="89"/>
+      <c r="O35" s="89"/>
+      <c r="P35" s="89"/>
+      <c r="Q35" s="89"/>
+      <c r="R35" s="88"/>
+      <c r="S35" s="88"/>
+      <c r="T35" s="88"/>
+      <c r="U35" s="88"/>
+      <c r="V35" s="88"/>
+      <c r="W35" s="88"/>
+      <c r="X35" s="88"/>
+      <c r="Y35" s="88"/>
+      <c r="Z35" s="94"/>
+      <c r="AA35" s="94"/>
+      <c r="AB35" s="94"/>
+      <c r="AC35" s="94"/>
+      <c r="AD35" s="94"/>
+      <c r="AE35" s="94"/>
+      <c r="AF35" s="94"/>
+      <c r="AG35" s="94"/>
+      <c r="AH35" s="94"/>
+      <c r="AI35" s="94"/>
+      <c r="AJ35" s="94"/>
+      <c r="AK35" s="94"/>
+      <c r="AL35" s="94"/>
+      <c r="AM35" s="94"/>
+      <c r="AN35" s="94"/>
+      <c r="AO35" s="94"/>
+      <c r="AP35" s="101"/>
+      <c r="AQ35" s="101"/>
+      <c r="AR35" s="101"/>
+      <c r="AS35" s="101"/>
+      <c r="AT35" s="101"/>
+      <c r="AU35" s="101"/>
+      <c r="AV35" s="101"/>
+      <c r="AW35" s="101"/>
+      <c r="AX35" s="93"/>
+      <c r="AY35" s="93"/>
+      <c r="AZ35" s="93"/>
+      <c r="BA35" s="93"/>
+      <c r="BB35" s="93"/>
+      <c r="BC35" s="93"/>
+      <c r="BD35" s="93"/>
+      <c r="BE35" s="93"/>
+      <c r="BF35" s="93"/>
+      <c r="BG35" s="93"/>
+      <c r="BH35" s="93"/>
+      <c r="BI35" s="93"/>
+      <c r="BJ35" s="93"/>
+      <c r="BK35" s="93"/>
+      <c r="BL35" s="93"/>
+      <c r="BM35" s="93"/>
+      <c r="BN35" s="100"/>
+      <c r="BO35" s="100"/>
+      <c r="BP35" s="100"/>
+      <c r="BQ35" s="100"/>
+      <c r="BR35" s="100"/>
+      <c r="BS35" s="100"/>
+      <c r="BT35" s="100"/>
+      <c r="BU35" s="100"/>
+      <c r="BV35" s="93"/>
+      <c r="BW35" s="93"/>
+      <c r="BX35" s="93"/>
+      <c r="BY35" s="93"/>
+      <c r="BZ35" s="93"/>
+      <c r="CA35" s="93"/>
+      <c r="CB35" s="93"/>
+      <c r="CC35" s="93"/>
+      <c r="CD35" s="93"/>
+      <c r="CE35" s="93"/>
+      <c r="CF35" s="93"/>
+      <c r="CG35" s="93"/>
+      <c r="CH35" s="93"/>
+      <c r="CI35" s="93"/>
+      <c r="CJ35" s="93"/>
+      <c r="CK35" s="93"/>
+      <c r="CS35" s="88"/>
+      <c r="CT35" s="88"/>
+      <c r="CU35" s="88"/>
+      <c r="CV35" s="88"/>
+      <c r="CW35" s="88"/>
+      <c r="CX35" s="88"/>
+      <c r="CY35" s="88"/>
       <c r="CZ35" s="76"/>
     </row>
     <row r="36" spans="1:104">
       <c r="A36" s="63">
         <v>11</v>
       </c>
-      <c r="B36" s="95"/>
-      <c r="C36" s="95"/>
-      <c r="D36" s="95"/>
-      <c r="E36" s="95"/>
-      <c r="F36" s="95"/>
-      <c r="G36" s="95"/>
-      <c r="H36" s="95"/>
-      <c r="I36" s="95"/>
-      <c r="J36" s="95"/>
-      <c r="K36" s="95"/>
-      <c r="L36" s="95"/>
-      <c r="M36" s="95"/>
-      <c r="N36" s="95"/>
-      <c r="O36" s="95"/>
-      <c r="P36" s="95"/>
-      <c r="Q36" s="95"/>
-      <c r="R36" s="94"/>
-      <c r="S36" s="94"/>
-      <c r="T36" s="94"/>
-      <c r="U36" s="94"/>
-      <c r="V36" s="94"/>
-      <c r="W36" s="94"/>
-      <c r="X36" s="94"/>
-      <c r="Y36" s="94"/>
-      <c r="Z36" s="98"/>
-      <c r="AA36" s="98"/>
-      <c r="AB36" s="98"/>
-      <c r="AC36" s="98"/>
-      <c r="AD36" s="98"/>
-      <c r="AE36" s="98"/>
-      <c r="AF36" s="98"/>
-      <c r="AG36" s="98"/>
-      <c r="AH36" s="98"/>
-      <c r="AI36" s="98"/>
-      <c r="AJ36" s="98"/>
-      <c r="AK36" s="98"/>
-      <c r="AL36" s="98"/>
-      <c r="AM36" s="98"/>
-      <c r="AN36" s="98"/>
-      <c r="AO36" s="98"/>
-      <c r="AP36" s="99"/>
-      <c r="AQ36" s="99"/>
-      <c r="AR36" s="99"/>
-      <c r="AS36" s="99"/>
-      <c r="AT36" s="99"/>
-      <c r="AU36" s="99"/>
-      <c r="AV36" s="99"/>
-      <c r="AW36" s="99"/>
-      <c r="AX36" s="89"/>
-      <c r="AY36" s="89"/>
-      <c r="AZ36" s="89"/>
-      <c r="BA36" s="89"/>
-      <c r="BB36" s="89"/>
-      <c r="BC36" s="89"/>
-      <c r="BD36" s="89"/>
-      <c r="BE36" s="89"/>
-      <c r="BF36" s="89"/>
-      <c r="BG36" s="89"/>
-      <c r="BH36" s="89"/>
-      <c r="BI36" s="89"/>
-      <c r="BJ36" s="89"/>
-      <c r="BK36" s="89"/>
-      <c r="BL36" s="89"/>
-      <c r="BM36" s="89"/>
-      <c r="BN36" s="88"/>
-      <c r="BO36" s="88"/>
-      <c r="BP36" s="88"/>
-      <c r="BQ36" s="88"/>
-      <c r="BR36" s="88"/>
-      <c r="BS36" s="88"/>
-      <c r="BT36" s="88"/>
-      <c r="BU36" s="88"/>
-      <c r="BV36" s="89"/>
-      <c r="BW36" s="89"/>
-      <c r="BX36" s="89"/>
-      <c r="BY36" s="89"/>
-      <c r="BZ36" s="89"/>
-      <c r="CA36" s="89"/>
-      <c r="CB36" s="89"/>
-      <c r="CC36" s="89"/>
-      <c r="CD36" s="89"/>
-      <c r="CE36" s="89"/>
-      <c r="CF36" s="89"/>
-      <c r="CG36" s="89"/>
-      <c r="CH36" s="89"/>
-      <c r="CI36" s="89"/>
-      <c r="CJ36" s="89"/>
-      <c r="CK36" s="89"/>
-      <c r="CS36" s="94"/>
-      <c r="CT36" s="94"/>
-      <c r="CU36" s="94"/>
-      <c r="CV36" s="94"/>
-      <c r="CW36" s="94"/>
-      <c r="CX36" s="94"/>
-      <c r="CY36" s="94"/>
+      <c r="B36" s="89"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="89"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="89"/>
+      <c r="I36" s="89"/>
+      <c r="J36" s="89"/>
+      <c r="K36" s="89"/>
+      <c r="L36" s="89"/>
+      <c r="M36" s="89"/>
+      <c r="N36" s="89"/>
+      <c r="O36" s="89"/>
+      <c r="P36" s="89"/>
+      <c r="Q36" s="89"/>
+      <c r="R36" s="88"/>
+      <c r="S36" s="88"/>
+      <c r="T36" s="88"/>
+      <c r="U36" s="88"/>
+      <c r="V36" s="88"/>
+      <c r="W36" s="88"/>
+      <c r="X36" s="88"/>
+      <c r="Y36" s="88"/>
+      <c r="Z36" s="94"/>
+      <c r="AA36" s="94"/>
+      <c r="AB36" s="94"/>
+      <c r="AC36" s="94"/>
+      <c r="AD36" s="94"/>
+      <c r="AE36" s="94"/>
+      <c r="AF36" s="94"/>
+      <c r="AG36" s="94"/>
+      <c r="AH36" s="94"/>
+      <c r="AI36" s="94"/>
+      <c r="AJ36" s="94"/>
+      <c r="AK36" s="94"/>
+      <c r="AL36" s="94"/>
+      <c r="AM36" s="94"/>
+      <c r="AN36" s="94"/>
+      <c r="AO36" s="94"/>
+      <c r="AP36" s="101"/>
+      <c r="AQ36" s="101"/>
+      <c r="AR36" s="101"/>
+      <c r="AS36" s="101"/>
+      <c r="AT36" s="101"/>
+      <c r="AU36" s="101"/>
+      <c r="AV36" s="101"/>
+      <c r="AW36" s="101"/>
+      <c r="AX36" s="93"/>
+      <c r="AY36" s="93"/>
+      <c r="AZ36" s="93"/>
+      <c r="BA36" s="93"/>
+      <c r="BB36" s="93"/>
+      <c r="BC36" s="93"/>
+      <c r="BD36" s="93"/>
+      <c r="BE36" s="93"/>
+      <c r="BF36" s="93"/>
+      <c r="BG36" s="93"/>
+      <c r="BH36" s="93"/>
+      <c r="BI36" s="93"/>
+      <c r="BJ36" s="93"/>
+      <c r="BK36" s="93"/>
+      <c r="BL36" s="93"/>
+      <c r="BM36" s="93"/>
+      <c r="BN36" s="100"/>
+      <c r="BO36" s="100"/>
+      <c r="BP36" s="100"/>
+      <c r="BQ36" s="100"/>
+      <c r="BR36" s="100"/>
+      <c r="BS36" s="100"/>
+      <c r="BT36" s="100"/>
+      <c r="BU36" s="100"/>
+      <c r="BV36" s="93"/>
+      <c r="BW36" s="93"/>
+      <c r="BX36" s="93"/>
+      <c r="BY36" s="93"/>
+      <c r="BZ36" s="93"/>
+      <c r="CA36" s="93"/>
+      <c r="CB36" s="93"/>
+      <c r="CC36" s="93"/>
+      <c r="CD36" s="93"/>
+      <c r="CE36" s="93"/>
+      <c r="CF36" s="93"/>
+      <c r="CG36" s="93"/>
+      <c r="CH36" s="93"/>
+      <c r="CI36" s="93"/>
+      <c r="CJ36" s="93"/>
+      <c r="CK36" s="93"/>
+      <c r="CS36" s="88"/>
+      <c r="CT36" s="88"/>
+      <c r="CU36" s="88"/>
+      <c r="CV36" s="88"/>
+      <c r="CW36" s="88"/>
+      <c r="CX36" s="88"/>
+      <c r="CY36" s="88"/>
       <c r="CZ36" s="76"/>
     </row>
     <row r="37" spans="1:104">
       <c r="A37" s="63">
         <v>12</v>
       </c>
-      <c r="B37" s="95"/>
-      <c r="C37" s="95"/>
-      <c r="D37" s="95"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="95"/>
-      <c r="H37" s="95"/>
-      <c r="I37" s="95"/>
-      <c r="J37" s="95"/>
-      <c r="K37" s="95"/>
-      <c r="L37" s="95"/>
-      <c r="M37" s="95"/>
-      <c r="N37" s="95"/>
-      <c r="O37" s="95"/>
-      <c r="P37" s="95"/>
-      <c r="Q37" s="95"/>
-      <c r="R37" s="94"/>
-      <c r="S37" s="94"/>
-      <c r="T37" s="94"/>
-      <c r="U37" s="94"/>
-      <c r="V37" s="94"/>
-      <c r="W37" s="94"/>
-      <c r="X37" s="94"/>
-      <c r="Y37" s="94"/>
-      <c r="Z37" s="98"/>
-      <c r="AA37" s="98"/>
-      <c r="AB37" s="98"/>
-      <c r="AC37" s="98"/>
-      <c r="AD37" s="98"/>
-      <c r="AE37" s="98"/>
-      <c r="AF37" s="98"/>
-      <c r="AG37" s="98"/>
-      <c r="AH37" s="98"/>
-      <c r="AI37" s="98"/>
-      <c r="AJ37" s="98"/>
-      <c r="AK37" s="98"/>
-      <c r="AL37" s="98"/>
-      <c r="AM37" s="98"/>
-      <c r="AN37" s="98"/>
-      <c r="AO37" s="98"/>
-      <c r="AP37" s="99"/>
-      <c r="AQ37" s="99"/>
-      <c r="AR37" s="99"/>
-      <c r="AS37" s="99"/>
-      <c r="AT37" s="99"/>
-      <c r="AU37" s="99"/>
-      <c r="AV37" s="99"/>
-      <c r="AW37" s="99"/>
-      <c r="AX37" s="89"/>
-      <c r="AY37" s="89"/>
-      <c r="AZ37" s="89"/>
-      <c r="BA37" s="89"/>
-      <c r="BB37" s="89"/>
-      <c r="BC37" s="89"/>
-      <c r="BD37" s="89"/>
-      <c r="BE37" s="89"/>
-      <c r="BF37" s="89"/>
-      <c r="BG37" s="89"/>
-      <c r="BH37" s="89"/>
-      <c r="BI37" s="89"/>
-      <c r="BJ37" s="89"/>
-      <c r="BK37" s="89"/>
-      <c r="BL37" s="89"/>
-      <c r="BM37" s="89"/>
-      <c r="BN37" s="88"/>
-      <c r="BO37" s="88"/>
-      <c r="BP37" s="88"/>
-      <c r="BQ37" s="88"/>
-      <c r="BR37" s="88"/>
-      <c r="BS37" s="88"/>
-      <c r="BT37" s="88"/>
-      <c r="BU37" s="88"/>
-      <c r="BV37" s="89"/>
-      <c r="BW37" s="89"/>
-      <c r="BX37" s="89"/>
-      <c r="BY37" s="89"/>
-      <c r="BZ37" s="89"/>
-      <c r="CA37" s="89"/>
-      <c r="CB37" s="89"/>
-      <c r="CC37" s="89"/>
-      <c r="CD37" s="89"/>
-      <c r="CE37" s="89"/>
-      <c r="CF37" s="89"/>
-      <c r="CG37" s="89"/>
-      <c r="CH37" s="89"/>
-      <c r="CI37" s="89"/>
-      <c r="CJ37" s="89"/>
-      <c r="CK37" s="89"/>
-      <c r="CS37" s="94"/>
-      <c r="CT37" s="94"/>
-      <c r="CU37" s="94"/>
-      <c r="CV37" s="94"/>
-      <c r="CW37" s="94"/>
-      <c r="CX37" s="94"/>
-      <c r="CY37" s="94"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="89"/>
+      <c r="K37" s="89"/>
+      <c r="L37" s="89"/>
+      <c r="M37" s="89"/>
+      <c r="N37" s="89"/>
+      <c r="O37" s="89"/>
+      <c r="P37" s="89"/>
+      <c r="Q37" s="89"/>
+      <c r="R37" s="88"/>
+      <c r="S37" s="88"/>
+      <c r="T37" s="88"/>
+      <c r="U37" s="88"/>
+      <c r="V37" s="88"/>
+      <c r="W37" s="88"/>
+      <c r="X37" s="88"/>
+      <c r="Y37" s="88"/>
+      <c r="Z37" s="94"/>
+      <c r="AA37" s="94"/>
+      <c r="AB37" s="94"/>
+      <c r="AC37" s="94"/>
+      <c r="AD37" s="94"/>
+      <c r="AE37" s="94"/>
+      <c r="AF37" s="94"/>
+      <c r="AG37" s="94"/>
+      <c r="AH37" s="94"/>
+      <c r="AI37" s="94"/>
+      <c r="AJ37" s="94"/>
+      <c r="AK37" s="94"/>
+      <c r="AL37" s="94"/>
+      <c r="AM37" s="94"/>
+      <c r="AN37" s="94"/>
+      <c r="AO37" s="94"/>
+      <c r="AP37" s="101"/>
+      <c r="AQ37" s="101"/>
+      <c r="AR37" s="101"/>
+      <c r="AS37" s="101"/>
+      <c r="AT37" s="101"/>
+      <c r="AU37" s="101"/>
+      <c r="AV37" s="101"/>
+      <c r="AW37" s="101"/>
+      <c r="AX37" s="93"/>
+      <c r="AY37" s="93"/>
+      <c r="AZ37" s="93"/>
+      <c r="BA37" s="93"/>
+      <c r="BB37" s="93"/>
+      <c r="BC37" s="93"/>
+      <c r="BD37" s="93"/>
+      <c r="BE37" s="93"/>
+      <c r="BF37" s="93"/>
+      <c r="BG37" s="93"/>
+      <c r="BH37" s="93"/>
+      <c r="BI37" s="93"/>
+      <c r="BJ37" s="93"/>
+      <c r="BK37" s="93"/>
+      <c r="BL37" s="93"/>
+      <c r="BM37" s="93"/>
+      <c r="BN37" s="100"/>
+      <c r="BO37" s="100"/>
+      <c r="BP37" s="100"/>
+      <c r="BQ37" s="100"/>
+      <c r="BR37" s="100"/>
+      <c r="BS37" s="100"/>
+      <c r="BT37" s="100"/>
+      <c r="BU37" s="100"/>
+      <c r="BV37" s="93"/>
+      <c r="BW37" s="93"/>
+      <c r="BX37" s="93"/>
+      <c r="BY37" s="93"/>
+      <c r="BZ37" s="93"/>
+      <c r="CA37" s="93"/>
+      <c r="CB37" s="93"/>
+      <c r="CC37" s="93"/>
+      <c r="CD37" s="93"/>
+      <c r="CE37" s="93"/>
+      <c r="CF37" s="93"/>
+      <c r="CG37" s="93"/>
+      <c r="CH37" s="93"/>
+      <c r="CI37" s="93"/>
+      <c r="CJ37" s="93"/>
+      <c r="CK37" s="93"/>
+      <c r="CS37" s="88"/>
+      <c r="CT37" s="88"/>
+      <c r="CU37" s="88"/>
+      <c r="CV37" s="88"/>
+      <c r="CW37" s="88"/>
+      <c r="CX37" s="88"/>
+      <c r="CY37" s="88"/>
       <c r="CZ37" s="76"/>
     </row>
     <row r="38" spans="1:104">
       <c r="A38" s="63">
         <v>13</v>
       </c>
-      <c r="B38" s="95"/>
-      <c r="C38" s="95"/>
-      <c r="D38" s="95"/>
-      <c r="E38" s="95"/>
-      <c r="F38" s="95"/>
-      <c r="G38" s="95"/>
-      <c r="H38" s="95"/>
-      <c r="I38" s="95"/>
-      <c r="J38" s="95"/>
-      <c r="K38" s="95"/>
-      <c r="L38" s="95"/>
-      <c r="M38" s="95"/>
-      <c r="N38" s="95"/>
-      <c r="O38" s="95"/>
-      <c r="P38" s="95"/>
-      <c r="Q38" s="95"/>
-      <c r="R38" s="93"/>
-      <c r="S38" s="93"/>
-      <c r="T38" s="93"/>
-      <c r="U38" s="93"/>
-      <c r="V38" s="93"/>
-      <c r="W38" s="93"/>
-      <c r="X38" s="93"/>
-      <c r="Y38" s="93"/>
-      <c r="Z38" s="98"/>
-      <c r="AA38" s="98"/>
-      <c r="AB38" s="98"/>
-      <c r="AC38" s="98"/>
-      <c r="AD38" s="98"/>
-      <c r="AE38" s="98"/>
-      <c r="AF38" s="98"/>
-      <c r="AG38" s="98"/>
-      <c r="AH38" s="98"/>
-      <c r="AI38" s="98"/>
-      <c r="AJ38" s="98"/>
-      <c r="AK38" s="98"/>
-      <c r="AL38" s="98"/>
-      <c r="AM38" s="98"/>
-      <c r="AN38" s="98"/>
-      <c r="AO38" s="98"/>
-      <c r="AP38" s="99"/>
-      <c r="AQ38" s="99"/>
-      <c r="AR38" s="99"/>
-      <c r="AS38" s="99"/>
-      <c r="AT38" s="99"/>
-      <c r="AU38" s="99"/>
-      <c r="AV38" s="99"/>
-      <c r="AW38" s="99"/>
-      <c r="AX38" s="89"/>
-      <c r="AY38" s="89"/>
-      <c r="AZ38" s="89"/>
-      <c r="BA38" s="89"/>
-      <c r="BB38" s="89"/>
-      <c r="BC38" s="89"/>
-      <c r="BD38" s="89"/>
-      <c r="BE38" s="89"/>
-      <c r="BF38" s="89"/>
-      <c r="BG38" s="89"/>
-      <c r="BH38" s="89"/>
-      <c r="BI38" s="89"/>
-      <c r="BJ38" s="89"/>
-      <c r="BK38" s="89"/>
-      <c r="BL38" s="89"/>
-      <c r="BM38" s="89"/>
-      <c r="BN38" s="88"/>
-      <c r="BO38" s="88"/>
-      <c r="BP38" s="88"/>
-      <c r="BQ38" s="88"/>
-      <c r="BR38" s="88"/>
-      <c r="BS38" s="88"/>
-      <c r="BT38" s="88"/>
-      <c r="BU38" s="88"/>
-      <c r="CD38" s="89"/>
-      <c r="CE38" s="89"/>
-      <c r="CF38" s="89"/>
-      <c r="CG38" s="89"/>
-      <c r="CH38" s="89"/>
-      <c r="CI38" s="89"/>
-      <c r="CJ38" s="89"/>
-      <c r="CK38" s="89"/>
-      <c r="CS38" s="94"/>
-      <c r="CT38" s="94"/>
-      <c r="CU38" s="94"/>
-      <c r="CV38" s="94"/>
-      <c r="CW38" s="94"/>
-      <c r="CX38" s="94"/>
-      <c r="CY38" s="94"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="89"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="89"/>
+      <c r="F38" s="89"/>
+      <c r="G38" s="89"/>
+      <c r="H38" s="89"/>
+      <c r="I38" s="89"/>
+      <c r="J38" s="89"/>
+      <c r="K38" s="89"/>
+      <c r="L38" s="89"/>
+      <c r="M38" s="89"/>
+      <c r="N38" s="89"/>
+      <c r="O38" s="89"/>
+      <c r="P38" s="89"/>
+      <c r="Q38" s="89"/>
+      <c r="R38" s="99"/>
+      <c r="S38" s="99"/>
+      <c r="T38" s="99"/>
+      <c r="U38" s="99"/>
+      <c r="V38" s="99"/>
+      <c r="W38" s="99"/>
+      <c r="X38" s="99"/>
+      <c r="Y38" s="99"/>
+      <c r="Z38" s="94"/>
+      <c r="AA38" s="94"/>
+      <c r="AB38" s="94"/>
+      <c r="AC38" s="94"/>
+      <c r="AD38" s="94"/>
+      <c r="AE38" s="94"/>
+      <c r="AF38" s="94"/>
+      <c r="AG38" s="94"/>
+      <c r="AH38" s="94"/>
+      <c r="AI38" s="94"/>
+      <c r="AJ38" s="94"/>
+      <c r="AK38" s="94"/>
+      <c r="AL38" s="94"/>
+      <c r="AM38" s="94"/>
+      <c r="AN38" s="94"/>
+      <c r="AO38" s="94"/>
+      <c r="AP38" s="101"/>
+      <c r="AQ38" s="101"/>
+      <c r="AR38" s="101"/>
+      <c r="AS38" s="101"/>
+      <c r="AT38" s="101"/>
+      <c r="AU38" s="101"/>
+      <c r="AV38" s="101"/>
+      <c r="AW38" s="101"/>
+      <c r="AX38" s="93"/>
+      <c r="AY38" s="93"/>
+      <c r="AZ38" s="93"/>
+      <c r="BA38" s="93"/>
+      <c r="BB38" s="93"/>
+      <c r="BC38" s="93"/>
+      <c r="BD38" s="93"/>
+      <c r="BE38" s="93"/>
+      <c r="BF38" s="93"/>
+      <c r="BG38" s="93"/>
+      <c r="BH38" s="93"/>
+      <c r="BI38" s="93"/>
+      <c r="BJ38" s="93"/>
+      <c r="BK38" s="93"/>
+      <c r="BL38" s="93"/>
+      <c r="BM38" s="93"/>
+      <c r="BN38" s="100"/>
+      <c r="BO38" s="100"/>
+      <c r="BP38" s="100"/>
+      <c r="BQ38" s="100"/>
+      <c r="BR38" s="100"/>
+      <c r="BS38" s="100"/>
+      <c r="BT38" s="100"/>
+      <c r="BU38" s="100"/>
+      <c r="CD38" s="93"/>
+      <c r="CE38" s="93"/>
+      <c r="CF38" s="93"/>
+      <c r="CG38" s="93"/>
+      <c r="CH38" s="93"/>
+      <c r="CI38" s="93"/>
+      <c r="CJ38" s="93"/>
+      <c r="CK38" s="93"/>
+      <c r="CS38" s="88"/>
+      <c r="CT38" s="88"/>
+      <c r="CU38" s="88"/>
+      <c r="CV38" s="88"/>
+      <c r="CW38" s="88"/>
+      <c r="CX38" s="88"/>
+      <c r="CY38" s="88"/>
       <c r="CZ38" s="76"/>
     </row>
     <row r="39" spans="1:104">
       <c r="A39" s="63">
         <v>14</v>
       </c>
-      <c r="B39" s="95"/>
-      <c r="C39" s="95"/>
-      <c r="D39" s="95"/>
-      <c r="E39" s="95"/>
-      <c r="F39" s="95"/>
-      <c r="G39" s="95"/>
-      <c r="H39" s="95"/>
-      <c r="I39" s="95"/>
-      <c r="J39" s="95"/>
-      <c r="K39" s="95"/>
-      <c r="L39" s="95"/>
-      <c r="M39" s="95"/>
-      <c r="N39" s="95"/>
-      <c r="O39" s="95"/>
-      <c r="P39" s="95"/>
-      <c r="Q39" s="95"/>
-      <c r="R39" s="93"/>
-      <c r="S39" s="93"/>
-      <c r="T39" s="93"/>
-      <c r="U39" s="93"/>
-      <c r="V39" s="93"/>
-      <c r="W39" s="93"/>
-      <c r="X39" s="93"/>
-      <c r="Y39" s="93"/>
-      <c r="Z39" s="98"/>
-      <c r="AA39" s="98"/>
-      <c r="AB39" s="98"/>
-      <c r="AC39" s="98"/>
-      <c r="AD39" s="98"/>
-      <c r="AE39" s="98"/>
-      <c r="AF39" s="98"/>
-      <c r="AG39" s="98"/>
-      <c r="AH39" s="98"/>
-      <c r="AI39" s="98"/>
-      <c r="AJ39" s="98"/>
-      <c r="AK39" s="98"/>
-      <c r="AL39" s="98"/>
-      <c r="AM39" s="98"/>
-      <c r="AN39" s="98"/>
-      <c r="AO39" s="98"/>
-      <c r="AP39" s="99"/>
-      <c r="AQ39" s="99"/>
-      <c r="AR39" s="99"/>
-      <c r="AS39" s="99"/>
-      <c r="AT39" s="99"/>
-      <c r="AU39" s="99"/>
-      <c r="AV39" s="99"/>
-      <c r="AW39" s="99"/>
-      <c r="AX39" s="89"/>
-      <c r="AY39" s="89"/>
-      <c r="AZ39" s="89"/>
-      <c r="BA39" s="89"/>
-      <c r="BB39" s="89"/>
-      <c r="BC39" s="89"/>
-      <c r="BD39" s="89"/>
-      <c r="BE39" s="89"/>
-      <c r="BF39" s="89"/>
-      <c r="BG39" s="89"/>
-      <c r="BH39" s="89"/>
-      <c r="BI39" s="89"/>
-      <c r="BJ39" s="89"/>
-      <c r="BK39" s="89"/>
-      <c r="BL39" s="89"/>
-      <c r="BM39" s="89"/>
-      <c r="BN39" s="89"/>
-      <c r="BO39" s="89"/>
-      <c r="BP39" s="89"/>
-      <c r="BQ39" s="89"/>
-      <c r="BR39" s="89"/>
-      <c r="BS39" s="89"/>
-      <c r="BT39" s="89"/>
-      <c r="BU39" s="89"/>
-      <c r="BV39" s="89"/>
-      <c r="BW39" s="89"/>
-      <c r="BX39" s="89"/>
-      <c r="BY39" s="89"/>
-      <c r="BZ39" s="89"/>
-      <c r="CA39" s="89"/>
-      <c r="CB39" s="89"/>
-      <c r="CC39" s="89"/>
-      <c r="CD39" s="89"/>
-      <c r="CE39" s="89"/>
-      <c r="CF39" s="89"/>
-      <c r="CG39" s="89"/>
-      <c r="CH39" s="89"/>
-      <c r="CI39" s="89"/>
-      <c r="CJ39" s="89"/>
-      <c r="CK39" s="89"/>
-      <c r="CS39" s="94"/>
-      <c r="CT39" s="94"/>
-      <c r="CU39" s="94"/>
-      <c r="CV39" s="94"/>
-      <c r="CW39" s="94"/>
-      <c r="CX39" s="94"/>
-      <c r="CY39" s="94"/>
+      <c r="B39" s="89"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="89"/>
+      <c r="H39" s="89"/>
+      <c r="I39" s="89"/>
+      <c r="J39" s="89"/>
+      <c r="K39" s="89"/>
+      <c r="L39" s="89"/>
+      <c r="M39" s="89"/>
+      <c r="N39" s="89"/>
+      <c r="O39" s="89"/>
+      <c r="P39" s="89"/>
+      <c r="Q39" s="89"/>
+      <c r="R39" s="99"/>
+      <c r="S39" s="99"/>
+      <c r="T39" s="99"/>
+      <c r="U39" s="99"/>
+      <c r="V39" s="99"/>
+      <c r="W39" s="99"/>
+      <c r="X39" s="99"/>
+      <c r="Y39" s="99"/>
+      <c r="Z39" s="94"/>
+      <c r="AA39" s="94"/>
+      <c r="AB39" s="94"/>
+      <c r="AC39" s="94"/>
+      <c r="AD39" s="94"/>
+      <c r="AE39" s="94"/>
+      <c r="AF39" s="94"/>
+      <c r="AG39" s="94"/>
+      <c r="AH39" s="94"/>
+      <c r="AI39" s="94"/>
+      <c r="AJ39" s="94"/>
+      <c r="AK39" s="94"/>
+      <c r="AL39" s="94"/>
+      <c r="AM39" s="94"/>
+      <c r="AN39" s="94"/>
+      <c r="AO39" s="94"/>
+      <c r="AP39" s="101"/>
+      <c r="AQ39" s="101"/>
+      <c r="AR39" s="101"/>
+      <c r="AS39" s="101"/>
+      <c r="AT39" s="101"/>
+      <c r="AU39" s="101"/>
+      <c r="AV39" s="101"/>
+      <c r="AW39" s="101"/>
+      <c r="AX39" s="93"/>
+      <c r="AY39" s="93"/>
+      <c r="AZ39" s="93"/>
+      <c r="BA39" s="93"/>
+      <c r="BB39" s="93"/>
+      <c r="BC39" s="93"/>
+      <c r="BD39" s="93"/>
+      <c r="BE39" s="93"/>
+      <c r="BF39" s="93"/>
+      <c r="BG39" s="93"/>
+      <c r="BH39" s="93"/>
+      <c r="BI39" s="93"/>
+      <c r="BJ39" s="93"/>
+      <c r="BK39" s="93"/>
+      <c r="BL39" s="93"/>
+      <c r="BM39" s="93"/>
+      <c r="BN39" s="93"/>
+      <c r="BO39" s="93"/>
+      <c r="BP39" s="93"/>
+      <c r="BQ39" s="93"/>
+      <c r="BR39" s="93"/>
+      <c r="BS39" s="93"/>
+      <c r="BT39" s="93"/>
+      <c r="BU39" s="93"/>
+      <c r="BV39" s="93"/>
+      <c r="BW39" s="93"/>
+      <c r="BX39" s="93"/>
+      <c r="BY39" s="93"/>
+      <c r="BZ39" s="93"/>
+      <c r="CA39" s="93"/>
+      <c r="CB39" s="93"/>
+      <c r="CC39" s="93"/>
+      <c r="CD39" s="93"/>
+      <c r="CE39" s="93"/>
+      <c r="CF39" s="93"/>
+      <c r="CG39" s="93"/>
+      <c r="CH39" s="93"/>
+      <c r="CI39" s="93"/>
+      <c r="CJ39" s="93"/>
+      <c r="CK39" s="93"/>
+      <c r="CS39" s="88"/>
+      <c r="CT39" s="88"/>
+      <c r="CU39" s="88"/>
+      <c r="CV39" s="88"/>
+      <c r="CW39" s="88"/>
+      <c r="CX39" s="88"/>
+      <c r="CY39" s="88"/>
       <c r="CZ39" s="76"/>
     </row>
     <row r="40" spans="1:104">
       <c r="A40" s="63">
         <v>15</v>
       </c>
-      <c r="B40" s="95"/>
-      <c r="C40" s="95"/>
-      <c r="D40" s="95"/>
-      <c r="E40" s="95"/>
-      <c r="F40" s="95"/>
-      <c r="G40" s="95"/>
-      <c r="H40" s="95"/>
-      <c r="I40" s="95"/>
-      <c r="J40" s="95"/>
-      <c r="K40" s="95"/>
-      <c r="L40" s="95"/>
-      <c r="M40" s="95"/>
-      <c r="N40" s="95"/>
-      <c r="O40" s="95"/>
-      <c r="P40" s="95"/>
-      <c r="Q40" s="95"/>
-      <c r="R40" s="93"/>
-      <c r="S40" s="93"/>
-      <c r="T40" s="93"/>
-      <c r="U40" s="93"/>
-      <c r="V40" s="93"/>
-      <c r="W40" s="93"/>
-      <c r="X40" s="93"/>
-      <c r="Y40" s="93"/>
-      <c r="Z40" s="98"/>
-      <c r="AA40" s="98"/>
-      <c r="AB40" s="98"/>
-      <c r="AC40" s="98"/>
-      <c r="AD40" s="98"/>
-      <c r="AE40" s="98"/>
-      <c r="AF40" s="98"/>
-      <c r="AG40" s="98"/>
-      <c r="AH40" s="98"/>
-      <c r="AI40" s="98"/>
-      <c r="AJ40" s="98"/>
-      <c r="AK40" s="98"/>
-      <c r="AL40" s="98"/>
-      <c r="AM40" s="98"/>
-      <c r="AN40" s="98"/>
-      <c r="AO40" s="98"/>
-      <c r="AP40" s="99"/>
-      <c r="AQ40" s="99"/>
-      <c r="AR40" s="99"/>
-      <c r="AS40" s="99"/>
-      <c r="AT40" s="99"/>
-      <c r="AU40" s="99"/>
-      <c r="AV40" s="99"/>
-      <c r="AW40" s="99"/>
-      <c r="AX40" s="89"/>
-      <c r="AY40" s="89"/>
-      <c r="AZ40" s="89"/>
-      <c r="BA40" s="89"/>
-      <c r="BB40" s="89"/>
-      <c r="BC40" s="89"/>
-      <c r="BD40" s="89"/>
-      <c r="BE40" s="89"/>
-      <c r="BF40" s="89"/>
-      <c r="BG40" s="89"/>
-      <c r="BH40" s="89"/>
-      <c r="BI40" s="89"/>
-      <c r="BJ40" s="89"/>
-      <c r="BK40" s="89"/>
-      <c r="BL40" s="89"/>
-      <c r="BM40" s="89"/>
-      <c r="BN40" s="89"/>
-      <c r="BO40" s="89"/>
-      <c r="BP40" s="89"/>
-      <c r="BQ40" s="89"/>
-      <c r="BR40" s="89"/>
-      <c r="BS40" s="89"/>
-      <c r="BT40" s="89"/>
-      <c r="BU40" s="89"/>
-      <c r="BV40" s="89"/>
-      <c r="BW40" s="89"/>
-      <c r="BX40" s="89"/>
-      <c r="BY40" s="89"/>
-      <c r="BZ40" s="89"/>
-      <c r="CA40" s="89"/>
-      <c r="CB40" s="89"/>
-      <c r="CC40" s="89"/>
-      <c r="CD40" s="89"/>
-      <c r="CE40" s="89"/>
-      <c r="CF40" s="89"/>
-      <c r="CG40" s="89"/>
-      <c r="CH40" s="89"/>
-      <c r="CI40" s="89"/>
-      <c r="CJ40" s="89"/>
-      <c r="CK40" s="89"/>
-      <c r="CS40" s="94"/>
-      <c r="CT40" s="94"/>
-      <c r="CU40" s="94"/>
-      <c r="CV40" s="94"/>
-      <c r="CW40" s="94"/>
-      <c r="CX40" s="94"/>
-      <c r="CY40" s="94"/>
+      <c r="B40" s="89"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="89"/>
+      <c r="I40" s="89"/>
+      <c r="J40" s="89"/>
+      <c r="K40" s="89"/>
+      <c r="L40" s="89"/>
+      <c r="M40" s="89"/>
+      <c r="N40" s="89"/>
+      <c r="O40" s="89"/>
+      <c r="P40" s="89"/>
+      <c r="Q40" s="89"/>
+      <c r="R40" s="99"/>
+      <c r="S40" s="99"/>
+      <c r="T40" s="99"/>
+      <c r="U40" s="99"/>
+      <c r="V40" s="99"/>
+      <c r="W40" s="99"/>
+      <c r="X40" s="99"/>
+      <c r="Y40" s="99"/>
+      <c r="Z40" s="94"/>
+      <c r="AA40" s="94"/>
+      <c r="AB40" s="94"/>
+      <c r="AC40" s="94"/>
+      <c r="AD40" s="94"/>
+      <c r="AE40" s="94"/>
+      <c r="AF40" s="94"/>
+      <c r="AG40" s="94"/>
+      <c r="AH40" s="94"/>
+      <c r="AI40" s="94"/>
+      <c r="AJ40" s="94"/>
+      <c r="AK40" s="94"/>
+      <c r="AL40" s="94"/>
+      <c r="AM40" s="94"/>
+      <c r="AN40" s="94"/>
+      <c r="AO40" s="94"/>
+      <c r="AP40" s="101"/>
+      <c r="AQ40" s="101"/>
+      <c r="AR40" s="101"/>
+      <c r="AS40" s="101"/>
+      <c r="AT40" s="101"/>
+      <c r="AU40" s="101"/>
+      <c r="AV40" s="101"/>
+      <c r="AW40" s="101"/>
+      <c r="AX40" s="93"/>
+      <c r="AY40" s="93"/>
+      <c r="AZ40" s="93"/>
+      <c r="BA40" s="93"/>
+      <c r="BB40" s="93"/>
+      <c r="BC40" s="93"/>
+      <c r="BD40" s="93"/>
+      <c r="BE40" s="93"/>
+      <c r="BF40" s="93"/>
+      <c r="BG40" s="93"/>
+      <c r="BH40" s="93"/>
+      <c r="BI40" s="93"/>
+      <c r="BJ40" s="93"/>
+      <c r="BK40" s="93"/>
+      <c r="BL40" s="93"/>
+      <c r="BM40" s="93"/>
+      <c r="BN40" s="93"/>
+      <c r="BO40" s="93"/>
+      <c r="BP40" s="93"/>
+      <c r="BQ40" s="93"/>
+      <c r="BR40" s="93"/>
+      <c r="BS40" s="93"/>
+      <c r="BT40" s="93"/>
+      <c r="BU40" s="93"/>
+      <c r="BV40" s="93"/>
+      <c r="BW40" s="93"/>
+      <c r="BX40" s="93"/>
+      <c r="BY40" s="93"/>
+      <c r="BZ40" s="93"/>
+      <c r="CA40" s="93"/>
+      <c r="CB40" s="93"/>
+      <c r="CC40" s="93"/>
+      <c r="CD40" s="93"/>
+      <c r="CE40" s="93"/>
+      <c r="CF40" s="93"/>
+      <c r="CG40" s="93"/>
+      <c r="CH40" s="93"/>
+      <c r="CI40" s="93"/>
+      <c r="CJ40" s="93"/>
+      <c r="CK40" s="93"/>
+      <c r="CS40" s="88"/>
+      <c r="CT40" s="88"/>
+      <c r="CU40" s="88"/>
+      <c r="CV40" s="88"/>
+      <c r="CW40" s="88"/>
+      <c r="CX40" s="88"/>
+      <c r="CY40" s="88"/>
       <c r="CZ40" s="76"/>
     </row>
     <row r="41" spans="1:104">
       <c r="A41" s="63">
         <v>16</v>
       </c>
-      <c r="B41" s="95"/>
-      <c r="C41" s="95"/>
-      <c r="D41" s="95"/>
-      <c r="E41" s="95"/>
-      <c r="F41" s="95"/>
-      <c r="G41" s="95"/>
-      <c r="H41" s="95"/>
-      <c r="I41" s="95"/>
-      <c r="J41" s="95"/>
-      <c r="K41" s="95"/>
-      <c r="L41" s="95"/>
-      <c r="M41" s="95"/>
-      <c r="N41" s="95"/>
-      <c r="O41" s="95"/>
-      <c r="P41" s="95"/>
-      <c r="Q41" s="95"/>
-      <c r="R41" s="93"/>
-      <c r="S41" s="93"/>
-      <c r="T41" s="93"/>
-      <c r="U41" s="93"/>
-      <c r="V41" s="93"/>
-      <c r="W41" s="93"/>
-      <c r="X41" s="93"/>
-      <c r="Y41" s="93"/>
-      <c r="Z41" s="98"/>
-      <c r="AA41" s="98"/>
-      <c r="AB41" s="98"/>
-      <c r="AC41" s="98"/>
-      <c r="AD41" s="98"/>
-      <c r="AE41" s="98"/>
-      <c r="AF41" s="98"/>
-      <c r="AG41" s="98"/>
-      <c r="AH41" s="98"/>
-      <c r="AI41" s="98"/>
-      <c r="AJ41" s="98"/>
-      <c r="AK41" s="98"/>
-      <c r="AL41" s="98"/>
-      <c r="AM41" s="98"/>
-      <c r="AN41" s="98"/>
-      <c r="AO41" s="98"/>
-      <c r="AP41" s="99"/>
-      <c r="AQ41" s="99"/>
-      <c r="AR41" s="99"/>
-      <c r="AS41" s="99"/>
-      <c r="AT41" s="99"/>
-      <c r="AU41" s="99"/>
-      <c r="AV41" s="99"/>
-      <c r="AW41" s="99"/>
-      <c r="AX41" s="89"/>
-      <c r="AY41" s="89"/>
-      <c r="AZ41" s="89"/>
-      <c r="BA41" s="89"/>
-      <c r="BB41" s="89"/>
-      <c r="BC41" s="89"/>
-      <c r="BD41" s="89"/>
-      <c r="BE41" s="89"/>
-      <c r="BF41" s="89"/>
-      <c r="BG41" s="89"/>
-      <c r="BH41" s="89"/>
-      <c r="BI41" s="89"/>
-      <c r="BJ41" s="89"/>
-      <c r="BK41" s="89"/>
-      <c r="BL41" s="89"/>
-      <c r="BM41" s="89"/>
-      <c r="BN41" s="89"/>
-      <c r="BO41" s="89"/>
-      <c r="BP41" s="89"/>
-      <c r="BQ41" s="89"/>
-      <c r="BR41" s="89"/>
-      <c r="BS41" s="89"/>
-      <c r="BT41" s="89"/>
-      <c r="BU41" s="89"/>
-      <c r="CD41" s="89"/>
-      <c r="CE41" s="89"/>
-      <c r="CF41" s="89"/>
-      <c r="CG41" s="89"/>
-      <c r="CH41" s="89"/>
-      <c r="CI41" s="89"/>
-      <c r="CJ41" s="89"/>
-      <c r="CK41" s="89"/>
-      <c r="CS41" s="94"/>
-      <c r="CT41" s="94"/>
-      <c r="CU41" s="94"/>
-      <c r="CV41" s="94"/>
-      <c r="CW41" s="94"/>
-      <c r="CX41" s="94"/>
-      <c r="CY41" s="94"/>
+      <c r="B41" s="89"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="89"/>
+      <c r="G41" s="89"/>
+      <c r="H41" s="89"/>
+      <c r="I41" s="89"/>
+      <c r="J41" s="89"/>
+      <c r="K41" s="89"/>
+      <c r="L41" s="89"/>
+      <c r="M41" s="89"/>
+      <c r="N41" s="89"/>
+      <c r="O41" s="89"/>
+      <c r="P41" s="89"/>
+      <c r="Q41" s="89"/>
+      <c r="R41" s="99"/>
+      <c r="S41" s="99"/>
+      <c r="T41" s="99"/>
+      <c r="U41" s="99"/>
+      <c r="V41" s="99"/>
+      <c r="W41" s="99"/>
+      <c r="X41" s="99"/>
+      <c r="Y41" s="99"/>
+      <c r="Z41" s="94"/>
+      <c r="AA41" s="94"/>
+      <c r="AB41" s="94"/>
+      <c r="AC41" s="94"/>
+      <c r="AD41" s="94"/>
+      <c r="AE41" s="94"/>
+      <c r="AF41" s="94"/>
+      <c r="AG41" s="94"/>
+      <c r="AH41" s="94"/>
+      <c r="AI41" s="94"/>
+      <c r="AJ41" s="94"/>
+      <c r="AK41" s="94"/>
+      <c r="AL41" s="94"/>
+      <c r="AM41" s="94"/>
+      <c r="AN41" s="94"/>
+      <c r="AO41" s="94"/>
+      <c r="AP41" s="101"/>
+      <c r="AQ41" s="101"/>
+      <c r="AR41" s="101"/>
+      <c r="AS41" s="101"/>
+      <c r="AT41" s="101"/>
+      <c r="AU41" s="101"/>
+      <c r="AV41" s="101"/>
+      <c r="AW41" s="101"/>
+      <c r="AX41" s="93"/>
+      <c r="AY41" s="93"/>
+      <c r="AZ41" s="93"/>
+      <c r="BA41" s="93"/>
+      <c r="BB41" s="93"/>
+      <c r="BC41" s="93"/>
+      <c r="BD41" s="93"/>
+      <c r="BE41" s="93"/>
+      <c r="BF41" s="93"/>
+      <c r="BG41" s="93"/>
+      <c r="BH41" s="93"/>
+      <c r="BI41" s="93"/>
+      <c r="BJ41" s="93"/>
+      <c r="BK41" s="93"/>
+      <c r="BL41" s="93"/>
+      <c r="BM41" s="93"/>
+      <c r="BN41" s="93"/>
+      <c r="BO41" s="93"/>
+      <c r="BP41" s="93"/>
+      <c r="BQ41" s="93"/>
+      <c r="BR41" s="93"/>
+      <c r="BS41" s="93"/>
+      <c r="BT41" s="93"/>
+      <c r="BU41" s="93"/>
+      <c r="CD41" s="93"/>
+      <c r="CE41" s="93"/>
+      <c r="CF41" s="93"/>
+      <c r="CG41" s="93"/>
+      <c r="CH41" s="93"/>
+      <c r="CI41" s="93"/>
+      <c r="CJ41" s="93"/>
+      <c r="CK41" s="93"/>
+      <c r="CS41" s="88"/>
+      <c r="CT41" s="88"/>
+      <c r="CU41" s="88"/>
+      <c r="CV41" s="88"/>
+      <c r="CW41" s="88"/>
+      <c r="CX41" s="88"/>
+      <c r="CY41" s="88"/>
       <c r="CZ41" s="76"/>
     </row>
     <row r="42" spans="1:104">
       <c r="A42" s="63">
         <v>17</v>
       </c>
-      <c r="B42" s="95"/>
-      <c r="C42" s="95"/>
-      <c r="D42" s="95"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="95"/>
-      <c r="G42" s="95"/>
-      <c r="H42" s="95"/>
-      <c r="I42" s="95"/>
-      <c r="J42" s="97"/>
-      <c r="K42" s="97"/>
-      <c r="L42" s="97"/>
-      <c r="M42" s="97"/>
-      <c r="N42" s="97"/>
-      <c r="O42" s="97"/>
-      <c r="P42" s="97"/>
-      <c r="Q42" s="97"/>
-      <c r="R42" s="93"/>
-      <c r="S42" s="93"/>
-      <c r="T42" s="93"/>
-      <c r="U42" s="93"/>
-      <c r="V42" s="93"/>
-      <c r="W42" s="93"/>
-      <c r="X42" s="93"/>
-      <c r="Y42" s="93"/>
-      <c r="Z42" s="98"/>
-      <c r="AA42" s="98"/>
-      <c r="AB42" s="98"/>
-      <c r="AC42" s="98"/>
-      <c r="AD42" s="98"/>
-      <c r="AE42" s="98"/>
-      <c r="AF42" s="98"/>
-      <c r="AG42" s="98"/>
-      <c r="AH42" s="98"/>
-      <c r="AI42" s="98"/>
-      <c r="AJ42" s="98"/>
-      <c r="AK42" s="98"/>
-      <c r="AL42" s="98"/>
-      <c r="AM42" s="98"/>
-      <c r="AN42" s="98"/>
-      <c r="AO42" s="98"/>
-      <c r="AP42" s="99"/>
-      <c r="AQ42" s="99"/>
-      <c r="AR42" s="99"/>
-      <c r="AS42" s="99"/>
-      <c r="AT42" s="99"/>
-      <c r="AU42" s="99"/>
-      <c r="AV42" s="99"/>
-      <c r="AW42" s="99"/>
-      <c r="AX42" s="89"/>
-      <c r="AY42" s="89"/>
-      <c r="AZ42" s="89"/>
-      <c r="BA42" s="89"/>
-      <c r="BB42" s="89"/>
-      <c r="BC42" s="89"/>
-      <c r="BD42" s="89"/>
-      <c r="BE42" s="89"/>
-      <c r="BF42" s="89"/>
-      <c r="BG42" s="89"/>
-      <c r="BH42" s="89"/>
-      <c r="BI42" s="89"/>
-      <c r="BJ42" s="89"/>
-      <c r="BK42" s="89"/>
-      <c r="BL42" s="89"/>
-      <c r="BM42" s="89"/>
-      <c r="BN42" s="89"/>
-      <c r="BO42" s="89"/>
-      <c r="BP42" s="89"/>
-      <c r="BQ42" s="89"/>
-      <c r="BR42" s="89"/>
-      <c r="BS42" s="89"/>
-      <c r="BT42" s="89"/>
-      <c r="BU42" s="89"/>
-      <c r="CD42" s="89"/>
-      <c r="CE42" s="89"/>
-      <c r="CF42" s="89"/>
-      <c r="CG42" s="89"/>
-      <c r="CH42" s="89"/>
-      <c r="CI42" s="89"/>
-      <c r="CJ42" s="89"/>
-      <c r="CK42" s="89"/>
-      <c r="CS42" s="94"/>
-      <c r="CT42" s="94"/>
-      <c r="CU42" s="94"/>
-      <c r="CV42" s="94"/>
-      <c r="CW42" s="94"/>
-      <c r="CX42" s="94"/>
-      <c r="CY42" s="94"/>
+      <c r="B42" s="89"/>
+      <c r="C42" s="89"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="89"/>
+      <c r="F42" s="89"/>
+      <c r="G42" s="89"/>
+      <c r="H42" s="89"/>
+      <c r="I42" s="89"/>
+      <c r="J42" s="115"/>
+      <c r="K42" s="115"/>
+      <c r="L42" s="115"/>
+      <c r="M42" s="115"/>
+      <c r="N42" s="115"/>
+      <c r="O42" s="115"/>
+      <c r="P42" s="115"/>
+      <c r="Q42" s="115"/>
+      <c r="R42" s="99"/>
+      <c r="S42" s="99"/>
+      <c r="T42" s="99"/>
+      <c r="U42" s="99"/>
+      <c r="V42" s="99"/>
+      <c r="W42" s="99"/>
+      <c r="X42" s="99"/>
+      <c r="Y42" s="99"/>
+      <c r="Z42" s="94"/>
+      <c r="AA42" s="94"/>
+      <c r="AB42" s="94"/>
+      <c r="AC42" s="94"/>
+      <c r="AD42" s="94"/>
+      <c r="AE42" s="94"/>
+      <c r="AF42" s="94"/>
+      <c r="AG42" s="94"/>
+      <c r="AH42" s="94"/>
+      <c r="AI42" s="94"/>
+      <c r="AJ42" s="94"/>
+      <c r="AK42" s="94"/>
+      <c r="AL42" s="94"/>
+      <c r="AM42" s="94"/>
+      <c r="AN42" s="94"/>
+      <c r="AO42" s="94"/>
+      <c r="AP42" s="101"/>
+      <c r="AQ42" s="101"/>
+      <c r="AR42" s="101"/>
+      <c r="AS42" s="101"/>
+      <c r="AT42" s="101"/>
+      <c r="AU42" s="101"/>
+      <c r="AV42" s="101"/>
+      <c r="AW42" s="101"/>
+      <c r="AX42" s="93"/>
+      <c r="AY42" s="93"/>
+      <c r="AZ42" s="93"/>
+      <c r="BA42" s="93"/>
+      <c r="BB42" s="93"/>
+      <c r="BC42" s="93"/>
+      <c r="BD42" s="93"/>
+      <c r="BE42" s="93"/>
+      <c r="BF42" s="93"/>
+      <c r="BG42" s="93"/>
+      <c r="BH42" s="93"/>
+      <c r="BI42" s="93"/>
+      <c r="BJ42" s="93"/>
+      <c r="BK42" s="93"/>
+      <c r="BL42" s="93"/>
+      <c r="BM42" s="93"/>
+      <c r="BN42" s="93"/>
+      <c r="BO42" s="93"/>
+      <c r="BP42" s="93"/>
+      <c r="BQ42" s="93"/>
+      <c r="BR42" s="93"/>
+      <c r="BS42" s="93"/>
+      <c r="BT42" s="93"/>
+      <c r="BU42" s="93"/>
+      <c r="CD42" s="93"/>
+      <c r="CE42" s="93"/>
+      <c r="CF42" s="93"/>
+      <c r="CG42" s="93"/>
+      <c r="CH42" s="93"/>
+      <c r="CI42" s="93"/>
+      <c r="CJ42" s="93"/>
+      <c r="CK42" s="93"/>
+      <c r="CS42" s="88"/>
+      <c r="CT42" s="88"/>
+      <c r="CU42" s="88"/>
+      <c r="CV42" s="88"/>
+      <c r="CW42" s="88"/>
+      <c r="CX42" s="88"/>
+      <c r="CY42" s="88"/>
       <c r="CZ42" s="76"/>
     </row>
     <row r="43" spans="1:104">
       <c r="A43" s="63">
         <v>18</v>
       </c>
-      <c r="B43" s="95"/>
-      <c r="C43" s="95"/>
-      <c r="D43" s="95"/>
-      <c r="E43" s="95"/>
-      <c r="F43" s="95"/>
-      <c r="G43" s="95"/>
-      <c r="H43" s="95"/>
-      <c r="I43" s="95"/>
-      <c r="J43" s="97"/>
-      <c r="K43" s="97"/>
-      <c r="L43" s="97"/>
-      <c r="M43" s="97"/>
-      <c r="N43" s="97"/>
-      <c r="O43" s="97"/>
-      <c r="P43" s="97"/>
-      <c r="Q43" s="97"/>
-      <c r="R43" s="93"/>
-      <c r="S43" s="93"/>
-      <c r="T43" s="93"/>
-      <c r="U43" s="93"/>
-      <c r="V43" s="93"/>
-      <c r="W43" s="93"/>
-      <c r="X43" s="93"/>
-      <c r="Y43" s="93"/>
-      <c r="Z43" s="98"/>
-      <c r="AA43" s="98"/>
-      <c r="AB43" s="98"/>
-      <c r="AC43" s="98"/>
-      <c r="AD43" s="98"/>
-      <c r="AE43" s="98"/>
-      <c r="AF43" s="98"/>
-      <c r="AG43" s="98"/>
-      <c r="AH43" s="98"/>
-      <c r="AI43" s="98"/>
-      <c r="AJ43" s="98"/>
-      <c r="AK43" s="98"/>
-      <c r="AL43" s="98"/>
-      <c r="AM43" s="98"/>
-      <c r="AN43" s="98"/>
-      <c r="AO43" s="98"/>
-      <c r="AP43" s="99"/>
-      <c r="AQ43" s="99"/>
-      <c r="AR43" s="99"/>
-      <c r="AS43" s="99"/>
-      <c r="AT43" s="99"/>
-      <c r="AU43" s="99"/>
-      <c r="AV43" s="99"/>
-      <c r="AW43" s="99"/>
-      <c r="AX43" s="89"/>
-      <c r="AY43" s="89"/>
-      <c r="AZ43" s="89"/>
-      <c r="BA43" s="89"/>
-      <c r="BB43" s="89"/>
-      <c r="BC43" s="89"/>
-      <c r="BD43" s="89"/>
-      <c r="BE43" s="89"/>
-      <c r="BF43" s="89"/>
-      <c r="BG43" s="89"/>
-      <c r="BH43" s="89"/>
-      <c r="BI43" s="89"/>
-      <c r="BJ43" s="89"/>
-      <c r="BK43" s="89"/>
-      <c r="BL43" s="89"/>
-      <c r="BM43" s="89"/>
-      <c r="BN43" s="89"/>
-      <c r="BO43" s="89"/>
-      <c r="BP43" s="89"/>
-      <c r="BQ43" s="89"/>
-      <c r="BR43" s="89"/>
-      <c r="BS43" s="89"/>
-      <c r="BT43" s="89"/>
-      <c r="BU43" s="89"/>
-      <c r="CD43" s="89"/>
-      <c r="CE43" s="89"/>
-      <c r="CF43" s="89"/>
-      <c r="CG43" s="89"/>
-      <c r="CH43" s="89"/>
-      <c r="CI43" s="89"/>
-      <c r="CJ43" s="89"/>
-      <c r="CK43" s="89"/>
-      <c r="CS43" s="94"/>
-      <c r="CT43" s="94"/>
-      <c r="CU43" s="94"/>
-      <c r="CV43" s="94"/>
-      <c r="CW43" s="94"/>
-      <c r="CX43" s="94"/>
-      <c r="CY43" s="94"/>
+      <c r="B43" s="89"/>
+      <c r="C43" s="89"/>
+      <c r="D43" s="89"/>
+      <c r="E43" s="89"/>
+      <c r="F43" s="89"/>
+      <c r="G43" s="89"/>
+      <c r="H43" s="89"/>
+      <c r="I43" s="89"/>
+      <c r="J43" s="115"/>
+      <c r="K43" s="115"/>
+      <c r="L43" s="115"/>
+      <c r="M43" s="115"/>
+      <c r="N43" s="115"/>
+      <c r="O43" s="115"/>
+      <c r="P43" s="115"/>
+      <c r="Q43" s="115"/>
+      <c r="R43" s="99"/>
+      <c r="S43" s="99"/>
+      <c r="T43" s="99"/>
+      <c r="U43" s="99"/>
+      <c r="V43" s="99"/>
+      <c r="W43" s="99"/>
+      <c r="X43" s="99"/>
+      <c r="Y43" s="99"/>
+      <c r="Z43" s="94"/>
+      <c r="AA43" s="94"/>
+      <c r="AB43" s="94"/>
+      <c r="AC43" s="94"/>
+      <c r="AD43" s="94"/>
+      <c r="AE43" s="94"/>
+      <c r="AF43" s="94"/>
+      <c r="AG43" s="94"/>
+      <c r="AH43" s="94"/>
+      <c r="AI43" s="94"/>
+      <c r="AJ43" s="94"/>
+      <c r="AK43" s="94"/>
+      <c r="AL43" s="94"/>
+      <c r="AM43" s="94"/>
+      <c r="AN43" s="94"/>
+      <c r="AO43" s="94"/>
+      <c r="AP43" s="101"/>
+      <c r="AQ43" s="101"/>
+      <c r="AR43" s="101"/>
+      <c r="AS43" s="101"/>
+      <c r="AT43" s="101"/>
+      <c r="AU43" s="101"/>
+      <c r="AV43" s="101"/>
+      <c r="AW43" s="101"/>
+      <c r="AX43" s="93"/>
+      <c r="AY43" s="93"/>
+      <c r="AZ43" s="93"/>
+      <c r="BA43" s="93"/>
+      <c r="BB43" s="93"/>
+      <c r="BC43" s="93"/>
+      <c r="BD43" s="93"/>
+      <c r="BE43" s="93"/>
+      <c r="BF43" s="93"/>
+      <c r="BG43" s="93"/>
+      <c r="BH43" s="93"/>
+      <c r="BI43" s="93"/>
+      <c r="BJ43" s="93"/>
+      <c r="BK43" s="93"/>
+      <c r="BL43" s="93"/>
+      <c r="BM43" s="93"/>
+      <c r="BN43" s="93"/>
+      <c r="BO43" s="93"/>
+      <c r="BP43" s="93"/>
+      <c r="BQ43" s="93"/>
+      <c r="BR43" s="93"/>
+      <c r="BS43" s="93"/>
+      <c r="BT43" s="93"/>
+      <c r="BU43" s="93"/>
+      <c r="CD43" s="93"/>
+      <c r="CE43" s="93"/>
+      <c r="CF43" s="93"/>
+      <c r="CG43" s="93"/>
+      <c r="CH43" s="93"/>
+      <c r="CI43" s="93"/>
+      <c r="CJ43" s="93"/>
+      <c r="CK43" s="93"/>
+      <c r="CS43" s="88"/>
+      <c r="CT43" s="88"/>
+      <c r="CU43" s="88"/>
+      <c r="CV43" s="88"/>
+      <c r="CW43" s="88"/>
+      <c r="CX43" s="88"/>
+      <c r="CY43" s="88"/>
       <c r="CZ43" s="76"/>
     </row>
     <row r="44" spans="1:104">
       <c r="A44" s="63">
         <v>19</v>
       </c>
-      <c r="B44" s="95"/>
-      <c r="C44" s="95"/>
-      <c r="D44" s="95"/>
-      <c r="E44" s="95"/>
-      <c r="F44" s="95"/>
-      <c r="G44" s="95"/>
-      <c r="H44" s="95"/>
-      <c r="I44" s="95"/>
-      <c r="J44" s="97"/>
-      <c r="K44" s="97"/>
-      <c r="L44" s="97"/>
-      <c r="M44" s="97"/>
-      <c r="N44" s="97"/>
-      <c r="O44" s="97"/>
-      <c r="P44" s="97"/>
-      <c r="Q44" s="97"/>
-      <c r="R44" s="93"/>
-      <c r="S44" s="93"/>
-      <c r="T44" s="93"/>
-      <c r="U44" s="93"/>
-      <c r="V44" s="93"/>
-      <c r="W44" s="93"/>
-      <c r="X44" s="93"/>
-      <c r="Y44" s="93"/>
-      <c r="Z44" s="98"/>
-      <c r="AA44" s="98"/>
-      <c r="AB44" s="98"/>
-      <c r="AC44" s="98"/>
-      <c r="AD44" s="98"/>
-      <c r="AE44" s="98"/>
-      <c r="AF44" s="98"/>
-      <c r="AG44" s="98"/>
-      <c r="AH44" s="98"/>
-      <c r="AI44" s="98"/>
-      <c r="AJ44" s="98"/>
-      <c r="AK44" s="98"/>
-      <c r="AL44" s="98"/>
-      <c r="AM44" s="98"/>
-      <c r="AN44" s="98"/>
-      <c r="AO44" s="98"/>
-      <c r="AP44" s="99"/>
-      <c r="AQ44" s="99"/>
-      <c r="AR44" s="99"/>
-      <c r="AS44" s="99"/>
-      <c r="AT44" s="99"/>
-      <c r="AU44" s="99"/>
-      <c r="AV44" s="99"/>
-      <c r="AW44" s="99"/>
-      <c r="AX44" s="89"/>
-      <c r="AY44" s="89"/>
-      <c r="AZ44" s="89"/>
-      <c r="BA44" s="89"/>
-      <c r="BB44" s="89"/>
-      <c r="BC44" s="89"/>
-      <c r="BD44" s="89"/>
-      <c r="BE44" s="89"/>
-      <c r="BF44" s="89"/>
-      <c r="BG44" s="89"/>
-      <c r="BH44" s="89"/>
-      <c r="BI44" s="89"/>
-      <c r="BJ44" s="89"/>
-      <c r="BK44" s="89"/>
-      <c r="BL44" s="89"/>
-      <c r="BM44" s="89"/>
-      <c r="BN44" s="89"/>
-      <c r="BO44" s="89"/>
-      <c r="BP44" s="89"/>
-      <c r="BQ44" s="89"/>
-      <c r="BR44" s="89"/>
-      <c r="BS44" s="89"/>
-      <c r="BT44" s="89"/>
-      <c r="BU44" s="89"/>
-      <c r="BV44" s="89"/>
-      <c r="BW44" s="89"/>
-      <c r="BX44" s="89"/>
-      <c r="BY44" s="89"/>
-      <c r="BZ44" s="89"/>
-      <c r="CA44" s="89"/>
-      <c r="CB44" s="89"/>
-      <c r="CC44" s="89"/>
-      <c r="CD44" s="89"/>
-      <c r="CE44" s="89"/>
-      <c r="CF44" s="89"/>
-      <c r="CG44" s="89"/>
-      <c r="CH44" s="89"/>
-      <c r="CI44" s="89"/>
-      <c r="CJ44" s="89"/>
-      <c r="CK44" s="89"/>
-      <c r="CS44" s="94"/>
-      <c r="CT44" s="94"/>
-      <c r="CU44" s="94"/>
-      <c r="CV44" s="94"/>
-      <c r="CW44" s="94"/>
-      <c r="CX44" s="94"/>
-      <c r="CY44" s="94"/>
+      <c r="B44" s="89"/>
+      <c r="C44" s="89"/>
+      <c r="D44" s="89"/>
+      <c r="E44" s="89"/>
+      <c r="F44" s="89"/>
+      <c r="G44" s="89"/>
+      <c r="H44" s="89"/>
+      <c r="I44" s="89"/>
+      <c r="J44" s="115"/>
+      <c r="K44" s="115"/>
+      <c r="L44" s="115"/>
+      <c r="M44" s="115"/>
+      <c r="N44" s="115"/>
+      <c r="O44" s="115"/>
+      <c r="P44" s="115"/>
+      <c r="Q44" s="115"/>
+      <c r="R44" s="99"/>
+      <c r="S44" s="99"/>
+      <c r="T44" s="99"/>
+      <c r="U44" s="99"/>
+      <c r="V44" s="99"/>
+      <c r="W44" s="99"/>
+      <c r="X44" s="99"/>
+      <c r="Y44" s="99"/>
+      <c r="Z44" s="94"/>
+      <c r="AA44" s="94"/>
+      <c r="AB44" s="94"/>
+      <c r="AC44" s="94"/>
+      <c r="AD44" s="94"/>
+      <c r="AE44" s="94"/>
+      <c r="AF44" s="94"/>
+      <c r="AG44" s="94"/>
+      <c r="AH44" s="94"/>
+      <c r="AI44" s="94"/>
+      <c r="AJ44" s="94"/>
+      <c r="AK44" s="94"/>
+      <c r="AL44" s="94"/>
+      <c r="AM44" s="94"/>
+      <c r="AN44" s="94"/>
+      <c r="AO44" s="94"/>
+      <c r="AP44" s="101"/>
+      <c r="AQ44" s="101"/>
+      <c r="AR44" s="101"/>
+      <c r="AS44" s="101"/>
+      <c r="AT44" s="101"/>
+      <c r="AU44" s="101"/>
+      <c r="AV44" s="101"/>
+      <c r="AW44" s="101"/>
+      <c r="AX44" s="93"/>
+      <c r="AY44" s="93"/>
+      <c r="AZ44" s="93"/>
+      <c r="BA44" s="93"/>
+      <c r="BB44" s="93"/>
+      <c r="BC44" s="93"/>
+      <c r="BD44" s="93"/>
+      <c r="BE44" s="93"/>
+      <c r="BF44" s="93"/>
+      <c r="BG44" s="93"/>
+      <c r="BH44" s="93"/>
+      <c r="BI44" s="93"/>
+      <c r="BJ44" s="93"/>
+      <c r="BK44" s="93"/>
+      <c r="BL44" s="93"/>
+      <c r="BM44" s="93"/>
+      <c r="BN44" s="93"/>
+      <c r="BO44" s="93"/>
+      <c r="BP44" s="93"/>
+      <c r="BQ44" s="93"/>
+      <c r="BR44" s="93"/>
+      <c r="BS44" s="93"/>
+      <c r="BT44" s="93"/>
+      <c r="BU44" s="93"/>
+      <c r="BV44" s="93"/>
+      <c r="BW44" s="93"/>
+      <c r="BX44" s="93"/>
+      <c r="BY44" s="93"/>
+      <c r="BZ44" s="93"/>
+      <c r="CA44" s="93"/>
+      <c r="CB44" s="93"/>
+      <c r="CC44" s="93"/>
+      <c r="CD44" s="93"/>
+      <c r="CE44" s="93"/>
+      <c r="CF44" s="93"/>
+      <c r="CG44" s="93"/>
+      <c r="CH44" s="93"/>
+      <c r="CI44" s="93"/>
+      <c r="CJ44" s="93"/>
+      <c r="CK44" s="93"/>
+      <c r="CS44" s="88"/>
+      <c r="CT44" s="88"/>
+      <c r="CU44" s="88"/>
+      <c r="CV44" s="88"/>
+      <c r="CW44" s="88"/>
+      <c r="CX44" s="88"/>
+      <c r="CY44" s="88"/>
       <c r="CZ44" s="76"/>
     </row>
     <row r="45" spans="1:104">
       <c r="A45" s="63">
         <v>20</v>
       </c>
-      <c r="B45" s="95"/>
-      <c r="C45" s="95"/>
-      <c r="D45" s="95"/>
-      <c r="E45" s="95"/>
-      <c r="F45" s="95"/>
-      <c r="G45" s="95"/>
-      <c r="H45" s="95"/>
-      <c r="I45" s="95"/>
-      <c r="J45" s="97"/>
-      <c r="K45" s="97"/>
-      <c r="L45" s="97"/>
-      <c r="M45" s="97"/>
-      <c r="N45" s="97"/>
-      <c r="O45" s="97"/>
-      <c r="P45" s="97"/>
-      <c r="Q45" s="97"/>
-      <c r="R45" s="93"/>
-      <c r="S45" s="93"/>
-      <c r="T45" s="93"/>
-      <c r="U45" s="93"/>
-      <c r="V45" s="93"/>
-      <c r="W45" s="93"/>
-      <c r="X45" s="93"/>
-      <c r="Y45" s="93"/>
-      <c r="Z45" s="98"/>
-      <c r="AA45" s="98"/>
-      <c r="AB45" s="98"/>
-      <c r="AC45" s="98"/>
-      <c r="AD45" s="98"/>
-      <c r="AE45" s="98"/>
-      <c r="AF45" s="98"/>
-      <c r="AG45" s="98"/>
-      <c r="AH45" s="98"/>
-      <c r="AI45" s="98"/>
-      <c r="AJ45" s="98"/>
-      <c r="AK45" s="98"/>
-      <c r="AL45" s="98"/>
-      <c r="AM45" s="98"/>
-      <c r="AN45" s="98"/>
-      <c r="AO45" s="98"/>
-      <c r="AP45" s="99"/>
-      <c r="AQ45" s="99"/>
-      <c r="AR45" s="99"/>
-      <c r="AS45" s="99"/>
-      <c r="AT45" s="99"/>
-      <c r="AU45" s="99"/>
-      <c r="AV45" s="99"/>
-      <c r="AW45" s="99"/>
-      <c r="AX45" s="89"/>
-      <c r="AY45" s="89"/>
-      <c r="AZ45" s="89"/>
-      <c r="BA45" s="89"/>
-      <c r="BB45" s="89"/>
-      <c r="BC45" s="89"/>
-      <c r="BD45" s="89"/>
-      <c r="BE45" s="89"/>
-      <c r="BF45" s="89"/>
-      <c r="BG45" s="89"/>
-      <c r="BH45" s="89"/>
-      <c r="BI45" s="89"/>
-      <c r="BJ45" s="89"/>
-      <c r="BK45" s="89"/>
-      <c r="BL45" s="89"/>
-      <c r="BM45" s="89"/>
-      <c r="BN45" s="89"/>
-      <c r="BO45" s="89"/>
-      <c r="BP45" s="89"/>
-      <c r="BQ45" s="89"/>
-      <c r="BR45" s="89"/>
-      <c r="BS45" s="89"/>
-      <c r="BT45" s="89"/>
-      <c r="BU45" s="89"/>
-      <c r="BV45" s="89"/>
-      <c r="BW45" s="89"/>
-      <c r="BX45" s="89"/>
-      <c r="BY45" s="89"/>
-      <c r="BZ45" s="89"/>
-      <c r="CA45" s="89"/>
-      <c r="CB45" s="89"/>
-      <c r="CC45" s="89"/>
-      <c r="CD45" s="89"/>
-      <c r="CE45" s="89"/>
-      <c r="CF45" s="89"/>
-      <c r="CG45" s="89"/>
-      <c r="CH45" s="89"/>
-      <c r="CI45" s="89"/>
-      <c r="CJ45" s="89"/>
-      <c r="CK45" s="89"/>
-      <c r="CS45" s="94"/>
-      <c r="CT45" s="94"/>
-      <c r="CU45" s="94"/>
-      <c r="CV45" s="94"/>
-      <c r="CW45" s="94"/>
-      <c r="CX45" s="94"/>
-      <c r="CY45" s="94"/>
+      <c r="B45" s="89"/>
+      <c r="C45" s="89"/>
+      <c r="D45" s="89"/>
+      <c r="E45" s="89"/>
+      <c r="F45" s="89"/>
+      <c r="G45" s="89"/>
+      <c r="H45" s="89"/>
+      <c r="I45" s="89"/>
+      <c r="J45" s="115"/>
+      <c r="K45" s="115"/>
+      <c r="L45" s="115"/>
+      <c r="M45" s="115"/>
+      <c r="N45" s="115"/>
+      <c r="O45" s="115"/>
+      <c r="P45" s="115"/>
+      <c r="Q45" s="115"/>
+      <c r="R45" s="99"/>
+      <c r="S45" s="99"/>
+      <c r="T45" s="99"/>
+      <c r="U45" s="99"/>
+      <c r="V45" s="99"/>
+      <c r="W45" s="99"/>
+      <c r="X45" s="99"/>
+      <c r="Y45" s="99"/>
+      <c r="Z45" s="94"/>
+      <c r="AA45" s="94"/>
+      <c r="AB45" s="94"/>
+      <c r="AC45" s="94"/>
+      <c r="AD45" s="94"/>
+      <c r="AE45" s="94"/>
+      <c r="AF45" s="94"/>
+      <c r="AG45" s="94"/>
+      <c r="AH45" s="94"/>
+      <c r="AI45" s="94"/>
+      <c r="AJ45" s="94"/>
+      <c r="AK45" s="94"/>
+      <c r="AL45" s="94"/>
+      <c r="AM45" s="94"/>
+      <c r="AN45" s="94"/>
+      <c r="AO45" s="94"/>
+      <c r="AP45" s="101"/>
+      <c r="AQ45" s="101"/>
+      <c r="AR45" s="101"/>
+      <c r="AS45" s="101"/>
+      <c r="AT45" s="101"/>
+      <c r="AU45" s="101"/>
+      <c r="AV45" s="101"/>
+      <c r="AW45" s="101"/>
+      <c r="AX45" s="93"/>
+      <c r="AY45" s="93"/>
+      <c r="AZ45" s="93"/>
+      <c r="BA45" s="93"/>
+      <c r="BB45" s="93"/>
+      <c r="BC45" s="93"/>
+      <c r="BD45" s="93"/>
+      <c r="BE45" s="93"/>
+      <c r="BF45" s="93"/>
+      <c r="BG45" s="93"/>
+      <c r="BH45" s="93"/>
+      <c r="BI45" s="93"/>
+      <c r="BJ45" s="93"/>
+      <c r="BK45" s="93"/>
+      <c r="BL45" s="93"/>
+      <c r="BM45" s="93"/>
+      <c r="BN45" s="93"/>
+      <c r="BO45" s="93"/>
+      <c r="BP45" s="93"/>
+      <c r="BQ45" s="93"/>
+      <c r="BR45" s="93"/>
+      <c r="BS45" s="93"/>
+      <c r="BT45" s="93"/>
+      <c r="BU45" s="93"/>
+      <c r="BV45" s="93"/>
+      <c r="BW45" s="93"/>
+      <c r="BX45" s="93"/>
+      <c r="BY45" s="93"/>
+      <c r="BZ45" s="93"/>
+      <c r="CA45" s="93"/>
+      <c r="CB45" s="93"/>
+      <c r="CC45" s="93"/>
+      <c r="CD45" s="93"/>
+      <c r="CE45" s="93"/>
+      <c r="CF45" s="93"/>
+      <c r="CG45" s="93"/>
+      <c r="CH45" s="93"/>
+      <c r="CI45" s="93"/>
+      <c r="CJ45" s="93"/>
+      <c r="CK45" s="93"/>
+      <c r="CS45" s="88"/>
+      <c r="CT45" s="88"/>
+      <c r="CU45" s="88"/>
+      <c r="CV45" s="88"/>
+      <c r="CW45" s="88"/>
+      <c r="CX45" s="88"/>
+      <c r="CY45" s="88"/>
       <c r="CZ45" s="76"/>
     </row>
     <row r="46" spans="1:104">
       <c r="A46" s="63">
         <v>21</v>
       </c>
-      <c r="B46" s="95"/>
-      <c r="C46" s="95"/>
-      <c r="D46" s="95"/>
-      <c r="E46" s="95"/>
-      <c r="F46" s="95"/>
-      <c r="G46" s="95"/>
-      <c r="H46" s="95"/>
-      <c r="I46" s="95"/>
-      <c r="J46" s="97"/>
-      <c r="K46" s="97"/>
-      <c r="L46" s="97"/>
-      <c r="M46" s="97"/>
-      <c r="N46" s="97"/>
-      <c r="O46" s="97"/>
-      <c r="P46" s="97"/>
-      <c r="Q46" s="97"/>
-      <c r="R46" s="93"/>
-      <c r="S46" s="93"/>
-      <c r="T46" s="93"/>
-      <c r="U46" s="93"/>
-      <c r="V46" s="93"/>
-      <c r="W46" s="93"/>
-      <c r="X46" s="93"/>
-      <c r="Y46" s="93"/>
-      <c r="Z46" s="98"/>
-      <c r="AA46" s="98"/>
-      <c r="AB46" s="98"/>
-      <c r="AC46" s="98"/>
-      <c r="AD46" s="98"/>
-      <c r="AE46" s="98"/>
-      <c r="AF46" s="98"/>
-      <c r="AG46" s="98"/>
-      <c r="AH46" s="98"/>
-      <c r="AI46" s="98"/>
-      <c r="AJ46" s="98"/>
-      <c r="AK46" s="98"/>
-      <c r="AL46" s="98"/>
-      <c r="AM46" s="98"/>
-      <c r="AN46" s="98"/>
-      <c r="AO46" s="98"/>
-      <c r="AP46" s="99"/>
-      <c r="AQ46" s="99"/>
-      <c r="AR46" s="99"/>
-      <c r="AS46" s="99"/>
-      <c r="AT46" s="99"/>
-      <c r="AU46" s="99"/>
-      <c r="AV46" s="99"/>
-      <c r="AW46" s="99"/>
-      <c r="AX46" s="89"/>
-      <c r="AY46" s="89"/>
-      <c r="AZ46" s="89"/>
-      <c r="BA46" s="89"/>
-      <c r="BB46" s="89"/>
-      <c r="BC46" s="89"/>
-      <c r="BD46" s="89"/>
-      <c r="BE46" s="89"/>
-      <c r="BF46" s="89"/>
-      <c r="BG46" s="89"/>
-      <c r="BH46" s="89"/>
-      <c r="BI46" s="89"/>
-      <c r="BJ46" s="89"/>
-      <c r="BK46" s="89"/>
-      <c r="BL46" s="89"/>
-      <c r="BM46" s="89"/>
-      <c r="BN46" s="89"/>
-      <c r="BO46" s="89"/>
-      <c r="BP46" s="89"/>
-      <c r="BQ46" s="89"/>
-      <c r="BR46" s="89"/>
-      <c r="BS46" s="89"/>
-      <c r="BT46" s="89"/>
-      <c r="BU46" s="89"/>
-      <c r="BV46" s="89"/>
-      <c r="BW46" s="89"/>
-      <c r="BX46" s="89"/>
-      <c r="BY46" s="89"/>
-      <c r="BZ46" s="89"/>
-      <c r="CA46" s="89"/>
-      <c r="CB46" s="89"/>
-      <c r="CC46" s="89"/>
-      <c r="CD46" s="89"/>
-      <c r="CE46" s="89"/>
-      <c r="CF46" s="89"/>
-      <c r="CG46" s="89"/>
-      <c r="CH46" s="89"/>
-      <c r="CI46" s="89"/>
-      <c r="CJ46" s="89"/>
-      <c r="CK46" s="89"/>
-      <c r="CS46" s="94"/>
-      <c r="CT46" s="94"/>
-      <c r="CU46" s="94"/>
-      <c r="CV46" s="94"/>
-      <c r="CW46" s="94"/>
-      <c r="CX46" s="94"/>
-      <c r="CY46" s="94"/>
+      <c r="B46" s="89"/>
+      <c r="C46" s="89"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="89"/>
+      <c r="F46" s="89"/>
+      <c r="G46" s="89"/>
+      <c r="H46" s="89"/>
+      <c r="I46" s="89"/>
+      <c r="J46" s="115"/>
+      <c r="K46" s="115"/>
+      <c r="L46" s="115"/>
+      <c r="M46" s="115"/>
+      <c r="N46" s="115"/>
+      <c r="O46" s="115"/>
+      <c r="P46" s="115"/>
+      <c r="Q46" s="115"/>
+      <c r="R46" s="99"/>
+      <c r="S46" s="99"/>
+      <c r="T46" s="99"/>
+      <c r="U46" s="99"/>
+      <c r="V46" s="99"/>
+      <c r="W46" s="99"/>
+      <c r="X46" s="99"/>
+      <c r="Y46" s="99"/>
+      <c r="Z46" s="94"/>
+      <c r="AA46" s="94"/>
+      <c r="AB46" s="94"/>
+      <c r="AC46" s="94"/>
+      <c r="AD46" s="94"/>
+      <c r="AE46" s="94"/>
+      <c r="AF46" s="94"/>
+      <c r="AG46" s="94"/>
+      <c r="AH46" s="94"/>
+      <c r="AI46" s="94"/>
+      <c r="AJ46" s="94"/>
+      <c r="AK46" s="94"/>
+      <c r="AL46" s="94"/>
+      <c r="AM46" s="94"/>
+      <c r="AN46" s="94"/>
+      <c r="AO46" s="94"/>
+      <c r="AP46" s="101"/>
+      <c r="AQ46" s="101"/>
+      <c r="AR46" s="101"/>
+      <c r="AS46" s="101"/>
+      <c r="AT46" s="101"/>
+      <c r="AU46" s="101"/>
+      <c r="AV46" s="101"/>
+      <c r="AW46" s="101"/>
+      <c r="AX46" s="93"/>
+      <c r="AY46" s="93"/>
+      <c r="AZ46" s="93"/>
+      <c r="BA46" s="93"/>
+      <c r="BB46" s="93"/>
+      <c r="BC46" s="93"/>
+      <c r="BD46" s="93"/>
+      <c r="BE46" s="93"/>
+      <c r="BF46" s="93"/>
+      <c r="BG46" s="93"/>
+      <c r="BH46" s="93"/>
+      <c r="BI46" s="93"/>
+      <c r="BJ46" s="93"/>
+      <c r="BK46" s="93"/>
+      <c r="BL46" s="93"/>
+      <c r="BM46" s="93"/>
+      <c r="BN46" s="93"/>
+      <c r="BO46" s="93"/>
+      <c r="BP46" s="93"/>
+      <c r="BQ46" s="93"/>
+      <c r="BR46" s="93"/>
+      <c r="BS46" s="93"/>
+      <c r="BT46" s="93"/>
+      <c r="BU46" s="93"/>
+      <c r="BV46" s="93"/>
+      <c r="BW46" s="93"/>
+      <c r="BX46" s="93"/>
+      <c r="BY46" s="93"/>
+      <c r="BZ46" s="93"/>
+      <c r="CA46" s="93"/>
+      <c r="CB46" s="93"/>
+      <c r="CC46" s="93"/>
+      <c r="CD46" s="93"/>
+      <c r="CE46" s="93"/>
+      <c r="CF46" s="93"/>
+      <c r="CG46" s="93"/>
+      <c r="CH46" s="93"/>
+      <c r="CI46" s="93"/>
+      <c r="CJ46" s="93"/>
+      <c r="CK46" s="93"/>
+      <c r="CS46" s="88"/>
+      <c r="CT46" s="88"/>
+      <c r="CU46" s="88"/>
+      <c r="CV46" s="88"/>
+      <c r="CW46" s="88"/>
+      <c r="CX46" s="88"/>
+      <c r="CY46" s="88"/>
       <c r="CZ46" s="76"/>
     </row>
     <row r="47" spans="1:104">
       <c r="A47" s="63">
         <v>22</v>
       </c>
-      <c r="B47" s="95"/>
-      <c r="C47" s="95"/>
-      <c r="D47" s="95"/>
-      <c r="E47" s="95"/>
-      <c r="F47" s="95"/>
-      <c r="G47" s="95"/>
-      <c r="H47" s="95"/>
-      <c r="I47" s="95"/>
-      <c r="J47" s="97"/>
-      <c r="K47" s="97"/>
-      <c r="L47" s="97"/>
-      <c r="M47" s="97"/>
-      <c r="N47" s="97"/>
-      <c r="O47" s="97"/>
-      <c r="P47" s="97"/>
-      <c r="Q47" s="97"/>
-      <c r="R47" s="93"/>
-      <c r="S47" s="93"/>
-      <c r="T47" s="93"/>
-      <c r="U47" s="93"/>
-      <c r="V47" s="93"/>
-      <c r="W47" s="93"/>
-      <c r="X47" s="93"/>
-      <c r="Y47" s="93"/>
-      <c r="Z47" s="98"/>
-      <c r="AA47" s="98"/>
-      <c r="AB47" s="98"/>
-      <c r="AC47" s="98"/>
-      <c r="AD47" s="98"/>
-      <c r="AE47" s="98"/>
-      <c r="AF47" s="98"/>
-      <c r="AG47" s="98"/>
-      <c r="AH47" s="98"/>
-      <c r="AI47" s="98"/>
-      <c r="AJ47" s="98"/>
-      <c r="AK47" s="98"/>
-      <c r="AL47" s="98"/>
-      <c r="AM47" s="98"/>
-      <c r="AN47" s="98"/>
-      <c r="AO47" s="98"/>
-      <c r="AP47" s="99"/>
-      <c r="AQ47" s="99"/>
-      <c r="AR47" s="99"/>
-      <c r="AS47" s="99"/>
-      <c r="AT47" s="99"/>
-      <c r="AU47" s="99"/>
-      <c r="AV47" s="99"/>
-      <c r="AW47" s="99"/>
-      <c r="AX47" s="89"/>
-      <c r="AY47" s="89"/>
-      <c r="AZ47" s="89"/>
-      <c r="BA47" s="89"/>
-      <c r="BB47" s="89"/>
-      <c r="BC47" s="89"/>
-      <c r="BD47" s="89"/>
-      <c r="BE47" s="89"/>
-      <c r="BF47" s="89"/>
-      <c r="BG47" s="89"/>
-      <c r="BH47" s="89"/>
-      <c r="BI47" s="89"/>
-      <c r="BJ47" s="89"/>
-      <c r="BK47" s="89"/>
-      <c r="BL47" s="89"/>
-      <c r="BM47" s="89"/>
-      <c r="BN47" s="89"/>
-      <c r="BO47" s="89"/>
-      <c r="BP47" s="89"/>
-      <c r="BQ47" s="89"/>
-      <c r="BR47" s="89"/>
-      <c r="BS47" s="89"/>
-      <c r="BT47" s="89"/>
-      <c r="BU47" s="89"/>
-      <c r="BV47" s="89"/>
-      <c r="BW47" s="89"/>
-      <c r="BX47" s="89"/>
-      <c r="BY47" s="89"/>
-      <c r="BZ47" s="89"/>
-      <c r="CA47" s="89"/>
-      <c r="CB47" s="89"/>
-      <c r="CC47" s="89"/>
-      <c r="CD47" s="89"/>
-      <c r="CE47" s="89"/>
-      <c r="CF47" s="89"/>
-      <c r="CG47" s="89"/>
-      <c r="CH47" s="89"/>
-      <c r="CI47" s="89"/>
-      <c r="CJ47" s="89"/>
-      <c r="CK47" s="89"/>
-      <c r="CS47" s="94"/>
-      <c r="CT47" s="94"/>
-      <c r="CU47" s="94"/>
-      <c r="CV47" s="94"/>
-      <c r="CW47" s="94"/>
-      <c r="CX47" s="94"/>
-      <c r="CY47" s="94"/>
+      <c r="B47" s="89"/>
+      <c r="C47" s="89"/>
+      <c r="D47" s="89"/>
+      <c r="E47" s="89"/>
+      <c r="F47" s="89"/>
+      <c r="G47" s="89"/>
+      <c r="H47" s="89"/>
+      <c r="I47" s="89"/>
+      <c r="J47" s="115"/>
+      <c r="K47" s="115"/>
+      <c r="L47" s="115"/>
+      <c r="M47" s="115"/>
+      <c r="N47" s="115"/>
+      <c r="O47" s="115"/>
+      <c r="P47" s="115"/>
+      <c r="Q47" s="115"/>
+      <c r="R47" s="99"/>
+      <c r="S47" s="99"/>
+      <c r="T47" s="99"/>
+      <c r="U47" s="99"/>
+      <c r="V47" s="99"/>
+      <c r="W47" s="99"/>
+      <c r="X47" s="99"/>
+      <c r="Y47" s="99"/>
+      <c r="Z47" s="94"/>
+      <c r="AA47" s="94"/>
+      <c r="AB47" s="94"/>
+      <c r="AC47" s="94"/>
+      <c r="AD47" s="94"/>
+      <c r="AE47" s="94"/>
+      <c r="AF47" s="94"/>
+      <c r="AG47" s="94"/>
+      <c r="AH47" s="94"/>
+      <c r="AI47" s="94"/>
+      <c r="AJ47" s="94"/>
+      <c r="AK47" s="94"/>
+      <c r="AL47" s="94"/>
+      <c r="AM47" s="94"/>
+      <c r="AN47" s="94"/>
+      <c r="AO47" s="94"/>
+      <c r="AP47" s="101"/>
+      <c r="AQ47" s="101"/>
+      <c r="AR47" s="101"/>
+      <c r="AS47" s="101"/>
+      <c r="AT47" s="101"/>
+      <c r="AU47" s="101"/>
+      <c r="AV47" s="101"/>
+      <c r="AW47" s="101"/>
+      <c r="AX47" s="93"/>
+      <c r="AY47" s="93"/>
+      <c r="AZ47" s="93"/>
+      <c r="BA47" s="93"/>
+      <c r="BB47" s="93"/>
+      <c r="BC47" s="93"/>
+      <c r="BD47" s="93"/>
+      <c r="BE47" s="93"/>
+      <c r="BF47" s="93"/>
+      <c r="BG47" s="93"/>
+      <c r="BH47" s="93"/>
+      <c r="BI47" s="93"/>
+      <c r="BJ47" s="93"/>
+      <c r="BK47" s="93"/>
+      <c r="BL47" s="93"/>
+      <c r="BM47" s="93"/>
+      <c r="BN47" s="93"/>
+      <c r="BO47" s="93"/>
+      <c r="BP47" s="93"/>
+      <c r="BQ47" s="93"/>
+      <c r="BR47" s="93"/>
+      <c r="BS47" s="93"/>
+      <c r="BT47" s="93"/>
+      <c r="BU47" s="93"/>
+      <c r="BV47" s="93"/>
+      <c r="BW47" s="93"/>
+      <c r="BX47" s="93"/>
+      <c r="BY47" s="93"/>
+      <c r="BZ47" s="93"/>
+      <c r="CA47" s="93"/>
+      <c r="CB47" s="93"/>
+      <c r="CC47" s="93"/>
+      <c r="CD47" s="93"/>
+      <c r="CE47" s="93"/>
+      <c r="CF47" s="93"/>
+      <c r="CG47" s="93"/>
+      <c r="CH47" s="93"/>
+      <c r="CI47" s="93"/>
+      <c r="CJ47" s="93"/>
+      <c r="CK47" s="93"/>
+      <c r="CS47" s="88"/>
+      <c r="CT47" s="88"/>
+      <c r="CU47" s="88"/>
+      <c r="CV47" s="88"/>
+      <c r="CW47" s="88"/>
+      <c r="CX47" s="88"/>
+      <c r="CY47" s="88"/>
       <c r="CZ47" s="76"/>
     </row>
     <row r="48" spans="1:104">
       <c r="A48" s="63">
         <v>23</v>
       </c>
-      <c r="B48" s="95"/>
-      <c r="C48" s="95"/>
-      <c r="D48" s="95"/>
-      <c r="E48" s="95"/>
-      <c r="F48" s="95"/>
-      <c r="G48" s="95"/>
-      <c r="H48" s="95"/>
-      <c r="I48" s="95"/>
-      <c r="J48" s="97"/>
-      <c r="K48" s="97"/>
-      <c r="L48" s="97"/>
-      <c r="M48" s="97"/>
-      <c r="N48" s="97"/>
-      <c r="O48" s="97"/>
-      <c r="P48" s="97"/>
-      <c r="Q48" s="97"/>
-      <c r="R48" s="93"/>
-      <c r="S48" s="93"/>
-      <c r="T48" s="93"/>
-      <c r="U48" s="93"/>
-      <c r="V48" s="93"/>
-      <c r="W48" s="93"/>
-      <c r="X48" s="93"/>
-      <c r="Y48" s="93"/>
-      <c r="Z48" s="98"/>
-      <c r="AA48" s="98"/>
-      <c r="AB48" s="98"/>
-      <c r="AC48" s="98"/>
-      <c r="AD48" s="98"/>
-      <c r="AE48" s="98"/>
-      <c r="AF48" s="98"/>
-      <c r="AG48" s="98"/>
-      <c r="AH48" s="98"/>
-      <c r="AI48" s="98"/>
-      <c r="AJ48" s="98"/>
-      <c r="AK48" s="98"/>
-      <c r="AL48" s="98"/>
-      <c r="AM48" s="98"/>
-      <c r="AN48" s="98"/>
-      <c r="AO48" s="98"/>
-      <c r="AP48" s="99"/>
-      <c r="AQ48" s="99"/>
-      <c r="AR48" s="99"/>
-      <c r="AS48" s="99"/>
-      <c r="AT48" s="99"/>
-      <c r="AU48" s="99"/>
-      <c r="AV48" s="99"/>
-      <c r="AW48" s="99"/>
-      <c r="AX48" s="89"/>
-      <c r="AY48" s="89"/>
-      <c r="AZ48" s="89"/>
-      <c r="BA48" s="89"/>
-      <c r="BB48" s="89"/>
-      <c r="BC48" s="89"/>
-      <c r="BD48" s="89"/>
-      <c r="BE48" s="89"/>
-      <c r="BF48" s="89"/>
-      <c r="BG48" s="89"/>
-      <c r="BH48" s="89"/>
-      <c r="BI48" s="89"/>
-      <c r="BJ48" s="89"/>
-      <c r="BK48" s="89"/>
-      <c r="BL48" s="89"/>
-      <c r="BM48" s="89"/>
-      <c r="BN48" s="89"/>
-      <c r="BO48" s="89"/>
-      <c r="BP48" s="89"/>
-      <c r="BQ48" s="89"/>
-      <c r="BR48" s="89"/>
-      <c r="BS48" s="89"/>
-      <c r="BT48" s="89"/>
-      <c r="BU48" s="89"/>
-      <c r="BV48" s="89"/>
-      <c r="BW48" s="89"/>
-      <c r="BX48" s="89"/>
-      <c r="BY48" s="89"/>
-      <c r="BZ48" s="89"/>
-      <c r="CA48" s="89"/>
-      <c r="CB48" s="89"/>
-      <c r="CC48" s="89"/>
-      <c r="CD48" s="89"/>
-      <c r="CE48" s="89"/>
-      <c r="CF48" s="89"/>
-      <c r="CG48" s="89"/>
-      <c r="CH48" s="89"/>
-      <c r="CI48" s="89"/>
-      <c r="CJ48" s="89"/>
-      <c r="CK48" s="89"/>
-      <c r="CS48" s="106"/>
-      <c r="CT48" s="106"/>
-      <c r="CU48" s="106"/>
-      <c r="CV48" s="106"/>
-      <c r="CW48" s="106"/>
-      <c r="CX48" s="106"/>
-      <c r="CY48" s="106"/>
+      <c r="B48" s="89"/>
+      <c r="C48" s="89"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="89"/>
+      <c r="G48" s="89"/>
+      <c r="H48" s="89"/>
+      <c r="I48" s="89"/>
+      <c r="J48" s="115"/>
+      <c r="K48" s="115"/>
+      <c r="L48" s="115"/>
+      <c r="M48" s="115"/>
+      <c r="N48" s="115"/>
+      <c r="O48" s="115"/>
+      <c r="P48" s="115"/>
+      <c r="Q48" s="115"/>
+      <c r="R48" s="99"/>
+      <c r="S48" s="99"/>
+      <c r="T48" s="99"/>
+      <c r="U48" s="99"/>
+      <c r="V48" s="99"/>
+      <c r="W48" s="99"/>
+      <c r="X48" s="99"/>
+      <c r="Y48" s="99"/>
+      <c r="Z48" s="94"/>
+      <c r="AA48" s="94"/>
+      <c r="AB48" s="94"/>
+      <c r="AC48" s="94"/>
+      <c r="AD48" s="94"/>
+      <c r="AE48" s="94"/>
+      <c r="AF48" s="94"/>
+      <c r="AG48" s="94"/>
+      <c r="AH48" s="94"/>
+      <c r="AI48" s="94"/>
+      <c r="AJ48" s="94"/>
+      <c r="AK48" s="94"/>
+      <c r="AL48" s="94"/>
+      <c r="AM48" s="94"/>
+      <c r="AN48" s="94"/>
+      <c r="AO48" s="94"/>
+      <c r="AP48" s="101"/>
+      <c r="AQ48" s="101"/>
+      <c r="AR48" s="101"/>
+      <c r="AS48" s="101"/>
+      <c r="AT48" s="101"/>
+      <c r="AU48" s="101"/>
+      <c r="AV48" s="101"/>
+      <c r="AW48" s="101"/>
+      <c r="AX48" s="93"/>
+      <c r="AY48" s="93"/>
+      <c r="AZ48" s="93"/>
+      <c r="BA48" s="93"/>
+      <c r="BB48" s="93"/>
+      <c r="BC48" s="93"/>
+      <c r="BD48" s="93"/>
+      <c r="BE48" s="93"/>
+      <c r="BF48" s="93"/>
+      <c r="BG48" s="93"/>
+      <c r="BH48" s="93"/>
+      <c r="BI48" s="93"/>
+      <c r="BJ48" s="93"/>
+      <c r="BK48" s="93"/>
+      <c r="BL48" s="93"/>
+      <c r="BM48" s="93"/>
+      <c r="BN48" s="93"/>
+      <c r="BO48" s="93"/>
+      <c r="BP48" s="93"/>
+      <c r="BQ48" s="93"/>
+      <c r="BR48" s="93"/>
+      <c r="BS48" s="93"/>
+      <c r="BT48" s="93"/>
+      <c r="BU48" s="93"/>
+      <c r="BV48" s="93"/>
+      <c r="BW48" s="93"/>
+      <c r="BX48" s="93"/>
+      <c r="BY48" s="93"/>
+      <c r="BZ48" s="93"/>
+      <c r="CA48" s="93"/>
+      <c r="CB48" s="93"/>
+      <c r="CC48" s="93"/>
+      <c r="CD48" s="93"/>
+      <c r="CE48" s="93"/>
+      <c r="CF48" s="93"/>
+      <c r="CG48" s="93"/>
+      <c r="CH48" s="93"/>
+      <c r="CI48" s="93"/>
+      <c r="CJ48" s="93"/>
+      <c r="CK48" s="93"/>
+      <c r="CS48" s="87"/>
+      <c r="CT48" s="87"/>
+      <c r="CU48" s="87"/>
+      <c r="CV48" s="87"/>
+      <c r="CW48" s="87"/>
+      <c r="CX48" s="87"/>
+      <c r="CY48" s="87"/>
       <c r="CZ48" s="76"/>
     </row>
     <row r="49" spans="1:104">
       <c r="A49" s="63">
         <v>24</v>
       </c>
-      <c r="B49" s="95"/>
-      <c r="C49" s="95"/>
-      <c r="D49" s="95"/>
-      <c r="E49" s="95"/>
-      <c r="F49" s="95"/>
-      <c r="G49" s="95"/>
-      <c r="H49" s="95"/>
-      <c r="I49" s="95"/>
-      <c r="J49" s="97"/>
-      <c r="K49" s="97"/>
-      <c r="L49" s="97"/>
-      <c r="M49" s="97"/>
-      <c r="N49" s="97"/>
-      <c r="O49" s="97"/>
-      <c r="P49" s="97"/>
-      <c r="Q49" s="97"/>
-      <c r="R49" s="93"/>
-      <c r="S49" s="93"/>
-      <c r="T49" s="93"/>
-      <c r="U49" s="93"/>
-      <c r="V49" s="93"/>
-      <c r="W49" s="93"/>
-      <c r="X49" s="93"/>
-      <c r="Y49" s="93"/>
-      <c r="Z49" s="98"/>
-      <c r="AA49" s="98"/>
-      <c r="AB49" s="98"/>
-      <c r="AC49" s="98"/>
-      <c r="AD49" s="98"/>
-      <c r="AE49" s="98"/>
-      <c r="AF49" s="98"/>
-      <c r="AG49" s="98"/>
-      <c r="AH49" s="98"/>
-      <c r="AI49" s="98"/>
-      <c r="AJ49" s="98"/>
-      <c r="AK49" s="98"/>
-      <c r="AL49" s="98"/>
-      <c r="AM49" s="98"/>
-      <c r="AN49" s="98"/>
-      <c r="AO49" s="98"/>
-      <c r="AP49" s="99"/>
-      <c r="AQ49" s="99"/>
-      <c r="AR49" s="99"/>
-      <c r="AS49" s="99"/>
-      <c r="AT49" s="99"/>
-      <c r="AU49" s="99"/>
-      <c r="AV49" s="99"/>
-      <c r="AW49" s="99"/>
-      <c r="AX49" s="89"/>
-      <c r="AY49" s="89"/>
-      <c r="AZ49" s="89"/>
-      <c r="BA49" s="89"/>
-      <c r="BB49" s="89"/>
-      <c r="BC49" s="89"/>
-      <c r="BD49" s="89"/>
-      <c r="BE49" s="89"/>
-      <c r="BF49" s="89"/>
-      <c r="BG49" s="89"/>
-      <c r="BH49" s="89"/>
-      <c r="BI49" s="89"/>
-      <c r="BJ49" s="89"/>
-      <c r="BK49" s="89"/>
-      <c r="BL49" s="89"/>
-      <c r="BM49" s="89"/>
-      <c r="BN49" s="89"/>
-      <c r="BO49" s="89"/>
-      <c r="BP49" s="89"/>
-      <c r="BQ49" s="89"/>
-      <c r="BR49" s="89"/>
-      <c r="BS49" s="89"/>
-      <c r="BT49" s="89"/>
-      <c r="BU49" s="89"/>
+      <c r="B49" s="89"/>
+      <c r="C49" s="89"/>
+      <c r="D49" s="89"/>
+      <c r="E49" s="89"/>
+      <c r="F49" s="89"/>
+      <c r="G49" s="89"/>
+      <c r="H49" s="89"/>
+      <c r="I49" s="89"/>
+      <c r="J49" s="115"/>
+      <c r="K49" s="115"/>
+      <c r="L49" s="115"/>
+      <c r="M49" s="115"/>
+      <c r="N49" s="115"/>
+      <c r="O49" s="115"/>
+      <c r="P49" s="115"/>
+      <c r="Q49" s="115"/>
+      <c r="R49" s="99"/>
+      <c r="S49" s="99"/>
+      <c r="T49" s="99"/>
+      <c r="U49" s="99"/>
+      <c r="V49" s="99"/>
+      <c r="W49" s="99"/>
+      <c r="X49" s="99"/>
+      <c r="Y49" s="99"/>
+      <c r="Z49" s="94"/>
+      <c r="AA49" s="94"/>
+      <c r="AB49" s="94"/>
+      <c r="AC49" s="94"/>
+      <c r="AD49" s="94"/>
+      <c r="AE49" s="94"/>
+      <c r="AF49" s="94"/>
+      <c r="AG49" s="94"/>
+      <c r="AH49" s="94"/>
+      <c r="AI49" s="94"/>
+      <c r="AJ49" s="94"/>
+      <c r="AK49" s="94"/>
+      <c r="AL49" s="94"/>
+      <c r="AM49" s="94"/>
+      <c r="AN49" s="94"/>
+      <c r="AO49" s="94"/>
+      <c r="AP49" s="101"/>
+      <c r="AQ49" s="101"/>
+      <c r="AR49" s="101"/>
+      <c r="AS49" s="101"/>
+      <c r="AT49" s="101"/>
+      <c r="AU49" s="101"/>
+      <c r="AV49" s="101"/>
+      <c r="AW49" s="101"/>
+      <c r="AX49" s="93"/>
+      <c r="AY49" s="93"/>
+      <c r="AZ49" s="93"/>
+      <c r="BA49" s="93"/>
+      <c r="BB49" s="93"/>
+      <c r="BC49" s="93"/>
+      <c r="BD49" s="93"/>
+      <c r="BE49" s="93"/>
+      <c r="BF49" s="93"/>
+      <c r="BG49" s="93"/>
+      <c r="BH49" s="93"/>
+      <c r="BI49" s="93"/>
+      <c r="BJ49" s="93"/>
+      <c r="BK49" s="93"/>
+      <c r="BL49" s="93"/>
+      <c r="BM49" s="93"/>
+      <c r="BN49" s="93"/>
+      <c r="BO49" s="93"/>
+      <c r="BP49" s="93"/>
+      <c r="BQ49" s="93"/>
+      <c r="BR49" s="93"/>
+      <c r="BS49" s="93"/>
+      <c r="BT49" s="93"/>
+      <c r="BU49" s="93"/>
       <c r="BV49" s="73"/>
       <c r="BW49" s="73"/>
       <c r="BX49" s="73"/>
@@ -5645,99 +5645,99 @@
       <c r="CA49" s="73"/>
       <c r="CB49" s="73"/>
       <c r="CC49" s="73"/>
-      <c r="CD49" s="89"/>
-      <c r="CE49" s="89"/>
-      <c r="CF49" s="89"/>
-      <c r="CG49" s="89"/>
-      <c r="CH49" s="89"/>
-      <c r="CI49" s="89"/>
-      <c r="CJ49" s="89"/>
-      <c r="CK49" s="89"/>
-      <c r="CS49" s="106"/>
-      <c r="CT49" s="106"/>
-      <c r="CU49" s="106"/>
-      <c r="CV49" s="106"/>
-      <c r="CW49" s="106"/>
-      <c r="CX49" s="106"/>
-      <c r="CY49" s="106"/>
+      <c r="CD49" s="93"/>
+      <c r="CE49" s="93"/>
+      <c r="CF49" s="93"/>
+      <c r="CG49" s="93"/>
+      <c r="CH49" s="93"/>
+      <c r="CI49" s="93"/>
+      <c r="CJ49" s="93"/>
+      <c r="CK49" s="93"/>
+      <c r="CS49" s="87"/>
+      <c r="CT49" s="87"/>
+      <c r="CU49" s="87"/>
+      <c r="CV49" s="87"/>
+      <c r="CW49" s="87"/>
+      <c r="CX49" s="87"/>
+      <c r="CY49" s="87"/>
       <c r="CZ49" s="76"/>
     </row>
     <row r="50" spans="1:104">
       <c r="A50" s="63">
         <v>25</v>
       </c>
-      <c r="B50" s="95"/>
-      <c r="C50" s="95"/>
-      <c r="D50" s="95"/>
-      <c r="E50" s="95"/>
-      <c r="F50" s="95"/>
-      <c r="G50" s="95"/>
-      <c r="H50" s="95"/>
-      <c r="I50" s="95"/>
-      <c r="J50" s="97"/>
-      <c r="K50" s="97"/>
-      <c r="L50" s="97"/>
-      <c r="M50" s="97"/>
-      <c r="N50" s="97"/>
-      <c r="O50" s="97"/>
-      <c r="P50" s="97"/>
-      <c r="Q50" s="97"/>
-      <c r="R50" s="93"/>
-      <c r="S50" s="93"/>
-      <c r="T50" s="93"/>
-      <c r="U50" s="93"/>
-      <c r="V50" s="93"/>
-      <c r="W50" s="93"/>
-      <c r="X50" s="93"/>
-      <c r="Y50" s="93"/>
-      <c r="Z50" s="98"/>
-      <c r="AA50" s="98"/>
-      <c r="AB50" s="98"/>
-      <c r="AC50" s="98"/>
-      <c r="AD50" s="98"/>
-      <c r="AE50" s="98"/>
-      <c r="AF50" s="98"/>
-      <c r="AG50" s="98"/>
-      <c r="AH50" s="98"/>
-      <c r="AI50" s="98"/>
-      <c r="AJ50" s="98"/>
-      <c r="AK50" s="98"/>
-      <c r="AL50" s="98"/>
-      <c r="AM50" s="98"/>
-      <c r="AN50" s="98"/>
-      <c r="AO50" s="98"/>
-      <c r="AP50" s="99"/>
-      <c r="AQ50" s="99"/>
-      <c r="AR50" s="99"/>
-      <c r="AS50" s="99"/>
-      <c r="AT50" s="99"/>
-      <c r="AU50" s="99"/>
-      <c r="AV50" s="99"/>
-      <c r="AW50" s="99"/>
-      <c r="AX50" s="89"/>
-      <c r="AY50" s="89"/>
-      <c r="AZ50" s="89"/>
-      <c r="BA50" s="89"/>
-      <c r="BB50" s="89"/>
-      <c r="BC50" s="89"/>
-      <c r="BD50" s="89"/>
-      <c r="BE50" s="89"/>
-      <c r="BF50" s="89"/>
-      <c r="BG50" s="89"/>
-      <c r="BH50" s="89"/>
-      <c r="BI50" s="89"/>
-      <c r="BJ50" s="89"/>
-      <c r="BK50" s="89"/>
-      <c r="BL50" s="89"/>
-      <c r="BM50" s="89"/>
-      <c r="BN50" s="89"/>
-      <c r="BO50" s="89"/>
-      <c r="BP50" s="89"/>
-      <c r="BQ50" s="89"/>
-      <c r="BR50" s="89"/>
-      <c r="BS50" s="89"/>
-      <c r="BT50" s="89"/>
-      <c r="BU50" s="89"/>
+      <c r="B50" s="89"/>
+      <c r="C50" s="89"/>
+      <c r="D50" s="89"/>
+      <c r="E50" s="89"/>
+      <c r="F50" s="89"/>
+      <c r="G50" s="89"/>
+      <c r="H50" s="89"/>
+      <c r="I50" s="89"/>
+      <c r="J50" s="115"/>
+      <c r="K50" s="115"/>
+      <c r="L50" s="115"/>
+      <c r="M50" s="115"/>
+      <c r="N50" s="115"/>
+      <c r="O50" s="115"/>
+      <c r="P50" s="115"/>
+      <c r="Q50" s="115"/>
+      <c r="R50" s="99"/>
+      <c r="S50" s="99"/>
+      <c r="T50" s="99"/>
+      <c r="U50" s="99"/>
+      <c r="V50" s="99"/>
+      <c r="W50" s="99"/>
+      <c r="X50" s="99"/>
+      <c r="Y50" s="99"/>
+      <c r="Z50" s="94"/>
+      <c r="AA50" s="94"/>
+      <c r="AB50" s="94"/>
+      <c r="AC50" s="94"/>
+      <c r="AD50" s="94"/>
+      <c r="AE50" s="94"/>
+      <c r="AF50" s="94"/>
+      <c r="AG50" s="94"/>
+      <c r="AH50" s="94"/>
+      <c r="AI50" s="94"/>
+      <c r="AJ50" s="94"/>
+      <c r="AK50" s="94"/>
+      <c r="AL50" s="94"/>
+      <c r="AM50" s="94"/>
+      <c r="AN50" s="94"/>
+      <c r="AO50" s="94"/>
+      <c r="AP50" s="101"/>
+      <c r="AQ50" s="101"/>
+      <c r="AR50" s="101"/>
+      <c r="AS50" s="101"/>
+      <c r="AT50" s="101"/>
+      <c r="AU50" s="101"/>
+      <c r="AV50" s="101"/>
+      <c r="AW50" s="101"/>
+      <c r="AX50" s="93"/>
+      <c r="AY50" s="93"/>
+      <c r="AZ50" s="93"/>
+      <c r="BA50" s="93"/>
+      <c r="BB50" s="93"/>
+      <c r="BC50" s="93"/>
+      <c r="BD50" s="93"/>
+      <c r="BE50" s="93"/>
+      <c r="BF50" s="93"/>
+      <c r="BG50" s="93"/>
+      <c r="BH50" s="93"/>
+      <c r="BI50" s="93"/>
+      <c r="BJ50" s="93"/>
+      <c r="BK50" s="93"/>
+      <c r="BL50" s="93"/>
+      <c r="BM50" s="93"/>
+      <c r="BN50" s="93"/>
+      <c r="BO50" s="93"/>
+      <c r="BP50" s="93"/>
+      <c r="BQ50" s="93"/>
+      <c r="BR50" s="93"/>
+      <c r="BS50" s="93"/>
+      <c r="BT50" s="93"/>
+      <c r="BU50" s="93"/>
       <c r="BV50" s="73"/>
       <c r="BW50" s="73"/>
       <c r="BX50" s="73"/>
@@ -5746,99 +5746,99 @@
       <c r="CA50" s="73"/>
       <c r="CB50" s="73"/>
       <c r="CC50" s="73"/>
-      <c r="CD50" s="89"/>
-      <c r="CE50" s="89"/>
-      <c r="CF50" s="89"/>
-      <c r="CG50" s="89"/>
-      <c r="CH50" s="89"/>
-      <c r="CI50" s="89"/>
-      <c r="CJ50" s="89"/>
-      <c r="CK50" s="89"/>
-      <c r="CS50" s="94"/>
-      <c r="CT50" s="94"/>
-      <c r="CU50" s="94"/>
-      <c r="CV50" s="94"/>
-      <c r="CW50" s="94"/>
-      <c r="CX50" s="94"/>
-      <c r="CY50" s="94"/>
+      <c r="CD50" s="93"/>
+      <c r="CE50" s="93"/>
+      <c r="CF50" s="93"/>
+      <c r="CG50" s="93"/>
+      <c r="CH50" s="93"/>
+      <c r="CI50" s="93"/>
+      <c r="CJ50" s="93"/>
+      <c r="CK50" s="93"/>
+      <c r="CS50" s="88"/>
+      <c r="CT50" s="88"/>
+      <c r="CU50" s="88"/>
+      <c r="CV50" s="88"/>
+      <c r="CW50" s="88"/>
+      <c r="CX50" s="88"/>
+      <c r="CY50" s="88"/>
       <c r="CZ50" s="76"/>
     </row>
     <row r="51" spans="1:104">
       <c r="A51" s="63">
         <v>26</v>
       </c>
-      <c r="B51" s="95"/>
-      <c r="C51" s="95"/>
-      <c r="D51" s="95"/>
-      <c r="E51" s="95"/>
-      <c r="F51" s="95"/>
-      <c r="G51" s="95"/>
-      <c r="H51" s="95"/>
-      <c r="I51" s="95"/>
-      <c r="J51" s="97"/>
-      <c r="K51" s="97"/>
-      <c r="L51" s="97"/>
-      <c r="M51" s="97"/>
-      <c r="N51" s="97"/>
-      <c r="O51" s="97"/>
-      <c r="P51" s="97"/>
-      <c r="Q51" s="97"/>
-      <c r="R51" s="93"/>
-      <c r="S51" s="93"/>
-      <c r="T51" s="93"/>
-      <c r="U51" s="93"/>
-      <c r="V51" s="93"/>
-      <c r="W51" s="93"/>
-      <c r="X51" s="93"/>
-      <c r="Y51" s="93"/>
-      <c r="Z51" s="98"/>
-      <c r="AA51" s="98"/>
-      <c r="AB51" s="98"/>
-      <c r="AC51" s="98"/>
-      <c r="AD51" s="98"/>
-      <c r="AE51" s="98"/>
-      <c r="AF51" s="98"/>
-      <c r="AG51" s="98"/>
-      <c r="AH51" s="98"/>
-      <c r="AI51" s="98"/>
-      <c r="AJ51" s="98"/>
-      <c r="AK51" s="98"/>
-      <c r="AL51" s="98"/>
-      <c r="AM51" s="98"/>
-      <c r="AN51" s="98"/>
-      <c r="AO51" s="98"/>
-      <c r="AP51" s="99"/>
-      <c r="AQ51" s="99"/>
-      <c r="AR51" s="99"/>
-      <c r="AS51" s="99"/>
-      <c r="AT51" s="99"/>
-      <c r="AU51" s="99"/>
-      <c r="AV51" s="99"/>
-      <c r="AW51" s="99"/>
-      <c r="AX51" s="89"/>
-      <c r="AY51" s="89"/>
-      <c r="AZ51" s="89"/>
-      <c r="BA51" s="89"/>
-      <c r="BB51" s="89"/>
-      <c r="BC51" s="89"/>
-      <c r="BD51" s="89"/>
-      <c r="BE51" s="89"/>
-      <c r="BF51" s="89"/>
-      <c r="BG51" s="89"/>
-      <c r="BH51" s="89"/>
-      <c r="BI51" s="89"/>
-      <c r="BJ51" s="89"/>
-      <c r="BK51" s="89"/>
-      <c r="BL51" s="89"/>
-      <c r="BM51" s="89"/>
-      <c r="BN51" s="89"/>
-      <c r="BO51" s="89"/>
-      <c r="BP51" s="89"/>
-      <c r="BQ51" s="89"/>
-      <c r="BR51" s="89"/>
-      <c r="BS51" s="89"/>
-      <c r="BT51" s="89"/>
-      <c r="BU51" s="89"/>
+      <c r="B51" s="89"/>
+      <c r="C51" s="89"/>
+      <c r="D51" s="89"/>
+      <c r="E51" s="89"/>
+      <c r="F51" s="89"/>
+      <c r="G51" s="89"/>
+      <c r="H51" s="89"/>
+      <c r="I51" s="89"/>
+      <c r="J51" s="115"/>
+      <c r="K51" s="115"/>
+      <c r="L51" s="115"/>
+      <c r="M51" s="115"/>
+      <c r="N51" s="115"/>
+      <c r="O51" s="115"/>
+      <c r="P51" s="115"/>
+      <c r="Q51" s="115"/>
+      <c r="R51" s="99"/>
+      <c r="S51" s="99"/>
+      <c r="T51" s="99"/>
+      <c r="U51" s="99"/>
+      <c r="V51" s="99"/>
+      <c r="W51" s="99"/>
+      <c r="X51" s="99"/>
+      <c r="Y51" s="99"/>
+      <c r="Z51" s="94"/>
+      <c r="AA51" s="94"/>
+      <c r="AB51" s="94"/>
+      <c r="AC51" s="94"/>
+      <c r="AD51" s="94"/>
+      <c r="AE51" s="94"/>
+      <c r="AF51" s="94"/>
+      <c r="AG51" s="94"/>
+      <c r="AH51" s="94"/>
+      <c r="AI51" s="94"/>
+      <c r="AJ51" s="94"/>
+      <c r="AK51" s="94"/>
+      <c r="AL51" s="94"/>
+      <c r="AM51" s="94"/>
+      <c r="AN51" s="94"/>
+      <c r="AO51" s="94"/>
+      <c r="AP51" s="101"/>
+      <c r="AQ51" s="101"/>
+      <c r="AR51" s="101"/>
+      <c r="AS51" s="101"/>
+      <c r="AT51" s="101"/>
+      <c r="AU51" s="101"/>
+      <c r="AV51" s="101"/>
+      <c r="AW51" s="101"/>
+      <c r="AX51" s="93"/>
+      <c r="AY51" s="93"/>
+      <c r="AZ51" s="93"/>
+      <c r="BA51" s="93"/>
+      <c r="BB51" s="93"/>
+      <c r="BC51" s="93"/>
+      <c r="BD51" s="93"/>
+      <c r="BE51" s="93"/>
+      <c r="BF51" s="93"/>
+      <c r="BG51" s="93"/>
+      <c r="BH51" s="93"/>
+      <c r="BI51" s="93"/>
+      <c r="BJ51" s="93"/>
+      <c r="BK51" s="93"/>
+      <c r="BL51" s="93"/>
+      <c r="BM51" s="93"/>
+      <c r="BN51" s="93"/>
+      <c r="BO51" s="93"/>
+      <c r="BP51" s="93"/>
+      <c r="BQ51" s="93"/>
+      <c r="BR51" s="93"/>
+      <c r="BS51" s="93"/>
+      <c r="BT51" s="93"/>
+      <c r="BU51" s="93"/>
       <c r="BV51" s="73"/>
       <c r="BW51" s="73"/>
       <c r="BX51" s="73"/>
@@ -5847,98 +5847,98 @@
       <c r="CA51" s="73"/>
       <c r="CB51" s="73"/>
       <c r="CC51" s="73"/>
-      <c r="CD51" s="89"/>
-      <c r="CE51" s="89"/>
-      <c r="CF51" s="89"/>
-      <c r="CG51" s="89"/>
-      <c r="CH51" s="89"/>
-      <c r="CI51" s="89"/>
-      <c r="CJ51" s="89"/>
-      <c r="CK51" s="89"/>
-      <c r="CS51" s="106"/>
-      <c r="CT51" s="106"/>
-      <c r="CU51" s="106"/>
-      <c r="CV51" s="106"/>
-      <c r="CW51" s="106"/>
-      <c r="CX51" s="106"/>
-      <c r="CY51" s="106"/>
+      <c r="CD51" s="93"/>
+      <c r="CE51" s="93"/>
+      <c r="CF51" s="93"/>
+      <c r="CG51" s="93"/>
+      <c r="CH51" s="93"/>
+      <c r="CI51" s="93"/>
+      <c r="CJ51" s="93"/>
+      <c r="CK51" s="93"/>
+      <c r="CS51" s="87"/>
+      <c r="CT51" s="87"/>
+      <c r="CU51" s="87"/>
+      <c r="CV51" s="87"/>
+      <c r="CW51" s="87"/>
+      <c r="CX51" s="87"/>
+      <c r="CY51" s="87"/>
     </row>
     <row r="52" spans="1:104">
       <c r="A52" s="63">
         <v>27</v>
       </c>
-      <c r="B52" s="95"/>
-      <c r="C52" s="95"/>
-      <c r="D52" s="95"/>
-      <c r="E52" s="95"/>
-      <c r="F52" s="95"/>
-      <c r="G52" s="95"/>
-      <c r="H52" s="95"/>
-      <c r="I52" s="95"/>
-      <c r="J52" s="97"/>
-      <c r="K52" s="97"/>
-      <c r="L52" s="97"/>
-      <c r="M52" s="97"/>
-      <c r="N52" s="97"/>
-      <c r="O52" s="97"/>
-      <c r="P52" s="97"/>
-      <c r="Q52" s="97"/>
-      <c r="R52" s="93"/>
-      <c r="S52" s="93"/>
-      <c r="T52" s="93"/>
-      <c r="U52" s="93"/>
-      <c r="V52" s="93"/>
-      <c r="W52" s="93"/>
-      <c r="X52" s="93"/>
-      <c r="Y52" s="93"/>
-      <c r="Z52" s="98"/>
-      <c r="AA52" s="98"/>
-      <c r="AB52" s="98"/>
-      <c r="AC52" s="98"/>
-      <c r="AD52" s="98"/>
-      <c r="AE52" s="98"/>
-      <c r="AF52" s="98"/>
-      <c r="AG52" s="98"/>
-      <c r="AH52" s="98"/>
-      <c r="AI52" s="98"/>
-      <c r="AJ52" s="98"/>
-      <c r="AK52" s="98"/>
-      <c r="AL52" s="98"/>
-      <c r="AM52" s="98"/>
-      <c r="AN52" s="98"/>
-      <c r="AO52" s="98"/>
-      <c r="AP52" s="99"/>
-      <c r="AQ52" s="99"/>
-      <c r="AR52" s="99"/>
-      <c r="AS52" s="99"/>
-      <c r="AT52" s="99"/>
-      <c r="AU52" s="99"/>
-      <c r="AV52" s="99"/>
-      <c r="AW52" s="99"/>
-      <c r="AX52" s="89"/>
-      <c r="AY52" s="89"/>
-      <c r="AZ52" s="89"/>
-      <c r="BA52" s="89"/>
-      <c r="BB52" s="89"/>
-      <c r="BC52" s="89"/>
-      <c r="BD52" s="89"/>
-      <c r="BE52" s="89"/>
-      <c r="BF52" s="89"/>
-      <c r="BG52" s="89"/>
-      <c r="BH52" s="89"/>
-      <c r="BI52" s="89"/>
-      <c r="BJ52" s="89"/>
-      <c r="BK52" s="89"/>
-      <c r="BL52" s="89"/>
-      <c r="BM52" s="89"/>
-      <c r="BN52" s="89"/>
-      <c r="BO52" s="89"/>
-      <c r="BP52" s="89"/>
-      <c r="BQ52" s="89"/>
-      <c r="BR52" s="89"/>
-      <c r="BS52" s="89"/>
-      <c r="BT52" s="89"/>
-      <c r="BU52" s="89"/>
+      <c r="B52" s="89"/>
+      <c r="C52" s="89"/>
+      <c r="D52" s="89"/>
+      <c r="E52" s="89"/>
+      <c r="F52" s="89"/>
+      <c r="G52" s="89"/>
+      <c r="H52" s="89"/>
+      <c r="I52" s="89"/>
+      <c r="J52" s="115"/>
+      <c r="K52" s="115"/>
+      <c r="L52" s="115"/>
+      <c r="M52" s="115"/>
+      <c r="N52" s="115"/>
+      <c r="O52" s="115"/>
+      <c r="P52" s="115"/>
+      <c r="Q52" s="115"/>
+      <c r="R52" s="99"/>
+      <c r="S52" s="99"/>
+      <c r="T52" s="99"/>
+      <c r="U52" s="99"/>
+      <c r="V52" s="99"/>
+      <c r="W52" s="99"/>
+      <c r="X52" s="99"/>
+      <c r="Y52" s="99"/>
+      <c r="Z52" s="94"/>
+      <c r="AA52" s="94"/>
+      <c r="AB52" s="94"/>
+      <c r="AC52" s="94"/>
+      <c r="AD52" s="94"/>
+      <c r="AE52" s="94"/>
+      <c r="AF52" s="94"/>
+      <c r="AG52" s="94"/>
+      <c r="AH52" s="94"/>
+      <c r="AI52" s="94"/>
+      <c r="AJ52" s="94"/>
+      <c r="AK52" s="94"/>
+      <c r="AL52" s="94"/>
+      <c r="AM52" s="94"/>
+      <c r="AN52" s="94"/>
+      <c r="AO52" s="94"/>
+      <c r="AP52" s="101"/>
+      <c r="AQ52" s="101"/>
+      <c r="AR52" s="101"/>
+      <c r="AS52" s="101"/>
+      <c r="AT52" s="101"/>
+      <c r="AU52" s="101"/>
+      <c r="AV52" s="101"/>
+      <c r="AW52" s="101"/>
+      <c r="AX52" s="93"/>
+      <c r="AY52" s="93"/>
+      <c r="AZ52" s="93"/>
+      <c r="BA52" s="93"/>
+      <c r="BB52" s="93"/>
+      <c r="BC52" s="93"/>
+      <c r="BD52" s="93"/>
+      <c r="BE52" s="93"/>
+      <c r="BF52" s="93"/>
+      <c r="BG52" s="93"/>
+      <c r="BH52" s="93"/>
+      <c r="BI52" s="93"/>
+      <c r="BJ52" s="93"/>
+      <c r="BK52" s="93"/>
+      <c r="BL52" s="93"/>
+      <c r="BM52" s="93"/>
+      <c r="BN52" s="93"/>
+      <c r="BO52" s="93"/>
+      <c r="BP52" s="93"/>
+      <c r="BQ52" s="93"/>
+      <c r="BR52" s="93"/>
+      <c r="BS52" s="93"/>
+      <c r="BT52" s="93"/>
+      <c r="BU52" s="93"/>
       <c r="BV52" s="73"/>
       <c r="BW52" s="73"/>
       <c r="BX52" s="73"/>
@@ -5947,98 +5947,98 @@
       <c r="CA52" s="73"/>
       <c r="CB52" s="73"/>
       <c r="CC52" s="73"/>
-      <c r="CD52" s="89"/>
-      <c r="CE52" s="89"/>
-      <c r="CF52" s="89"/>
-      <c r="CG52" s="89"/>
-      <c r="CH52" s="89"/>
-      <c r="CI52" s="89"/>
-      <c r="CJ52" s="89"/>
-      <c r="CK52" s="89"/>
-      <c r="CS52" s="106"/>
-      <c r="CT52" s="106"/>
-      <c r="CU52" s="106"/>
-      <c r="CV52" s="106"/>
-      <c r="CW52" s="106"/>
-      <c r="CX52" s="106"/>
-      <c r="CY52" s="106"/>
+      <c r="CD52" s="93"/>
+      <c r="CE52" s="93"/>
+      <c r="CF52" s="93"/>
+      <c r="CG52" s="93"/>
+      <c r="CH52" s="93"/>
+      <c r="CI52" s="93"/>
+      <c r="CJ52" s="93"/>
+      <c r="CK52" s="93"/>
+      <c r="CS52" s="87"/>
+      <c r="CT52" s="87"/>
+      <c r="CU52" s="87"/>
+      <c r="CV52" s="87"/>
+      <c r="CW52" s="87"/>
+      <c r="CX52" s="87"/>
+      <c r="CY52" s="87"/>
     </row>
     <row r="53" spans="1:104">
       <c r="A53" s="63">
         <v>28</v>
       </c>
-      <c r="B53" s="95"/>
-      <c r="C53" s="95"/>
-      <c r="D53" s="95"/>
-      <c r="E53" s="95"/>
-      <c r="F53" s="95"/>
-      <c r="G53" s="95"/>
-      <c r="H53" s="95"/>
-      <c r="I53" s="95"/>
-      <c r="J53" s="97"/>
-      <c r="K53" s="97"/>
-      <c r="L53" s="97"/>
-      <c r="M53" s="97"/>
-      <c r="N53" s="97"/>
-      <c r="O53" s="97"/>
-      <c r="P53" s="97"/>
-      <c r="Q53" s="97"/>
-      <c r="R53" s="93"/>
-      <c r="S53" s="93"/>
-      <c r="T53" s="93"/>
-      <c r="U53" s="93"/>
-      <c r="V53" s="93"/>
-      <c r="W53" s="93"/>
-      <c r="X53" s="93"/>
-      <c r="Y53" s="93"/>
-      <c r="Z53" s="98"/>
-      <c r="AA53" s="98"/>
-      <c r="AB53" s="98"/>
-      <c r="AC53" s="98"/>
-      <c r="AD53" s="98"/>
-      <c r="AE53" s="98"/>
-      <c r="AF53" s="98"/>
-      <c r="AG53" s="98"/>
-      <c r="AH53" s="98"/>
-      <c r="AI53" s="98"/>
-      <c r="AJ53" s="98"/>
-      <c r="AK53" s="98"/>
-      <c r="AL53" s="98"/>
-      <c r="AM53" s="98"/>
-      <c r="AN53" s="98"/>
-      <c r="AO53" s="98"/>
-      <c r="AP53" s="99"/>
-      <c r="AQ53" s="99"/>
-      <c r="AR53" s="99"/>
-      <c r="AS53" s="99"/>
-      <c r="AT53" s="99"/>
-      <c r="AU53" s="99"/>
-      <c r="AV53" s="99"/>
-      <c r="AW53" s="99"/>
-      <c r="AX53" s="89"/>
-      <c r="AY53" s="89"/>
-      <c r="AZ53" s="89"/>
-      <c r="BA53" s="89"/>
-      <c r="BB53" s="89"/>
-      <c r="BC53" s="89"/>
-      <c r="BD53" s="89"/>
-      <c r="BE53" s="89"/>
-      <c r="BF53" s="89"/>
-      <c r="BG53" s="89"/>
-      <c r="BH53" s="89"/>
-      <c r="BI53" s="89"/>
-      <c r="BJ53" s="89"/>
-      <c r="BK53" s="89"/>
-      <c r="BL53" s="89"/>
-      <c r="BM53" s="89"/>
-      <c r="BN53" s="89"/>
-      <c r="BO53" s="89"/>
-      <c r="BP53" s="89"/>
-      <c r="BQ53" s="89"/>
-      <c r="BR53" s="89"/>
-      <c r="BS53" s="89"/>
-      <c r="BT53" s="89"/>
-      <c r="BU53" s="89"/>
+      <c r="B53" s="89"/>
+      <c r="C53" s="89"/>
+      <c r="D53" s="89"/>
+      <c r="E53" s="89"/>
+      <c r="F53" s="89"/>
+      <c r="G53" s="89"/>
+      <c r="H53" s="89"/>
+      <c r="I53" s="89"/>
+      <c r="J53" s="115"/>
+      <c r="K53" s="115"/>
+      <c r="L53" s="115"/>
+      <c r="M53" s="115"/>
+      <c r="N53" s="115"/>
+      <c r="O53" s="115"/>
+      <c r="P53" s="115"/>
+      <c r="Q53" s="115"/>
+      <c r="R53" s="99"/>
+      <c r="S53" s="99"/>
+      <c r="T53" s="99"/>
+      <c r="U53" s="99"/>
+      <c r="V53" s="99"/>
+      <c r="W53" s="99"/>
+      <c r="X53" s="99"/>
+      <c r="Y53" s="99"/>
+      <c r="Z53" s="94"/>
+      <c r="AA53" s="94"/>
+      <c r="AB53" s="94"/>
+      <c r="AC53" s="94"/>
+      <c r="AD53" s="94"/>
+      <c r="AE53" s="94"/>
+      <c r="AF53" s="94"/>
+      <c r="AG53" s="94"/>
+      <c r="AH53" s="94"/>
+      <c r="AI53" s="94"/>
+      <c r="AJ53" s="94"/>
+      <c r="AK53" s="94"/>
+      <c r="AL53" s="94"/>
+      <c r="AM53" s="94"/>
+      <c r="AN53" s="94"/>
+      <c r="AO53" s="94"/>
+      <c r="AP53" s="101"/>
+      <c r="AQ53" s="101"/>
+      <c r="AR53" s="101"/>
+      <c r="AS53" s="101"/>
+      <c r="AT53" s="101"/>
+      <c r="AU53" s="101"/>
+      <c r="AV53" s="101"/>
+      <c r="AW53" s="101"/>
+      <c r="AX53" s="93"/>
+      <c r="AY53" s="93"/>
+      <c r="AZ53" s="93"/>
+      <c r="BA53" s="93"/>
+      <c r="BB53" s="93"/>
+      <c r="BC53" s="93"/>
+      <c r="BD53" s="93"/>
+      <c r="BE53" s="93"/>
+      <c r="BF53" s="93"/>
+      <c r="BG53" s="93"/>
+      <c r="BH53" s="93"/>
+      <c r="BI53" s="93"/>
+      <c r="BJ53" s="93"/>
+      <c r="BK53" s="93"/>
+      <c r="BL53" s="93"/>
+      <c r="BM53" s="93"/>
+      <c r="BN53" s="93"/>
+      <c r="BO53" s="93"/>
+      <c r="BP53" s="93"/>
+      <c r="BQ53" s="93"/>
+      <c r="BR53" s="93"/>
+      <c r="BS53" s="93"/>
+      <c r="BT53" s="93"/>
+      <c r="BU53" s="93"/>
       <c r="BV53" s="73"/>
       <c r="BW53" s="73"/>
       <c r="BX53" s="73"/>
@@ -6047,14 +6047,14 @@
       <c r="CA53" s="73"/>
       <c r="CB53" s="73"/>
       <c r="CC53" s="73"/>
-      <c r="CD53" s="89"/>
-      <c r="CE53" s="89"/>
-      <c r="CF53" s="89"/>
-      <c r="CG53" s="89"/>
-      <c r="CH53" s="89"/>
-      <c r="CI53" s="89"/>
-      <c r="CJ53" s="89"/>
-      <c r="CK53" s="89"/>
+      <c r="CD53" s="93"/>
+      <c r="CE53" s="93"/>
+      <c r="CF53" s="93"/>
+      <c r="CG53" s="93"/>
+      <c r="CH53" s="93"/>
+      <c r="CI53" s="93"/>
+      <c r="CJ53" s="93"/>
+      <c r="CK53" s="93"/>
       <c r="CT53" s="76"/>
       <c r="CU53" s="76"/>
       <c r="CV53" s="76"/>
@@ -6066,78 +6066,78 @@
       <c r="A54" s="63">
         <v>29</v>
       </c>
-      <c r="B54" s="95"/>
-      <c r="C54" s="95"/>
-      <c r="D54" s="95"/>
-      <c r="E54" s="95"/>
-      <c r="F54" s="95"/>
-      <c r="G54" s="95"/>
-      <c r="H54" s="95"/>
-      <c r="I54" s="95"/>
-      <c r="J54" s="97"/>
-      <c r="K54" s="97"/>
-      <c r="L54" s="97"/>
-      <c r="M54" s="97"/>
-      <c r="N54" s="97"/>
-      <c r="O54" s="97"/>
-      <c r="P54" s="97"/>
-      <c r="Q54" s="97"/>
-      <c r="R54" s="93"/>
-      <c r="S54" s="93"/>
-      <c r="T54" s="93"/>
-      <c r="U54" s="93"/>
-      <c r="V54" s="93"/>
-      <c r="W54" s="93"/>
-      <c r="X54" s="93"/>
-      <c r="Y54" s="93"/>
-      <c r="Z54" s="98"/>
-      <c r="AA54" s="98"/>
-      <c r="AB54" s="98"/>
-      <c r="AC54" s="98"/>
-      <c r="AD54" s="98"/>
-      <c r="AE54" s="98"/>
-      <c r="AF54" s="98"/>
-      <c r="AG54" s="98"/>
-      <c r="AH54" s="98"/>
-      <c r="AI54" s="98"/>
-      <c r="AJ54" s="98"/>
-      <c r="AK54" s="98"/>
-      <c r="AL54" s="98"/>
-      <c r="AM54" s="98"/>
-      <c r="AN54" s="98"/>
-      <c r="AO54" s="98"/>
-      <c r="AP54" s="99"/>
-      <c r="AQ54" s="99"/>
-      <c r="AR54" s="99"/>
-      <c r="AS54" s="99"/>
-      <c r="AT54" s="99"/>
-      <c r="AU54" s="99"/>
-      <c r="AV54" s="99"/>
-      <c r="AW54" s="99"/>
-      <c r="AX54" s="89"/>
-      <c r="AY54" s="89"/>
-      <c r="AZ54" s="89"/>
-      <c r="BA54" s="89"/>
-      <c r="BB54" s="89"/>
-      <c r="BC54" s="89"/>
-      <c r="BD54" s="89"/>
-      <c r="BE54" s="89"/>
-      <c r="BF54" s="89"/>
-      <c r="BG54" s="89"/>
-      <c r="BH54" s="89"/>
-      <c r="BI54" s="89"/>
-      <c r="BJ54" s="89"/>
-      <c r="BK54" s="89"/>
-      <c r="BL54" s="89"/>
-      <c r="BM54" s="89"/>
-      <c r="BN54" s="89"/>
-      <c r="BO54" s="89"/>
-      <c r="BP54" s="89"/>
-      <c r="BQ54" s="89"/>
-      <c r="BR54" s="89"/>
-      <c r="BS54" s="89"/>
-      <c r="BT54" s="89"/>
-      <c r="BU54" s="89"/>
+      <c r="B54" s="89"/>
+      <c r="C54" s="89"/>
+      <c r="D54" s="89"/>
+      <c r="E54" s="89"/>
+      <c r="F54" s="89"/>
+      <c r="G54" s="89"/>
+      <c r="H54" s="89"/>
+      <c r="I54" s="89"/>
+      <c r="J54" s="115"/>
+      <c r="K54" s="115"/>
+      <c r="L54" s="115"/>
+      <c r="M54" s="115"/>
+      <c r="N54" s="115"/>
+      <c r="O54" s="115"/>
+      <c r="P54" s="115"/>
+      <c r="Q54" s="115"/>
+      <c r="R54" s="99"/>
+      <c r="S54" s="99"/>
+      <c r="T54" s="99"/>
+      <c r="U54" s="99"/>
+      <c r="V54" s="99"/>
+      <c r="W54" s="99"/>
+      <c r="X54" s="99"/>
+      <c r="Y54" s="99"/>
+      <c r="Z54" s="94"/>
+      <c r="AA54" s="94"/>
+      <c r="AB54" s="94"/>
+      <c r="AC54" s="94"/>
+      <c r="AD54" s="94"/>
+      <c r="AE54" s="94"/>
+      <c r="AF54" s="94"/>
+      <c r="AG54" s="94"/>
+      <c r="AH54" s="94"/>
+      <c r="AI54" s="94"/>
+      <c r="AJ54" s="94"/>
+      <c r="AK54" s="94"/>
+      <c r="AL54" s="94"/>
+      <c r="AM54" s="94"/>
+      <c r="AN54" s="94"/>
+      <c r="AO54" s="94"/>
+      <c r="AP54" s="101"/>
+      <c r="AQ54" s="101"/>
+      <c r="AR54" s="101"/>
+      <c r="AS54" s="101"/>
+      <c r="AT54" s="101"/>
+      <c r="AU54" s="101"/>
+      <c r="AV54" s="101"/>
+      <c r="AW54" s="101"/>
+      <c r="AX54" s="93"/>
+      <c r="AY54" s="93"/>
+      <c r="AZ54" s="93"/>
+      <c r="BA54" s="93"/>
+      <c r="BB54" s="93"/>
+      <c r="BC54" s="93"/>
+      <c r="BD54" s="93"/>
+      <c r="BE54" s="93"/>
+      <c r="BF54" s="93"/>
+      <c r="BG54" s="93"/>
+      <c r="BH54" s="93"/>
+      <c r="BI54" s="93"/>
+      <c r="BJ54" s="93"/>
+      <c r="BK54" s="93"/>
+      <c r="BL54" s="93"/>
+      <c r="BM54" s="93"/>
+      <c r="BN54" s="93"/>
+      <c r="BO54" s="93"/>
+      <c r="BP54" s="93"/>
+      <c r="BQ54" s="93"/>
+      <c r="BR54" s="93"/>
+      <c r="BS54" s="93"/>
+      <c r="BT54" s="93"/>
+      <c r="BU54" s="93"/>
       <c r="BV54" s="73"/>
       <c r="BW54" s="73"/>
       <c r="BX54" s="73"/>
@@ -6146,14 +6146,14 @@
       <c r="CA54" s="73"/>
       <c r="CB54" s="73"/>
       <c r="CC54" s="73"/>
-      <c r="CD54" s="89"/>
-      <c r="CE54" s="89"/>
-      <c r="CF54" s="89"/>
-      <c r="CG54" s="89"/>
-      <c r="CH54" s="89"/>
-      <c r="CI54" s="89"/>
-      <c r="CJ54" s="89"/>
-      <c r="CK54" s="89"/>
+      <c r="CD54" s="93"/>
+      <c r="CE54" s="93"/>
+      <c r="CF54" s="93"/>
+      <c r="CG54" s="93"/>
+      <c r="CH54" s="93"/>
+      <c r="CI54" s="93"/>
+      <c r="CJ54" s="93"/>
+      <c r="CK54" s="93"/>
       <c r="CT54" s="76"/>
       <c r="CU54" s="76"/>
       <c r="CV54" s="76"/>
@@ -6165,78 +6165,78 @@
       <c r="A55" s="63">
         <v>30</v>
       </c>
-      <c r="B55" s="95"/>
-      <c r="C55" s="95"/>
-      <c r="D55" s="95"/>
-      <c r="E55" s="95"/>
-      <c r="F55" s="95"/>
-      <c r="G55" s="95"/>
-      <c r="H55" s="95"/>
-      <c r="I55" s="95"/>
-      <c r="J55" s="97"/>
-      <c r="K55" s="97"/>
-      <c r="L55" s="97"/>
-      <c r="M55" s="97"/>
-      <c r="N55" s="97"/>
-      <c r="O55" s="97"/>
-      <c r="P55" s="97"/>
-      <c r="Q55" s="97"/>
-      <c r="R55" s="93"/>
-      <c r="S55" s="93"/>
-      <c r="T55" s="93"/>
-      <c r="U55" s="93"/>
-      <c r="V55" s="93"/>
-      <c r="W55" s="93"/>
-      <c r="X55" s="93"/>
-      <c r="Y55" s="93"/>
-      <c r="Z55" s="98"/>
-      <c r="AA55" s="98"/>
-      <c r="AB55" s="98"/>
-      <c r="AC55" s="98"/>
-      <c r="AD55" s="98"/>
-      <c r="AE55" s="98"/>
-      <c r="AF55" s="98"/>
-      <c r="AG55" s="98"/>
-      <c r="AH55" s="98"/>
-      <c r="AI55" s="98"/>
-      <c r="AJ55" s="98"/>
-      <c r="AK55" s="98"/>
-      <c r="AL55" s="98"/>
-      <c r="AM55" s="98"/>
-      <c r="AN55" s="98"/>
-      <c r="AO55" s="98"/>
-      <c r="AP55" s="99"/>
-      <c r="AQ55" s="99"/>
-      <c r="AR55" s="99"/>
-      <c r="AS55" s="99"/>
-      <c r="AT55" s="99"/>
-      <c r="AU55" s="99"/>
-      <c r="AV55" s="99"/>
-      <c r="AW55" s="99"/>
-      <c r="AX55" s="89"/>
-      <c r="AY55" s="89"/>
-      <c r="AZ55" s="89"/>
-      <c r="BA55" s="89"/>
-      <c r="BB55" s="89"/>
-      <c r="BC55" s="89"/>
-      <c r="BD55" s="89"/>
-      <c r="BE55" s="89"/>
-      <c r="BF55" s="89"/>
-      <c r="BG55" s="89"/>
-      <c r="BH55" s="89"/>
-      <c r="BI55" s="89"/>
-      <c r="BJ55" s="89"/>
-      <c r="BK55" s="89"/>
-      <c r="BL55" s="89"/>
-      <c r="BM55" s="89"/>
-      <c r="BN55" s="89"/>
-      <c r="BO55" s="89"/>
-      <c r="BP55" s="89"/>
-      <c r="BQ55" s="89"/>
-      <c r="BR55" s="89"/>
-      <c r="BS55" s="89"/>
-      <c r="BT55" s="89"/>
-      <c r="BU55" s="89"/>
+      <c r="B55" s="89"/>
+      <c r="C55" s="89"/>
+      <c r="D55" s="89"/>
+      <c r="E55" s="89"/>
+      <c r="F55" s="89"/>
+      <c r="G55" s="89"/>
+      <c r="H55" s="89"/>
+      <c r="I55" s="89"/>
+      <c r="J55" s="115"/>
+      <c r="K55" s="115"/>
+      <c r="L55" s="115"/>
+      <c r="M55" s="115"/>
+      <c r="N55" s="115"/>
+      <c r="O55" s="115"/>
+      <c r="P55" s="115"/>
+      <c r="Q55" s="115"/>
+      <c r="R55" s="99"/>
+      <c r="S55" s="99"/>
+      <c r="T55" s="99"/>
+      <c r="U55" s="99"/>
+      <c r="V55" s="99"/>
+      <c r="W55" s="99"/>
+      <c r="X55" s="99"/>
+      <c r="Y55" s="99"/>
+      <c r="Z55" s="94"/>
+      <c r="AA55" s="94"/>
+      <c r="AB55" s="94"/>
+      <c r="AC55" s="94"/>
+      <c r="AD55" s="94"/>
+      <c r="AE55" s="94"/>
+      <c r="AF55" s="94"/>
+      <c r="AG55" s="94"/>
+      <c r="AH55" s="94"/>
+      <c r="AI55" s="94"/>
+      <c r="AJ55" s="94"/>
+      <c r="AK55" s="94"/>
+      <c r="AL55" s="94"/>
+      <c r="AM55" s="94"/>
+      <c r="AN55" s="94"/>
+      <c r="AO55" s="94"/>
+      <c r="AP55" s="101"/>
+      <c r="AQ55" s="101"/>
+      <c r="AR55" s="101"/>
+      <c r="AS55" s="101"/>
+      <c r="AT55" s="101"/>
+      <c r="AU55" s="101"/>
+      <c r="AV55" s="101"/>
+      <c r="AW55" s="101"/>
+      <c r="AX55" s="93"/>
+      <c r="AY55" s="93"/>
+      <c r="AZ55" s="93"/>
+      <c r="BA55" s="93"/>
+      <c r="BB55" s="93"/>
+      <c r="BC55" s="93"/>
+      <c r="BD55" s="93"/>
+      <c r="BE55" s="93"/>
+      <c r="BF55" s="93"/>
+      <c r="BG55" s="93"/>
+      <c r="BH55" s="93"/>
+      <c r="BI55" s="93"/>
+      <c r="BJ55" s="93"/>
+      <c r="BK55" s="93"/>
+      <c r="BL55" s="93"/>
+      <c r="BM55" s="93"/>
+      <c r="BN55" s="93"/>
+      <c r="BO55" s="93"/>
+      <c r="BP55" s="93"/>
+      <c r="BQ55" s="93"/>
+      <c r="BR55" s="93"/>
+      <c r="BS55" s="93"/>
+      <c r="BT55" s="93"/>
+      <c r="BU55" s="93"/>
       <c r="BV55" s="73"/>
       <c r="BW55" s="73"/>
       <c r="BX55" s="73"/>
@@ -6245,14 +6245,14 @@
       <c r="CA55" s="73"/>
       <c r="CB55" s="73"/>
       <c r="CC55" s="73"/>
-      <c r="CD55" s="89"/>
-      <c r="CE55" s="89"/>
-      <c r="CF55" s="89"/>
-      <c r="CG55" s="89"/>
-      <c r="CH55" s="89"/>
-      <c r="CI55" s="89"/>
-      <c r="CJ55" s="89"/>
-      <c r="CK55" s="89"/>
+      <c r="CD55" s="93"/>
+      <c r="CE55" s="93"/>
+      <c r="CF55" s="93"/>
+      <c r="CG55" s="93"/>
+      <c r="CH55" s="93"/>
+      <c r="CI55" s="93"/>
+      <c r="CJ55" s="93"/>
+      <c r="CK55" s="93"/>
       <c r="CT55" s="76"/>
       <c r="CU55" s="76"/>
       <c r="CV55" s="76"/>
@@ -6264,78 +6264,78 @@
       <c r="A56" s="63">
         <v>31</v>
       </c>
-      <c r="B56" s="95"/>
-      <c r="C56" s="95"/>
-      <c r="D56" s="95"/>
-      <c r="E56" s="95"/>
-      <c r="F56" s="95"/>
-      <c r="G56" s="95"/>
-      <c r="H56" s="95"/>
-      <c r="I56" s="95"/>
-      <c r="J56" s="97"/>
-      <c r="K56" s="97"/>
-      <c r="L56" s="97"/>
-      <c r="M56" s="97"/>
-      <c r="N56" s="97"/>
-      <c r="O56" s="97"/>
-      <c r="P56" s="97"/>
-      <c r="Q56" s="97"/>
-      <c r="R56" s="93"/>
-      <c r="S56" s="93"/>
-      <c r="T56" s="93"/>
-      <c r="U56" s="93"/>
-      <c r="V56" s="93"/>
-      <c r="W56" s="93"/>
-      <c r="X56" s="93"/>
-      <c r="Y56" s="93"/>
-      <c r="Z56" s="98"/>
-      <c r="AA56" s="98"/>
-      <c r="AB56" s="98"/>
-      <c r="AC56" s="98"/>
-      <c r="AD56" s="98"/>
-      <c r="AE56" s="98"/>
-      <c r="AF56" s="98"/>
-      <c r="AG56" s="98"/>
-      <c r="AH56" s="98"/>
-      <c r="AI56" s="98"/>
-      <c r="AJ56" s="98"/>
-      <c r="AK56" s="98"/>
-      <c r="AL56" s="98"/>
-      <c r="AM56" s="98"/>
-      <c r="AN56" s="98"/>
-      <c r="AO56" s="98"/>
-      <c r="AP56" s="99"/>
-      <c r="AQ56" s="99"/>
-      <c r="AR56" s="99"/>
-      <c r="AS56" s="99"/>
-      <c r="AT56" s="99"/>
-      <c r="AU56" s="99"/>
-      <c r="AV56" s="99"/>
-      <c r="AW56" s="99"/>
-      <c r="AX56" s="89"/>
-      <c r="AY56" s="89"/>
-      <c r="AZ56" s="89"/>
-      <c r="BA56" s="89"/>
-      <c r="BB56" s="89"/>
-      <c r="BC56" s="89"/>
-      <c r="BD56" s="89"/>
-      <c r="BE56" s="89"/>
-      <c r="BF56" s="89"/>
-      <c r="BG56" s="89"/>
-      <c r="BH56" s="89"/>
-      <c r="BI56" s="89"/>
-      <c r="BJ56" s="89"/>
-      <c r="BK56" s="89"/>
-      <c r="BL56" s="89"/>
-      <c r="BM56" s="89"/>
-      <c r="BN56" s="89"/>
-      <c r="BO56" s="89"/>
-      <c r="BP56" s="89"/>
-      <c r="BQ56" s="89"/>
-      <c r="BR56" s="89"/>
-      <c r="BS56" s="89"/>
-      <c r="BT56" s="89"/>
-      <c r="BU56" s="89"/>
+      <c r="B56" s="89"/>
+      <c r="C56" s="89"/>
+      <c r="D56" s="89"/>
+      <c r="E56" s="89"/>
+      <c r="F56" s="89"/>
+      <c r="G56" s="89"/>
+      <c r="H56" s="89"/>
+      <c r="I56" s="89"/>
+      <c r="J56" s="115"/>
+      <c r="K56" s="115"/>
+      <c r="L56" s="115"/>
+      <c r="M56" s="115"/>
+      <c r="N56" s="115"/>
+      <c r="O56" s="115"/>
+      <c r="P56" s="115"/>
+      <c r="Q56" s="115"/>
+      <c r="R56" s="99"/>
+      <c r="S56" s="99"/>
+      <c r="T56" s="99"/>
+      <c r="U56" s="99"/>
+      <c r="V56" s="99"/>
+      <c r="W56" s="99"/>
+      <c r="X56" s="99"/>
+      <c r="Y56" s="99"/>
+      <c r="Z56" s="94"/>
+      <c r="AA56" s="94"/>
+      <c r="AB56" s="94"/>
+      <c r="AC56" s="94"/>
+      <c r="AD56" s="94"/>
+      <c r="AE56" s="94"/>
+      <c r="AF56" s="94"/>
+      <c r="AG56" s="94"/>
+      <c r="AH56" s="94"/>
+      <c r="AI56" s="94"/>
+      <c r="AJ56" s="94"/>
+      <c r="AK56" s="94"/>
+      <c r="AL56" s="94"/>
+      <c r="AM56" s="94"/>
+      <c r="AN56" s="94"/>
+      <c r="AO56" s="94"/>
+      <c r="AP56" s="101"/>
+      <c r="AQ56" s="101"/>
+      <c r="AR56" s="101"/>
+      <c r="AS56" s="101"/>
+      <c r="AT56" s="101"/>
+      <c r="AU56" s="101"/>
+      <c r="AV56" s="101"/>
+      <c r="AW56" s="101"/>
+      <c r="AX56" s="93"/>
+      <c r="AY56" s="93"/>
+      <c r="AZ56" s="93"/>
+      <c r="BA56" s="93"/>
+      <c r="BB56" s="93"/>
+      <c r="BC56" s="93"/>
+      <c r="BD56" s="93"/>
+      <c r="BE56" s="93"/>
+      <c r="BF56" s="93"/>
+      <c r="BG56" s="93"/>
+      <c r="BH56" s="93"/>
+      <c r="BI56" s="93"/>
+      <c r="BJ56" s="93"/>
+      <c r="BK56" s="93"/>
+      <c r="BL56" s="93"/>
+      <c r="BM56" s="93"/>
+      <c r="BN56" s="93"/>
+      <c r="BO56" s="93"/>
+      <c r="BP56" s="93"/>
+      <c r="BQ56" s="93"/>
+      <c r="BR56" s="93"/>
+      <c r="BS56" s="93"/>
+      <c r="BT56" s="93"/>
+      <c r="BU56" s="93"/>
       <c r="BV56" s="73"/>
       <c r="BW56" s="73"/>
       <c r="BX56" s="73"/>
@@ -6344,14 +6344,14 @@
       <c r="CA56" s="73"/>
       <c r="CB56" s="73"/>
       <c r="CC56" s="73"/>
-      <c r="CD56" s="89"/>
-      <c r="CE56" s="89"/>
-      <c r="CF56" s="89"/>
-      <c r="CG56" s="89"/>
-      <c r="CH56" s="89"/>
-      <c r="CI56" s="89"/>
-      <c r="CJ56" s="89"/>
-      <c r="CK56" s="89"/>
+      <c r="CD56" s="93"/>
+      <c r="CE56" s="93"/>
+      <c r="CF56" s="93"/>
+      <c r="CG56" s="93"/>
+      <c r="CH56" s="93"/>
+      <c r="CI56" s="93"/>
+      <c r="CJ56" s="93"/>
+      <c r="CK56" s="93"/>
       <c r="CT56" s="76"/>
       <c r="CU56" s="76"/>
       <c r="CV56" s="76"/>
@@ -6363,78 +6363,78 @@
       <c r="A57" s="63">
         <v>32</v>
       </c>
-      <c r="B57" s="95"/>
-      <c r="C57" s="95"/>
-      <c r="D57" s="95"/>
-      <c r="E57" s="95"/>
-      <c r="F57" s="95"/>
-      <c r="G57" s="95"/>
-      <c r="H57" s="95"/>
-      <c r="I57" s="95"/>
-      <c r="J57" s="97"/>
-      <c r="K57" s="97"/>
-      <c r="L57" s="97"/>
-      <c r="M57" s="97"/>
-      <c r="N57" s="97"/>
-      <c r="O57" s="97"/>
-      <c r="P57" s="97"/>
-      <c r="Q57" s="97"/>
-      <c r="R57" s="93"/>
-      <c r="S57" s="93"/>
-      <c r="T57" s="93"/>
-      <c r="U57" s="93"/>
-      <c r="V57" s="93"/>
-      <c r="W57" s="93"/>
-      <c r="X57" s="93"/>
-      <c r="Y57" s="93"/>
-      <c r="Z57" s="98"/>
-      <c r="AA57" s="98"/>
-      <c r="AB57" s="98"/>
-      <c r="AC57" s="98"/>
-      <c r="AD57" s="98"/>
-      <c r="AE57" s="98"/>
-      <c r="AF57" s="98"/>
-      <c r="AG57" s="98"/>
-      <c r="AH57" s="98"/>
-      <c r="AI57" s="98"/>
-      <c r="AJ57" s="98"/>
-      <c r="AK57" s="98"/>
-      <c r="AL57" s="98"/>
-      <c r="AM57" s="98"/>
-      <c r="AN57" s="98"/>
-      <c r="AO57" s="98"/>
-      <c r="AP57" s="99"/>
-      <c r="AQ57" s="99"/>
-      <c r="AR57" s="99"/>
-      <c r="AS57" s="99"/>
-      <c r="AT57" s="99"/>
-      <c r="AU57" s="99"/>
-      <c r="AV57" s="99"/>
-      <c r="AW57" s="99"/>
-      <c r="AX57" s="89"/>
-      <c r="AY57" s="89"/>
-      <c r="AZ57" s="89"/>
-      <c r="BA57" s="89"/>
-      <c r="BB57" s="89"/>
-      <c r="BC57" s="89"/>
-      <c r="BD57" s="89"/>
-      <c r="BE57" s="89"/>
-      <c r="BF57" s="89"/>
-      <c r="BG57" s="89"/>
-      <c r="BH57" s="89"/>
-      <c r="BI57" s="89"/>
-      <c r="BJ57" s="89"/>
-      <c r="BK57" s="89"/>
-      <c r="BL57" s="89"/>
-      <c r="BM57" s="89"/>
-      <c r="BN57" s="89"/>
-      <c r="BO57" s="89"/>
-      <c r="BP57" s="89"/>
-      <c r="BQ57" s="89"/>
-      <c r="BR57" s="89"/>
-      <c r="BS57" s="89"/>
-      <c r="BT57" s="89"/>
-      <c r="BU57" s="89"/>
+      <c r="B57" s="89"/>
+      <c r="C57" s="89"/>
+      <c r="D57" s="89"/>
+      <c r="E57" s="89"/>
+      <c r="F57" s="89"/>
+      <c r="G57" s="89"/>
+      <c r="H57" s="89"/>
+      <c r="I57" s="89"/>
+      <c r="J57" s="115"/>
+      <c r="K57" s="115"/>
+      <c r="L57" s="115"/>
+      <c r="M57" s="115"/>
+      <c r="N57" s="115"/>
+      <c r="O57" s="115"/>
+      <c r="P57" s="115"/>
+      <c r="Q57" s="115"/>
+      <c r="R57" s="99"/>
+      <c r="S57" s="99"/>
+      <c r="T57" s="99"/>
+      <c r="U57" s="99"/>
+      <c r="V57" s="99"/>
+      <c r="W57" s="99"/>
+      <c r="X57" s="99"/>
+      <c r="Y57" s="99"/>
+      <c r="Z57" s="94"/>
+      <c r="AA57" s="94"/>
+      <c r="AB57" s="94"/>
+      <c r="AC57" s="94"/>
+      <c r="AD57" s="94"/>
+      <c r="AE57" s="94"/>
+      <c r="AF57" s="94"/>
+      <c r="AG57" s="94"/>
+      <c r="AH57" s="94"/>
+      <c r="AI57" s="94"/>
+      <c r="AJ57" s="94"/>
+      <c r="AK57" s="94"/>
+      <c r="AL57" s="94"/>
+      <c r="AM57" s="94"/>
+      <c r="AN57" s="94"/>
+      <c r="AO57" s="94"/>
+      <c r="AP57" s="101"/>
+      <c r="AQ57" s="101"/>
+      <c r="AR57" s="101"/>
+      <c r="AS57" s="101"/>
+      <c r="AT57" s="101"/>
+      <c r="AU57" s="101"/>
+      <c r="AV57" s="101"/>
+      <c r="AW57" s="101"/>
+      <c r="AX57" s="93"/>
+      <c r="AY57" s="93"/>
+      <c r="AZ57" s="93"/>
+      <c r="BA57" s="93"/>
+      <c r="BB57" s="93"/>
+      <c r="BC57" s="93"/>
+      <c r="BD57" s="93"/>
+      <c r="BE57" s="93"/>
+      <c r="BF57" s="93"/>
+      <c r="BG57" s="93"/>
+      <c r="BH57" s="93"/>
+      <c r="BI57" s="93"/>
+      <c r="BJ57" s="93"/>
+      <c r="BK57" s="93"/>
+      <c r="BL57" s="93"/>
+      <c r="BM57" s="93"/>
+      <c r="BN57" s="93"/>
+      <c r="BO57" s="93"/>
+      <c r="BP57" s="93"/>
+      <c r="BQ57" s="93"/>
+      <c r="BR57" s="93"/>
+      <c r="BS57" s="93"/>
+      <c r="BT57" s="93"/>
+      <c r="BU57" s="93"/>
       <c r="BV57" s="73"/>
       <c r="BW57" s="73"/>
       <c r="BX57" s="73"/>
@@ -6443,91 +6443,91 @@
       <c r="CA57" s="73"/>
       <c r="CB57" s="73"/>
       <c r="CC57" s="73"/>
-      <c r="CD57" s="89"/>
-      <c r="CE57" s="89"/>
-      <c r="CF57" s="89"/>
-      <c r="CG57" s="89"/>
-      <c r="CH57" s="89"/>
-      <c r="CI57" s="89"/>
-      <c r="CJ57" s="89"/>
-      <c r="CK57" s="89"/>
+      <c r="CD57" s="93"/>
+      <c r="CE57" s="93"/>
+      <c r="CF57" s="93"/>
+      <c r="CG57" s="93"/>
+      <c r="CH57" s="93"/>
+      <c r="CI57" s="93"/>
+      <c r="CJ57" s="93"/>
+      <c r="CK57" s="93"/>
     </row>
     <row r="58" spans="1:104">
       <c r="A58" s="63">
         <v>33</v>
       </c>
-      <c r="B58" s="95"/>
-      <c r="C58" s="95"/>
-      <c r="D58" s="95"/>
-      <c r="E58" s="95"/>
-      <c r="F58" s="95"/>
-      <c r="G58" s="95"/>
-      <c r="H58" s="95"/>
-      <c r="I58" s="95"/>
-      <c r="J58" s="97"/>
-      <c r="K58" s="97"/>
-      <c r="L58" s="97"/>
-      <c r="M58" s="97"/>
-      <c r="N58" s="97"/>
-      <c r="O58" s="97"/>
-      <c r="P58" s="97"/>
-      <c r="Q58" s="97"/>
-      <c r="R58" s="93"/>
-      <c r="S58" s="93"/>
-      <c r="T58" s="93"/>
-      <c r="U58" s="93"/>
-      <c r="V58" s="93"/>
-      <c r="W58" s="93"/>
-      <c r="X58" s="93"/>
-      <c r="Y58" s="93"/>
-      <c r="Z58" s="98"/>
-      <c r="AA58" s="98"/>
-      <c r="AB58" s="98"/>
-      <c r="AC58" s="98"/>
-      <c r="AD58" s="98"/>
-      <c r="AE58" s="98"/>
-      <c r="AF58" s="98"/>
-      <c r="AG58" s="98"/>
-      <c r="AH58" s="98"/>
-      <c r="AI58" s="98"/>
-      <c r="AJ58" s="98"/>
-      <c r="AK58" s="98"/>
-      <c r="AL58" s="98"/>
-      <c r="AM58" s="98"/>
-      <c r="AN58" s="98"/>
-      <c r="AO58" s="98"/>
-      <c r="AP58" s="99"/>
-      <c r="AQ58" s="99"/>
-      <c r="AR58" s="99"/>
-      <c r="AS58" s="99"/>
-      <c r="AT58" s="99"/>
-      <c r="AU58" s="99"/>
-      <c r="AV58" s="99"/>
-      <c r="AW58" s="99"/>
-      <c r="AX58" s="89"/>
-      <c r="AY58" s="89"/>
-      <c r="AZ58" s="89"/>
-      <c r="BA58" s="89"/>
-      <c r="BB58" s="89"/>
-      <c r="BC58" s="89"/>
-      <c r="BD58" s="89"/>
-      <c r="BE58" s="89"/>
-      <c r="BF58" s="89"/>
-      <c r="BG58" s="89"/>
-      <c r="BH58" s="89"/>
-      <c r="BI58" s="89"/>
-      <c r="BJ58" s="89"/>
-      <c r="BK58" s="89"/>
-      <c r="BL58" s="89"/>
-      <c r="BM58" s="89"/>
-      <c r="BN58" s="89"/>
-      <c r="BO58" s="89"/>
-      <c r="BP58" s="89"/>
-      <c r="BQ58" s="89"/>
-      <c r="BR58" s="89"/>
-      <c r="BS58" s="89"/>
-      <c r="BT58" s="89"/>
-      <c r="BU58" s="89"/>
+      <c r="B58" s="89"/>
+      <c r="C58" s="89"/>
+      <c r="D58" s="89"/>
+      <c r="E58" s="89"/>
+      <c r="F58" s="89"/>
+      <c r="G58" s="89"/>
+      <c r="H58" s="89"/>
+      <c r="I58" s="89"/>
+      <c r="J58" s="115"/>
+      <c r="K58" s="115"/>
+      <c r="L58" s="115"/>
+      <c r="M58" s="115"/>
+      <c r="N58" s="115"/>
+      <c r="O58" s="115"/>
+      <c r="P58" s="115"/>
+      <c r="Q58" s="115"/>
+      <c r="R58" s="99"/>
+      <c r="S58" s="99"/>
+      <c r="T58" s="99"/>
+      <c r="U58" s="99"/>
+      <c r="V58" s="99"/>
+      <c r="W58" s="99"/>
+      <c r="X58" s="99"/>
+      <c r="Y58" s="99"/>
+      <c r="Z58" s="94"/>
+      <c r="AA58" s="94"/>
+      <c r="AB58" s="94"/>
+      <c r="AC58" s="94"/>
+      <c r="AD58" s="94"/>
+      <c r="AE58" s="94"/>
+      <c r="AF58" s="94"/>
+      <c r="AG58" s="94"/>
+      <c r="AH58" s="94"/>
+      <c r="AI58" s="94"/>
+      <c r="AJ58" s="94"/>
+      <c r="AK58" s="94"/>
+      <c r="AL58" s="94"/>
+      <c r="AM58" s="94"/>
+      <c r="AN58" s="94"/>
+      <c r="AO58" s="94"/>
+      <c r="AP58" s="101"/>
+      <c r="AQ58" s="101"/>
+      <c r="AR58" s="101"/>
+      <c r="AS58" s="101"/>
+      <c r="AT58" s="101"/>
+      <c r="AU58" s="101"/>
+      <c r="AV58" s="101"/>
+      <c r="AW58" s="101"/>
+      <c r="AX58" s="93"/>
+      <c r="AY58" s="93"/>
+      <c r="AZ58" s="93"/>
+      <c r="BA58" s="93"/>
+      <c r="BB58" s="93"/>
+      <c r="BC58" s="93"/>
+      <c r="BD58" s="93"/>
+      <c r="BE58" s="93"/>
+      <c r="BF58" s="93"/>
+      <c r="BG58" s="93"/>
+      <c r="BH58" s="93"/>
+      <c r="BI58" s="93"/>
+      <c r="BJ58" s="93"/>
+      <c r="BK58" s="93"/>
+      <c r="BL58" s="93"/>
+      <c r="BM58" s="93"/>
+      <c r="BN58" s="93"/>
+      <c r="BO58" s="93"/>
+      <c r="BP58" s="93"/>
+      <c r="BQ58" s="93"/>
+      <c r="BR58" s="93"/>
+      <c r="BS58" s="93"/>
+      <c r="BT58" s="93"/>
+      <c r="BU58" s="93"/>
       <c r="BV58" s="73"/>
       <c r="BW58" s="73"/>
       <c r="BX58" s="73"/>
@@ -6536,91 +6536,91 @@
       <c r="CA58" s="73"/>
       <c r="CB58" s="73"/>
       <c r="CC58" s="73"/>
-      <c r="CD58" s="89"/>
-      <c r="CE58" s="89"/>
-      <c r="CF58" s="89"/>
-      <c r="CG58" s="89"/>
-      <c r="CH58" s="89"/>
-      <c r="CI58" s="89"/>
-      <c r="CJ58" s="89"/>
-      <c r="CK58" s="89"/>
+      <c r="CD58" s="93"/>
+      <c r="CE58" s="93"/>
+      <c r="CF58" s="93"/>
+      <c r="CG58" s="93"/>
+      <c r="CH58" s="93"/>
+      <c r="CI58" s="93"/>
+      <c r="CJ58" s="93"/>
+      <c r="CK58" s="93"/>
     </row>
     <row r="59" spans="1:104">
       <c r="A59" s="63">
         <v>34</v>
       </c>
-      <c r="B59" s="95"/>
-      <c r="C59" s="95"/>
-      <c r="D59" s="95"/>
-      <c r="E59" s="95"/>
-      <c r="F59" s="95"/>
-      <c r="G59" s="95"/>
-      <c r="H59" s="95"/>
-      <c r="I59" s="95"/>
-      <c r="J59" s="97"/>
-      <c r="K59" s="97"/>
-      <c r="L59" s="97"/>
-      <c r="M59" s="97"/>
-      <c r="N59" s="97"/>
-      <c r="O59" s="97"/>
-      <c r="P59" s="97"/>
-      <c r="Q59" s="97"/>
-      <c r="R59" s="93"/>
-      <c r="S59" s="93"/>
-      <c r="T59" s="93"/>
-      <c r="U59" s="93"/>
-      <c r="V59" s="93"/>
-      <c r="W59" s="93"/>
-      <c r="X59" s="93"/>
-      <c r="Y59" s="93"/>
-      <c r="Z59" s="98"/>
-      <c r="AA59" s="98"/>
-      <c r="AB59" s="98"/>
-      <c r="AC59" s="98"/>
-      <c r="AD59" s="98"/>
-      <c r="AE59" s="98"/>
-      <c r="AF59" s="98"/>
-      <c r="AG59" s="98"/>
-      <c r="AH59" s="98"/>
-      <c r="AI59" s="98"/>
-      <c r="AJ59" s="98"/>
-      <c r="AK59" s="98"/>
-      <c r="AL59" s="98"/>
-      <c r="AM59" s="98"/>
-      <c r="AN59" s="98"/>
-      <c r="AO59" s="98"/>
-      <c r="AP59" s="99"/>
-      <c r="AQ59" s="99"/>
-      <c r="AR59" s="99"/>
-      <c r="AS59" s="99"/>
-      <c r="AT59" s="99"/>
-      <c r="AU59" s="99"/>
-      <c r="AV59" s="99"/>
-      <c r="AW59" s="99"/>
-      <c r="AX59" s="89"/>
-      <c r="AY59" s="89"/>
-      <c r="AZ59" s="89"/>
-      <c r="BA59" s="89"/>
-      <c r="BB59" s="89"/>
-      <c r="BC59" s="89"/>
-      <c r="BD59" s="89"/>
-      <c r="BE59" s="89"/>
-      <c r="BF59" s="89"/>
-      <c r="BG59" s="89"/>
-      <c r="BH59" s="89"/>
-      <c r="BI59" s="89"/>
-      <c r="BJ59" s="89"/>
-      <c r="BK59" s="89"/>
-      <c r="BL59" s="89"/>
-      <c r="BM59" s="89"/>
-      <c r="BN59" s="89"/>
-      <c r="BO59" s="89"/>
-      <c r="BP59" s="89"/>
-      <c r="BQ59" s="89"/>
-      <c r="BR59" s="89"/>
-      <c r="BS59" s="89"/>
-      <c r="BT59" s="89"/>
-      <c r="BU59" s="89"/>
+      <c r="B59" s="89"/>
+      <c r="C59" s="89"/>
+      <c r="D59" s="89"/>
+      <c r="E59" s="89"/>
+      <c r="F59" s="89"/>
+      <c r="G59" s="89"/>
+      <c r="H59" s="89"/>
+      <c r="I59" s="89"/>
+      <c r="J59" s="115"/>
+      <c r="K59" s="115"/>
+      <c r="L59" s="115"/>
+      <c r="M59" s="115"/>
+      <c r="N59" s="115"/>
+      <c r="O59" s="115"/>
+      <c r="P59" s="115"/>
+      <c r="Q59" s="115"/>
+      <c r="R59" s="99"/>
+      <c r="S59" s="99"/>
+      <c r="T59" s="99"/>
+      <c r="U59" s="99"/>
+      <c r="V59" s="99"/>
+      <c r="W59" s="99"/>
+      <c r="X59" s="99"/>
+      <c r="Y59" s="99"/>
+      <c r="Z59" s="94"/>
+      <c r="AA59" s="94"/>
+      <c r="AB59" s="94"/>
+      <c r="AC59" s="94"/>
+      <c r="AD59" s="94"/>
+      <c r="AE59" s="94"/>
+      <c r="AF59" s="94"/>
+      <c r="AG59" s="94"/>
+      <c r="AH59" s="94"/>
+      <c r="AI59" s="94"/>
+      <c r="AJ59" s="94"/>
+      <c r="AK59" s="94"/>
+      <c r="AL59" s="94"/>
+      <c r="AM59" s="94"/>
+      <c r="AN59" s="94"/>
+      <c r="AO59" s="94"/>
+      <c r="AP59" s="101"/>
+      <c r="AQ59" s="101"/>
+      <c r="AR59" s="101"/>
+      <c r="AS59" s="101"/>
+      <c r="AT59" s="101"/>
+      <c r="AU59" s="101"/>
+      <c r="AV59" s="101"/>
+      <c r="AW59" s="101"/>
+      <c r="AX59" s="93"/>
+      <c r="AY59" s="93"/>
+      <c r="AZ59" s="93"/>
+      <c r="BA59" s="93"/>
+      <c r="BB59" s="93"/>
+      <c r="BC59" s="93"/>
+      <c r="BD59" s="93"/>
+      <c r="BE59" s="93"/>
+      <c r="BF59" s="93"/>
+      <c r="BG59" s="93"/>
+      <c r="BH59" s="93"/>
+      <c r="BI59" s="93"/>
+      <c r="BJ59" s="93"/>
+      <c r="BK59" s="93"/>
+      <c r="BL59" s="93"/>
+      <c r="BM59" s="93"/>
+      <c r="BN59" s="93"/>
+      <c r="BO59" s="93"/>
+      <c r="BP59" s="93"/>
+      <c r="BQ59" s="93"/>
+      <c r="BR59" s="93"/>
+      <c r="BS59" s="93"/>
+      <c r="BT59" s="93"/>
+      <c r="BU59" s="93"/>
       <c r="BV59" s="73"/>
       <c r="BW59" s="73"/>
       <c r="BX59" s="73"/>
@@ -6629,91 +6629,91 @@
       <c r="CA59" s="73"/>
       <c r="CB59" s="73"/>
       <c r="CC59" s="73"/>
-      <c r="CD59" s="89"/>
-      <c r="CE59" s="89"/>
-      <c r="CF59" s="89"/>
-      <c r="CG59" s="89"/>
-      <c r="CH59" s="89"/>
-      <c r="CI59" s="89"/>
-      <c r="CJ59" s="89"/>
-      <c r="CK59" s="89"/>
+      <c r="CD59" s="93"/>
+      <c r="CE59" s="93"/>
+      <c r="CF59" s="93"/>
+      <c r="CG59" s="93"/>
+      <c r="CH59" s="93"/>
+      <c r="CI59" s="93"/>
+      <c r="CJ59" s="93"/>
+      <c r="CK59" s="93"/>
     </row>
     <row r="60" spans="1:104">
       <c r="A60" s="63">
         <v>35</v>
       </c>
-      <c r="B60" s="95"/>
-      <c r="C60" s="95"/>
-      <c r="D60" s="95"/>
-      <c r="E60" s="95"/>
-      <c r="F60" s="95"/>
-      <c r="G60" s="95"/>
-      <c r="H60" s="95"/>
-      <c r="I60" s="95"/>
-      <c r="J60" s="97"/>
-      <c r="K60" s="97"/>
-      <c r="L60" s="97"/>
-      <c r="M60" s="97"/>
-      <c r="N60" s="97"/>
-      <c r="O60" s="97"/>
-      <c r="P60" s="97"/>
-      <c r="Q60" s="97"/>
-      <c r="R60" s="93"/>
-      <c r="S60" s="93"/>
-      <c r="T60" s="93"/>
-      <c r="U60" s="93"/>
-      <c r="V60" s="93"/>
-      <c r="W60" s="93"/>
-      <c r="X60" s="93"/>
-      <c r="Y60" s="93"/>
-      <c r="Z60" s="98"/>
-      <c r="AA60" s="98"/>
-      <c r="AB60" s="98"/>
-      <c r="AC60" s="98"/>
-      <c r="AD60" s="98"/>
-      <c r="AE60" s="98"/>
-      <c r="AF60" s="98"/>
-      <c r="AG60" s="98"/>
-      <c r="AH60" s="98"/>
-      <c r="AI60" s="98"/>
-      <c r="AJ60" s="98"/>
-      <c r="AK60" s="98"/>
-      <c r="AL60" s="98"/>
-      <c r="AM60" s="98"/>
-      <c r="AN60" s="98"/>
-      <c r="AO60" s="98"/>
-      <c r="AP60" s="99"/>
-      <c r="AQ60" s="99"/>
-      <c r="AR60" s="99"/>
-      <c r="AS60" s="99"/>
-      <c r="AT60" s="99"/>
-      <c r="AU60" s="99"/>
-      <c r="AV60" s="99"/>
-      <c r="AW60" s="99"/>
-      <c r="AX60" s="89"/>
-      <c r="AY60" s="89"/>
-      <c r="AZ60" s="89"/>
-      <c r="BA60" s="89"/>
-      <c r="BB60" s="89"/>
-      <c r="BC60" s="89"/>
-      <c r="BD60" s="89"/>
-      <c r="BE60" s="89"/>
-      <c r="BF60" s="89"/>
-      <c r="BG60" s="89"/>
-      <c r="BH60" s="89"/>
-      <c r="BI60" s="89"/>
-      <c r="BJ60" s="89"/>
-      <c r="BK60" s="89"/>
-      <c r="BL60" s="89"/>
-      <c r="BM60" s="89"/>
-      <c r="BN60" s="89"/>
-      <c r="BO60" s="89"/>
-      <c r="BP60" s="89"/>
-      <c r="BQ60" s="89"/>
-      <c r="BR60" s="89"/>
-      <c r="BS60" s="89"/>
-      <c r="BT60" s="89"/>
-      <c r="BU60" s="89"/>
+      <c r="B60" s="89"/>
+      <c r="C60" s="89"/>
+      <c r="D60" s="89"/>
+      <c r="E60" s="89"/>
+      <c r="F60" s="89"/>
+      <c r="G60" s="89"/>
+      <c r="H60" s="89"/>
+      <c r="I60" s="89"/>
+      <c r="J60" s="115"/>
+      <c r="K60" s="115"/>
+      <c r="L60" s="115"/>
+      <c r="M60" s="115"/>
+      <c r="N60" s="115"/>
+      <c r="O60" s="115"/>
+      <c r="P60" s="115"/>
+      <c r="Q60" s="115"/>
+      <c r="R60" s="99"/>
+      <c r="S60" s="99"/>
+      <c r="T60" s="99"/>
+      <c r="U60" s="99"/>
+      <c r="V60" s="99"/>
+      <c r="W60" s="99"/>
+      <c r="X60" s="99"/>
+      <c r="Y60" s="99"/>
+      <c r="Z60" s="94"/>
+      <c r="AA60" s="94"/>
+      <c r="AB60" s="94"/>
+      <c r="AC60" s="94"/>
+      <c r="AD60" s="94"/>
+      <c r="AE60" s="94"/>
+      <c r="AF60" s="94"/>
+      <c r="AG60" s="94"/>
+      <c r="AH60" s="94"/>
+      <c r="AI60" s="94"/>
+      <c r="AJ60" s="94"/>
+      <c r="AK60" s="94"/>
+      <c r="AL60" s="94"/>
+      <c r="AM60" s="94"/>
+      <c r="AN60" s="94"/>
+      <c r="AO60" s="94"/>
+      <c r="AP60" s="101"/>
+      <c r="AQ60" s="101"/>
+      <c r="AR60" s="101"/>
+      <c r="AS60" s="101"/>
+      <c r="AT60" s="101"/>
+      <c r="AU60" s="101"/>
+      <c r="AV60" s="101"/>
+      <c r="AW60" s="101"/>
+      <c r="AX60" s="93"/>
+      <c r="AY60" s="93"/>
+      <c r="AZ60" s="93"/>
+      <c r="BA60" s="93"/>
+      <c r="BB60" s="93"/>
+      <c r="BC60" s="93"/>
+      <c r="BD60" s="93"/>
+      <c r="BE60" s="93"/>
+      <c r="BF60" s="93"/>
+      <c r="BG60" s="93"/>
+      <c r="BH60" s="93"/>
+      <c r="BI60" s="93"/>
+      <c r="BJ60" s="93"/>
+      <c r="BK60" s="93"/>
+      <c r="BL60" s="93"/>
+      <c r="BM60" s="93"/>
+      <c r="BN60" s="93"/>
+      <c r="BO60" s="93"/>
+      <c r="BP60" s="93"/>
+      <c r="BQ60" s="93"/>
+      <c r="BR60" s="93"/>
+      <c r="BS60" s="93"/>
+      <c r="BT60" s="93"/>
+      <c r="BU60" s="93"/>
       <c r="BV60" s="73"/>
       <c r="BW60" s="73"/>
       <c r="BX60" s="73"/>
@@ -6722,14 +6722,14 @@
       <c r="CA60" s="73"/>
       <c r="CB60" s="73"/>
       <c r="CC60" s="73"/>
-      <c r="CD60" s="89"/>
-      <c r="CE60" s="89"/>
-      <c r="CF60" s="89"/>
-      <c r="CG60" s="89"/>
-      <c r="CH60" s="89"/>
-      <c r="CI60" s="89"/>
-      <c r="CJ60" s="89"/>
-      <c r="CK60" s="89"/>
+      <c r="CD60" s="93"/>
+      <c r="CE60" s="93"/>
+      <c r="CF60" s="93"/>
+      <c r="CG60" s="93"/>
+      <c r="CH60" s="93"/>
+      <c r="CI60" s="93"/>
+      <c r="CJ60" s="93"/>
+      <c r="CK60" s="93"/>
     </row>
     <row r="61" spans="1:104">
       <c r="E61" s="13"/>
@@ -6738,14 +6738,14 @@
       <c r="H61" s="65"/>
       <c r="I61" s="65"/>
       <c r="K61" s="13"/>
-      <c r="L61" s="100"/>
-      <c r="M61" s="100"/>
-      <c r="N61" s="100"/>
-      <c r="O61" s="100"/>
-      <c r="AP61" s="101"/>
-      <c r="AQ61" s="101"/>
-      <c r="AR61" s="101"/>
-      <c r="AS61" s="101"/>
+      <c r="L61" s="114"/>
+      <c r="M61" s="114"/>
+      <c r="N61" s="114"/>
+      <c r="O61" s="114"/>
+      <c r="AP61" s="113"/>
+      <c r="AQ61" s="113"/>
+      <c r="AR61" s="113"/>
+      <c r="AS61" s="113"/>
       <c r="BV61" s="73"/>
       <c r="BW61" s="73"/>
       <c r="BX61" s="73"/>
@@ -6756,30 +6756,410 @@
     </row>
     <row r="62" spans="1:104">
       <c r="H62" s="13"/>
-      <c r="AM62" s="101"/>
-      <c r="AN62" s="101"/>
-      <c r="AO62" s="101"/>
-      <c r="AP62" s="101"/>
+      <c r="AM62" s="113"/>
+      <c r="AN62" s="113"/>
+      <c r="AO62" s="113"/>
+      <c r="AP62" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="438">
-    <mergeCell ref="CS52:CY52"/>
-    <mergeCell ref="CS27:CY27"/>
-    <mergeCell ref="CS28:CY28"/>
-    <mergeCell ref="CS29:CY29"/>
-    <mergeCell ref="CS30:CY30"/>
-    <mergeCell ref="CS31:CY31"/>
-    <mergeCell ref="CS32:CY32"/>
-    <mergeCell ref="CS33:CY33"/>
-    <mergeCell ref="CS34:CY34"/>
-    <mergeCell ref="CS35:CY35"/>
-    <mergeCell ref="CS36:CY36"/>
-    <mergeCell ref="CS37:CY37"/>
-    <mergeCell ref="CS38:CY38"/>
-    <mergeCell ref="CS39:CY39"/>
-    <mergeCell ref="CS40:CY40"/>
-    <mergeCell ref="CS41:CY41"/>
-    <mergeCell ref="CS42:CY42"/>
+    <mergeCell ref="BN29:BU29"/>
+    <mergeCell ref="BN30:BU30"/>
+    <mergeCell ref="BN31:BU31"/>
+    <mergeCell ref="BN32:BU32"/>
+    <mergeCell ref="BN33:BU33"/>
+    <mergeCell ref="BN34:BU34"/>
+    <mergeCell ref="BF27:BM27"/>
+    <mergeCell ref="BF28:BM28"/>
+    <mergeCell ref="BF29:BM29"/>
+    <mergeCell ref="BF30:BM30"/>
+    <mergeCell ref="BF31:BM31"/>
+    <mergeCell ref="BF32:BM32"/>
+    <mergeCell ref="BF33:BM33"/>
+    <mergeCell ref="BF34:BM34"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B21:AA21"/>
+    <mergeCell ref="A24:XFD24"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="R22:AE22"/>
+    <mergeCell ref="J41:Q41"/>
+    <mergeCell ref="J42:Q42"/>
+    <mergeCell ref="J43:Q43"/>
+    <mergeCell ref="R41:Y41"/>
+    <mergeCell ref="R42:Y42"/>
+    <mergeCell ref="R43:Y43"/>
+    <mergeCell ref="Z41:AG41"/>
+    <mergeCell ref="Z42:AG42"/>
+    <mergeCell ref="Z43:AG43"/>
+    <mergeCell ref="J40:Q40"/>
+    <mergeCell ref="R35:Y35"/>
+    <mergeCell ref="R36:Y36"/>
+    <mergeCell ref="R37:Y37"/>
+    <mergeCell ref="R38:Y38"/>
+    <mergeCell ref="R39:Y39"/>
+    <mergeCell ref="R40:Y40"/>
+    <mergeCell ref="R34:Y34"/>
+    <mergeCell ref="AP32:AW32"/>
+    <mergeCell ref="L61:O61"/>
+    <mergeCell ref="J58:Q58"/>
+    <mergeCell ref="J59:Q59"/>
+    <mergeCell ref="J60:Q60"/>
+    <mergeCell ref="J44:Q44"/>
+    <mergeCell ref="J45:Q45"/>
+    <mergeCell ref="J46:Q46"/>
+    <mergeCell ref="J47:Q47"/>
+    <mergeCell ref="J48:Q48"/>
+    <mergeCell ref="J49:Q49"/>
+    <mergeCell ref="J50:Q50"/>
+    <mergeCell ref="J51:Q51"/>
+    <mergeCell ref="J52:Q52"/>
+    <mergeCell ref="J53:Q53"/>
+    <mergeCell ref="J54:Q54"/>
+    <mergeCell ref="J55:Q55"/>
+    <mergeCell ref="J56:Q56"/>
+    <mergeCell ref="J57:Q57"/>
+    <mergeCell ref="AP59:AW59"/>
+    <mergeCell ref="AP60:AW60"/>
+    <mergeCell ref="AX50:BE50"/>
+    <mergeCell ref="AX51:BE51"/>
+    <mergeCell ref="AX52:BE52"/>
+    <mergeCell ref="AX53:BE53"/>
+    <mergeCell ref="AX54:BE54"/>
+    <mergeCell ref="AX55:BE55"/>
+    <mergeCell ref="AX56:BE56"/>
+    <mergeCell ref="AX57:BE57"/>
+    <mergeCell ref="AX58:BE58"/>
+    <mergeCell ref="AX59:BE59"/>
+    <mergeCell ref="AX60:BE60"/>
+    <mergeCell ref="AP50:AW50"/>
+    <mergeCell ref="AP51:AW51"/>
+    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="AM62:AP62"/>
+    <mergeCell ref="AH54:AO54"/>
+    <mergeCell ref="AH55:AO55"/>
+    <mergeCell ref="AH56:AO56"/>
+    <mergeCell ref="AH57:AO57"/>
+    <mergeCell ref="AH58:AO58"/>
+    <mergeCell ref="AH59:AO59"/>
+    <mergeCell ref="AH60:AO60"/>
+    <mergeCell ref="AP52:AW52"/>
+    <mergeCell ref="AP53:AW53"/>
+    <mergeCell ref="AP54:AW54"/>
+    <mergeCell ref="AP55:AW55"/>
+    <mergeCell ref="AP56:AW56"/>
+    <mergeCell ref="AP57:AW57"/>
+    <mergeCell ref="AP58:AW58"/>
+    <mergeCell ref="AP61:AS61"/>
+    <mergeCell ref="AP44:AW44"/>
+    <mergeCell ref="AP45:AW45"/>
+    <mergeCell ref="AP46:AW46"/>
+    <mergeCell ref="AP47:AW47"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="B41:I41"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="B48:I48"/>
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="B51:I51"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="B53:I53"/>
+    <mergeCell ref="B54:I54"/>
+    <mergeCell ref="B55:I55"/>
+    <mergeCell ref="B56:I56"/>
+    <mergeCell ref="B57:I57"/>
+    <mergeCell ref="B58:I58"/>
+    <mergeCell ref="B59:I59"/>
+    <mergeCell ref="B60:I60"/>
+    <mergeCell ref="J23:Q23"/>
+    <mergeCell ref="R23:Y23"/>
+    <mergeCell ref="Z23:AG23"/>
+    <mergeCell ref="J25:Q25"/>
+    <mergeCell ref="J26:Q26"/>
+    <mergeCell ref="J27:Q27"/>
+    <mergeCell ref="J28:Q28"/>
+    <mergeCell ref="J29:Q29"/>
+    <mergeCell ref="J30:Q30"/>
+    <mergeCell ref="J31:Q31"/>
+    <mergeCell ref="J32:Q32"/>
+    <mergeCell ref="J33:Q33"/>
+    <mergeCell ref="J34:Q34"/>
+    <mergeCell ref="J35:Q35"/>
+    <mergeCell ref="J36:Q36"/>
+    <mergeCell ref="J37:Q37"/>
+    <mergeCell ref="J38:Q38"/>
+    <mergeCell ref="J39:Q39"/>
+    <mergeCell ref="R25:Y25"/>
+    <mergeCell ref="R26:Y26"/>
+    <mergeCell ref="R27:Y27"/>
+    <mergeCell ref="R28:Y28"/>
+    <mergeCell ref="R29:Y29"/>
+    <mergeCell ref="R30:Y30"/>
+    <mergeCell ref="R31:Y31"/>
+    <mergeCell ref="R32:Y32"/>
+    <mergeCell ref="R33:Y33"/>
+    <mergeCell ref="R44:Y44"/>
+    <mergeCell ref="R45:Y45"/>
+    <mergeCell ref="R46:Y46"/>
+    <mergeCell ref="R47:Y47"/>
+    <mergeCell ref="R48:Y48"/>
+    <mergeCell ref="R49:Y49"/>
+    <mergeCell ref="R50:Y50"/>
+    <mergeCell ref="R51:Y51"/>
+    <mergeCell ref="R52:Y52"/>
+    <mergeCell ref="R53:Y53"/>
+    <mergeCell ref="R54:Y54"/>
+    <mergeCell ref="R55:Y55"/>
+    <mergeCell ref="R56:Y56"/>
+    <mergeCell ref="R57:Y57"/>
+    <mergeCell ref="R58:Y58"/>
+    <mergeCell ref="R59:Y59"/>
+    <mergeCell ref="R60:Y60"/>
+    <mergeCell ref="Z25:AG25"/>
+    <mergeCell ref="Z26:AG26"/>
+    <mergeCell ref="Z27:AG27"/>
+    <mergeCell ref="Z28:AG28"/>
+    <mergeCell ref="Z29:AG29"/>
+    <mergeCell ref="Z30:AG30"/>
+    <mergeCell ref="Z31:AG31"/>
+    <mergeCell ref="Z32:AG32"/>
+    <mergeCell ref="Z33:AG33"/>
+    <mergeCell ref="Z34:AG34"/>
+    <mergeCell ref="Z35:AG35"/>
+    <mergeCell ref="Z36:AG36"/>
+    <mergeCell ref="Z37:AG37"/>
+    <mergeCell ref="Z38:AG38"/>
+    <mergeCell ref="Z39:AG39"/>
+    <mergeCell ref="Z40:AG40"/>
+    <mergeCell ref="Z53:AG53"/>
+    <mergeCell ref="Z54:AG54"/>
+    <mergeCell ref="Z55:AG55"/>
+    <mergeCell ref="Z56:AG56"/>
+    <mergeCell ref="Z57:AG57"/>
+    <mergeCell ref="Z58:AG58"/>
+    <mergeCell ref="Z59:AG59"/>
+    <mergeCell ref="Z60:AG60"/>
+    <mergeCell ref="AH23:AO23"/>
+    <mergeCell ref="AH27:AO27"/>
+    <mergeCell ref="AH28:AO28"/>
+    <mergeCell ref="AH29:AO29"/>
+    <mergeCell ref="AH30:AO30"/>
+    <mergeCell ref="AH31:AO31"/>
+    <mergeCell ref="Z44:AG44"/>
+    <mergeCell ref="Z45:AG45"/>
+    <mergeCell ref="Z46:AG46"/>
+    <mergeCell ref="Z47:AG47"/>
+    <mergeCell ref="Z48:AG48"/>
+    <mergeCell ref="Z49:AG49"/>
+    <mergeCell ref="Z50:AG50"/>
+    <mergeCell ref="Z51:AG51"/>
+    <mergeCell ref="Z52:AG52"/>
+    <mergeCell ref="AH41:AO41"/>
+    <mergeCell ref="AP31:AW31"/>
+    <mergeCell ref="AX27:BE27"/>
+    <mergeCell ref="AX28:BE28"/>
+    <mergeCell ref="AX29:BE29"/>
+    <mergeCell ref="AX30:BE30"/>
+    <mergeCell ref="AX31:BE31"/>
+    <mergeCell ref="AX32:BE32"/>
+    <mergeCell ref="AP23:AW23"/>
+    <mergeCell ref="AX23:BE23"/>
+    <mergeCell ref="AH32:AO32"/>
+    <mergeCell ref="AX40:BE40"/>
+    <mergeCell ref="BF35:BM35"/>
+    <mergeCell ref="BF36:BM36"/>
+    <mergeCell ref="AH37:AO37"/>
+    <mergeCell ref="AH38:AO38"/>
+    <mergeCell ref="AH39:AO39"/>
+    <mergeCell ref="AH40:AO40"/>
+    <mergeCell ref="CD23:CK23"/>
+    <mergeCell ref="AH25:AO25"/>
+    <mergeCell ref="AH26:AO26"/>
+    <mergeCell ref="AP25:AW25"/>
+    <mergeCell ref="AP26:AW26"/>
+    <mergeCell ref="AX25:BE25"/>
+    <mergeCell ref="AX26:BE26"/>
+    <mergeCell ref="BN25:BU25"/>
+    <mergeCell ref="BN26:BU26"/>
+    <mergeCell ref="BF25:BM25"/>
+    <mergeCell ref="BF26:BM26"/>
+    <mergeCell ref="BF23:BM23"/>
+    <mergeCell ref="BN23:BU23"/>
+    <mergeCell ref="CD25:CK25"/>
+    <mergeCell ref="CD26:CK26"/>
+    <mergeCell ref="AP30:AW30"/>
+    <mergeCell ref="BV23:CC23"/>
+    <mergeCell ref="AP38:AW38"/>
+    <mergeCell ref="AP39:AW39"/>
+    <mergeCell ref="AP40:AW40"/>
+    <mergeCell ref="AP41:AW41"/>
+    <mergeCell ref="AX38:BE38"/>
+    <mergeCell ref="AP33:AW33"/>
+    <mergeCell ref="AP34:AW34"/>
+    <mergeCell ref="AP35:AW35"/>
+    <mergeCell ref="AP36:AW36"/>
+    <mergeCell ref="AP37:AW37"/>
+    <mergeCell ref="AP27:AW27"/>
+    <mergeCell ref="AP28:AW28"/>
+    <mergeCell ref="AP29:AW29"/>
+    <mergeCell ref="AX33:BE33"/>
+    <mergeCell ref="AX34:BE34"/>
+    <mergeCell ref="AX35:BE35"/>
+    <mergeCell ref="AX36:BE36"/>
+    <mergeCell ref="AX37:BE37"/>
+    <mergeCell ref="AX39:BE39"/>
+    <mergeCell ref="BF37:BM37"/>
+    <mergeCell ref="BF38:BM38"/>
+    <mergeCell ref="BF39:BM39"/>
+    <mergeCell ref="BF40:BM40"/>
+    <mergeCell ref="AH45:AO45"/>
+    <mergeCell ref="AH42:AO42"/>
+    <mergeCell ref="AH43:AO43"/>
+    <mergeCell ref="AH44:AO44"/>
+    <mergeCell ref="AH46:AO46"/>
+    <mergeCell ref="AH47:AO47"/>
+    <mergeCell ref="AH48:AO48"/>
+    <mergeCell ref="AH49:AO49"/>
+    <mergeCell ref="AX43:BE43"/>
+    <mergeCell ref="AX44:BE44"/>
+    <mergeCell ref="AX45:BE45"/>
+    <mergeCell ref="AX46:BE46"/>
+    <mergeCell ref="AX47:BE47"/>
+    <mergeCell ref="AX48:BE48"/>
+    <mergeCell ref="AX49:BE49"/>
+    <mergeCell ref="AP42:AW42"/>
+    <mergeCell ref="AP43:AW43"/>
+    <mergeCell ref="AP48:AW48"/>
+    <mergeCell ref="AP49:AW49"/>
+    <mergeCell ref="BF58:BM58"/>
+    <mergeCell ref="BF41:BM41"/>
+    <mergeCell ref="BF42:BM42"/>
+    <mergeCell ref="BF43:BM43"/>
+    <mergeCell ref="BF44:BM44"/>
+    <mergeCell ref="BF45:BM45"/>
+    <mergeCell ref="BF46:BM46"/>
+    <mergeCell ref="BF47:BM47"/>
+    <mergeCell ref="BF48:BM48"/>
+    <mergeCell ref="BF49:BM49"/>
+    <mergeCell ref="BF50:BM50"/>
+    <mergeCell ref="BF51:BM51"/>
+    <mergeCell ref="BF52:BM52"/>
+    <mergeCell ref="BF59:BM59"/>
+    <mergeCell ref="BF60:BM60"/>
+    <mergeCell ref="BN35:BU35"/>
+    <mergeCell ref="BN36:BU36"/>
+    <mergeCell ref="BN37:BU37"/>
+    <mergeCell ref="BN38:BU38"/>
+    <mergeCell ref="BN39:BU39"/>
+    <mergeCell ref="BN40:BU40"/>
+    <mergeCell ref="BN41:BU41"/>
+    <mergeCell ref="BN42:BU42"/>
+    <mergeCell ref="BN43:BU43"/>
+    <mergeCell ref="BN44:BU44"/>
+    <mergeCell ref="BN45:BU45"/>
+    <mergeCell ref="BN46:BU46"/>
+    <mergeCell ref="BN47:BU47"/>
+    <mergeCell ref="BN48:BU48"/>
+    <mergeCell ref="BN49:BU49"/>
+    <mergeCell ref="BN50:BU50"/>
+    <mergeCell ref="BN51:BU51"/>
+    <mergeCell ref="BN52:BU52"/>
+    <mergeCell ref="BN53:BU53"/>
+    <mergeCell ref="BN54:BU54"/>
+    <mergeCell ref="BN55:BU55"/>
+    <mergeCell ref="BN56:BU56"/>
+    <mergeCell ref="BN58:BU58"/>
+    <mergeCell ref="BN59:BU59"/>
+    <mergeCell ref="BN60:BU60"/>
+    <mergeCell ref="BV25:CC25"/>
+    <mergeCell ref="BV27:CC27"/>
+    <mergeCell ref="BV28:CC28"/>
+    <mergeCell ref="BV29:CC29"/>
+    <mergeCell ref="BV30:CC30"/>
+    <mergeCell ref="BV32:CC32"/>
+    <mergeCell ref="BV33:CC33"/>
+    <mergeCell ref="BV34:CC34"/>
+    <mergeCell ref="BV37:CC37"/>
+    <mergeCell ref="BV31:CC31"/>
+    <mergeCell ref="BV39:CC39"/>
+    <mergeCell ref="BV40:CC40"/>
+    <mergeCell ref="BV35:CC35"/>
+    <mergeCell ref="BV36:CC36"/>
+    <mergeCell ref="BV44:CC44"/>
+    <mergeCell ref="BV45:CC45"/>
+    <mergeCell ref="BV46:CC46"/>
+    <mergeCell ref="BV47:CC47"/>
+    <mergeCell ref="BV48:CC48"/>
+    <mergeCell ref="BN27:BU27"/>
+    <mergeCell ref="BN28:BU28"/>
+    <mergeCell ref="B1:BI1"/>
+    <mergeCell ref="AF22:AO22"/>
+    <mergeCell ref="AP22:AX22"/>
+    <mergeCell ref="CD47:CK47"/>
+    <mergeCell ref="CD48:CK48"/>
+    <mergeCell ref="CD49:CK49"/>
+    <mergeCell ref="CD50:CK50"/>
+    <mergeCell ref="AH33:AO33"/>
+    <mergeCell ref="AH34:AO34"/>
+    <mergeCell ref="AH35:AO35"/>
+    <mergeCell ref="AH36:AO36"/>
+    <mergeCell ref="BV26:CC26"/>
+    <mergeCell ref="CD36:CK36"/>
+    <mergeCell ref="CD37:CK37"/>
+    <mergeCell ref="CD38:CK38"/>
+    <mergeCell ref="CD39:CK39"/>
+    <mergeCell ref="CD40:CK40"/>
+    <mergeCell ref="CD41:CK41"/>
+    <mergeCell ref="CD42:CK42"/>
+    <mergeCell ref="CD43:CK43"/>
+    <mergeCell ref="CD44:CK44"/>
+    <mergeCell ref="CD27:CK27"/>
+    <mergeCell ref="CD28:CK28"/>
+    <mergeCell ref="CD29:CK29"/>
+    <mergeCell ref="AH50:AO50"/>
+    <mergeCell ref="AH51:AO51"/>
+    <mergeCell ref="AH52:AO52"/>
+    <mergeCell ref="CL26:CR26"/>
+    <mergeCell ref="CL27:CR27"/>
+    <mergeCell ref="CL28:CR28"/>
+    <mergeCell ref="CL29:CR29"/>
+    <mergeCell ref="CD56:CK56"/>
+    <mergeCell ref="CD57:CK57"/>
+    <mergeCell ref="CD30:CK30"/>
+    <mergeCell ref="CD31:CK31"/>
+    <mergeCell ref="CD32:CK32"/>
+    <mergeCell ref="CD33:CK33"/>
+    <mergeCell ref="CD34:CK34"/>
+    <mergeCell ref="CD35:CK35"/>
+    <mergeCell ref="BN57:BU57"/>
+    <mergeCell ref="BF53:BM53"/>
+    <mergeCell ref="BF54:BM54"/>
+    <mergeCell ref="BF55:BM55"/>
+    <mergeCell ref="BF56:BM56"/>
+    <mergeCell ref="BF57:BM57"/>
+    <mergeCell ref="AH53:AO53"/>
+    <mergeCell ref="AX41:BE41"/>
+    <mergeCell ref="AX42:BE42"/>
     <mergeCell ref="CS26:CY26"/>
     <mergeCell ref="CS43:CY43"/>
     <mergeCell ref="CS44:CY44"/>
@@ -6804,403 +7184,23 @@
     <mergeCell ref="CS49:CY49"/>
     <mergeCell ref="CS50:CY50"/>
     <mergeCell ref="CS51:CY51"/>
-    <mergeCell ref="AH50:AO50"/>
-    <mergeCell ref="AH51:AO51"/>
-    <mergeCell ref="AH52:AO52"/>
-    <mergeCell ref="CL26:CR26"/>
-    <mergeCell ref="CL27:CR27"/>
-    <mergeCell ref="CL28:CR28"/>
-    <mergeCell ref="CL29:CR29"/>
-    <mergeCell ref="CD56:CK56"/>
-    <mergeCell ref="CD57:CK57"/>
-    <mergeCell ref="CD30:CK30"/>
-    <mergeCell ref="CD31:CK31"/>
-    <mergeCell ref="CD32:CK32"/>
-    <mergeCell ref="CD33:CK33"/>
-    <mergeCell ref="CD34:CK34"/>
-    <mergeCell ref="CD35:CK35"/>
-    <mergeCell ref="BN57:BU57"/>
-    <mergeCell ref="BF53:BM53"/>
-    <mergeCell ref="BF54:BM54"/>
-    <mergeCell ref="BF55:BM55"/>
-    <mergeCell ref="BF56:BM56"/>
-    <mergeCell ref="BF57:BM57"/>
-    <mergeCell ref="AH53:AO53"/>
-    <mergeCell ref="AX41:BE41"/>
-    <mergeCell ref="AX42:BE42"/>
-    <mergeCell ref="B1:BI1"/>
-    <mergeCell ref="AF22:AO22"/>
-    <mergeCell ref="AP22:AX22"/>
-    <mergeCell ref="CD47:CK47"/>
-    <mergeCell ref="CD48:CK48"/>
-    <mergeCell ref="CD49:CK49"/>
-    <mergeCell ref="CD50:CK50"/>
-    <mergeCell ref="AH33:AO33"/>
-    <mergeCell ref="AH34:AO34"/>
-    <mergeCell ref="AH35:AO35"/>
-    <mergeCell ref="AH36:AO36"/>
-    <mergeCell ref="BV26:CC26"/>
-    <mergeCell ref="CD36:CK36"/>
-    <mergeCell ref="CD37:CK37"/>
-    <mergeCell ref="CD38:CK38"/>
-    <mergeCell ref="CD39:CK39"/>
-    <mergeCell ref="CD40:CK40"/>
-    <mergeCell ref="CD41:CK41"/>
-    <mergeCell ref="CD42:CK42"/>
-    <mergeCell ref="CD43:CK43"/>
-    <mergeCell ref="CD44:CK44"/>
-    <mergeCell ref="CD27:CK27"/>
-    <mergeCell ref="CD28:CK28"/>
-    <mergeCell ref="CD29:CK29"/>
-    <mergeCell ref="BN58:BU58"/>
-    <mergeCell ref="BN59:BU59"/>
-    <mergeCell ref="BN60:BU60"/>
-    <mergeCell ref="BV25:CC25"/>
-    <mergeCell ref="BV27:CC27"/>
-    <mergeCell ref="BV28:CC28"/>
-    <mergeCell ref="BV29:CC29"/>
-    <mergeCell ref="BV30:CC30"/>
-    <mergeCell ref="BV32:CC32"/>
-    <mergeCell ref="BV33:CC33"/>
-    <mergeCell ref="BV34:CC34"/>
-    <mergeCell ref="BV37:CC37"/>
-    <mergeCell ref="BV31:CC31"/>
-    <mergeCell ref="BV39:CC39"/>
-    <mergeCell ref="BV40:CC40"/>
-    <mergeCell ref="BV35:CC35"/>
-    <mergeCell ref="BV36:CC36"/>
-    <mergeCell ref="BV44:CC44"/>
-    <mergeCell ref="BV45:CC45"/>
-    <mergeCell ref="BV46:CC46"/>
-    <mergeCell ref="BV47:CC47"/>
-    <mergeCell ref="BV48:CC48"/>
-    <mergeCell ref="BN27:BU27"/>
-    <mergeCell ref="BN28:BU28"/>
-    <mergeCell ref="BF59:BM59"/>
-    <mergeCell ref="BF60:BM60"/>
-    <mergeCell ref="BN35:BU35"/>
-    <mergeCell ref="BN36:BU36"/>
-    <mergeCell ref="BN37:BU37"/>
-    <mergeCell ref="BN38:BU38"/>
-    <mergeCell ref="BN39:BU39"/>
-    <mergeCell ref="BN40:BU40"/>
-    <mergeCell ref="BN41:BU41"/>
-    <mergeCell ref="BN42:BU42"/>
-    <mergeCell ref="BN43:BU43"/>
-    <mergeCell ref="BN44:BU44"/>
-    <mergeCell ref="BN45:BU45"/>
-    <mergeCell ref="BN46:BU46"/>
-    <mergeCell ref="BN47:BU47"/>
-    <mergeCell ref="BN48:BU48"/>
-    <mergeCell ref="BN49:BU49"/>
-    <mergeCell ref="BN50:BU50"/>
-    <mergeCell ref="BN51:BU51"/>
-    <mergeCell ref="BN52:BU52"/>
-    <mergeCell ref="BN53:BU53"/>
-    <mergeCell ref="BN54:BU54"/>
-    <mergeCell ref="BN55:BU55"/>
-    <mergeCell ref="BN56:BU56"/>
-    <mergeCell ref="BF58:BM58"/>
-    <mergeCell ref="BF41:BM41"/>
-    <mergeCell ref="BF42:BM42"/>
-    <mergeCell ref="BF43:BM43"/>
-    <mergeCell ref="BF44:BM44"/>
-    <mergeCell ref="BF45:BM45"/>
-    <mergeCell ref="BF46:BM46"/>
-    <mergeCell ref="BF47:BM47"/>
-    <mergeCell ref="BF48:BM48"/>
-    <mergeCell ref="BF49:BM49"/>
-    <mergeCell ref="BF50:BM50"/>
-    <mergeCell ref="BF51:BM51"/>
-    <mergeCell ref="BF52:BM52"/>
-    <mergeCell ref="AH45:AO45"/>
-    <mergeCell ref="AH42:AO42"/>
-    <mergeCell ref="AH43:AO43"/>
-    <mergeCell ref="AH44:AO44"/>
-    <mergeCell ref="AH46:AO46"/>
-    <mergeCell ref="AH47:AO47"/>
-    <mergeCell ref="AH48:AO48"/>
-    <mergeCell ref="AH49:AO49"/>
-    <mergeCell ref="AX43:BE43"/>
-    <mergeCell ref="AX44:BE44"/>
-    <mergeCell ref="AX45:BE45"/>
-    <mergeCell ref="AX46:BE46"/>
-    <mergeCell ref="AX47:BE47"/>
-    <mergeCell ref="AX48:BE48"/>
-    <mergeCell ref="AX49:BE49"/>
-    <mergeCell ref="AP42:AW42"/>
-    <mergeCell ref="AP43:AW43"/>
-    <mergeCell ref="AP48:AW48"/>
-    <mergeCell ref="AP49:AW49"/>
-    <mergeCell ref="BV23:CC23"/>
-    <mergeCell ref="AP38:AW38"/>
-    <mergeCell ref="AP39:AW39"/>
-    <mergeCell ref="AP40:AW40"/>
-    <mergeCell ref="AP41:AW41"/>
-    <mergeCell ref="AX38:BE38"/>
-    <mergeCell ref="AP33:AW33"/>
-    <mergeCell ref="AP34:AW34"/>
-    <mergeCell ref="AP35:AW35"/>
-    <mergeCell ref="AP36:AW36"/>
-    <mergeCell ref="AP37:AW37"/>
-    <mergeCell ref="AP27:AW27"/>
-    <mergeCell ref="AP28:AW28"/>
-    <mergeCell ref="AP29:AW29"/>
-    <mergeCell ref="AX33:BE33"/>
-    <mergeCell ref="AX34:BE34"/>
-    <mergeCell ref="AX35:BE35"/>
-    <mergeCell ref="AX36:BE36"/>
-    <mergeCell ref="AX37:BE37"/>
-    <mergeCell ref="AX39:BE39"/>
-    <mergeCell ref="BF37:BM37"/>
-    <mergeCell ref="BF38:BM38"/>
-    <mergeCell ref="BF39:BM39"/>
-    <mergeCell ref="BF40:BM40"/>
-    <mergeCell ref="AH32:AO32"/>
-    <mergeCell ref="AX40:BE40"/>
-    <mergeCell ref="BF35:BM35"/>
-    <mergeCell ref="BF36:BM36"/>
-    <mergeCell ref="AH37:AO37"/>
-    <mergeCell ref="AH38:AO38"/>
-    <mergeCell ref="AH39:AO39"/>
-    <mergeCell ref="AH40:AO40"/>
-    <mergeCell ref="CD23:CK23"/>
-    <mergeCell ref="AH25:AO25"/>
-    <mergeCell ref="AH26:AO26"/>
-    <mergeCell ref="AP25:AW25"/>
-    <mergeCell ref="AP26:AW26"/>
-    <mergeCell ref="AX25:BE25"/>
-    <mergeCell ref="AX26:BE26"/>
-    <mergeCell ref="BN25:BU25"/>
-    <mergeCell ref="BN26:BU26"/>
-    <mergeCell ref="BF25:BM25"/>
-    <mergeCell ref="BF26:BM26"/>
-    <mergeCell ref="BF23:BM23"/>
-    <mergeCell ref="BN23:BU23"/>
-    <mergeCell ref="CD25:CK25"/>
-    <mergeCell ref="CD26:CK26"/>
-    <mergeCell ref="AP30:AW30"/>
-    <mergeCell ref="AP31:AW31"/>
-    <mergeCell ref="AX27:BE27"/>
-    <mergeCell ref="AX28:BE28"/>
-    <mergeCell ref="AX29:BE29"/>
-    <mergeCell ref="AX30:BE30"/>
-    <mergeCell ref="AX31:BE31"/>
-    <mergeCell ref="AX32:BE32"/>
-    <mergeCell ref="AP23:AW23"/>
-    <mergeCell ref="AX23:BE23"/>
-    <mergeCell ref="Z53:AG53"/>
-    <mergeCell ref="Z54:AG54"/>
-    <mergeCell ref="Z55:AG55"/>
-    <mergeCell ref="Z56:AG56"/>
-    <mergeCell ref="Z57:AG57"/>
-    <mergeCell ref="Z58:AG58"/>
-    <mergeCell ref="Z59:AG59"/>
-    <mergeCell ref="Z60:AG60"/>
-    <mergeCell ref="AH23:AO23"/>
-    <mergeCell ref="AH27:AO27"/>
-    <mergeCell ref="AH28:AO28"/>
-    <mergeCell ref="AH29:AO29"/>
-    <mergeCell ref="AH30:AO30"/>
-    <mergeCell ref="AH31:AO31"/>
-    <mergeCell ref="Z44:AG44"/>
-    <mergeCell ref="Z45:AG45"/>
-    <mergeCell ref="Z46:AG46"/>
-    <mergeCell ref="Z47:AG47"/>
-    <mergeCell ref="Z48:AG48"/>
-    <mergeCell ref="Z49:AG49"/>
-    <mergeCell ref="Z50:AG50"/>
-    <mergeCell ref="Z51:AG51"/>
-    <mergeCell ref="Z52:AG52"/>
-    <mergeCell ref="AH41:AO41"/>
-    <mergeCell ref="R53:Y53"/>
-    <mergeCell ref="R54:Y54"/>
-    <mergeCell ref="R55:Y55"/>
-    <mergeCell ref="R56:Y56"/>
-    <mergeCell ref="R57:Y57"/>
-    <mergeCell ref="R58:Y58"/>
-    <mergeCell ref="R59:Y59"/>
-    <mergeCell ref="R60:Y60"/>
-    <mergeCell ref="Z25:AG25"/>
-    <mergeCell ref="Z26:AG26"/>
-    <mergeCell ref="Z27:AG27"/>
-    <mergeCell ref="Z28:AG28"/>
-    <mergeCell ref="Z29:AG29"/>
-    <mergeCell ref="Z30:AG30"/>
-    <mergeCell ref="Z31:AG31"/>
-    <mergeCell ref="Z32:AG32"/>
-    <mergeCell ref="Z33:AG33"/>
-    <mergeCell ref="Z34:AG34"/>
-    <mergeCell ref="Z35:AG35"/>
-    <mergeCell ref="Z36:AG36"/>
-    <mergeCell ref="Z37:AG37"/>
-    <mergeCell ref="Z38:AG38"/>
-    <mergeCell ref="Z39:AG39"/>
-    <mergeCell ref="Z40:AG40"/>
-    <mergeCell ref="R44:Y44"/>
-    <mergeCell ref="R45:Y45"/>
-    <mergeCell ref="R46:Y46"/>
-    <mergeCell ref="R47:Y47"/>
-    <mergeCell ref="R48:Y48"/>
-    <mergeCell ref="R49:Y49"/>
-    <mergeCell ref="R50:Y50"/>
-    <mergeCell ref="R51:Y51"/>
-    <mergeCell ref="R52:Y52"/>
-    <mergeCell ref="R25:Y25"/>
-    <mergeCell ref="R26:Y26"/>
-    <mergeCell ref="R27:Y27"/>
-    <mergeCell ref="R28:Y28"/>
-    <mergeCell ref="R29:Y29"/>
-    <mergeCell ref="R30:Y30"/>
-    <mergeCell ref="R31:Y31"/>
-    <mergeCell ref="R32:Y32"/>
-    <mergeCell ref="R33:Y33"/>
-    <mergeCell ref="B55:I55"/>
-    <mergeCell ref="B56:I56"/>
-    <mergeCell ref="B57:I57"/>
-    <mergeCell ref="B58:I58"/>
-    <mergeCell ref="B59:I59"/>
-    <mergeCell ref="B60:I60"/>
-    <mergeCell ref="J23:Q23"/>
-    <mergeCell ref="R23:Y23"/>
-    <mergeCell ref="Z23:AG23"/>
-    <mergeCell ref="J25:Q25"/>
-    <mergeCell ref="J26:Q26"/>
-    <mergeCell ref="J27:Q27"/>
-    <mergeCell ref="J28:Q28"/>
-    <mergeCell ref="J29:Q29"/>
-    <mergeCell ref="J30:Q30"/>
-    <mergeCell ref="J31:Q31"/>
-    <mergeCell ref="J32:Q32"/>
-    <mergeCell ref="J33:Q33"/>
-    <mergeCell ref="J34:Q34"/>
-    <mergeCell ref="J35:Q35"/>
-    <mergeCell ref="J36:Q36"/>
-    <mergeCell ref="J37:Q37"/>
-    <mergeCell ref="J38:Q38"/>
-    <mergeCell ref="J39:Q39"/>
-    <mergeCell ref="B46:I46"/>
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="B48:I48"/>
-    <mergeCell ref="B49:I49"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="B51:I51"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="B53:I53"/>
-    <mergeCell ref="B54:I54"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="B39:I39"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="B41:I41"/>
-    <mergeCell ref="B42:I42"/>
-    <mergeCell ref="B43:I43"/>
-    <mergeCell ref="B44:I44"/>
-    <mergeCell ref="B45:I45"/>
-    <mergeCell ref="AM62:AP62"/>
-    <mergeCell ref="AH54:AO54"/>
-    <mergeCell ref="AH55:AO55"/>
-    <mergeCell ref="AH56:AO56"/>
-    <mergeCell ref="AH57:AO57"/>
-    <mergeCell ref="AH58:AO58"/>
-    <mergeCell ref="AH59:AO59"/>
-    <mergeCell ref="AH60:AO60"/>
-    <mergeCell ref="AP52:AW52"/>
-    <mergeCell ref="AP53:AW53"/>
-    <mergeCell ref="AP54:AW54"/>
-    <mergeCell ref="AP55:AW55"/>
-    <mergeCell ref="AP56:AW56"/>
-    <mergeCell ref="AP57:AW57"/>
-    <mergeCell ref="AP58:AW58"/>
-    <mergeCell ref="AP61:AS61"/>
-    <mergeCell ref="AP44:AW44"/>
-    <mergeCell ref="AP45:AW45"/>
-    <mergeCell ref="AP46:AW46"/>
-    <mergeCell ref="AP47:AW47"/>
-    <mergeCell ref="AP59:AW59"/>
-    <mergeCell ref="AP60:AW60"/>
-    <mergeCell ref="AX50:BE50"/>
-    <mergeCell ref="AX51:BE51"/>
-    <mergeCell ref="AX52:BE52"/>
-    <mergeCell ref="AX53:BE53"/>
-    <mergeCell ref="AX54:BE54"/>
-    <mergeCell ref="AX55:BE55"/>
-    <mergeCell ref="AX56:BE56"/>
-    <mergeCell ref="AX57:BE57"/>
-    <mergeCell ref="AX58:BE58"/>
-    <mergeCell ref="AX59:BE59"/>
-    <mergeCell ref="AX60:BE60"/>
-    <mergeCell ref="AP50:AW50"/>
-    <mergeCell ref="AP51:AW51"/>
-    <mergeCell ref="L61:O61"/>
-    <mergeCell ref="J58:Q58"/>
-    <mergeCell ref="J59:Q59"/>
-    <mergeCell ref="J60:Q60"/>
-    <mergeCell ref="J44:Q44"/>
-    <mergeCell ref="J45:Q45"/>
-    <mergeCell ref="J46:Q46"/>
-    <mergeCell ref="J47:Q47"/>
-    <mergeCell ref="J48:Q48"/>
-    <mergeCell ref="J49:Q49"/>
-    <mergeCell ref="J50:Q50"/>
-    <mergeCell ref="J51:Q51"/>
-    <mergeCell ref="J52:Q52"/>
-    <mergeCell ref="J53:Q53"/>
-    <mergeCell ref="J54:Q54"/>
-    <mergeCell ref="J55:Q55"/>
-    <mergeCell ref="J56:Q56"/>
-    <mergeCell ref="J57:Q57"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B21:AA21"/>
-    <mergeCell ref="A24:XFD24"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="K22:Q22"/>
-    <mergeCell ref="R22:AE22"/>
-    <mergeCell ref="J41:Q41"/>
-    <mergeCell ref="J42:Q42"/>
-    <mergeCell ref="J43:Q43"/>
-    <mergeCell ref="R41:Y41"/>
-    <mergeCell ref="R42:Y42"/>
-    <mergeCell ref="R43:Y43"/>
-    <mergeCell ref="Z41:AG41"/>
-    <mergeCell ref="Z42:AG42"/>
-    <mergeCell ref="Z43:AG43"/>
-    <mergeCell ref="J40:Q40"/>
-    <mergeCell ref="R35:Y35"/>
-    <mergeCell ref="R36:Y36"/>
-    <mergeCell ref="R37:Y37"/>
-    <mergeCell ref="R38:Y38"/>
-    <mergeCell ref="R39:Y39"/>
-    <mergeCell ref="R40:Y40"/>
-    <mergeCell ref="R34:Y34"/>
-    <mergeCell ref="AP32:AW32"/>
-    <mergeCell ref="BN29:BU29"/>
-    <mergeCell ref="BN30:BU30"/>
-    <mergeCell ref="BN31:BU31"/>
-    <mergeCell ref="BN32:BU32"/>
-    <mergeCell ref="BN33:BU33"/>
-    <mergeCell ref="BN34:BU34"/>
-    <mergeCell ref="BF27:BM27"/>
-    <mergeCell ref="BF28:BM28"/>
-    <mergeCell ref="BF29:BM29"/>
-    <mergeCell ref="BF30:BM30"/>
-    <mergeCell ref="BF31:BM31"/>
-    <mergeCell ref="BF32:BM32"/>
-    <mergeCell ref="BF33:BM33"/>
-    <mergeCell ref="BF34:BM34"/>
+    <mergeCell ref="CS52:CY52"/>
+    <mergeCell ref="CS27:CY27"/>
+    <mergeCell ref="CS28:CY28"/>
+    <mergeCell ref="CS29:CY29"/>
+    <mergeCell ref="CS30:CY30"/>
+    <mergeCell ref="CS31:CY31"/>
+    <mergeCell ref="CS32:CY32"/>
+    <mergeCell ref="CS33:CY33"/>
+    <mergeCell ref="CS34:CY34"/>
+    <mergeCell ref="CS35:CY35"/>
+    <mergeCell ref="CS36:CY36"/>
+    <mergeCell ref="CS37:CY37"/>
+    <mergeCell ref="CS38:CY38"/>
+    <mergeCell ref="CS39:CY39"/>
+    <mergeCell ref="CS40:CY40"/>
+    <mergeCell ref="CS41:CY41"/>
+    <mergeCell ref="CS42:CY42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8630,8 +8630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8969,7 +8969,7 @@
       <c r="J8" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="K8" s="85" t="s">
+      <c r="K8" s="120" t="s">
         <v>100</v>
       </c>
       <c r="L8" s="4" t="s">
@@ -8993,7 +8993,7 @@
       <c r="D9" s="80" t="s">
         <v>138</v>
       </c>
-      <c r="E9" s="86">
+      <c r="E9" s="85">
         <v>64</v>
       </c>
       <c r="F9">
@@ -9028,7 +9028,7 @@
       <c r="D10" s="80" t="s">
         <v>138</v>
       </c>
-      <c r="E10" s="86">
+      <c r="E10" s="85">
         <v>49</v>
       </c>
       <c r="F10">
@@ -9063,7 +9063,7 @@
       <c r="D11" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="E11" s="86">
+      <c r="E11" s="85">
         <v>22</v>
       </c>
       <c r="F11">
@@ -9072,7 +9072,7 @@
       <c r="G11" s="80">
         <v>2315</v>
       </c>
-      <c r="H11" s="87">
+      <c r="H11" s="86">
         <v>303</v>
       </c>
       <c r="J11" s="80" t="s">
@@ -9098,7 +9098,7 @@
       <c r="D12" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E12" s="86">
+      <c r="E12" s="85">
         <v>12</v>
       </c>
       <c r="F12">
@@ -9133,7 +9133,7 @@
       <c r="D13" s="80" t="s">
         <v>138</v>
       </c>
-      <c r="E13" s="86">
+      <c r="E13" s="85">
         <v>56</v>
       </c>
       <c r="F13">
@@ -9168,7 +9168,7 @@
       <c r="D14" s="80" t="s">
         <v>138</v>
       </c>
-      <c r="E14" s="86">
+      <c r="E14" s="85">
         <v>50</v>
       </c>
       <c r="F14">

--- a/CFC/Docs/CFC DWH Bus Matrix.xlsx
+++ b/CFC/Docs/CFC DWH Bus Matrix.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="5595" windowWidth="15270" windowHeight="2670" tabRatio="650" activeTab="4"/>
@@ -13,7 +13,7 @@
     <sheet name="Reports" sheetId="4" r:id="rId4"/>
     <sheet name="Mapping" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -846,8 +846,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1312,23 +1312,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1336,21 +1321,52 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1362,50 +1378,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1497,6 +1497,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1531,6 +1532,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1706,7 +1708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FT62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1716,7 +1718,7 @@
       <selection pane="bottomRight" activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="100" width="2.7109375" customWidth="1"/>
@@ -1732,75 +1734,75 @@
     <col min="175" max="175" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:176" s="2" customFormat="1">
-      <c r="A1" s="91" t="s">
+    <row r="1" spans="1:176" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="119"/>
-      <c r="R1" s="119"/>
-      <c r="S1" s="119"/>
-      <c r="T1" s="119"/>
-      <c r="U1" s="119"/>
-      <c r="V1" s="119"/>
-      <c r="W1" s="119"/>
-      <c r="X1" s="119"/>
-      <c r="Y1" s="119"/>
-      <c r="Z1" s="119"/>
-      <c r="AA1" s="119"/>
-      <c r="AB1" s="119"/>
-      <c r="AC1" s="119"/>
-      <c r="AD1" s="119"/>
-      <c r="AE1" s="119"/>
-      <c r="AF1" s="119"/>
-      <c r="AG1" s="119"/>
-      <c r="AH1" s="119"/>
-      <c r="AI1" s="119"/>
-      <c r="AJ1" s="119"/>
-      <c r="AK1" s="119"/>
-      <c r="AL1" s="119"/>
-      <c r="AM1" s="119"/>
-      <c r="AN1" s="119"/>
-      <c r="AO1" s="119"/>
-      <c r="AP1" s="119"/>
-      <c r="AQ1" s="119"/>
-      <c r="AR1" s="119"/>
-      <c r="AS1" s="119"/>
-      <c r="AT1" s="119"/>
-      <c r="AU1" s="119"/>
-      <c r="AV1" s="119"/>
-      <c r="AW1" s="119"/>
-      <c r="AX1" s="119"/>
-      <c r="AY1" s="119"/>
-      <c r="AZ1" s="119"/>
-      <c r="BA1" s="119"/>
-      <c r="BB1" s="119"/>
-      <c r="BC1" s="119"/>
-      <c r="BD1" s="119"/>
-      <c r="BE1" s="119"/>
-      <c r="BF1" s="119"/>
-      <c r="BG1" s="119"/>
-      <c r="BH1" s="119"/>
-      <c r="BI1" s="119"/>
-    </row>
-    <row r="2" spans="1:176" s="2" customFormat="1">
-      <c r="A2" s="91"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="97"/>
+      <c r="Y1" s="97"/>
+      <c r="Z1" s="97"/>
+      <c r="AA1" s="97"/>
+      <c r="AB1" s="97"/>
+      <c r="AC1" s="97"/>
+      <c r="AD1" s="97"/>
+      <c r="AE1" s="97"/>
+      <c r="AF1" s="97"/>
+      <c r="AG1" s="97"/>
+      <c r="AH1" s="97"/>
+      <c r="AI1" s="97"/>
+      <c r="AJ1" s="97"/>
+      <c r="AK1" s="97"/>
+      <c r="AL1" s="97"/>
+      <c r="AM1" s="97"/>
+      <c r="AN1" s="97"/>
+      <c r="AO1" s="97"/>
+      <c r="AP1" s="97"/>
+      <c r="AQ1" s="97"/>
+      <c r="AR1" s="97"/>
+      <c r="AS1" s="97"/>
+      <c r="AT1" s="97"/>
+      <c r="AU1" s="97"/>
+      <c r="AV1" s="97"/>
+      <c r="AW1" s="97"/>
+      <c r="AX1" s="97"/>
+      <c r="AY1" s="97"/>
+      <c r="AZ1" s="97"/>
+      <c r="BA1" s="97"/>
+      <c r="BB1" s="97"/>
+      <c r="BC1" s="97"/>
+      <c r="BD1" s="97"/>
+      <c r="BE1" s="97"/>
+      <c r="BF1" s="97"/>
+      <c r="BG1" s="97"/>
+      <c r="BH1" s="97"/>
+      <c r="BI1" s="97"/>
+    </row>
+    <row r="2" spans="1:176" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="118"/>
       <c r="B2" s="49">
         <v>1</v>
       </c>
@@ -2498,8 +2500,8 @@
       </c>
       <c r="FT2" s="49"/>
     </row>
-    <row r="3" spans="1:176" s="2" customFormat="1" ht="248.25" customHeight="1">
-      <c r="A3" s="91"/>
+    <row r="3" spans="1:176" s="2" customFormat="1" ht="248.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="118"/>
       <c r="B3" s="67" t="s">
         <v>5</v>
       </c>
@@ -2706,7 +2708,7 @@
       <c r="FO3" s="70"/>
       <c r="FP3" s="70"/>
     </row>
-    <row r="4" spans="1:176" s="18" customFormat="1">
+    <row r="4" spans="1:176" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>64</v>
       </c>
@@ -2783,7 +2785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:176">
+    <row r="5" spans="1:176" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -2805,14 +2807,14 @@
       <c r="ER5" s="69"/>
       <c r="FH5" s="74"/>
     </row>
-    <row r="6" spans="1:176" s="16" customFormat="1">
+    <row r="6" spans="1:176" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P6" s="17"/>
       <c r="Q6" s="17"/>
       <c r="R6" s="17"/>
       <c r="AN6" s="17"/>
       <c r="CW6" s="17"/>
     </row>
-    <row r="7" spans="1:176" s="44" customFormat="1">
+    <row r="7" spans="1:176" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="FI7" s="75"/>
       <c r="FJ7" s="45"/>
       <c r="FK7" s="45"/>
@@ -2820,19 +2822,19 @@
       <c r="FN7" s="45"/>
       <c r="FO7" s="45"/>
     </row>
-    <row r="8" spans="1:176" s="22" customFormat="1">
+    <row r="8" spans="1:176" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
       <c r="T8" s="17"/>
     </row>
-    <row r="9" spans="1:176" s="45" customFormat="1">
+    <row r="9" spans="1:176" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="44"/>
       <c r="M9" s="44"/>
       <c r="BD9" s="54"/>
     </row>
-    <row r="10" spans="1:176" s="16" customFormat="1"/>
-    <row r="11" spans="1:176">
+    <row r="10" spans="1:176" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:176" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="M11" s="5"/>
       <c r="P11" s="29"/>
@@ -2840,11 +2842,11 @@
       <c r="BB11" s="31"/>
       <c r="CL11" s="53"/>
     </row>
-    <row r="12" spans="1:176" s="16" customFormat="1">
+    <row r="12" spans="1:176" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="FF12" s="22"/>
       <c r="FG12" s="22"/>
     </row>
-    <row r="13" spans="1:176" s="5" customFormat="1">
+    <row r="13" spans="1:176" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X13" s="77"/>
       <c r="AI13" s="77"/>
       <c r="AN13" s="78"/>
@@ -2858,113 +2860,113 @@
       <c r="FR13" s="77"/>
       <c r="FS13" s="77"/>
     </row>
-    <row r="14" spans="1:176" s="22" customFormat="1"/>
-    <row r="15" spans="1:176" s="45" customFormat="1">
+    <row r="14" spans="1:176" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:176" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="44"/>
       <c r="M15" s="44"/>
     </row>
-    <row r="16" spans="1:176" s="22" customFormat="1"/>
-    <row r="17" spans="1:104" s="6" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="18" spans="1:104" s="22" customFormat="1"/>
-    <row r="19" spans="1:104" s="45" customFormat="1">
+    <row r="16" spans="1:176" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:104" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:104" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:104" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="46"/>
       <c r="CL19" s="22"/>
     </row>
-    <row r="20" spans="1:104" s="3" customFormat="1"/>
-    <row r="21" spans="1:104">
+    <row r="20" spans="1:104" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A21" s="71"/>
-      <c r="B21" s="92" t="s">
+      <c r="B21" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
-      <c r="N21" s="92"/>
-      <c r="O21" s="92"/>
-      <c r="P21" s="92"/>
-      <c r="Q21" s="92"/>
-      <c r="R21" s="92"/>
-      <c r="S21" s="92"/>
-      <c r="T21" s="92"/>
-      <c r="U21" s="92"/>
-      <c r="V21" s="92"/>
-      <c r="W21" s="92"/>
-      <c r="X21" s="92"/>
-      <c r="Y21" s="92"/>
-      <c r="Z21" s="92"/>
-      <c r="AA21" s="92"/>
-    </row>
-    <row r="22" spans="1:104" s="12" customFormat="1">
+      <c r="C21" s="119"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="119"/>
+      <c r="K21" s="119"/>
+      <c r="L21" s="119"/>
+      <c r="M21" s="119"/>
+      <c r="N21" s="119"/>
+      <c r="O21" s="119"/>
+      <c r="P21" s="119"/>
+      <c r="Q21" s="119"/>
+      <c r="R21" s="119"/>
+      <c r="S21" s="119"/>
+      <c r="T21" s="119"/>
+      <c r="U21" s="119"/>
+      <c r="V21" s="119"/>
+      <c r="W21" s="119"/>
+      <c r="X21" s="119"/>
+      <c r="Y21" s="119"/>
+      <c r="Z21" s="119"/>
+      <c r="AA21" s="119"/>
+    </row>
+    <row r="22" spans="1:104" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="95" t="s">
+      <c r="B22" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="96" t="s">
+      <c r="C22" s="90"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="L22" s="96"/>
-      <c r="M22" s="96"/>
-      <c r="N22" s="96"/>
-      <c r="O22" s="96"/>
-      <c r="P22" s="96"/>
-      <c r="Q22" s="96"/>
-      <c r="R22" s="97" t="s">
+      <c r="L22" s="91"/>
+      <c r="M22" s="91"/>
+      <c r="N22" s="91"/>
+      <c r="O22" s="91"/>
+      <c r="P22" s="91"/>
+      <c r="Q22" s="91"/>
+      <c r="R22" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="S22" s="97"/>
-      <c r="T22" s="97"/>
-      <c r="U22" s="97"/>
-      <c r="V22" s="97"/>
-      <c r="W22" s="97"/>
-      <c r="X22" s="97"/>
-      <c r="Y22" s="97"/>
-      <c r="Z22" s="97"/>
-      <c r="AA22" s="97"/>
-      <c r="AB22" s="97"/>
-      <c r="AC22" s="97"/>
-      <c r="AD22" s="97"/>
-      <c r="AE22" s="97"/>
-      <c r="AF22" s="120" t="s">
+      <c r="S22" s="121"/>
+      <c r="T22" s="121"/>
+      <c r="U22" s="121"/>
+      <c r="V22" s="121"/>
+      <c r="W22" s="121"/>
+      <c r="X22" s="121"/>
+      <c r="Y22" s="121"/>
+      <c r="Z22" s="121"/>
+      <c r="AA22" s="121"/>
+      <c r="AB22" s="121"/>
+      <c r="AC22" s="121"/>
+      <c r="AD22" s="121"/>
+      <c r="AE22" s="121"/>
+      <c r="AF22" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="AG22" s="120"/>
-      <c r="AH22" s="120"/>
-      <c r="AI22" s="120"/>
-      <c r="AJ22" s="120"/>
-      <c r="AK22" s="120"/>
-      <c r="AL22" s="120"/>
-      <c r="AM22" s="120"/>
-      <c r="AN22" s="120"/>
-      <c r="AO22" s="120"/>
-      <c r="AP22" s="121" t="s">
+      <c r="AG22" s="98"/>
+      <c r="AH22" s="98"/>
+      <c r="AI22" s="98"/>
+      <c r="AJ22" s="98"/>
+      <c r="AK22" s="98"/>
+      <c r="AL22" s="98"/>
+      <c r="AM22" s="98"/>
+      <c r="AN22" s="98"/>
+      <c r="AO22" s="98"/>
+      <c r="AP22" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="AQ22" s="121"/>
-      <c r="AR22" s="121"/>
-      <c r="AS22" s="121"/>
-      <c r="AT22" s="121"/>
-      <c r="AU22" s="121"/>
-      <c r="AV22" s="121"/>
-      <c r="AW22" s="121"/>
-      <c r="AX22" s="121"/>
+      <c r="AQ22" s="99"/>
+      <c r="AR22" s="99"/>
+      <c r="AS22" s="99"/>
+      <c r="AT22" s="99"/>
+      <c r="AU22" s="99"/>
+      <c r="AV22" s="99"/>
+      <c r="AW22" s="99"/>
+      <c r="AX22" s="99"/>
       <c r="AY22" s="64"/>
       <c r="AZ22" s="64"/>
       <c r="BA22" s="64"/>
@@ -2980,2736 +2982,2736 @@
       <c r="BK22" s="64"/>
       <c r="BL22" s="64"/>
     </row>
-    <row r="23" spans="1:104" s="12" customFormat="1">
+    <row r="23" spans="1:104" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="66"/>
-      <c r="B23" s="103">
+      <c r="B23" s="113">
         <v>1</v>
       </c>
-      <c r="C23" s="103"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="103"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="103"/>
-      <c r="I23" s="103"/>
-      <c r="J23" s="103">
+      <c r="C23" s="113"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="113"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="113"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="113">
         <v>2</v>
       </c>
-      <c r="K23" s="103"/>
-      <c r="L23" s="103"/>
-      <c r="M23" s="103"/>
-      <c r="N23" s="103"/>
-      <c r="O23" s="103"/>
-      <c r="P23" s="103"/>
-      <c r="Q23" s="103"/>
-      <c r="R23" s="108">
+      <c r="K23" s="113"/>
+      <c r="L23" s="113"/>
+      <c r="M23" s="113"/>
+      <c r="N23" s="113"/>
+      <c r="O23" s="113"/>
+      <c r="P23" s="113"/>
+      <c r="Q23" s="113"/>
+      <c r="R23" s="114">
         <v>3</v>
       </c>
-      <c r="S23" s="108"/>
-      <c r="T23" s="108"/>
-      <c r="U23" s="108"/>
-      <c r="V23" s="108"/>
-      <c r="W23" s="108"/>
-      <c r="X23" s="108"/>
-      <c r="Y23" s="108"/>
-      <c r="Z23" s="108">
+      <c r="S23" s="114"/>
+      <c r="T23" s="114"/>
+      <c r="U23" s="114"/>
+      <c r="V23" s="114"/>
+      <c r="W23" s="114"/>
+      <c r="X23" s="114"/>
+      <c r="Y23" s="114"/>
+      <c r="Z23" s="114">
         <v>4</v>
       </c>
-      <c r="AA23" s="108"/>
-      <c r="AB23" s="108"/>
-      <c r="AC23" s="108"/>
-      <c r="AD23" s="108"/>
-      <c r="AE23" s="108"/>
-      <c r="AF23" s="108"/>
-      <c r="AG23" s="108"/>
-      <c r="AH23" s="112">
+      <c r="AA23" s="114"/>
+      <c r="AB23" s="114"/>
+      <c r="AC23" s="114"/>
+      <c r="AD23" s="114"/>
+      <c r="AE23" s="114"/>
+      <c r="AF23" s="114"/>
+      <c r="AG23" s="114"/>
+      <c r="AH23" s="104">
         <v>5</v>
       </c>
-      <c r="AI23" s="112"/>
-      <c r="AJ23" s="112"/>
-      <c r="AK23" s="112"/>
-      <c r="AL23" s="112"/>
-      <c r="AM23" s="112"/>
-      <c r="AN23" s="112"/>
-      <c r="AO23" s="112"/>
-      <c r="AP23" s="112">
+      <c r="AI23" s="104"/>
+      <c r="AJ23" s="104"/>
+      <c r="AK23" s="104"/>
+      <c r="AL23" s="104"/>
+      <c r="AM23" s="104"/>
+      <c r="AN23" s="104"/>
+      <c r="AO23" s="104"/>
+      <c r="AP23" s="104">
         <v>6</v>
       </c>
-      <c r="AQ23" s="112"/>
-      <c r="AR23" s="112"/>
-      <c r="AS23" s="112"/>
-      <c r="AT23" s="112"/>
-      <c r="AU23" s="112"/>
-      <c r="AV23" s="112"/>
-      <c r="AW23" s="112"/>
-      <c r="AX23" s="112">
+      <c r="AQ23" s="104"/>
+      <c r="AR23" s="104"/>
+      <c r="AS23" s="104"/>
+      <c r="AT23" s="104"/>
+      <c r="AU23" s="104"/>
+      <c r="AV23" s="104"/>
+      <c r="AW23" s="104"/>
+      <c r="AX23" s="104">
         <v>7</v>
       </c>
-      <c r="AY23" s="112"/>
-      <c r="AZ23" s="112"/>
-      <c r="BA23" s="112"/>
-      <c r="BB23" s="112"/>
-      <c r="BC23" s="112"/>
-      <c r="BD23" s="112"/>
-      <c r="BE23" s="112"/>
-      <c r="BF23" s="112">
+      <c r="AY23" s="104"/>
+      <c r="AZ23" s="104"/>
+      <c r="BA23" s="104"/>
+      <c r="BB23" s="104"/>
+      <c r="BC23" s="104"/>
+      <c r="BD23" s="104"/>
+      <c r="BE23" s="104"/>
+      <c r="BF23" s="104">
         <v>8</v>
       </c>
-      <c r="BG23" s="112"/>
-      <c r="BH23" s="112"/>
-      <c r="BI23" s="112"/>
-      <c r="BJ23" s="112"/>
-      <c r="BK23" s="112"/>
-      <c r="BL23" s="112"/>
-      <c r="BM23" s="112"/>
-      <c r="BN23" s="112">
+      <c r="BG23" s="104"/>
+      <c r="BH23" s="104"/>
+      <c r="BI23" s="104"/>
+      <c r="BJ23" s="104"/>
+      <c r="BK23" s="104"/>
+      <c r="BL23" s="104"/>
+      <c r="BM23" s="104"/>
+      <c r="BN23" s="104">
         <v>9</v>
       </c>
-      <c r="BO23" s="112"/>
-      <c r="BP23" s="112"/>
-      <c r="BQ23" s="112"/>
-      <c r="BR23" s="112"/>
-      <c r="BS23" s="112"/>
-      <c r="BT23" s="112"/>
-      <c r="BU23" s="112"/>
-      <c r="BV23" s="112">
+      <c r="BO23" s="104"/>
+      <c r="BP23" s="104"/>
+      <c r="BQ23" s="104"/>
+      <c r="BR23" s="104"/>
+      <c r="BS23" s="104"/>
+      <c r="BT23" s="104"/>
+      <c r="BU23" s="104"/>
+      <c r="BV23" s="104">
         <v>10</v>
       </c>
-      <c r="BW23" s="112"/>
-      <c r="BX23" s="112"/>
-      <c r="BY23" s="112"/>
-      <c r="BZ23" s="112"/>
-      <c r="CA23" s="112"/>
-      <c r="CB23" s="112"/>
-      <c r="CC23" s="112"/>
-      <c r="CD23" s="112">
+      <c r="BW23" s="104"/>
+      <c r="BX23" s="104"/>
+      <c r="BY23" s="104"/>
+      <c r="BZ23" s="104"/>
+      <c r="CA23" s="104"/>
+      <c r="CB23" s="104"/>
+      <c r="CC23" s="104"/>
+      <c r="CD23" s="104">
         <v>11</v>
       </c>
-      <c r="CE23" s="112"/>
-      <c r="CF23" s="112"/>
-      <c r="CG23" s="112"/>
-      <c r="CH23" s="112"/>
-      <c r="CI23" s="112"/>
-      <c r="CJ23" s="112"/>
-      <c r="CK23" s="112"/>
-    </row>
-    <row r="24" spans="1:104" s="94" customFormat="1">
-      <c r="A24" s="93"/>
-      <c r="B24" s="93"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="93"/>
-      <c r="K24" s="93"/>
-      <c r="L24" s="93"/>
-      <c r="M24" s="93"/>
-      <c r="N24" s="93"/>
-      <c r="O24" s="93"/>
-      <c r="P24" s="93"/>
-      <c r="Q24" s="93"/>
-      <c r="R24" s="93"/>
-      <c r="S24" s="93"/>
-      <c r="T24" s="93"/>
-      <c r="U24" s="93"/>
-      <c r="V24" s="93"/>
-      <c r="W24" s="93"/>
-      <c r="X24" s="93"/>
-      <c r="Y24" s="93"/>
-      <c r="Z24" s="93"/>
-      <c r="AA24" s="93"/>
-      <c r="AB24" s="93"/>
-      <c r="AC24" s="93"/>
-      <c r="AD24" s="93"/>
-      <c r="AE24" s="93"/>
-      <c r="AF24" s="93"/>
-      <c r="AG24" s="93"/>
-      <c r="AH24" s="93"/>
-      <c r="AI24" s="93"/>
-      <c r="AJ24" s="93"/>
-      <c r="AK24" s="93"/>
-      <c r="AL24" s="93"/>
-      <c r="AM24" s="93"/>
-      <c r="AN24" s="93"/>
-      <c r="AO24" s="93"/>
-      <c r="AP24" s="93"/>
-      <c r="AQ24" s="93"/>
-      <c r="AR24" s="93"/>
-      <c r="AS24" s="93"/>
-      <c r="AT24" s="93"/>
-      <c r="AU24" s="93"/>
-      <c r="AV24" s="93"/>
-      <c r="AW24" s="93"/>
-      <c r="AX24" s="93"/>
-      <c r="AY24" s="93"/>
-      <c r="AZ24" s="93"/>
-      <c r="BA24" s="93"/>
-      <c r="BB24" s="93"/>
-      <c r="BC24" s="93"/>
-      <c r="BD24" s="93"/>
-      <c r="BE24" s="93"/>
-      <c r="BF24" s="93"/>
-      <c r="BG24" s="93"/>
-      <c r="BH24" s="93"/>
-      <c r="BI24" s="93"/>
-      <c r="BJ24" s="93"/>
-      <c r="BK24" s="93"/>
-      <c r="BL24" s="93"/>
-    </row>
-    <row r="25" spans="1:104" s="4" customFormat="1">
-      <c r="B25" s="104" t="s">
+      <c r="CE23" s="104"/>
+      <c r="CF23" s="104"/>
+      <c r="CG23" s="104"/>
+      <c r="CH23" s="104"/>
+      <c r="CI23" s="104"/>
+      <c r="CJ23" s="104"/>
+      <c r="CK23" s="104"/>
+    </row>
+    <row r="24" spans="1:104" s="101" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="120"/>
+      <c r="B24" s="120"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="120"/>
+      <c r="H24" s="120"/>
+      <c r="I24" s="120"/>
+      <c r="J24" s="120"/>
+      <c r="K24" s="120"/>
+      <c r="L24" s="120"/>
+      <c r="M24" s="120"/>
+      <c r="N24" s="120"/>
+      <c r="O24" s="120"/>
+      <c r="P24" s="120"/>
+      <c r="Q24" s="120"/>
+      <c r="R24" s="120"/>
+      <c r="S24" s="120"/>
+      <c r="T24" s="120"/>
+      <c r="U24" s="120"/>
+      <c r="V24" s="120"/>
+      <c r="W24" s="120"/>
+      <c r="X24" s="120"/>
+      <c r="Y24" s="120"/>
+      <c r="Z24" s="120"/>
+      <c r="AA24" s="120"/>
+      <c r="AB24" s="120"/>
+      <c r="AC24" s="120"/>
+      <c r="AD24" s="120"/>
+      <c r="AE24" s="120"/>
+      <c r="AF24" s="120"/>
+      <c r="AG24" s="120"/>
+      <c r="AH24" s="120"/>
+      <c r="AI24" s="120"/>
+      <c r="AJ24" s="120"/>
+      <c r="AK24" s="120"/>
+      <c r="AL24" s="120"/>
+      <c r="AM24" s="120"/>
+      <c r="AN24" s="120"/>
+      <c r="AO24" s="120"/>
+      <c r="AP24" s="120"/>
+      <c r="AQ24" s="120"/>
+      <c r="AR24" s="120"/>
+      <c r="AS24" s="120"/>
+      <c r="AT24" s="120"/>
+      <c r="AU24" s="120"/>
+      <c r="AV24" s="120"/>
+      <c r="AW24" s="120"/>
+      <c r="AX24" s="120"/>
+      <c r="AY24" s="120"/>
+      <c r="AZ24" s="120"/>
+      <c r="BA24" s="120"/>
+      <c r="BB24" s="120"/>
+      <c r="BC24" s="120"/>
+      <c r="BD24" s="120"/>
+      <c r="BE24" s="120"/>
+      <c r="BF24" s="120"/>
+      <c r="BG24" s="120"/>
+      <c r="BH24" s="120"/>
+      <c r="BI24" s="120"/>
+      <c r="BJ24" s="120"/>
+      <c r="BK24" s="120"/>
+      <c r="BL24" s="120"/>
+    </row>
+    <row r="25" spans="1:104" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="105"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="104" t="s">
+      <c r="C25" s="109"/>
+      <c r="D25" s="109"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="109"/>
+      <c r="I25" s="110"/>
+      <c r="J25" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="K25" s="105"/>
-      <c r="L25" s="105"/>
-      <c r="M25" s="105"/>
-      <c r="N25" s="105"/>
-      <c r="O25" s="105"/>
-      <c r="P25" s="105"/>
-      <c r="Q25" s="106"/>
-      <c r="R25" s="104" t="s">
+      <c r="K25" s="109"/>
+      <c r="L25" s="109"/>
+      <c r="M25" s="109"/>
+      <c r="N25" s="109"/>
+      <c r="O25" s="109"/>
+      <c r="P25" s="109"/>
+      <c r="Q25" s="110"/>
+      <c r="R25" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="S25" s="105"/>
-      <c r="T25" s="105"/>
-      <c r="U25" s="105"/>
-      <c r="V25" s="105"/>
-      <c r="W25" s="105"/>
-      <c r="X25" s="105"/>
-      <c r="Y25" s="106"/>
-      <c r="Z25" s="109" t="s">
+      <c r="S25" s="109"/>
+      <c r="T25" s="109"/>
+      <c r="U25" s="109"/>
+      <c r="V25" s="109"/>
+      <c r="W25" s="109"/>
+      <c r="X25" s="109"/>
+      <c r="Y25" s="110"/>
+      <c r="Z25" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="AA25" s="110"/>
-      <c r="AB25" s="110"/>
-      <c r="AC25" s="110"/>
-      <c r="AD25" s="110"/>
-      <c r="AE25" s="110"/>
-      <c r="AF25" s="110"/>
-      <c r="AG25" s="111"/>
-      <c r="AH25" s="109" t="s">
+      <c r="AA25" s="106"/>
+      <c r="AB25" s="106"/>
+      <c r="AC25" s="106"/>
+      <c r="AD25" s="106"/>
+      <c r="AE25" s="106"/>
+      <c r="AF25" s="106"/>
+      <c r="AG25" s="107"/>
+      <c r="AH25" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="AI25" s="110"/>
-      <c r="AJ25" s="110"/>
-      <c r="AK25" s="110"/>
-      <c r="AL25" s="110"/>
-      <c r="AM25" s="110"/>
-      <c r="AN25" s="110"/>
-      <c r="AO25" s="111"/>
-      <c r="AP25" s="104" t="s">
+      <c r="AI25" s="106"/>
+      <c r="AJ25" s="106"/>
+      <c r="AK25" s="106"/>
+      <c r="AL25" s="106"/>
+      <c r="AM25" s="106"/>
+      <c r="AN25" s="106"/>
+      <c r="AO25" s="107"/>
+      <c r="AP25" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="AQ25" s="105"/>
-      <c r="AR25" s="105"/>
-      <c r="AS25" s="105"/>
-      <c r="AT25" s="105"/>
-      <c r="AU25" s="105"/>
-      <c r="AV25" s="105"/>
-      <c r="AW25" s="106"/>
-      <c r="AX25" s="104" t="s">
+      <c r="AQ25" s="109"/>
+      <c r="AR25" s="109"/>
+      <c r="AS25" s="109"/>
+      <c r="AT25" s="109"/>
+      <c r="AU25" s="109"/>
+      <c r="AV25" s="109"/>
+      <c r="AW25" s="110"/>
+      <c r="AX25" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="AY25" s="105"/>
-      <c r="AZ25" s="105"/>
-      <c r="BA25" s="105"/>
-      <c r="BB25" s="105"/>
-      <c r="BC25" s="105"/>
-      <c r="BD25" s="105"/>
-      <c r="BE25" s="106"/>
-      <c r="BF25" s="104" t="s">
+      <c r="AY25" s="109"/>
+      <c r="AZ25" s="109"/>
+      <c r="BA25" s="109"/>
+      <c r="BB25" s="109"/>
+      <c r="BC25" s="109"/>
+      <c r="BD25" s="109"/>
+      <c r="BE25" s="110"/>
+      <c r="BF25" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="BG25" s="105"/>
-      <c r="BH25" s="105"/>
-      <c r="BI25" s="105"/>
-      <c r="BJ25" s="105"/>
-      <c r="BK25" s="105"/>
-      <c r="BL25" s="105"/>
-      <c r="BM25" s="106"/>
-      <c r="BN25" s="114" t="s">
+      <c r="BG25" s="109"/>
+      <c r="BH25" s="109"/>
+      <c r="BI25" s="109"/>
+      <c r="BJ25" s="109"/>
+      <c r="BK25" s="109"/>
+      <c r="BL25" s="109"/>
+      <c r="BM25" s="110"/>
+      <c r="BN25" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="BO25" s="115"/>
-      <c r="BP25" s="115"/>
-      <c r="BQ25" s="115"/>
-      <c r="BR25" s="115"/>
-      <c r="BS25" s="115"/>
-      <c r="BT25" s="115"/>
-      <c r="BU25" s="116"/>
-      <c r="BV25" s="114" t="s">
+      <c r="BO25" s="93"/>
+      <c r="BP25" s="93"/>
+      <c r="BQ25" s="93"/>
+      <c r="BR25" s="93"/>
+      <c r="BS25" s="93"/>
+      <c r="BT25" s="93"/>
+      <c r="BU25" s="94"/>
+      <c r="BV25" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="BW25" s="115"/>
-      <c r="BX25" s="115"/>
-      <c r="BY25" s="115"/>
-      <c r="BZ25" s="115"/>
-      <c r="CA25" s="115"/>
-      <c r="CB25" s="115"/>
-      <c r="CC25" s="116"/>
-      <c r="CD25" s="114" t="s">
+      <c r="BW25" s="93"/>
+      <c r="BX25" s="93"/>
+      <c r="BY25" s="93"/>
+      <c r="BZ25" s="93"/>
+      <c r="CA25" s="93"/>
+      <c r="CB25" s="93"/>
+      <c r="CC25" s="94"/>
+      <c r="CD25" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="CE25" s="115"/>
-      <c r="CF25" s="115"/>
-      <c r="CG25" s="115"/>
-      <c r="CH25" s="115"/>
-      <c r="CI25" s="115"/>
-      <c r="CJ25" s="115"/>
-      <c r="CK25" s="116"/>
-      <c r="CL25" s="114" t="s">
+      <c r="CE25" s="93"/>
+      <c r="CF25" s="93"/>
+      <c r="CG25" s="93"/>
+      <c r="CH25" s="93"/>
+      <c r="CI25" s="93"/>
+      <c r="CJ25" s="93"/>
+      <c r="CK25" s="94"/>
+      <c r="CL25" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="CM25" s="115"/>
-      <c r="CN25" s="115"/>
-      <c r="CO25" s="115"/>
-      <c r="CP25" s="115"/>
-      <c r="CQ25" s="115"/>
-      <c r="CR25" s="116"/>
+      <c r="CM25" s="93"/>
+      <c r="CN25" s="93"/>
+      <c r="CO25" s="93"/>
+      <c r="CP25" s="93"/>
+      <c r="CQ25" s="93"/>
+      <c r="CR25" s="94"/>
       <c r="CS25" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:104">
+    <row r="26" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
-      <c r="B26" s="107" t="s">
+      <c r="B26" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="107"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="107"/>
-      <c r="G26" s="107"/>
-      <c r="H26" s="107"/>
-      <c r="I26" s="107"/>
-      <c r="J26" s="107"/>
-      <c r="K26" s="107"/>
-      <c r="L26" s="107"/>
-      <c r="M26" s="107"/>
-      <c r="N26" s="107"/>
-      <c r="O26" s="107"/>
-      <c r="P26" s="107"/>
-      <c r="Q26" s="107"/>
-      <c r="R26" s="107"/>
-      <c r="S26" s="107"/>
-      <c r="T26" s="107"/>
-      <c r="U26" s="107"/>
-      <c r="V26" s="107"/>
-      <c r="W26" s="107"/>
-      <c r="X26" s="107"/>
-      <c r="Y26" s="107"/>
-      <c r="Z26" s="107"/>
-      <c r="AA26" s="107"/>
-      <c r="AB26" s="107"/>
-      <c r="AC26" s="107"/>
-      <c r="AD26" s="107"/>
-      <c r="AE26" s="107"/>
-      <c r="AF26" s="107"/>
-      <c r="AG26" s="107"/>
-      <c r="AH26" s="107"/>
-      <c r="AI26" s="107"/>
-      <c r="AJ26" s="107"/>
-      <c r="AK26" s="107"/>
-      <c r="AL26" s="107"/>
-      <c r="AM26" s="107"/>
-      <c r="AN26" s="107"/>
-      <c r="AO26" s="107"/>
-      <c r="AP26" s="107"/>
-      <c r="AQ26" s="107"/>
-      <c r="AR26" s="107"/>
-      <c r="AS26" s="107"/>
-      <c r="AT26" s="107"/>
-      <c r="AU26" s="107"/>
-      <c r="AV26" s="107"/>
-      <c r="AW26" s="107"/>
-      <c r="AX26" s="113"/>
-      <c r="AY26" s="113"/>
-      <c r="AZ26" s="113"/>
-      <c r="BA26" s="113"/>
-      <c r="BB26" s="113"/>
-      <c r="BC26" s="113"/>
-      <c r="BD26" s="113"/>
-      <c r="BE26" s="113"/>
-      <c r="BF26" s="113"/>
-      <c r="BG26" s="113"/>
-      <c r="BH26" s="113"/>
-      <c r="BI26" s="113"/>
-      <c r="BJ26" s="113"/>
-      <c r="BK26" s="113"/>
-      <c r="BL26" s="113"/>
-      <c r="BM26" s="113"/>
-      <c r="BN26" s="117"/>
-      <c r="BO26" s="117"/>
-      <c r="BP26" s="117"/>
-      <c r="BQ26" s="117"/>
-      <c r="BR26" s="117"/>
-      <c r="BS26" s="117"/>
-      <c r="BT26" s="117"/>
-      <c r="BU26" s="117"/>
-      <c r="BV26" s="107"/>
-      <c r="BW26" s="107"/>
-      <c r="BX26" s="107"/>
-      <c r="BY26" s="107"/>
-      <c r="BZ26" s="107"/>
-      <c r="CA26" s="107"/>
-      <c r="CB26" s="107"/>
-      <c r="CC26" s="107"/>
-      <c r="CD26" s="107"/>
-      <c r="CE26" s="107"/>
-      <c r="CF26" s="107"/>
-      <c r="CG26" s="107"/>
-      <c r="CH26" s="107"/>
-      <c r="CI26" s="107"/>
-      <c r="CJ26" s="107"/>
-      <c r="CK26" s="107"/>
-      <c r="CL26" s="107"/>
-      <c r="CM26" s="107"/>
-      <c r="CN26" s="107"/>
-      <c r="CO26" s="107"/>
-      <c r="CP26" s="107"/>
-      <c r="CQ26" s="107"/>
-      <c r="CR26" s="107"/>
-      <c r="CS26" s="107"/>
-      <c r="CT26" s="107"/>
-      <c r="CU26" s="107"/>
-      <c r="CV26" s="107"/>
-      <c r="CW26" s="107"/>
-      <c r="CX26" s="107"/>
-      <c r="CY26" s="107"/>
-    </row>
-    <row r="27" spans="1:104">
+      <c r="C26" s="89"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="89"/>
+      <c r="J26" s="89"/>
+      <c r="K26" s="89"/>
+      <c r="L26" s="89"/>
+      <c r="M26" s="89"/>
+      <c r="N26" s="89"/>
+      <c r="O26" s="89"/>
+      <c r="P26" s="89"/>
+      <c r="Q26" s="89"/>
+      <c r="R26" s="89"/>
+      <c r="S26" s="89"/>
+      <c r="T26" s="89"/>
+      <c r="U26" s="89"/>
+      <c r="V26" s="89"/>
+      <c r="W26" s="89"/>
+      <c r="X26" s="89"/>
+      <c r="Y26" s="89"/>
+      <c r="Z26" s="89"/>
+      <c r="AA26" s="89"/>
+      <c r="AB26" s="89"/>
+      <c r="AC26" s="89"/>
+      <c r="AD26" s="89"/>
+      <c r="AE26" s="89"/>
+      <c r="AF26" s="89"/>
+      <c r="AG26" s="89"/>
+      <c r="AH26" s="89"/>
+      <c r="AI26" s="89"/>
+      <c r="AJ26" s="89"/>
+      <c r="AK26" s="89"/>
+      <c r="AL26" s="89"/>
+      <c r="AM26" s="89"/>
+      <c r="AN26" s="89"/>
+      <c r="AO26" s="89"/>
+      <c r="AP26" s="89"/>
+      <c r="AQ26" s="89"/>
+      <c r="AR26" s="89"/>
+      <c r="AS26" s="89"/>
+      <c r="AT26" s="89"/>
+      <c r="AU26" s="89"/>
+      <c r="AV26" s="89"/>
+      <c r="AW26" s="89"/>
+      <c r="AX26" s="111"/>
+      <c r="AY26" s="111"/>
+      <c r="AZ26" s="111"/>
+      <c r="BA26" s="111"/>
+      <c r="BB26" s="111"/>
+      <c r="BC26" s="111"/>
+      <c r="BD26" s="111"/>
+      <c r="BE26" s="111"/>
+      <c r="BF26" s="111"/>
+      <c r="BG26" s="111"/>
+      <c r="BH26" s="111"/>
+      <c r="BI26" s="111"/>
+      <c r="BJ26" s="111"/>
+      <c r="BK26" s="111"/>
+      <c r="BL26" s="111"/>
+      <c r="BM26" s="111"/>
+      <c r="BN26" s="112"/>
+      <c r="BO26" s="112"/>
+      <c r="BP26" s="112"/>
+      <c r="BQ26" s="112"/>
+      <c r="BR26" s="112"/>
+      <c r="BS26" s="112"/>
+      <c r="BT26" s="112"/>
+      <c r="BU26" s="112"/>
+      <c r="BV26" s="89"/>
+      <c r="BW26" s="89"/>
+      <c r="BX26" s="89"/>
+      <c r="BY26" s="89"/>
+      <c r="BZ26" s="89"/>
+      <c r="CA26" s="89"/>
+      <c r="CB26" s="89"/>
+      <c r="CC26" s="89"/>
+      <c r="CD26" s="89"/>
+      <c r="CE26" s="89"/>
+      <c r="CF26" s="89"/>
+      <c r="CG26" s="89"/>
+      <c r="CH26" s="89"/>
+      <c r="CI26" s="89"/>
+      <c r="CJ26" s="89"/>
+      <c r="CK26" s="89"/>
+      <c r="CL26" s="89"/>
+      <c r="CM26" s="89"/>
+      <c r="CN26" s="89"/>
+      <c r="CO26" s="89"/>
+      <c r="CP26" s="89"/>
+      <c r="CQ26" s="89"/>
+      <c r="CR26" s="89"/>
+      <c r="CS26" s="89"/>
+      <c r="CT26" s="89"/>
+      <c r="CU26" s="89"/>
+      <c r="CV26" s="89"/>
+      <c r="CW26" s="89"/>
+      <c r="CX26" s="89"/>
+      <c r="CY26" s="89"/>
+    </row>
+    <row r="27" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
-      <c r="B27" s="96" t="s">
+      <c r="B27" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="96"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="96"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="96"/>
-      <c r="J27" s="96"/>
-      <c r="K27" s="96"/>
-      <c r="L27" s="96"/>
-      <c r="M27" s="96"/>
-      <c r="N27" s="96"/>
-      <c r="O27" s="96"/>
-      <c r="P27" s="96"/>
-      <c r="Q27" s="96"/>
-      <c r="R27" s="95"/>
-      <c r="S27" s="95"/>
-      <c r="T27" s="95"/>
-      <c r="U27" s="95"/>
-      <c r="V27" s="95"/>
-      <c r="W27" s="95"/>
-      <c r="X27" s="95"/>
-      <c r="Y27" s="95"/>
-      <c r="Z27" s="99"/>
-      <c r="AA27" s="99"/>
-      <c r="AB27" s="99"/>
-      <c r="AC27" s="99"/>
-      <c r="AD27" s="99"/>
-      <c r="AE27" s="99"/>
-      <c r="AF27" s="99"/>
-      <c r="AG27" s="99"/>
-      <c r="AH27" s="89"/>
-      <c r="AI27" s="89"/>
-      <c r="AJ27" s="89"/>
-      <c r="AK27" s="89"/>
-      <c r="AL27" s="89"/>
-      <c r="AM27" s="89"/>
-      <c r="AN27" s="89"/>
-      <c r="AO27" s="89"/>
-      <c r="AP27" s="95"/>
-      <c r="AQ27" s="95"/>
-      <c r="AR27" s="95"/>
-      <c r="AS27" s="95"/>
-      <c r="AT27" s="95"/>
-      <c r="AU27" s="95"/>
-      <c r="AV27" s="95"/>
-      <c r="AW27" s="95"/>
-      <c r="AX27" s="90"/>
-      <c r="AY27" s="90"/>
-      <c r="AZ27" s="90"/>
-      <c r="BA27" s="90"/>
-      <c r="BB27" s="90"/>
-      <c r="BC27" s="90"/>
-      <c r="BD27" s="90"/>
-      <c r="BE27" s="90"/>
-      <c r="BF27" s="90"/>
-      <c r="BG27" s="90"/>
-      <c r="BH27" s="90"/>
-      <c r="BI27" s="90"/>
-      <c r="BJ27" s="90"/>
-      <c r="BK27" s="90"/>
-      <c r="BL27" s="90"/>
-      <c r="BM27" s="90"/>
-      <c r="BN27" s="94"/>
-      <c r="BO27" s="94"/>
-      <c r="BP27" s="94"/>
-      <c r="BQ27" s="94"/>
-      <c r="BR27" s="94"/>
-      <c r="BS27" s="94"/>
-      <c r="BT27" s="94"/>
-      <c r="BU27" s="94"/>
-      <c r="BV27" s="118"/>
-      <c r="BW27" s="118"/>
-      <c r="BX27" s="118"/>
-      <c r="BY27" s="118"/>
-      <c r="BZ27" s="118"/>
-      <c r="CA27" s="118"/>
-      <c r="CB27" s="118"/>
-      <c r="CC27" s="118"/>
-      <c r="CD27" s="96"/>
-      <c r="CE27" s="96"/>
-      <c r="CF27" s="96"/>
-      <c r="CG27" s="96"/>
-      <c r="CH27" s="96"/>
-      <c r="CI27" s="96"/>
-      <c r="CJ27" s="96"/>
-      <c r="CK27" s="96"/>
-      <c r="CL27" s="96"/>
-      <c r="CM27" s="96"/>
-      <c r="CN27" s="96"/>
-      <c r="CO27" s="96"/>
-      <c r="CP27" s="96"/>
-      <c r="CQ27" s="96"/>
-      <c r="CR27" s="96"/>
-      <c r="CS27" s="95"/>
-      <c r="CT27" s="95"/>
-      <c r="CU27" s="95"/>
-      <c r="CV27" s="95"/>
-      <c r="CW27" s="95"/>
-      <c r="CX27" s="95"/>
-      <c r="CY27" s="95"/>
-    </row>
-    <row r="28" spans="1:104">
+      <c r="C27" s="91"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="91"/>
+      <c r="I27" s="91"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="91"/>
+      <c r="L27" s="91"/>
+      <c r="M27" s="91"/>
+      <c r="N27" s="91"/>
+      <c r="O27" s="91"/>
+      <c r="P27" s="91"/>
+      <c r="Q27" s="91"/>
+      <c r="R27" s="90"/>
+      <c r="S27" s="90"/>
+      <c r="T27" s="90"/>
+      <c r="U27" s="90"/>
+      <c r="V27" s="90"/>
+      <c r="W27" s="90"/>
+      <c r="X27" s="90"/>
+      <c r="Y27" s="90"/>
+      <c r="Z27" s="96"/>
+      <c r="AA27" s="96"/>
+      <c r="AB27" s="96"/>
+      <c r="AC27" s="96"/>
+      <c r="AD27" s="96"/>
+      <c r="AE27" s="96"/>
+      <c r="AF27" s="96"/>
+      <c r="AG27" s="96"/>
+      <c r="AH27" s="102"/>
+      <c r="AI27" s="102"/>
+      <c r="AJ27" s="102"/>
+      <c r="AK27" s="102"/>
+      <c r="AL27" s="102"/>
+      <c r="AM27" s="102"/>
+      <c r="AN27" s="102"/>
+      <c r="AO27" s="102"/>
+      <c r="AP27" s="90"/>
+      <c r="AQ27" s="90"/>
+      <c r="AR27" s="90"/>
+      <c r="AS27" s="90"/>
+      <c r="AT27" s="90"/>
+      <c r="AU27" s="90"/>
+      <c r="AV27" s="90"/>
+      <c r="AW27" s="90"/>
+      <c r="AX27" s="95"/>
+      <c r="AY27" s="95"/>
+      <c r="AZ27" s="95"/>
+      <c r="BA27" s="95"/>
+      <c r="BB27" s="95"/>
+      <c r="BC27" s="95"/>
+      <c r="BD27" s="95"/>
+      <c r="BE27" s="95"/>
+      <c r="BF27" s="95"/>
+      <c r="BG27" s="95"/>
+      <c r="BH27" s="95"/>
+      <c r="BI27" s="95"/>
+      <c r="BJ27" s="95"/>
+      <c r="BK27" s="95"/>
+      <c r="BL27" s="95"/>
+      <c r="BM27" s="95"/>
+      <c r="BN27" s="101"/>
+      <c r="BO27" s="101"/>
+      <c r="BP27" s="101"/>
+      <c r="BQ27" s="101"/>
+      <c r="BR27" s="101"/>
+      <c r="BS27" s="101"/>
+      <c r="BT27" s="101"/>
+      <c r="BU27" s="101"/>
+      <c r="BV27" s="100"/>
+      <c r="BW27" s="100"/>
+      <c r="BX27" s="100"/>
+      <c r="BY27" s="100"/>
+      <c r="BZ27" s="100"/>
+      <c r="CA27" s="100"/>
+      <c r="CB27" s="100"/>
+      <c r="CC27" s="100"/>
+      <c r="CD27" s="91"/>
+      <c r="CE27" s="91"/>
+      <c r="CF27" s="91"/>
+      <c r="CG27" s="91"/>
+      <c r="CH27" s="91"/>
+      <c r="CI27" s="91"/>
+      <c r="CJ27" s="91"/>
+      <c r="CK27" s="91"/>
+      <c r="CL27" s="91"/>
+      <c r="CM27" s="91"/>
+      <c r="CN27" s="91"/>
+      <c r="CO27" s="91"/>
+      <c r="CP27" s="91"/>
+      <c r="CQ27" s="91"/>
+      <c r="CR27" s="91"/>
+      <c r="CS27" s="90"/>
+      <c r="CT27" s="90"/>
+      <c r="CU27" s="90"/>
+      <c r="CV27" s="90"/>
+      <c r="CW27" s="90"/>
+      <c r="CX27" s="90"/>
+      <c r="CY27" s="90"/>
+    </row>
+    <row r="28" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A28" s="63">
         <v>3</v>
       </c>
-      <c r="B28" s="96" t="s">
+      <c r="B28" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="96"/>
-      <c r="D28" s="96"/>
-      <c r="E28" s="96"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="96"/>
-      <c r="N28" s="96"/>
-      <c r="O28" s="96"/>
-      <c r="P28" s="96"/>
-      <c r="Q28" s="96"/>
-      <c r="R28" s="95"/>
-      <c r="S28" s="95"/>
-      <c r="T28" s="95"/>
-      <c r="U28" s="95"/>
-      <c r="V28" s="95"/>
-      <c r="W28" s="95"/>
-      <c r="X28" s="95"/>
-      <c r="Y28" s="95"/>
-      <c r="Z28" s="99"/>
-      <c r="AA28" s="99"/>
-      <c r="AB28" s="99"/>
-      <c r="AC28" s="99"/>
-      <c r="AD28" s="99"/>
-      <c r="AE28" s="99"/>
-      <c r="AF28" s="99"/>
-      <c r="AG28" s="99"/>
-      <c r="AH28" s="89"/>
-      <c r="AI28" s="89"/>
-      <c r="AJ28" s="89"/>
-      <c r="AK28" s="89"/>
-      <c r="AL28" s="89"/>
-      <c r="AM28" s="89"/>
-      <c r="AN28" s="89"/>
-      <c r="AO28" s="89"/>
-      <c r="AP28" s="95"/>
-      <c r="AQ28" s="95"/>
-      <c r="AR28" s="95"/>
-      <c r="AS28" s="95"/>
-      <c r="AT28" s="95"/>
-      <c r="AU28" s="95"/>
-      <c r="AV28" s="95"/>
-      <c r="AW28" s="95"/>
-      <c r="AX28" s="90"/>
-      <c r="AY28" s="90"/>
-      <c r="AZ28" s="90"/>
-      <c r="BA28" s="90"/>
-      <c r="BB28" s="90"/>
-      <c r="BC28" s="90"/>
-      <c r="BD28" s="90"/>
-      <c r="BE28" s="90"/>
-      <c r="BF28" s="90"/>
-      <c r="BG28" s="90"/>
-      <c r="BH28" s="90"/>
-      <c r="BI28" s="90"/>
-      <c r="BJ28" s="90"/>
-      <c r="BK28" s="90"/>
-      <c r="BL28" s="90"/>
-      <c r="BM28" s="90"/>
-      <c r="BN28" s="94"/>
-      <c r="BO28" s="94"/>
-      <c r="BP28" s="94"/>
-      <c r="BQ28" s="94"/>
-      <c r="BR28" s="94"/>
-      <c r="BS28" s="94"/>
-      <c r="BT28" s="94"/>
-      <c r="BU28" s="94"/>
-      <c r="BV28" s="90"/>
-      <c r="BW28" s="90"/>
-      <c r="BX28" s="90"/>
-      <c r="BY28" s="90"/>
-      <c r="BZ28" s="90"/>
-      <c r="CA28" s="90"/>
-      <c r="CB28" s="90"/>
-      <c r="CC28" s="90"/>
-      <c r="CD28" s="96"/>
-      <c r="CE28" s="96"/>
-      <c r="CF28" s="96"/>
-      <c r="CG28" s="96"/>
-      <c r="CH28" s="96"/>
-      <c r="CI28" s="96"/>
-      <c r="CJ28" s="96"/>
-      <c r="CK28" s="96"/>
-      <c r="CL28" s="95"/>
-      <c r="CM28" s="95"/>
-      <c r="CN28" s="95"/>
-      <c r="CO28" s="95"/>
-      <c r="CP28" s="95"/>
-      <c r="CQ28" s="95"/>
-      <c r="CR28" s="95"/>
-      <c r="CS28" s="95"/>
-      <c r="CT28" s="95"/>
-      <c r="CU28" s="95"/>
-      <c r="CV28" s="95"/>
-      <c r="CW28" s="95"/>
-      <c r="CX28" s="95"/>
-      <c r="CY28" s="95"/>
-    </row>
-    <row r="29" spans="1:104">
+      <c r="C28" s="91"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="91"/>
+      <c r="I28" s="91"/>
+      <c r="J28" s="91"/>
+      <c r="K28" s="91"/>
+      <c r="L28" s="91"/>
+      <c r="M28" s="91"/>
+      <c r="N28" s="91"/>
+      <c r="O28" s="91"/>
+      <c r="P28" s="91"/>
+      <c r="Q28" s="91"/>
+      <c r="R28" s="90"/>
+      <c r="S28" s="90"/>
+      <c r="T28" s="90"/>
+      <c r="U28" s="90"/>
+      <c r="V28" s="90"/>
+      <c r="W28" s="90"/>
+      <c r="X28" s="90"/>
+      <c r="Y28" s="90"/>
+      <c r="Z28" s="96"/>
+      <c r="AA28" s="96"/>
+      <c r="AB28" s="96"/>
+      <c r="AC28" s="96"/>
+      <c r="AD28" s="96"/>
+      <c r="AE28" s="96"/>
+      <c r="AF28" s="96"/>
+      <c r="AG28" s="96"/>
+      <c r="AH28" s="102"/>
+      <c r="AI28" s="102"/>
+      <c r="AJ28" s="102"/>
+      <c r="AK28" s="102"/>
+      <c r="AL28" s="102"/>
+      <c r="AM28" s="102"/>
+      <c r="AN28" s="102"/>
+      <c r="AO28" s="102"/>
+      <c r="AP28" s="90"/>
+      <c r="AQ28" s="90"/>
+      <c r="AR28" s="90"/>
+      <c r="AS28" s="90"/>
+      <c r="AT28" s="90"/>
+      <c r="AU28" s="90"/>
+      <c r="AV28" s="90"/>
+      <c r="AW28" s="90"/>
+      <c r="AX28" s="95"/>
+      <c r="AY28" s="95"/>
+      <c r="AZ28" s="95"/>
+      <c r="BA28" s="95"/>
+      <c r="BB28" s="95"/>
+      <c r="BC28" s="95"/>
+      <c r="BD28" s="95"/>
+      <c r="BE28" s="95"/>
+      <c r="BF28" s="95"/>
+      <c r="BG28" s="95"/>
+      <c r="BH28" s="95"/>
+      <c r="BI28" s="95"/>
+      <c r="BJ28" s="95"/>
+      <c r="BK28" s="95"/>
+      <c r="BL28" s="95"/>
+      <c r="BM28" s="95"/>
+      <c r="BN28" s="101"/>
+      <c r="BO28" s="101"/>
+      <c r="BP28" s="101"/>
+      <c r="BQ28" s="101"/>
+      <c r="BR28" s="101"/>
+      <c r="BS28" s="101"/>
+      <c r="BT28" s="101"/>
+      <c r="BU28" s="101"/>
+      <c r="BV28" s="95"/>
+      <c r="BW28" s="95"/>
+      <c r="BX28" s="95"/>
+      <c r="BY28" s="95"/>
+      <c r="BZ28" s="95"/>
+      <c r="CA28" s="95"/>
+      <c r="CB28" s="95"/>
+      <c r="CC28" s="95"/>
+      <c r="CD28" s="91"/>
+      <c r="CE28" s="91"/>
+      <c r="CF28" s="91"/>
+      <c r="CG28" s="91"/>
+      <c r="CH28" s="91"/>
+      <c r="CI28" s="91"/>
+      <c r="CJ28" s="91"/>
+      <c r="CK28" s="91"/>
+      <c r="CL28" s="90"/>
+      <c r="CM28" s="90"/>
+      <c r="CN28" s="90"/>
+      <c r="CO28" s="90"/>
+      <c r="CP28" s="90"/>
+      <c r="CQ28" s="90"/>
+      <c r="CR28" s="90"/>
+      <c r="CS28" s="90"/>
+      <c r="CT28" s="90"/>
+      <c r="CU28" s="90"/>
+      <c r="CV28" s="90"/>
+      <c r="CW28" s="90"/>
+      <c r="CX28" s="90"/>
+      <c r="CY28" s="90"/>
+    </row>
+    <row r="29" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A29" s="63">
         <v>4</v>
       </c>
-      <c r="B29" s="96" t="s">
+      <c r="B29" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="96"/>
-      <c r="D29" s="96"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="96"/>
-      <c r="G29" s="96"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="96"/>
-      <c r="J29" s="96"/>
-      <c r="K29" s="96"/>
-      <c r="L29" s="96"/>
-      <c r="M29" s="96"/>
-      <c r="N29" s="96"/>
-      <c r="O29" s="96"/>
-      <c r="P29" s="96"/>
-      <c r="Q29" s="96"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="95"/>
-      <c r="U29" s="95"/>
-      <c r="V29" s="95"/>
-      <c r="W29" s="95"/>
-      <c r="X29" s="95"/>
-      <c r="Y29" s="95"/>
-      <c r="Z29" s="99"/>
-      <c r="AA29" s="99"/>
-      <c r="AB29" s="99"/>
-      <c r="AC29" s="99"/>
-      <c r="AD29" s="99"/>
-      <c r="AE29" s="99"/>
-      <c r="AF29" s="99"/>
-      <c r="AG29" s="99"/>
-      <c r="AH29" s="89"/>
-      <c r="AI29" s="89"/>
-      <c r="AJ29" s="89"/>
-      <c r="AK29" s="89"/>
-      <c r="AL29" s="89"/>
-      <c r="AM29" s="89"/>
-      <c r="AN29" s="89"/>
-      <c r="AO29" s="89"/>
-      <c r="AP29" s="95"/>
-      <c r="AQ29" s="95"/>
-      <c r="AR29" s="95"/>
-      <c r="AS29" s="95"/>
-      <c r="AT29" s="95"/>
-      <c r="AU29" s="95"/>
-      <c r="AV29" s="95"/>
-      <c r="AW29" s="95"/>
-      <c r="AX29" s="90"/>
-      <c r="AY29" s="90"/>
-      <c r="AZ29" s="90"/>
-      <c r="BA29" s="90"/>
-      <c r="BB29" s="90"/>
-      <c r="BC29" s="90"/>
-      <c r="BD29" s="90"/>
-      <c r="BE29" s="90"/>
-      <c r="BF29" s="90"/>
-      <c r="BG29" s="90"/>
-      <c r="BH29" s="90"/>
-      <c r="BI29" s="90"/>
-      <c r="BJ29" s="90"/>
-      <c r="BK29" s="90"/>
-      <c r="BL29" s="90"/>
-      <c r="BM29" s="90"/>
-      <c r="BN29" s="89"/>
-      <c r="BO29" s="89"/>
-      <c r="BP29" s="89"/>
-      <c r="BQ29" s="89"/>
-      <c r="BR29" s="89"/>
-      <c r="BS29" s="89"/>
-      <c r="BT29" s="89"/>
-      <c r="BU29" s="89"/>
-      <c r="BV29" s="90"/>
-      <c r="BW29" s="90"/>
-      <c r="BX29" s="90"/>
-      <c r="BY29" s="90"/>
-      <c r="BZ29" s="90"/>
-      <c r="CA29" s="90"/>
-      <c r="CB29" s="90"/>
-      <c r="CC29" s="90"/>
-      <c r="CD29" s="96"/>
-      <c r="CE29" s="96"/>
-      <c r="CF29" s="96"/>
-      <c r="CG29" s="96"/>
-      <c r="CH29" s="96"/>
-      <c r="CI29" s="96"/>
-      <c r="CJ29" s="96"/>
-      <c r="CK29" s="96"/>
-      <c r="CL29" s="107"/>
-      <c r="CM29" s="107"/>
-      <c r="CN29" s="107"/>
-      <c r="CO29" s="107"/>
-      <c r="CP29" s="107"/>
-      <c r="CQ29" s="107"/>
-      <c r="CR29" s="107"/>
-      <c r="CS29" s="95"/>
-      <c r="CT29" s="95"/>
-      <c r="CU29" s="95"/>
-      <c r="CV29" s="95"/>
-      <c r="CW29" s="95"/>
-      <c r="CX29" s="95"/>
-      <c r="CY29" s="95"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="91"/>
+      <c r="L29" s="91"/>
+      <c r="M29" s="91"/>
+      <c r="N29" s="91"/>
+      <c r="O29" s="91"/>
+      <c r="P29" s="91"/>
+      <c r="Q29" s="91"/>
+      <c r="R29" s="90"/>
+      <c r="S29" s="90"/>
+      <c r="T29" s="90"/>
+      <c r="U29" s="90"/>
+      <c r="V29" s="90"/>
+      <c r="W29" s="90"/>
+      <c r="X29" s="90"/>
+      <c r="Y29" s="90"/>
+      <c r="Z29" s="96"/>
+      <c r="AA29" s="96"/>
+      <c r="AB29" s="96"/>
+      <c r="AC29" s="96"/>
+      <c r="AD29" s="96"/>
+      <c r="AE29" s="96"/>
+      <c r="AF29" s="96"/>
+      <c r="AG29" s="96"/>
+      <c r="AH29" s="102"/>
+      <c r="AI29" s="102"/>
+      <c r="AJ29" s="102"/>
+      <c r="AK29" s="102"/>
+      <c r="AL29" s="102"/>
+      <c r="AM29" s="102"/>
+      <c r="AN29" s="102"/>
+      <c r="AO29" s="102"/>
+      <c r="AP29" s="90"/>
+      <c r="AQ29" s="90"/>
+      <c r="AR29" s="90"/>
+      <c r="AS29" s="90"/>
+      <c r="AT29" s="90"/>
+      <c r="AU29" s="90"/>
+      <c r="AV29" s="90"/>
+      <c r="AW29" s="90"/>
+      <c r="AX29" s="95"/>
+      <c r="AY29" s="95"/>
+      <c r="AZ29" s="95"/>
+      <c r="BA29" s="95"/>
+      <c r="BB29" s="95"/>
+      <c r="BC29" s="95"/>
+      <c r="BD29" s="95"/>
+      <c r="BE29" s="95"/>
+      <c r="BF29" s="95"/>
+      <c r="BG29" s="95"/>
+      <c r="BH29" s="95"/>
+      <c r="BI29" s="95"/>
+      <c r="BJ29" s="95"/>
+      <c r="BK29" s="95"/>
+      <c r="BL29" s="95"/>
+      <c r="BM29" s="95"/>
+      <c r="BN29" s="102"/>
+      <c r="BO29" s="102"/>
+      <c r="BP29" s="102"/>
+      <c r="BQ29" s="102"/>
+      <c r="BR29" s="102"/>
+      <c r="BS29" s="102"/>
+      <c r="BT29" s="102"/>
+      <c r="BU29" s="102"/>
+      <c r="BV29" s="95"/>
+      <c r="BW29" s="95"/>
+      <c r="BX29" s="95"/>
+      <c r="BY29" s="95"/>
+      <c r="BZ29" s="95"/>
+      <c r="CA29" s="95"/>
+      <c r="CB29" s="95"/>
+      <c r="CC29" s="95"/>
+      <c r="CD29" s="91"/>
+      <c r="CE29" s="91"/>
+      <c r="CF29" s="91"/>
+      <c r="CG29" s="91"/>
+      <c r="CH29" s="91"/>
+      <c r="CI29" s="91"/>
+      <c r="CJ29" s="91"/>
+      <c r="CK29" s="91"/>
+      <c r="CL29" s="89"/>
+      <c r="CM29" s="89"/>
+      <c r="CN29" s="89"/>
+      <c r="CO29" s="89"/>
+      <c r="CP29" s="89"/>
+      <c r="CQ29" s="89"/>
+      <c r="CR29" s="89"/>
+      <c r="CS29" s="90"/>
+      <c r="CT29" s="90"/>
+      <c r="CU29" s="90"/>
+      <c r="CV29" s="90"/>
+      <c r="CW29" s="90"/>
+      <c r="CX29" s="90"/>
+      <c r="CY29" s="90"/>
       <c r="CZ29" s="76"/>
     </row>
-    <row r="30" spans="1:104">
+    <row r="30" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A30" s="63">
         <v>5</v>
       </c>
-      <c r="B30" s="96" t="s">
+      <c r="B30" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="96"/>
-      <c r="D30" s="96"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="96"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="96"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="96"/>
-      <c r="M30" s="96"/>
-      <c r="N30" s="96"/>
-      <c r="O30" s="96"/>
-      <c r="P30" s="96"/>
-      <c r="Q30" s="96"/>
-      <c r="R30" s="95"/>
-      <c r="S30" s="95"/>
-      <c r="T30" s="95"/>
-      <c r="U30" s="95"/>
-      <c r="V30" s="95"/>
-      <c r="W30" s="95"/>
-      <c r="X30" s="95"/>
-      <c r="Y30" s="95"/>
-      <c r="Z30" s="99"/>
-      <c r="AA30" s="99"/>
-      <c r="AB30" s="99"/>
-      <c r="AC30" s="99"/>
-      <c r="AD30" s="99"/>
-      <c r="AE30" s="99"/>
-      <c r="AF30" s="99"/>
-      <c r="AG30" s="99"/>
-      <c r="AH30" s="89"/>
-      <c r="AI30" s="89"/>
-      <c r="AJ30" s="89"/>
-      <c r="AK30" s="89"/>
-      <c r="AL30" s="89"/>
-      <c r="AM30" s="89"/>
-      <c r="AN30" s="89"/>
-      <c r="AO30" s="89"/>
-      <c r="AP30" s="96"/>
-      <c r="AQ30" s="96"/>
-      <c r="AR30" s="96"/>
-      <c r="AS30" s="96"/>
-      <c r="AT30" s="96"/>
-      <c r="AU30" s="96"/>
-      <c r="AV30" s="96"/>
-      <c r="AW30" s="96"/>
-      <c r="AX30" s="89"/>
-      <c r="AY30" s="89"/>
-      <c r="AZ30" s="89"/>
-      <c r="BA30" s="89"/>
-      <c r="BB30" s="89"/>
-      <c r="BC30" s="89"/>
-      <c r="BD30" s="89"/>
-      <c r="BE30" s="89"/>
-      <c r="BF30" s="89"/>
-      <c r="BG30" s="89"/>
-      <c r="BH30" s="89"/>
-      <c r="BI30" s="89"/>
-      <c r="BJ30" s="89"/>
-      <c r="BK30" s="89"/>
-      <c r="BL30" s="89"/>
-      <c r="BM30" s="89"/>
-      <c r="BN30" s="89"/>
-      <c r="BO30" s="89"/>
-      <c r="BP30" s="89"/>
-      <c r="BQ30" s="89"/>
-      <c r="BR30" s="89"/>
-      <c r="BS30" s="89"/>
-      <c r="BT30" s="89"/>
-      <c r="BU30" s="89"/>
-      <c r="BV30" s="90"/>
-      <c r="BW30" s="90"/>
-      <c r="BX30" s="90"/>
-      <c r="BY30" s="90"/>
-      <c r="BZ30" s="90"/>
-      <c r="CA30" s="90"/>
-      <c r="CB30" s="90"/>
-      <c r="CC30" s="90"/>
-      <c r="CD30" s="90"/>
-      <c r="CE30" s="90"/>
-      <c r="CF30" s="90"/>
-      <c r="CG30" s="90"/>
-      <c r="CH30" s="90"/>
-      <c r="CI30" s="90"/>
-      <c r="CJ30" s="90"/>
-      <c r="CK30" s="90"/>
-      <c r="CL30" s="107"/>
-      <c r="CM30" s="107"/>
-      <c r="CN30" s="107"/>
-      <c r="CO30" s="107"/>
-      <c r="CP30" s="107"/>
-      <c r="CQ30" s="107"/>
-      <c r="CR30" s="107"/>
-      <c r="CS30" s="95"/>
-      <c r="CT30" s="95"/>
-      <c r="CU30" s="95"/>
-      <c r="CV30" s="95"/>
-      <c r="CW30" s="95"/>
-      <c r="CX30" s="95"/>
-      <c r="CY30" s="95"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="91"/>
+      <c r="I30" s="91"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="91"/>
+      <c r="L30" s="91"/>
+      <c r="M30" s="91"/>
+      <c r="N30" s="91"/>
+      <c r="O30" s="91"/>
+      <c r="P30" s="91"/>
+      <c r="Q30" s="91"/>
+      <c r="R30" s="90"/>
+      <c r="S30" s="90"/>
+      <c r="T30" s="90"/>
+      <c r="U30" s="90"/>
+      <c r="V30" s="90"/>
+      <c r="W30" s="90"/>
+      <c r="X30" s="90"/>
+      <c r="Y30" s="90"/>
+      <c r="Z30" s="96"/>
+      <c r="AA30" s="96"/>
+      <c r="AB30" s="96"/>
+      <c r="AC30" s="96"/>
+      <c r="AD30" s="96"/>
+      <c r="AE30" s="96"/>
+      <c r="AF30" s="96"/>
+      <c r="AG30" s="96"/>
+      <c r="AH30" s="102"/>
+      <c r="AI30" s="102"/>
+      <c r="AJ30" s="102"/>
+      <c r="AK30" s="102"/>
+      <c r="AL30" s="102"/>
+      <c r="AM30" s="102"/>
+      <c r="AN30" s="102"/>
+      <c r="AO30" s="102"/>
+      <c r="AP30" s="91"/>
+      <c r="AQ30" s="91"/>
+      <c r="AR30" s="91"/>
+      <c r="AS30" s="91"/>
+      <c r="AT30" s="91"/>
+      <c r="AU30" s="91"/>
+      <c r="AV30" s="91"/>
+      <c r="AW30" s="91"/>
+      <c r="AX30" s="102"/>
+      <c r="AY30" s="102"/>
+      <c r="AZ30" s="102"/>
+      <c r="BA30" s="102"/>
+      <c r="BB30" s="102"/>
+      <c r="BC30" s="102"/>
+      <c r="BD30" s="102"/>
+      <c r="BE30" s="102"/>
+      <c r="BF30" s="102"/>
+      <c r="BG30" s="102"/>
+      <c r="BH30" s="102"/>
+      <c r="BI30" s="102"/>
+      <c r="BJ30" s="102"/>
+      <c r="BK30" s="102"/>
+      <c r="BL30" s="102"/>
+      <c r="BM30" s="102"/>
+      <c r="BN30" s="102"/>
+      <c r="BO30" s="102"/>
+      <c r="BP30" s="102"/>
+      <c r="BQ30" s="102"/>
+      <c r="BR30" s="102"/>
+      <c r="BS30" s="102"/>
+      <c r="BT30" s="102"/>
+      <c r="BU30" s="102"/>
+      <c r="BV30" s="95"/>
+      <c r="BW30" s="95"/>
+      <c r="BX30" s="95"/>
+      <c r="BY30" s="95"/>
+      <c r="BZ30" s="95"/>
+      <c r="CA30" s="95"/>
+      <c r="CB30" s="95"/>
+      <c r="CC30" s="95"/>
+      <c r="CD30" s="95"/>
+      <c r="CE30" s="95"/>
+      <c r="CF30" s="95"/>
+      <c r="CG30" s="95"/>
+      <c r="CH30" s="95"/>
+      <c r="CI30" s="95"/>
+      <c r="CJ30" s="95"/>
+      <c r="CK30" s="95"/>
+      <c r="CL30" s="89"/>
+      <c r="CM30" s="89"/>
+      <c r="CN30" s="89"/>
+      <c r="CO30" s="89"/>
+      <c r="CP30" s="89"/>
+      <c r="CQ30" s="89"/>
+      <c r="CR30" s="89"/>
+      <c r="CS30" s="90"/>
+      <c r="CT30" s="90"/>
+      <c r="CU30" s="90"/>
+      <c r="CV30" s="90"/>
+      <c r="CW30" s="90"/>
+      <c r="CX30" s="90"/>
+      <c r="CY30" s="90"/>
       <c r="CZ30" s="76"/>
     </row>
-    <row r="31" spans="1:104">
+    <row r="31" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A31" s="63">
         <v>6</v>
       </c>
-      <c r="B31" s="96" t="s">
+      <c r="B31" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="96"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="96"/>
-      <c r="F31" s="96"/>
-      <c r="G31" s="96"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="96"/>
-      <c r="J31" s="96"/>
-      <c r="K31" s="96"/>
-      <c r="L31" s="96"/>
-      <c r="M31" s="96"/>
-      <c r="N31" s="96"/>
-      <c r="O31" s="96"/>
-      <c r="P31" s="96"/>
-      <c r="Q31" s="96"/>
-      <c r="R31" s="95"/>
-      <c r="S31" s="95"/>
-      <c r="T31" s="95"/>
-      <c r="U31" s="95"/>
-      <c r="V31" s="95"/>
-      <c r="W31" s="95"/>
-      <c r="X31" s="95"/>
-      <c r="Y31" s="95"/>
-      <c r="Z31" s="99"/>
-      <c r="AA31" s="99"/>
-      <c r="AB31" s="99"/>
-      <c r="AC31" s="99"/>
-      <c r="AD31" s="99"/>
-      <c r="AE31" s="99"/>
-      <c r="AF31" s="99"/>
-      <c r="AG31" s="99"/>
-      <c r="AH31" s="99"/>
-      <c r="AI31" s="99"/>
-      <c r="AJ31" s="99"/>
-      <c r="AK31" s="99"/>
-      <c r="AL31" s="99"/>
-      <c r="AM31" s="99"/>
-      <c r="AN31" s="99"/>
-      <c r="AO31" s="99"/>
-      <c r="AP31" s="100"/>
-      <c r="AQ31" s="100"/>
-      <c r="AR31" s="100"/>
-      <c r="AS31" s="100"/>
-      <c r="AT31" s="100"/>
-      <c r="AU31" s="100"/>
-      <c r="AV31" s="100"/>
-      <c r="AW31" s="100"/>
-      <c r="AX31" s="89"/>
-      <c r="AY31" s="89"/>
-      <c r="AZ31" s="89"/>
-      <c r="BA31" s="89"/>
-      <c r="BB31" s="89"/>
-      <c r="BC31" s="89"/>
-      <c r="BD31" s="89"/>
-      <c r="BE31" s="89"/>
-      <c r="BF31" s="89"/>
-      <c r="BG31" s="89"/>
-      <c r="BH31" s="89"/>
-      <c r="BI31" s="89"/>
-      <c r="BJ31" s="89"/>
-      <c r="BK31" s="89"/>
-      <c r="BL31" s="89"/>
-      <c r="BM31" s="89"/>
-      <c r="BN31" s="89"/>
-      <c r="BO31" s="89"/>
-      <c r="BP31" s="89"/>
-      <c r="BQ31" s="89"/>
-      <c r="BR31" s="89"/>
-      <c r="BS31" s="89"/>
-      <c r="BT31" s="89"/>
-      <c r="BU31" s="89"/>
-      <c r="BV31" s="90"/>
-      <c r="BW31" s="90"/>
-      <c r="BX31" s="90"/>
-      <c r="BY31" s="90"/>
-      <c r="BZ31" s="90"/>
-      <c r="CA31" s="90"/>
-      <c r="CB31" s="90"/>
-      <c r="CC31" s="90"/>
-      <c r="CD31" s="90"/>
-      <c r="CE31" s="90"/>
-      <c r="CF31" s="90"/>
-      <c r="CG31" s="90"/>
-      <c r="CH31" s="90"/>
-      <c r="CI31" s="90"/>
-      <c r="CJ31" s="90"/>
-      <c r="CK31" s="90"/>
-      <c r="CL31" s="107"/>
-      <c r="CM31" s="107"/>
-      <c r="CN31" s="107"/>
-      <c r="CO31" s="107"/>
-      <c r="CP31" s="107"/>
-      <c r="CQ31" s="107"/>
-      <c r="CR31" s="107"/>
-      <c r="CS31" s="95"/>
-      <c r="CT31" s="95"/>
-      <c r="CU31" s="95"/>
-      <c r="CV31" s="95"/>
-      <c r="CW31" s="95"/>
-      <c r="CX31" s="95"/>
-      <c r="CY31" s="95"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="91"/>
+      <c r="F31" s="91"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="91"/>
+      <c r="I31" s="91"/>
+      <c r="J31" s="91"/>
+      <c r="K31" s="91"/>
+      <c r="L31" s="91"/>
+      <c r="M31" s="91"/>
+      <c r="N31" s="91"/>
+      <c r="O31" s="91"/>
+      <c r="P31" s="91"/>
+      <c r="Q31" s="91"/>
+      <c r="R31" s="90"/>
+      <c r="S31" s="90"/>
+      <c r="T31" s="90"/>
+      <c r="U31" s="90"/>
+      <c r="V31" s="90"/>
+      <c r="W31" s="90"/>
+      <c r="X31" s="90"/>
+      <c r="Y31" s="90"/>
+      <c r="Z31" s="96"/>
+      <c r="AA31" s="96"/>
+      <c r="AB31" s="96"/>
+      <c r="AC31" s="96"/>
+      <c r="AD31" s="96"/>
+      <c r="AE31" s="96"/>
+      <c r="AF31" s="96"/>
+      <c r="AG31" s="96"/>
+      <c r="AH31" s="96"/>
+      <c r="AI31" s="96"/>
+      <c r="AJ31" s="96"/>
+      <c r="AK31" s="96"/>
+      <c r="AL31" s="96"/>
+      <c r="AM31" s="96"/>
+      <c r="AN31" s="96"/>
+      <c r="AO31" s="96"/>
+      <c r="AP31" s="103"/>
+      <c r="AQ31" s="103"/>
+      <c r="AR31" s="103"/>
+      <c r="AS31" s="103"/>
+      <c r="AT31" s="103"/>
+      <c r="AU31" s="103"/>
+      <c r="AV31" s="103"/>
+      <c r="AW31" s="103"/>
+      <c r="AX31" s="102"/>
+      <c r="AY31" s="102"/>
+      <c r="AZ31" s="102"/>
+      <c r="BA31" s="102"/>
+      <c r="BB31" s="102"/>
+      <c r="BC31" s="102"/>
+      <c r="BD31" s="102"/>
+      <c r="BE31" s="102"/>
+      <c r="BF31" s="102"/>
+      <c r="BG31" s="102"/>
+      <c r="BH31" s="102"/>
+      <c r="BI31" s="102"/>
+      <c r="BJ31" s="102"/>
+      <c r="BK31" s="102"/>
+      <c r="BL31" s="102"/>
+      <c r="BM31" s="102"/>
+      <c r="BN31" s="102"/>
+      <c r="BO31" s="102"/>
+      <c r="BP31" s="102"/>
+      <c r="BQ31" s="102"/>
+      <c r="BR31" s="102"/>
+      <c r="BS31" s="102"/>
+      <c r="BT31" s="102"/>
+      <c r="BU31" s="102"/>
+      <c r="BV31" s="95"/>
+      <c r="BW31" s="95"/>
+      <c r="BX31" s="95"/>
+      <c r="BY31" s="95"/>
+      <c r="BZ31" s="95"/>
+      <c r="CA31" s="95"/>
+      <c r="CB31" s="95"/>
+      <c r="CC31" s="95"/>
+      <c r="CD31" s="95"/>
+      <c r="CE31" s="95"/>
+      <c r="CF31" s="95"/>
+      <c r="CG31" s="95"/>
+      <c r="CH31" s="95"/>
+      <c r="CI31" s="95"/>
+      <c r="CJ31" s="95"/>
+      <c r="CK31" s="95"/>
+      <c r="CL31" s="89"/>
+      <c r="CM31" s="89"/>
+      <c r="CN31" s="89"/>
+      <c r="CO31" s="89"/>
+      <c r="CP31" s="89"/>
+      <c r="CQ31" s="89"/>
+      <c r="CR31" s="89"/>
+      <c r="CS31" s="90"/>
+      <c r="CT31" s="90"/>
+      <c r="CU31" s="90"/>
+      <c r="CV31" s="90"/>
+      <c r="CW31" s="90"/>
+      <c r="CX31" s="90"/>
+      <c r="CY31" s="90"/>
       <c r="CZ31" s="76"/>
     </row>
-    <row r="32" spans="1:104">
+    <row r="32" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A32" s="63">
         <v>7</v>
       </c>
-      <c r="B32" s="96" t="s">
+      <c r="B32" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="96"/>
-      <c r="D32" s="96"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="96"/>
-      <c r="H32" s="96"/>
-      <c r="I32" s="96"/>
-      <c r="J32" s="96"/>
-      <c r="K32" s="96"/>
-      <c r="L32" s="96"/>
-      <c r="M32" s="96"/>
-      <c r="N32" s="96"/>
-      <c r="O32" s="96"/>
-      <c r="P32" s="96"/>
-      <c r="Q32" s="96"/>
-      <c r="R32" s="95"/>
-      <c r="S32" s="95"/>
-      <c r="T32" s="95"/>
-      <c r="U32" s="95"/>
-      <c r="V32" s="95"/>
-      <c r="W32" s="95"/>
-      <c r="X32" s="95"/>
-      <c r="Y32" s="95"/>
-      <c r="Z32" s="99"/>
-      <c r="AA32" s="99"/>
-      <c r="AB32" s="99"/>
-      <c r="AC32" s="99"/>
-      <c r="AD32" s="99"/>
-      <c r="AE32" s="99"/>
-      <c r="AF32" s="99"/>
-      <c r="AG32" s="99"/>
-      <c r="AH32" s="99"/>
-      <c r="AI32" s="99"/>
-      <c r="AJ32" s="99"/>
-      <c r="AK32" s="99"/>
-      <c r="AL32" s="99"/>
-      <c r="AM32" s="99"/>
-      <c r="AN32" s="99"/>
-      <c r="AO32" s="99"/>
-      <c r="AP32" s="100"/>
-      <c r="AQ32" s="100"/>
-      <c r="AR32" s="100"/>
-      <c r="AS32" s="100"/>
-      <c r="AT32" s="100"/>
-      <c r="AU32" s="100"/>
-      <c r="AV32" s="100"/>
-      <c r="AW32" s="100"/>
-      <c r="AX32" s="89"/>
-      <c r="AY32" s="89"/>
-      <c r="AZ32" s="89"/>
-      <c r="BA32" s="89"/>
-      <c r="BB32" s="89"/>
-      <c r="BC32" s="89"/>
-      <c r="BD32" s="89"/>
-      <c r="BE32" s="89"/>
-      <c r="BF32" s="89"/>
-      <c r="BG32" s="89"/>
-      <c r="BH32" s="89"/>
-      <c r="BI32" s="89"/>
-      <c r="BJ32" s="89"/>
-      <c r="BK32" s="89"/>
-      <c r="BL32" s="89"/>
-      <c r="BM32" s="89"/>
-      <c r="BN32" s="89"/>
-      <c r="BO32" s="89"/>
-      <c r="BP32" s="89"/>
-      <c r="BQ32" s="89"/>
-      <c r="BR32" s="89"/>
-      <c r="BS32" s="89"/>
-      <c r="BT32" s="89"/>
-      <c r="BU32" s="89"/>
-      <c r="BV32" s="90"/>
-      <c r="BW32" s="90"/>
-      <c r="BX32" s="90"/>
-      <c r="BY32" s="90"/>
-      <c r="BZ32" s="90"/>
-      <c r="CA32" s="90"/>
-      <c r="CB32" s="90"/>
-      <c r="CC32" s="90"/>
-      <c r="CD32" s="90"/>
-      <c r="CE32" s="90"/>
-      <c r="CF32" s="90"/>
-      <c r="CG32" s="90"/>
-      <c r="CH32" s="90"/>
-      <c r="CI32" s="90"/>
-      <c r="CJ32" s="90"/>
-      <c r="CK32" s="90"/>
-      <c r="CL32" s="90"/>
-      <c r="CM32" s="90"/>
-      <c r="CN32" s="90"/>
-      <c r="CO32" s="90"/>
-      <c r="CP32" s="90"/>
-      <c r="CQ32" s="90"/>
-      <c r="CR32" s="90"/>
-      <c r="CS32" s="95"/>
-      <c r="CT32" s="95"/>
-      <c r="CU32" s="95"/>
-      <c r="CV32" s="95"/>
-      <c r="CW32" s="95"/>
-      <c r="CX32" s="95"/>
-      <c r="CY32" s="95"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="91"/>
+      <c r="F32" s="91"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="91"/>
+      <c r="I32" s="91"/>
+      <c r="J32" s="91"/>
+      <c r="K32" s="91"/>
+      <c r="L32" s="91"/>
+      <c r="M32" s="91"/>
+      <c r="N32" s="91"/>
+      <c r="O32" s="91"/>
+      <c r="P32" s="91"/>
+      <c r="Q32" s="91"/>
+      <c r="R32" s="90"/>
+      <c r="S32" s="90"/>
+      <c r="T32" s="90"/>
+      <c r="U32" s="90"/>
+      <c r="V32" s="90"/>
+      <c r="W32" s="90"/>
+      <c r="X32" s="90"/>
+      <c r="Y32" s="90"/>
+      <c r="Z32" s="96"/>
+      <c r="AA32" s="96"/>
+      <c r="AB32" s="96"/>
+      <c r="AC32" s="96"/>
+      <c r="AD32" s="96"/>
+      <c r="AE32" s="96"/>
+      <c r="AF32" s="96"/>
+      <c r="AG32" s="96"/>
+      <c r="AH32" s="96"/>
+      <c r="AI32" s="96"/>
+      <c r="AJ32" s="96"/>
+      <c r="AK32" s="96"/>
+      <c r="AL32" s="96"/>
+      <c r="AM32" s="96"/>
+      <c r="AN32" s="96"/>
+      <c r="AO32" s="96"/>
+      <c r="AP32" s="103"/>
+      <c r="AQ32" s="103"/>
+      <c r="AR32" s="103"/>
+      <c r="AS32" s="103"/>
+      <c r="AT32" s="103"/>
+      <c r="AU32" s="103"/>
+      <c r="AV32" s="103"/>
+      <c r="AW32" s="103"/>
+      <c r="AX32" s="102"/>
+      <c r="AY32" s="102"/>
+      <c r="AZ32" s="102"/>
+      <c r="BA32" s="102"/>
+      <c r="BB32" s="102"/>
+      <c r="BC32" s="102"/>
+      <c r="BD32" s="102"/>
+      <c r="BE32" s="102"/>
+      <c r="BF32" s="102"/>
+      <c r="BG32" s="102"/>
+      <c r="BH32" s="102"/>
+      <c r="BI32" s="102"/>
+      <c r="BJ32" s="102"/>
+      <c r="BK32" s="102"/>
+      <c r="BL32" s="102"/>
+      <c r="BM32" s="102"/>
+      <c r="BN32" s="102"/>
+      <c r="BO32" s="102"/>
+      <c r="BP32" s="102"/>
+      <c r="BQ32" s="102"/>
+      <c r="BR32" s="102"/>
+      <c r="BS32" s="102"/>
+      <c r="BT32" s="102"/>
+      <c r="BU32" s="102"/>
+      <c r="BV32" s="95"/>
+      <c r="BW32" s="95"/>
+      <c r="BX32" s="95"/>
+      <c r="BY32" s="95"/>
+      <c r="BZ32" s="95"/>
+      <c r="CA32" s="95"/>
+      <c r="CB32" s="95"/>
+      <c r="CC32" s="95"/>
+      <c r="CD32" s="95"/>
+      <c r="CE32" s="95"/>
+      <c r="CF32" s="95"/>
+      <c r="CG32" s="95"/>
+      <c r="CH32" s="95"/>
+      <c r="CI32" s="95"/>
+      <c r="CJ32" s="95"/>
+      <c r="CK32" s="95"/>
+      <c r="CL32" s="95"/>
+      <c r="CM32" s="95"/>
+      <c r="CN32" s="95"/>
+      <c r="CO32" s="95"/>
+      <c r="CP32" s="95"/>
+      <c r="CQ32" s="95"/>
+      <c r="CR32" s="95"/>
+      <c r="CS32" s="90"/>
+      <c r="CT32" s="90"/>
+      <c r="CU32" s="90"/>
+      <c r="CV32" s="90"/>
+      <c r="CW32" s="90"/>
+      <c r="CX32" s="90"/>
+      <c r="CY32" s="90"/>
       <c r="CZ32" s="76"/>
     </row>
-    <row r="33" spans="1:104">
+    <row r="33" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A33" s="63">
         <v>8</v>
       </c>
-      <c r="B33" s="96"/>
-      <c r="C33" s="96"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="96"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="96"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="96"/>
-      <c r="L33" s="96"/>
-      <c r="M33" s="96"/>
-      <c r="N33" s="96"/>
-      <c r="O33" s="96"/>
-      <c r="P33" s="96"/>
-      <c r="Q33" s="96"/>
-      <c r="R33" s="95"/>
-      <c r="S33" s="95"/>
-      <c r="T33" s="95"/>
-      <c r="U33" s="95"/>
-      <c r="V33" s="95"/>
-      <c r="W33" s="95"/>
-      <c r="X33" s="95"/>
-      <c r="Y33" s="95"/>
-      <c r="Z33" s="99"/>
-      <c r="AA33" s="99"/>
-      <c r="AB33" s="99"/>
-      <c r="AC33" s="99"/>
-      <c r="AD33" s="99"/>
-      <c r="AE33" s="99"/>
-      <c r="AF33" s="99"/>
-      <c r="AG33" s="99"/>
-      <c r="AH33" s="99"/>
-      <c r="AI33" s="99"/>
-      <c r="AJ33" s="99"/>
-      <c r="AK33" s="99"/>
-      <c r="AL33" s="99"/>
-      <c r="AM33" s="99"/>
-      <c r="AN33" s="99"/>
-      <c r="AO33" s="99"/>
-      <c r="AP33" s="100"/>
-      <c r="AQ33" s="100"/>
-      <c r="AR33" s="100"/>
-      <c r="AS33" s="100"/>
-      <c r="AT33" s="100"/>
-      <c r="AU33" s="100"/>
-      <c r="AV33" s="100"/>
-      <c r="AW33" s="100"/>
-      <c r="AX33" s="89"/>
-      <c r="AY33" s="89"/>
-      <c r="AZ33" s="89"/>
-      <c r="BA33" s="89"/>
-      <c r="BB33" s="89"/>
-      <c r="BC33" s="89"/>
-      <c r="BD33" s="89"/>
-      <c r="BE33" s="89"/>
-      <c r="BF33" s="89"/>
-      <c r="BG33" s="89"/>
-      <c r="BH33" s="89"/>
-      <c r="BI33" s="89"/>
-      <c r="BJ33" s="89"/>
-      <c r="BK33" s="89"/>
-      <c r="BL33" s="89"/>
-      <c r="BM33" s="89"/>
-      <c r="BN33" s="89"/>
-      <c r="BO33" s="89"/>
-      <c r="BP33" s="89"/>
-      <c r="BQ33" s="89"/>
-      <c r="BR33" s="89"/>
-      <c r="BS33" s="89"/>
-      <c r="BT33" s="89"/>
-      <c r="BU33" s="89"/>
-      <c r="BV33" s="90"/>
-      <c r="BW33" s="90"/>
-      <c r="BX33" s="90"/>
-      <c r="BY33" s="90"/>
-      <c r="BZ33" s="90"/>
-      <c r="CA33" s="90"/>
-      <c r="CB33" s="90"/>
-      <c r="CC33" s="90"/>
-      <c r="CD33" s="90"/>
-      <c r="CE33" s="90"/>
-      <c r="CF33" s="90"/>
-      <c r="CG33" s="90"/>
-      <c r="CH33" s="90"/>
-      <c r="CI33" s="90"/>
-      <c r="CJ33" s="90"/>
-      <c r="CK33" s="90"/>
-      <c r="CS33" s="96"/>
-      <c r="CT33" s="96"/>
-      <c r="CU33" s="96"/>
-      <c r="CV33" s="96"/>
-      <c r="CW33" s="96"/>
-      <c r="CX33" s="96"/>
-      <c r="CY33" s="96"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="91"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="91"/>
+      <c r="I33" s="91"/>
+      <c r="J33" s="91"/>
+      <c r="K33" s="91"/>
+      <c r="L33" s="91"/>
+      <c r="M33" s="91"/>
+      <c r="N33" s="91"/>
+      <c r="O33" s="91"/>
+      <c r="P33" s="91"/>
+      <c r="Q33" s="91"/>
+      <c r="R33" s="90"/>
+      <c r="S33" s="90"/>
+      <c r="T33" s="90"/>
+      <c r="U33" s="90"/>
+      <c r="V33" s="90"/>
+      <c r="W33" s="90"/>
+      <c r="X33" s="90"/>
+      <c r="Y33" s="90"/>
+      <c r="Z33" s="96"/>
+      <c r="AA33" s="96"/>
+      <c r="AB33" s="96"/>
+      <c r="AC33" s="96"/>
+      <c r="AD33" s="96"/>
+      <c r="AE33" s="96"/>
+      <c r="AF33" s="96"/>
+      <c r="AG33" s="96"/>
+      <c r="AH33" s="96"/>
+      <c r="AI33" s="96"/>
+      <c r="AJ33" s="96"/>
+      <c r="AK33" s="96"/>
+      <c r="AL33" s="96"/>
+      <c r="AM33" s="96"/>
+      <c r="AN33" s="96"/>
+      <c r="AO33" s="96"/>
+      <c r="AP33" s="103"/>
+      <c r="AQ33" s="103"/>
+      <c r="AR33" s="103"/>
+      <c r="AS33" s="103"/>
+      <c r="AT33" s="103"/>
+      <c r="AU33" s="103"/>
+      <c r="AV33" s="103"/>
+      <c r="AW33" s="103"/>
+      <c r="AX33" s="102"/>
+      <c r="AY33" s="102"/>
+      <c r="AZ33" s="102"/>
+      <c r="BA33" s="102"/>
+      <c r="BB33" s="102"/>
+      <c r="BC33" s="102"/>
+      <c r="BD33" s="102"/>
+      <c r="BE33" s="102"/>
+      <c r="BF33" s="102"/>
+      <c r="BG33" s="102"/>
+      <c r="BH33" s="102"/>
+      <c r="BI33" s="102"/>
+      <c r="BJ33" s="102"/>
+      <c r="BK33" s="102"/>
+      <c r="BL33" s="102"/>
+      <c r="BM33" s="102"/>
+      <c r="BN33" s="102"/>
+      <c r="BO33" s="102"/>
+      <c r="BP33" s="102"/>
+      <c r="BQ33" s="102"/>
+      <c r="BR33" s="102"/>
+      <c r="BS33" s="102"/>
+      <c r="BT33" s="102"/>
+      <c r="BU33" s="102"/>
+      <c r="BV33" s="95"/>
+      <c r="BW33" s="95"/>
+      <c r="BX33" s="95"/>
+      <c r="BY33" s="95"/>
+      <c r="BZ33" s="95"/>
+      <c r="CA33" s="95"/>
+      <c r="CB33" s="95"/>
+      <c r="CC33" s="95"/>
+      <c r="CD33" s="95"/>
+      <c r="CE33" s="95"/>
+      <c r="CF33" s="95"/>
+      <c r="CG33" s="95"/>
+      <c r="CH33" s="95"/>
+      <c r="CI33" s="95"/>
+      <c r="CJ33" s="95"/>
+      <c r="CK33" s="95"/>
+      <c r="CS33" s="91"/>
+      <c r="CT33" s="91"/>
+      <c r="CU33" s="91"/>
+      <c r="CV33" s="91"/>
+      <c r="CW33" s="91"/>
+      <c r="CX33" s="91"/>
+      <c r="CY33" s="91"/>
       <c r="CZ33" s="76"/>
     </row>
-    <row r="34" spans="1:104">
+    <row r="34" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A34" s="63">
         <v>9</v>
       </c>
-      <c r="B34" s="96"/>
-      <c r="C34" s="96"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="96"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="96"/>
-      <c r="H34" s="96"/>
-      <c r="I34" s="96"/>
-      <c r="J34" s="96"/>
-      <c r="K34" s="96"/>
-      <c r="L34" s="96"/>
-      <c r="M34" s="96"/>
-      <c r="N34" s="96"/>
-      <c r="O34" s="96"/>
-      <c r="P34" s="96"/>
-      <c r="Q34" s="96"/>
-      <c r="R34" s="95"/>
-      <c r="S34" s="95"/>
-      <c r="T34" s="95"/>
-      <c r="U34" s="95"/>
-      <c r="V34" s="95"/>
-      <c r="W34" s="95"/>
-      <c r="X34" s="95"/>
-      <c r="Y34" s="95"/>
-      <c r="Z34" s="99"/>
-      <c r="AA34" s="99"/>
-      <c r="AB34" s="99"/>
-      <c r="AC34" s="99"/>
-      <c r="AD34" s="99"/>
-      <c r="AE34" s="99"/>
-      <c r="AF34" s="99"/>
-      <c r="AG34" s="99"/>
-      <c r="AH34" s="99"/>
-      <c r="AI34" s="99"/>
-      <c r="AJ34" s="99"/>
-      <c r="AK34" s="99"/>
-      <c r="AL34" s="99"/>
-      <c r="AM34" s="99"/>
-      <c r="AN34" s="99"/>
-      <c r="AO34" s="99"/>
-      <c r="AP34" s="100"/>
-      <c r="AQ34" s="100"/>
-      <c r="AR34" s="100"/>
-      <c r="AS34" s="100"/>
-      <c r="AT34" s="100"/>
-      <c r="AU34" s="100"/>
-      <c r="AV34" s="100"/>
-      <c r="AW34" s="100"/>
-      <c r="AX34" s="90"/>
-      <c r="AY34" s="90"/>
-      <c r="AZ34" s="90"/>
-      <c r="BA34" s="90"/>
-      <c r="BB34" s="90"/>
-      <c r="BC34" s="90"/>
-      <c r="BD34" s="90"/>
-      <c r="BE34" s="90"/>
-      <c r="BF34" s="90"/>
-      <c r="BG34" s="90"/>
-      <c r="BH34" s="90"/>
-      <c r="BI34" s="90"/>
-      <c r="BJ34" s="90"/>
-      <c r="BK34" s="90"/>
-      <c r="BL34" s="90"/>
-      <c r="BM34" s="90"/>
-      <c r="BN34" s="89"/>
-      <c r="BO34" s="89"/>
-      <c r="BP34" s="89"/>
-      <c r="BQ34" s="89"/>
-      <c r="BR34" s="89"/>
-      <c r="BS34" s="89"/>
-      <c r="BT34" s="89"/>
-      <c r="BU34" s="89"/>
-      <c r="BV34" s="90"/>
-      <c r="BW34" s="90"/>
-      <c r="BX34" s="90"/>
-      <c r="BY34" s="90"/>
-      <c r="BZ34" s="90"/>
-      <c r="CA34" s="90"/>
-      <c r="CB34" s="90"/>
-      <c r="CC34" s="90"/>
-      <c r="CD34" s="90"/>
-      <c r="CE34" s="90"/>
-      <c r="CF34" s="90"/>
-      <c r="CG34" s="90"/>
-      <c r="CH34" s="90"/>
-      <c r="CI34" s="90"/>
-      <c r="CJ34" s="90"/>
-      <c r="CK34" s="90"/>
-      <c r="CS34" s="95"/>
-      <c r="CT34" s="95"/>
-      <c r="CU34" s="95"/>
-      <c r="CV34" s="95"/>
-      <c r="CW34" s="95"/>
-      <c r="CX34" s="95"/>
-      <c r="CY34" s="95"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="91"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="91"/>
+      <c r="G34" s="91"/>
+      <c r="H34" s="91"/>
+      <c r="I34" s="91"/>
+      <c r="J34" s="91"/>
+      <c r="K34" s="91"/>
+      <c r="L34" s="91"/>
+      <c r="M34" s="91"/>
+      <c r="N34" s="91"/>
+      <c r="O34" s="91"/>
+      <c r="P34" s="91"/>
+      <c r="Q34" s="91"/>
+      <c r="R34" s="90"/>
+      <c r="S34" s="90"/>
+      <c r="T34" s="90"/>
+      <c r="U34" s="90"/>
+      <c r="V34" s="90"/>
+      <c r="W34" s="90"/>
+      <c r="X34" s="90"/>
+      <c r="Y34" s="90"/>
+      <c r="Z34" s="96"/>
+      <c r="AA34" s="96"/>
+      <c r="AB34" s="96"/>
+      <c r="AC34" s="96"/>
+      <c r="AD34" s="96"/>
+      <c r="AE34" s="96"/>
+      <c r="AF34" s="96"/>
+      <c r="AG34" s="96"/>
+      <c r="AH34" s="96"/>
+      <c r="AI34" s="96"/>
+      <c r="AJ34" s="96"/>
+      <c r="AK34" s="96"/>
+      <c r="AL34" s="96"/>
+      <c r="AM34" s="96"/>
+      <c r="AN34" s="96"/>
+      <c r="AO34" s="96"/>
+      <c r="AP34" s="103"/>
+      <c r="AQ34" s="103"/>
+      <c r="AR34" s="103"/>
+      <c r="AS34" s="103"/>
+      <c r="AT34" s="103"/>
+      <c r="AU34" s="103"/>
+      <c r="AV34" s="103"/>
+      <c r="AW34" s="103"/>
+      <c r="AX34" s="95"/>
+      <c r="AY34" s="95"/>
+      <c r="AZ34" s="95"/>
+      <c r="BA34" s="95"/>
+      <c r="BB34" s="95"/>
+      <c r="BC34" s="95"/>
+      <c r="BD34" s="95"/>
+      <c r="BE34" s="95"/>
+      <c r="BF34" s="95"/>
+      <c r="BG34" s="95"/>
+      <c r="BH34" s="95"/>
+      <c r="BI34" s="95"/>
+      <c r="BJ34" s="95"/>
+      <c r="BK34" s="95"/>
+      <c r="BL34" s="95"/>
+      <c r="BM34" s="95"/>
+      <c r="BN34" s="102"/>
+      <c r="BO34" s="102"/>
+      <c r="BP34" s="102"/>
+      <c r="BQ34" s="102"/>
+      <c r="BR34" s="102"/>
+      <c r="BS34" s="102"/>
+      <c r="BT34" s="102"/>
+      <c r="BU34" s="102"/>
+      <c r="BV34" s="95"/>
+      <c r="BW34" s="95"/>
+      <c r="BX34" s="95"/>
+      <c r="BY34" s="95"/>
+      <c r="BZ34" s="95"/>
+      <c r="CA34" s="95"/>
+      <c r="CB34" s="95"/>
+      <c r="CC34" s="95"/>
+      <c r="CD34" s="95"/>
+      <c r="CE34" s="95"/>
+      <c r="CF34" s="95"/>
+      <c r="CG34" s="95"/>
+      <c r="CH34" s="95"/>
+      <c r="CI34" s="95"/>
+      <c r="CJ34" s="95"/>
+      <c r="CK34" s="95"/>
+      <c r="CS34" s="90"/>
+      <c r="CT34" s="90"/>
+      <c r="CU34" s="90"/>
+      <c r="CV34" s="90"/>
+      <c r="CW34" s="90"/>
+      <c r="CX34" s="90"/>
+      <c r="CY34" s="90"/>
       <c r="CZ34" s="76"/>
     </row>
-    <row r="35" spans="1:104">
+    <row r="35" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A35" s="63">
         <v>10</v>
       </c>
-      <c r="B35" s="96"/>
-      <c r="C35" s="96"/>
-      <c r="D35" s="96"/>
-      <c r="E35" s="96"/>
-      <c r="F35" s="96"/>
-      <c r="G35" s="96"/>
-      <c r="H35" s="96"/>
-      <c r="I35" s="96"/>
-      <c r="J35" s="96"/>
-      <c r="K35" s="96"/>
-      <c r="L35" s="96"/>
-      <c r="M35" s="96"/>
-      <c r="N35" s="96"/>
-      <c r="O35" s="96"/>
-      <c r="P35" s="96"/>
-      <c r="Q35" s="96"/>
-      <c r="R35" s="95"/>
-      <c r="S35" s="95"/>
-      <c r="T35" s="95"/>
-      <c r="U35" s="95"/>
-      <c r="V35" s="95"/>
-      <c r="W35" s="95"/>
-      <c r="X35" s="95"/>
-      <c r="Y35" s="95"/>
-      <c r="Z35" s="99"/>
-      <c r="AA35" s="99"/>
-      <c r="AB35" s="99"/>
-      <c r="AC35" s="99"/>
-      <c r="AD35" s="99"/>
-      <c r="AE35" s="99"/>
-      <c r="AF35" s="99"/>
-      <c r="AG35" s="99"/>
-      <c r="AH35" s="99"/>
-      <c r="AI35" s="99"/>
-      <c r="AJ35" s="99"/>
-      <c r="AK35" s="99"/>
-      <c r="AL35" s="99"/>
-      <c r="AM35" s="99"/>
-      <c r="AN35" s="99"/>
-      <c r="AO35" s="99"/>
-      <c r="AP35" s="100"/>
-      <c r="AQ35" s="100"/>
-      <c r="AR35" s="100"/>
-      <c r="AS35" s="100"/>
-      <c r="AT35" s="100"/>
-      <c r="AU35" s="100"/>
-      <c r="AV35" s="100"/>
-      <c r="AW35" s="100"/>
-      <c r="AX35" s="90"/>
-      <c r="AY35" s="90"/>
-      <c r="AZ35" s="90"/>
-      <c r="BA35" s="90"/>
-      <c r="BB35" s="90"/>
-      <c r="BC35" s="90"/>
-      <c r="BD35" s="90"/>
-      <c r="BE35" s="90"/>
-      <c r="BF35" s="90"/>
-      <c r="BG35" s="90"/>
-      <c r="BH35" s="90"/>
-      <c r="BI35" s="90"/>
-      <c r="BJ35" s="90"/>
-      <c r="BK35" s="90"/>
-      <c r="BL35" s="90"/>
-      <c r="BM35" s="90"/>
-      <c r="BN35" s="89"/>
-      <c r="BO35" s="89"/>
-      <c r="BP35" s="89"/>
-      <c r="BQ35" s="89"/>
-      <c r="BR35" s="89"/>
-      <c r="BS35" s="89"/>
-      <c r="BT35" s="89"/>
-      <c r="BU35" s="89"/>
-      <c r="BV35" s="90"/>
-      <c r="BW35" s="90"/>
-      <c r="BX35" s="90"/>
-      <c r="BY35" s="90"/>
-      <c r="BZ35" s="90"/>
-      <c r="CA35" s="90"/>
-      <c r="CB35" s="90"/>
-      <c r="CC35" s="90"/>
-      <c r="CD35" s="90"/>
-      <c r="CE35" s="90"/>
-      <c r="CF35" s="90"/>
-      <c r="CG35" s="90"/>
-      <c r="CH35" s="90"/>
-      <c r="CI35" s="90"/>
-      <c r="CJ35" s="90"/>
-      <c r="CK35" s="90"/>
-      <c r="CS35" s="95"/>
-      <c r="CT35" s="95"/>
-      <c r="CU35" s="95"/>
-      <c r="CV35" s="95"/>
-      <c r="CW35" s="95"/>
-      <c r="CX35" s="95"/>
-      <c r="CY35" s="95"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="91"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="91"/>
+      <c r="I35" s="91"/>
+      <c r="J35" s="91"/>
+      <c r="K35" s="91"/>
+      <c r="L35" s="91"/>
+      <c r="M35" s="91"/>
+      <c r="N35" s="91"/>
+      <c r="O35" s="91"/>
+      <c r="P35" s="91"/>
+      <c r="Q35" s="91"/>
+      <c r="R35" s="90"/>
+      <c r="S35" s="90"/>
+      <c r="T35" s="90"/>
+      <c r="U35" s="90"/>
+      <c r="V35" s="90"/>
+      <c r="W35" s="90"/>
+      <c r="X35" s="90"/>
+      <c r="Y35" s="90"/>
+      <c r="Z35" s="96"/>
+      <c r="AA35" s="96"/>
+      <c r="AB35" s="96"/>
+      <c r="AC35" s="96"/>
+      <c r="AD35" s="96"/>
+      <c r="AE35" s="96"/>
+      <c r="AF35" s="96"/>
+      <c r="AG35" s="96"/>
+      <c r="AH35" s="96"/>
+      <c r="AI35" s="96"/>
+      <c r="AJ35" s="96"/>
+      <c r="AK35" s="96"/>
+      <c r="AL35" s="96"/>
+      <c r="AM35" s="96"/>
+      <c r="AN35" s="96"/>
+      <c r="AO35" s="96"/>
+      <c r="AP35" s="103"/>
+      <c r="AQ35" s="103"/>
+      <c r="AR35" s="103"/>
+      <c r="AS35" s="103"/>
+      <c r="AT35" s="103"/>
+      <c r="AU35" s="103"/>
+      <c r="AV35" s="103"/>
+      <c r="AW35" s="103"/>
+      <c r="AX35" s="95"/>
+      <c r="AY35" s="95"/>
+      <c r="AZ35" s="95"/>
+      <c r="BA35" s="95"/>
+      <c r="BB35" s="95"/>
+      <c r="BC35" s="95"/>
+      <c r="BD35" s="95"/>
+      <c r="BE35" s="95"/>
+      <c r="BF35" s="95"/>
+      <c r="BG35" s="95"/>
+      <c r="BH35" s="95"/>
+      <c r="BI35" s="95"/>
+      <c r="BJ35" s="95"/>
+      <c r="BK35" s="95"/>
+      <c r="BL35" s="95"/>
+      <c r="BM35" s="95"/>
+      <c r="BN35" s="102"/>
+      <c r="BO35" s="102"/>
+      <c r="BP35" s="102"/>
+      <c r="BQ35" s="102"/>
+      <c r="BR35" s="102"/>
+      <c r="BS35" s="102"/>
+      <c r="BT35" s="102"/>
+      <c r="BU35" s="102"/>
+      <c r="BV35" s="95"/>
+      <c r="BW35" s="95"/>
+      <c r="BX35" s="95"/>
+      <c r="BY35" s="95"/>
+      <c r="BZ35" s="95"/>
+      <c r="CA35" s="95"/>
+      <c r="CB35" s="95"/>
+      <c r="CC35" s="95"/>
+      <c r="CD35" s="95"/>
+      <c r="CE35" s="95"/>
+      <c r="CF35" s="95"/>
+      <c r="CG35" s="95"/>
+      <c r="CH35" s="95"/>
+      <c r="CI35" s="95"/>
+      <c r="CJ35" s="95"/>
+      <c r="CK35" s="95"/>
+      <c r="CS35" s="90"/>
+      <c r="CT35" s="90"/>
+      <c r="CU35" s="90"/>
+      <c r="CV35" s="90"/>
+      <c r="CW35" s="90"/>
+      <c r="CX35" s="90"/>
+      <c r="CY35" s="90"/>
       <c r="CZ35" s="76"/>
     </row>
-    <row r="36" spans="1:104">
+    <row r="36" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A36" s="63">
         <v>11</v>
       </c>
-      <c r="B36" s="96"/>
-      <c r="C36" s="96"/>
-      <c r="D36" s="96"/>
-      <c r="E36" s="96"/>
-      <c r="F36" s="96"/>
-      <c r="G36" s="96"/>
-      <c r="H36" s="96"/>
-      <c r="I36" s="96"/>
-      <c r="J36" s="96"/>
-      <c r="K36" s="96"/>
-      <c r="L36" s="96"/>
-      <c r="M36" s="96"/>
-      <c r="N36" s="96"/>
-      <c r="O36" s="96"/>
-      <c r="P36" s="96"/>
-      <c r="Q36" s="96"/>
-      <c r="R36" s="95"/>
-      <c r="S36" s="95"/>
-      <c r="T36" s="95"/>
-      <c r="U36" s="95"/>
-      <c r="V36" s="95"/>
-      <c r="W36" s="95"/>
-      <c r="X36" s="95"/>
-      <c r="Y36" s="95"/>
-      <c r="Z36" s="99"/>
-      <c r="AA36" s="99"/>
-      <c r="AB36" s="99"/>
-      <c r="AC36" s="99"/>
-      <c r="AD36" s="99"/>
-      <c r="AE36" s="99"/>
-      <c r="AF36" s="99"/>
-      <c r="AG36" s="99"/>
-      <c r="AH36" s="99"/>
-      <c r="AI36" s="99"/>
-      <c r="AJ36" s="99"/>
-      <c r="AK36" s="99"/>
-      <c r="AL36" s="99"/>
-      <c r="AM36" s="99"/>
-      <c r="AN36" s="99"/>
-      <c r="AO36" s="99"/>
-      <c r="AP36" s="100"/>
-      <c r="AQ36" s="100"/>
-      <c r="AR36" s="100"/>
-      <c r="AS36" s="100"/>
-      <c r="AT36" s="100"/>
-      <c r="AU36" s="100"/>
-      <c r="AV36" s="100"/>
-      <c r="AW36" s="100"/>
-      <c r="AX36" s="90"/>
-      <c r="AY36" s="90"/>
-      <c r="AZ36" s="90"/>
-      <c r="BA36" s="90"/>
-      <c r="BB36" s="90"/>
-      <c r="BC36" s="90"/>
-      <c r="BD36" s="90"/>
-      <c r="BE36" s="90"/>
-      <c r="BF36" s="90"/>
-      <c r="BG36" s="90"/>
-      <c r="BH36" s="90"/>
-      <c r="BI36" s="90"/>
-      <c r="BJ36" s="90"/>
-      <c r="BK36" s="90"/>
-      <c r="BL36" s="90"/>
-      <c r="BM36" s="90"/>
-      <c r="BN36" s="89"/>
-      <c r="BO36" s="89"/>
-      <c r="BP36" s="89"/>
-      <c r="BQ36" s="89"/>
-      <c r="BR36" s="89"/>
-      <c r="BS36" s="89"/>
-      <c r="BT36" s="89"/>
-      <c r="BU36" s="89"/>
-      <c r="BV36" s="90"/>
-      <c r="BW36" s="90"/>
-      <c r="BX36" s="90"/>
-      <c r="BY36" s="90"/>
-      <c r="BZ36" s="90"/>
-      <c r="CA36" s="90"/>
-      <c r="CB36" s="90"/>
-      <c r="CC36" s="90"/>
-      <c r="CD36" s="90"/>
-      <c r="CE36" s="90"/>
-      <c r="CF36" s="90"/>
-      <c r="CG36" s="90"/>
-      <c r="CH36" s="90"/>
-      <c r="CI36" s="90"/>
-      <c r="CJ36" s="90"/>
-      <c r="CK36" s="90"/>
-      <c r="CS36" s="95"/>
-      <c r="CT36" s="95"/>
-      <c r="CU36" s="95"/>
-      <c r="CV36" s="95"/>
-      <c r="CW36" s="95"/>
-      <c r="CX36" s="95"/>
-      <c r="CY36" s="95"/>
+      <c r="B36" s="91"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="91"/>
+      <c r="E36" s="91"/>
+      <c r="F36" s="91"/>
+      <c r="G36" s="91"/>
+      <c r="H36" s="91"/>
+      <c r="I36" s="91"/>
+      <c r="J36" s="91"/>
+      <c r="K36" s="91"/>
+      <c r="L36" s="91"/>
+      <c r="M36" s="91"/>
+      <c r="N36" s="91"/>
+      <c r="O36" s="91"/>
+      <c r="P36" s="91"/>
+      <c r="Q36" s="91"/>
+      <c r="R36" s="90"/>
+      <c r="S36" s="90"/>
+      <c r="T36" s="90"/>
+      <c r="U36" s="90"/>
+      <c r="V36" s="90"/>
+      <c r="W36" s="90"/>
+      <c r="X36" s="90"/>
+      <c r="Y36" s="90"/>
+      <c r="Z36" s="96"/>
+      <c r="AA36" s="96"/>
+      <c r="AB36" s="96"/>
+      <c r="AC36" s="96"/>
+      <c r="AD36" s="96"/>
+      <c r="AE36" s="96"/>
+      <c r="AF36" s="96"/>
+      <c r="AG36" s="96"/>
+      <c r="AH36" s="96"/>
+      <c r="AI36" s="96"/>
+      <c r="AJ36" s="96"/>
+      <c r="AK36" s="96"/>
+      <c r="AL36" s="96"/>
+      <c r="AM36" s="96"/>
+      <c r="AN36" s="96"/>
+      <c r="AO36" s="96"/>
+      <c r="AP36" s="103"/>
+      <c r="AQ36" s="103"/>
+      <c r="AR36" s="103"/>
+      <c r="AS36" s="103"/>
+      <c r="AT36" s="103"/>
+      <c r="AU36" s="103"/>
+      <c r="AV36" s="103"/>
+      <c r="AW36" s="103"/>
+      <c r="AX36" s="95"/>
+      <c r="AY36" s="95"/>
+      <c r="AZ36" s="95"/>
+      <c r="BA36" s="95"/>
+      <c r="BB36" s="95"/>
+      <c r="BC36" s="95"/>
+      <c r="BD36" s="95"/>
+      <c r="BE36" s="95"/>
+      <c r="BF36" s="95"/>
+      <c r="BG36" s="95"/>
+      <c r="BH36" s="95"/>
+      <c r="BI36" s="95"/>
+      <c r="BJ36" s="95"/>
+      <c r="BK36" s="95"/>
+      <c r="BL36" s="95"/>
+      <c r="BM36" s="95"/>
+      <c r="BN36" s="102"/>
+      <c r="BO36" s="102"/>
+      <c r="BP36" s="102"/>
+      <c r="BQ36" s="102"/>
+      <c r="BR36" s="102"/>
+      <c r="BS36" s="102"/>
+      <c r="BT36" s="102"/>
+      <c r="BU36" s="102"/>
+      <c r="BV36" s="95"/>
+      <c r="BW36" s="95"/>
+      <c r="BX36" s="95"/>
+      <c r="BY36" s="95"/>
+      <c r="BZ36" s="95"/>
+      <c r="CA36" s="95"/>
+      <c r="CB36" s="95"/>
+      <c r="CC36" s="95"/>
+      <c r="CD36" s="95"/>
+      <c r="CE36" s="95"/>
+      <c r="CF36" s="95"/>
+      <c r="CG36" s="95"/>
+      <c r="CH36" s="95"/>
+      <c r="CI36" s="95"/>
+      <c r="CJ36" s="95"/>
+      <c r="CK36" s="95"/>
+      <c r="CS36" s="90"/>
+      <c r="CT36" s="90"/>
+      <c r="CU36" s="90"/>
+      <c r="CV36" s="90"/>
+      <c r="CW36" s="90"/>
+      <c r="CX36" s="90"/>
+      <c r="CY36" s="90"/>
       <c r="CZ36" s="76"/>
     </row>
-    <row r="37" spans="1:104">
+    <row r="37" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A37" s="63">
         <v>12</v>
       </c>
-      <c r="B37" s="96"/>
-      <c r="C37" s="96"/>
-      <c r="D37" s="96"/>
-      <c r="E37" s="96"/>
-      <c r="F37" s="96"/>
-      <c r="G37" s="96"/>
-      <c r="H37" s="96"/>
-      <c r="I37" s="96"/>
-      <c r="J37" s="96"/>
-      <c r="K37" s="96"/>
-      <c r="L37" s="96"/>
-      <c r="M37" s="96"/>
-      <c r="N37" s="96"/>
-      <c r="O37" s="96"/>
-      <c r="P37" s="96"/>
-      <c r="Q37" s="96"/>
-      <c r="R37" s="95"/>
-      <c r="S37" s="95"/>
-      <c r="T37" s="95"/>
-      <c r="U37" s="95"/>
-      <c r="V37" s="95"/>
-      <c r="W37" s="95"/>
-      <c r="X37" s="95"/>
-      <c r="Y37" s="95"/>
-      <c r="Z37" s="99"/>
-      <c r="AA37" s="99"/>
-      <c r="AB37" s="99"/>
-      <c r="AC37" s="99"/>
-      <c r="AD37" s="99"/>
-      <c r="AE37" s="99"/>
-      <c r="AF37" s="99"/>
-      <c r="AG37" s="99"/>
-      <c r="AH37" s="99"/>
-      <c r="AI37" s="99"/>
-      <c r="AJ37" s="99"/>
-      <c r="AK37" s="99"/>
-      <c r="AL37" s="99"/>
-      <c r="AM37" s="99"/>
-      <c r="AN37" s="99"/>
-      <c r="AO37" s="99"/>
-      <c r="AP37" s="100"/>
-      <c r="AQ37" s="100"/>
-      <c r="AR37" s="100"/>
-      <c r="AS37" s="100"/>
-      <c r="AT37" s="100"/>
-      <c r="AU37" s="100"/>
-      <c r="AV37" s="100"/>
-      <c r="AW37" s="100"/>
-      <c r="AX37" s="90"/>
-      <c r="AY37" s="90"/>
-      <c r="AZ37" s="90"/>
-      <c r="BA37" s="90"/>
-      <c r="BB37" s="90"/>
-      <c r="BC37" s="90"/>
-      <c r="BD37" s="90"/>
-      <c r="BE37" s="90"/>
-      <c r="BF37" s="90"/>
-      <c r="BG37" s="90"/>
-      <c r="BH37" s="90"/>
-      <c r="BI37" s="90"/>
-      <c r="BJ37" s="90"/>
-      <c r="BK37" s="90"/>
-      <c r="BL37" s="90"/>
-      <c r="BM37" s="90"/>
-      <c r="BN37" s="89"/>
-      <c r="BO37" s="89"/>
-      <c r="BP37" s="89"/>
-      <c r="BQ37" s="89"/>
-      <c r="BR37" s="89"/>
-      <c r="BS37" s="89"/>
-      <c r="BT37" s="89"/>
-      <c r="BU37" s="89"/>
-      <c r="BV37" s="90"/>
-      <c r="BW37" s="90"/>
-      <c r="BX37" s="90"/>
-      <c r="BY37" s="90"/>
-      <c r="BZ37" s="90"/>
-      <c r="CA37" s="90"/>
-      <c r="CB37" s="90"/>
-      <c r="CC37" s="90"/>
-      <c r="CD37" s="90"/>
-      <c r="CE37" s="90"/>
-      <c r="CF37" s="90"/>
-      <c r="CG37" s="90"/>
-      <c r="CH37" s="90"/>
-      <c r="CI37" s="90"/>
-      <c r="CJ37" s="90"/>
-      <c r="CK37" s="90"/>
-      <c r="CS37" s="95"/>
-      <c r="CT37" s="95"/>
-      <c r="CU37" s="95"/>
-      <c r="CV37" s="95"/>
-      <c r="CW37" s="95"/>
-      <c r="CX37" s="95"/>
-      <c r="CY37" s="95"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="91"/>
+      <c r="E37" s="91"/>
+      <c r="F37" s="91"/>
+      <c r="G37" s="91"/>
+      <c r="H37" s="91"/>
+      <c r="I37" s="91"/>
+      <c r="J37" s="91"/>
+      <c r="K37" s="91"/>
+      <c r="L37" s="91"/>
+      <c r="M37" s="91"/>
+      <c r="N37" s="91"/>
+      <c r="O37" s="91"/>
+      <c r="P37" s="91"/>
+      <c r="Q37" s="91"/>
+      <c r="R37" s="90"/>
+      <c r="S37" s="90"/>
+      <c r="T37" s="90"/>
+      <c r="U37" s="90"/>
+      <c r="V37" s="90"/>
+      <c r="W37" s="90"/>
+      <c r="X37" s="90"/>
+      <c r="Y37" s="90"/>
+      <c r="Z37" s="96"/>
+      <c r="AA37" s="96"/>
+      <c r="AB37" s="96"/>
+      <c r="AC37" s="96"/>
+      <c r="AD37" s="96"/>
+      <c r="AE37" s="96"/>
+      <c r="AF37" s="96"/>
+      <c r="AG37" s="96"/>
+      <c r="AH37" s="96"/>
+      <c r="AI37" s="96"/>
+      <c r="AJ37" s="96"/>
+      <c r="AK37" s="96"/>
+      <c r="AL37" s="96"/>
+      <c r="AM37" s="96"/>
+      <c r="AN37" s="96"/>
+      <c r="AO37" s="96"/>
+      <c r="AP37" s="103"/>
+      <c r="AQ37" s="103"/>
+      <c r="AR37" s="103"/>
+      <c r="AS37" s="103"/>
+      <c r="AT37" s="103"/>
+      <c r="AU37" s="103"/>
+      <c r="AV37" s="103"/>
+      <c r="AW37" s="103"/>
+      <c r="AX37" s="95"/>
+      <c r="AY37" s="95"/>
+      <c r="AZ37" s="95"/>
+      <c r="BA37" s="95"/>
+      <c r="BB37" s="95"/>
+      <c r="BC37" s="95"/>
+      <c r="BD37" s="95"/>
+      <c r="BE37" s="95"/>
+      <c r="BF37" s="95"/>
+      <c r="BG37" s="95"/>
+      <c r="BH37" s="95"/>
+      <c r="BI37" s="95"/>
+      <c r="BJ37" s="95"/>
+      <c r="BK37" s="95"/>
+      <c r="BL37" s="95"/>
+      <c r="BM37" s="95"/>
+      <c r="BN37" s="102"/>
+      <c r="BO37" s="102"/>
+      <c r="BP37" s="102"/>
+      <c r="BQ37" s="102"/>
+      <c r="BR37" s="102"/>
+      <c r="BS37" s="102"/>
+      <c r="BT37" s="102"/>
+      <c r="BU37" s="102"/>
+      <c r="BV37" s="95"/>
+      <c r="BW37" s="95"/>
+      <c r="BX37" s="95"/>
+      <c r="BY37" s="95"/>
+      <c r="BZ37" s="95"/>
+      <c r="CA37" s="95"/>
+      <c r="CB37" s="95"/>
+      <c r="CC37" s="95"/>
+      <c r="CD37" s="95"/>
+      <c r="CE37" s="95"/>
+      <c r="CF37" s="95"/>
+      <c r="CG37" s="95"/>
+      <c r="CH37" s="95"/>
+      <c r="CI37" s="95"/>
+      <c r="CJ37" s="95"/>
+      <c r="CK37" s="95"/>
+      <c r="CS37" s="90"/>
+      <c r="CT37" s="90"/>
+      <c r="CU37" s="90"/>
+      <c r="CV37" s="90"/>
+      <c r="CW37" s="90"/>
+      <c r="CX37" s="90"/>
+      <c r="CY37" s="90"/>
       <c r="CZ37" s="76"/>
     </row>
-    <row r="38" spans="1:104">
+    <row r="38" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A38" s="63">
         <v>13</v>
       </c>
-      <c r="B38" s="96"/>
-      <c r="C38" s="96"/>
-      <c r="D38" s="96"/>
-      <c r="E38" s="96"/>
-      <c r="F38" s="96"/>
-      <c r="G38" s="96"/>
-      <c r="H38" s="96"/>
-      <c r="I38" s="96"/>
-      <c r="J38" s="96"/>
-      <c r="K38" s="96"/>
-      <c r="L38" s="96"/>
-      <c r="M38" s="96"/>
-      <c r="N38" s="96"/>
-      <c r="O38" s="96"/>
-      <c r="P38" s="96"/>
-      <c r="Q38" s="96"/>
-      <c r="R38" s="94"/>
-      <c r="S38" s="94"/>
-      <c r="T38" s="94"/>
-      <c r="U38" s="94"/>
-      <c r="V38" s="94"/>
-      <c r="W38" s="94"/>
-      <c r="X38" s="94"/>
-      <c r="Y38" s="94"/>
-      <c r="Z38" s="99"/>
-      <c r="AA38" s="99"/>
-      <c r="AB38" s="99"/>
-      <c r="AC38" s="99"/>
-      <c r="AD38" s="99"/>
-      <c r="AE38" s="99"/>
-      <c r="AF38" s="99"/>
-      <c r="AG38" s="99"/>
-      <c r="AH38" s="99"/>
-      <c r="AI38" s="99"/>
-      <c r="AJ38" s="99"/>
-      <c r="AK38" s="99"/>
-      <c r="AL38" s="99"/>
-      <c r="AM38" s="99"/>
-      <c r="AN38" s="99"/>
-      <c r="AO38" s="99"/>
-      <c r="AP38" s="100"/>
-      <c r="AQ38" s="100"/>
-      <c r="AR38" s="100"/>
-      <c r="AS38" s="100"/>
-      <c r="AT38" s="100"/>
-      <c r="AU38" s="100"/>
-      <c r="AV38" s="100"/>
-      <c r="AW38" s="100"/>
-      <c r="AX38" s="90"/>
-      <c r="AY38" s="90"/>
-      <c r="AZ38" s="90"/>
-      <c r="BA38" s="90"/>
-      <c r="BB38" s="90"/>
-      <c r="BC38" s="90"/>
-      <c r="BD38" s="90"/>
-      <c r="BE38" s="90"/>
-      <c r="BF38" s="90"/>
-      <c r="BG38" s="90"/>
-      <c r="BH38" s="90"/>
-      <c r="BI38" s="90"/>
-      <c r="BJ38" s="90"/>
-      <c r="BK38" s="90"/>
-      <c r="BL38" s="90"/>
-      <c r="BM38" s="90"/>
-      <c r="BN38" s="89"/>
-      <c r="BO38" s="89"/>
-      <c r="BP38" s="89"/>
-      <c r="BQ38" s="89"/>
-      <c r="BR38" s="89"/>
-      <c r="BS38" s="89"/>
-      <c r="BT38" s="89"/>
-      <c r="BU38" s="89"/>
-      <c r="CD38" s="90"/>
-      <c r="CE38" s="90"/>
-      <c r="CF38" s="90"/>
-      <c r="CG38" s="90"/>
-      <c r="CH38" s="90"/>
-      <c r="CI38" s="90"/>
-      <c r="CJ38" s="90"/>
-      <c r="CK38" s="90"/>
-      <c r="CS38" s="95"/>
-      <c r="CT38" s="95"/>
-      <c r="CU38" s="95"/>
-      <c r="CV38" s="95"/>
-      <c r="CW38" s="95"/>
-      <c r="CX38" s="95"/>
-      <c r="CY38" s="95"/>
+      <c r="B38" s="91"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="91"/>
+      <c r="H38" s="91"/>
+      <c r="I38" s="91"/>
+      <c r="J38" s="91"/>
+      <c r="K38" s="91"/>
+      <c r="L38" s="91"/>
+      <c r="M38" s="91"/>
+      <c r="N38" s="91"/>
+      <c r="O38" s="91"/>
+      <c r="P38" s="91"/>
+      <c r="Q38" s="91"/>
+      <c r="R38" s="101"/>
+      <c r="S38" s="101"/>
+      <c r="T38" s="101"/>
+      <c r="U38" s="101"/>
+      <c r="V38" s="101"/>
+      <c r="W38" s="101"/>
+      <c r="X38" s="101"/>
+      <c r="Y38" s="101"/>
+      <c r="Z38" s="96"/>
+      <c r="AA38" s="96"/>
+      <c r="AB38" s="96"/>
+      <c r="AC38" s="96"/>
+      <c r="AD38" s="96"/>
+      <c r="AE38" s="96"/>
+      <c r="AF38" s="96"/>
+      <c r="AG38" s="96"/>
+      <c r="AH38" s="96"/>
+      <c r="AI38" s="96"/>
+      <c r="AJ38" s="96"/>
+      <c r="AK38" s="96"/>
+      <c r="AL38" s="96"/>
+      <c r="AM38" s="96"/>
+      <c r="AN38" s="96"/>
+      <c r="AO38" s="96"/>
+      <c r="AP38" s="103"/>
+      <c r="AQ38" s="103"/>
+      <c r="AR38" s="103"/>
+      <c r="AS38" s="103"/>
+      <c r="AT38" s="103"/>
+      <c r="AU38" s="103"/>
+      <c r="AV38" s="103"/>
+      <c r="AW38" s="103"/>
+      <c r="AX38" s="95"/>
+      <c r="AY38" s="95"/>
+      <c r="AZ38" s="95"/>
+      <c r="BA38" s="95"/>
+      <c r="BB38" s="95"/>
+      <c r="BC38" s="95"/>
+      <c r="BD38" s="95"/>
+      <c r="BE38" s="95"/>
+      <c r="BF38" s="95"/>
+      <c r="BG38" s="95"/>
+      <c r="BH38" s="95"/>
+      <c r="BI38" s="95"/>
+      <c r="BJ38" s="95"/>
+      <c r="BK38" s="95"/>
+      <c r="BL38" s="95"/>
+      <c r="BM38" s="95"/>
+      <c r="BN38" s="102"/>
+      <c r="BO38" s="102"/>
+      <c r="BP38" s="102"/>
+      <c r="BQ38" s="102"/>
+      <c r="BR38" s="102"/>
+      <c r="BS38" s="102"/>
+      <c r="BT38" s="102"/>
+      <c r="BU38" s="102"/>
+      <c r="CD38" s="95"/>
+      <c r="CE38" s="95"/>
+      <c r="CF38" s="95"/>
+      <c r="CG38" s="95"/>
+      <c r="CH38" s="95"/>
+      <c r="CI38" s="95"/>
+      <c r="CJ38" s="95"/>
+      <c r="CK38" s="95"/>
+      <c r="CS38" s="90"/>
+      <c r="CT38" s="90"/>
+      <c r="CU38" s="90"/>
+      <c r="CV38" s="90"/>
+      <c r="CW38" s="90"/>
+      <c r="CX38" s="90"/>
+      <c r="CY38" s="90"/>
       <c r="CZ38" s="76"/>
     </row>
-    <row r="39" spans="1:104">
+    <row r="39" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A39" s="63">
         <v>14</v>
       </c>
-      <c r="B39" s="96"/>
-      <c r="C39" s="96"/>
-      <c r="D39" s="96"/>
-      <c r="E39" s="96"/>
-      <c r="F39" s="96"/>
-      <c r="G39" s="96"/>
-      <c r="H39" s="96"/>
-      <c r="I39" s="96"/>
-      <c r="J39" s="96"/>
-      <c r="K39" s="96"/>
-      <c r="L39" s="96"/>
-      <c r="M39" s="96"/>
-      <c r="N39" s="96"/>
-      <c r="O39" s="96"/>
-      <c r="P39" s="96"/>
-      <c r="Q39" s="96"/>
-      <c r="R39" s="94"/>
-      <c r="S39" s="94"/>
-      <c r="T39" s="94"/>
-      <c r="U39" s="94"/>
-      <c r="V39" s="94"/>
-      <c r="W39" s="94"/>
-      <c r="X39" s="94"/>
-      <c r="Y39" s="94"/>
-      <c r="Z39" s="99"/>
-      <c r="AA39" s="99"/>
-      <c r="AB39" s="99"/>
-      <c r="AC39" s="99"/>
-      <c r="AD39" s="99"/>
-      <c r="AE39" s="99"/>
-      <c r="AF39" s="99"/>
-      <c r="AG39" s="99"/>
-      <c r="AH39" s="99"/>
-      <c r="AI39" s="99"/>
-      <c r="AJ39" s="99"/>
-      <c r="AK39" s="99"/>
-      <c r="AL39" s="99"/>
-      <c r="AM39" s="99"/>
-      <c r="AN39" s="99"/>
-      <c r="AO39" s="99"/>
-      <c r="AP39" s="100"/>
-      <c r="AQ39" s="100"/>
-      <c r="AR39" s="100"/>
-      <c r="AS39" s="100"/>
-      <c r="AT39" s="100"/>
-      <c r="AU39" s="100"/>
-      <c r="AV39" s="100"/>
-      <c r="AW39" s="100"/>
-      <c r="AX39" s="90"/>
-      <c r="AY39" s="90"/>
-      <c r="AZ39" s="90"/>
-      <c r="BA39" s="90"/>
-      <c r="BB39" s="90"/>
-      <c r="BC39" s="90"/>
-      <c r="BD39" s="90"/>
-      <c r="BE39" s="90"/>
-      <c r="BF39" s="90"/>
-      <c r="BG39" s="90"/>
-      <c r="BH39" s="90"/>
-      <c r="BI39" s="90"/>
-      <c r="BJ39" s="90"/>
-      <c r="BK39" s="90"/>
-      <c r="BL39" s="90"/>
-      <c r="BM39" s="90"/>
-      <c r="BN39" s="90"/>
-      <c r="BO39" s="90"/>
-      <c r="BP39" s="90"/>
-      <c r="BQ39" s="90"/>
-      <c r="BR39" s="90"/>
-      <c r="BS39" s="90"/>
-      <c r="BT39" s="90"/>
-      <c r="BU39" s="90"/>
-      <c r="BV39" s="90"/>
-      <c r="BW39" s="90"/>
-      <c r="BX39" s="90"/>
-      <c r="BY39" s="90"/>
-      <c r="BZ39" s="90"/>
-      <c r="CA39" s="90"/>
-      <c r="CB39" s="90"/>
-      <c r="CC39" s="90"/>
-      <c r="CD39" s="90"/>
-      <c r="CE39" s="90"/>
-      <c r="CF39" s="90"/>
-      <c r="CG39" s="90"/>
-      <c r="CH39" s="90"/>
-      <c r="CI39" s="90"/>
-      <c r="CJ39" s="90"/>
-      <c r="CK39" s="90"/>
-      <c r="CS39" s="95"/>
-      <c r="CT39" s="95"/>
-      <c r="CU39" s="95"/>
-      <c r="CV39" s="95"/>
-      <c r="CW39" s="95"/>
-      <c r="CX39" s="95"/>
-      <c r="CY39" s="95"/>
+      <c r="B39" s="91"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="91"/>
+      <c r="F39" s="91"/>
+      <c r="G39" s="91"/>
+      <c r="H39" s="91"/>
+      <c r="I39" s="91"/>
+      <c r="J39" s="91"/>
+      <c r="K39" s="91"/>
+      <c r="L39" s="91"/>
+      <c r="M39" s="91"/>
+      <c r="N39" s="91"/>
+      <c r="O39" s="91"/>
+      <c r="P39" s="91"/>
+      <c r="Q39" s="91"/>
+      <c r="R39" s="101"/>
+      <c r="S39" s="101"/>
+      <c r="T39" s="101"/>
+      <c r="U39" s="101"/>
+      <c r="V39" s="101"/>
+      <c r="W39" s="101"/>
+      <c r="X39" s="101"/>
+      <c r="Y39" s="101"/>
+      <c r="Z39" s="96"/>
+      <c r="AA39" s="96"/>
+      <c r="AB39" s="96"/>
+      <c r="AC39" s="96"/>
+      <c r="AD39" s="96"/>
+      <c r="AE39" s="96"/>
+      <c r="AF39" s="96"/>
+      <c r="AG39" s="96"/>
+      <c r="AH39" s="96"/>
+      <c r="AI39" s="96"/>
+      <c r="AJ39" s="96"/>
+      <c r="AK39" s="96"/>
+      <c r="AL39" s="96"/>
+      <c r="AM39" s="96"/>
+      <c r="AN39" s="96"/>
+      <c r="AO39" s="96"/>
+      <c r="AP39" s="103"/>
+      <c r="AQ39" s="103"/>
+      <c r="AR39" s="103"/>
+      <c r="AS39" s="103"/>
+      <c r="AT39" s="103"/>
+      <c r="AU39" s="103"/>
+      <c r="AV39" s="103"/>
+      <c r="AW39" s="103"/>
+      <c r="AX39" s="95"/>
+      <c r="AY39" s="95"/>
+      <c r="AZ39" s="95"/>
+      <c r="BA39" s="95"/>
+      <c r="BB39" s="95"/>
+      <c r="BC39" s="95"/>
+      <c r="BD39" s="95"/>
+      <c r="BE39" s="95"/>
+      <c r="BF39" s="95"/>
+      <c r="BG39" s="95"/>
+      <c r="BH39" s="95"/>
+      <c r="BI39" s="95"/>
+      <c r="BJ39" s="95"/>
+      <c r="BK39" s="95"/>
+      <c r="BL39" s="95"/>
+      <c r="BM39" s="95"/>
+      <c r="BN39" s="95"/>
+      <c r="BO39" s="95"/>
+      <c r="BP39" s="95"/>
+      <c r="BQ39" s="95"/>
+      <c r="BR39" s="95"/>
+      <c r="BS39" s="95"/>
+      <c r="BT39" s="95"/>
+      <c r="BU39" s="95"/>
+      <c r="BV39" s="95"/>
+      <c r="BW39" s="95"/>
+      <c r="BX39" s="95"/>
+      <c r="BY39" s="95"/>
+      <c r="BZ39" s="95"/>
+      <c r="CA39" s="95"/>
+      <c r="CB39" s="95"/>
+      <c r="CC39" s="95"/>
+      <c r="CD39" s="95"/>
+      <c r="CE39" s="95"/>
+      <c r="CF39" s="95"/>
+      <c r="CG39" s="95"/>
+      <c r="CH39" s="95"/>
+      <c r="CI39" s="95"/>
+      <c r="CJ39" s="95"/>
+      <c r="CK39" s="95"/>
+      <c r="CS39" s="90"/>
+      <c r="CT39" s="90"/>
+      <c r="CU39" s="90"/>
+      <c r="CV39" s="90"/>
+      <c r="CW39" s="90"/>
+      <c r="CX39" s="90"/>
+      <c r="CY39" s="90"/>
       <c r="CZ39" s="76"/>
     </row>
-    <row r="40" spans="1:104">
+    <row r="40" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A40" s="63">
         <v>15</v>
       </c>
-      <c r="B40" s="96"/>
-      <c r="C40" s="96"/>
-      <c r="D40" s="96"/>
-      <c r="E40" s="96"/>
-      <c r="F40" s="96"/>
-      <c r="G40" s="96"/>
-      <c r="H40" s="96"/>
-      <c r="I40" s="96"/>
-      <c r="J40" s="96"/>
-      <c r="K40" s="96"/>
-      <c r="L40" s="96"/>
-      <c r="M40" s="96"/>
-      <c r="N40" s="96"/>
-      <c r="O40" s="96"/>
-      <c r="P40" s="96"/>
-      <c r="Q40" s="96"/>
-      <c r="R40" s="94"/>
-      <c r="S40" s="94"/>
-      <c r="T40" s="94"/>
-      <c r="U40" s="94"/>
-      <c r="V40" s="94"/>
-      <c r="W40" s="94"/>
-      <c r="X40" s="94"/>
-      <c r="Y40" s="94"/>
-      <c r="Z40" s="99"/>
-      <c r="AA40" s="99"/>
-      <c r="AB40" s="99"/>
-      <c r="AC40" s="99"/>
-      <c r="AD40" s="99"/>
-      <c r="AE40" s="99"/>
-      <c r="AF40" s="99"/>
-      <c r="AG40" s="99"/>
-      <c r="AH40" s="99"/>
-      <c r="AI40" s="99"/>
-      <c r="AJ40" s="99"/>
-      <c r="AK40" s="99"/>
-      <c r="AL40" s="99"/>
-      <c r="AM40" s="99"/>
-      <c r="AN40" s="99"/>
-      <c r="AO40" s="99"/>
-      <c r="AP40" s="100"/>
-      <c r="AQ40" s="100"/>
-      <c r="AR40" s="100"/>
-      <c r="AS40" s="100"/>
-      <c r="AT40" s="100"/>
-      <c r="AU40" s="100"/>
-      <c r="AV40" s="100"/>
-      <c r="AW40" s="100"/>
-      <c r="AX40" s="90"/>
-      <c r="AY40" s="90"/>
-      <c r="AZ40" s="90"/>
-      <c r="BA40" s="90"/>
-      <c r="BB40" s="90"/>
-      <c r="BC40" s="90"/>
-      <c r="BD40" s="90"/>
-      <c r="BE40" s="90"/>
-      <c r="BF40" s="90"/>
-      <c r="BG40" s="90"/>
-      <c r="BH40" s="90"/>
-      <c r="BI40" s="90"/>
-      <c r="BJ40" s="90"/>
-      <c r="BK40" s="90"/>
-      <c r="BL40" s="90"/>
-      <c r="BM40" s="90"/>
-      <c r="BN40" s="90"/>
-      <c r="BO40" s="90"/>
-      <c r="BP40" s="90"/>
-      <c r="BQ40" s="90"/>
-      <c r="BR40" s="90"/>
-      <c r="BS40" s="90"/>
-      <c r="BT40" s="90"/>
-      <c r="BU40" s="90"/>
-      <c r="BV40" s="90"/>
-      <c r="BW40" s="90"/>
-      <c r="BX40" s="90"/>
-      <c r="BY40" s="90"/>
-      <c r="BZ40" s="90"/>
-      <c r="CA40" s="90"/>
-      <c r="CB40" s="90"/>
-      <c r="CC40" s="90"/>
-      <c r="CD40" s="90"/>
-      <c r="CE40" s="90"/>
-      <c r="CF40" s="90"/>
-      <c r="CG40" s="90"/>
-      <c r="CH40" s="90"/>
-      <c r="CI40" s="90"/>
-      <c r="CJ40" s="90"/>
-      <c r="CK40" s="90"/>
-      <c r="CS40" s="95"/>
-      <c r="CT40" s="95"/>
-      <c r="CU40" s="95"/>
-      <c r="CV40" s="95"/>
-      <c r="CW40" s="95"/>
-      <c r="CX40" s="95"/>
-      <c r="CY40" s="95"/>
+      <c r="B40" s="91"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="91"/>
+      <c r="F40" s="91"/>
+      <c r="G40" s="91"/>
+      <c r="H40" s="91"/>
+      <c r="I40" s="91"/>
+      <c r="J40" s="91"/>
+      <c r="K40" s="91"/>
+      <c r="L40" s="91"/>
+      <c r="M40" s="91"/>
+      <c r="N40" s="91"/>
+      <c r="O40" s="91"/>
+      <c r="P40" s="91"/>
+      <c r="Q40" s="91"/>
+      <c r="R40" s="101"/>
+      <c r="S40" s="101"/>
+      <c r="T40" s="101"/>
+      <c r="U40" s="101"/>
+      <c r="V40" s="101"/>
+      <c r="W40" s="101"/>
+      <c r="X40" s="101"/>
+      <c r="Y40" s="101"/>
+      <c r="Z40" s="96"/>
+      <c r="AA40" s="96"/>
+      <c r="AB40" s="96"/>
+      <c r="AC40" s="96"/>
+      <c r="AD40" s="96"/>
+      <c r="AE40" s="96"/>
+      <c r="AF40" s="96"/>
+      <c r="AG40" s="96"/>
+      <c r="AH40" s="96"/>
+      <c r="AI40" s="96"/>
+      <c r="AJ40" s="96"/>
+      <c r="AK40" s="96"/>
+      <c r="AL40" s="96"/>
+      <c r="AM40" s="96"/>
+      <c r="AN40" s="96"/>
+      <c r="AO40" s="96"/>
+      <c r="AP40" s="103"/>
+      <c r="AQ40" s="103"/>
+      <c r="AR40" s="103"/>
+      <c r="AS40" s="103"/>
+      <c r="AT40" s="103"/>
+      <c r="AU40" s="103"/>
+      <c r="AV40" s="103"/>
+      <c r="AW40" s="103"/>
+      <c r="AX40" s="95"/>
+      <c r="AY40" s="95"/>
+      <c r="AZ40" s="95"/>
+      <c r="BA40" s="95"/>
+      <c r="BB40" s="95"/>
+      <c r="BC40" s="95"/>
+      <c r="BD40" s="95"/>
+      <c r="BE40" s="95"/>
+      <c r="BF40" s="95"/>
+      <c r="BG40" s="95"/>
+      <c r="BH40" s="95"/>
+      <c r="BI40" s="95"/>
+      <c r="BJ40" s="95"/>
+      <c r="BK40" s="95"/>
+      <c r="BL40" s="95"/>
+      <c r="BM40" s="95"/>
+      <c r="BN40" s="95"/>
+      <c r="BO40" s="95"/>
+      <c r="BP40" s="95"/>
+      <c r="BQ40" s="95"/>
+      <c r="BR40" s="95"/>
+      <c r="BS40" s="95"/>
+      <c r="BT40" s="95"/>
+      <c r="BU40" s="95"/>
+      <c r="BV40" s="95"/>
+      <c r="BW40" s="95"/>
+      <c r="BX40" s="95"/>
+      <c r="BY40" s="95"/>
+      <c r="BZ40" s="95"/>
+      <c r="CA40" s="95"/>
+      <c r="CB40" s="95"/>
+      <c r="CC40" s="95"/>
+      <c r="CD40" s="95"/>
+      <c r="CE40" s="95"/>
+      <c r="CF40" s="95"/>
+      <c r="CG40" s="95"/>
+      <c r="CH40" s="95"/>
+      <c r="CI40" s="95"/>
+      <c r="CJ40" s="95"/>
+      <c r="CK40" s="95"/>
+      <c r="CS40" s="90"/>
+      <c r="CT40" s="90"/>
+      <c r="CU40" s="90"/>
+      <c r="CV40" s="90"/>
+      <c r="CW40" s="90"/>
+      <c r="CX40" s="90"/>
+      <c r="CY40" s="90"/>
       <c r="CZ40" s="76"/>
     </row>
-    <row r="41" spans="1:104">
+    <row r="41" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A41" s="63">
         <v>16</v>
       </c>
-      <c r="B41" s="96"/>
-      <c r="C41" s="96"/>
-      <c r="D41" s="96"/>
-      <c r="E41" s="96"/>
-      <c r="F41" s="96"/>
-      <c r="G41" s="96"/>
-      <c r="H41" s="96"/>
-      <c r="I41" s="96"/>
-      <c r="J41" s="96"/>
-      <c r="K41" s="96"/>
-      <c r="L41" s="96"/>
-      <c r="M41" s="96"/>
-      <c r="N41" s="96"/>
-      <c r="O41" s="96"/>
-      <c r="P41" s="96"/>
-      <c r="Q41" s="96"/>
-      <c r="R41" s="94"/>
-      <c r="S41" s="94"/>
-      <c r="T41" s="94"/>
-      <c r="U41" s="94"/>
-      <c r="V41" s="94"/>
-      <c r="W41" s="94"/>
-      <c r="X41" s="94"/>
-      <c r="Y41" s="94"/>
-      <c r="Z41" s="99"/>
-      <c r="AA41" s="99"/>
-      <c r="AB41" s="99"/>
-      <c r="AC41" s="99"/>
-      <c r="AD41" s="99"/>
-      <c r="AE41" s="99"/>
-      <c r="AF41" s="99"/>
-      <c r="AG41" s="99"/>
-      <c r="AH41" s="99"/>
-      <c r="AI41" s="99"/>
-      <c r="AJ41" s="99"/>
-      <c r="AK41" s="99"/>
-      <c r="AL41" s="99"/>
-      <c r="AM41" s="99"/>
-      <c r="AN41" s="99"/>
-      <c r="AO41" s="99"/>
-      <c r="AP41" s="100"/>
-      <c r="AQ41" s="100"/>
-      <c r="AR41" s="100"/>
-      <c r="AS41" s="100"/>
-      <c r="AT41" s="100"/>
-      <c r="AU41" s="100"/>
-      <c r="AV41" s="100"/>
-      <c r="AW41" s="100"/>
-      <c r="AX41" s="90"/>
-      <c r="AY41" s="90"/>
-      <c r="AZ41" s="90"/>
-      <c r="BA41" s="90"/>
-      <c r="BB41" s="90"/>
-      <c r="BC41" s="90"/>
-      <c r="BD41" s="90"/>
-      <c r="BE41" s="90"/>
-      <c r="BF41" s="90"/>
-      <c r="BG41" s="90"/>
-      <c r="BH41" s="90"/>
-      <c r="BI41" s="90"/>
-      <c r="BJ41" s="90"/>
-      <c r="BK41" s="90"/>
-      <c r="BL41" s="90"/>
-      <c r="BM41" s="90"/>
-      <c r="BN41" s="90"/>
-      <c r="BO41" s="90"/>
-      <c r="BP41" s="90"/>
-      <c r="BQ41" s="90"/>
-      <c r="BR41" s="90"/>
-      <c r="BS41" s="90"/>
-      <c r="BT41" s="90"/>
-      <c r="BU41" s="90"/>
-      <c r="CD41" s="90"/>
-      <c r="CE41" s="90"/>
-      <c r="CF41" s="90"/>
-      <c r="CG41" s="90"/>
-      <c r="CH41" s="90"/>
-      <c r="CI41" s="90"/>
-      <c r="CJ41" s="90"/>
-      <c r="CK41" s="90"/>
-      <c r="CS41" s="95"/>
-      <c r="CT41" s="95"/>
-      <c r="CU41" s="95"/>
-      <c r="CV41" s="95"/>
-      <c r="CW41" s="95"/>
-      <c r="CX41" s="95"/>
-      <c r="CY41" s="95"/>
+      <c r="B41" s="91"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="91"/>
+      <c r="E41" s="91"/>
+      <c r="F41" s="91"/>
+      <c r="G41" s="91"/>
+      <c r="H41" s="91"/>
+      <c r="I41" s="91"/>
+      <c r="J41" s="91"/>
+      <c r="K41" s="91"/>
+      <c r="L41" s="91"/>
+      <c r="M41" s="91"/>
+      <c r="N41" s="91"/>
+      <c r="O41" s="91"/>
+      <c r="P41" s="91"/>
+      <c r="Q41" s="91"/>
+      <c r="R41" s="101"/>
+      <c r="S41" s="101"/>
+      <c r="T41" s="101"/>
+      <c r="U41" s="101"/>
+      <c r="V41" s="101"/>
+      <c r="W41" s="101"/>
+      <c r="X41" s="101"/>
+      <c r="Y41" s="101"/>
+      <c r="Z41" s="96"/>
+      <c r="AA41" s="96"/>
+      <c r="AB41" s="96"/>
+      <c r="AC41" s="96"/>
+      <c r="AD41" s="96"/>
+      <c r="AE41" s="96"/>
+      <c r="AF41" s="96"/>
+      <c r="AG41" s="96"/>
+      <c r="AH41" s="96"/>
+      <c r="AI41" s="96"/>
+      <c r="AJ41" s="96"/>
+      <c r="AK41" s="96"/>
+      <c r="AL41" s="96"/>
+      <c r="AM41" s="96"/>
+      <c r="AN41" s="96"/>
+      <c r="AO41" s="96"/>
+      <c r="AP41" s="103"/>
+      <c r="AQ41" s="103"/>
+      <c r="AR41" s="103"/>
+      <c r="AS41" s="103"/>
+      <c r="AT41" s="103"/>
+      <c r="AU41" s="103"/>
+      <c r="AV41" s="103"/>
+      <c r="AW41" s="103"/>
+      <c r="AX41" s="95"/>
+      <c r="AY41" s="95"/>
+      <c r="AZ41" s="95"/>
+      <c r="BA41" s="95"/>
+      <c r="BB41" s="95"/>
+      <c r="BC41" s="95"/>
+      <c r="BD41" s="95"/>
+      <c r="BE41" s="95"/>
+      <c r="BF41" s="95"/>
+      <c r="BG41" s="95"/>
+      <c r="BH41" s="95"/>
+      <c r="BI41" s="95"/>
+      <c r="BJ41" s="95"/>
+      <c r="BK41" s="95"/>
+      <c r="BL41" s="95"/>
+      <c r="BM41" s="95"/>
+      <c r="BN41" s="95"/>
+      <c r="BO41" s="95"/>
+      <c r="BP41" s="95"/>
+      <c r="BQ41" s="95"/>
+      <c r="BR41" s="95"/>
+      <c r="BS41" s="95"/>
+      <c r="BT41" s="95"/>
+      <c r="BU41" s="95"/>
+      <c r="CD41" s="95"/>
+      <c r="CE41" s="95"/>
+      <c r="CF41" s="95"/>
+      <c r="CG41" s="95"/>
+      <c r="CH41" s="95"/>
+      <c r="CI41" s="95"/>
+      <c r="CJ41" s="95"/>
+      <c r="CK41" s="95"/>
+      <c r="CS41" s="90"/>
+      <c r="CT41" s="90"/>
+      <c r="CU41" s="90"/>
+      <c r="CV41" s="90"/>
+      <c r="CW41" s="90"/>
+      <c r="CX41" s="90"/>
+      <c r="CY41" s="90"/>
       <c r="CZ41" s="76"/>
     </row>
-    <row r="42" spans="1:104">
+    <row r="42" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A42" s="63">
         <v>17</v>
       </c>
-      <c r="B42" s="96"/>
-      <c r="C42" s="96"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="96"/>
-      <c r="F42" s="96"/>
-      <c r="G42" s="96"/>
-      <c r="H42" s="96"/>
-      <c r="I42" s="96"/>
-      <c r="J42" s="98"/>
-      <c r="K42" s="98"/>
-      <c r="L42" s="98"/>
-      <c r="M42" s="98"/>
-      <c r="N42" s="98"/>
-      <c r="O42" s="98"/>
-      <c r="P42" s="98"/>
-      <c r="Q42" s="98"/>
-      <c r="R42" s="94"/>
-      <c r="S42" s="94"/>
-      <c r="T42" s="94"/>
-      <c r="U42" s="94"/>
-      <c r="V42" s="94"/>
-      <c r="W42" s="94"/>
-      <c r="X42" s="94"/>
-      <c r="Y42" s="94"/>
-      <c r="Z42" s="99"/>
-      <c r="AA42" s="99"/>
-      <c r="AB42" s="99"/>
-      <c r="AC42" s="99"/>
-      <c r="AD42" s="99"/>
-      <c r="AE42" s="99"/>
-      <c r="AF42" s="99"/>
-      <c r="AG42" s="99"/>
-      <c r="AH42" s="99"/>
-      <c r="AI42" s="99"/>
-      <c r="AJ42" s="99"/>
-      <c r="AK42" s="99"/>
-      <c r="AL42" s="99"/>
-      <c r="AM42" s="99"/>
-      <c r="AN42" s="99"/>
-      <c r="AO42" s="99"/>
-      <c r="AP42" s="100"/>
-      <c r="AQ42" s="100"/>
-      <c r="AR42" s="100"/>
-      <c r="AS42" s="100"/>
-      <c r="AT42" s="100"/>
-      <c r="AU42" s="100"/>
-      <c r="AV42" s="100"/>
-      <c r="AW42" s="100"/>
-      <c r="AX42" s="90"/>
-      <c r="AY42" s="90"/>
-      <c r="AZ42" s="90"/>
-      <c r="BA42" s="90"/>
-      <c r="BB42" s="90"/>
-      <c r="BC42" s="90"/>
-      <c r="BD42" s="90"/>
-      <c r="BE42" s="90"/>
-      <c r="BF42" s="90"/>
-      <c r="BG42" s="90"/>
-      <c r="BH42" s="90"/>
-      <c r="BI42" s="90"/>
-      <c r="BJ42" s="90"/>
-      <c r="BK42" s="90"/>
-      <c r="BL42" s="90"/>
-      <c r="BM42" s="90"/>
-      <c r="BN42" s="90"/>
-      <c r="BO42" s="90"/>
-      <c r="BP42" s="90"/>
-      <c r="BQ42" s="90"/>
-      <c r="BR42" s="90"/>
-      <c r="BS42" s="90"/>
-      <c r="BT42" s="90"/>
-      <c r="BU42" s="90"/>
-      <c r="CD42" s="90"/>
-      <c r="CE42" s="90"/>
-      <c r="CF42" s="90"/>
-      <c r="CG42" s="90"/>
-      <c r="CH42" s="90"/>
-      <c r="CI42" s="90"/>
-      <c r="CJ42" s="90"/>
-      <c r="CK42" s="90"/>
-      <c r="CS42" s="95"/>
-      <c r="CT42" s="95"/>
-      <c r="CU42" s="95"/>
-      <c r="CV42" s="95"/>
-      <c r="CW42" s="95"/>
-      <c r="CX42" s="95"/>
-      <c r="CY42" s="95"/>
+      <c r="B42" s="91"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="91"/>
+      <c r="E42" s="91"/>
+      <c r="F42" s="91"/>
+      <c r="G42" s="91"/>
+      <c r="H42" s="91"/>
+      <c r="I42" s="91"/>
+      <c r="J42" s="117"/>
+      <c r="K42" s="117"/>
+      <c r="L42" s="117"/>
+      <c r="M42" s="117"/>
+      <c r="N42" s="117"/>
+      <c r="O42" s="117"/>
+      <c r="P42" s="117"/>
+      <c r="Q42" s="117"/>
+      <c r="R42" s="101"/>
+      <c r="S42" s="101"/>
+      <c r="T42" s="101"/>
+      <c r="U42" s="101"/>
+      <c r="V42" s="101"/>
+      <c r="W42" s="101"/>
+      <c r="X42" s="101"/>
+      <c r="Y42" s="101"/>
+      <c r="Z42" s="96"/>
+      <c r="AA42" s="96"/>
+      <c r="AB42" s="96"/>
+      <c r="AC42" s="96"/>
+      <c r="AD42" s="96"/>
+      <c r="AE42" s="96"/>
+      <c r="AF42" s="96"/>
+      <c r="AG42" s="96"/>
+      <c r="AH42" s="96"/>
+      <c r="AI42" s="96"/>
+      <c r="AJ42" s="96"/>
+      <c r="AK42" s="96"/>
+      <c r="AL42" s="96"/>
+      <c r="AM42" s="96"/>
+      <c r="AN42" s="96"/>
+      <c r="AO42" s="96"/>
+      <c r="AP42" s="103"/>
+      <c r="AQ42" s="103"/>
+      <c r="AR42" s="103"/>
+      <c r="AS42" s="103"/>
+      <c r="AT42" s="103"/>
+      <c r="AU42" s="103"/>
+      <c r="AV42" s="103"/>
+      <c r="AW42" s="103"/>
+      <c r="AX42" s="95"/>
+      <c r="AY42" s="95"/>
+      <c r="AZ42" s="95"/>
+      <c r="BA42" s="95"/>
+      <c r="BB42" s="95"/>
+      <c r="BC42" s="95"/>
+      <c r="BD42" s="95"/>
+      <c r="BE42" s="95"/>
+      <c r="BF42" s="95"/>
+      <c r="BG42" s="95"/>
+      <c r="BH42" s="95"/>
+      <c r="BI42" s="95"/>
+      <c r="BJ42" s="95"/>
+      <c r="BK42" s="95"/>
+      <c r="BL42" s="95"/>
+      <c r="BM42" s="95"/>
+      <c r="BN42" s="95"/>
+      <c r="BO42" s="95"/>
+      <c r="BP42" s="95"/>
+      <c r="BQ42" s="95"/>
+      <c r="BR42" s="95"/>
+      <c r="BS42" s="95"/>
+      <c r="BT42" s="95"/>
+      <c r="BU42" s="95"/>
+      <c r="CD42" s="95"/>
+      <c r="CE42" s="95"/>
+      <c r="CF42" s="95"/>
+      <c r="CG42" s="95"/>
+      <c r="CH42" s="95"/>
+      <c r="CI42" s="95"/>
+      <c r="CJ42" s="95"/>
+      <c r="CK42" s="95"/>
+      <c r="CS42" s="90"/>
+      <c r="CT42" s="90"/>
+      <c r="CU42" s="90"/>
+      <c r="CV42" s="90"/>
+      <c r="CW42" s="90"/>
+      <c r="CX42" s="90"/>
+      <c r="CY42" s="90"/>
       <c r="CZ42" s="76"/>
     </row>
-    <row r="43" spans="1:104">
+    <row r="43" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A43" s="63">
         <v>18</v>
       </c>
-      <c r="B43" s="96"/>
-      <c r="C43" s="96"/>
-      <c r="D43" s="96"/>
-      <c r="E43" s="96"/>
-      <c r="F43" s="96"/>
-      <c r="G43" s="96"/>
-      <c r="H43" s="96"/>
-      <c r="I43" s="96"/>
-      <c r="J43" s="98"/>
-      <c r="K43" s="98"/>
-      <c r="L43" s="98"/>
-      <c r="M43" s="98"/>
-      <c r="N43" s="98"/>
-      <c r="O43" s="98"/>
-      <c r="P43" s="98"/>
-      <c r="Q43" s="98"/>
-      <c r="R43" s="94"/>
-      <c r="S43" s="94"/>
-      <c r="T43" s="94"/>
-      <c r="U43" s="94"/>
-      <c r="V43" s="94"/>
-      <c r="W43" s="94"/>
-      <c r="X43" s="94"/>
-      <c r="Y43" s="94"/>
-      <c r="Z43" s="99"/>
-      <c r="AA43" s="99"/>
-      <c r="AB43" s="99"/>
-      <c r="AC43" s="99"/>
-      <c r="AD43" s="99"/>
-      <c r="AE43" s="99"/>
-      <c r="AF43" s="99"/>
-      <c r="AG43" s="99"/>
-      <c r="AH43" s="99"/>
-      <c r="AI43" s="99"/>
-      <c r="AJ43" s="99"/>
-      <c r="AK43" s="99"/>
-      <c r="AL43" s="99"/>
-      <c r="AM43" s="99"/>
-      <c r="AN43" s="99"/>
-      <c r="AO43" s="99"/>
-      <c r="AP43" s="100"/>
-      <c r="AQ43" s="100"/>
-      <c r="AR43" s="100"/>
-      <c r="AS43" s="100"/>
-      <c r="AT43" s="100"/>
-      <c r="AU43" s="100"/>
-      <c r="AV43" s="100"/>
-      <c r="AW43" s="100"/>
-      <c r="AX43" s="90"/>
-      <c r="AY43" s="90"/>
-      <c r="AZ43" s="90"/>
-      <c r="BA43" s="90"/>
-      <c r="BB43" s="90"/>
-      <c r="BC43" s="90"/>
-      <c r="BD43" s="90"/>
-      <c r="BE43" s="90"/>
-      <c r="BF43" s="90"/>
-      <c r="BG43" s="90"/>
-      <c r="BH43" s="90"/>
-      <c r="BI43" s="90"/>
-      <c r="BJ43" s="90"/>
-      <c r="BK43" s="90"/>
-      <c r="BL43" s="90"/>
-      <c r="BM43" s="90"/>
-      <c r="BN43" s="90"/>
-      <c r="BO43" s="90"/>
-      <c r="BP43" s="90"/>
-      <c r="BQ43" s="90"/>
-      <c r="BR43" s="90"/>
-      <c r="BS43" s="90"/>
-      <c r="BT43" s="90"/>
-      <c r="BU43" s="90"/>
-      <c r="CD43" s="90"/>
-      <c r="CE43" s="90"/>
-      <c r="CF43" s="90"/>
-      <c r="CG43" s="90"/>
-      <c r="CH43" s="90"/>
-      <c r="CI43" s="90"/>
-      <c r="CJ43" s="90"/>
-      <c r="CK43" s="90"/>
-      <c r="CS43" s="95"/>
-      <c r="CT43" s="95"/>
-      <c r="CU43" s="95"/>
-      <c r="CV43" s="95"/>
-      <c r="CW43" s="95"/>
-      <c r="CX43" s="95"/>
-      <c r="CY43" s="95"/>
+      <c r="B43" s="91"/>
+      <c r="C43" s="91"/>
+      <c r="D43" s="91"/>
+      <c r="E43" s="91"/>
+      <c r="F43" s="91"/>
+      <c r="G43" s="91"/>
+      <c r="H43" s="91"/>
+      <c r="I43" s="91"/>
+      <c r="J43" s="117"/>
+      <c r="K43" s="117"/>
+      <c r="L43" s="117"/>
+      <c r="M43" s="117"/>
+      <c r="N43" s="117"/>
+      <c r="O43" s="117"/>
+      <c r="P43" s="117"/>
+      <c r="Q43" s="117"/>
+      <c r="R43" s="101"/>
+      <c r="S43" s="101"/>
+      <c r="T43" s="101"/>
+      <c r="U43" s="101"/>
+      <c r="V43" s="101"/>
+      <c r="W43" s="101"/>
+      <c r="X43" s="101"/>
+      <c r="Y43" s="101"/>
+      <c r="Z43" s="96"/>
+      <c r="AA43" s="96"/>
+      <c r="AB43" s="96"/>
+      <c r="AC43" s="96"/>
+      <c r="AD43" s="96"/>
+      <c r="AE43" s="96"/>
+      <c r="AF43" s="96"/>
+      <c r="AG43" s="96"/>
+      <c r="AH43" s="96"/>
+      <c r="AI43" s="96"/>
+      <c r="AJ43" s="96"/>
+      <c r="AK43" s="96"/>
+      <c r="AL43" s="96"/>
+      <c r="AM43" s="96"/>
+      <c r="AN43" s="96"/>
+      <c r="AO43" s="96"/>
+      <c r="AP43" s="103"/>
+      <c r="AQ43" s="103"/>
+      <c r="AR43" s="103"/>
+      <c r="AS43" s="103"/>
+      <c r="AT43" s="103"/>
+      <c r="AU43" s="103"/>
+      <c r="AV43" s="103"/>
+      <c r="AW43" s="103"/>
+      <c r="AX43" s="95"/>
+      <c r="AY43" s="95"/>
+      <c r="AZ43" s="95"/>
+      <c r="BA43" s="95"/>
+      <c r="BB43" s="95"/>
+      <c r="BC43" s="95"/>
+      <c r="BD43" s="95"/>
+      <c r="BE43" s="95"/>
+      <c r="BF43" s="95"/>
+      <c r="BG43" s="95"/>
+      <c r="BH43" s="95"/>
+      <c r="BI43" s="95"/>
+      <c r="BJ43" s="95"/>
+      <c r="BK43" s="95"/>
+      <c r="BL43" s="95"/>
+      <c r="BM43" s="95"/>
+      <c r="BN43" s="95"/>
+      <c r="BO43" s="95"/>
+      <c r="BP43" s="95"/>
+      <c r="BQ43" s="95"/>
+      <c r="BR43" s="95"/>
+      <c r="BS43" s="95"/>
+      <c r="BT43" s="95"/>
+      <c r="BU43" s="95"/>
+      <c r="CD43" s="95"/>
+      <c r="CE43" s="95"/>
+      <c r="CF43" s="95"/>
+      <c r="CG43" s="95"/>
+      <c r="CH43" s="95"/>
+      <c r="CI43" s="95"/>
+      <c r="CJ43" s="95"/>
+      <c r="CK43" s="95"/>
+      <c r="CS43" s="90"/>
+      <c r="CT43" s="90"/>
+      <c r="CU43" s="90"/>
+      <c r="CV43" s="90"/>
+      <c r="CW43" s="90"/>
+      <c r="CX43" s="90"/>
+      <c r="CY43" s="90"/>
       <c r="CZ43" s="76"/>
     </row>
-    <row r="44" spans="1:104">
+    <row r="44" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A44" s="63">
         <v>19</v>
       </c>
-      <c r="B44" s="96"/>
-      <c r="C44" s="96"/>
-      <c r="D44" s="96"/>
-      <c r="E44" s="96"/>
-      <c r="F44" s="96"/>
-      <c r="G44" s="96"/>
-      <c r="H44" s="96"/>
-      <c r="I44" s="96"/>
-      <c r="J44" s="98"/>
-      <c r="K44" s="98"/>
-      <c r="L44" s="98"/>
-      <c r="M44" s="98"/>
-      <c r="N44" s="98"/>
-      <c r="O44" s="98"/>
-      <c r="P44" s="98"/>
-      <c r="Q44" s="98"/>
-      <c r="R44" s="94"/>
-      <c r="S44" s="94"/>
-      <c r="T44" s="94"/>
-      <c r="U44" s="94"/>
-      <c r="V44" s="94"/>
-      <c r="W44" s="94"/>
-      <c r="X44" s="94"/>
-      <c r="Y44" s="94"/>
-      <c r="Z44" s="99"/>
-      <c r="AA44" s="99"/>
-      <c r="AB44" s="99"/>
-      <c r="AC44" s="99"/>
-      <c r="AD44" s="99"/>
-      <c r="AE44" s="99"/>
-      <c r="AF44" s="99"/>
-      <c r="AG44" s="99"/>
-      <c r="AH44" s="99"/>
-      <c r="AI44" s="99"/>
-      <c r="AJ44" s="99"/>
-      <c r="AK44" s="99"/>
-      <c r="AL44" s="99"/>
-      <c r="AM44" s="99"/>
-      <c r="AN44" s="99"/>
-      <c r="AO44" s="99"/>
-      <c r="AP44" s="100"/>
-      <c r="AQ44" s="100"/>
-      <c r="AR44" s="100"/>
-      <c r="AS44" s="100"/>
-      <c r="AT44" s="100"/>
-      <c r="AU44" s="100"/>
-      <c r="AV44" s="100"/>
-      <c r="AW44" s="100"/>
-      <c r="AX44" s="90"/>
-      <c r="AY44" s="90"/>
-      <c r="AZ44" s="90"/>
-      <c r="BA44" s="90"/>
-      <c r="BB44" s="90"/>
-      <c r="BC44" s="90"/>
-      <c r="BD44" s="90"/>
-      <c r="BE44" s="90"/>
-      <c r="BF44" s="90"/>
-      <c r="BG44" s="90"/>
-      <c r="BH44" s="90"/>
-      <c r="BI44" s="90"/>
-      <c r="BJ44" s="90"/>
-      <c r="BK44" s="90"/>
-      <c r="BL44" s="90"/>
-      <c r="BM44" s="90"/>
-      <c r="BN44" s="90"/>
-      <c r="BO44" s="90"/>
-      <c r="BP44" s="90"/>
-      <c r="BQ44" s="90"/>
-      <c r="BR44" s="90"/>
-      <c r="BS44" s="90"/>
-      <c r="BT44" s="90"/>
-      <c r="BU44" s="90"/>
-      <c r="BV44" s="90"/>
-      <c r="BW44" s="90"/>
-      <c r="BX44" s="90"/>
-      <c r="BY44" s="90"/>
-      <c r="BZ44" s="90"/>
-      <c r="CA44" s="90"/>
-      <c r="CB44" s="90"/>
-      <c r="CC44" s="90"/>
-      <c r="CD44" s="90"/>
-      <c r="CE44" s="90"/>
-      <c r="CF44" s="90"/>
-      <c r="CG44" s="90"/>
-      <c r="CH44" s="90"/>
-      <c r="CI44" s="90"/>
-      <c r="CJ44" s="90"/>
-      <c r="CK44" s="90"/>
-      <c r="CS44" s="95"/>
-      <c r="CT44" s="95"/>
-      <c r="CU44" s="95"/>
-      <c r="CV44" s="95"/>
-      <c r="CW44" s="95"/>
-      <c r="CX44" s="95"/>
-      <c r="CY44" s="95"/>
+      <c r="B44" s="91"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="91"/>
+      <c r="E44" s="91"/>
+      <c r="F44" s="91"/>
+      <c r="G44" s="91"/>
+      <c r="H44" s="91"/>
+      <c r="I44" s="91"/>
+      <c r="J44" s="117"/>
+      <c r="K44" s="117"/>
+      <c r="L44" s="117"/>
+      <c r="M44" s="117"/>
+      <c r="N44" s="117"/>
+      <c r="O44" s="117"/>
+      <c r="P44" s="117"/>
+      <c r="Q44" s="117"/>
+      <c r="R44" s="101"/>
+      <c r="S44" s="101"/>
+      <c r="T44" s="101"/>
+      <c r="U44" s="101"/>
+      <c r="V44" s="101"/>
+      <c r="W44" s="101"/>
+      <c r="X44" s="101"/>
+      <c r="Y44" s="101"/>
+      <c r="Z44" s="96"/>
+      <c r="AA44" s="96"/>
+      <c r="AB44" s="96"/>
+      <c r="AC44" s="96"/>
+      <c r="AD44" s="96"/>
+      <c r="AE44" s="96"/>
+      <c r="AF44" s="96"/>
+      <c r="AG44" s="96"/>
+      <c r="AH44" s="96"/>
+      <c r="AI44" s="96"/>
+      <c r="AJ44" s="96"/>
+      <c r="AK44" s="96"/>
+      <c r="AL44" s="96"/>
+      <c r="AM44" s="96"/>
+      <c r="AN44" s="96"/>
+      <c r="AO44" s="96"/>
+      <c r="AP44" s="103"/>
+      <c r="AQ44" s="103"/>
+      <c r="AR44" s="103"/>
+      <c r="AS44" s="103"/>
+      <c r="AT44" s="103"/>
+      <c r="AU44" s="103"/>
+      <c r="AV44" s="103"/>
+      <c r="AW44" s="103"/>
+      <c r="AX44" s="95"/>
+      <c r="AY44" s="95"/>
+      <c r="AZ44" s="95"/>
+      <c r="BA44" s="95"/>
+      <c r="BB44" s="95"/>
+      <c r="BC44" s="95"/>
+      <c r="BD44" s="95"/>
+      <c r="BE44" s="95"/>
+      <c r="BF44" s="95"/>
+      <c r="BG44" s="95"/>
+      <c r="BH44" s="95"/>
+      <c r="BI44" s="95"/>
+      <c r="BJ44" s="95"/>
+      <c r="BK44" s="95"/>
+      <c r="BL44" s="95"/>
+      <c r="BM44" s="95"/>
+      <c r="BN44" s="95"/>
+      <c r="BO44" s="95"/>
+      <c r="BP44" s="95"/>
+      <c r="BQ44" s="95"/>
+      <c r="BR44" s="95"/>
+      <c r="BS44" s="95"/>
+      <c r="BT44" s="95"/>
+      <c r="BU44" s="95"/>
+      <c r="BV44" s="95"/>
+      <c r="BW44" s="95"/>
+      <c r="BX44" s="95"/>
+      <c r="BY44" s="95"/>
+      <c r="BZ44" s="95"/>
+      <c r="CA44" s="95"/>
+      <c r="CB44" s="95"/>
+      <c r="CC44" s="95"/>
+      <c r="CD44" s="95"/>
+      <c r="CE44" s="95"/>
+      <c r="CF44" s="95"/>
+      <c r="CG44" s="95"/>
+      <c r="CH44" s="95"/>
+      <c r="CI44" s="95"/>
+      <c r="CJ44" s="95"/>
+      <c r="CK44" s="95"/>
+      <c r="CS44" s="90"/>
+      <c r="CT44" s="90"/>
+      <c r="CU44" s="90"/>
+      <c r="CV44" s="90"/>
+      <c r="CW44" s="90"/>
+      <c r="CX44" s="90"/>
+      <c r="CY44" s="90"/>
       <c r="CZ44" s="76"/>
     </row>
-    <row r="45" spans="1:104">
+    <row r="45" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A45" s="63">
         <v>20</v>
       </c>
-      <c r="B45" s="96"/>
-      <c r="C45" s="96"/>
-      <c r="D45" s="96"/>
-      <c r="E45" s="96"/>
-      <c r="F45" s="96"/>
-      <c r="G45" s="96"/>
-      <c r="H45" s="96"/>
-      <c r="I45" s="96"/>
-      <c r="J45" s="98"/>
-      <c r="K45" s="98"/>
-      <c r="L45" s="98"/>
-      <c r="M45" s="98"/>
-      <c r="N45" s="98"/>
-      <c r="O45" s="98"/>
-      <c r="P45" s="98"/>
-      <c r="Q45" s="98"/>
-      <c r="R45" s="94"/>
-      <c r="S45" s="94"/>
-      <c r="T45" s="94"/>
-      <c r="U45" s="94"/>
-      <c r="V45" s="94"/>
-      <c r="W45" s="94"/>
-      <c r="X45" s="94"/>
-      <c r="Y45" s="94"/>
-      <c r="Z45" s="99"/>
-      <c r="AA45" s="99"/>
-      <c r="AB45" s="99"/>
-      <c r="AC45" s="99"/>
-      <c r="AD45" s="99"/>
-      <c r="AE45" s="99"/>
-      <c r="AF45" s="99"/>
-      <c r="AG45" s="99"/>
-      <c r="AH45" s="99"/>
-      <c r="AI45" s="99"/>
-      <c r="AJ45" s="99"/>
-      <c r="AK45" s="99"/>
-      <c r="AL45" s="99"/>
-      <c r="AM45" s="99"/>
-      <c r="AN45" s="99"/>
-      <c r="AO45" s="99"/>
-      <c r="AP45" s="100"/>
-      <c r="AQ45" s="100"/>
-      <c r="AR45" s="100"/>
-      <c r="AS45" s="100"/>
-      <c r="AT45" s="100"/>
-      <c r="AU45" s="100"/>
-      <c r="AV45" s="100"/>
-      <c r="AW45" s="100"/>
-      <c r="AX45" s="90"/>
-      <c r="AY45" s="90"/>
-      <c r="AZ45" s="90"/>
-      <c r="BA45" s="90"/>
-      <c r="BB45" s="90"/>
-      <c r="BC45" s="90"/>
-      <c r="BD45" s="90"/>
-      <c r="BE45" s="90"/>
-      <c r="BF45" s="90"/>
-      <c r="BG45" s="90"/>
-      <c r="BH45" s="90"/>
-      <c r="BI45" s="90"/>
-      <c r="BJ45" s="90"/>
-      <c r="BK45" s="90"/>
-      <c r="BL45" s="90"/>
-      <c r="BM45" s="90"/>
-      <c r="BN45" s="90"/>
-      <c r="BO45" s="90"/>
-      <c r="BP45" s="90"/>
-      <c r="BQ45" s="90"/>
-      <c r="BR45" s="90"/>
-      <c r="BS45" s="90"/>
-      <c r="BT45" s="90"/>
-      <c r="BU45" s="90"/>
-      <c r="BV45" s="90"/>
-      <c r="BW45" s="90"/>
-      <c r="BX45" s="90"/>
-      <c r="BY45" s="90"/>
-      <c r="BZ45" s="90"/>
-      <c r="CA45" s="90"/>
-      <c r="CB45" s="90"/>
-      <c r="CC45" s="90"/>
-      <c r="CD45" s="90"/>
-      <c r="CE45" s="90"/>
-      <c r="CF45" s="90"/>
-      <c r="CG45" s="90"/>
-      <c r="CH45" s="90"/>
-      <c r="CI45" s="90"/>
-      <c r="CJ45" s="90"/>
-      <c r="CK45" s="90"/>
-      <c r="CS45" s="95"/>
-      <c r="CT45" s="95"/>
-      <c r="CU45" s="95"/>
-      <c r="CV45" s="95"/>
-      <c r="CW45" s="95"/>
-      <c r="CX45" s="95"/>
-      <c r="CY45" s="95"/>
+      <c r="B45" s="91"/>
+      <c r="C45" s="91"/>
+      <c r="D45" s="91"/>
+      <c r="E45" s="91"/>
+      <c r="F45" s="91"/>
+      <c r="G45" s="91"/>
+      <c r="H45" s="91"/>
+      <c r="I45" s="91"/>
+      <c r="J45" s="117"/>
+      <c r="K45" s="117"/>
+      <c r="L45" s="117"/>
+      <c r="M45" s="117"/>
+      <c r="N45" s="117"/>
+      <c r="O45" s="117"/>
+      <c r="P45" s="117"/>
+      <c r="Q45" s="117"/>
+      <c r="R45" s="101"/>
+      <c r="S45" s="101"/>
+      <c r="T45" s="101"/>
+      <c r="U45" s="101"/>
+      <c r="V45" s="101"/>
+      <c r="W45" s="101"/>
+      <c r="X45" s="101"/>
+      <c r="Y45" s="101"/>
+      <c r="Z45" s="96"/>
+      <c r="AA45" s="96"/>
+      <c r="AB45" s="96"/>
+      <c r="AC45" s="96"/>
+      <c r="AD45" s="96"/>
+      <c r="AE45" s="96"/>
+      <c r="AF45" s="96"/>
+      <c r="AG45" s="96"/>
+      <c r="AH45" s="96"/>
+      <c r="AI45" s="96"/>
+      <c r="AJ45" s="96"/>
+      <c r="AK45" s="96"/>
+      <c r="AL45" s="96"/>
+      <c r="AM45" s="96"/>
+      <c r="AN45" s="96"/>
+      <c r="AO45" s="96"/>
+      <c r="AP45" s="103"/>
+      <c r="AQ45" s="103"/>
+      <c r="AR45" s="103"/>
+      <c r="AS45" s="103"/>
+      <c r="AT45" s="103"/>
+      <c r="AU45" s="103"/>
+      <c r="AV45" s="103"/>
+      <c r="AW45" s="103"/>
+      <c r="AX45" s="95"/>
+      <c r="AY45" s="95"/>
+      <c r="AZ45" s="95"/>
+      <c r="BA45" s="95"/>
+      <c r="BB45" s="95"/>
+      <c r="BC45" s="95"/>
+      <c r="BD45" s="95"/>
+      <c r="BE45" s="95"/>
+      <c r="BF45" s="95"/>
+      <c r="BG45" s="95"/>
+      <c r="BH45" s="95"/>
+      <c r="BI45" s="95"/>
+      <c r="BJ45" s="95"/>
+      <c r="BK45" s="95"/>
+      <c r="BL45" s="95"/>
+      <c r="BM45" s="95"/>
+      <c r="BN45" s="95"/>
+      <c r="BO45" s="95"/>
+      <c r="BP45" s="95"/>
+      <c r="BQ45" s="95"/>
+      <c r="BR45" s="95"/>
+      <c r="BS45" s="95"/>
+      <c r="BT45" s="95"/>
+      <c r="BU45" s="95"/>
+      <c r="BV45" s="95"/>
+      <c r="BW45" s="95"/>
+      <c r="BX45" s="95"/>
+      <c r="BY45" s="95"/>
+      <c r="BZ45" s="95"/>
+      <c r="CA45" s="95"/>
+      <c r="CB45" s="95"/>
+      <c r="CC45" s="95"/>
+      <c r="CD45" s="95"/>
+      <c r="CE45" s="95"/>
+      <c r="CF45" s="95"/>
+      <c r="CG45" s="95"/>
+      <c r="CH45" s="95"/>
+      <c r="CI45" s="95"/>
+      <c r="CJ45" s="95"/>
+      <c r="CK45" s="95"/>
+      <c r="CS45" s="90"/>
+      <c r="CT45" s="90"/>
+      <c r="CU45" s="90"/>
+      <c r="CV45" s="90"/>
+      <c r="CW45" s="90"/>
+      <c r="CX45" s="90"/>
+      <c r="CY45" s="90"/>
       <c r="CZ45" s="76"/>
     </row>
-    <row r="46" spans="1:104">
+    <row r="46" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A46" s="63">
         <v>21</v>
       </c>
-      <c r="B46" s="96"/>
-      <c r="C46" s="96"/>
-      <c r="D46" s="96"/>
-      <c r="E46" s="96"/>
-      <c r="F46" s="96"/>
-      <c r="G46" s="96"/>
-      <c r="H46" s="96"/>
-      <c r="I46" s="96"/>
-      <c r="J46" s="98"/>
-      <c r="K46" s="98"/>
-      <c r="L46" s="98"/>
-      <c r="M46" s="98"/>
-      <c r="N46" s="98"/>
-      <c r="O46" s="98"/>
-      <c r="P46" s="98"/>
-      <c r="Q46" s="98"/>
-      <c r="R46" s="94"/>
-      <c r="S46" s="94"/>
-      <c r="T46" s="94"/>
-      <c r="U46" s="94"/>
-      <c r="V46" s="94"/>
-      <c r="W46" s="94"/>
-      <c r="X46" s="94"/>
-      <c r="Y46" s="94"/>
-      <c r="Z46" s="99"/>
-      <c r="AA46" s="99"/>
-      <c r="AB46" s="99"/>
-      <c r="AC46" s="99"/>
-      <c r="AD46" s="99"/>
-      <c r="AE46" s="99"/>
-      <c r="AF46" s="99"/>
-      <c r="AG46" s="99"/>
-      <c r="AH46" s="99"/>
-      <c r="AI46" s="99"/>
-      <c r="AJ46" s="99"/>
-      <c r="AK46" s="99"/>
-      <c r="AL46" s="99"/>
-      <c r="AM46" s="99"/>
-      <c r="AN46" s="99"/>
-      <c r="AO46" s="99"/>
-      <c r="AP46" s="100"/>
-      <c r="AQ46" s="100"/>
-      <c r="AR46" s="100"/>
-      <c r="AS46" s="100"/>
-      <c r="AT46" s="100"/>
-      <c r="AU46" s="100"/>
-      <c r="AV46" s="100"/>
-      <c r="AW46" s="100"/>
-      <c r="AX46" s="90"/>
-      <c r="AY46" s="90"/>
-      <c r="AZ46" s="90"/>
-      <c r="BA46" s="90"/>
-      <c r="BB46" s="90"/>
-      <c r="BC46" s="90"/>
-      <c r="BD46" s="90"/>
-      <c r="BE46" s="90"/>
-      <c r="BF46" s="90"/>
-      <c r="BG46" s="90"/>
-      <c r="BH46" s="90"/>
-      <c r="BI46" s="90"/>
-      <c r="BJ46" s="90"/>
-      <c r="BK46" s="90"/>
-      <c r="BL46" s="90"/>
-      <c r="BM46" s="90"/>
-      <c r="BN46" s="90"/>
-      <c r="BO46" s="90"/>
-      <c r="BP46" s="90"/>
-      <c r="BQ46" s="90"/>
-      <c r="BR46" s="90"/>
-      <c r="BS46" s="90"/>
-      <c r="BT46" s="90"/>
-      <c r="BU46" s="90"/>
-      <c r="BV46" s="90"/>
-      <c r="BW46" s="90"/>
-      <c r="BX46" s="90"/>
-      <c r="BY46" s="90"/>
-      <c r="BZ46" s="90"/>
-      <c r="CA46" s="90"/>
-      <c r="CB46" s="90"/>
-      <c r="CC46" s="90"/>
-      <c r="CD46" s="90"/>
-      <c r="CE46" s="90"/>
-      <c r="CF46" s="90"/>
-      <c r="CG46" s="90"/>
-      <c r="CH46" s="90"/>
-      <c r="CI46" s="90"/>
-      <c r="CJ46" s="90"/>
-      <c r="CK46" s="90"/>
-      <c r="CS46" s="95"/>
-      <c r="CT46" s="95"/>
-      <c r="CU46" s="95"/>
-      <c r="CV46" s="95"/>
-      <c r="CW46" s="95"/>
-      <c r="CX46" s="95"/>
-      <c r="CY46" s="95"/>
+      <c r="B46" s="91"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="91"/>
+      <c r="E46" s="91"/>
+      <c r="F46" s="91"/>
+      <c r="G46" s="91"/>
+      <c r="H46" s="91"/>
+      <c r="I46" s="91"/>
+      <c r="J46" s="117"/>
+      <c r="K46" s="117"/>
+      <c r="L46" s="117"/>
+      <c r="M46" s="117"/>
+      <c r="N46" s="117"/>
+      <c r="O46" s="117"/>
+      <c r="P46" s="117"/>
+      <c r="Q46" s="117"/>
+      <c r="R46" s="101"/>
+      <c r="S46" s="101"/>
+      <c r="T46" s="101"/>
+      <c r="U46" s="101"/>
+      <c r="V46" s="101"/>
+      <c r="W46" s="101"/>
+      <c r="X46" s="101"/>
+      <c r="Y46" s="101"/>
+      <c r="Z46" s="96"/>
+      <c r="AA46" s="96"/>
+      <c r="AB46" s="96"/>
+      <c r="AC46" s="96"/>
+      <c r="AD46" s="96"/>
+      <c r="AE46" s="96"/>
+      <c r="AF46" s="96"/>
+      <c r="AG46" s="96"/>
+      <c r="AH46" s="96"/>
+      <c r="AI46" s="96"/>
+      <c r="AJ46" s="96"/>
+      <c r="AK46" s="96"/>
+      <c r="AL46" s="96"/>
+      <c r="AM46" s="96"/>
+      <c r="AN46" s="96"/>
+      <c r="AO46" s="96"/>
+      <c r="AP46" s="103"/>
+      <c r="AQ46" s="103"/>
+      <c r="AR46" s="103"/>
+      <c r="AS46" s="103"/>
+      <c r="AT46" s="103"/>
+      <c r="AU46" s="103"/>
+      <c r="AV46" s="103"/>
+      <c r="AW46" s="103"/>
+      <c r="AX46" s="95"/>
+      <c r="AY46" s="95"/>
+      <c r="AZ46" s="95"/>
+      <c r="BA46" s="95"/>
+      <c r="BB46" s="95"/>
+      <c r="BC46" s="95"/>
+      <c r="BD46" s="95"/>
+      <c r="BE46" s="95"/>
+      <c r="BF46" s="95"/>
+      <c r="BG46" s="95"/>
+      <c r="BH46" s="95"/>
+      <c r="BI46" s="95"/>
+      <c r="BJ46" s="95"/>
+      <c r="BK46" s="95"/>
+      <c r="BL46" s="95"/>
+      <c r="BM46" s="95"/>
+      <c r="BN46" s="95"/>
+      <c r="BO46" s="95"/>
+      <c r="BP46" s="95"/>
+      <c r="BQ46" s="95"/>
+      <c r="BR46" s="95"/>
+      <c r="BS46" s="95"/>
+      <c r="BT46" s="95"/>
+      <c r="BU46" s="95"/>
+      <c r="BV46" s="95"/>
+      <c r="BW46" s="95"/>
+      <c r="BX46" s="95"/>
+      <c r="BY46" s="95"/>
+      <c r="BZ46" s="95"/>
+      <c r="CA46" s="95"/>
+      <c r="CB46" s="95"/>
+      <c r="CC46" s="95"/>
+      <c r="CD46" s="95"/>
+      <c r="CE46" s="95"/>
+      <c r="CF46" s="95"/>
+      <c r="CG46" s="95"/>
+      <c r="CH46" s="95"/>
+      <c r="CI46" s="95"/>
+      <c r="CJ46" s="95"/>
+      <c r="CK46" s="95"/>
+      <c r="CS46" s="90"/>
+      <c r="CT46" s="90"/>
+      <c r="CU46" s="90"/>
+      <c r="CV46" s="90"/>
+      <c r="CW46" s="90"/>
+      <c r="CX46" s="90"/>
+      <c r="CY46" s="90"/>
       <c r="CZ46" s="76"/>
     </row>
-    <row r="47" spans="1:104">
+    <row r="47" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A47" s="63">
         <v>22</v>
       </c>
-      <c r="B47" s="96"/>
-      <c r="C47" s="96"/>
-      <c r="D47" s="96"/>
-      <c r="E47" s="96"/>
-      <c r="F47" s="96"/>
-      <c r="G47" s="96"/>
-      <c r="H47" s="96"/>
-      <c r="I47" s="96"/>
-      <c r="J47" s="98"/>
-      <c r="K47" s="98"/>
-      <c r="L47" s="98"/>
-      <c r="M47" s="98"/>
-      <c r="N47" s="98"/>
-      <c r="O47" s="98"/>
-      <c r="P47" s="98"/>
-      <c r="Q47" s="98"/>
-      <c r="R47" s="94"/>
-      <c r="S47" s="94"/>
-      <c r="T47" s="94"/>
-      <c r="U47" s="94"/>
-      <c r="V47" s="94"/>
-      <c r="W47" s="94"/>
-      <c r="X47" s="94"/>
-      <c r="Y47" s="94"/>
-      <c r="Z47" s="99"/>
-      <c r="AA47" s="99"/>
-      <c r="AB47" s="99"/>
-      <c r="AC47" s="99"/>
-      <c r="AD47" s="99"/>
-      <c r="AE47" s="99"/>
-      <c r="AF47" s="99"/>
-      <c r="AG47" s="99"/>
-      <c r="AH47" s="99"/>
-      <c r="AI47" s="99"/>
-      <c r="AJ47" s="99"/>
-      <c r="AK47" s="99"/>
-      <c r="AL47" s="99"/>
-      <c r="AM47" s="99"/>
-      <c r="AN47" s="99"/>
-      <c r="AO47" s="99"/>
-      <c r="AP47" s="100"/>
-      <c r="AQ47" s="100"/>
-      <c r="AR47" s="100"/>
-      <c r="AS47" s="100"/>
-      <c r="AT47" s="100"/>
-      <c r="AU47" s="100"/>
-      <c r="AV47" s="100"/>
-      <c r="AW47" s="100"/>
-      <c r="AX47" s="90"/>
-      <c r="AY47" s="90"/>
-      <c r="AZ47" s="90"/>
-      <c r="BA47" s="90"/>
-      <c r="BB47" s="90"/>
-      <c r="BC47" s="90"/>
-      <c r="BD47" s="90"/>
-      <c r="BE47" s="90"/>
-      <c r="BF47" s="90"/>
-      <c r="BG47" s="90"/>
-      <c r="BH47" s="90"/>
-      <c r="BI47" s="90"/>
-      <c r="BJ47" s="90"/>
-      <c r="BK47" s="90"/>
-      <c r="BL47" s="90"/>
-      <c r="BM47" s="90"/>
-      <c r="BN47" s="90"/>
-      <c r="BO47" s="90"/>
-      <c r="BP47" s="90"/>
-      <c r="BQ47" s="90"/>
-      <c r="BR47" s="90"/>
-      <c r="BS47" s="90"/>
-      <c r="BT47" s="90"/>
-      <c r="BU47" s="90"/>
-      <c r="BV47" s="90"/>
-      <c r="BW47" s="90"/>
-      <c r="BX47" s="90"/>
-      <c r="BY47" s="90"/>
-      <c r="BZ47" s="90"/>
-      <c r="CA47" s="90"/>
-      <c r="CB47" s="90"/>
-      <c r="CC47" s="90"/>
-      <c r="CD47" s="90"/>
-      <c r="CE47" s="90"/>
-      <c r="CF47" s="90"/>
-      <c r="CG47" s="90"/>
-      <c r="CH47" s="90"/>
-      <c r="CI47" s="90"/>
-      <c r="CJ47" s="90"/>
-      <c r="CK47" s="90"/>
-      <c r="CS47" s="95"/>
-      <c r="CT47" s="95"/>
-      <c r="CU47" s="95"/>
-      <c r="CV47" s="95"/>
-      <c r="CW47" s="95"/>
-      <c r="CX47" s="95"/>
-      <c r="CY47" s="95"/>
+      <c r="B47" s="91"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="91"/>
+      <c r="E47" s="91"/>
+      <c r="F47" s="91"/>
+      <c r="G47" s="91"/>
+      <c r="H47" s="91"/>
+      <c r="I47" s="91"/>
+      <c r="J47" s="117"/>
+      <c r="K47" s="117"/>
+      <c r="L47" s="117"/>
+      <c r="M47" s="117"/>
+      <c r="N47" s="117"/>
+      <c r="O47" s="117"/>
+      <c r="P47" s="117"/>
+      <c r="Q47" s="117"/>
+      <c r="R47" s="101"/>
+      <c r="S47" s="101"/>
+      <c r="T47" s="101"/>
+      <c r="U47" s="101"/>
+      <c r="V47" s="101"/>
+      <c r="W47" s="101"/>
+      <c r="X47" s="101"/>
+      <c r="Y47" s="101"/>
+      <c r="Z47" s="96"/>
+      <c r="AA47" s="96"/>
+      <c r="AB47" s="96"/>
+      <c r="AC47" s="96"/>
+      <c r="AD47" s="96"/>
+      <c r="AE47" s="96"/>
+      <c r="AF47" s="96"/>
+      <c r="AG47" s="96"/>
+      <c r="AH47" s="96"/>
+      <c r="AI47" s="96"/>
+      <c r="AJ47" s="96"/>
+      <c r="AK47" s="96"/>
+      <c r="AL47" s="96"/>
+      <c r="AM47" s="96"/>
+      <c r="AN47" s="96"/>
+      <c r="AO47" s="96"/>
+      <c r="AP47" s="103"/>
+      <c r="AQ47" s="103"/>
+      <c r="AR47" s="103"/>
+      <c r="AS47" s="103"/>
+      <c r="AT47" s="103"/>
+      <c r="AU47" s="103"/>
+      <c r="AV47" s="103"/>
+      <c r="AW47" s="103"/>
+      <c r="AX47" s="95"/>
+      <c r="AY47" s="95"/>
+      <c r="AZ47" s="95"/>
+      <c r="BA47" s="95"/>
+      <c r="BB47" s="95"/>
+      <c r="BC47" s="95"/>
+      <c r="BD47" s="95"/>
+      <c r="BE47" s="95"/>
+      <c r="BF47" s="95"/>
+      <c r="BG47" s="95"/>
+      <c r="BH47" s="95"/>
+      <c r="BI47" s="95"/>
+      <c r="BJ47" s="95"/>
+      <c r="BK47" s="95"/>
+      <c r="BL47" s="95"/>
+      <c r="BM47" s="95"/>
+      <c r="BN47" s="95"/>
+      <c r="BO47" s="95"/>
+      <c r="BP47" s="95"/>
+      <c r="BQ47" s="95"/>
+      <c r="BR47" s="95"/>
+      <c r="BS47" s="95"/>
+      <c r="BT47" s="95"/>
+      <c r="BU47" s="95"/>
+      <c r="BV47" s="95"/>
+      <c r="BW47" s="95"/>
+      <c r="BX47" s="95"/>
+      <c r="BY47" s="95"/>
+      <c r="BZ47" s="95"/>
+      <c r="CA47" s="95"/>
+      <c r="CB47" s="95"/>
+      <c r="CC47" s="95"/>
+      <c r="CD47" s="95"/>
+      <c r="CE47" s="95"/>
+      <c r="CF47" s="95"/>
+      <c r="CG47" s="95"/>
+      <c r="CH47" s="95"/>
+      <c r="CI47" s="95"/>
+      <c r="CJ47" s="95"/>
+      <c r="CK47" s="95"/>
+      <c r="CS47" s="90"/>
+      <c r="CT47" s="90"/>
+      <c r="CU47" s="90"/>
+      <c r="CV47" s="90"/>
+      <c r="CW47" s="90"/>
+      <c r="CX47" s="90"/>
+      <c r="CY47" s="90"/>
       <c r="CZ47" s="76"/>
     </row>
-    <row r="48" spans="1:104">
+    <row r="48" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A48" s="63">
         <v>23</v>
       </c>
-      <c r="B48" s="96"/>
-      <c r="C48" s="96"/>
-      <c r="D48" s="96"/>
-      <c r="E48" s="96"/>
-      <c r="F48" s="96"/>
-      <c r="G48" s="96"/>
-      <c r="H48" s="96"/>
-      <c r="I48" s="96"/>
-      <c r="J48" s="98"/>
-      <c r="K48" s="98"/>
-      <c r="L48" s="98"/>
-      <c r="M48" s="98"/>
-      <c r="N48" s="98"/>
-      <c r="O48" s="98"/>
-      <c r="P48" s="98"/>
-      <c r="Q48" s="98"/>
-      <c r="R48" s="94"/>
-      <c r="S48" s="94"/>
-      <c r="T48" s="94"/>
-      <c r="U48" s="94"/>
-      <c r="V48" s="94"/>
-      <c r="W48" s="94"/>
-      <c r="X48" s="94"/>
-      <c r="Y48" s="94"/>
-      <c r="Z48" s="99"/>
-      <c r="AA48" s="99"/>
-      <c r="AB48" s="99"/>
-      <c r="AC48" s="99"/>
-      <c r="AD48" s="99"/>
-      <c r="AE48" s="99"/>
-      <c r="AF48" s="99"/>
-      <c r="AG48" s="99"/>
-      <c r="AH48" s="99"/>
-      <c r="AI48" s="99"/>
-      <c r="AJ48" s="99"/>
-      <c r="AK48" s="99"/>
-      <c r="AL48" s="99"/>
-      <c r="AM48" s="99"/>
-      <c r="AN48" s="99"/>
-      <c r="AO48" s="99"/>
-      <c r="AP48" s="100"/>
-      <c r="AQ48" s="100"/>
-      <c r="AR48" s="100"/>
-      <c r="AS48" s="100"/>
-      <c r="AT48" s="100"/>
-      <c r="AU48" s="100"/>
-      <c r="AV48" s="100"/>
-      <c r="AW48" s="100"/>
-      <c r="AX48" s="90"/>
-      <c r="AY48" s="90"/>
-      <c r="AZ48" s="90"/>
-      <c r="BA48" s="90"/>
-      <c r="BB48" s="90"/>
-      <c r="BC48" s="90"/>
-      <c r="BD48" s="90"/>
-      <c r="BE48" s="90"/>
-      <c r="BF48" s="90"/>
-      <c r="BG48" s="90"/>
-      <c r="BH48" s="90"/>
-      <c r="BI48" s="90"/>
-      <c r="BJ48" s="90"/>
-      <c r="BK48" s="90"/>
-      <c r="BL48" s="90"/>
-      <c r="BM48" s="90"/>
-      <c r="BN48" s="90"/>
-      <c r="BO48" s="90"/>
-      <c r="BP48" s="90"/>
-      <c r="BQ48" s="90"/>
-      <c r="BR48" s="90"/>
-      <c r="BS48" s="90"/>
-      <c r="BT48" s="90"/>
-      <c r="BU48" s="90"/>
-      <c r="BV48" s="90"/>
-      <c r="BW48" s="90"/>
-      <c r="BX48" s="90"/>
-      <c r="BY48" s="90"/>
-      <c r="BZ48" s="90"/>
-      <c r="CA48" s="90"/>
-      <c r="CB48" s="90"/>
-      <c r="CC48" s="90"/>
-      <c r="CD48" s="90"/>
-      <c r="CE48" s="90"/>
-      <c r="CF48" s="90"/>
-      <c r="CG48" s="90"/>
-      <c r="CH48" s="90"/>
-      <c r="CI48" s="90"/>
-      <c r="CJ48" s="90"/>
-      <c r="CK48" s="90"/>
-      <c r="CS48" s="107"/>
-      <c r="CT48" s="107"/>
-      <c r="CU48" s="107"/>
-      <c r="CV48" s="107"/>
-      <c r="CW48" s="107"/>
-      <c r="CX48" s="107"/>
-      <c r="CY48" s="107"/>
+      <c r="B48" s="91"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="91"/>
+      <c r="E48" s="91"/>
+      <c r="F48" s="91"/>
+      <c r="G48" s="91"/>
+      <c r="H48" s="91"/>
+      <c r="I48" s="91"/>
+      <c r="J48" s="117"/>
+      <c r="K48" s="117"/>
+      <c r="L48" s="117"/>
+      <c r="M48" s="117"/>
+      <c r="N48" s="117"/>
+      <c r="O48" s="117"/>
+      <c r="P48" s="117"/>
+      <c r="Q48" s="117"/>
+      <c r="R48" s="101"/>
+      <c r="S48" s="101"/>
+      <c r="T48" s="101"/>
+      <c r="U48" s="101"/>
+      <c r="V48" s="101"/>
+      <c r="W48" s="101"/>
+      <c r="X48" s="101"/>
+      <c r="Y48" s="101"/>
+      <c r="Z48" s="96"/>
+      <c r="AA48" s="96"/>
+      <c r="AB48" s="96"/>
+      <c r="AC48" s="96"/>
+      <c r="AD48" s="96"/>
+      <c r="AE48" s="96"/>
+      <c r="AF48" s="96"/>
+      <c r="AG48" s="96"/>
+      <c r="AH48" s="96"/>
+      <c r="AI48" s="96"/>
+      <c r="AJ48" s="96"/>
+      <c r="AK48" s="96"/>
+      <c r="AL48" s="96"/>
+      <c r="AM48" s="96"/>
+      <c r="AN48" s="96"/>
+      <c r="AO48" s="96"/>
+      <c r="AP48" s="103"/>
+      <c r="AQ48" s="103"/>
+      <c r="AR48" s="103"/>
+      <c r="AS48" s="103"/>
+      <c r="AT48" s="103"/>
+      <c r="AU48" s="103"/>
+      <c r="AV48" s="103"/>
+      <c r="AW48" s="103"/>
+      <c r="AX48" s="95"/>
+      <c r="AY48" s="95"/>
+      <c r="AZ48" s="95"/>
+      <c r="BA48" s="95"/>
+      <c r="BB48" s="95"/>
+      <c r="BC48" s="95"/>
+      <c r="BD48" s="95"/>
+      <c r="BE48" s="95"/>
+      <c r="BF48" s="95"/>
+      <c r="BG48" s="95"/>
+      <c r="BH48" s="95"/>
+      <c r="BI48" s="95"/>
+      <c r="BJ48" s="95"/>
+      <c r="BK48" s="95"/>
+      <c r="BL48" s="95"/>
+      <c r="BM48" s="95"/>
+      <c r="BN48" s="95"/>
+      <c r="BO48" s="95"/>
+      <c r="BP48" s="95"/>
+      <c r="BQ48" s="95"/>
+      <c r="BR48" s="95"/>
+      <c r="BS48" s="95"/>
+      <c r="BT48" s="95"/>
+      <c r="BU48" s="95"/>
+      <c r="BV48" s="95"/>
+      <c r="BW48" s="95"/>
+      <c r="BX48" s="95"/>
+      <c r="BY48" s="95"/>
+      <c r="BZ48" s="95"/>
+      <c r="CA48" s="95"/>
+      <c r="CB48" s="95"/>
+      <c r="CC48" s="95"/>
+      <c r="CD48" s="95"/>
+      <c r="CE48" s="95"/>
+      <c r="CF48" s="95"/>
+      <c r="CG48" s="95"/>
+      <c r="CH48" s="95"/>
+      <c r="CI48" s="95"/>
+      <c r="CJ48" s="95"/>
+      <c r="CK48" s="95"/>
+      <c r="CS48" s="89"/>
+      <c r="CT48" s="89"/>
+      <c r="CU48" s="89"/>
+      <c r="CV48" s="89"/>
+      <c r="CW48" s="89"/>
+      <c r="CX48" s="89"/>
+      <c r="CY48" s="89"/>
       <c r="CZ48" s="76"/>
     </row>
-    <row r="49" spans="1:104">
+    <row r="49" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A49" s="63">
         <v>24</v>
       </c>
-      <c r="B49" s="96"/>
-      <c r="C49" s="96"/>
-      <c r="D49" s="96"/>
-      <c r="E49" s="96"/>
-      <c r="F49" s="96"/>
-      <c r="G49" s="96"/>
-      <c r="H49" s="96"/>
-      <c r="I49" s="96"/>
-      <c r="J49" s="98"/>
-      <c r="K49" s="98"/>
-      <c r="L49" s="98"/>
-      <c r="M49" s="98"/>
-      <c r="N49" s="98"/>
-      <c r="O49" s="98"/>
-      <c r="P49" s="98"/>
-      <c r="Q49" s="98"/>
-      <c r="R49" s="94"/>
-      <c r="S49" s="94"/>
-      <c r="T49" s="94"/>
-      <c r="U49" s="94"/>
-      <c r="V49" s="94"/>
-      <c r="W49" s="94"/>
-      <c r="X49" s="94"/>
-      <c r="Y49" s="94"/>
-      <c r="Z49" s="99"/>
-      <c r="AA49" s="99"/>
-      <c r="AB49" s="99"/>
-      <c r="AC49" s="99"/>
-      <c r="AD49" s="99"/>
-      <c r="AE49" s="99"/>
-      <c r="AF49" s="99"/>
-      <c r="AG49" s="99"/>
-      <c r="AH49" s="99"/>
-      <c r="AI49" s="99"/>
-      <c r="AJ49" s="99"/>
-      <c r="AK49" s="99"/>
-      <c r="AL49" s="99"/>
-      <c r="AM49" s="99"/>
-      <c r="AN49" s="99"/>
-      <c r="AO49" s="99"/>
-      <c r="AP49" s="100"/>
-      <c r="AQ49" s="100"/>
-      <c r="AR49" s="100"/>
-      <c r="AS49" s="100"/>
-      <c r="AT49" s="100"/>
-      <c r="AU49" s="100"/>
-      <c r="AV49" s="100"/>
-      <c r="AW49" s="100"/>
-      <c r="AX49" s="90"/>
-      <c r="AY49" s="90"/>
-      <c r="AZ49" s="90"/>
-      <c r="BA49" s="90"/>
-      <c r="BB49" s="90"/>
-      <c r="BC49" s="90"/>
-      <c r="BD49" s="90"/>
-      <c r="BE49" s="90"/>
-      <c r="BF49" s="90"/>
-      <c r="BG49" s="90"/>
-      <c r="BH49" s="90"/>
-      <c r="BI49" s="90"/>
-      <c r="BJ49" s="90"/>
-      <c r="BK49" s="90"/>
-      <c r="BL49" s="90"/>
-      <c r="BM49" s="90"/>
-      <c r="BN49" s="90"/>
-      <c r="BO49" s="90"/>
-      <c r="BP49" s="90"/>
-      <c r="BQ49" s="90"/>
-      <c r="BR49" s="90"/>
-      <c r="BS49" s="90"/>
-      <c r="BT49" s="90"/>
-      <c r="BU49" s="90"/>
+      <c r="B49" s="91"/>
+      <c r="C49" s="91"/>
+      <c r="D49" s="91"/>
+      <c r="E49" s="91"/>
+      <c r="F49" s="91"/>
+      <c r="G49" s="91"/>
+      <c r="H49" s="91"/>
+      <c r="I49" s="91"/>
+      <c r="J49" s="117"/>
+      <c r="K49" s="117"/>
+      <c r="L49" s="117"/>
+      <c r="M49" s="117"/>
+      <c r="N49" s="117"/>
+      <c r="O49" s="117"/>
+      <c r="P49" s="117"/>
+      <c r="Q49" s="117"/>
+      <c r="R49" s="101"/>
+      <c r="S49" s="101"/>
+      <c r="T49" s="101"/>
+      <c r="U49" s="101"/>
+      <c r="V49" s="101"/>
+      <c r="W49" s="101"/>
+      <c r="X49" s="101"/>
+      <c r="Y49" s="101"/>
+      <c r="Z49" s="96"/>
+      <c r="AA49" s="96"/>
+      <c r="AB49" s="96"/>
+      <c r="AC49" s="96"/>
+      <c r="AD49" s="96"/>
+      <c r="AE49" s="96"/>
+      <c r="AF49" s="96"/>
+      <c r="AG49" s="96"/>
+      <c r="AH49" s="96"/>
+      <c r="AI49" s="96"/>
+      <c r="AJ49" s="96"/>
+      <c r="AK49" s="96"/>
+      <c r="AL49" s="96"/>
+      <c r="AM49" s="96"/>
+      <c r="AN49" s="96"/>
+      <c r="AO49" s="96"/>
+      <c r="AP49" s="103"/>
+      <c r="AQ49" s="103"/>
+      <c r="AR49" s="103"/>
+      <c r="AS49" s="103"/>
+      <c r="AT49" s="103"/>
+      <c r="AU49" s="103"/>
+      <c r="AV49" s="103"/>
+      <c r="AW49" s="103"/>
+      <c r="AX49" s="95"/>
+      <c r="AY49" s="95"/>
+      <c r="AZ49" s="95"/>
+      <c r="BA49" s="95"/>
+      <c r="BB49" s="95"/>
+      <c r="BC49" s="95"/>
+      <c r="BD49" s="95"/>
+      <c r="BE49" s="95"/>
+      <c r="BF49" s="95"/>
+      <c r="BG49" s="95"/>
+      <c r="BH49" s="95"/>
+      <c r="BI49" s="95"/>
+      <c r="BJ49" s="95"/>
+      <c r="BK49" s="95"/>
+      <c r="BL49" s="95"/>
+      <c r="BM49" s="95"/>
+      <c r="BN49" s="95"/>
+      <c r="BO49" s="95"/>
+      <c r="BP49" s="95"/>
+      <c r="BQ49" s="95"/>
+      <c r="BR49" s="95"/>
+      <c r="BS49" s="95"/>
+      <c r="BT49" s="95"/>
+      <c r="BU49" s="95"/>
       <c r="BV49" s="73"/>
       <c r="BW49" s="73"/>
       <c r="BX49" s="73"/>
@@ -5718,99 +5720,99 @@
       <c r="CA49" s="73"/>
       <c r="CB49" s="73"/>
       <c r="CC49" s="73"/>
-      <c r="CD49" s="90"/>
-      <c r="CE49" s="90"/>
-      <c r="CF49" s="90"/>
-      <c r="CG49" s="90"/>
-      <c r="CH49" s="90"/>
-      <c r="CI49" s="90"/>
-      <c r="CJ49" s="90"/>
-      <c r="CK49" s="90"/>
-      <c r="CS49" s="107"/>
-      <c r="CT49" s="107"/>
-      <c r="CU49" s="107"/>
-      <c r="CV49" s="107"/>
-      <c r="CW49" s="107"/>
-      <c r="CX49" s="107"/>
-      <c r="CY49" s="107"/>
+      <c r="CD49" s="95"/>
+      <c r="CE49" s="95"/>
+      <c r="CF49" s="95"/>
+      <c r="CG49" s="95"/>
+      <c r="CH49" s="95"/>
+      <c r="CI49" s="95"/>
+      <c r="CJ49" s="95"/>
+      <c r="CK49" s="95"/>
+      <c r="CS49" s="89"/>
+      <c r="CT49" s="89"/>
+      <c r="CU49" s="89"/>
+      <c r="CV49" s="89"/>
+      <c r="CW49" s="89"/>
+      <c r="CX49" s="89"/>
+      <c r="CY49" s="89"/>
       <c r="CZ49" s="76"/>
     </row>
-    <row r="50" spans="1:104">
+    <row r="50" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A50" s="63">
         <v>25</v>
       </c>
-      <c r="B50" s="96"/>
-      <c r="C50" s="96"/>
-      <c r="D50" s="96"/>
-      <c r="E50" s="96"/>
-      <c r="F50" s="96"/>
-      <c r="G50" s="96"/>
-      <c r="H50" s="96"/>
-      <c r="I50" s="96"/>
-      <c r="J50" s="98"/>
-      <c r="K50" s="98"/>
-      <c r="L50" s="98"/>
-      <c r="M50" s="98"/>
-      <c r="N50" s="98"/>
-      <c r="O50" s="98"/>
-      <c r="P50" s="98"/>
-      <c r="Q50" s="98"/>
-      <c r="R50" s="94"/>
-      <c r="S50" s="94"/>
-      <c r="T50" s="94"/>
-      <c r="U50" s="94"/>
-      <c r="V50" s="94"/>
-      <c r="W50" s="94"/>
-      <c r="X50" s="94"/>
-      <c r="Y50" s="94"/>
-      <c r="Z50" s="99"/>
-      <c r="AA50" s="99"/>
-      <c r="AB50" s="99"/>
-      <c r="AC50" s="99"/>
-      <c r="AD50" s="99"/>
-      <c r="AE50" s="99"/>
-      <c r="AF50" s="99"/>
-      <c r="AG50" s="99"/>
-      <c r="AH50" s="99"/>
-      <c r="AI50" s="99"/>
-      <c r="AJ50" s="99"/>
-      <c r="AK50" s="99"/>
-      <c r="AL50" s="99"/>
-      <c r="AM50" s="99"/>
-      <c r="AN50" s="99"/>
-      <c r="AO50" s="99"/>
-      <c r="AP50" s="100"/>
-      <c r="AQ50" s="100"/>
-      <c r="AR50" s="100"/>
-      <c r="AS50" s="100"/>
-      <c r="AT50" s="100"/>
-      <c r="AU50" s="100"/>
-      <c r="AV50" s="100"/>
-      <c r="AW50" s="100"/>
-      <c r="AX50" s="90"/>
-      <c r="AY50" s="90"/>
-      <c r="AZ50" s="90"/>
-      <c r="BA50" s="90"/>
-      <c r="BB50" s="90"/>
-      <c r="BC50" s="90"/>
-      <c r="BD50" s="90"/>
-      <c r="BE50" s="90"/>
-      <c r="BF50" s="90"/>
-      <c r="BG50" s="90"/>
-      <c r="BH50" s="90"/>
-      <c r="BI50" s="90"/>
-      <c r="BJ50" s="90"/>
-      <c r="BK50" s="90"/>
-      <c r="BL50" s="90"/>
-      <c r="BM50" s="90"/>
-      <c r="BN50" s="90"/>
-      <c r="BO50" s="90"/>
-      <c r="BP50" s="90"/>
-      <c r="BQ50" s="90"/>
-      <c r="BR50" s="90"/>
-      <c r="BS50" s="90"/>
-      <c r="BT50" s="90"/>
-      <c r="BU50" s="90"/>
+      <c r="B50" s="91"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="91"/>
+      <c r="E50" s="91"/>
+      <c r="F50" s="91"/>
+      <c r="G50" s="91"/>
+      <c r="H50" s="91"/>
+      <c r="I50" s="91"/>
+      <c r="J50" s="117"/>
+      <c r="K50" s="117"/>
+      <c r="L50" s="117"/>
+      <c r="M50" s="117"/>
+      <c r="N50" s="117"/>
+      <c r="O50" s="117"/>
+      <c r="P50" s="117"/>
+      <c r="Q50" s="117"/>
+      <c r="R50" s="101"/>
+      <c r="S50" s="101"/>
+      <c r="T50" s="101"/>
+      <c r="U50" s="101"/>
+      <c r="V50" s="101"/>
+      <c r="W50" s="101"/>
+      <c r="X50" s="101"/>
+      <c r="Y50" s="101"/>
+      <c r="Z50" s="96"/>
+      <c r="AA50" s="96"/>
+      <c r="AB50" s="96"/>
+      <c r="AC50" s="96"/>
+      <c r="AD50" s="96"/>
+      <c r="AE50" s="96"/>
+      <c r="AF50" s="96"/>
+      <c r="AG50" s="96"/>
+      <c r="AH50" s="96"/>
+      <c r="AI50" s="96"/>
+      <c r="AJ50" s="96"/>
+      <c r="AK50" s="96"/>
+      <c r="AL50" s="96"/>
+      <c r="AM50" s="96"/>
+      <c r="AN50" s="96"/>
+      <c r="AO50" s="96"/>
+      <c r="AP50" s="103"/>
+      <c r="AQ50" s="103"/>
+      <c r="AR50" s="103"/>
+      <c r="AS50" s="103"/>
+      <c r="AT50" s="103"/>
+      <c r="AU50" s="103"/>
+      <c r="AV50" s="103"/>
+      <c r="AW50" s="103"/>
+      <c r="AX50" s="95"/>
+      <c r="AY50" s="95"/>
+      <c r="AZ50" s="95"/>
+      <c r="BA50" s="95"/>
+      <c r="BB50" s="95"/>
+      <c r="BC50" s="95"/>
+      <c r="BD50" s="95"/>
+      <c r="BE50" s="95"/>
+      <c r="BF50" s="95"/>
+      <c r="BG50" s="95"/>
+      <c r="BH50" s="95"/>
+      <c r="BI50" s="95"/>
+      <c r="BJ50" s="95"/>
+      <c r="BK50" s="95"/>
+      <c r="BL50" s="95"/>
+      <c r="BM50" s="95"/>
+      <c r="BN50" s="95"/>
+      <c r="BO50" s="95"/>
+      <c r="BP50" s="95"/>
+      <c r="BQ50" s="95"/>
+      <c r="BR50" s="95"/>
+      <c r="BS50" s="95"/>
+      <c r="BT50" s="95"/>
+      <c r="BU50" s="95"/>
       <c r="BV50" s="73"/>
       <c r="BW50" s="73"/>
       <c r="BX50" s="73"/>
@@ -5819,99 +5821,99 @@
       <c r="CA50" s="73"/>
       <c r="CB50" s="73"/>
       <c r="CC50" s="73"/>
-      <c r="CD50" s="90"/>
-      <c r="CE50" s="90"/>
-      <c r="CF50" s="90"/>
-      <c r="CG50" s="90"/>
-      <c r="CH50" s="90"/>
-      <c r="CI50" s="90"/>
-      <c r="CJ50" s="90"/>
-      <c r="CK50" s="90"/>
-      <c r="CS50" s="95"/>
-      <c r="CT50" s="95"/>
-      <c r="CU50" s="95"/>
-      <c r="CV50" s="95"/>
-      <c r="CW50" s="95"/>
-      <c r="CX50" s="95"/>
-      <c r="CY50" s="95"/>
+      <c r="CD50" s="95"/>
+      <c r="CE50" s="95"/>
+      <c r="CF50" s="95"/>
+      <c r="CG50" s="95"/>
+      <c r="CH50" s="95"/>
+      <c r="CI50" s="95"/>
+      <c r="CJ50" s="95"/>
+      <c r="CK50" s="95"/>
+      <c r="CS50" s="90"/>
+      <c r="CT50" s="90"/>
+      <c r="CU50" s="90"/>
+      <c r="CV50" s="90"/>
+      <c r="CW50" s="90"/>
+      <c r="CX50" s="90"/>
+      <c r="CY50" s="90"/>
       <c r="CZ50" s="76"/>
     </row>
-    <row r="51" spans="1:104">
+    <row r="51" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A51" s="63">
         <v>26</v>
       </c>
-      <c r="B51" s="96"/>
-      <c r="C51" s="96"/>
-      <c r="D51" s="96"/>
-      <c r="E51" s="96"/>
-      <c r="F51" s="96"/>
-      <c r="G51" s="96"/>
-      <c r="H51" s="96"/>
-      <c r="I51" s="96"/>
-      <c r="J51" s="98"/>
-      <c r="K51" s="98"/>
-      <c r="L51" s="98"/>
-      <c r="M51" s="98"/>
-      <c r="N51" s="98"/>
-      <c r="O51" s="98"/>
-      <c r="P51" s="98"/>
-      <c r="Q51" s="98"/>
-      <c r="R51" s="94"/>
-      <c r="S51" s="94"/>
-      <c r="T51" s="94"/>
-      <c r="U51" s="94"/>
-      <c r="V51" s="94"/>
-      <c r="W51" s="94"/>
-      <c r="X51" s="94"/>
-      <c r="Y51" s="94"/>
-      <c r="Z51" s="99"/>
-      <c r="AA51" s="99"/>
-      <c r="AB51" s="99"/>
-      <c r="AC51" s="99"/>
-      <c r="AD51" s="99"/>
-      <c r="AE51" s="99"/>
-      <c r="AF51" s="99"/>
-      <c r="AG51" s="99"/>
-      <c r="AH51" s="99"/>
-      <c r="AI51" s="99"/>
-      <c r="AJ51" s="99"/>
-      <c r="AK51" s="99"/>
-      <c r="AL51" s="99"/>
-      <c r="AM51" s="99"/>
-      <c r="AN51" s="99"/>
-      <c r="AO51" s="99"/>
-      <c r="AP51" s="100"/>
-      <c r="AQ51" s="100"/>
-      <c r="AR51" s="100"/>
-      <c r="AS51" s="100"/>
-      <c r="AT51" s="100"/>
-      <c r="AU51" s="100"/>
-      <c r="AV51" s="100"/>
-      <c r="AW51" s="100"/>
-      <c r="AX51" s="90"/>
-      <c r="AY51" s="90"/>
-      <c r="AZ51" s="90"/>
-      <c r="BA51" s="90"/>
-      <c r="BB51" s="90"/>
-      <c r="BC51" s="90"/>
-      <c r="BD51" s="90"/>
-      <c r="BE51" s="90"/>
-      <c r="BF51" s="90"/>
-      <c r="BG51" s="90"/>
-      <c r="BH51" s="90"/>
-      <c r="BI51" s="90"/>
-      <c r="BJ51" s="90"/>
-      <c r="BK51" s="90"/>
-      <c r="BL51" s="90"/>
-      <c r="BM51" s="90"/>
-      <c r="BN51" s="90"/>
-      <c r="BO51" s="90"/>
-      <c r="BP51" s="90"/>
-      <c r="BQ51" s="90"/>
-      <c r="BR51" s="90"/>
-      <c r="BS51" s="90"/>
-      <c r="BT51" s="90"/>
-      <c r="BU51" s="90"/>
+      <c r="B51" s="91"/>
+      <c r="C51" s="91"/>
+      <c r="D51" s="91"/>
+      <c r="E51" s="91"/>
+      <c r="F51" s="91"/>
+      <c r="G51" s="91"/>
+      <c r="H51" s="91"/>
+      <c r="I51" s="91"/>
+      <c r="J51" s="117"/>
+      <c r="K51" s="117"/>
+      <c r="L51" s="117"/>
+      <c r="M51" s="117"/>
+      <c r="N51" s="117"/>
+      <c r="O51" s="117"/>
+      <c r="P51" s="117"/>
+      <c r="Q51" s="117"/>
+      <c r="R51" s="101"/>
+      <c r="S51" s="101"/>
+      <c r="T51" s="101"/>
+      <c r="U51" s="101"/>
+      <c r="V51" s="101"/>
+      <c r="W51" s="101"/>
+      <c r="X51" s="101"/>
+      <c r="Y51" s="101"/>
+      <c r="Z51" s="96"/>
+      <c r="AA51" s="96"/>
+      <c r="AB51" s="96"/>
+      <c r="AC51" s="96"/>
+      <c r="AD51" s="96"/>
+      <c r="AE51" s="96"/>
+      <c r="AF51" s="96"/>
+      <c r="AG51" s="96"/>
+      <c r="AH51" s="96"/>
+      <c r="AI51" s="96"/>
+      <c r="AJ51" s="96"/>
+      <c r="AK51" s="96"/>
+      <c r="AL51" s="96"/>
+      <c r="AM51" s="96"/>
+      <c r="AN51" s="96"/>
+      <c r="AO51" s="96"/>
+      <c r="AP51" s="103"/>
+      <c r="AQ51" s="103"/>
+      <c r="AR51" s="103"/>
+      <c r="AS51" s="103"/>
+      <c r="AT51" s="103"/>
+      <c r="AU51" s="103"/>
+      <c r="AV51" s="103"/>
+      <c r="AW51" s="103"/>
+      <c r="AX51" s="95"/>
+      <c r="AY51" s="95"/>
+      <c r="AZ51" s="95"/>
+      <c r="BA51" s="95"/>
+      <c r="BB51" s="95"/>
+      <c r="BC51" s="95"/>
+      <c r="BD51" s="95"/>
+      <c r="BE51" s="95"/>
+      <c r="BF51" s="95"/>
+      <c r="BG51" s="95"/>
+      <c r="BH51" s="95"/>
+      <c r="BI51" s="95"/>
+      <c r="BJ51" s="95"/>
+      <c r="BK51" s="95"/>
+      <c r="BL51" s="95"/>
+      <c r="BM51" s="95"/>
+      <c r="BN51" s="95"/>
+      <c r="BO51" s="95"/>
+      <c r="BP51" s="95"/>
+      <c r="BQ51" s="95"/>
+      <c r="BR51" s="95"/>
+      <c r="BS51" s="95"/>
+      <c r="BT51" s="95"/>
+      <c r="BU51" s="95"/>
       <c r="BV51" s="73"/>
       <c r="BW51" s="73"/>
       <c r="BX51" s="73"/>
@@ -5920,98 +5922,98 @@
       <c r="CA51" s="73"/>
       <c r="CB51" s="73"/>
       <c r="CC51" s="73"/>
-      <c r="CD51" s="90"/>
-      <c r="CE51" s="90"/>
-      <c r="CF51" s="90"/>
-      <c r="CG51" s="90"/>
-      <c r="CH51" s="90"/>
-      <c r="CI51" s="90"/>
-      <c r="CJ51" s="90"/>
-      <c r="CK51" s="90"/>
-      <c r="CS51" s="107"/>
-      <c r="CT51" s="107"/>
-      <c r="CU51" s="107"/>
-      <c r="CV51" s="107"/>
-      <c r="CW51" s="107"/>
-      <c r="CX51" s="107"/>
-      <c r="CY51" s="107"/>
-    </row>
-    <row r="52" spans="1:104">
+      <c r="CD51" s="95"/>
+      <c r="CE51" s="95"/>
+      <c r="CF51" s="95"/>
+      <c r="CG51" s="95"/>
+      <c r="CH51" s="95"/>
+      <c r="CI51" s="95"/>
+      <c r="CJ51" s="95"/>
+      <c r="CK51" s="95"/>
+      <c r="CS51" s="89"/>
+      <c r="CT51" s="89"/>
+      <c r="CU51" s="89"/>
+      <c r="CV51" s="89"/>
+      <c r="CW51" s="89"/>
+      <c r="CX51" s="89"/>
+      <c r="CY51" s="89"/>
+    </row>
+    <row r="52" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A52" s="63">
         <v>27</v>
       </c>
-      <c r="B52" s="96"/>
-      <c r="C52" s="96"/>
-      <c r="D52" s="96"/>
-      <c r="E52" s="96"/>
-      <c r="F52" s="96"/>
-      <c r="G52" s="96"/>
-      <c r="H52" s="96"/>
-      <c r="I52" s="96"/>
-      <c r="J52" s="98"/>
-      <c r="K52" s="98"/>
-      <c r="L52" s="98"/>
-      <c r="M52" s="98"/>
-      <c r="N52" s="98"/>
-      <c r="O52" s="98"/>
-      <c r="P52" s="98"/>
-      <c r="Q52" s="98"/>
-      <c r="R52" s="94"/>
-      <c r="S52" s="94"/>
-      <c r="T52" s="94"/>
-      <c r="U52" s="94"/>
-      <c r="V52" s="94"/>
-      <c r="W52" s="94"/>
-      <c r="X52" s="94"/>
-      <c r="Y52" s="94"/>
-      <c r="Z52" s="99"/>
-      <c r="AA52" s="99"/>
-      <c r="AB52" s="99"/>
-      <c r="AC52" s="99"/>
-      <c r="AD52" s="99"/>
-      <c r="AE52" s="99"/>
-      <c r="AF52" s="99"/>
-      <c r="AG52" s="99"/>
-      <c r="AH52" s="99"/>
-      <c r="AI52" s="99"/>
-      <c r="AJ52" s="99"/>
-      <c r="AK52" s="99"/>
-      <c r="AL52" s="99"/>
-      <c r="AM52" s="99"/>
-      <c r="AN52" s="99"/>
-      <c r="AO52" s="99"/>
-      <c r="AP52" s="100"/>
-      <c r="AQ52" s="100"/>
-      <c r="AR52" s="100"/>
-      <c r="AS52" s="100"/>
-      <c r="AT52" s="100"/>
-      <c r="AU52" s="100"/>
-      <c r="AV52" s="100"/>
-      <c r="AW52" s="100"/>
-      <c r="AX52" s="90"/>
-      <c r="AY52" s="90"/>
-      <c r="AZ52" s="90"/>
-      <c r="BA52" s="90"/>
-      <c r="BB52" s="90"/>
-      <c r="BC52" s="90"/>
-      <c r="BD52" s="90"/>
-      <c r="BE52" s="90"/>
-      <c r="BF52" s="90"/>
-      <c r="BG52" s="90"/>
-      <c r="BH52" s="90"/>
-      <c r="BI52" s="90"/>
-      <c r="BJ52" s="90"/>
-      <c r="BK52" s="90"/>
-      <c r="BL52" s="90"/>
-      <c r="BM52" s="90"/>
-      <c r="BN52" s="90"/>
-      <c r="BO52" s="90"/>
-      <c r="BP52" s="90"/>
-      <c r="BQ52" s="90"/>
-      <c r="BR52" s="90"/>
-      <c r="BS52" s="90"/>
-      <c r="BT52" s="90"/>
-      <c r="BU52" s="90"/>
+      <c r="B52" s="91"/>
+      <c r="C52" s="91"/>
+      <c r="D52" s="91"/>
+      <c r="E52" s="91"/>
+      <c r="F52" s="91"/>
+      <c r="G52" s="91"/>
+      <c r="H52" s="91"/>
+      <c r="I52" s="91"/>
+      <c r="J52" s="117"/>
+      <c r="K52" s="117"/>
+      <c r="L52" s="117"/>
+      <c r="M52" s="117"/>
+      <c r="N52" s="117"/>
+      <c r="O52" s="117"/>
+      <c r="P52" s="117"/>
+      <c r="Q52" s="117"/>
+      <c r="R52" s="101"/>
+      <c r="S52" s="101"/>
+      <c r="T52" s="101"/>
+      <c r="U52" s="101"/>
+      <c r="V52" s="101"/>
+      <c r="W52" s="101"/>
+      <c r="X52" s="101"/>
+      <c r="Y52" s="101"/>
+      <c r="Z52" s="96"/>
+      <c r="AA52" s="96"/>
+      <c r="AB52" s="96"/>
+      <c r="AC52" s="96"/>
+      <c r="AD52" s="96"/>
+      <c r="AE52" s="96"/>
+      <c r="AF52" s="96"/>
+      <c r="AG52" s="96"/>
+      <c r="AH52" s="96"/>
+      <c r="AI52" s="96"/>
+      <c r="AJ52" s="96"/>
+      <c r="AK52" s="96"/>
+      <c r="AL52" s="96"/>
+      <c r="AM52" s="96"/>
+      <c r="AN52" s="96"/>
+      <c r="AO52" s="96"/>
+      <c r="AP52" s="103"/>
+      <c r="AQ52" s="103"/>
+      <c r="AR52" s="103"/>
+      <c r="AS52" s="103"/>
+      <c r="AT52" s="103"/>
+      <c r="AU52" s="103"/>
+      <c r="AV52" s="103"/>
+      <c r="AW52" s="103"/>
+      <c r="AX52" s="95"/>
+      <c r="AY52" s="95"/>
+      <c r="AZ52" s="95"/>
+      <c r="BA52" s="95"/>
+      <c r="BB52" s="95"/>
+      <c r="BC52" s="95"/>
+      <c r="BD52" s="95"/>
+      <c r="BE52" s="95"/>
+      <c r="BF52" s="95"/>
+      <c r="BG52" s="95"/>
+      <c r="BH52" s="95"/>
+      <c r="BI52" s="95"/>
+      <c r="BJ52" s="95"/>
+      <c r="BK52" s="95"/>
+      <c r="BL52" s="95"/>
+      <c r="BM52" s="95"/>
+      <c r="BN52" s="95"/>
+      <c r="BO52" s="95"/>
+      <c r="BP52" s="95"/>
+      <c r="BQ52" s="95"/>
+      <c r="BR52" s="95"/>
+      <c r="BS52" s="95"/>
+      <c r="BT52" s="95"/>
+      <c r="BU52" s="95"/>
       <c r="BV52" s="73"/>
       <c r="BW52" s="73"/>
       <c r="BX52" s="73"/>
@@ -6020,98 +6022,98 @@
       <c r="CA52" s="73"/>
       <c r="CB52" s="73"/>
       <c r="CC52" s="73"/>
-      <c r="CD52" s="90"/>
-      <c r="CE52" s="90"/>
-      <c r="CF52" s="90"/>
-      <c r="CG52" s="90"/>
-      <c r="CH52" s="90"/>
-      <c r="CI52" s="90"/>
-      <c r="CJ52" s="90"/>
-      <c r="CK52" s="90"/>
-      <c r="CS52" s="107"/>
-      <c r="CT52" s="107"/>
-      <c r="CU52" s="107"/>
-      <c r="CV52" s="107"/>
-      <c r="CW52" s="107"/>
-      <c r="CX52" s="107"/>
-      <c r="CY52" s="107"/>
-    </row>
-    <row r="53" spans="1:104">
+      <c r="CD52" s="95"/>
+      <c r="CE52" s="95"/>
+      <c r="CF52" s="95"/>
+      <c r="CG52" s="95"/>
+      <c r="CH52" s="95"/>
+      <c r="CI52" s="95"/>
+      <c r="CJ52" s="95"/>
+      <c r="CK52" s="95"/>
+      <c r="CS52" s="89"/>
+      <c r="CT52" s="89"/>
+      <c r="CU52" s="89"/>
+      <c r="CV52" s="89"/>
+      <c r="CW52" s="89"/>
+      <c r="CX52" s="89"/>
+      <c r="CY52" s="89"/>
+    </row>
+    <row r="53" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A53" s="63">
         <v>28</v>
       </c>
-      <c r="B53" s="96"/>
-      <c r="C53" s="96"/>
-      <c r="D53" s="96"/>
-      <c r="E53" s="96"/>
-      <c r="F53" s="96"/>
-      <c r="G53" s="96"/>
-      <c r="H53" s="96"/>
-      <c r="I53" s="96"/>
-      <c r="J53" s="98"/>
-      <c r="K53" s="98"/>
-      <c r="L53" s="98"/>
-      <c r="M53" s="98"/>
-      <c r="N53" s="98"/>
-      <c r="O53" s="98"/>
-      <c r="P53" s="98"/>
-      <c r="Q53" s="98"/>
-      <c r="R53" s="94"/>
-      <c r="S53" s="94"/>
-      <c r="T53" s="94"/>
-      <c r="U53" s="94"/>
-      <c r="V53" s="94"/>
-      <c r="W53" s="94"/>
-      <c r="X53" s="94"/>
-      <c r="Y53" s="94"/>
-      <c r="Z53" s="99"/>
-      <c r="AA53" s="99"/>
-      <c r="AB53" s="99"/>
-      <c r="AC53" s="99"/>
-      <c r="AD53" s="99"/>
-      <c r="AE53" s="99"/>
-      <c r="AF53" s="99"/>
-      <c r="AG53" s="99"/>
-      <c r="AH53" s="99"/>
-      <c r="AI53" s="99"/>
-      <c r="AJ53" s="99"/>
-      <c r="AK53" s="99"/>
-      <c r="AL53" s="99"/>
-      <c r="AM53" s="99"/>
-      <c r="AN53" s="99"/>
-      <c r="AO53" s="99"/>
-      <c r="AP53" s="100"/>
-      <c r="AQ53" s="100"/>
-      <c r="AR53" s="100"/>
-      <c r="AS53" s="100"/>
-      <c r="AT53" s="100"/>
-      <c r="AU53" s="100"/>
-      <c r="AV53" s="100"/>
-      <c r="AW53" s="100"/>
-      <c r="AX53" s="90"/>
-      <c r="AY53" s="90"/>
-      <c r="AZ53" s="90"/>
-      <c r="BA53" s="90"/>
-      <c r="BB53" s="90"/>
-      <c r="BC53" s="90"/>
-      <c r="BD53" s="90"/>
-      <c r="BE53" s="90"/>
-      <c r="BF53" s="90"/>
-      <c r="BG53" s="90"/>
-      <c r="BH53" s="90"/>
-      <c r="BI53" s="90"/>
-      <c r="BJ53" s="90"/>
-      <c r="BK53" s="90"/>
-      <c r="BL53" s="90"/>
-      <c r="BM53" s="90"/>
-      <c r="BN53" s="90"/>
-      <c r="BO53" s="90"/>
-      <c r="BP53" s="90"/>
-      <c r="BQ53" s="90"/>
-      <c r="BR53" s="90"/>
-      <c r="BS53" s="90"/>
-      <c r="BT53" s="90"/>
-      <c r="BU53" s="90"/>
+      <c r="B53" s="91"/>
+      <c r="C53" s="91"/>
+      <c r="D53" s="91"/>
+      <c r="E53" s="91"/>
+      <c r="F53" s="91"/>
+      <c r="G53" s="91"/>
+      <c r="H53" s="91"/>
+      <c r="I53" s="91"/>
+      <c r="J53" s="117"/>
+      <c r="K53" s="117"/>
+      <c r="L53" s="117"/>
+      <c r="M53" s="117"/>
+      <c r="N53" s="117"/>
+      <c r="O53" s="117"/>
+      <c r="P53" s="117"/>
+      <c r="Q53" s="117"/>
+      <c r="R53" s="101"/>
+      <c r="S53" s="101"/>
+      <c r="T53" s="101"/>
+      <c r="U53" s="101"/>
+      <c r="V53" s="101"/>
+      <c r="W53" s="101"/>
+      <c r="X53" s="101"/>
+      <c r="Y53" s="101"/>
+      <c r="Z53" s="96"/>
+      <c r="AA53" s="96"/>
+      <c r="AB53" s="96"/>
+      <c r="AC53" s="96"/>
+      <c r="AD53" s="96"/>
+      <c r="AE53" s="96"/>
+      <c r="AF53" s="96"/>
+      <c r="AG53" s="96"/>
+      <c r="AH53" s="96"/>
+      <c r="AI53" s="96"/>
+      <c r="AJ53" s="96"/>
+      <c r="AK53" s="96"/>
+      <c r="AL53" s="96"/>
+      <c r="AM53" s="96"/>
+      <c r="AN53" s="96"/>
+      <c r="AO53" s="96"/>
+      <c r="AP53" s="103"/>
+      <c r="AQ53" s="103"/>
+      <c r="AR53" s="103"/>
+      <c r="AS53" s="103"/>
+      <c r="AT53" s="103"/>
+      <c r="AU53" s="103"/>
+      <c r="AV53" s="103"/>
+      <c r="AW53" s="103"/>
+      <c r="AX53" s="95"/>
+      <c r="AY53" s="95"/>
+      <c r="AZ53" s="95"/>
+      <c r="BA53" s="95"/>
+      <c r="BB53" s="95"/>
+      <c r="BC53" s="95"/>
+      <c r="BD53" s="95"/>
+      <c r="BE53" s="95"/>
+      <c r="BF53" s="95"/>
+      <c r="BG53" s="95"/>
+      <c r="BH53" s="95"/>
+      <c r="BI53" s="95"/>
+      <c r="BJ53" s="95"/>
+      <c r="BK53" s="95"/>
+      <c r="BL53" s="95"/>
+      <c r="BM53" s="95"/>
+      <c r="BN53" s="95"/>
+      <c r="BO53" s="95"/>
+      <c r="BP53" s="95"/>
+      <c r="BQ53" s="95"/>
+      <c r="BR53" s="95"/>
+      <c r="BS53" s="95"/>
+      <c r="BT53" s="95"/>
+      <c r="BU53" s="95"/>
       <c r="BV53" s="73"/>
       <c r="BW53" s="73"/>
       <c r="BX53" s="73"/>
@@ -6120,14 +6122,14 @@
       <c r="CA53" s="73"/>
       <c r="CB53" s="73"/>
       <c r="CC53" s="73"/>
-      <c r="CD53" s="90"/>
-      <c r="CE53" s="90"/>
-      <c r="CF53" s="90"/>
-      <c r="CG53" s="90"/>
-      <c r="CH53" s="90"/>
-      <c r="CI53" s="90"/>
-      <c r="CJ53" s="90"/>
-      <c r="CK53" s="90"/>
+      <c r="CD53" s="95"/>
+      <c r="CE53" s="95"/>
+      <c r="CF53" s="95"/>
+      <c r="CG53" s="95"/>
+      <c r="CH53" s="95"/>
+      <c r="CI53" s="95"/>
+      <c r="CJ53" s="95"/>
+      <c r="CK53" s="95"/>
       <c r="CT53" s="76"/>
       <c r="CU53" s="76"/>
       <c r="CV53" s="76"/>
@@ -6135,82 +6137,82 @@
       <c r="CX53" s="76"/>
       <c r="CY53" s="76"/>
     </row>
-    <row r="54" spans="1:104">
+    <row r="54" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A54" s="63">
         <v>29</v>
       </c>
-      <c r="B54" s="96"/>
-      <c r="C54" s="96"/>
-      <c r="D54" s="96"/>
-      <c r="E54" s="96"/>
-      <c r="F54" s="96"/>
-      <c r="G54" s="96"/>
-      <c r="H54" s="96"/>
-      <c r="I54" s="96"/>
-      <c r="J54" s="98"/>
-      <c r="K54" s="98"/>
-      <c r="L54" s="98"/>
-      <c r="M54" s="98"/>
-      <c r="N54" s="98"/>
-      <c r="O54" s="98"/>
-      <c r="P54" s="98"/>
-      <c r="Q54" s="98"/>
-      <c r="R54" s="94"/>
-      <c r="S54" s="94"/>
-      <c r="T54" s="94"/>
-      <c r="U54" s="94"/>
-      <c r="V54" s="94"/>
-      <c r="W54" s="94"/>
-      <c r="X54" s="94"/>
-      <c r="Y54" s="94"/>
-      <c r="Z54" s="99"/>
-      <c r="AA54" s="99"/>
-      <c r="AB54" s="99"/>
-      <c r="AC54" s="99"/>
-      <c r="AD54" s="99"/>
-      <c r="AE54" s="99"/>
-      <c r="AF54" s="99"/>
-      <c r="AG54" s="99"/>
-      <c r="AH54" s="99"/>
-      <c r="AI54" s="99"/>
-      <c r="AJ54" s="99"/>
-      <c r="AK54" s="99"/>
-      <c r="AL54" s="99"/>
-      <c r="AM54" s="99"/>
-      <c r="AN54" s="99"/>
-      <c r="AO54" s="99"/>
-      <c r="AP54" s="100"/>
-      <c r="AQ54" s="100"/>
-      <c r="AR54" s="100"/>
-      <c r="AS54" s="100"/>
-      <c r="AT54" s="100"/>
-      <c r="AU54" s="100"/>
-      <c r="AV54" s="100"/>
-      <c r="AW54" s="100"/>
-      <c r="AX54" s="90"/>
-      <c r="AY54" s="90"/>
-      <c r="AZ54" s="90"/>
-      <c r="BA54" s="90"/>
-      <c r="BB54" s="90"/>
-      <c r="BC54" s="90"/>
-      <c r="BD54" s="90"/>
-      <c r="BE54" s="90"/>
-      <c r="BF54" s="90"/>
-      <c r="BG54" s="90"/>
-      <c r="BH54" s="90"/>
-      <c r="BI54" s="90"/>
-      <c r="BJ54" s="90"/>
-      <c r="BK54" s="90"/>
-      <c r="BL54" s="90"/>
-      <c r="BM54" s="90"/>
-      <c r="BN54" s="90"/>
-      <c r="BO54" s="90"/>
-      <c r="BP54" s="90"/>
-      <c r="BQ54" s="90"/>
-      <c r="BR54" s="90"/>
-      <c r="BS54" s="90"/>
-      <c r="BT54" s="90"/>
-      <c r="BU54" s="90"/>
+      <c r="B54" s="91"/>
+      <c r="C54" s="91"/>
+      <c r="D54" s="91"/>
+      <c r="E54" s="91"/>
+      <c r="F54" s="91"/>
+      <c r="G54" s="91"/>
+      <c r="H54" s="91"/>
+      <c r="I54" s="91"/>
+      <c r="J54" s="117"/>
+      <c r="K54" s="117"/>
+      <c r="L54" s="117"/>
+      <c r="M54" s="117"/>
+      <c r="N54" s="117"/>
+      <c r="O54" s="117"/>
+      <c r="P54" s="117"/>
+      <c r="Q54" s="117"/>
+      <c r="R54" s="101"/>
+      <c r="S54" s="101"/>
+      <c r="T54" s="101"/>
+      <c r="U54" s="101"/>
+      <c r="V54" s="101"/>
+      <c r="W54" s="101"/>
+      <c r="X54" s="101"/>
+      <c r="Y54" s="101"/>
+      <c r="Z54" s="96"/>
+      <c r="AA54" s="96"/>
+      <c r="AB54" s="96"/>
+      <c r="AC54" s="96"/>
+      <c r="AD54" s="96"/>
+      <c r="AE54" s="96"/>
+      <c r="AF54" s="96"/>
+      <c r="AG54" s="96"/>
+      <c r="AH54" s="96"/>
+      <c r="AI54" s="96"/>
+      <c r="AJ54" s="96"/>
+      <c r="AK54" s="96"/>
+      <c r="AL54" s="96"/>
+      <c r="AM54" s="96"/>
+      <c r="AN54" s="96"/>
+      <c r="AO54" s="96"/>
+      <c r="AP54" s="103"/>
+      <c r="AQ54" s="103"/>
+      <c r="AR54" s="103"/>
+      <c r="AS54" s="103"/>
+      <c r="AT54" s="103"/>
+      <c r="AU54" s="103"/>
+      <c r="AV54" s="103"/>
+      <c r="AW54" s="103"/>
+      <c r="AX54" s="95"/>
+      <c r="AY54" s="95"/>
+      <c r="AZ54" s="95"/>
+      <c r="BA54" s="95"/>
+      <c r="BB54" s="95"/>
+      <c r="BC54" s="95"/>
+      <c r="BD54" s="95"/>
+      <c r="BE54" s="95"/>
+      <c r="BF54" s="95"/>
+      <c r="BG54" s="95"/>
+      <c r="BH54" s="95"/>
+      <c r="BI54" s="95"/>
+      <c r="BJ54" s="95"/>
+      <c r="BK54" s="95"/>
+      <c r="BL54" s="95"/>
+      <c r="BM54" s="95"/>
+      <c r="BN54" s="95"/>
+      <c r="BO54" s="95"/>
+      <c r="BP54" s="95"/>
+      <c r="BQ54" s="95"/>
+      <c r="BR54" s="95"/>
+      <c r="BS54" s="95"/>
+      <c r="BT54" s="95"/>
+      <c r="BU54" s="95"/>
       <c r="BV54" s="73"/>
       <c r="BW54" s="73"/>
       <c r="BX54" s="73"/>
@@ -6219,14 +6221,14 @@
       <c r="CA54" s="73"/>
       <c r="CB54" s="73"/>
       <c r="CC54" s="73"/>
-      <c r="CD54" s="90"/>
-      <c r="CE54" s="90"/>
-      <c r="CF54" s="90"/>
-      <c r="CG54" s="90"/>
-      <c r="CH54" s="90"/>
-      <c r="CI54" s="90"/>
-      <c r="CJ54" s="90"/>
-      <c r="CK54" s="90"/>
+      <c r="CD54" s="95"/>
+      <c r="CE54" s="95"/>
+      <c r="CF54" s="95"/>
+      <c r="CG54" s="95"/>
+      <c r="CH54" s="95"/>
+      <c r="CI54" s="95"/>
+      <c r="CJ54" s="95"/>
+      <c r="CK54" s="95"/>
       <c r="CT54" s="76"/>
       <c r="CU54" s="76"/>
       <c r="CV54" s="76"/>
@@ -6234,82 +6236,82 @@
       <c r="CX54" s="76"/>
       <c r="CY54" s="76"/>
     </row>
-    <row r="55" spans="1:104">
+    <row r="55" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A55" s="63">
         <v>30</v>
       </c>
-      <c r="B55" s="96"/>
-      <c r="C55" s="96"/>
-      <c r="D55" s="96"/>
-      <c r="E55" s="96"/>
-      <c r="F55" s="96"/>
-      <c r="G55" s="96"/>
-      <c r="H55" s="96"/>
-      <c r="I55" s="96"/>
-      <c r="J55" s="98"/>
-      <c r="K55" s="98"/>
-      <c r="L55" s="98"/>
-      <c r="M55" s="98"/>
-      <c r="N55" s="98"/>
-      <c r="O55" s="98"/>
-      <c r="P55" s="98"/>
-      <c r="Q55" s="98"/>
-      <c r="R55" s="94"/>
-      <c r="S55" s="94"/>
-      <c r="T55" s="94"/>
-      <c r="U55" s="94"/>
-      <c r="V55" s="94"/>
-      <c r="W55" s="94"/>
-      <c r="X55" s="94"/>
-      <c r="Y55" s="94"/>
-      <c r="Z55" s="99"/>
-      <c r="AA55" s="99"/>
-      <c r="AB55" s="99"/>
-      <c r="AC55" s="99"/>
-      <c r="AD55" s="99"/>
-      <c r="AE55" s="99"/>
-      <c r="AF55" s="99"/>
-      <c r="AG55" s="99"/>
-      <c r="AH55" s="99"/>
-      <c r="AI55" s="99"/>
-      <c r="AJ55" s="99"/>
-      <c r="AK55" s="99"/>
-      <c r="AL55" s="99"/>
-      <c r="AM55" s="99"/>
-      <c r="AN55" s="99"/>
-      <c r="AO55" s="99"/>
-      <c r="AP55" s="100"/>
-      <c r="AQ55" s="100"/>
-      <c r="AR55" s="100"/>
-      <c r="AS55" s="100"/>
-      <c r="AT55" s="100"/>
-      <c r="AU55" s="100"/>
-      <c r="AV55" s="100"/>
-      <c r="AW55" s="100"/>
-      <c r="AX55" s="90"/>
-      <c r="AY55" s="90"/>
-      <c r="AZ55" s="90"/>
-      <c r="BA55" s="90"/>
-      <c r="BB55" s="90"/>
-      <c r="BC55" s="90"/>
-      <c r="BD55" s="90"/>
-      <c r="BE55" s="90"/>
-      <c r="BF55" s="90"/>
-      <c r="BG55" s="90"/>
-      <c r="BH55" s="90"/>
-      <c r="BI55" s="90"/>
-      <c r="BJ55" s="90"/>
-      <c r="BK55" s="90"/>
-      <c r="BL55" s="90"/>
-      <c r="BM55" s="90"/>
-      <c r="BN55" s="90"/>
-      <c r="BO55" s="90"/>
-      <c r="BP55" s="90"/>
-      <c r="BQ55" s="90"/>
-      <c r="BR55" s="90"/>
-      <c r="BS55" s="90"/>
-      <c r="BT55" s="90"/>
-      <c r="BU55" s="90"/>
+      <c r="B55" s="91"/>
+      <c r="C55" s="91"/>
+      <c r="D55" s="91"/>
+      <c r="E55" s="91"/>
+      <c r="F55" s="91"/>
+      <c r="G55" s="91"/>
+      <c r="H55" s="91"/>
+      <c r="I55" s="91"/>
+      <c r="J55" s="117"/>
+      <c r="K55" s="117"/>
+      <c r="L55" s="117"/>
+      <c r="M55" s="117"/>
+      <c r="N55" s="117"/>
+      <c r="O55" s="117"/>
+      <c r="P55" s="117"/>
+      <c r="Q55" s="117"/>
+      <c r="R55" s="101"/>
+      <c r="S55" s="101"/>
+      <c r="T55" s="101"/>
+      <c r="U55" s="101"/>
+      <c r="V55" s="101"/>
+      <c r="W55" s="101"/>
+      <c r="X55" s="101"/>
+      <c r="Y55" s="101"/>
+      <c r="Z55" s="96"/>
+      <c r="AA55" s="96"/>
+      <c r="AB55" s="96"/>
+      <c r="AC55" s="96"/>
+      <c r="AD55" s="96"/>
+      <c r="AE55" s="96"/>
+      <c r="AF55" s="96"/>
+      <c r="AG55" s="96"/>
+      <c r="AH55" s="96"/>
+      <c r="AI55" s="96"/>
+      <c r="AJ55" s="96"/>
+      <c r="AK55" s="96"/>
+      <c r="AL55" s="96"/>
+      <c r="AM55" s="96"/>
+      <c r="AN55" s="96"/>
+      <c r="AO55" s="96"/>
+      <c r="AP55" s="103"/>
+      <c r="AQ55" s="103"/>
+      <c r="AR55" s="103"/>
+      <c r="AS55" s="103"/>
+      <c r="AT55" s="103"/>
+      <c r="AU55" s="103"/>
+      <c r="AV55" s="103"/>
+      <c r="AW55" s="103"/>
+      <c r="AX55" s="95"/>
+      <c r="AY55" s="95"/>
+      <c r="AZ55" s="95"/>
+      <c r="BA55" s="95"/>
+      <c r="BB55" s="95"/>
+      <c r="BC55" s="95"/>
+      <c r="BD55" s="95"/>
+      <c r="BE55" s="95"/>
+      <c r="BF55" s="95"/>
+      <c r="BG55" s="95"/>
+      <c r="BH55" s="95"/>
+      <c r="BI55" s="95"/>
+      <c r="BJ55" s="95"/>
+      <c r="BK55" s="95"/>
+      <c r="BL55" s="95"/>
+      <c r="BM55" s="95"/>
+      <c r="BN55" s="95"/>
+      <c r="BO55" s="95"/>
+      <c r="BP55" s="95"/>
+      <c r="BQ55" s="95"/>
+      <c r="BR55" s="95"/>
+      <c r="BS55" s="95"/>
+      <c r="BT55" s="95"/>
+      <c r="BU55" s="95"/>
       <c r="BV55" s="73"/>
       <c r="BW55" s="73"/>
       <c r="BX55" s="73"/>
@@ -6318,14 +6320,14 @@
       <c r="CA55" s="73"/>
       <c r="CB55" s="73"/>
       <c r="CC55" s="73"/>
-      <c r="CD55" s="90"/>
-      <c r="CE55" s="90"/>
-      <c r="CF55" s="90"/>
-      <c r="CG55" s="90"/>
-      <c r="CH55" s="90"/>
-      <c r="CI55" s="90"/>
-      <c r="CJ55" s="90"/>
-      <c r="CK55" s="90"/>
+      <c r="CD55" s="95"/>
+      <c r="CE55" s="95"/>
+      <c r="CF55" s="95"/>
+      <c r="CG55" s="95"/>
+      <c r="CH55" s="95"/>
+      <c r="CI55" s="95"/>
+      <c r="CJ55" s="95"/>
+      <c r="CK55" s="95"/>
       <c r="CT55" s="76"/>
       <c r="CU55" s="76"/>
       <c r="CV55" s="76"/>
@@ -6333,82 +6335,82 @@
       <c r="CX55" s="76"/>
       <c r="CY55" s="76"/>
     </row>
-    <row r="56" spans="1:104">
+    <row r="56" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A56" s="63">
         <v>31</v>
       </c>
-      <c r="B56" s="96"/>
-      <c r="C56" s="96"/>
-      <c r="D56" s="96"/>
-      <c r="E56" s="96"/>
-      <c r="F56" s="96"/>
-      <c r="G56" s="96"/>
-      <c r="H56" s="96"/>
-      <c r="I56" s="96"/>
-      <c r="J56" s="98"/>
-      <c r="K56" s="98"/>
-      <c r="L56" s="98"/>
-      <c r="M56" s="98"/>
-      <c r="N56" s="98"/>
-      <c r="O56" s="98"/>
-      <c r="P56" s="98"/>
-      <c r="Q56" s="98"/>
-      <c r="R56" s="94"/>
-      <c r="S56" s="94"/>
-      <c r="T56" s="94"/>
-      <c r="U56" s="94"/>
-      <c r="V56" s="94"/>
-      <c r="W56" s="94"/>
-      <c r="X56" s="94"/>
-      <c r="Y56" s="94"/>
-      <c r="Z56" s="99"/>
-      <c r="AA56" s="99"/>
-      <c r="AB56" s="99"/>
-      <c r="AC56" s="99"/>
-      <c r="AD56" s="99"/>
-      <c r="AE56" s="99"/>
-      <c r="AF56" s="99"/>
-      <c r="AG56" s="99"/>
-      <c r="AH56" s="99"/>
-      <c r="AI56" s="99"/>
-      <c r="AJ56" s="99"/>
-      <c r="AK56" s="99"/>
-      <c r="AL56" s="99"/>
-      <c r="AM56" s="99"/>
-      <c r="AN56" s="99"/>
-      <c r="AO56" s="99"/>
-      <c r="AP56" s="100"/>
-      <c r="AQ56" s="100"/>
-      <c r="AR56" s="100"/>
-      <c r="AS56" s="100"/>
-      <c r="AT56" s="100"/>
-      <c r="AU56" s="100"/>
-      <c r="AV56" s="100"/>
-      <c r="AW56" s="100"/>
-      <c r="AX56" s="90"/>
-      <c r="AY56" s="90"/>
-      <c r="AZ56" s="90"/>
-      <c r="BA56" s="90"/>
-      <c r="BB56" s="90"/>
-      <c r="BC56" s="90"/>
-      <c r="BD56" s="90"/>
-      <c r="BE56" s="90"/>
-      <c r="BF56" s="90"/>
-      <c r="BG56" s="90"/>
-      <c r="BH56" s="90"/>
-      <c r="BI56" s="90"/>
-      <c r="BJ56" s="90"/>
-      <c r="BK56" s="90"/>
-      <c r="BL56" s="90"/>
-      <c r="BM56" s="90"/>
-      <c r="BN56" s="90"/>
-      <c r="BO56" s="90"/>
-      <c r="BP56" s="90"/>
-      <c r="BQ56" s="90"/>
-      <c r="BR56" s="90"/>
-      <c r="BS56" s="90"/>
-      <c r="BT56" s="90"/>
-      <c r="BU56" s="90"/>
+      <c r="B56" s="91"/>
+      <c r="C56" s="91"/>
+      <c r="D56" s="91"/>
+      <c r="E56" s="91"/>
+      <c r="F56" s="91"/>
+      <c r="G56" s="91"/>
+      <c r="H56" s="91"/>
+      <c r="I56" s="91"/>
+      <c r="J56" s="117"/>
+      <c r="K56" s="117"/>
+      <c r="L56" s="117"/>
+      <c r="M56" s="117"/>
+      <c r="N56" s="117"/>
+      <c r="O56" s="117"/>
+      <c r="P56" s="117"/>
+      <c r="Q56" s="117"/>
+      <c r="R56" s="101"/>
+      <c r="S56" s="101"/>
+      <c r="T56" s="101"/>
+      <c r="U56" s="101"/>
+      <c r="V56" s="101"/>
+      <c r="W56" s="101"/>
+      <c r="X56" s="101"/>
+      <c r="Y56" s="101"/>
+      <c r="Z56" s="96"/>
+      <c r="AA56" s="96"/>
+      <c r="AB56" s="96"/>
+      <c r="AC56" s="96"/>
+      <c r="AD56" s="96"/>
+      <c r="AE56" s="96"/>
+      <c r="AF56" s="96"/>
+      <c r="AG56" s="96"/>
+      <c r="AH56" s="96"/>
+      <c r="AI56" s="96"/>
+      <c r="AJ56" s="96"/>
+      <c r="AK56" s="96"/>
+      <c r="AL56" s="96"/>
+      <c r="AM56" s="96"/>
+      <c r="AN56" s="96"/>
+      <c r="AO56" s="96"/>
+      <c r="AP56" s="103"/>
+      <c r="AQ56" s="103"/>
+      <c r="AR56" s="103"/>
+      <c r="AS56" s="103"/>
+      <c r="AT56" s="103"/>
+      <c r="AU56" s="103"/>
+      <c r="AV56" s="103"/>
+      <c r="AW56" s="103"/>
+      <c r="AX56" s="95"/>
+      <c r="AY56" s="95"/>
+      <c r="AZ56" s="95"/>
+      <c r="BA56" s="95"/>
+      <c r="BB56" s="95"/>
+      <c r="BC56" s="95"/>
+      <c r="BD56" s="95"/>
+      <c r="BE56" s="95"/>
+      <c r="BF56" s="95"/>
+      <c r="BG56" s="95"/>
+      <c r="BH56" s="95"/>
+      <c r="BI56" s="95"/>
+      <c r="BJ56" s="95"/>
+      <c r="BK56" s="95"/>
+      <c r="BL56" s="95"/>
+      <c r="BM56" s="95"/>
+      <c r="BN56" s="95"/>
+      <c r="BO56" s="95"/>
+      <c r="BP56" s="95"/>
+      <c r="BQ56" s="95"/>
+      <c r="BR56" s="95"/>
+      <c r="BS56" s="95"/>
+      <c r="BT56" s="95"/>
+      <c r="BU56" s="95"/>
       <c r="BV56" s="73"/>
       <c r="BW56" s="73"/>
       <c r="BX56" s="73"/>
@@ -6417,14 +6419,14 @@
       <c r="CA56" s="73"/>
       <c r="CB56" s="73"/>
       <c r="CC56" s="73"/>
-      <c r="CD56" s="90"/>
-      <c r="CE56" s="90"/>
-      <c r="CF56" s="90"/>
-      <c r="CG56" s="90"/>
-      <c r="CH56" s="90"/>
-      <c r="CI56" s="90"/>
-      <c r="CJ56" s="90"/>
-      <c r="CK56" s="90"/>
+      <c r="CD56" s="95"/>
+      <c r="CE56" s="95"/>
+      <c r="CF56" s="95"/>
+      <c r="CG56" s="95"/>
+      <c r="CH56" s="95"/>
+      <c r="CI56" s="95"/>
+      <c r="CJ56" s="95"/>
+      <c r="CK56" s="95"/>
       <c r="CT56" s="76"/>
       <c r="CU56" s="76"/>
       <c r="CV56" s="76"/>
@@ -6432,82 +6434,82 @@
       <c r="CX56" s="76"/>
       <c r="CY56" s="76"/>
     </row>
-    <row r="57" spans="1:104">
+    <row r="57" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A57" s="63">
         <v>32</v>
       </c>
-      <c r="B57" s="96"/>
-      <c r="C57" s="96"/>
-      <c r="D57" s="96"/>
-      <c r="E57" s="96"/>
-      <c r="F57" s="96"/>
-      <c r="G57" s="96"/>
-      <c r="H57" s="96"/>
-      <c r="I57" s="96"/>
-      <c r="J57" s="98"/>
-      <c r="K57" s="98"/>
-      <c r="L57" s="98"/>
-      <c r="M57" s="98"/>
-      <c r="N57" s="98"/>
-      <c r="O57" s="98"/>
-      <c r="P57" s="98"/>
-      <c r="Q57" s="98"/>
-      <c r="R57" s="94"/>
-      <c r="S57" s="94"/>
-      <c r="T57" s="94"/>
-      <c r="U57" s="94"/>
-      <c r="V57" s="94"/>
-      <c r="W57" s="94"/>
-      <c r="X57" s="94"/>
-      <c r="Y57" s="94"/>
-      <c r="Z57" s="99"/>
-      <c r="AA57" s="99"/>
-      <c r="AB57" s="99"/>
-      <c r="AC57" s="99"/>
-      <c r="AD57" s="99"/>
-      <c r="AE57" s="99"/>
-      <c r="AF57" s="99"/>
-      <c r="AG57" s="99"/>
-      <c r="AH57" s="99"/>
-      <c r="AI57" s="99"/>
-      <c r="AJ57" s="99"/>
-      <c r="AK57" s="99"/>
-      <c r="AL57" s="99"/>
-      <c r="AM57" s="99"/>
-      <c r="AN57" s="99"/>
-      <c r="AO57" s="99"/>
-      <c r="AP57" s="100"/>
-      <c r="AQ57" s="100"/>
-      <c r="AR57" s="100"/>
-      <c r="AS57" s="100"/>
-      <c r="AT57" s="100"/>
-      <c r="AU57" s="100"/>
-      <c r="AV57" s="100"/>
-      <c r="AW57" s="100"/>
-      <c r="AX57" s="90"/>
-      <c r="AY57" s="90"/>
-      <c r="AZ57" s="90"/>
-      <c r="BA57" s="90"/>
-      <c r="BB57" s="90"/>
-      <c r="BC57" s="90"/>
-      <c r="BD57" s="90"/>
-      <c r="BE57" s="90"/>
-      <c r="BF57" s="90"/>
-      <c r="BG57" s="90"/>
-      <c r="BH57" s="90"/>
-      <c r="BI57" s="90"/>
-      <c r="BJ57" s="90"/>
-      <c r="BK57" s="90"/>
-      <c r="BL57" s="90"/>
-      <c r="BM57" s="90"/>
-      <c r="BN57" s="90"/>
-      <c r="BO57" s="90"/>
-      <c r="BP57" s="90"/>
-      <c r="BQ57" s="90"/>
-      <c r="BR57" s="90"/>
-      <c r="BS57" s="90"/>
-      <c r="BT57" s="90"/>
-      <c r="BU57" s="90"/>
+      <c r="B57" s="91"/>
+      <c r="C57" s="91"/>
+      <c r="D57" s="91"/>
+      <c r="E57" s="91"/>
+      <c r="F57" s="91"/>
+      <c r="G57" s="91"/>
+      <c r="H57" s="91"/>
+      <c r="I57" s="91"/>
+      <c r="J57" s="117"/>
+      <c r="K57" s="117"/>
+      <c r="L57" s="117"/>
+      <c r="M57" s="117"/>
+      <c r="N57" s="117"/>
+      <c r="O57" s="117"/>
+      <c r="P57" s="117"/>
+      <c r="Q57" s="117"/>
+      <c r="R57" s="101"/>
+      <c r="S57" s="101"/>
+      <c r="T57" s="101"/>
+      <c r="U57" s="101"/>
+      <c r="V57" s="101"/>
+      <c r="W57" s="101"/>
+      <c r="X57" s="101"/>
+      <c r="Y57" s="101"/>
+      <c r="Z57" s="96"/>
+      <c r="AA57" s="96"/>
+      <c r="AB57" s="96"/>
+      <c r="AC57" s="96"/>
+      <c r="AD57" s="96"/>
+      <c r="AE57" s="96"/>
+      <c r="AF57" s="96"/>
+      <c r="AG57" s="96"/>
+      <c r="AH57" s="96"/>
+      <c r="AI57" s="96"/>
+      <c r="AJ57" s="96"/>
+      <c r="AK57" s="96"/>
+      <c r="AL57" s="96"/>
+      <c r="AM57" s="96"/>
+      <c r="AN57" s="96"/>
+      <c r="AO57" s="96"/>
+      <c r="AP57" s="103"/>
+      <c r="AQ57" s="103"/>
+      <c r="AR57" s="103"/>
+      <c r="AS57" s="103"/>
+      <c r="AT57" s="103"/>
+      <c r="AU57" s="103"/>
+      <c r="AV57" s="103"/>
+      <c r="AW57" s="103"/>
+      <c r="AX57" s="95"/>
+      <c r="AY57" s="95"/>
+      <c r="AZ57" s="95"/>
+      <c r="BA57" s="95"/>
+      <c r="BB57" s="95"/>
+      <c r="BC57" s="95"/>
+      <c r="BD57" s="95"/>
+      <c r="BE57" s="95"/>
+      <c r="BF57" s="95"/>
+      <c r="BG57" s="95"/>
+      <c r="BH57" s="95"/>
+      <c r="BI57" s="95"/>
+      <c r="BJ57" s="95"/>
+      <c r="BK57" s="95"/>
+      <c r="BL57" s="95"/>
+      <c r="BM57" s="95"/>
+      <c r="BN57" s="95"/>
+      <c r="BO57" s="95"/>
+      <c r="BP57" s="95"/>
+      <c r="BQ57" s="95"/>
+      <c r="BR57" s="95"/>
+      <c r="BS57" s="95"/>
+      <c r="BT57" s="95"/>
+      <c r="BU57" s="95"/>
       <c r="BV57" s="73"/>
       <c r="BW57" s="73"/>
       <c r="BX57" s="73"/>
@@ -6516,91 +6518,91 @@
       <c r="CA57" s="73"/>
       <c r="CB57" s="73"/>
       <c r="CC57" s="73"/>
-      <c r="CD57" s="90"/>
-      <c r="CE57" s="90"/>
-      <c r="CF57" s="90"/>
-      <c r="CG57" s="90"/>
-      <c r="CH57" s="90"/>
-      <c r="CI57" s="90"/>
-      <c r="CJ57" s="90"/>
-      <c r="CK57" s="90"/>
-    </row>
-    <row r="58" spans="1:104">
+      <c r="CD57" s="95"/>
+      <c r="CE57" s="95"/>
+      <c r="CF57" s="95"/>
+      <c r="CG57" s="95"/>
+      <c r="CH57" s="95"/>
+      <c r="CI57" s="95"/>
+      <c r="CJ57" s="95"/>
+      <c r="CK57" s="95"/>
+    </row>
+    <row r="58" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A58" s="63">
         <v>33</v>
       </c>
-      <c r="B58" s="96"/>
-      <c r="C58" s="96"/>
-      <c r="D58" s="96"/>
-      <c r="E58" s="96"/>
-      <c r="F58" s="96"/>
-      <c r="G58" s="96"/>
-      <c r="H58" s="96"/>
-      <c r="I58" s="96"/>
-      <c r="J58" s="98"/>
-      <c r="K58" s="98"/>
-      <c r="L58" s="98"/>
-      <c r="M58" s="98"/>
-      <c r="N58" s="98"/>
-      <c r="O58" s="98"/>
-      <c r="P58" s="98"/>
-      <c r="Q58" s="98"/>
-      <c r="R58" s="94"/>
-      <c r="S58" s="94"/>
-      <c r="T58" s="94"/>
-      <c r="U58" s="94"/>
-      <c r="V58" s="94"/>
-      <c r="W58" s="94"/>
-      <c r="X58" s="94"/>
-      <c r="Y58" s="94"/>
-      <c r="Z58" s="99"/>
-      <c r="AA58" s="99"/>
-      <c r="AB58" s="99"/>
-      <c r="AC58" s="99"/>
-      <c r="AD58" s="99"/>
-      <c r="AE58" s="99"/>
-      <c r="AF58" s="99"/>
-      <c r="AG58" s="99"/>
-      <c r="AH58" s="99"/>
-      <c r="AI58" s="99"/>
-      <c r="AJ58" s="99"/>
-      <c r="AK58" s="99"/>
-      <c r="AL58" s="99"/>
-      <c r="AM58" s="99"/>
-      <c r="AN58" s="99"/>
-      <c r="AO58" s="99"/>
-      <c r="AP58" s="100"/>
-      <c r="AQ58" s="100"/>
-      <c r="AR58" s="100"/>
-      <c r="AS58" s="100"/>
-      <c r="AT58" s="100"/>
-      <c r="AU58" s="100"/>
-      <c r="AV58" s="100"/>
-      <c r="AW58" s="100"/>
-      <c r="AX58" s="90"/>
-      <c r="AY58" s="90"/>
-      <c r="AZ58" s="90"/>
-      <c r="BA58" s="90"/>
-      <c r="BB58" s="90"/>
-      <c r="BC58" s="90"/>
-      <c r="BD58" s="90"/>
-      <c r="BE58" s="90"/>
-      <c r="BF58" s="90"/>
-      <c r="BG58" s="90"/>
-      <c r="BH58" s="90"/>
-      <c r="BI58" s="90"/>
-      <c r="BJ58" s="90"/>
-      <c r="BK58" s="90"/>
-      <c r="BL58" s="90"/>
-      <c r="BM58" s="90"/>
-      <c r="BN58" s="90"/>
-      <c r="BO58" s="90"/>
-      <c r="BP58" s="90"/>
-      <c r="BQ58" s="90"/>
-      <c r="BR58" s="90"/>
-      <c r="BS58" s="90"/>
-      <c r="BT58" s="90"/>
-      <c r="BU58" s="90"/>
+      <c r="B58" s="91"/>
+      <c r="C58" s="91"/>
+      <c r="D58" s="91"/>
+      <c r="E58" s="91"/>
+      <c r="F58" s="91"/>
+      <c r="G58" s="91"/>
+      <c r="H58" s="91"/>
+      <c r="I58" s="91"/>
+      <c r="J58" s="117"/>
+      <c r="K58" s="117"/>
+      <c r="L58" s="117"/>
+      <c r="M58" s="117"/>
+      <c r="N58" s="117"/>
+      <c r="O58" s="117"/>
+      <c r="P58" s="117"/>
+      <c r="Q58" s="117"/>
+      <c r="R58" s="101"/>
+      <c r="S58" s="101"/>
+      <c r="T58" s="101"/>
+      <c r="U58" s="101"/>
+      <c r="V58" s="101"/>
+      <c r="W58" s="101"/>
+      <c r="X58" s="101"/>
+      <c r="Y58" s="101"/>
+      <c r="Z58" s="96"/>
+      <c r="AA58" s="96"/>
+      <c r="AB58" s="96"/>
+      <c r="AC58" s="96"/>
+      <c r="AD58" s="96"/>
+      <c r="AE58" s="96"/>
+      <c r="AF58" s="96"/>
+      <c r="AG58" s="96"/>
+      <c r="AH58" s="96"/>
+      <c r="AI58" s="96"/>
+      <c r="AJ58" s="96"/>
+      <c r="AK58" s="96"/>
+      <c r="AL58" s="96"/>
+      <c r="AM58" s="96"/>
+      <c r="AN58" s="96"/>
+      <c r="AO58" s="96"/>
+      <c r="AP58" s="103"/>
+      <c r="AQ58" s="103"/>
+      <c r="AR58" s="103"/>
+      <c r="AS58" s="103"/>
+      <c r="AT58" s="103"/>
+      <c r="AU58" s="103"/>
+      <c r="AV58" s="103"/>
+      <c r="AW58" s="103"/>
+      <c r="AX58" s="95"/>
+      <c r="AY58" s="95"/>
+      <c r="AZ58" s="95"/>
+      <c r="BA58" s="95"/>
+      <c r="BB58" s="95"/>
+      <c r="BC58" s="95"/>
+      <c r="BD58" s="95"/>
+      <c r="BE58" s="95"/>
+      <c r="BF58" s="95"/>
+      <c r="BG58" s="95"/>
+      <c r="BH58" s="95"/>
+      <c r="BI58" s="95"/>
+      <c r="BJ58" s="95"/>
+      <c r="BK58" s="95"/>
+      <c r="BL58" s="95"/>
+      <c r="BM58" s="95"/>
+      <c r="BN58" s="95"/>
+      <c r="BO58" s="95"/>
+      <c r="BP58" s="95"/>
+      <c r="BQ58" s="95"/>
+      <c r="BR58" s="95"/>
+      <c r="BS58" s="95"/>
+      <c r="BT58" s="95"/>
+      <c r="BU58" s="95"/>
       <c r="BV58" s="73"/>
       <c r="BW58" s="73"/>
       <c r="BX58" s="73"/>
@@ -6609,91 +6611,91 @@
       <c r="CA58" s="73"/>
       <c r="CB58" s="73"/>
       <c r="CC58" s="73"/>
-      <c r="CD58" s="90"/>
-      <c r="CE58" s="90"/>
-      <c r="CF58" s="90"/>
-      <c r="CG58" s="90"/>
-      <c r="CH58" s="90"/>
-      <c r="CI58" s="90"/>
-      <c r="CJ58" s="90"/>
-      <c r="CK58" s="90"/>
-    </row>
-    <row r="59" spans="1:104">
+      <c r="CD58" s="95"/>
+      <c r="CE58" s="95"/>
+      <c r="CF58" s="95"/>
+      <c r="CG58" s="95"/>
+      <c r="CH58" s="95"/>
+      <c r="CI58" s="95"/>
+      <c r="CJ58" s="95"/>
+      <c r="CK58" s="95"/>
+    </row>
+    <row r="59" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A59" s="63">
         <v>34</v>
       </c>
-      <c r="B59" s="96"/>
-      <c r="C59" s="96"/>
-      <c r="D59" s="96"/>
-      <c r="E59" s="96"/>
-      <c r="F59" s="96"/>
-      <c r="G59" s="96"/>
-      <c r="H59" s="96"/>
-      <c r="I59" s="96"/>
-      <c r="J59" s="98"/>
-      <c r="K59" s="98"/>
-      <c r="L59" s="98"/>
-      <c r="M59" s="98"/>
-      <c r="N59" s="98"/>
-      <c r="O59" s="98"/>
-      <c r="P59" s="98"/>
-      <c r="Q59" s="98"/>
-      <c r="R59" s="94"/>
-      <c r="S59" s="94"/>
-      <c r="T59" s="94"/>
-      <c r="U59" s="94"/>
-      <c r="V59" s="94"/>
-      <c r="W59" s="94"/>
-      <c r="X59" s="94"/>
-      <c r="Y59" s="94"/>
-      <c r="Z59" s="99"/>
-      <c r="AA59" s="99"/>
-      <c r="AB59" s="99"/>
-      <c r="AC59" s="99"/>
-      <c r="AD59" s="99"/>
-      <c r="AE59" s="99"/>
-      <c r="AF59" s="99"/>
-      <c r="AG59" s="99"/>
-      <c r="AH59" s="99"/>
-      <c r="AI59" s="99"/>
-      <c r="AJ59" s="99"/>
-      <c r="AK59" s="99"/>
-      <c r="AL59" s="99"/>
-      <c r="AM59" s="99"/>
-      <c r="AN59" s="99"/>
-      <c r="AO59" s="99"/>
-      <c r="AP59" s="100"/>
-      <c r="AQ59" s="100"/>
-      <c r="AR59" s="100"/>
-      <c r="AS59" s="100"/>
-      <c r="AT59" s="100"/>
-      <c r="AU59" s="100"/>
-      <c r="AV59" s="100"/>
-      <c r="AW59" s="100"/>
-      <c r="AX59" s="90"/>
-      <c r="AY59" s="90"/>
-      <c r="AZ59" s="90"/>
-      <c r="BA59" s="90"/>
-      <c r="BB59" s="90"/>
-      <c r="BC59" s="90"/>
-      <c r="BD59" s="90"/>
-      <c r="BE59" s="90"/>
-      <c r="BF59" s="90"/>
-      <c r="BG59" s="90"/>
-      <c r="BH59" s="90"/>
-      <c r="BI59" s="90"/>
-      <c r="BJ59" s="90"/>
-      <c r="BK59" s="90"/>
-      <c r="BL59" s="90"/>
-      <c r="BM59" s="90"/>
-      <c r="BN59" s="90"/>
-      <c r="BO59" s="90"/>
-      <c r="BP59" s="90"/>
-      <c r="BQ59" s="90"/>
-      <c r="BR59" s="90"/>
-      <c r="BS59" s="90"/>
-      <c r="BT59" s="90"/>
-      <c r="BU59" s="90"/>
+      <c r="B59" s="91"/>
+      <c r="C59" s="91"/>
+      <c r="D59" s="91"/>
+      <c r="E59" s="91"/>
+      <c r="F59" s="91"/>
+      <c r="G59" s="91"/>
+      <c r="H59" s="91"/>
+      <c r="I59" s="91"/>
+      <c r="J59" s="117"/>
+      <c r="K59" s="117"/>
+      <c r="L59" s="117"/>
+      <c r="M59" s="117"/>
+      <c r="N59" s="117"/>
+      <c r="O59" s="117"/>
+      <c r="P59" s="117"/>
+      <c r="Q59" s="117"/>
+      <c r="R59" s="101"/>
+      <c r="S59" s="101"/>
+      <c r="T59" s="101"/>
+      <c r="U59" s="101"/>
+      <c r="V59" s="101"/>
+      <c r="W59" s="101"/>
+      <c r="X59" s="101"/>
+      <c r="Y59" s="101"/>
+      <c r="Z59" s="96"/>
+      <c r="AA59" s="96"/>
+      <c r="AB59" s="96"/>
+      <c r="AC59" s="96"/>
+      <c r="AD59" s="96"/>
+      <c r="AE59" s="96"/>
+      <c r="AF59" s="96"/>
+      <c r="AG59" s="96"/>
+      <c r="AH59" s="96"/>
+      <c r="AI59" s="96"/>
+      <c r="AJ59" s="96"/>
+      <c r="AK59" s="96"/>
+      <c r="AL59" s="96"/>
+      <c r="AM59" s="96"/>
+      <c r="AN59" s="96"/>
+      <c r="AO59" s="96"/>
+      <c r="AP59" s="103"/>
+      <c r="AQ59" s="103"/>
+      <c r="AR59" s="103"/>
+      <c r="AS59" s="103"/>
+      <c r="AT59" s="103"/>
+      <c r="AU59" s="103"/>
+      <c r="AV59" s="103"/>
+      <c r="AW59" s="103"/>
+      <c r="AX59" s="95"/>
+      <c r="AY59" s="95"/>
+      <c r="AZ59" s="95"/>
+      <c r="BA59" s="95"/>
+      <c r="BB59" s="95"/>
+      <c r="BC59" s="95"/>
+      <c r="BD59" s="95"/>
+      <c r="BE59" s="95"/>
+      <c r="BF59" s="95"/>
+      <c r="BG59" s="95"/>
+      <c r="BH59" s="95"/>
+      <c r="BI59" s="95"/>
+      <c r="BJ59" s="95"/>
+      <c r="BK59" s="95"/>
+      <c r="BL59" s="95"/>
+      <c r="BM59" s="95"/>
+      <c r="BN59" s="95"/>
+      <c r="BO59" s="95"/>
+      <c r="BP59" s="95"/>
+      <c r="BQ59" s="95"/>
+      <c r="BR59" s="95"/>
+      <c r="BS59" s="95"/>
+      <c r="BT59" s="95"/>
+      <c r="BU59" s="95"/>
       <c r="BV59" s="73"/>
       <c r="BW59" s="73"/>
       <c r="BX59" s="73"/>
@@ -6702,91 +6704,91 @@
       <c r="CA59" s="73"/>
       <c r="CB59" s="73"/>
       <c r="CC59" s="73"/>
-      <c r="CD59" s="90"/>
-      <c r="CE59" s="90"/>
-      <c r="CF59" s="90"/>
-      <c r="CG59" s="90"/>
-      <c r="CH59" s="90"/>
-      <c r="CI59" s="90"/>
-      <c r="CJ59" s="90"/>
-      <c r="CK59" s="90"/>
-    </row>
-    <row r="60" spans="1:104">
+      <c r="CD59" s="95"/>
+      <c r="CE59" s="95"/>
+      <c r="CF59" s="95"/>
+      <c r="CG59" s="95"/>
+      <c r="CH59" s="95"/>
+      <c r="CI59" s="95"/>
+      <c r="CJ59" s="95"/>
+      <c r="CK59" s="95"/>
+    </row>
+    <row r="60" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A60" s="63">
         <v>35</v>
       </c>
-      <c r="B60" s="96"/>
-      <c r="C60" s="96"/>
-      <c r="D60" s="96"/>
-      <c r="E60" s="96"/>
-      <c r="F60" s="96"/>
-      <c r="G60" s="96"/>
-      <c r="H60" s="96"/>
-      <c r="I60" s="96"/>
-      <c r="J60" s="98"/>
-      <c r="K60" s="98"/>
-      <c r="L60" s="98"/>
-      <c r="M60" s="98"/>
-      <c r="N60" s="98"/>
-      <c r="O60" s="98"/>
-      <c r="P60" s="98"/>
-      <c r="Q60" s="98"/>
-      <c r="R60" s="94"/>
-      <c r="S60" s="94"/>
-      <c r="T60" s="94"/>
-      <c r="U60" s="94"/>
-      <c r="V60" s="94"/>
-      <c r="W60" s="94"/>
-      <c r="X60" s="94"/>
-      <c r="Y60" s="94"/>
-      <c r="Z60" s="99"/>
-      <c r="AA60" s="99"/>
-      <c r="AB60" s="99"/>
-      <c r="AC60" s="99"/>
-      <c r="AD60" s="99"/>
-      <c r="AE60" s="99"/>
-      <c r="AF60" s="99"/>
-      <c r="AG60" s="99"/>
-      <c r="AH60" s="99"/>
-      <c r="AI60" s="99"/>
-      <c r="AJ60" s="99"/>
-      <c r="AK60" s="99"/>
-      <c r="AL60" s="99"/>
-      <c r="AM60" s="99"/>
-      <c r="AN60" s="99"/>
-      <c r="AO60" s="99"/>
-      <c r="AP60" s="100"/>
-      <c r="AQ60" s="100"/>
-      <c r="AR60" s="100"/>
-      <c r="AS60" s="100"/>
-      <c r="AT60" s="100"/>
-      <c r="AU60" s="100"/>
-      <c r="AV60" s="100"/>
-      <c r="AW60" s="100"/>
-      <c r="AX60" s="90"/>
-      <c r="AY60" s="90"/>
-      <c r="AZ60" s="90"/>
-      <c r="BA60" s="90"/>
-      <c r="BB60" s="90"/>
-      <c r="BC60" s="90"/>
-      <c r="BD60" s="90"/>
-      <c r="BE60" s="90"/>
-      <c r="BF60" s="90"/>
-      <c r="BG60" s="90"/>
-      <c r="BH60" s="90"/>
-      <c r="BI60" s="90"/>
-      <c r="BJ60" s="90"/>
-      <c r="BK60" s="90"/>
-      <c r="BL60" s="90"/>
-      <c r="BM60" s="90"/>
-      <c r="BN60" s="90"/>
-      <c r="BO60" s="90"/>
-      <c r="BP60" s="90"/>
-      <c r="BQ60" s="90"/>
-      <c r="BR60" s="90"/>
-      <c r="BS60" s="90"/>
-      <c r="BT60" s="90"/>
-      <c r="BU60" s="90"/>
+      <c r="B60" s="91"/>
+      <c r="C60" s="91"/>
+      <c r="D60" s="91"/>
+      <c r="E60" s="91"/>
+      <c r="F60" s="91"/>
+      <c r="G60" s="91"/>
+      <c r="H60" s="91"/>
+      <c r="I60" s="91"/>
+      <c r="J60" s="117"/>
+      <c r="K60" s="117"/>
+      <c r="L60" s="117"/>
+      <c r="M60" s="117"/>
+      <c r="N60" s="117"/>
+      <c r="O60" s="117"/>
+      <c r="P60" s="117"/>
+      <c r="Q60" s="117"/>
+      <c r="R60" s="101"/>
+      <c r="S60" s="101"/>
+      <c r="T60" s="101"/>
+      <c r="U60" s="101"/>
+      <c r="V60" s="101"/>
+      <c r="W60" s="101"/>
+      <c r="X60" s="101"/>
+      <c r="Y60" s="101"/>
+      <c r="Z60" s="96"/>
+      <c r="AA60" s="96"/>
+      <c r="AB60" s="96"/>
+      <c r="AC60" s="96"/>
+      <c r="AD60" s="96"/>
+      <c r="AE60" s="96"/>
+      <c r="AF60" s="96"/>
+      <c r="AG60" s="96"/>
+      <c r="AH60" s="96"/>
+      <c r="AI60" s="96"/>
+      <c r="AJ60" s="96"/>
+      <c r="AK60" s="96"/>
+      <c r="AL60" s="96"/>
+      <c r="AM60" s="96"/>
+      <c r="AN60" s="96"/>
+      <c r="AO60" s="96"/>
+      <c r="AP60" s="103"/>
+      <c r="AQ60" s="103"/>
+      <c r="AR60" s="103"/>
+      <c r="AS60" s="103"/>
+      <c r="AT60" s="103"/>
+      <c r="AU60" s="103"/>
+      <c r="AV60" s="103"/>
+      <c r="AW60" s="103"/>
+      <c r="AX60" s="95"/>
+      <c r="AY60" s="95"/>
+      <c r="AZ60" s="95"/>
+      <c r="BA60" s="95"/>
+      <c r="BB60" s="95"/>
+      <c r="BC60" s="95"/>
+      <c r="BD60" s="95"/>
+      <c r="BE60" s="95"/>
+      <c r="BF60" s="95"/>
+      <c r="BG60" s="95"/>
+      <c r="BH60" s="95"/>
+      <c r="BI60" s="95"/>
+      <c r="BJ60" s="95"/>
+      <c r="BK60" s="95"/>
+      <c r="BL60" s="95"/>
+      <c r="BM60" s="95"/>
+      <c r="BN60" s="95"/>
+      <c r="BO60" s="95"/>
+      <c r="BP60" s="95"/>
+      <c r="BQ60" s="95"/>
+      <c r="BR60" s="95"/>
+      <c r="BS60" s="95"/>
+      <c r="BT60" s="95"/>
+      <c r="BU60" s="95"/>
       <c r="BV60" s="73"/>
       <c r="BW60" s="73"/>
       <c r="BX60" s="73"/>
@@ -6795,30 +6797,30 @@
       <c r="CA60" s="73"/>
       <c r="CB60" s="73"/>
       <c r="CC60" s="73"/>
-      <c r="CD60" s="90"/>
-      <c r="CE60" s="90"/>
-      <c r="CF60" s="90"/>
-      <c r="CG60" s="90"/>
-      <c r="CH60" s="90"/>
-      <c r="CI60" s="90"/>
-      <c r="CJ60" s="90"/>
-      <c r="CK60" s="90"/>
-    </row>
-    <row r="61" spans="1:104">
+      <c r="CD60" s="95"/>
+      <c r="CE60" s="95"/>
+      <c r="CF60" s="95"/>
+      <c r="CG60" s="95"/>
+      <c r="CH60" s="95"/>
+      <c r="CI60" s="95"/>
+      <c r="CJ60" s="95"/>
+      <c r="CK60" s="95"/>
+    </row>
+    <row r="61" spans="1:104" x14ac:dyDescent="0.25">
       <c r="E61" s="13"/>
       <c r="F61" s="13"/>
       <c r="G61" s="65"/>
       <c r="H61" s="65"/>
       <c r="I61" s="65"/>
       <c r="K61" s="13"/>
-      <c r="L61" s="101"/>
-      <c r="M61" s="101"/>
-      <c r="N61" s="101"/>
-      <c r="O61" s="101"/>
-      <c r="AP61" s="102"/>
-      <c r="AQ61" s="102"/>
-      <c r="AR61" s="102"/>
-      <c r="AS61" s="102"/>
+      <c r="L61" s="116"/>
+      <c r="M61" s="116"/>
+      <c r="N61" s="116"/>
+      <c r="O61" s="116"/>
+      <c r="AP61" s="115"/>
+      <c r="AQ61" s="115"/>
+      <c r="AR61" s="115"/>
+      <c r="AS61" s="115"/>
       <c r="BV61" s="73"/>
       <c r="BW61" s="73"/>
       <c r="BX61" s="73"/>
@@ -6827,32 +6829,412 @@
       <c r="CA61" s="73"/>
       <c r="CB61" s="73"/>
     </row>
-    <row r="62" spans="1:104">
+    <row r="62" spans="1:104" x14ac:dyDescent="0.25">
       <c r="H62" s="13"/>
-      <c r="AM62" s="102"/>
-      <c r="AN62" s="102"/>
-      <c r="AO62" s="102"/>
-      <c r="AP62" s="102"/>
+      <c r="AM62" s="115"/>
+      <c r="AN62" s="115"/>
+      <c r="AO62" s="115"/>
+      <c r="AP62" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="438">
-    <mergeCell ref="CS52:CY52"/>
-    <mergeCell ref="CS27:CY27"/>
-    <mergeCell ref="CS28:CY28"/>
-    <mergeCell ref="CS29:CY29"/>
-    <mergeCell ref="CS30:CY30"/>
-    <mergeCell ref="CS31:CY31"/>
-    <mergeCell ref="CS32:CY32"/>
-    <mergeCell ref="CS33:CY33"/>
-    <mergeCell ref="CS34:CY34"/>
-    <mergeCell ref="CS35:CY35"/>
-    <mergeCell ref="CS36:CY36"/>
-    <mergeCell ref="CS37:CY37"/>
-    <mergeCell ref="CS38:CY38"/>
-    <mergeCell ref="CS39:CY39"/>
-    <mergeCell ref="CS40:CY40"/>
-    <mergeCell ref="CS41:CY41"/>
-    <mergeCell ref="CS42:CY42"/>
+    <mergeCell ref="BN29:BU29"/>
+    <mergeCell ref="BN30:BU30"/>
+    <mergeCell ref="BN31:BU31"/>
+    <mergeCell ref="BN32:BU32"/>
+    <mergeCell ref="BN33:BU33"/>
+    <mergeCell ref="BN34:BU34"/>
+    <mergeCell ref="BF27:BM27"/>
+    <mergeCell ref="BF28:BM28"/>
+    <mergeCell ref="BF29:BM29"/>
+    <mergeCell ref="BF30:BM30"/>
+    <mergeCell ref="BF31:BM31"/>
+    <mergeCell ref="BF32:BM32"/>
+    <mergeCell ref="BF33:BM33"/>
+    <mergeCell ref="BF34:BM34"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B21:AA21"/>
+    <mergeCell ref="A24:XFD24"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="R22:AE22"/>
+    <mergeCell ref="J41:Q41"/>
+    <mergeCell ref="J42:Q42"/>
+    <mergeCell ref="J43:Q43"/>
+    <mergeCell ref="R41:Y41"/>
+    <mergeCell ref="R42:Y42"/>
+    <mergeCell ref="R43:Y43"/>
+    <mergeCell ref="Z41:AG41"/>
+    <mergeCell ref="Z42:AG42"/>
+    <mergeCell ref="Z43:AG43"/>
+    <mergeCell ref="J40:Q40"/>
+    <mergeCell ref="R35:Y35"/>
+    <mergeCell ref="R36:Y36"/>
+    <mergeCell ref="R37:Y37"/>
+    <mergeCell ref="R38:Y38"/>
+    <mergeCell ref="R39:Y39"/>
+    <mergeCell ref="R40:Y40"/>
+    <mergeCell ref="R34:Y34"/>
+    <mergeCell ref="AP32:AW32"/>
+    <mergeCell ref="L61:O61"/>
+    <mergeCell ref="J58:Q58"/>
+    <mergeCell ref="J59:Q59"/>
+    <mergeCell ref="J60:Q60"/>
+    <mergeCell ref="J44:Q44"/>
+    <mergeCell ref="J45:Q45"/>
+    <mergeCell ref="J46:Q46"/>
+    <mergeCell ref="J47:Q47"/>
+    <mergeCell ref="J48:Q48"/>
+    <mergeCell ref="J49:Q49"/>
+    <mergeCell ref="J50:Q50"/>
+    <mergeCell ref="J51:Q51"/>
+    <mergeCell ref="J52:Q52"/>
+    <mergeCell ref="J53:Q53"/>
+    <mergeCell ref="J54:Q54"/>
+    <mergeCell ref="J55:Q55"/>
+    <mergeCell ref="J56:Q56"/>
+    <mergeCell ref="J57:Q57"/>
+    <mergeCell ref="AP59:AW59"/>
+    <mergeCell ref="AP60:AW60"/>
+    <mergeCell ref="AX50:BE50"/>
+    <mergeCell ref="AX51:BE51"/>
+    <mergeCell ref="AX52:BE52"/>
+    <mergeCell ref="AX53:BE53"/>
+    <mergeCell ref="AX54:BE54"/>
+    <mergeCell ref="AX55:BE55"/>
+    <mergeCell ref="AX56:BE56"/>
+    <mergeCell ref="AX57:BE57"/>
+    <mergeCell ref="AX58:BE58"/>
+    <mergeCell ref="AX59:BE59"/>
+    <mergeCell ref="AX60:BE60"/>
+    <mergeCell ref="AP50:AW50"/>
+    <mergeCell ref="AP51:AW51"/>
+    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="AM62:AP62"/>
+    <mergeCell ref="AH54:AO54"/>
+    <mergeCell ref="AH55:AO55"/>
+    <mergeCell ref="AH56:AO56"/>
+    <mergeCell ref="AH57:AO57"/>
+    <mergeCell ref="AH58:AO58"/>
+    <mergeCell ref="AH59:AO59"/>
+    <mergeCell ref="AH60:AO60"/>
+    <mergeCell ref="AP52:AW52"/>
+    <mergeCell ref="AP53:AW53"/>
+    <mergeCell ref="AP54:AW54"/>
+    <mergeCell ref="AP55:AW55"/>
+    <mergeCell ref="AP56:AW56"/>
+    <mergeCell ref="AP57:AW57"/>
+    <mergeCell ref="AP58:AW58"/>
+    <mergeCell ref="AP61:AS61"/>
+    <mergeCell ref="AP44:AW44"/>
+    <mergeCell ref="AP45:AW45"/>
+    <mergeCell ref="AP46:AW46"/>
+    <mergeCell ref="AP47:AW47"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="B41:I41"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="B48:I48"/>
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="B51:I51"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="B53:I53"/>
+    <mergeCell ref="B54:I54"/>
+    <mergeCell ref="B55:I55"/>
+    <mergeCell ref="B56:I56"/>
+    <mergeCell ref="B57:I57"/>
+    <mergeCell ref="B58:I58"/>
+    <mergeCell ref="B59:I59"/>
+    <mergeCell ref="B60:I60"/>
+    <mergeCell ref="J23:Q23"/>
+    <mergeCell ref="R23:Y23"/>
+    <mergeCell ref="Z23:AG23"/>
+    <mergeCell ref="J25:Q25"/>
+    <mergeCell ref="J26:Q26"/>
+    <mergeCell ref="J27:Q27"/>
+    <mergeCell ref="J28:Q28"/>
+    <mergeCell ref="J29:Q29"/>
+    <mergeCell ref="J30:Q30"/>
+    <mergeCell ref="J31:Q31"/>
+    <mergeCell ref="J32:Q32"/>
+    <mergeCell ref="J33:Q33"/>
+    <mergeCell ref="J34:Q34"/>
+    <mergeCell ref="J35:Q35"/>
+    <mergeCell ref="J36:Q36"/>
+    <mergeCell ref="J37:Q37"/>
+    <mergeCell ref="J38:Q38"/>
+    <mergeCell ref="J39:Q39"/>
+    <mergeCell ref="R25:Y25"/>
+    <mergeCell ref="R26:Y26"/>
+    <mergeCell ref="R27:Y27"/>
+    <mergeCell ref="R28:Y28"/>
+    <mergeCell ref="R29:Y29"/>
+    <mergeCell ref="R30:Y30"/>
+    <mergeCell ref="R31:Y31"/>
+    <mergeCell ref="R32:Y32"/>
+    <mergeCell ref="R33:Y33"/>
+    <mergeCell ref="R44:Y44"/>
+    <mergeCell ref="R45:Y45"/>
+    <mergeCell ref="R46:Y46"/>
+    <mergeCell ref="R47:Y47"/>
+    <mergeCell ref="R48:Y48"/>
+    <mergeCell ref="R49:Y49"/>
+    <mergeCell ref="R50:Y50"/>
+    <mergeCell ref="R51:Y51"/>
+    <mergeCell ref="R52:Y52"/>
+    <mergeCell ref="R53:Y53"/>
+    <mergeCell ref="R54:Y54"/>
+    <mergeCell ref="R55:Y55"/>
+    <mergeCell ref="R56:Y56"/>
+    <mergeCell ref="R57:Y57"/>
+    <mergeCell ref="R58:Y58"/>
+    <mergeCell ref="R59:Y59"/>
+    <mergeCell ref="R60:Y60"/>
+    <mergeCell ref="Z25:AG25"/>
+    <mergeCell ref="Z26:AG26"/>
+    <mergeCell ref="Z27:AG27"/>
+    <mergeCell ref="Z28:AG28"/>
+    <mergeCell ref="Z29:AG29"/>
+    <mergeCell ref="Z30:AG30"/>
+    <mergeCell ref="Z31:AG31"/>
+    <mergeCell ref="Z32:AG32"/>
+    <mergeCell ref="Z33:AG33"/>
+    <mergeCell ref="Z34:AG34"/>
+    <mergeCell ref="Z35:AG35"/>
+    <mergeCell ref="Z36:AG36"/>
+    <mergeCell ref="Z37:AG37"/>
+    <mergeCell ref="Z38:AG38"/>
+    <mergeCell ref="Z39:AG39"/>
+    <mergeCell ref="Z40:AG40"/>
+    <mergeCell ref="Z53:AG53"/>
+    <mergeCell ref="Z54:AG54"/>
+    <mergeCell ref="Z55:AG55"/>
+    <mergeCell ref="Z56:AG56"/>
+    <mergeCell ref="Z57:AG57"/>
+    <mergeCell ref="Z58:AG58"/>
+    <mergeCell ref="Z59:AG59"/>
+    <mergeCell ref="Z60:AG60"/>
+    <mergeCell ref="AH23:AO23"/>
+    <mergeCell ref="AH27:AO27"/>
+    <mergeCell ref="AH28:AO28"/>
+    <mergeCell ref="AH29:AO29"/>
+    <mergeCell ref="AH30:AO30"/>
+    <mergeCell ref="AH31:AO31"/>
+    <mergeCell ref="Z44:AG44"/>
+    <mergeCell ref="Z45:AG45"/>
+    <mergeCell ref="Z46:AG46"/>
+    <mergeCell ref="Z47:AG47"/>
+    <mergeCell ref="Z48:AG48"/>
+    <mergeCell ref="Z49:AG49"/>
+    <mergeCell ref="Z50:AG50"/>
+    <mergeCell ref="Z51:AG51"/>
+    <mergeCell ref="Z52:AG52"/>
+    <mergeCell ref="AH41:AO41"/>
+    <mergeCell ref="AP31:AW31"/>
+    <mergeCell ref="AX27:BE27"/>
+    <mergeCell ref="AX28:BE28"/>
+    <mergeCell ref="AX29:BE29"/>
+    <mergeCell ref="AX30:BE30"/>
+    <mergeCell ref="AX31:BE31"/>
+    <mergeCell ref="AX32:BE32"/>
+    <mergeCell ref="AP23:AW23"/>
+    <mergeCell ref="AX23:BE23"/>
+    <mergeCell ref="AH32:AO32"/>
+    <mergeCell ref="AX40:BE40"/>
+    <mergeCell ref="BF35:BM35"/>
+    <mergeCell ref="BF36:BM36"/>
+    <mergeCell ref="AH37:AO37"/>
+    <mergeCell ref="AH38:AO38"/>
+    <mergeCell ref="AH39:AO39"/>
+    <mergeCell ref="AH40:AO40"/>
+    <mergeCell ref="CD23:CK23"/>
+    <mergeCell ref="AH25:AO25"/>
+    <mergeCell ref="AH26:AO26"/>
+    <mergeCell ref="AP25:AW25"/>
+    <mergeCell ref="AP26:AW26"/>
+    <mergeCell ref="AX25:BE25"/>
+    <mergeCell ref="AX26:BE26"/>
+    <mergeCell ref="BN25:BU25"/>
+    <mergeCell ref="BN26:BU26"/>
+    <mergeCell ref="BF25:BM25"/>
+    <mergeCell ref="BF26:BM26"/>
+    <mergeCell ref="BF23:BM23"/>
+    <mergeCell ref="BN23:BU23"/>
+    <mergeCell ref="CD25:CK25"/>
+    <mergeCell ref="CD26:CK26"/>
+    <mergeCell ref="AP30:AW30"/>
+    <mergeCell ref="BV23:CC23"/>
+    <mergeCell ref="AP38:AW38"/>
+    <mergeCell ref="AP39:AW39"/>
+    <mergeCell ref="AP40:AW40"/>
+    <mergeCell ref="AP41:AW41"/>
+    <mergeCell ref="AX38:BE38"/>
+    <mergeCell ref="AP33:AW33"/>
+    <mergeCell ref="AP34:AW34"/>
+    <mergeCell ref="AP35:AW35"/>
+    <mergeCell ref="AP36:AW36"/>
+    <mergeCell ref="AP37:AW37"/>
+    <mergeCell ref="AP27:AW27"/>
+    <mergeCell ref="AP28:AW28"/>
+    <mergeCell ref="AP29:AW29"/>
+    <mergeCell ref="AX33:BE33"/>
+    <mergeCell ref="AX34:BE34"/>
+    <mergeCell ref="AX35:BE35"/>
+    <mergeCell ref="AX36:BE36"/>
+    <mergeCell ref="AX37:BE37"/>
+    <mergeCell ref="AX39:BE39"/>
+    <mergeCell ref="BF37:BM37"/>
+    <mergeCell ref="BF38:BM38"/>
+    <mergeCell ref="BF39:BM39"/>
+    <mergeCell ref="BF40:BM40"/>
+    <mergeCell ref="AH45:AO45"/>
+    <mergeCell ref="AH42:AO42"/>
+    <mergeCell ref="AH43:AO43"/>
+    <mergeCell ref="AH44:AO44"/>
+    <mergeCell ref="AH46:AO46"/>
+    <mergeCell ref="AH47:AO47"/>
+    <mergeCell ref="AH48:AO48"/>
+    <mergeCell ref="AH49:AO49"/>
+    <mergeCell ref="AX43:BE43"/>
+    <mergeCell ref="AX44:BE44"/>
+    <mergeCell ref="AX45:BE45"/>
+    <mergeCell ref="AX46:BE46"/>
+    <mergeCell ref="AX47:BE47"/>
+    <mergeCell ref="AX48:BE48"/>
+    <mergeCell ref="AX49:BE49"/>
+    <mergeCell ref="AP42:AW42"/>
+    <mergeCell ref="AP43:AW43"/>
+    <mergeCell ref="AP48:AW48"/>
+    <mergeCell ref="AP49:AW49"/>
+    <mergeCell ref="BF58:BM58"/>
+    <mergeCell ref="BF41:BM41"/>
+    <mergeCell ref="BF42:BM42"/>
+    <mergeCell ref="BF43:BM43"/>
+    <mergeCell ref="BF44:BM44"/>
+    <mergeCell ref="BF45:BM45"/>
+    <mergeCell ref="BF46:BM46"/>
+    <mergeCell ref="BF47:BM47"/>
+    <mergeCell ref="BF48:BM48"/>
+    <mergeCell ref="BF49:BM49"/>
+    <mergeCell ref="BF50:BM50"/>
+    <mergeCell ref="BF51:BM51"/>
+    <mergeCell ref="BF52:BM52"/>
+    <mergeCell ref="BF59:BM59"/>
+    <mergeCell ref="BF60:BM60"/>
+    <mergeCell ref="BN35:BU35"/>
+    <mergeCell ref="BN36:BU36"/>
+    <mergeCell ref="BN37:BU37"/>
+    <mergeCell ref="BN38:BU38"/>
+    <mergeCell ref="BN39:BU39"/>
+    <mergeCell ref="BN40:BU40"/>
+    <mergeCell ref="BN41:BU41"/>
+    <mergeCell ref="BN42:BU42"/>
+    <mergeCell ref="BN43:BU43"/>
+    <mergeCell ref="BN44:BU44"/>
+    <mergeCell ref="BN45:BU45"/>
+    <mergeCell ref="BN46:BU46"/>
+    <mergeCell ref="BN47:BU47"/>
+    <mergeCell ref="BN48:BU48"/>
+    <mergeCell ref="BN49:BU49"/>
+    <mergeCell ref="BN50:BU50"/>
+    <mergeCell ref="BN51:BU51"/>
+    <mergeCell ref="BN52:BU52"/>
+    <mergeCell ref="BN53:BU53"/>
+    <mergeCell ref="BN54:BU54"/>
+    <mergeCell ref="BN55:BU55"/>
+    <mergeCell ref="BN56:BU56"/>
+    <mergeCell ref="BN58:BU58"/>
+    <mergeCell ref="BN59:BU59"/>
+    <mergeCell ref="BN60:BU60"/>
+    <mergeCell ref="BV25:CC25"/>
+    <mergeCell ref="BV27:CC27"/>
+    <mergeCell ref="BV28:CC28"/>
+    <mergeCell ref="BV29:CC29"/>
+    <mergeCell ref="BV30:CC30"/>
+    <mergeCell ref="BV32:CC32"/>
+    <mergeCell ref="BV33:CC33"/>
+    <mergeCell ref="BV34:CC34"/>
+    <mergeCell ref="BV37:CC37"/>
+    <mergeCell ref="BV31:CC31"/>
+    <mergeCell ref="BV39:CC39"/>
+    <mergeCell ref="BV40:CC40"/>
+    <mergeCell ref="BV35:CC35"/>
+    <mergeCell ref="BV36:CC36"/>
+    <mergeCell ref="BV44:CC44"/>
+    <mergeCell ref="BV45:CC45"/>
+    <mergeCell ref="BV46:CC46"/>
+    <mergeCell ref="BV47:CC47"/>
+    <mergeCell ref="BV48:CC48"/>
+    <mergeCell ref="BN27:BU27"/>
+    <mergeCell ref="BN28:BU28"/>
+    <mergeCell ref="B1:BI1"/>
+    <mergeCell ref="AF22:AO22"/>
+    <mergeCell ref="AP22:AX22"/>
+    <mergeCell ref="CD47:CK47"/>
+    <mergeCell ref="CD48:CK48"/>
+    <mergeCell ref="CD49:CK49"/>
+    <mergeCell ref="CD50:CK50"/>
+    <mergeCell ref="AH33:AO33"/>
+    <mergeCell ref="AH34:AO34"/>
+    <mergeCell ref="AH35:AO35"/>
+    <mergeCell ref="AH36:AO36"/>
+    <mergeCell ref="BV26:CC26"/>
+    <mergeCell ref="CD36:CK36"/>
+    <mergeCell ref="CD37:CK37"/>
+    <mergeCell ref="CD38:CK38"/>
+    <mergeCell ref="CD39:CK39"/>
+    <mergeCell ref="CD40:CK40"/>
+    <mergeCell ref="CD41:CK41"/>
+    <mergeCell ref="CD42:CK42"/>
+    <mergeCell ref="CD43:CK43"/>
+    <mergeCell ref="CD44:CK44"/>
+    <mergeCell ref="CD27:CK27"/>
+    <mergeCell ref="CD28:CK28"/>
+    <mergeCell ref="CD29:CK29"/>
+    <mergeCell ref="AH50:AO50"/>
+    <mergeCell ref="AH51:AO51"/>
+    <mergeCell ref="AH52:AO52"/>
+    <mergeCell ref="CL26:CR26"/>
+    <mergeCell ref="CL27:CR27"/>
+    <mergeCell ref="CL28:CR28"/>
+    <mergeCell ref="CL29:CR29"/>
+    <mergeCell ref="CD56:CK56"/>
+    <mergeCell ref="CD57:CK57"/>
+    <mergeCell ref="CD30:CK30"/>
+    <mergeCell ref="CD31:CK31"/>
+    <mergeCell ref="CD32:CK32"/>
+    <mergeCell ref="CD33:CK33"/>
+    <mergeCell ref="CD34:CK34"/>
+    <mergeCell ref="CD35:CK35"/>
+    <mergeCell ref="BN57:BU57"/>
+    <mergeCell ref="BF53:BM53"/>
+    <mergeCell ref="BF54:BM54"/>
+    <mergeCell ref="BF55:BM55"/>
+    <mergeCell ref="BF56:BM56"/>
+    <mergeCell ref="BF57:BM57"/>
+    <mergeCell ref="AH53:AO53"/>
+    <mergeCell ref="AX41:BE41"/>
+    <mergeCell ref="AX42:BE42"/>
     <mergeCell ref="CS26:CY26"/>
     <mergeCell ref="CS43:CY43"/>
     <mergeCell ref="CS44:CY44"/>
@@ -6877,403 +7259,23 @@
     <mergeCell ref="CS49:CY49"/>
     <mergeCell ref="CS50:CY50"/>
     <mergeCell ref="CS51:CY51"/>
-    <mergeCell ref="AH50:AO50"/>
-    <mergeCell ref="AH51:AO51"/>
-    <mergeCell ref="AH52:AO52"/>
-    <mergeCell ref="CL26:CR26"/>
-    <mergeCell ref="CL27:CR27"/>
-    <mergeCell ref="CL28:CR28"/>
-    <mergeCell ref="CL29:CR29"/>
-    <mergeCell ref="CD56:CK56"/>
-    <mergeCell ref="CD57:CK57"/>
-    <mergeCell ref="CD30:CK30"/>
-    <mergeCell ref="CD31:CK31"/>
-    <mergeCell ref="CD32:CK32"/>
-    <mergeCell ref="CD33:CK33"/>
-    <mergeCell ref="CD34:CK34"/>
-    <mergeCell ref="CD35:CK35"/>
-    <mergeCell ref="BN57:BU57"/>
-    <mergeCell ref="BF53:BM53"/>
-    <mergeCell ref="BF54:BM54"/>
-    <mergeCell ref="BF55:BM55"/>
-    <mergeCell ref="BF56:BM56"/>
-    <mergeCell ref="BF57:BM57"/>
-    <mergeCell ref="AH53:AO53"/>
-    <mergeCell ref="AX41:BE41"/>
-    <mergeCell ref="AX42:BE42"/>
-    <mergeCell ref="B1:BI1"/>
-    <mergeCell ref="AF22:AO22"/>
-    <mergeCell ref="AP22:AX22"/>
-    <mergeCell ref="CD47:CK47"/>
-    <mergeCell ref="CD48:CK48"/>
-    <mergeCell ref="CD49:CK49"/>
-    <mergeCell ref="CD50:CK50"/>
-    <mergeCell ref="AH33:AO33"/>
-    <mergeCell ref="AH34:AO34"/>
-    <mergeCell ref="AH35:AO35"/>
-    <mergeCell ref="AH36:AO36"/>
-    <mergeCell ref="BV26:CC26"/>
-    <mergeCell ref="CD36:CK36"/>
-    <mergeCell ref="CD37:CK37"/>
-    <mergeCell ref="CD38:CK38"/>
-    <mergeCell ref="CD39:CK39"/>
-    <mergeCell ref="CD40:CK40"/>
-    <mergeCell ref="CD41:CK41"/>
-    <mergeCell ref="CD42:CK42"/>
-    <mergeCell ref="CD43:CK43"/>
-    <mergeCell ref="CD44:CK44"/>
-    <mergeCell ref="CD27:CK27"/>
-    <mergeCell ref="CD28:CK28"/>
-    <mergeCell ref="CD29:CK29"/>
-    <mergeCell ref="BN58:BU58"/>
-    <mergeCell ref="BN59:BU59"/>
-    <mergeCell ref="BN60:BU60"/>
-    <mergeCell ref="BV25:CC25"/>
-    <mergeCell ref="BV27:CC27"/>
-    <mergeCell ref="BV28:CC28"/>
-    <mergeCell ref="BV29:CC29"/>
-    <mergeCell ref="BV30:CC30"/>
-    <mergeCell ref="BV32:CC32"/>
-    <mergeCell ref="BV33:CC33"/>
-    <mergeCell ref="BV34:CC34"/>
-    <mergeCell ref="BV37:CC37"/>
-    <mergeCell ref="BV31:CC31"/>
-    <mergeCell ref="BV39:CC39"/>
-    <mergeCell ref="BV40:CC40"/>
-    <mergeCell ref="BV35:CC35"/>
-    <mergeCell ref="BV36:CC36"/>
-    <mergeCell ref="BV44:CC44"/>
-    <mergeCell ref="BV45:CC45"/>
-    <mergeCell ref="BV46:CC46"/>
-    <mergeCell ref="BV47:CC47"/>
-    <mergeCell ref="BV48:CC48"/>
-    <mergeCell ref="BN27:BU27"/>
-    <mergeCell ref="BN28:BU28"/>
-    <mergeCell ref="BF59:BM59"/>
-    <mergeCell ref="BF60:BM60"/>
-    <mergeCell ref="BN35:BU35"/>
-    <mergeCell ref="BN36:BU36"/>
-    <mergeCell ref="BN37:BU37"/>
-    <mergeCell ref="BN38:BU38"/>
-    <mergeCell ref="BN39:BU39"/>
-    <mergeCell ref="BN40:BU40"/>
-    <mergeCell ref="BN41:BU41"/>
-    <mergeCell ref="BN42:BU42"/>
-    <mergeCell ref="BN43:BU43"/>
-    <mergeCell ref="BN44:BU44"/>
-    <mergeCell ref="BN45:BU45"/>
-    <mergeCell ref="BN46:BU46"/>
-    <mergeCell ref="BN47:BU47"/>
-    <mergeCell ref="BN48:BU48"/>
-    <mergeCell ref="BN49:BU49"/>
-    <mergeCell ref="BN50:BU50"/>
-    <mergeCell ref="BN51:BU51"/>
-    <mergeCell ref="BN52:BU52"/>
-    <mergeCell ref="BN53:BU53"/>
-    <mergeCell ref="BN54:BU54"/>
-    <mergeCell ref="BN55:BU55"/>
-    <mergeCell ref="BN56:BU56"/>
-    <mergeCell ref="BF58:BM58"/>
-    <mergeCell ref="BF41:BM41"/>
-    <mergeCell ref="BF42:BM42"/>
-    <mergeCell ref="BF43:BM43"/>
-    <mergeCell ref="BF44:BM44"/>
-    <mergeCell ref="BF45:BM45"/>
-    <mergeCell ref="BF46:BM46"/>
-    <mergeCell ref="BF47:BM47"/>
-    <mergeCell ref="BF48:BM48"/>
-    <mergeCell ref="BF49:BM49"/>
-    <mergeCell ref="BF50:BM50"/>
-    <mergeCell ref="BF51:BM51"/>
-    <mergeCell ref="BF52:BM52"/>
-    <mergeCell ref="AH45:AO45"/>
-    <mergeCell ref="AH42:AO42"/>
-    <mergeCell ref="AH43:AO43"/>
-    <mergeCell ref="AH44:AO44"/>
-    <mergeCell ref="AH46:AO46"/>
-    <mergeCell ref="AH47:AO47"/>
-    <mergeCell ref="AH48:AO48"/>
-    <mergeCell ref="AH49:AO49"/>
-    <mergeCell ref="AX43:BE43"/>
-    <mergeCell ref="AX44:BE44"/>
-    <mergeCell ref="AX45:BE45"/>
-    <mergeCell ref="AX46:BE46"/>
-    <mergeCell ref="AX47:BE47"/>
-    <mergeCell ref="AX48:BE48"/>
-    <mergeCell ref="AX49:BE49"/>
-    <mergeCell ref="AP42:AW42"/>
-    <mergeCell ref="AP43:AW43"/>
-    <mergeCell ref="AP48:AW48"/>
-    <mergeCell ref="AP49:AW49"/>
-    <mergeCell ref="BV23:CC23"/>
-    <mergeCell ref="AP38:AW38"/>
-    <mergeCell ref="AP39:AW39"/>
-    <mergeCell ref="AP40:AW40"/>
-    <mergeCell ref="AP41:AW41"/>
-    <mergeCell ref="AX38:BE38"/>
-    <mergeCell ref="AP33:AW33"/>
-    <mergeCell ref="AP34:AW34"/>
-    <mergeCell ref="AP35:AW35"/>
-    <mergeCell ref="AP36:AW36"/>
-    <mergeCell ref="AP37:AW37"/>
-    <mergeCell ref="AP27:AW27"/>
-    <mergeCell ref="AP28:AW28"/>
-    <mergeCell ref="AP29:AW29"/>
-    <mergeCell ref="AX33:BE33"/>
-    <mergeCell ref="AX34:BE34"/>
-    <mergeCell ref="AX35:BE35"/>
-    <mergeCell ref="AX36:BE36"/>
-    <mergeCell ref="AX37:BE37"/>
-    <mergeCell ref="AX39:BE39"/>
-    <mergeCell ref="BF37:BM37"/>
-    <mergeCell ref="BF38:BM38"/>
-    <mergeCell ref="BF39:BM39"/>
-    <mergeCell ref="BF40:BM40"/>
-    <mergeCell ref="AH32:AO32"/>
-    <mergeCell ref="AX40:BE40"/>
-    <mergeCell ref="BF35:BM35"/>
-    <mergeCell ref="BF36:BM36"/>
-    <mergeCell ref="AH37:AO37"/>
-    <mergeCell ref="AH38:AO38"/>
-    <mergeCell ref="AH39:AO39"/>
-    <mergeCell ref="AH40:AO40"/>
-    <mergeCell ref="CD23:CK23"/>
-    <mergeCell ref="AH25:AO25"/>
-    <mergeCell ref="AH26:AO26"/>
-    <mergeCell ref="AP25:AW25"/>
-    <mergeCell ref="AP26:AW26"/>
-    <mergeCell ref="AX25:BE25"/>
-    <mergeCell ref="AX26:BE26"/>
-    <mergeCell ref="BN25:BU25"/>
-    <mergeCell ref="BN26:BU26"/>
-    <mergeCell ref="BF25:BM25"/>
-    <mergeCell ref="BF26:BM26"/>
-    <mergeCell ref="BF23:BM23"/>
-    <mergeCell ref="BN23:BU23"/>
-    <mergeCell ref="CD25:CK25"/>
-    <mergeCell ref="CD26:CK26"/>
-    <mergeCell ref="AP30:AW30"/>
-    <mergeCell ref="AP31:AW31"/>
-    <mergeCell ref="AX27:BE27"/>
-    <mergeCell ref="AX28:BE28"/>
-    <mergeCell ref="AX29:BE29"/>
-    <mergeCell ref="AX30:BE30"/>
-    <mergeCell ref="AX31:BE31"/>
-    <mergeCell ref="AX32:BE32"/>
-    <mergeCell ref="AP23:AW23"/>
-    <mergeCell ref="AX23:BE23"/>
-    <mergeCell ref="Z53:AG53"/>
-    <mergeCell ref="Z54:AG54"/>
-    <mergeCell ref="Z55:AG55"/>
-    <mergeCell ref="Z56:AG56"/>
-    <mergeCell ref="Z57:AG57"/>
-    <mergeCell ref="Z58:AG58"/>
-    <mergeCell ref="Z59:AG59"/>
-    <mergeCell ref="Z60:AG60"/>
-    <mergeCell ref="AH23:AO23"/>
-    <mergeCell ref="AH27:AO27"/>
-    <mergeCell ref="AH28:AO28"/>
-    <mergeCell ref="AH29:AO29"/>
-    <mergeCell ref="AH30:AO30"/>
-    <mergeCell ref="AH31:AO31"/>
-    <mergeCell ref="Z44:AG44"/>
-    <mergeCell ref="Z45:AG45"/>
-    <mergeCell ref="Z46:AG46"/>
-    <mergeCell ref="Z47:AG47"/>
-    <mergeCell ref="Z48:AG48"/>
-    <mergeCell ref="Z49:AG49"/>
-    <mergeCell ref="Z50:AG50"/>
-    <mergeCell ref="Z51:AG51"/>
-    <mergeCell ref="Z52:AG52"/>
-    <mergeCell ref="AH41:AO41"/>
-    <mergeCell ref="R53:Y53"/>
-    <mergeCell ref="R54:Y54"/>
-    <mergeCell ref="R55:Y55"/>
-    <mergeCell ref="R56:Y56"/>
-    <mergeCell ref="R57:Y57"/>
-    <mergeCell ref="R58:Y58"/>
-    <mergeCell ref="R59:Y59"/>
-    <mergeCell ref="R60:Y60"/>
-    <mergeCell ref="Z25:AG25"/>
-    <mergeCell ref="Z26:AG26"/>
-    <mergeCell ref="Z27:AG27"/>
-    <mergeCell ref="Z28:AG28"/>
-    <mergeCell ref="Z29:AG29"/>
-    <mergeCell ref="Z30:AG30"/>
-    <mergeCell ref="Z31:AG31"/>
-    <mergeCell ref="Z32:AG32"/>
-    <mergeCell ref="Z33:AG33"/>
-    <mergeCell ref="Z34:AG34"/>
-    <mergeCell ref="Z35:AG35"/>
-    <mergeCell ref="Z36:AG36"/>
-    <mergeCell ref="Z37:AG37"/>
-    <mergeCell ref="Z38:AG38"/>
-    <mergeCell ref="Z39:AG39"/>
-    <mergeCell ref="Z40:AG40"/>
-    <mergeCell ref="R44:Y44"/>
-    <mergeCell ref="R45:Y45"/>
-    <mergeCell ref="R46:Y46"/>
-    <mergeCell ref="R47:Y47"/>
-    <mergeCell ref="R48:Y48"/>
-    <mergeCell ref="R49:Y49"/>
-    <mergeCell ref="R50:Y50"/>
-    <mergeCell ref="R51:Y51"/>
-    <mergeCell ref="R52:Y52"/>
-    <mergeCell ref="R25:Y25"/>
-    <mergeCell ref="R26:Y26"/>
-    <mergeCell ref="R27:Y27"/>
-    <mergeCell ref="R28:Y28"/>
-    <mergeCell ref="R29:Y29"/>
-    <mergeCell ref="R30:Y30"/>
-    <mergeCell ref="R31:Y31"/>
-    <mergeCell ref="R32:Y32"/>
-    <mergeCell ref="R33:Y33"/>
-    <mergeCell ref="B55:I55"/>
-    <mergeCell ref="B56:I56"/>
-    <mergeCell ref="B57:I57"/>
-    <mergeCell ref="B58:I58"/>
-    <mergeCell ref="B59:I59"/>
-    <mergeCell ref="B60:I60"/>
-    <mergeCell ref="J23:Q23"/>
-    <mergeCell ref="R23:Y23"/>
-    <mergeCell ref="Z23:AG23"/>
-    <mergeCell ref="J25:Q25"/>
-    <mergeCell ref="J26:Q26"/>
-    <mergeCell ref="J27:Q27"/>
-    <mergeCell ref="J28:Q28"/>
-    <mergeCell ref="J29:Q29"/>
-    <mergeCell ref="J30:Q30"/>
-    <mergeCell ref="J31:Q31"/>
-    <mergeCell ref="J32:Q32"/>
-    <mergeCell ref="J33:Q33"/>
-    <mergeCell ref="J34:Q34"/>
-    <mergeCell ref="J35:Q35"/>
-    <mergeCell ref="J36:Q36"/>
-    <mergeCell ref="J37:Q37"/>
-    <mergeCell ref="J38:Q38"/>
-    <mergeCell ref="J39:Q39"/>
-    <mergeCell ref="B46:I46"/>
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="B48:I48"/>
-    <mergeCell ref="B49:I49"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="B51:I51"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="B53:I53"/>
-    <mergeCell ref="B54:I54"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="B39:I39"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="B41:I41"/>
-    <mergeCell ref="B42:I42"/>
-    <mergeCell ref="B43:I43"/>
-    <mergeCell ref="B44:I44"/>
-    <mergeCell ref="B45:I45"/>
-    <mergeCell ref="AM62:AP62"/>
-    <mergeCell ref="AH54:AO54"/>
-    <mergeCell ref="AH55:AO55"/>
-    <mergeCell ref="AH56:AO56"/>
-    <mergeCell ref="AH57:AO57"/>
-    <mergeCell ref="AH58:AO58"/>
-    <mergeCell ref="AH59:AO59"/>
-    <mergeCell ref="AH60:AO60"/>
-    <mergeCell ref="AP52:AW52"/>
-    <mergeCell ref="AP53:AW53"/>
-    <mergeCell ref="AP54:AW54"/>
-    <mergeCell ref="AP55:AW55"/>
-    <mergeCell ref="AP56:AW56"/>
-    <mergeCell ref="AP57:AW57"/>
-    <mergeCell ref="AP58:AW58"/>
-    <mergeCell ref="AP61:AS61"/>
-    <mergeCell ref="AP44:AW44"/>
-    <mergeCell ref="AP45:AW45"/>
-    <mergeCell ref="AP46:AW46"/>
-    <mergeCell ref="AP47:AW47"/>
-    <mergeCell ref="AP59:AW59"/>
-    <mergeCell ref="AP60:AW60"/>
-    <mergeCell ref="AX50:BE50"/>
-    <mergeCell ref="AX51:BE51"/>
-    <mergeCell ref="AX52:BE52"/>
-    <mergeCell ref="AX53:BE53"/>
-    <mergeCell ref="AX54:BE54"/>
-    <mergeCell ref="AX55:BE55"/>
-    <mergeCell ref="AX56:BE56"/>
-    <mergeCell ref="AX57:BE57"/>
-    <mergeCell ref="AX58:BE58"/>
-    <mergeCell ref="AX59:BE59"/>
-    <mergeCell ref="AX60:BE60"/>
-    <mergeCell ref="AP50:AW50"/>
-    <mergeCell ref="AP51:AW51"/>
-    <mergeCell ref="L61:O61"/>
-    <mergeCell ref="J58:Q58"/>
-    <mergeCell ref="J59:Q59"/>
-    <mergeCell ref="J60:Q60"/>
-    <mergeCell ref="J44:Q44"/>
-    <mergeCell ref="J45:Q45"/>
-    <mergeCell ref="J46:Q46"/>
-    <mergeCell ref="J47:Q47"/>
-    <mergeCell ref="J48:Q48"/>
-    <mergeCell ref="J49:Q49"/>
-    <mergeCell ref="J50:Q50"/>
-    <mergeCell ref="J51:Q51"/>
-    <mergeCell ref="J52:Q52"/>
-    <mergeCell ref="J53:Q53"/>
-    <mergeCell ref="J54:Q54"/>
-    <mergeCell ref="J55:Q55"/>
-    <mergeCell ref="J56:Q56"/>
-    <mergeCell ref="J57:Q57"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B21:AA21"/>
-    <mergeCell ref="A24:XFD24"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="K22:Q22"/>
-    <mergeCell ref="R22:AE22"/>
-    <mergeCell ref="J41:Q41"/>
-    <mergeCell ref="J42:Q42"/>
-    <mergeCell ref="J43:Q43"/>
-    <mergeCell ref="R41:Y41"/>
-    <mergeCell ref="R42:Y42"/>
-    <mergeCell ref="R43:Y43"/>
-    <mergeCell ref="Z41:AG41"/>
-    <mergeCell ref="Z42:AG42"/>
-    <mergeCell ref="Z43:AG43"/>
-    <mergeCell ref="J40:Q40"/>
-    <mergeCell ref="R35:Y35"/>
-    <mergeCell ref="R36:Y36"/>
-    <mergeCell ref="R37:Y37"/>
-    <mergeCell ref="R38:Y38"/>
-    <mergeCell ref="R39:Y39"/>
-    <mergeCell ref="R40:Y40"/>
-    <mergeCell ref="R34:Y34"/>
-    <mergeCell ref="AP32:AW32"/>
-    <mergeCell ref="BN29:BU29"/>
-    <mergeCell ref="BN30:BU30"/>
-    <mergeCell ref="BN31:BU31"/>
-    <mergeCell ref="BN32:BU32"/>
-    <mergeCell ref="BN33:BU33"/>
-    <mergeCell ref="BN34:BU34"/>
-    <mergeCell ref="BF27:BM27"/>
-    <mergeCell ref="BF28:BM28"/>
-    <mergeCell ref="BF29:BM29"/>
-    <mergeCell ref="BF30:BM30"/>
-    <mergeCell ref="BF31:BM31"/>
-    <mergeCell ref="BF32:BM32"/>
-    <mergeCell ref="BF33:BM33"/>
-    <mergeCell ref="BF34:BM34"/>
+    <mergeCell ref="CS52:CY52"/>
+    <mergeCell ref="CS27:CY27"/>
+    <mergeCell ref="CS28:CY28"/>
+    <mergeCell ref="CS29:CY29"/>
+    <mergeCell ref="CS30:CY30"/>
+    <mergeCell ref="CS31:CY31"/>
+    <mergeCell ref="CS32:CY32"/>
+    <mergeCell ref="CS33:CY33"/>
+    <mergeCell ref="CS34:CY34"/>
+    <mergeCell ref="CS35:CY35"/>
+    <mergeCell ref="CS36:CY36"/>
+    <mergeCell ref="CS37:CY37"/>
+    <mergeCell ref="CS38:CY38"/>
+    <mergeCell ref="CS39:CY39"/>
+    <mergeCell ref="CS40:CY40"/>
+    <mergeCell ref="CS41:CY41"/>
+    <mergeCell ref="CS42:CY42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7282,69 +7284,69 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="2" customFormat="1">
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="27">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="27">
         <v>8</v>
       </c>
       <c r="B9" s="27"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
         <v>9</v>
       </c>
       <c r="B10" s="25"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="27">
         <v>10</v>
       </c>
@@ -7356,7 +7358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EK59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7364,7 +7366,7 @@
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
@@ -7486,7 +7488,7 @@
     <col min="141" max="141" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:141" s="21" customFormat="1">
+    <row r="1" spans="1:141" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>19</v>
       </c>
@@ -7530,7 +7532,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:141">
+    <row r="2" spans="1:141" x14ac:dyDescent="0.25">
       <c r="B2" s="80" t="s">
         <v>86</v>
       </c>
@@ -7584,7 +7586,7 @@
       <c r="CA2" s="41"/>
       <c r="CB2" s="41"/>
     </row>
-    <row r="3" spans="1:141">
+    <row r="3" spans="1:141" x14ac:dyDescent="0.25">
       <c r="B3" s="80" t="s">
         <v>85</v>
       </c>
@@ -7624,7 +7626,7 @@
       <c r="CA3" s="41"/>
       <c r="CB3" s="41"/>
     </row>
-    <row r="4" spans="1:141">
+    <row r="4" spans="1:141" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>89</v>
       </c>
@@ -7654,7 +7656,7 @@
       <c r="BZ4" s="36"/>
       <c r="CB4" s="41"/>
     </row>
-    <row r="5" spans="1:141">
+    <row r="5" spans="1:141" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>90</v>
       </c>
@@ -7676,7 +7678,7 @@
       <c r="BY5" s="55"/>
       <c r="BZ5" s="36"/>
     </row>
-    <row r="6" spans="1:141">
+    <row r="6" spans="1:141" x14ac:dyDescent="0.25">
       <c r="C6" s="24"/>
       <c r="E6" s="41"/>
       <c r="I6" s="26"/>
@@ -7685,30 +7687,30 @@
       <c r="Y6" s="26"/>
       <c r="BZ6" s="36"/>
     </row>
-    <row r="7" spans="1:141">
+    <row r="7" spans="1:141" x14ac:dyDescent="0.25">
       <c r="E7" s="41"/>
       <c r="BZ7" s="36"/>
     </row>
-    <row r="8" spans="1:141">
+    <row r="8" spans="1:141" x14ac:dyDescent="0.25">
       <c r="BZ8" s="36"/>
     </row>
-    <row r="9" spans="1:141">
+    <row r="9" spans="1:141" x14ac:dyDescent="0.25">
       <c r="BZ9" s="36"/>
     </row>
-    <row r="10" spans="1:141">
+    <row r="10" spans="1:141" x14ac:dyDescent="0.25">
       <c r="E10" s="20"/>
       <c r="BZ10" s="36"/>
     </row>
-    <row r="11" spans="1:141">
+    <row r="11" spans="1:141" x14ac:dyDescent="0.25">
       <c r="BZ11" s="36"/>
     </row>
-    <row r="12" spans="1:141" s="20" customFormat="1">
+    <row r="12" spans="1:141" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:141">
+    <row r="13" spans="1:141" x14ac:dyDescent="0.25">
       <c r="E13" s="41"/>
       <c r="F13" s="39"/>
       <c r="G13" s="50"/>
@@ -7804,7 +7806,7 @@
       <c r="EJ13" s="5"/>
       <c r="EK13" s="5"/>
     </row>
-    <row r="14" spans="1:141">
+    <row r="14" spans="1:141" x14ac:dyDescent="0.25">
       <c r="D14" s="8"/>
       <c r="E14" s="41"/>
       <c r="F14" s="39"/>
@@ -7912,7 +7914,7 @@
       <c r="EJ14" s="5"/>
       <c r="EK14" s="5"/>
     </row>
-    <row r="15" spans="1:141">
+    <row r="15" spans="1:141" x14ac:dyDescent="0.25">
       <c r="E15" s="41"/>
       <c r="F15" s="39"/>
       <c r="G15" s="50"/>
@@ -8001,7 +8003,7 @@
       <c r="EJ15" s="5"/>
       <c r="EK15" s="5"/>
     </row>
-    <row r="16" spans="1:141">
+    <row r="16" spans="1:141" x14ac:dyDescent="0.25">
       <c r="F16" s="39"/>
       <c r="G16" s="50"/>
       <c r="L16" s="38"/>
@@ -8075,7 +8077,7 @@
       <c r="EJ16" s="5"/>
       <c r="EK16" s="5"/>
     </row>
-    <row r="17" spans="6:141">
+    <row r="17" spans="6:141" x14ac:dyDescent="0.25">
       <c r="F17" s="39"/>
       <c r="G17" s="50"/>
       <c r="L17" s="40"/>
@@ -8128,7 +8130,7 @@
       <c r="DZ17" s="5"/>
       <c r="EK17" s="5"/>
     </row>
-    <row r="18" spans="6:141">
+    <row r="18" spans="6:141" x14ac:dyDescent="0.25">
       <c r="G18" s="5"/>
       <c r="L18" s="40"/>
       <c r="T18" s="5"/>
@@ -8162,7 +8164,7 @@
       <c r="DZ18" s="5"/>
       <c r="EK18" s="5"/>
     </row>
-    <row r="19" spans="6:141">
+    <row r="19" spans="6:141" x14ac:dyDescent="0.25">
       <c r="G19" s="50"/>
       <c r="L19" s="40"/>
       <c r="T19" s="5"/>
@@ -8175,7 +8177,7 @@
       <c r="DZ19" s="5"/>
       <c r="EK19" s="5"/>
     </row>
-    <row r="20" spans="6:141">
+    <row r="20" spans="6:141" x14ac:dyDescent="0.25">
       <c r="G20" s="50"/>
       <c r="L20" s="40"/>
       <c r="T20" s="5"/>
@@ -8188,7 +8190,7 @@
       <c r="DZ20" s="5"/>
       <c r="EK20" s="5"/>
     </row>
-    <row r="21" spans="6:141">
+    <row r="21" spans="6:141" x14ac:dyDescent="0.25">
       <c r="G21" s="50"/>
       <c r="L21" s="40"/>
       <c r="U21" s="56"/>
@@ -8198,7 +8200,7 @@
       <c r="BZ21" s="39"/>
       <c r="DZ21" s="5"/>
     </row>
-    <row r="22" spans="6:141">
+    <row r="22" spans="6:141" x14ac:dyDescent="0.25">
       <c r="G22" s="50"/>
       <c r="L22" s="40"/>
       <c r="U22" s="56"/>
@@ -8207,25 +8209,25 @@
       <c r="BS22" s="31"/>
       <c r="BZ22" s="39"/>
     </row>
-    <row r="23" spans="6:141">
+    <row r="23" spans="6:141" x14ac:dyDescent="0.25">
       <c r="L23" s="40"/>
       <c r="U23" s="56"/>
       <c r="AU23" s="41"/>
       <c r="BM23" s="28"/>
       <c r="BZ23" s="39"/>
     </row>
-    <row r="24" spans="6:141">
+    <row r="24" spans="6:141" x14ac:dyDescent="0.25">
       <c r="L24" s="40"/>
       <c r="U24" s="56"/>
       <c r="AU24" s="41"/>
       <c r="BM24" s="28"/>
     </row>
-    <row r="25" spans="6:141">
+    <row r="25" spans="6:141" x14ac:dyDescent="0.25">
       <c r="U25" s="57"/>
       <c r="AU25" s="41"/>
       <c r="BM25" s="28"/>
     </row>
-    <row r="26" spans="6:141" ht="33.75">
+    <row r="26" spans="6:141" ht="33.75" x14ac:dyDescent="0.25">
       <c r="S26" t="s">
         <v>36</v>
       </c>
@@ -8242,7 +8244,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="6:141" ht="33.75">
+    <row r="27" spans="6:141" ht="33.75" x14ac:dyDescent="0.25">
       <c r="S27" t="s">
         <v>37</v>
       </c>
@@ -8257,7 +8259,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="6:141" ht="33.75">
+    <row r="28" spans="6:141" ht="33.75" x14ac:dyDescent="0.25">
       <c r="S28" t="s">
         <v>38</v>
       </c>
@@ -8269,7 +8271,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="6:141" ht="56.25">
+    <row r="29" spans="6:141" ht="56.25" x14ac:dyDescent="0.25">
       <c r="S29" t="s">
         <v>39</v>
       </c>
@@ -8281,7 +8283,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="6:141">
+    <row r="30" spans="6:141" x14ac:dyDescent="0.25">
       <c r="S30" t="s">
         <v>40</v>
       </c>
@@ -8290,7 +8292,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="6:141">
+    <row r="31" spans="6:141" x14ac:dyDescent="0.25">
       <c r="S31" t="s">
         <v>41</v>
       </c>
@@ -8299,7 +8301,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="6:141">
+    <row r="32" spans="6:141" x14ac:dyDescent="0.25">
       <c r="S32" t="s">
         <v>42</v>
       </c>
@@ -8309,7 +8311,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="19:72">
+    <row r="33" spans="19:72" x14ac:dyDescent="0.25">
       <c r="S33" t="s">
         <v>43</v>
       </c>
@@ -8319,7 +8321,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="19:72">
+    <row r="34" spans="19:72" x14ac:dyDescent="0.25">
       <c r="S34" t="s">
         <v>44</v>
       </c>
@@ -8328,7 +8330,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="19:72">
+    <row r="35" spans="19:72" x14ac:dyDescent="0.25">
       <c r="S35" t="s">
         <v>45</v>
       </c>
@@ -8336,81 +8338,81 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="19:72">
+    <row r="36" spans="19:72" x14ac:dyDescent="0.25">
       <c r="S36" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="19:72">
+    <row r="37" spans="19:72" x14ac:dyDescent="0.25">
       <c r="S37" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="19:72">
+    <row r="38" spans="19:72" x14ac:dyDescent="0.25">
       <c r="S38" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="19:72">
+    <row r="39" spans="19:72" x14ac:dyDescent="0.25">
       <c r="S39" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="19:72">
+    <row r="40" spans="19:72" x14ac:dyDescent="0.25">
       <c r="S40" t="s">
         <v>50</v>
       </c>
       <c r="AU40" s="32"/>
     </row>
-    <row r="41" spans="19:72">
+    <row r="41" spans="19:72" x14ac:dyDescent="0.25">
       <c r="S41" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="19:72">
+    <row r="42" spans="19:72" x14ac:dyDescent="0.25">
       <c r="S42" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="19:72">
+    <row r="43" spans="19:72" x14ac:dyDescent="0.25">
       <c r="S43" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="19:72">
+    <row r="44" spans="19:72" x14ac:dyDescent="0.25">
       <c r="AU44" s="41"/>
     </row>
-    <row r="49" spans="47:47">
+    <row r="49" spans="47:47" x14ac:dyDescent="0.25">
       <c r="AU49" s="32"/>
     </row>
-    <row r="50" spans="47:47">
+    <row r="50" spans="47:47" x14ac:dyDescent="0.25">
       <c r="AU50" s="32"/>
     </row>
-    <row r="51" spans="47:47">
+    <row r="51" spans="47:47" x14ac:dyDescent="0.25">
       <c r="AU51" s="32"/>
     </row>
-    <row r="52" spans="47:47">
+    <row r="52" spans="47:47" x14ac:dyDescent="0.25">
       <c r="AU52" s="32"/>
     </row>
-    <row r="53" spans="47:47">
+    <row r="53" spans="47:47" x14ac:dyDescent="0.25">
       <c r="AU53" s="32"/>
     </row>
-    <row r="54" spans="47:47">
+    <row r="54" spans="47:47" x14ac:dyDescent="0.25">
       <c r="AU54" s="32"/>
     </row>
-    <row r="55" spans="47:47">
+    <row r="55" spans="47:47" x14ac:dyDescent="0.25">
       <c r="AU55" s="32"/>
     </row>
-    <row r="56" spans="47:47">
+    <row r="56" spans="47:47" x14ac:dyDescent="0.25">
       <c r="AU56" s="32"/>
     </row>
-    <row r="57" spans="47:47">
+    <row r="57" spans="47:47" x14ac:dyDescent="0.25">
       <c r="AU57" s="32"/>
     </row>
-    <row r="58" spans="47:47">
+    <row r="58" spans="47:47" x14ac:dyDescent="0.25">
       <c r="AU58" s="32"/>
     </row>
-    <row r="59" spans="47:47">
+    <row r="59" spans="47:47" x14ac:dyDescent="0.25">
       <c r="AU59" s="32"/>
     </row>
   </sheetData>
@@ -8421,21 +8423,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2:K58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="62.140625" customWidth="1"/>
     <col min="11" max="11" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -8455,7 +8457,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
@@ -8463,7 +8465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2</v>
       </c>
@@ -8471,226 +8473,226 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="9:10">
+    <row r="17" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="9:10">
+    <row r="18" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="9:10">
+    <row r="19" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="9:10">
+    <row r="20" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="9:10">
+    <row r="21" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="9:10">
+    <row r="22" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="9:10">
+    <row r="23" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="9:10">
+    <row r="24" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I24">
         <v>23</v>
       </c>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="9:10">
+    <row r="25" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="9:10">
+    <row r="26" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="9:10">
+    <row r="27" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="9:10">
+    <row r="28" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="9:10">
+    <row r="29" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="9:10">
+    <row r="30" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="9:10">
+    <row r="31" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="9:10">
+    <row r="32" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="9:9">
+    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="9:9">
+    <row r="34" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="9:9">
+    <row r="35" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="9:9">
+    <row r="36" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="9:9">
+    <row r="37" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="9:9">
+    <row r="38" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="9:9">
+    <row r="39" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="9:9">
+    <row r="40" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="9:9">
+    <row r="41" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="9:9">
+    <row r="42" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="9:9">
+    <row r="43" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I43">
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="11:11">
+    <row r="52" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K52" s="23"/>
     </row>
-    <row r="53" spans="11:11">
+    <row r="53" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K53" s="23"/>
     </row>
-    <row r="54" spans="11:11">
+    <row r="54" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K54" s="23"/>
     </row>
-    <row r="55" spans="11:11">
+    <row r="55" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K55" s="23"/>
     </row>
-    <row r="56" spans="11:11">
+    <row r="56" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K56" s="23"/>
     </row>
-    <row r="57" spans="11:11">
+    <row r="57" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K57" s="23"/>
     </row>
-    <row r="58" spans="11:11">
+    <row r="58" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K58" s="23"/>
     </row>
   </sheetData>
@@ -8700,14 +8702,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.7109375" style="80" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" customWidth="1"/>
@@ -8728,7 +8728,7 @@
     <col min="17" max="17" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="83" t="s">
         <v>117</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -8849,7 +8849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>91</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>91</v>
       </c>
@@ -9030,7 +9030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>91</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>91</v>
       </c>
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>100</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="80" t="s">
         <v>92</v>
       </c>
@@ -9271,7 +9271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="80" t="s">
         <v>92</v>
       </c>
@@ -9330,7 +9330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="80" t="s">
         <v>69</v>
       </c>
@@ -9389,7 +9389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="80" t="s">
         <v>69</v>
       </c>
@@ -9448,7 +9448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="80" t="s">
         <v>69</v>
       </c>
@@ -9507,7 +9507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="80" t="s">
         <v>74</v>
       </c>
@@ -9566,7 +9566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="80" t="s">
         <v>74</v>
       </c>
@@ -9625,7 +9625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="80" t="s">
         <v>98</v>
       </c>
@@ -9684,7 +9684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="80" t="s">
         <v>98</v>
       </c>
@@ -9743,7 +9743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="80" t="s">
         <v>76</v>
       </c>
@@ -9802,7 +9802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="81" t="s">
         <v>77</v>
       </c>
@@ -9840,7 +9840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="80" t="s">
         <v>78</v>
       </c>
@@ -9878,7 +9878,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="80" t="s">
         <v>101</v>
       </c>
@@ -9937,7 +9937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="80" t="s">
         <v>103</v>
       </c>
@@ -9996,7 +9996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="80" t="s">
         <v>82</v>
       </c>

--- a/CFC/Docs/CFC DWH Bus Matrix.xlsx
+++ b/CFC/Docs/CFC DWH Bus Matrix.xlsx
@@ -1247,13 +1247,75 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1265,11 +1327,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1279,68 +1341,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1673,74 +1673,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:176" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
-      <c r="X1" s="96"/>
-      <c r="Y1" s="96"/>
-      <c r="Z1" s="96"/>
-      <c r="AA1" s="96"/>
-      <c r="AB1" s="96"/>
-      <c r="AC1" s="96"/>
-      <c r="AD1" s="96"/>
-      <c r="AE1" s="96"/>
-      <c r="AF1" s="96"/>
-      <c r="AG1" s="96"/>
-      <c r="AH1" s="96"/>
-      <c r="AI1" s="96"/>
-      <c r="AJ1" s="96"/>
-      <c r="AK1" s="96"/>
-      <c r="AL1" s="96"/>
-      <c r="AM1" s="96"/>
-      <c r="AN1" s="96"/>
-      <c r="AO1" s="96"/>
-      <c r="AP1" s="96"/>
-      <c r="AQ1" s="96"/>
-      <c r="AR1" s="96"/>
-      <c r="AS1" s="96"/>
-      <c r="AT1" s="96"/>
-      <c r="AU1" s="96"/>
-      <c r="AV1" s="96"/>
-      <c r="AW1" s="96"/>
-      <c r="AX1" s="96"/>
-      <c r="AY1" s="96"/>
-      <c r="AZ1" s="96"/>
-      <c r="BA1" s="96"/>
-      <c r="BB1" s="96"/>
-      <c r="BC1" s="96"/>
-      <c r="BD1" s="96"/>
-      <c r="BE1" s="96"/>
-      <c r="BF1" s="96"/>
-      <c r="BG1" s="96"/>
-      <c r="BH1" s="96"/>
-      <c r="BI1" s="96"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="118"/>
+      <c r="T1" s="118"/>
+      <c r="U1" s="118"/>
+      <c r="V1" s="118"/>
+      <c r="W1" s="118"/>
+      <c r="X1" s="118"/>
+      <c r="Y1" s="118"/>
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="118"/>
+      <c r="AB1" s="118"/>
+      <c r="AC1" s="118"/>
+      <c r="AD1" s="118"/>
+      <c r="AE1" s="118"/>
+      <c r="AF1" s="118"/>
+      <c r="AG1" s="118"/>
+      <c r="AH1" s="118"/>
+      <c r="AI1" s="118"/>
+      <c r="AJ1" s="118"/>
+      <c r="AK1" s="118"/>
+      <c r="AL1" s="118"/>
+      <c r="AM1" s="118"/>
+      <c r="AN1" s="118"/>
+      <c r="AO1" s="118"/>
+      <c r="AP1" s="118"/>
+      <c r="AQ1" s="118"/>
+      <c r="AR1" s="118"/>
+      <c r="AS1" s="118"/>
+      <c r="AT1" s="118"/>
+      <c r="AU1" s="118"/>
+      <c r="AV1" s="118"/>
+      <c r="AW1" s="118"/>
+      <c r="AX1" s="118"/>
+      <c r="AY1" s="118"/>
+      <c r="AZ1" s="118"/>
+      <c r="BA1" s="118"/>
+      <c r="BB1" s="118"/>
+      <c r="BC1" s="118"/>
+      <c r="BD1" s="118"/>
+      <c r="BE1" s="118"/>
+      <c r="BF1" s="118"/>
+      <c r="BG1" s="118"/>
+      <c r="BH1" s="118"/>
+      <c r="BI1" s="118"/>
     </row>
     <row r="2" spans="1:176" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="117"/>
+      <c r="A2" s="90"/>
       <c r="B2" s="49">
         <v>1</v>
       </c>
@@ -2439,7 +2439,7 @@
       <c r="FT2" s="49"/>
     </row>
     <row r="3" spans="1:176" s="2" customFormat="1" ht="248.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="117"/>
+      <c r="A3" s="90"/>
       <c r="B3" s="67" t="s">
         <v>5</v>
       </c>
@@ -2813,98 +2813,98 @@
     <row r="20" spans="1:104" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A21" s="71"/>
-      <c r="B21" s="118" t="s">
+      <c r="B21" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="118"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="118"/>
-      <c r="J21" s="118"/>
-      <c r="K21" s="118"/>
-      <c r="L21" s="118"/>
-      <c r="M21" s="118"/>
-      <c r="N21" s="118"/>
-      <c r="O21" s="118"/>
-      <c r="P21" s="118"/>
-      <c r="Q21" s="118"/>
-      <c r="R21" s="118"/>
-      <c r="S21" s="118"/>
-      <c r="T21" s="118"/>
-      <c r="U21" s="118"/>
-      <c r="V21" s="118"/>
-      <c r="W21" s="118"/>
-      <c r="X21" s="118"/>
-      <c r="Y21" s="118"/>
-      <c r="Z21" s="118"/>
-      <c r="AA21" s="118"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
+      <c r="N21" s="91"/>
+      <c r="O21" s="91"/>
+      <c r="P21" s="91"/>
+      <c r="Q21" s="91"/>
+      <c r="R21" s="91"/>
+      <c r="S21" s="91"/>
+      <c r="T21" s="91"/>
+      <c r="U21" s="91"/>
+      <c r="V21" s="91"/>
+      <c r="W21" s="91"/>
+      <c r="X21" s="91"/>
+      <c r="Y21" s="91"/>
+      <c r="Z21" s="91"/>
+      <c r="AA21" s="91"/>
     </row>
     <row r="22" spans="1:104" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="89" t="s">
+      <c r="B22" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="90" t="s">
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="L22" s="90"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="90"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="90"/>
-      <c r="Q22" s="90"/>
-      <c r="R22" s="120" t="s">
+      <c r="L22" s="95"/>
+      <c r="M22" s="95"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="95"/>
+      <c r="Q22" s="95"/>
+      <c r="R22" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="S22" s="120"/>
-      <c r="T22" s="120"/>
-      <c r="U22" s="120"/>
-      <c r="V22" s="120"/>
-      <c r="W22" s="120"/>
-      <c r="X22" s="120"/>
-      <c r="Y22" s="120"/>
-      <c r="Z22" s="120"/>
-      <c r="AA22" s="120"/>
-      <c r="AB22" s="120"/>
-      <c r="AC22" s="120"/>
-      <c r="AD22" s="120"/>
-      <c r="AE22" s="120"/>
-      <c r="AF22" s="97" t="s">
+      <c r="S22" s="96"/>
+      <c r="T22" s="96"/>
+      <c r="U22" s="96"/>
+      <c r="V22" s="96"/>
+      <c r="W22" s="96"/>
+      <c r="X22" s="96"/>
+      <c r="Y22" s="96"/>
+      <c r="Z22" s="96"/>
+      <c r="AA22" s="96"/>
+      <c r="AB22" s="96"/>
+      <c r="AC22" s="96"/>
+      <c r="AD22" s="96"/>
+      <c r="AE22" s="96"/>
+      <c r="AF22" s="119" t="s">
         <v>61</v>
       </c>
-      <c r="AG22" s="97"/>
-      <c r="AH22" s="97"/>
-      <c r="AI22" s="97"/>
-      <c r="AJ22" s="97"/>
-      <c r="AK22" s="97"/>
-      <c r="AL22" s="97"/>
-      <c r="AM22" s="97"/>
-      <c r="AN22" s="97"/>
-      <c r="AO22" s="97"/>
-      <c r="AP22" s="98" t="s">
+      <c r="AG22" s="119"/>
+      <c r="AH22" s="119"/>
+      <c r="AI22" s="119"/>
+      <c r="AJ22" s="119"/>
+      <c r="AK22" s="119"/>
+      <c r="AL22" s="119"/>
+      <c r="AM22" s="119"/>
+      <c r="AN22" s="119"/>
+      <c r="AO22" s="119"/>
+      <c r="AP22" s="120" t="s">
         <v>62</v>
       </c>
-      <c r="AQ22" s="98"/>
-      <c r="AR22" s="98"/>
-      <c r="AS22" s="98"/>
-      <c r="AT22" s="98"/>
-      <c r="AU22" s="98"/>
-      <c r="AV22" s="98"/>
-      <c r="AW22" s="98"/>
-      <c r="AX22" s="98"/>
+      <c r="AQ22" s="120"/>
+      <c r="AR22" s="120"/>
+      <c r="AS22" s="120"/>
+      <c r="AT22" s="120"/>
+      <c r="AU22" s="120"/>
+      <c r="AV22" s="120"/>
+      <c r="AW22" s="120"/>
+      <c r="AX22" s="120"/>
       <c r="AY22" s="64"/>
       <c r="AZ22" s="64"/>
       <c r="BA22" s="64"/>
@@ -2922,303 +2922,303 @@
     </row>
     <row r="23" spans="1:104" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="66"/>
-      <c r="B23" s="112">
+      <c r="B23" s="102">
         <v>1</v>
       </c>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="112"/>
-      <c r="I23" s="112"/>
-      <c r="J23" s="112">
+      <c r="C23" s="102"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="102">
         <v>2</v>
       </c>
-      <c r="K23" s="112"/>
-      <c r="L23" s="112"/>
-      <c r="M23" s="112"/>
-      <c r="N23" s="112"/>
-      <c r="O23" s="112"/>
-      <c r="P23" s="112"/>
-      <c r="Q23" s="112"/>
-      <c r="R23" s="113">
+      <c r="K23" s="102"/>
+      <c r="L23" s="102"/>
+      <c r="M23" s="102"/>
+      <c r="N23" s="102"/>
+      <c r="O23" s="102"/>
+      <c r="P23" s="102"/>
+      <c r="Q23" s="102"/>
+      <c r="R23" s="107">
         <v>3</v>
       </c>
-      <c r="S23" s="113"/>
-      <c r="T23" s="113"/>
-      <c r="U23" s="113"/>
-      <c r="V23" s="113"/>
-      <c r="W23" s="113"/>
-      <c r="X23" s="113"/>
-      <c r="Y23" s="113"/>
-      <c r="Z23" s="113">
+      <c r="S23" s="107"/>
+      <c r="T23" s="107"/>
+      <c r="U23" s="107"/>
+      <c r="V23" s="107"/>
+      <c r="W23" s="107"/>
+      <c r="X23" s="107"/>
+      <c r="Y23" s="107"/>
+      <c r="Z23" s="107">
         <v>4</v>
       </c>
-      <c r="AA23" s="113"/>
-      <c r="AB23" s="113"/>
-      <c r="AC23" s="113"/>
-      <c r="AD23" s="113"/>
-      <c r="AE23" s="113"/>
-      <c r="AF23" s="113"/>
-      <c r="AG23" s="113"/>
-      <c r="AH23" s="103">
+      <c r="AA23" s="107"/>
+      <c r="AB23" s="107"/>
+      <c r="AC23" s="107"/>
+      <c r="AD23" s="107"/>
+      <c r="AE23" s="107"/>
+      <c r="AF23" s="107"/>
+      <c r="AG23" s="107"/>
+      <c r="AH23" s="111">
         <v>5</v>
       </c>
-      <c r="AI23" s="103"/>
-      <c r="AJ23" s="103"/>
-      <c r="AK23" s="103"/>
-      <c r="AL23" s="103"/>
-      <c r="AM23" s="103"/>
-      <c r="AN23" s="103"/>
-      <c r="AO23" s="103"/>
-      <c r="AP23" s="103">
+      <c r="AI23" s="111"/>
+      <c r="AJ23" s="111"/>
+      <c r="AK23" s="111"/>
+      <c r="AL23" s="111"/>
+      <c r="AM23" s="111"/>
+      <c r="AN23" s="111"/>
+      <c r="AO23" s="111"/>
+      <c r="AP23" s="111">
         <v>6</v>
       </c>
-      <c r="AQ23" s="103"/>
-      <c r="AR23" s="103"/>
-      <c r="AS23" s="103"/>
-      <c r="AT23" s="103"/>
-      <c r="AU23" s="103"/>
-      <c r="AV23" s="103"/>
-      <c r="AW23" s="103"/>
-      <c r="AX23" s="103">
+      <c r="AQ23" s="111"/>
+      <c r="AR23" s="111"/>
+      <c r="AS23" s="111"/>
+      <c r="AT23" s="111"/>
+      <c r="AU23" s="111"/>
+      <c r="AV23" s="111"/>
+      <c r="AW23" s="111"/>
+      <c r="AX23" s="111">
         <v>7</v>
       </c>
-      <c r="AY23" s="103"/>
-      <c r="AZ23" s="103"/>
-      <c r="BA23" s="103"/>
-      <c r="BB23" s="103"/>
-      <c r="BC23" s="103"/>
-      <c r="BD23" s="103"/>
-      <c r="BE23" s="103"/>
-      <c r="BF23" s="103">
+      <c r="AY23" s="111"/>
+      <c r="AZ23" s="111"/>
+      <c r="BA23" s="111"/>
+      <c r="BB23" s="111"/>
+      <c r="BC23" s="111"/>
+      <c r="BD23" s="111"/>
+      <c r="BE23" s="111"/>
+      <c r="BF23" s="111">
         <v>8</v>
       </c>
-      <c r="BG23" s="103"/>
-      <c r="BH23" s="103"/>
-      <c r="BI23" s="103"/>
-      <c r="BJ23" s="103"/>
-      <c r="BK23" s="103"/>
-      <c r="BL23" s="103"/>
-      <c r="BM23" s="103"/>
-      <c r="BN23" s="103">
+      <c r="BG23" s="111"/>
+      <c r="BH23" s="111"/>
+      <c r="BI23" s="111"/>
+      <c r="BJ23" s="111"/>
+      <c r="BK23" s="111"/>
+      <c r="BL23" s="111"/>
+      <c r="BM23" s="111"/>
+      <c r="BN23" s="111">
         <v>9</v>
       </c>
-      <c r="BO23" s="103"/>
-      <c r="BP23" s="103"/>
-      <c r="BQ23" s="103"/>
-      <c r="BR23" s="103"/>
-      <c r="BS23" s="103"/>
-      <c r="BT23" s="103"/>
-      <c r="BU23" s="103"/>
-      <c r="BV23" s="103">
+      <c r="BO23" s="111"/>
+      <c r="BP23" s="111"/>
+      <c r="BQ23" s="111"/>
+      <c r="BR23" s="111"/>
+      <c r="BS23" s="111"/>
+      <c r="BT23" s="111"/>
+      <c r="BU23" s="111"/>
+      <c r="BV23" s="111">
         <v>10</v>
       </c>
-      <c r="BW23" s="103"/>
-      <c r="BX23" s="103"/>
-      <c r="BY23" s="103"/>
-      <c r="BZ23" s="103"/>
-      <c r="CA23" s="103"/>
-      <c r="CB23" s="103"/>
-      <c r="CC23" s="103"/>
-      <c r="CD23" s="103">
+      <c r="BW23" s="111"/>
+      <c r="BX23" s="111"/>
+      <c r="BY23" s="111"/>
+      <c r="BZ23" s="111"/>
+      <c r="CA23" s="111"/>
+      <c r="CB23" s="111"/>
+      <c r="CC23" s="111"/>
+      <c r="CD23" s="111">
         <v>11</v>
       </c>
-      <c r="CE23" s="103"/>
-      <c r="CF23" s="103"/>
-      <c r="CG23" s="103"/>
-      <c r="CH23" s="103"/>
-      <c r="CI23" s="103"/>
-      <c r="CJ23" s="103"/>
-      <c r="CK23" s="103"/>
-    </row>
-    <row r="24" spans="1:104" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="119"/>
-      <c r="B24" s="119"/>
-      <c r="C24" s="119"/>
-      <c r="D24" s="119"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="119"/>
-      <c r="H24" s="119"/>
-      <c r="I24" s="119"/>
-      <c r="J24" s="119"/>
-      <c r="K24" s="119"/>
-      <c r="L24" s="119"/>
-      <c r="M24" s="119"/>
-      <c r="N24" s="119"/>
-      <c r="O24" s="119"/>
-      <c r="P24" s="119"/>
-      <c r="Q24" s="119"/>
-      <c r="R24" s="119"/>
-      <c r="S24" s="119"/>
-      <c r="T24" s="119"/>
-      <c r="U24" s="119"/>
-      <c r="V24" s="119"/>
-      <c r="W24" s="119"/>
-      <c r="X24" s="119"/>
-      <c r="Y24" s="119"/>
-      <c r="Z24" s="119"/>
-      <c r="AA24" s="119"/>
-      <c r="AB24" s="119"/>
-      <c r="AC24" s="119"/>
-      <c r="AD24" s="119"/>
-      <c r="AE24" s="119"/>
-      <c r="AF24" s="119"/>
-      <c r="AG24" s="119"/>
-      <c r="AH24" s="119"/>
-      <c r="AI24" s="119"/>
-      <c r="AJ24" s="119"/>
-      <c r="AK24" s="119"/>
-      <c r="AL24" s="119"/>
-      <c r="AM24" s="119"/>
-      <c r="AN24" s="119"/>
-      <c r="AO24" s="119"/>
-      <c r="AP24" s="119"/>
-      <c r="AQ24" s="119"/>
-      <c r="AR24" s="119"/>
-      <c r="AS24" s="119"/>
-      <c r="AT24" s="119"/>
-      <c r="AU24" s="119"/>
-      <c r="AV24" s="119"/>
-      <c r="AW24" s="119"/>
-      <c r="AX24" s="119"/>
-      <c r="AY24" s="119"/>
-      <c r="AZ24" s="119"/>
-      <c r="BA24" s="119"/>
-      <c r="BB24" s="119"/>
-      <c r="BC24" s="119"/>
-      <c r="BD24" s="119"/>
-      <c r="BE24" s="119"/>
-      <c r="BF24" s="119"/>
-      <c r="BG24" s="119"/>
-      <c r="BH24" s="119"/>
-      <c r="BI24" s="119"/>
-      <c r="BJ24" s="119"/>
-      <c r="BK24" s="119"/>
-      <c r="BL24" s="119"/>
+      <c r="CE23" s="111"/>
+      <c r="CF23" s="111"/>
+      <c r="CG23" s="111"/>
+      <c r="CH23" s="111"/>
+      <c r="CI23" s="111"/>
+      <c r="CJ23" s="111"/>
+      <c r="CK23" s="111"/>
+    </row>
+    <row r="24" spans="1:104" s="93" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="92"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="92"/>
+      <c r="M24" s="92"/>
+      <c r="N24" s="92"/>
+      <c r="O24" s="92"/>
+      <c r="P24" s="92"/>
+      <c r="Q24" s="92"/>
+      <c r="R24" s="92"/>
+      <c r="S24" s="92"/>
+      <c r="T24" s="92"/>
+      <c r="U24" s="92"/>
+      <c r="V24" s="92"/>
+      <c r="W24" s="92"/>
+      <c r="X24" s="92"/>
+      <c r="Y24" s="92"/>
+      <c r="Z24" s="92"/>
+      <c r="AA24" s="92"/>
+      <c r="AB24" s="92"/>
+      <c r="AC24" s="92"/>
+      <c r="AD24" s="92"/>
+      <c r="AE24" s="92"/>
+      <c r="AF24" s="92"/>
+      <c r="AG24" s="92"/>
+      <c r="AH24" s="92"/>
+      <c r="AI24" s="92"/>
+      <c r="AJ24" s="92"/>
+      <c r="AK24" s="92"/>
+      <c r="AL24" s="92"/>
+      <c r="AM24" s="92"/>
+      <c r="AN24" s="92"/>
+      <c r="AO24" s="92"/>
+      <c r="AP24" s="92"/>
+      <c r="AQ24" s="92"/>
+      <c r="AR24" s="92"/>
+      <c r="AS24" s="92"/>
+      <c r="AT24" s="92"/>
+      <c r="AU24" s="92"/>
+      <c r="AV24" s="92"/>
+      <c r="AW24" s="92"/>
+      <c r="AX24" s="92"/>
+      <c r="AY24" s="92"/>
+      <c r="AZ24" s="92"/>
+      <c r="BA24" s="92"/>
+      <c r="BB24" s="92"/>
+      <c r="BC24" s="92"/>
+      <c r="BD24" s="92"/>
+      <c r="BE24" s="92"/>
+      <c r="BF24" s="92"/>
+      <c r="BG24" s="92"/>
+      <c r="BH24" s="92"/>
+      <c r="BI24" s="92"/>
+      <c r="BJ24" s="92"/>
+      <c r="BK24" s="92"/>
+      <c r="BL24" s="92"/>
     </row>
     <row r="25" spans="1:104" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="107" t="s">
+      <c r="B25" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="109"/>
-      <c r="J25" s="107" t="s">
+      <c r="C25" s="104"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="K25" s="108"/>
-      <c r="L25" s="108"/>
-      <c r="M25" s="108"/>
-      <c r="N25" s="108"/>
-      <c r="O25" s="108"/>
-      <c r="P25" s="108"/>
-      <c r="Q25" s="109"/>
-      <c r="R25" s="107" t="s">
+      <c r="K25" s="104"/>
+      <c r="L25" s="104"/>
+      <c r="M25" s="104"/>
+      <c r="N25" s="104"/>
+      <c r="O25" s="104"/>
+      <c r="P25" s="104"/>
+      <c r="Q25" s="105"/>
+      <c r="R25" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="S25" s="108"/>
-      <c r="T25" s="108"/>
-      <c r="U25" s="108"/>
-      <c r="V25" s="108"/>
-      <c r="W25" s="108"/>
-      <c r="X25" s="108"/>
-      <c r="Y25" s="109"/>
-      <c r="Z25" s="104" t="s">
+      <c r="S25" s="104"/>
+      <c r="T25" s="104"/>
+      <c r="U25" s="104"/>
+      <c r="V25" s="104"/>
+      <c r="W25" s="104"/>
+      <c r="X25" s="104"/>
+      <c r="Y25" s="105"/>
+      <c r="Z25" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="AA25" s="105"/>
-      <c r="AB25" s="105"/>
-      <c r="AC25" s="105"/>
-      <c r="AD25" s="105"/>
-      <c r="AE25" s="105"/>
-      <c r="AF25" s="105"/>
-      <c r="AG25" s="106"/>
-      <c r="AH25" s="104" t="s">
+      <c r="AA25" s="109"/>
+      <c r="AB25" s="109"/>
+      <c r="AC25" s="109"/>
+      <c r="AD25" s="109"/>
+      <c r="AE25" s="109"/>
+      <c r="AF25" s="109"/>
+      <c r="AG25" s="110"/>
+      <c r="AH25" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="AI25" s="105"/>
-      <c r="AJ25" s="105"/>
-      <c r="AK25" s="105"/>
-      <c r="AL25" s="105"/>
-      <c r="AM25" s="105"/>
-      <c r="AN25" s="105"/>
-      <c r="AO25" s="106"/>
-      <c r="AP25" s="107" t="s">
+      <c r="AI25" s="109"/>
+      <c r="AJ25" s="109"/>
+      <c r="AK25" s="109"/>
+      <c r="AL25" s="109"/>
+      <c r="AM25" s="109"/>
+      <c r="AN25" s="109"/>
+      <c r="AO25" s="110"/>
+      <c r="AP25" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="AQ25" s="108"/>
-      <c r="AR25" s="108"/>
-      <c r="AS25" s="108"/>
-      <c r="AT25" s="108"/>
-      <c r="AU25" s="108"/>
-      <c r="AV25" s="108"/>
-      <c r="AW25" s="109"/>
-      <c r="AX25" s="107" t="s">
+      <c r="AQ25" s="104"/>
+      <c r="AR25" s="104"/>
+      <c r="AS25" s="104"/>
+      <c r="AT25" s="104"/>
+      <c r="AU25" s="104"/>
+      <c r="AV25" s="104"/>
+      <c r="AW25" s="105"/>
+      <c r="AX25" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="AY25" s="108"/>
-      <c r="AZ25" s="108"/>
-      <c r="BA25" s="108"/>
-      <c r="BB25" s="108"/>
-      <c r="BC25" s="108"/>
-      <c r="BD25" s="108"/>
-      <c r="BE25" s="109"/>
-      <c r="BF25" s="107" t="s">
+      <c r="AY25" s="104"/>
+      <c r="AZ25" s="104"/>
+      <c r="BA25" s="104"/>
+      <c r="BB25" s="104"/>
+      <c r="BC25" s="104"/>
+      <c r="BD25" s="104"/>
+      <c r="BE25" s="105"/>
+      <c r="BF25" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="BG25" s="108"/>
-      <c r="BH25" s="108"/>
-      <c r="BI25" s="108"/>
-      <c r="BJ25" s="108"/>
-      <c r="BK25" s="108"/>
-      <c r="BL25" s="108"/>
-      <c r="BM25" s="109"/>
-      <c r="BN25" s="91" t="s">
+      <c r="BG25" s="104"/>
+      <c r="BH25" s="104"/>
+      <c r="BI25" s="104"/>
+      <c r="BJ25" s="104"/>
+      <c r="BK25" s="104"/>
+      <c r="BL25" s="104"/>
+      <c r="BM25" s="105"/>
+      <c r="BN25" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="BO25" s="92"/>
-      <c r="BP25" s="92"/>
-      <c r="BQ25" s="92"/>
-      <c r="BR25" s="92"/>
-      <c r="BS25" s="92"/>
-      <c r="BT25" s="92"/>
-      <c r="BU25" s="93"/>
-      <c r="BV25" s="91" t="s">
+      <c r="BO25" s="114"/>
+      <c r="BP25" s="114"/>
+      <c r="BQ25" s="114"/>
+      <c r="BR25" s="114"/>
+      <c r="BS25" s="114"/>
+      <c r="BT25" s="114"/>
+      <c r="BU25" s="115"/>
+      <c r="BV25" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="BW25" s="92"/>
-      <c r="BX25" s="92"/>
-      <c r="BY25" s="92"/>
-      <c r="BZ25" s="92"/>
-      <c r="CA25" s="92"/>
-      <c r="CB25" s="92"/>
-      <c r="CC25" s="93"/>
-      <c r="CD25" s="91" t="s">
+      <c r="BW25" s="114"/>
+      <c r="BX25" s="114"/>
+      <c r="BY25" s="114"/>
+      <c r="BZ25" s="114"/>
+      <c r="CA25" s="114"/>
+      <c r="CB25" s="114"/>
+      <c r="CC25" s="115"/>
+      <c r="CD25" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="CE25" s="92"/>
-      <c r="CF25" s="92"/>
-      <c r="CG25" s="92"/>
-      <c r="CH25" s="92"/>
-      <c r="CI25" s="92"/>
-      <c r="CJ25" s="92"/>
-      <c r="CK25" s="93"/>
-      <c r="CL25" s="91" t="s">
+      <c r="CE25" s="114"/>
+      <c r="CF25" s="114"/>
+      <c r="CG25" s="114"/>
+      <c r="CH25" s="114"/>
+      <c r="CI25" s="114"/>
+      <c r="CJ25" s="114"/>
+      <c r="CK25" s="115"/>
+      <c r="CL25" s="113" t="s">
         <v>63</v>
       </c>
-      <c r="CM25" s="92"/>
-      <c r="CN25" s="92"/>
-      <c r="CO25" s="92"/>
-      <c r="CP25" s="92"/>
-      <c r="CQ25" s="92"/>
-      <c r="CR25" s="93"/>
+      <c r="CM25" s="114"/>
+      <c r="CN25" s="114"/>
+      <c r="CO25" s="114"/>
+      <c r="CP25" s="114"/>
+      <c r="CQ25" s="114"/>
+      <c r="CR25" s="115"/>
       <c r="CS25" s="4" t="s">
         <v>52</v>
       </c>
@@ -3227,2429 +3227,2429 @@
       <c r="A26">
         <v>1</v>
       </c>
-      <c r="B26" s="88" t="s">
+      <c r="B26" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="88"/>
-      <c r="L26" s="88"/>
-      <c r="M26" s="88"/>
-      <c r="N26" s="88"/>
-      <c r="O26" s="88"/>
-      <c r="P26" s="88"/>
-      <c r="Q26" s="88"/>
-      <c r="R26" s="88"/>
-      <c r="S26" s="88"/>
-      <c r="T26" s="88"/>
-      <c r="U26" s="88"/>
-      <c r="V26" s="88"/>
-      <c r="W26" s="88"/>
-      <c r="X26" s="88"/>
-      <c r="Y26" s="88"/>
-      <c r="Z26" s="88"/>
-      <c r="AA26" s="88"/>
-      <c r="AB26" s="88"/>
-      <c r="AC26" s="88"/>
-      <c r="AD26" s="88"/>
-      <c r="AE26" s="88"/>
-      <c r="AF26" s="88"/>
-      <c r="AG26" s="88"/>
-      <c r="AH26" s="88"/>
-      <c r="AI26" s="88"/>
-      <c r="AJ26" s="88"/>
-      <c r="AK26" s="88"/>
-      <c r="AL26" s="88"/>
-      <c r="AM26" s="88"/>
-      <c r="AN26" s="88"/>
-      <c r="AO26" s="88"/>
-      <c r="AP26" s="88"/>
-      <c r="AQ26" s="88"/>
-      <c r="AR26" s="88"/>
-      <c r="AS26" s="88"/>
-      <c r="AT26" s="88"/>
-      <c r="AU26" s="88"/>
-      <c r="AV26" s="88"/>
-      <c r="AW26" s="88"/>
-      <c r="AX26" s="110"/>
-      <c r="AY26" s="110"/>
-      <c r="AZ26" s="110"/>
-      <c r="BA26" s="110"/>
-      <c r="BB26" s="110"/>
-      <c r="BC26" s="110"/>
-      <c r="BD26" s="110"/>
-      <c r="BE26" s="110"/>
-      <c r="BF26" s="110"/>
-      <c r="BG26" s="110"/>
-      <c r="BH26" s="110"/>
-      <c r="BI26" s="110"/>
-      <c r="BJ26" s="110"/>
-      <c r="BK26" s="110"/>
-      <c r="BL26" s="110"/>
-      <c r="BM26" s="110"/>
-      <c r="BN26" s="111"/>
-      <c r="BO26" s="111"/>
-      <c r="BP26" s="111"/>
-      <c r="BQ26" s="111"/>
-      <c r="BR26" s="111"/>
-      <c r="BS26" s="111"/>
-      <c r="BT26" s="111"/>
-      <c r="BU26" s="111"/>
-      <c r="BV26" s="88"/>
-      <c r="BW26" s="88"/>
-      <c r="BX26" s="88"/>
-      <c r="BY26" s="88"/>
-      <c r="BZ26" s="88"/>
-      <c r="CA26" s="88"/>
-      <c r="CB26" s="88"/>
-      <c r="CC26" s="88"/>
-      <c r="CD26" s="88"/>
-      <c r="CE26" s="88"/>
-      <c r="CF26" s="88"/>
-      <c r="CG26" s="88"/>
-      <c r="CH26" s="88"/>
-      <c r="CI26" s="88"/>
-      <c r="CJ26" s="88"/>
-      <c r="CK26" s="88"/>
-      <c r="CL26" s="88"/>
-      <c r="CM26" s="88"/>
-      <c r="CN26" s="88"/>
-      <c r="CO26" s="88"/>
-      <c r="CP26" s="88"/>
-      <c r="CQ26" s="88"/>
-      <c r="CR26" s="88"/>
-      <c r="CS26" s="88"/>
-      <c r="CT26" s="88"/>
-      <c r="CU26" s="88"/>
-      <c r="CV26" s="88"/>
-      <c r="CW26" s="88"/>
-      <c r="CX26" s="88"/>
-      <c r="CY26" s="88"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="106"/>
+      <c r="K26" s="106"/>
+      <c r="L26" s="106"/>
+      <c r="M26" s="106"/>
+      <c r="N26" s="106"/>
+      <c r="O26" s="106"/>
+      <c r="P26" s="106"/>
+      <c r="Q26" s="106"/>
+      <c r="R26" s="106"/>
+      <c r="S26" s="106"/>
+      <c r="T26" s="106"/>
+      <c r="U26" s="106"/>
+      <c r="V26" s="106"/>
+      <c r="W26" s="106"/>
+      <c r="X26" s="106"/>
+      <c r="Y26" s="106"/>
+      <c r="Z26" s="106"/>
+      <c r="AA26" s="106"/>
+      <c r="AB26" s="106"/>
+      <c r="AC26" s="106"/>
+      <c r="AD26" s="106"/>
+      <c r="AE26" s="106"/>
+      <c r="AF26" s="106"/>
+      <c r="AG26" s="106"/>
+      <c r="AH26" s="106"/>
+      <c r="AI26" s="106"/>
+      <c r="AJ26" s="106"/>
+      <c r="AK26" s="106"/>
+      <c r="AL26" s="106"/>
+      <c r="AM26" s="106"/>
+      <c r="AN26" s="106"/>
+      <c r="AO26" s="106"/>
+      <c r="AP26" s="106"/>
+      <c r="AQ26" s="106"/>
+      <c r="AR26" s="106"/>
+      <c r="AS26" s="106"/>
+      <c r="AT26" s="106"/>
+      <c r="AU26" s="106"/>
+      <c r="AV26" s="106"/>
+      <c r="AW26" s="106"/>
+      <c r="AX26" s="112"/>
+      <c r="AY26" s="112"/>
+      <c r="AZ26" s="112"/>
+      <c r="BA26" s="112"/>
+      <c r="BB26" s="112"/>
+      <c r="BC26" s="112"/>
+      <c r="BD26" s="112"/>
+      <c r="BE26" s="112"/>
+      <c r="BF26" s="112"/>
+      <c r="BG26" s="112"/>
+      <c r="BH26" s="112"/>
+      <c r="BI26" s="112"/>
+      <c r="BJ26" s="112"/>
+      <c r="BK26" s="112"/>
+      <c r="BL26" s="112"/>
+      <c r="BM26" s="112"/>
+      <c r="BN26" s="116"/>
+      <c r="BO26" s="116"/>
+      <c r="BP26" s="116"/>
+      <c r="BQ26" s="116"/>
+      <c r="BR26" s="116"/>
+      <c r="BS26" s="116"/>
+      <c r="BT26" s="116"/>
+      <c r="BU26" s="116"/>
+      <c r="BV26" s="106"/>
+      <c r="BW26" s="106"/>
+      <c r="BX26" s="106"/>
+      <c r="BY26" s="106"/>
+      <c r="BZ26" s="106"/>
+      <c r="CA26" s="106"/>
+      <c r="CB26" s="106"/>
+      <c r="CC26" s="106"/>
+      <c r="CD26" s="106"/>
+      <c r="CE26" s="106"/>
+      <c r="CF26" s="106"/>
+      <c r="CG26" s="106"/>
+      <c r="CH26" s="106"/>
+      <c r="CI26" s="106"/>
+      <c r="CJ26" s="106"/>
+      <c r="CK26" s="106"/>
+      <c r="CL26" s="106"/>
+      <c r="CM26" s="106"/>
+      <c r="CN26" s="106"/>
+      <c r="CO26" s="106"/>
+      <c r="CP26" s="106"/>
+      <c r="CQ26" s="106"/>
+      <c r="CR26" s="106"/>
+      <c r="CS26" s="106"/>
+      <c r="CT26" s="106"/>
+      <c r="CU26" s="106"/>
+      <c r="CV26" s="106"/>
+      <c r="CW26" s="106"/>
+      <c r="CX26" s="106"/>
+      <c r="CY26" s="106"/>
     </row>
     <row r="27" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
-      <c r="B27" s="90" t="s">
+      <c r="B27" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="90"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="90"/>
-      <c r="K27" s="90"/>
-      <c r="L27" s="90"/>
-      <c r="M27" s="90"/>
-      <c r="N27" s="90"/>
-      <c r="O27" s="90"/>
-      <c r="P27" s="90"/>
-      <c r="Q27" s="90"/>
-      <c r="R27" s="89"/>
-      <c r="S27" s="89"/>
-      <c r="T27" s="89"/>
-      <c r="U27" s="89"/>
-      <c r="V27" s="89"/>
-      <c r="W27" s="89"/>
-      <c r="X27" s="89"/>
-      <c r="Y27" s="89"/>
-      <c r="Z27" s="95"/>
-      <c r="AA27" s="95"/>
-      <c r="AB27" s="95"/>
-      <c r="AC27" s="95"/>
-      <c r="AD27" s="95"/>
-      <c r="AE27" s="95"/>
-      <c r="AF27" s="95"/>
-      <c r="AG27" s="95"/>
-      <c r="AH27" s="101"/>
-      <c r="AI27" s="101"/>
-      <c r="AJ27" s="101"/>
-      <c r="AK27" s="101"/>
-      <c r="AL27" s="101"/>
-      <c r="AM27" s="101"/>
-      <c r="AN27" s="101"/>
-      <c r="AO27" s="101"/>
-      <c r="AP27" s="89"/>
-      <c r="AQ27" s="89"/>
-      <c r="AR27" s="89"/>
-      <c r="AS27" s="89"/>
-      <c r="AT27" s="89"/>
-      <c r="AU27" s="89"/>
-      <c r="AV27" s="89"/>
-      <c r="AW27" s="89"/>
-      <c r="AX27" s="94"/>
-      <c r="AY27" s="94"/>
-      <c r="AZ27" s="94"/>
-      <c r="BA27" s="94"/>
-      <c r="BB27" s="94"/>
-      <c r="BC27" s="94"/>
-      <c r="BD27" s="94"/>
-      <c r="BE27" s="94"/>
-      <c r="BF27" s="94"/>
-      <c r="BG27" s="94"/>
-      <c r="BH27" s="94"/>
-      <c r="BI27" s="94"/>
-      <c r="BJ27" s="94"/>
-      <c r="BK27" s="94"/>
-      <c r="BL27" s="94"/>
-      <c r="BM27" s="94"/>
-      <c r="BN27" s="100"/>
-      <c r="BO27" s="100"/>
-      <c r="BP27" s="100"/>
-      <c r="BQ27" s="100"/>
-      <c r="BR27" s="100"/>
-      <c r="BS27" s="100"/>
-      <c r="BT27" s="100"/>
-      <c r="BU27" s="100"/>
-      <c r="BV27" s="99"/>
-      <c r="BW27" s="99"/>
-      <c r="BX27" s="99"/>
-      <c r="BY27" s="99"/>
-      <c r="BZ27" s="99"/>
-      <c r="CA27" s="99"/>
-      <c r="CB27" s="99"/>
-      <c r="CC27" s="99"/>
-      <c r="CD27" s="90"/>
-      <c r="CE27" s="90"/>
-      <c r="CF27" s="90"/>
-      <c r="CG27" s="90"/>
-      <c r="CH27" s="90"/>
-      <c r="CI27" s="90"/>
-      <c r="CJ27" s="90"/>
-      <c r="CK27" s="90"/>
-      <c r="CL27" s="90"/>
-      <c r="CM27" s="90"/>
-      <c r="CN27" s="90"/>
-      <c r="CO27" s="90"/>
-      <c r="CP27" s="90"/>
-      <c r="CQ27" s="90"/>
-      <c r="CR27" s="90"/>
-      <c r="CS27" s="89"/>
-      <c r="CT27" s="89"/>
-      <c r="CU27" s="89"/>
-      <c r="CV27" s="89"/>
-      <c r="CW27" s="89"/>
-      <c r="CX27" s="89"/>
-      <c r="CY27" s="89"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="95"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="95"/>
+      <c r="Q27" s="95"/>
+      <c r="R27" s="94"/>
+      <c r="S27" s="94"/>
+      <c r="T27" s="94"/>
+      <c r="U27" s="94"/>
+      <c r="V27" s="94"/>
+      <c r="W27" s="94"/>
+      <c r="X27" s="94"/>
+      <c r="Y27" s="94"/>
+      <c r="Z27" s="98"/>
+      <c r="AA27" s="98"/>
+      <c r="AB27" s="98"/>
+      <c r="AC27" s="98"/>
+      <c r="AD27" s="98"/>
+      <c r="AE27" s="98"/>
+      <c r="AF27" s="98"/>
+      <c r="AG27" s="98"/>
+      <c r="AH27" s="88"/>
+      <c r="AI27" s="88"/>
+      <c r="AJ27" s="88"/>
+      <c r="AK27" s="88"/>
+      <c r="AL27" s="88"/>
+      <c r="AM27" s="88"/>
+      <c r="AN27" s="88"/>
+      <c r="AO27" s="88"/>
+      <c r="AP27" s="94"/>
+      <c r="AQ27" s="94"/>
+      <c r="AR27" s="94"/>
+      <c r="AS27" s="94"/>
+      <c r="AT27" s="94"/>
+      <c r="AU27" s="94"/>
+      <c r="AV27" s="94"/>
+      <c r="AW27" s="94"/>
+      <c r="AX27" s="89"/>
+      <c r="AY27" s="89"/>
+      <c r="AZ27" s="89"/>
+      <c r="BA27" s="89"/>
+      <c r="BB27" s="89"/>
+      <c r="BC27" s="89"/>
+      <c r="BD27" s="89"/>
+      <c r="BE27" s="89"/>
+      <c r="BF27" s="89"/>
+      <c r="BG27" s="89"/>
+      <c r="BH27" s="89"/>
+      <c r="BI27" s="89"/>
+      <c r="BJ27" s="89"/>
+      <c r="BK27" s="89"/>
+      <c r="BL27" s="89"/>
+      <c r="BM27" s="89"/>
+      <c r="BN27" s="93"/>
+      <c r="BO27" s="93"/>
+      <c r="BP27" s="93"/>
+      <c r="BQ27" s="93"/>
+      <c r="BR27" s="93"/>
+      <c r="BS27" s="93"/>
+      <c r="BT27" s="93"/>
+      <c r="BU27" s="93"/>
+      <c r="BV27" s="117"/>
+      <c r="BW27" s="117"/>
+      <c r="BX27" s="117"/>
+      <c r="BY27" s="117"/>
+      <c r="BZ27" s="117"/>
+      <c r="CA27" s="117"/>
+      <c r="CB27" s="117"/>
+      <c r="CC27" s="117"/>
+      <c r="CD27" s="95"/>
+      <c r="CE27" s="95"/>
+      <c r="CF27" s="95"/>
+      <c r="CG27" s="95"/>
+      <c r="CH27" s="95"/>
+      <c r="CI27" s="95"/>
+      <c r="CJ27" s="95"/>
+      <c r="CK27" s="95"/>
+      <c r="CL27" s="95"/>
+      <c r="CM27" s="95"/>
+      <c r="CN27" s="95"/>
+      <c r="CO27" s="95"/>
+      <c r="CP27" s="95"/>
+      <c r="CQ27" s="95"/>
+      <c r="CR27" s="95"/>
+      <c r="CS27" s="94"/>
+      <c r="CT27" s="94"/>
+      <c r="CU27" s="94"/>
+      <c r="CV27" s="94"/>
+      <c r="CW27" s="94"/>
+      <c r="CX27" s="94"/>
+      <c r="CY27" s="94"/>
     </row>
     <row r="28" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A28" s="63">
         <v>3</v>
       </c>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="90"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="90"/>
-      <c r="N28" s="90"/>
-      <c r="O28" s="90"/>
-      <c r="P28" s="90"/>
-      <c r="Q28" s="90"/>
-      <c r="R28" s="89"/>
-      <c r="S28" s="89"/>
-      <c r="T28" s="89"/>
-      <c r="U28" s="89"/>
-      <c r="V28" s="89"/>
-      <c r="W28" s="89"/>
-      <c r="X28" s="89"/>
-      <c r="Y28" s="89"/>
-      <c r="Z28" s="95"/>
-      <c r="AA28" s="95"/>
-      <c r="AB28" s="95"/>
-      <c r="AC28" s="95"/>
-      <c r="AD28" s="95"/>
-      <c r="AE28" s="95"/>
-      <c r="AF28" s="95"/>
-      <c r="AG28" s="95"/>
-      <c r="AH28" s="101"/>
-      <c r="AI28" s="101"/>
-      <c r="AJ28" s="101"/>
-      <c r="AK28" s="101"/>
-      <c r="AL28" s="101"/>
-      <c r="AM28" s="101"/>
-      <c r="AN28" s="101"/>
-      <c r="AO28" s="101"/>
-      <c r="AP28" s="89"/>
-      <c r="AQ28" s="89"/>
-      <c r="AR28" s="89"/>
-      <c r="AS28" s="89"/>
-      <c r="AT28" s="89"/>
-      <c r="AU28" s="89"/>
-      <c r="AV28" s="89"/>
-      <c r="AW28" s="89"/>
-      <c r="AX28" s="94"/>
-      <c r="AY28" s="94"/>
-      <c r="AZ28" s="94"/>
-      <c r="BA28" s="94"/>
-      <c r="BB28" s="94"/>
-      <c r="BC28" s="94"/>
-      <c r="BD28" s="94"/>
-      <c r="BE28" s="94"/>
-      <c r="BF28" s="94"/>
-      <c r="BG28" s="94"/>
-      <c r="BH28" s="94"/>
-      <c r="BI28" s="94"/>
-      <c r="BJ28" s="94"/>
-      <c r="BK28" s="94"/>
-      <c r="BL28" s="94"/>
-      <c r="BM28" s="94"/>
-      <c r="BN28" s="100"/>
-      <c r="BO28" s="100"/>
-      <c r="BP28" s="100"/>
-      <c r="BQ28" s="100"/>
-      <c r="BR28" s="100"/>
-      <c r="BS28" s="100"/>
-      <c r="BT28" s="100"/>
-      <c r="BU28" s="100"/>
-      <c r="BV28" s="94"/>
-      <c r="BW28" s="94"/>
-      <c r="BX28" s="94"/>
-      <c r="BY28" s="94"/>
-      <c r="BZ28" s="94"/>
-      <c r="CA28" s="94"/>
-      <c r="CB28" s="94"/>
-      <c r="CC28" s="94"/>
-      <c r="CD28" s="90"/>
-      <c r="CE28" s="90"/>
-      <c r="CF28" s="90"/>
-      <c r="CG28" s="90"/>
-      <c r="CH28" s="90"/>
-      <c r="CI28" s="90"/>
-      <c r="CJ28" s="90"/>
-      <c r="CK28" s="90"/>
-      <c r="CL28" s="89"/>
-      <c r="CM28" s="89"/>
-      <c r="CN28" s="89"/>
-      <c r="CO28" s="89"/>
-      <c r="CP28" s="89"/>
-      <c r="CQ28" s="89"/>
-      <c r="CR28" s="89"/>
-      <c r="CS28" s="89"/>
-      <c r="CT28" s="89"/>
-      <c r="CU28" s="89"/>
-      <c r="CV28" s="89"/>
-      <c r="CW28" s="89"/>
-      <c r="CX28" s="89"/>
-      <c r="CY28" s="89"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="95"/>
+      <c r="I28" s="95"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="95"/>
+      <c r="P28" s="95"/>
+      <c r="Q28" s="95"/>
+      <c r="R28" s="94"/>
+      <c r="S28" s="94"/>
+      <c r="T28" s="94"/>
+      <c r="U28" s="94"/>
+      <c r="V28" s="94"/>
+      <c r="W28" s="94"/>
+      <c r="X28" s="94"/>
+      <c r="Y28" s="94"/>
+      <c r="Z28" s="98"/>
+      <c r="AA28" s="98"/>
+      <c r="AB28" s="98"/>
+      <c r="AC28" s="98"/>
+      <c r="AD28" s="98"/>
+      <c r="AE28" s="98"/>
+      <c r="AF28" s="98"/>
+      <c r="AG28" s="98"/>
+      <c r="AH28" s="88"/>
+      <c r="AI28" s="88"/>
+      <c r="AJ28" s="88"/>
+      <c r="AK28" s="88"/>
+      <c r="AL28" s="88"/>
+      <c r="AM28" s="88"/>
+      <c r="AN28" s="88"/>
+      <c r="AO28" s="88"/>
+      <c r="AP28" s="94"/>
+      <c r="AQ28" s="94"/>
+      <c r="AR28" s="94"/>
+      <c r="AS28" s="94"/>
+      <c r="AT28" s="94"/>
+      <c r="AU28" s="94"/>
+      <c r="AV28" s="94"/>
+      <c r="AW28" s="94"/>
+      <c r="AX28" s="89"/>
+      <c r="AY28" s="89"/>
+      <c r="AZ28" s="89"/>
+      <c r="BA28" s="89"/>
+      <c r="BB28" s="89"/>
+      <c r="BC28" s="89"/>
+      <c r="BD28" s="89"/>
+      <c r="BE28" s="89"/>
+      <c r="BF28" s="89"/>
+      <c r="BG28" s="89"/>
+      <c r="BH28" s="89"/>
+      <c r="BI28" s="89"/>
+      <c r="BJ28" s="89"/>
+      <c r="BK28" s="89"/>
+      <c r="BL28" s="89"/>
+      <c r="BM28" s="89"/>
+      <c r="BN28" s="93"/>
+      <c r="BO28" s="93"/>
+      <c r="BP28" s="93"/>
+      <c r="BQ28" s="93"/>
+      <c r="BR28" s="93"/>
+      <c r="BS28" s="93"/>
+      <c r="BT28" s="93"/>
+      <c r="BU28" s="93"/>
+      <c r="BV28" s="89"/>
+      <c r="BW28" s="89"/>
+      <c r="BX28" s="89"/>
+      <c r="BY28" s="89"/>
+      <c r="BZ28" s="89"/>
+      <c r="CA28" s="89"/>
+      <c r="CB28" s="89"/>
+      <c r="CC28" s="89"/>
+      <c r="CD28" s="95"/>
+      <c r="CE28" s="95"/>
+      <c r="CF28" s="95"/>
+      <c r="CG28" s="95"/>
+      <c r="CH28" s="95"/>
+      <c r="CI28" s="95"/>
+      <c r="CJ28" s="95"/>
+      <c r="CK28" s="95"/>
+      <c r="CL28" s="94"/>
+      <c r="CM28" s="94"/>
+      <c r="CN28" s="94"/>
+      <c r="CO28" s="94"/>
+      <c r="CP28" s="94"/>
+      <c r="CQ28" s="94"/>
+      <c r="CR28" s="94"/>
+      <c r="CS28" s="94"/>
+      <c r="CT28" s="94"/>
+      <c r="CU28" s="94"/>
+      <c r="CV28" s="94"/>
+      <c r="CW28" s="94"/>
+      <c r="CX28" s="94"/>
+      <c r="CY28" s="94"/>
     </row>
     <row r="29" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A29" s="63">
         <v>4</v>
       </c>
-      <c r="B29" s="90" t="s">
+      <c r="B29" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="90"/>
-      <c r="L29" s="90"/>
-      <c r="M29" s="90"/>
-      <c r="N29" s="90"/>
-      <c r="O29" s="90"/>
-      <c r="P29" s="90"/>
-      <c r="Q29" s="90"/>
-      <c r="R29" s="89"/>
-      <c r="S29" s="89"/>
-      <c r="T29" s="89"/>
-      <c r="U29" s="89"/>
-      <c r="V29" s="89"/>
-      <c r="W29" s="89"/>
-      <c r="X29" s="89"/>
-      <c r="Y29" s="89"/>
-      <c r="Z29" s="95"/>
-      <c r="AA29" s="95"/>
-      <c r="AB29" s="95"/>
-      <c r="AC29" s="95"/>
-      <c r="AD29" s="95"/>
-      <c r="AE29" s="95"/>
-      <c r="AF29" s="95"/>
-      <c r="AG29" s="95"/>
-      <c r="AH29" s="101"/>
-      <c r="AI29" s="101"/>
-      <c r="AJ29" s="101"/>
-      <c r="AK29" s="101"/>
-      <c r="AL29" s="101"/>
-      <c r="AM29" s="101"/>
-      <c r="AN29" s="101"/>
-      <c r="AO29" s="101"/>
-      <c r="AP29" s="89"/>
-      <c r="AQ29" s="89"/>
-      <c r="AR29" s="89"/>
-      <c r="AS29" s="89"/>
-      <c r="AT29" s="89"/>
-      <c r="AU29" s="89"/>
-      <c r="AV29" s="89"/>
-      <c r="AW29" s="89"/>
-      <c r="AX29" s="94"/>
-      <c r="AY29" s="94"/>
-      <c r="AZ29" s="94"/>
-      <c r="BA29" s="94"/>
-      <c r="BB29" s="94"/>
-      <c r="BC29" s="94"/>
-      <c r="BD29" s="94"/>
-      <c r="BE29" s="94"/>
-      <c r="BF29" s="94"/>
-      <c r="BG29" s="94"/>
-      <c r="BH29" s="94"/>
-      <c r="BI29" s="94"/>
-      <c r="BJ29" s="94"/>
-      <c r="BK29" s="94"/>
-      <c r="BL29" s="94"/>
-      <c r="BM29" s="94"/>
-      <c r="BN29" s="101"/>
-      <c r="BO29" s="101"/>
-      <c r="BP29" s="101"/>
-      <c r="BQ29" s="101"/>
-      <c r="BR29" s="101"/>
-      <c r="BS29" s="101"/>
-      <c r="BT29" s="101"/>
-      <c r="BU29" s="101"/>
-      <c r="BV29" s="94"/>
-      <c r="BW29" s="94"/>
-      <c r="BX29" s="94"/>
-      <c r="BY29" s="94"/>
-      <c r="BZ29" s="94"/>
-      <c r="CA29" s="94"/>
-      <c r="CB29" s="94"/>
-      <c r="CC29" s="94"/>
-      <c r="CD29" s="90"/>
-      <c r="CE29" s="90"/>
-      <c r="CF29" s="90"/>
-      <c r="CG29" s="90"/>
-      <c r="CH29" s="90"/>
-      <c r="CI29" s="90"/>
-      <c r="CJ29" s="90"/>
-      <c r="CK29" s="90"/>
-      <c r="CL29" s="88"/>
-      <c r="CM29" s="88"/>
-      <c r="CN29" s="88"/>
-      <c r="CO29" s="88"/>
-      <c r="CP29" s="88"/>
-      <c r="CQ29" s="88"/>
-      <c r="CR29" s="88"/>
-      <c r="CS29" s="89"/>
-      <c r="CT29" s="89"/>
-      <c r="CU29" s="89"/>
-      <c r="CV29" s="89"/>
-      <c r="CW29" s="89"/>
-      <c r="CX29" s="89"/>
-      <c r="CY29" s="89"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="95"/>
+      <c r="Q29" s="95"/>
+      <c r="R29" s="94"/>
+      <c r="S29" s="94"/>
+      <c r="T29" s="94"/>
+      <c r="U29" s="94"/>
+      <c r="V29" s="94"/>
+      <c r="W29" s="94"/>
+      <c r="X29" s="94"/>
+      <c r="Y29" s="94"/>
+      <c r="Z29" s="98"/>
+      <c r="AA29" s="98"/>
+      <c r="AB29" s="98"/>
+      <c r="AC29" s="98"/>
+      <c r="AD29" s="98"/>
+      <c r="AE29" s="98"/>
+      <c r="AF29" s="98"/>
+      <c r="AG29" s="98"/>
+      <c r="AH29" s="88"/>
+      <c r="AI29" s="88"/>
+      <c r="AJ29" s="88"/>
+      <c r="AK29" s="88"/>
+      <c r="AL29" s="88"/>
+      <c r="AM29" s="88"/>
+      <c r="AN29" s="88"/>
+      <c r="AO29" s="88"/>
+      <c r="AP29" s="94"/>
+      <c r="AQ29" s="94"/>
+      <c r="AR29" s="94"/>
+      <c r="AS29" s="94"/>
+      <c r="AT29" s="94"/>
+      <c r="AU29" s="94"/>
+      <c r="AV29" s="94"/>
+      <c r="AW29" s="94"/>
+      <c r="AX29" s="89"/>
+      <c r="AY29" s="89"/>
+      <c r="AZ29" s="89"/>
+      <c r="BA29" s="89"/>
+      <c r="BB29" s="89"/>
+      <c r="BC29" s="89"/>
+      <c r="BD29" s="89"/>
+      <c r="BE29" s="89"/>
+      <c r="BF29" s="89"/>
+      <c r="BG29" s="89"/>
+      <c r="BH29" s="89"/>
+      <c r="BI29" s="89"/>
+      <c r="BJ29" s="89"/>
+      <c r="BK29" s="89"/>
+      <c r="BL29" s="89"/>
+      <c r="BM29" s="89"/>
+      <c r="BN29" s="88"/>
+      <c r="BO29" s="88"/>
+      <c r="BP29" s="88"/>
+      <c r="BQ29" s="88"/>
+      <c r="BR29" s="88"/>
+      <c r="BS29" s="88"/>
+      <c r="BT29" s="88"/>
+      <c r="BU29" s="88"/>
+      <c r="BV29" s="89"/>
+      <c r="BW29" s="89"/>
+      <c r="BX29" s="89"/>
+      <c r="BY29" s="89"/>
+      <c r="BZ29" s="89"/>
+      <c r="CA29" s="89"/>
+      <c r="CB29" s="89"/>
+      <c r="CC29" s="89"/>
+      <c r="CD29" s="95"/>
+      <c r="CE29" s="95"/>
+      <c r="CF29" s="95"/>
+      <c r="CG29" s="95"/>
+      <c r="CH29" s="95"/>
+      <c r="CI29" s="95"/>
+      <c r="CJ29" s="95"/>
+      <c r="CK29" s="95"/>
+      <c r="CL29" s="106"/>
+      <c r="CM29" s="106"/>
+      <c r="CN29" s="106"/>
+      <c r="CO29" s="106"/>
+      <c r="CP29" s="106"/>
+      <c r="CQ29" s="106"/>
+      <c r="CR29" s="106"/>
+      <c r="CS29" s="94"/>
+      <c r="CT29" s="94"/>
+      <c r="CU29" s="94"/>
+      <c r="CV29" s="94"/>
+      <c r="CW29" s="94"/>
+      <c r="CX29" s="94"/>
+      <c r="CY29" s="94"/>
       <c r="CZ29" s="76"/>
     </row>
     <row r="30" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A30" s="63">
         <v>5</v>
       </c>
-      <c r="B30" s="90" t="s">
+      <c r="B30" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="90"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="90"/>
-      <c r="K30" s="90"/>
-      <c r="L30" s="90"/>
-      <c r="M30" s="90"/>
-      <c r="N30" s="90"/>
-      <c r="O30" s="90"/>
-      <c r="P30" s="90"/>
-      <c r="Q30" s="90"/>
-      <c r="R30" s="89"/>
-      <c r="S30" s="89"/>
-      <c r="T30" s="89"/>
-      <c r="U30" s="89"/>
-      <c r="V30" s="89"/>
-      <c r="W30" s="89"/>
-      <c r="X30" s="89"/>
-      <c r="Y30" s="89"/>
-      <c r="Z30" s="95"/>
-      <c r="AA30" s="95"/>
-      <c r="AB30" s="95"/>
-      <c r="AC30" s="95"/>
-      <c r="AD30" s="95"/>
-      <c r="AE30" s="95"/>
-      <c r="AF30" s="95"/>
-      <c r="AG30" s="95"/>
-      <c r="AH30" s="101"/>
-      <c r="AI30" s="101"/>
-      <c r="AJ30" s="101"/>
-      <c r="AK30" s="101"/>
-      <c r="AL30" s="101"/>
-      <c r="AM30" s="101"/>
-      <c r="AN30" s="101"/>
-      <c r="AO30" s="101"/>
-      <c r="AP30" s="90"/>
-      <c r="AQ30" s="90"/>
-      <c r="AR30" s="90"/>
-      <c r="AS30" s="90"/>
-      <c r="AT30" s="90"/>
-      <c r="AU30" s="90"/>
-      <c r="AV30" s="90"/>
-      <c r="AW30" s="90"/>
-      <c r="AX30" s="101"/>
-      <c r="AY30" s="101"/>
-      <c r="AZ30" s="101"/>
-      <c r="BA30" s="101"/>
-      <c r="BB30" s="101"/>
-      <c r="BC30" s="101"/>
-      <c r="BD30" s="101"/>
-      <c r="BE30" s="101"/>
-      <c r="BF30" s="101"/>
-      <c r="BG30" s="101"/>
-      <c r="BH30" s="101"/>
-      <c r="BI30" s="101"/>
-      <c r="BJ30" s="101"/>
-      <c r="BK30" s="101"/>
-      <c r="BL30" s="101"/>
-      <c r="BM30" s="101"/>
-      <c r="BN30" s="101"/>
-      <c r="BO30" s="101"/>
-      <c r="BP30" s="101"/>
-      <c r="BQ30" s="101"/>
-      <c r="BR30" s="101"/>
-      <c r="BS30" s="101"/>
-      <c r="BT30" s="101"/>
-      <c r="BU30" s="101"/>
-      <c r="BV30" s="94"/>
-      <c r="BW30" s="94"/>
-      <c r="BX30" s="94"/>
-      <c r="BY30" s="94"/>
-      <c r="BZ30" s="94"/>
-      <c r="CA30" s="94"/>
-      <c r="CB30" s="94"/>
-      <c r="CC30" s="94"/>
-      <c r="CD30" s="94"/>
-      <c r="CE30" s="94"/>
-      <c r="CF30" s="94"/>
-      <c r="CG30" s="94"/>
-      <c r="CH30" s="94"/>
-      <c r="CI30" s="94"/>
-      <c r="CJ30" s="94"/>
-      <c r="CK30" s="94"/>
-      <c r="CL30" s="88"/>
-      <c r="CM30" s="88"/>
-      <c r="CN30" s="88"/>
-      <c r="CO30" s="88"/>
-      <c r="CP30" s="88"/>
-      <c r="CQ30" s="88"/>
-      <c r="CR30" s="88"/>
-      <c r="CS30" s="89"/>
-      <c r="CT30" s="89"/>
-      <c r="CU30" s="89"/>
-      <c r="CV30" s="89"/>
-      <c r="CW30" s="89"/>
-      <c r="CX30" s="89"/>
-      <c r="CY30" s="89"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="95"/>
+      <c r="H30" s="95"/>
+      <c r="I30" s="95"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="95"/>
+      <c r="P30" s="95"/>
+      <c r="Q30" s="95"/>
+      <c r="R30" s="94"/>
+      <c r="S30" s="94"/>
+      <c r="T30" s="94"/>
+      <c r="U30" s="94"/>
+      <c r="V30" s="94"/>
+      <c r="W30" s="94"/>
+      <c r="X30" s="94"/>
+      <c r="Y30" s="94"/>
+      <c r="Z30" s="98"/>
+      <c r="AA30" s="98"/>
+      <c r="AB30" s="98"/>
+      <c r="AC30" s="98"/>
+      <c r="AD30" s="98"/>
+      <c r="AE30" s="98"/>
+      <c r="AF30" s="98"/>
+      <c r="AG30" s="98"/>
+      <c r="AH30" s="88"/>
+      <c r="AI30" s="88"/>
+      <c r="AJ30" s="88"/>
+      <c r="AK30" s="88"/>
+      <c r="AL30" s="88"/>
+      <c r="AM30" s="88"/>
+      <c r="AN30" s="88"/>
+      <c r="AO30" s="88"/>
+      <c r="AP30" s="95"/>
+      <c r="AQ30" s="95"/>
+      <c r="AR30" s="95"/>
+      <c r="AS30" s="95"/>
+      <c r="AT30" s="95"/>
+      <c r="AU30" s="95"/>
+      <c r="AV30" s="95"/>
+      <c r="AW30" s="95"/>
+      <c r="AX30" s="88"/>
+      <c r="AY30" s="88"/>
+      <c r="AZ30" s="88"/>
+      <c r="BA30" s="88"/>
+      <c r="BB30" s="88"/>
+      <c r="BC30" s="88"/>
+      <c r="BD30" s="88"/>
+      <c r="BE30" s="88"/>
+      <c r="BF30" s="88"/>
+      <c r="BG30" s="88"/>
+      <c r="BH30" s="88"/>
+      <c r="BI30" s="88"/>
+      <c r="BJ30" s="88"/>
+      <c r="BK30" s="88"/>
+      <c r="BL30" s="88"/>
+      <c r="BM30" s="88"/>
+      <c r="BN30" s="88"/>
+      <c r="BO30" s="88"/>
+      <c r="BP30" s="88"/>
+      <c r="BQ30" s="88"/>
+      <c r="BR30" s="88"/>
+      <c r="BS30" s="88"/>
+      <c r="BT30" s="88"/>
+      <c r="BU30" s="88"/>
+      <c r="BV30" s="89"/>
+      <c r="BW30" s="89"/>
+      <c r="BX30" s="89"/>
+      <c r="BY30" s="89"/>
+      <c r="BZ30" s="89"/>
+      <c r="CA30" s="89"/>
+      <c r="CB30" s="89"/>
+      <c r="CC30" s="89"/>
+      <c r="CD30" s="89"/>
+      <c r="CE30" s="89"/>
+      <c r="CF30" s="89"/>
+      <c r="CG30" s="89"/>
+      <c r="CH30" s="89"/>
+      <c r="CI30" s="89"/>
+      <c r="CJ30" s="89"/>
+      <c r="CK30" s="89"/>
+      <c r="CL30" s="106"/>
+      <c r="CM30" s="106"/>
+      <c r="CN30" s="106"/>
+      <c r="CO30" s="106"/>
+      <c r="CP30" s="106"/>
+      <c r="CQ30" s="106"/>
+      <c r="CR30" s="106"/>
+      <c r="CS30" s="94"/>
+      <c r="CT30" s="94"/>
+      <c r="CU30" s="94"/>
+      <c r="CV30" s="94"/>
+      <c r="CW30" s="94"/>
+      <c r="CX30" s="94"/>
+      <c r="CY30" s="94"/>
       <c r="CZ30" s="76"/>
     </row>
     <row r="31" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A31" s="63">
         <v>6</v>
       </c>
-      <c r="B31" s="90" t="s">
+      <c r="B31" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="90"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="90"/>
-      <c r="J31" s="90"/>
-      <c r="K31" s="90"/>
-      <c r="L31" s="90"/>
-      <c r="M31" s="90"/>
-      <c r="N31" s="90"/>
-      <c r="O31" s="90"/>
-      <c r="P31" s="90"/>
-      <c r="Q31" s="90"/>
-      <c r="R31" s="89"/>
-      <c r="S31" s="89"/>
-      <c r="T31" s="89"/>
-      <c r="U31" s="89"/>
-      <c r="V31" s="89"/>
-      <c r="W31" s="89"/>
-      <c r="X31" s="89"/>
-      <c r="Y31" s="89"/>
-      <c r="Z31" s="95"/>
-      <c r="AA31" s="95"/>
-      <c r="AB31" s="95"/>
-      <c r="AC31" s="95"/>
-      <c r="AD31" s="95"/>
-      <c r="AE31" s="95"/>
-      <c r="AF31" s="95"/>
-      <c r="AG31" s="95"/>
-      <c r="AH31" s="95"/>
-      <c r="AI31" s="95"/>
-      <c r="AJ31" s="95"/>
-      <c r="AK31" s="95"/>
-      <c r="AL31" s="95"/>
-      <c r="AM31" s="95"/>
-      <c r="AN31" s="95"/>
-      <c r="AO31" s="95"/>
-      <c r="AP31" s="102"/>
-      <c r="AQ31" s="102"/>
-      <c r="AR31" s="102"/>
-      <c r="AS31" s="102"/>
-      <c r="AT31" s="102"/>
-      <c r="AU31" s="102"/>
-      <c r="AV31" s="102"/>
-      <c r="AW31" s="102"/>
-      <c r="AX31" s="101"/>
-      <c r="AY31" s="101"/>
-      <c r="AZ31" s="101"/>
-      <c r="BA31" s="101"/>
-      <c r="BB31" s="101"/>
-      <c r="BC31" s="101"/>
-      <c r="BD31" s="101"/>
-      <c r="BE31" s="101"/>
-      <c r="BF31" s="101"/>
-      <c r="BG31" s="101"/>
-      <c r="BH31" s="101"/>
-      <c r="BI31" s="101"/>
-      <c r="BJ31" s="101"/>
-      <c r="BK31" s="101"/>
-      <c r="BL31" s="101"/>
-      <c r="BM31" s="101"/>
-      <c r="BN31" s="101"/>
-      <c r="BO31" s="101"/>
-      <c r="BP31" s="101"/>
-      <c r="BQ31" s="101"/>
-      <c r="BR31" s="101"/>
-      <c r="BS31" s="101"/>
-      <c r="BT31" s="101"/>
-      <c r="BU31" s="101"/>
-      <c r="BV31" s="94"/>
-      <c r="BW31" s="94"/>
-      <c r="BX31" s="94"/>
-      <c r="BY31" s="94"/>
-      <c r="BZ31" s="94"/>
-      <c r="CA31" s="94"/>
-      <c r="CB31" s="94"/>
-      <c r="CC31" s="94"/>
-      <c r="CD31" s="94"/>
-      <c r="CE31" s="94"/>
-      <c r="CF31" s="94"/>
-      <c r="CG31" s="94"/>
-      <c r="CH31" s="94"/>
-      <c r="CI31" s="94"/>
-      <c r="CJ31" s="94"/>
-      <c r="CK31" s="94"/>
-      <c r="CL31" s="88"/>
-      <c r="CM31" s="88"/>
-      <c r="CN31" s="88"/>
-      <c r="CO31" s="88"/>
-      <c r="CP31" s="88"/>
-      <c r="CQ31" s="88"/>
-      <c r="CR31" s="88"/>
-      <c r="CS31" s="89"/>
-      <c r="CT31" s="89"/>
-      <c r="CU31" s="89"/>
-      <c r="CV31" s="89"/>
-      <c r="CW31" s="89"/>
-      <c r="CX31" s="89"/>
-      <c r="CY31" s="89"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="95"/>
+      <c r="H31" s="95"/>
+      <c r="I31" s="95"/>
+      <c r="J31" s="95"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="95"/>
+      <c r="Q31" s="95"/>
+      <c r="R31" s="94"/>
+      <c r="S31" s="94"/>
+      <c r="T31" s="94"/>
+      <c r="U31" s="94"/>
+      <c r="V31" s="94"/>
+      <c r="W31" s="94"/>
+      <c r="X31" s="94"/>
+      <c r="Y31" s="94"/>
+      <c r="Z31" s="98"/>
+      <c r="AA31" s="98"/>
+      <c r="AB31" s="98"/>
+      <c r="AC31" s="98"/>
+      <c r="AD31" s="98"/>
+      <c r="AE31" s="98"/>
+      <c r="AF31" s="98"/>
+      <c r="AG31" s="98"/>
+      <c r="AH31" s="98"/>
+      <c r="AI31" s="98"/>
+      <c r="AJ31" s="98"/>
+      <c r="AK31" s="98"/>
+      <c r="AL31" s="98"/>
+      <c r="AM31" s="98"/>
+      <c r="AN31" s="98"/>
+      <c r="AO31" s="98"/>
+      <c r="AP31" s="99"/>
+      <c r="AQ31" s="99"/>
+      <c r="AR31" s="99"/>
+      <c r="AS31" s="99"/>
+      <c r="AT31" s="99"/>
+      <c r="AU31" s="99"/>
+      <c r="AV31" s="99"/>
+      <c r="AW31" s="99"/>
+      <c r="AX31" s="88"/>
+      <c r="AY31" s="88"/>
+      <c r="AZ31" s="88"/>
+      <c r="BA31" s="88"/>
+      <c r="BB31" s="88"/>
+      <c r="BC31" s="88"/>
+      <c r="BD31" s="88"/>
+      <c r="BE31" s="88"/>
+      <c r="BF31" s="88"/>
+      <c r="BG31" s="88"/>
+      <c r="BH31" s="88"/>
+      <c r="BI31" s="88"/>
+      <c r="BJ31" s="88"/>
+      <c r="BK31" s="88"/>
+      <c r="BL31" s="88"/>
+      <c r="BM31" s="88"/>
+      <c r="BN31" s="88"/>
+      <c r="BO31" s="88"/>
+      <c r="BP31" s="88"/>
+      <c r="BQ31" s="88"/>
+      <c r="BR31" s="88"/>
+      <c r="BS31" s="88"/>
+      <c r="BT31" s="88"/>
+      <c r="BU31" s="88"/>
+      <c r="BV31" s="89"/>
+      <c r="BW31" s="89"/>
+      <c r="BX31" s="89"/>
+      <c r="BY31" s="89"/>
+      <c r="BZ31" s="89"/>
+      <c r="CA31" s="89"/>
+      <c r="CB31" s="89"/>
+      <c r="CC31" s="89"/>
+      <c r="CD31" s="89"/>
+      <c r="CE31" s="89"/>
+      <c r="CF31" s="89"/>
+      <c r="CG31" s="89"/>
+      <c r="CH31" s="89"/>
+      <c r="CI31" s="89"/>
+      <c r="CJ31" s="89"/>
+      <c r="CK31" s="89"/>
+      <c r="CL31" s="106"/>
+      <c r="CM31" s="106"/>
+      <c r="CN31" s="106"/>
+      <c r="CO31" s="106"/>
+      <c r="CP31" s="106"/>
+      <c r="CQ31" s="106"/>
+      <c r="CR31" s="106"/>
+      <c r="CS31" s="94"/>
+      <c r="CT31" s="94"/>
+      <c r="CU31" s="94"/>
+      <c r="CV31" s="94"/>
+      <c r="CW31" s="94"/>
+      <c r="CX31" s="94"/>
+      <c r="CY31" s="94"/>
       <c r="CZ31" s="76"/>
     </row>
     <row r="32" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A32" s="63">
         <v>7</v>
       </c>
-      <c r="B32" s="90" t="s">
+      <c r="B32" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="90"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="90"/>
-      <c r="J32" s="90"/>
-      <c r="K32" s="90"/>
-      <c r="L32" s="90"/>
-      <c r="M32" s="90"/>
-      <c r="N32" s="90"/>
-      <c r="O32" s="90"/>
-      <c r="P32" s="90"/>
-      <c r="Q32" s="90"/>
-      <c r="R32" s="89"/>
-      <c r="S32" s="89"/>
-      <c r="T32" s="89"/>
-      <c r="U32" s="89"/>
-      <c r="V32" s="89"/>
-      <c r="W32" s="89"/>
-      <c r="X32" s="89"/>
-      <c r="Y32" s="89"/>
-      <c r="Z32" s="95"/>
-      <c r="AA32" s="95"/>
-      <c r="AB32" s="95"/>
-      <c r="AC32" s="95"/>
-      <c r="AD32" s="95"/>
-      <c r="AE32" s="95"/>
-      <c r="AF32" s="95"/>
-      <c r="AG32" s="95"/>
-      <c r="AH32" s="95"/>
-      <c r="AI32" s="95"/>
-      <c r="AJ32" s="95"/>
-      <c r="AK32" s="95"/>
-      <c r="AL32" s="95"/>
-      <c r="AM32" s="95"/>
-      <c r="AN32" s="95"/>
-      <c r="AO32" s="95"/>
-      <c r="AP32" s="102"/>
-      <c r="AQ32" s="102"/>
-      <c r="AR32" s="102"/>
-      <c r="AS32" s="102"/>
-      <c r="AT32" s="102"/>
-      <c r="AU32" s="102"/>
-      <c r="AV32" s="102"/>
-      <c r="AW32" s="102"/>
-      <c r="AX32" s="101"/>
-      <c r="AY32" s="101"/>
-      <c r="AZ32" s="101"/>
-      <c r="BA32" s="101"/>
-      <c r="BB32" s="101"/>
-      <c r="BC32" s="101"/>
-      <c r="BD32" s="101"/>
-      <c r="BE32" s="101"/>
-      <c r="BF32" s="101"/>
-      <c r="BG32" s="101"/>
-      <c r="BH32" s="101"/>
-      <c r="BI32" s="101"/>
-      <c r="BJ32" s="101"/>
-      <c r="BK32" s="101"/>
-      <c r="BL32" s="101"/>
-      <c r="BM32" s="101"/>
-      <c r="BN32" s="101"/>
-      <c r="BO32" s="101"/>
-      <c r="BP32" s="101"/>
-      <c r="BQ32" s="101"/>
-      <c r="BR32" s="101"/>
-      <c r="BS32" s="101"/>
-      <c r="BT32" s="101"/>
-      <c r="BU32" s="101"/>
-      <c r="BV32" s="94"/>
-      <c r="BW32" s="94"/>
-      <c r="BX32" s="94"/>
-      <c r="BY32" s="94"/>
-      <c r="BZ32" s="94"/>
-      <c r="CA32" s="94"/>
-      <c r="CB32" s="94"/>
-      <c r="CC32" s="94"/>
-      <c r="CD32" s="94"/>
-      <c r="CE32" s="94"/>
-      <c r="CF32" s="94"/>
-      <c r="CG32" s="94"/>
-      <c r="CH32" s="94"/>
-      <c r="CI32" s="94"/>
-      <c r="CJ32" s="94"/>
-      <c r="CK32" s="94"/>
-      <c r="CL32" s="94"/>
-      <c r="CM32" s="94"/>
-      <c r="CN32" s="94"/>
-      <c r="CO32" s="94"/>
-      <c r="CP32" s="94"/>
-      <c r="CQ32" s="94"/>
-      <c r="CR32" s="94"/>
-      <c r="CS32" s="89"/>
-      <c r="CT32" s="89"/>
-      <c r="CU32" s="89"/>
-      <c r="CV32" s="89"/>
-      <c r="CW32" s="89"/>
-      <c r="CX32" s="89"/>
-      <c r="CY32" s="89"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="95"/>
+      <c r="H32" s="95"/>
+      <c r="I32" s="95"/>
+      <c r="J32" s="95"/>
+      <c r="K32" s="95"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="95"/>
+      <c r="N32" s="95"/>
+      <c r="O32" s="95"/>
+      <c r="P32" s="95"/>
+      <c r="Q32" s="95"/>
+      <c r="R32" s="94"/>
+      <c r="S32" s="94"/>
+      <c r="T32" s="94"/>
+      <c r="U32" s="94"/>
+      <c r="V32" s="94"/>
+      <c r="W32" s="94"/>
+      <c r="X32" s="94"/>
+      <c r="Y32" s="94"/>
+      <c r="Z32" s="98"/>
+      <c r="AA32" s="98"/>
+      <c r="AB32" s="98"/>
+      <c r="AC32" s="98"/>
+      <c r="AD32" s="98"/>
+      <c r="AE32" s="98"/>
+      <c r="AF32" s="98"/>
+      <c r="AG32" s="98"/>
+      <c r="AH32" s="98"/>
+      <c r="AI32" s="98"/>
+      <c r="AJ32" s="98"/>
+      <c r="AK32" s="98"/>
+      <c r="AL32" s="98"/>
+      <c r="AM32" s="98"/>
+      <c r="AN32" s="98"/>
+      <c r="AO32" s="98"/>
+      <c r="AP32" s="99"/>
+      <c r="AQ32" s="99"/>
+      <c r="AR32" s="99"/>
+      <c r="AS32" s="99"/>
+      <c r="AT32" s="99"/>
+      <c r="AU32" s="99"/>
+      <c r="AV32" s="99"/>
+      <c r="AW32" s="99"/>
+      <c r="AX32" s="88"/>
+      <c r="AY32" s="88"/>
+      <c r="AZ32" s="88"/>
+      <c r="BA32" s="88"/>
+      <c r="BB32" s="88"/>
+      <c r="BC32" s="88"/>
+      <c r="BD32" s="88"/>
+      <c r="BE32" s="88"/>
+      <c r="BF32" s="88"/>
+      <c r="BG32" s="88"/>
+      <c r="BH32" s="88"/>
+      <c r="BI32" s="88"/>
+      <c r="BJ32" s="88"/>
+      <c r="BK32" s="88"/>
+      <c r="BL32" s="88"/>
+      <c r="BM32" s="88"/>
+      <c r="BN32" s="88"/>
+      <c r="BO32" s="88"/>
+      <c r="BP32" s="88"/>
+      <c r="BQ32" s="88"/>
+      <c r="BR32" s="88"/>
+      <c r="BS32" s="88"/>
+      <c r="BT32" s="88"/>
+      <c r="BU32" s="88"/>
+      <c r="BV32" s="89"/>
+      <c r="BW32" s="89"/>
+      <c r="BX32" s="89"/>
+      <c r="BY32" s="89"/>
+      <c r="BZ32" s="89"/>
+      <c r="CA32" s="89"/>
+      <c r="CB32" s="89"/>
+      <c r="CC32" s="89"/>
+      <c r="CD32" s="89"/>
+      <c r="CE32" s="89"/>
+      <c r="CF32" s="89"/>
+      <c r="CG32" s="89"/>
+      <c r="CH32" s="89"/>
+      <c r="CI32" s="89"/>
+      <c r="CJ32" s="89"/>
+      <c r="CK32" s="89"/>
+      <c r="CL32" s="89"/>
+      <c r="CM32" s="89"/>
+      <c r="CN32" s="89"/>
+      <c r="CO32" s="89"/>
+      <c r="CP32" s="89"/>
+      <c r="CQ32" s="89"/>
+      <c r="CR32" s="89"/>
+      <c r="CS32" s="94"/>
+      <c r="CT32" s="94"/>
+      <c r="CU32" s="94"/>
+      <c r="CV32" s="94"/>
+      <c r="CW32" s="94"/>
+      <c r="CX32" s="94"/>
+      <c r="CY32" s="94"/>
       <c r="CZ32" s="76"/>
     </row>
     <row r="33" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A33" s="63">
         <v>8</v>
       </c>
-      <c r="B33" s="90"/>
-      <c r="C33" s="90"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="90"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="90"/>
-      <c r="J33" s="90"/>
-      <c r="K33" s="90"/>
-      <c r="L33" s="90"/>
-      <c r="M33" s="90"/>
-      <c r="N33" s="90"/>
-      <c r="O33" s="90"/>
-      <c r="P33" s="90"/>
-      <c r="Q33" s="90"/>
-      <c r="R33" s="89"/>
-      <c r="S33" s="89"/>
-      <c r="T33" s="89"/>
-      <c r="U33" s="89"/>
-      <c r="V33" s="89"/>
-      <c r="W33" s="89"/>
-      <c r="X33" s="89"/>
-      <c r="Y33" s="89"/>
-      <c r="Z33" s="95"/>
-      <c r="AA33" s="95"/>
-      <c r="AB33" s="95"/>
-      <c r="AC33" s="95"/>
-      <c r="AD33" s="95"/>
-      <c r="AE33" s="95"/>
-      <c r="AF33" s="95"/>
-      <c r="AG33" s="95"/>
-      <c r="AH33" s="95"/>
-      <c r="AI33" s="95"/>
-      <c r="AJ33" s="95"/>
-      <c r="AK33" s="95"/>
-      <c r="AL33" s="95"/>
-      <c r="AM33" s="95"/>
-      <c r="AN33" s="95"/>
-      <c r="AO33" s="95"/>
-      <c r="AP33" s="102"/>
-      <c r="AQ33" s="102"/>
-      <c r="AR33" s="102"/>
-      <c r="AS33" s="102"/>
-      <c r="AT33" s="102"/>
-      <c r="AU33" s="102"/>
-      <c r="AV33" s="102"/>
-      <c r="AW33" s="102"/>
-      <c r="AX33" s="101"/>
-      <c r="AY33" s="101"/>
-      <c r="AZ33" s="101"/>
-      <c r="BA33" s="101"/>
-      <c r="BB33" s="101"/>
-      <c r="BC33" s="101"/>
-      <c r="BD33" s="101"/>
-      <c r="BE33" s="101"/>
-      <c r="BF33" s="101"/>
-      <c r="BG33" s="101"/>
-      <c r="BH33" s="101"/>
-      <c r="BI33" s="101"/>
-      <c r="BJ33" s="101"/>
-      <c r="BK33" s="101"/>
-      <c r="BL33" s="101"/>
-      <c r="BM33" s="101"/>
-      <c r="BN33" s="101"/>
-      <c r="BO33" s="101"/>
-      <c r="BP33" s="101"/>
-      <c r="BQ33" s="101"/>
-      <c r="BR33" s="101"/>
-      <c r="BS33" s="101"/>
-      <c r="BT33" s="101"/>
-      <c r="BU33" s="101"/>
-      <c r="BV33" s="94"/>
-      <c r="BW33" s="94"/>
-      <c r="BX33" s="94"/>
-      <c r="BY33" s="94"/>
-      <c r="BZ33" s="94"/>
-      <c r="CA33" s="94"/>
-      <c r="CB33" s="94"/>
-      <c r="CC33" s="94"/>
-      <c r="CD33" s="94"/>
-      <c r="CE33" s="94"/>
-      <c r="CF33" s="94"/>
-      <c r="CG33" s="94"/>
-      <c r="CH33" s="94"/>
-      <c r="CI33" s="94"/>
-      <c r="CJ33" s="94"/>
-      <c r="CK33" s="94"/>
-      <c r="CS33" s="90"/>
-      <c r="CT33" s="90"/>
-      <c r="CU33" s="90"/>
-      <c r="CV33" s="90"/>
-      <c r="CW33" s="90"/>
-      <c r="CX33" s="90"/>
-      <c r="CY33" s="90"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="95"/>
+      <c r="I33" s="95"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="95"/>
+      <c r="L33" s="95"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="95"/>
+      <c r="Q33" s="95"/>
+      <c r="R33" s="94"/>
+      <c r="S33" s="94"/>
+      <c r="T33" s="94"/>
+      <c r="U33" s="94"/>
+      <c r="V33" s="94"/>
+      <c r="W33" s="94"/>
+      <c r="X33" s="94"/>
+      <c r="Y33" s="94"/>
+      <c r="Z33" s="98"/>
+      <c r="AA33" s="98"/>
+      <c r="AB33" s="98"/>
+      <c r="AC33" s="98"/>
+      <c r="AD33" s="98"/>
+      <c r="AE33" s="98"/>
+      <c r="AF33" s="98"/>
+      <c r="AG33" s="98"/>
+      <c r="AH33" s="98"/>
+      <c r="AI33" s="98"/>
+      <c r="AJ33" s="98"/>
+      <c r="AK33" s="98"/>
+      <c r="AL33" s="98"/>
+      <c r="AM33" s="98"/>
+      <c r="AN33" s="98"/>
+      <c r="AO33" s="98"/>
+      <c r="AP33" s="99"/>
+      <c r="AQ33" s="99"/>
+      <c r="AR33" s="99"/>
+      <c r="AS33" s="99"/>
+      <c r="AT33" s="99"/>
+      <c r="AU33" s="99"/>
+      <c r="AV33" s="99"/>
+      <c r="AW33" s="99"/>
+      <c r="AX33" s="88"/>
+      <c r="AY33" s="88"/>
+      <c r="AZ33" s="88"/>
+      <c r="BA33" s="88"/>
+      <c r="BB33" s="88"/>
+      <c r="BC33" s="88"/>
+      <c r="BD33" s="88"/>
+      <c r="BE33" s="88"/>
+      <c r="BF33" s="88"/>
+      <c r="BG33" s="88"/>
+      <c r="BH33" s="88"/>
+      <c r="BI33" s="88"/>
+      <c r="BJ33" s="88"/>
+      <c r="BK33" s="88"/>
+      <c r="BL33" s="88"/>
+      <c r="BM33" s="88"/>
+      <c r="BN33" s="88"/>
+      <c r="BO33" s="88"/>
+      <c r="BP33" s="88"/>
+      <c r="BQ33" s="88"/>
+      <c r="BR33" s="88"/>
+      <c r="BS33" s="88"/>
+      <c r="BT33" s="88"/>
+      <c r="BU33" s="88"/>
+      <c r="BV33" s="89"/>
+      <c r="BW33" s="89"/>
+      <c r="BX33" s="89"/>
+      <c r="BY33" s="89"/>
+      <c r="BZ33" s="89"/>
+      <c r="CA33" s="89"/>
+      <c r="CB33" s="89"/>
+      <c r="CC33" s="89"/>
+      <c r="CD33" s="89"/>
+      <c r="CE33" s="89"/>
+      <c r="CF33" s="89"/>
+      <c r="CG33" s="89"/>
+      <c r="CH33" s="89"/>
+      <c r="CI33" s="89"/>
+      <c r="CJ33" s="89"/>
+      <c r="CK33" s="89"/>
+      <c r="CS33" s="95"/>
+      <c r="CT33" s="95"/>
+      <c r="CU33" s="95"/>
+      <c r="CV33" s="95"/>
+      <c r="CW33" s="95"/>
+      <c r="CX33" s="95"/>
+      <c r="CY33" s="95"/>
       <c r="CZ33" s="76"/>
     </row>
     <row r="34" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A34" s="63">
         <v>9</v>
       </c>
-      <c r="B34" s="90"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="90"/>
-      <c r="K34" s="90"/>
-      <c r="L34" s="90"/>
-      <c r="M34" s="90"/>
-      <c r="N34" s="90"/>
-      <c r="O34" s="90"/>
-      <c r="P34" s="90"/>
-      <c r="Q34" s="90"/>
-      <c r="R34" s="89"/>
-      <c r="S34" s="89"/>
-      <c r="T34" s="89"/>
-      <c r="U34" s="89"/>
-      <c r="V34" s="89"/>
-      <c r="W34" s="89"/>
-      <c r="X34" s="89"/>
-      <c r="Y34" s="89"/>
-      <c r="Z34" s="95"/>
-      <c r="AA34" s="95"/>
-      <c r="AB34" s="95"/>
-      <c r="AC34" s="95"/>
-      <c r="AD34" s="95"/>
-      <c r="AE34" s="95"/>
-      <c r="AF34" s="95"/>
-      <c r="AG34" s="95"/>
-      <c r="AH34" s="95"/>
-      <c r="AI34" s="95"/>
-      <c r="AJ34" s="95"/>
-      <c r="AK34" s="95"/>
-      <c r="AL34" s="95"/>
-      <c r="AM34" s="95"/>
-      <c r="AN34" s="95"/>
-      <c r="AO34" s="95"/>
-      <c r="AP34" s="102"/>
-      <c r="AQ34" s="102"/>
-      <c r="AR34" s="102"/>
-      <c r="AS34" s="102"/>
-      <c r="AT34" s="102"/>
-      <c r="AU34" s="102"/>
-      <c r="AV34" s="102"/>
-      <c r="AW34" s="102"/>
-      <c r="AX34" s="94"/>
-      <c r="AY34" s="94"/>
-      <c r="AZ34" s="94"/>
-      <c r="BA34" s="94"/>
-      <c r="BB34" s="94"/>
-      <c r="BC34" s="94"/>
-      <c r="BD34" s="94"/>
-      <c r="BE34" s="94"/>
-      <c r="BF34" s="94"/>
-      <c r="BG34" s="94"/>
-      <c r="BH34" s="94"/>
-      <c r="BI34" s="94"/>
-      <c r="BJ34" s="94"/>
-      <c r="BK34" s="94"/>
-      <c r="BL34" s="94"/>
-      <c r="BM34" s="94"/>
-      <c r="BN34" s="101"/>
-      <c r="BO34" s="101"/>
-      <c r="BP34" s="101"/>
-      <c r="BQ34" s="101"/>
-      <c r="BR34" s="101"/>
-      <c r="BS34" s="101"/>
-      <c r="BT34" s="101"/>
-      <c r="BU34" s="101"/>
-      <c r="BV34" s="94"/>
-      <c r="BW34" s="94"/>
-      <c r="BX34" s="94"/>
-      <c r="BY34" s="94"/>
-      <c r="BZ34" s="94"/>
-      <c r="CA34" s="94"/>
-      <c r="CB34" s="94"/>
-      <c r="CC34" s="94"/>
-      <c r="CD34" s="94"/>
-      <c r="CE34" s="94"/>
-      <c r="CF34" s="94"/>
-      <c r="CG34" s="94"/>
-      <c r="CH34" s="94"/>
-      <c r="CI34" s="94"/>
-      <c r="CJ34" s="94"/>
-      <c r="CK34" s="94"/>
-      <c r="CS34" s="89"/>
-      <c r="CT34" s="89"/>
-      <c r="CU34" s="89"/>
-      <c r="CV34" s="89"/>
-      <c r="CW34" s="89"/>
-      <c r="CX34" s="89"/>
-      <c r="CY34" s="89"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="95"/>
+      <c r="I34" s="95"/>
+      <c r="J34" s="95"/>
+      <c r="K34" s="95"/>
+      <c r="L34" s="95"/>
+      <c r="M34" s="95"/>
+      <c r="N34" s="95"/>
+      <c r="O34" s="95"/>
+      <c r="P34" s="95"/>
+      <c r="Q34" s="95"/>
+      <c r="R34" s="94"/>
+      <c r="S34" s="94"/>
+      <c r="T34" s="94"/>
+      <c r="U34" s="94"/>
+      <c r="V34" s="94"/>
+      <c r="W34" s="94"/>
+      <c r="X34" s="94"/>
+      <c r="Y34" s="94"/>
+      <c r="Z34" s="98"/>
+      <c r="AA34" s="98"/>
+      <c r="AB34" s="98"/>
+      <c r="AC34" s="98"/>
+      <c r="AD34" s="98"/>
+      <c r="AE34" s="98"/>
+      <c r="AF34" s="98"/>
+      <c r="AG34" s="98"/>
+      <c r="AH34" s="98"/>
+      <c r="AI34" s="98"/>
+      <c r="AJ34" s="98"/>
+      <c r="AK34" s="98"/>
+      <c r="AL34" s="98"/>
+      <c r="AM34" s="98"/>
+      <c r="AN34" s="98"/>
+      <c r="AO34" s="98"/>
+      <c r="AP34" s="99"/>
+      <c r="AQ34" s="99"/>
+      <c r="AR34" s="99"/>
+      <c r="AS34" s="99"/>
+      <c r="AT34" s="99"/>
+      <c r="AU34" s="99"/>
+      <c r="AV34" s="99"/>
+      <c r="AW34" s="99"/>
+      <c r="AX34" s="89"/>
+      <c r="AY34" s="89"/>
+      <c r="AZ34" s="89"/>
+      <c r="BA34" s="89"/>
+      <c r="BB34" s="89"/>
+      <c r="BC34" s="89"/>
+      <c r="BD34" s="89"/>
+      <c r="BE34" s="89"/>
+      <c r="BF34" s="89"/>
+      <c r="BG34" s="89"/>
+      <c r="BH34" s="89"/>
+      <c r="BI34" s="89"/>
+      <c r="BJ34" s="89"/>
+      <c r="BK34" s="89"/>
+      <c r="BL34" s="89"/>
+      <c r="BM34" s="89"/>
+      <c r="BN34" s="88"/>
+      <c r="BO34" s="88"/>
+      <c r="BP34" s="88"/>
+      <c r="BQ34" s="88"/>
+      <c r="BR34" s="88"/>
+      <c r="BS34" s="88"/>
+      <c r="BT34" s="88"/>
+      <c r="BU34" s="88"/>
+      <c r="BV34" s="89"/>
+      <c r="BW34" s="89"/>
+      <c r="BX34" s="89"/>
+      <c r="BY34" s="89"/>
+      <c r="BZ34" s="89"/>
+      <c r="CA34" s="89"/>
+      <c r="CB34" s="89"/>
+      <c r="CC34" s="89"/>
+      <c r="CD34" s="89"/>
+      <c r="CE34" s="89"/>
+      <c r="CF34" s="89"/>
+      <c r="CG34" s="89"/>
+      <c r="CH34" s="89"/>
+      <c r="CI34" s="89"/>
+      <c r="CJ34" s="89"/>
+      <c r="CK34" s="89"/>
+      <c r="CS34" s="94"/>
+      <c r="CT34" s="94"/>
+      <c r="CU34" s="94"/>
+      <c r="CV34" s="94"/>
+      <c r="CW34" s="94"/>
+      <c r="CX34" s="94"/>
+      <c r="CY34" s="94"/>
       <c r="CZ34" s="76"/>
     </row>
     <row r="35" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A35" s="63">
         <v>10</v>
       </c>
-      <c r="B35" s="90"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="90"/>
-      <c r="H35" s="90"/>
-      <c r="I35" s="90"/>
-      <c r="J35" s="90"/>
-      <c r="K35" s="90"/>
-      <c r="L35" s="90"/>
-      <c r="M35" s="90"/>
-      <c r="N35" s="90"/>
-      <c r="O35" s="90"/>
-      <c r="P35" s="90"/>
-      <c r="Q35" s="90"/>
-      <c r="R35" s="89"/>
-      <c r="S35" s="89"/>
-      <c r="T35" s="89"/>
-      <c r="U35" s="89"/>
-      <c r="V35" s="89"/>
-      <c r="W35" s="89"/>
-      <c r="X35" s="89"/>
-      <c r="Y35" s="89"/>
-      <c r="Z35" s="95"/>
-      <c r="AA35" s="95"/>
-      <c r="AB35" s="95"/>
-      <c r="AC35" s="95"/>
-      <c r="AD35" s="95"/>
-      <c r="AE35" s="95"/>
-      <c r="AF35" s="95"/>
-      <c r="AG35" s="95"/>
-      <c r="AH35" s="95"/>
-      <c r="AI35" s="95"/>
-      <c r="AJ35" s="95"/>
-      <c r="AK35" s="95"/>
-      <c r="AL35" s="95"/>
-      <c r="AM35" s="95"/>
-      <c r="AN35" s="95"/>
-      <c r="AO35" s="95"/>
-      <c r="AP35" s="102"/>
-      <c r="AQ35" s="102"/>
-      <c r="AR35" s="102"/>
-      <c r="AS35" s="102"/>
-      <c r="AT35" s="102"/>
-      <c r="AU35" s="102"/>
-      <c r="AV35" s="102"/>
-      <c r="AW35" s="102"/>
-      <c r="AX35" s="94"/>
-      <c r="AY35" s="94"/>
-      <c r="AZ35" s="94"/>
-      <c r="BA35" s="94"/>
-      <c r="BB35" s="94"/>
-      <c r="BC35" s="94"/>
-      <c r="BD35" s="94"/>
-      <c r="BE35" s="94"/>
-      <c r="BF35" s="94"/>
-      <c r="BG35" s="94"/>
-      <c r="BH35" s="94"/>
-      <c r="BI35" s="94"/>
-      <c r="BJ35" s="94"/>
-      <c r="BK35" s="94"/>
-      <c r="BL35" s="94"/>
-      <c r="BM35" s="94"/>
-      <c r="BN35" s="101"/>
-      <c r="BO35" s="101"/>
-      <c r="BP35" s="101"/>
-      <c r="BQ35" s="101"/>
-      <c r="BR35" s="101"/>
-      <c r="BS35" s="101"/>
-      <c r="BT35" s="101"/>
-      <c r="BU35" s="101"/>
-      <c r="BV35" s="94"/>
-      <c r="BW35" s="94"/>
-      <c r="BX35" s="94"/>
-      <c r="BY35" s="94"/>
-      <c r="BZ35" s="94"/>
-      <c r="CA35" s="94"/>
-      <c r="CB35" s="94"/>
-      <c r="CC35" s="94"/>
-      <c r="CD35" s="94"/>
-      <c r="CE35" s="94"/>
-      <c r="CF35" s="94"/>
-      <c r="CG35" s="94"/>
-      <c r="CH35" s="94"/>
-      <c r="CI35" s="94"/>
-      <c r="CJ35" s="94"/>
-      <c r="CK35" s="94"/>
-      <c r="CS35" s="89"/>
-      <c r="CT35" s="89"/>
-      <c r="CU35" s="89"/>
-      <c r="CV35" s="89"/>
-      <c r="CW35" s="89"/>
-      <c r="CX35" s="89"/>
-      <c r="CY35" s="89"/>
+      <c r="B35" s="95"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="95"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="95"/>
+      <c r="L35" s="95"/>
+      <c r="M35" s="95"/>
+      <c r="N35" s="95"/>
+      <c r="O35" s="95"/>
+      <c r="P35" s="95"/>
+      <c r="Q35" s="95"/>
+      <c r="R35" s="94"/>
+      <c r="S35" s="94"/>
+      <c r="T35" s="94"/>
+      <c r="U35" s="94"/>
+      <c r="V35" s="94"/>
+      <c r="W35" s="94"/>
+      <c r="X35" s="94"/>
+      <c r="Y35" s="94"/>
+      <c r="Z35" s="98"/>
+      <c r="AA35" s="98"/>
+      <c r="AB35" s="98"/>
+      <c r="AC35" s="98"/>
+      <c r="AD35" s="98"/>
+      <c r="AE35" s="98"/>
+      <c r="AF35" s="98"/>
+      <c r="AG35" s="98"/>
+      <c r="AH35" s="98"/>
+      <c r="AI35" s="98"/>
+      <c r="AJ35" s="98"/>
+      <c r="AK35" s="98"/>
+      <c r="AL35" s="98"/>
+      <c r="AM35" s="98"/>
+      <c r="AN35" s="98"/>
+      <c r="AO35" s="98"/>
+      <c r="AP35" s="99"/>
+      <c r="AQ35" s="99"/>
+      <c r="AR35" s="99"/>
+      <c r="AS35" s="99"/>
+      <c r="AT35" s="99"/>
+      <c r="AU35" s="99"/>
+      <c r="AV35" s="99"/>
+      <c r="AW35" s="99"/>
+      <c r="AX35" s="89"/>
+      <c r="AY35" s="89"/>
+      <c r="AZ35" s="89"/>
+      <c r="BA35" s="89"/>
+      <c r="BB35" s="89"/>
+      <c r="BC35" s="89"/>
+      <c r="BD35" s="89"/>
+      <c r="BE35" s="89"/>
+      <c r="BF35" s="89"/>
+      <c r="BG35" s="89"/>
+      <c r="BH35" s="89"/>
+      <c r="BI35" s="89"/>
+      <c r="BJ35" s="89"/>
+      <c r="BK35" s="89"/>
+      <c r="BL35" s="89"/>
+      <c r="BM35" s="89"/>
+      <c r="BN35" s="88"/>
+      <c r="BO35" s="88"/>
+      <c r="BP35" s="88"/>
+      <c r="BQ35" s="88"/>
+      <c r="BR35" s="88"/>
+      <c r="BS35" s="88"/>
+      <c r="BT35" s="88"/>
+      <c r="BU35" s="88"/>
+      <c r="BV35" s="89"/>
+      <c r="BW35" s="89"/>
+      <c r="BX35" s="89"/>
+      <c r="BY35" s="89"/>
+      <c r="BZ35" s="89"/>
+      <c r="CA35" s="89"/>
+      <c r="CB35" s="89"/>
+      <c r="CC35" s="89"/>
+      <c r="CD35" s="89"/>
+      <c r="CE35" s="89"/>
+      <c r="CF35" s="89"/>
+      <c r="CG35" s="89"/>
+      <c r="CH35" s="89"/>
+      <c r="CI35" s="89"/>
+      <c r="CJ35" s="89"/>
+      <c r="CK35" s="89"/>
+      <c r="CS35" s="94"/>
+      <c r="CT35" s="94"/>
+      <c r="CU35" s="94"/>
+      <c r="CV35" s="94"/>
+      <c r="CW35" s="94"/>
+      <c r="CX35" s="94"/>
+      <c r="CY35" s="94"/>
       <c r="CZ35" s="76"/>
     </row>
     <row r="36" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A36" s="63">
         <v>11</v>
       </c>
-      <c r="B36" s="90"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="90"/>
-      <c r="E36" s="90"/>
-      <c r="F36" s="90"/>
-      <c r="G36" s="90"/>
-      <c r="H36" s="90"/>
-      <c r="I36" s="90"/>
-      <c r="J36" s="90"/>
-      <c r="K36" s="90"/>
-      <c r="L36" s="90"/>
-      <c r="M36" s="90"/>
-      <c r="N36" s="90"/>
-      <c r="O36" s="90"/>
-      <c r="P36" s="90"/>
-      <c r="Q36" s="90"/>
-      <c r="R36" s="89"/>
-      <c r="S36" s="89"/>
-      <c r="T36" s="89"/>
-      <c r="U36" s="89"/>
-      <c r="V36" s="89"/>
-      <c r="W36" s="89"/>
-      <c r="X36" s="89"/>
-      <c r="Y36" s="89"/>
-      <c r="Z36" s="95"/>
-      <c r="AA36" s="95"/>
-      <c r="AB36" s="95"/>
-      <c r="AC36" s="95"/>
-      <c r="AD36" s="95"/>
-      <c r="AE36" s="95"/>
-      <c r="AF36" s="95"/>
-      <c r="AG36" s="95"/>
-      <c r="AH36" s="95"/>
-      <c r="AI36" s="95"/>
-      <c r="AJ36" s="95"/>
-      <c r="AK36" s="95"/>
-      <c r="AL36" s="95"/>
-      <c r="AM36" s="95"/>
-      <c r="AN36" s="95"/>
-      <c r="AO36" s="95"/>
-      <c r="AP36" s="102"/>
-      <c r="AQ36" s="102"/>
-      <c r="AR36" s="102"/>
-      <c r="AS36" s="102"/>
-      <c r="AT36" s="102"/>
-      <c r="AU36" s="102"/>
-      <c r="AV36" s="102"/>
-      <c r="AW36" s="102"/>
-      <c r="AX36" s="94"/>
-      <c r="AY36" s="94"/>
-      <c r="AZ36" s="94"/>
-      <c r="BA36" s="94"/>
-      <c r="BB36" s="94"/>
-      <c r="BC36" s="94"/>
-      <c r="BD36" s="94"/>
-      <c r="BE36" s="94"/>
-      <c r="BF36" s="94"/>
-      <c r="BG36" s="94"/>
-      <c r="BH36" s="94"/>
-      <c r="BI36" s="94"/>
-      <c r="BJ36" s="94"/>
-      <c r="BK36" s="94"/>
-      <c r="BL36" s="94"/>
-      <c r="BM36" s="94"/>
-      <c r="BN36" s="101"/>
-      <c r="BO36" s="101"/>
-      <c r="BP36" s="101"/>
-      <c r="BQ36" s="101"/>
-      <c r="BR36" s="101"/>
-      <c r="BS36" s="101"/>
-      <c r="BT36" s="101"/>
-      <c r="BU36" s="101"/>
-      <c r="BV36" s="94"/>
-      <c r="BW36" s="94"/>
-      <c r="BX36" s="94"/>
-      <c r="BY36" s="94"/>
-      <c r="BZ36" s="94"/>
-      <c r="CA36" s="94"/>
-      <c r="CB36" s="94"/>
-      <c r="CC36" s="94"/>
-      <c r="CD36" s="94"/>
-      <c r="CE36" s="94"/>
-      <c r="CF36" s="94"/>
-      <c r="CG36" s="94"/>
-      <c r="CH36" s="94"/>
-      <c r="CI36" s="94"/>
-      <c r="CJ36" s="94"/>
-      <c r="CK36" s="94"/>
-      <c r="CS36" s="89"/>
-      <c r="CT36" s="89"/>
-      <c r="CU36" s="89"/>
-      <c r="CV36" s="89"/>
-      <c r="CW36" s="89"/>
-      <c r="CX36" s="89"/>
-      <c r="CY36" s="89"/>
+      <c r="B36" s="95"/>
+      <c r="C36" s="95"/>
+      <c r="D36" s="95"/>
+      <c r="E36" s="95"/>
+      <c r="F36" s="95"/>
+      <c r="G36" s="95"/>
+      <c r="H36" s="95"/>
+      <c r="I36" s="95"/>
+      <c r="J36" s="95"/>
+      <c r="K36" s="95"/>
+      <c r="L36" s="95"/>
+      <c r="M36" s="95"/>
+      <c r="N36" s="95"/>
+      <c r="O36" s="95"/>
+      <c r="P36" s="95"/>
+      <c r="Q36" s="95"/>
+      <c r="R36" s="94"/>
+      <c r="S36" s="94"/>
+      <c r="T36" s="94"/>
+      <c r="U36" s="94"/>
+      <c r="V36" s="94"/>
+      <c r="W36" s="94"/>
+      <c r="X36" s="94"/>
+      <c r="Y36" s="94"/>
+      <c r="Z36" s="98"/>
+      <c r="AA36" s="98"/>
+      <c r="AB36" s="98"/>
+      <c r="AC36" s="98"/>
+      <c r="AD36" s="98"/>
+      <c r="AE36" s="98"/>
+      <c r="AF36" s="98"/>
+      <c r="AG36" s="98"/>
+      <c r="AH36" s="98"/>
+      <c r="AI36" s="98"/>
+      <c r="AJ36" s="98"/>
+      <c r="AK36" s="98"/>
+      <c r="AL36" s="98"/>
+      <c r="AM36" s="98"/>
+      <c r="AN36" s="98"/>
+      <c r="AO36" s="98"/>
+      <c r="AP36" s="99"/>
+      <c r="AQ36" s="99"/>
+      <c r="AR36" s="99"/>
+      <c r="AS36" s="99"/>
+      <c r="AT36" s="99"/>
+      <c r="AU36" s="99"/>
+      <c r="AV36" s="99"/>
+      <c r="AW36" s="99"/>
+      <c r="AX36" s="89"/>
+      <c r="AY36" s="89"/>
+      <c r="AZ36" s="89"/>
+      <c r="BA36" s="89"/>
+      <c r="BB36" s="89"/>
+      <c r="BC36" s="89"/>
+      <c r="BD36" s="89"/>
+      <c r="BE36" s="89"/>
+      <c r="BF36" s="89"/>
+      <c r="BG36" s="89"/>
+      <c r="BH36" s="89"/>
+      <c r="BI36" s="89"/>
+      <c r="BJ36" s="89"/>
+      <c r="BK36" s="89"/>
+      <c r="BL36" s="89"/>
+      <c r="BM36" s="89"/>
+      <c r="BN36" s="88"/>
+      <c r="BO36" s="88"/>
+      <c r="BP36" s="88"/>
+      <c r="BQ36" s="88"/>
+      <c r="BR36" s="88"/>
+      <c r="BS36" s="88"/>
+      <c r="BT36" s="88"/>
+      <c r="BU36" s="88"/>
+      <c r="BV36" s="89"/>
+      <c r="BW36" s="89"/>
+      <c r="BX36" s="89"/>
+      <c r="BY36" s="89"/>
+      <c r="BZ36" s="89"/>
+      <c r="CA36" s="89"/>
+      <c r="CB36" s="89"/>
+      <c r="CC36" s="89"/>
+      <c r="CD36" s="89"/>
+      <c r="CE36" s="89"/>
+      <c r="CF36" s="89"/>
+      <c r="CG36" s="89"/>
+      <c r="CH36" s="89"/>
+      <c r="CI36" s="89"/>
+      <c r="CJ36" s="89"/>
+      <c r="CK36" s="89"/>
+      <c r="CS36" s="94"/>
+      <c r="CT36" s="94"/>
+      <c r="CU36" s="94"/>
+      <c r="CV36" s="94"/>
+      <c r="CW36" s="94"/>
+      <c r="CX36" s="94"/>
+      <c r="CY36" s="94"/>
       <c r="CZ36" s="76"/>
     </row>
     <row r="37" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A37" s="63">
         <v>12</v>
       </c>
-      <c r="B37" s="90"/>
-      <c r="C37" s="90"/>
-      <c r="D37" s="90"/>
-      <c r="E37" s="90"/>
-      <c r="F37" s="90"/>
-      <c r="G37" s="90"/>
-      <c r="H37" s="90"/>
-      <c r="I37" s="90"/>
-      <c r="J37" s="90"/>
-      <c r="K37" s="90"/>
-      <c r="L37" s="90"/>
-      <c r="M37" s="90"/>
-      <c r="N37" s="90"/>
-      <c r="O37" s="90"/>
-      <c r="P37" s="90"/>
-      <c r="Q37" s="90"/>
-      <c r="R37" s="89"/>
-      <c r="S37" s="89"/>
-      <c r="T37" s="89"/>
-      <c r="U37" s="89"/>
-      <c r="V37" s="89"/>
-      <c r="W37" s="89"/>
-      <c r="X37" s="89"/>
-      <c r="Y37" s="89"/>
-      <c r="Z37" s="95"/>
-      <c r="AA37" s="95"/>
-      <c r="AB37" s="95"/>
-      <c r="AC37" s="95"/>
-      <c r="AD37" s="95"/>
-      <c r="AE37" s="95"/>
-      <c r="AF37" s="95"/>
-      <c r="AG37" s="95"/>
-      <c r="AH37" s="95"/>
-      <c r="AI37" s="95"/>
-      <c r="AJ37" s="95"/>
-      <c r="AK37" s="95"/>
-      <c r="AL37" s="95"/>
-      <c r="AM37" s="95"/>
-      <c r="AN37" s="95"/>
-      <c r="AO37" s="95"/>
-      <c r="AP37" s="102"/>
-      <c r="AQ37" s="102"/>
-      <c r="AR37" s="102"/>
-      <c r="AS37" s="102"/>
-      <c r="AT37" s="102"/>
-      <c r="AU37" s="102"/>
-      <c r="AV37" s="102"/>
-      <c r="AW37" s="102"/>
-      <c r="AX37" s="94"/>
-      <c r="AY37" s="94"/>
-      <c r="AZ37" s="94"/>
-      <c r="BA37" s="94"/>
-      <c r="BB37" s="94"/>
-      <c r="BC37" s="94"/>
-      <c r="BD37" s="94"/>
-      <c r="BE37" s="94"/>
-      <c r="BF37" s="94"/>
-      <c r="BG37" s="94"/>
-      <c r="BH37" s="94"/>
-      <c r="BI37" s="94"/>
-      <c r="BJ37" s="94"/>
-      <c r="BK37" s="94"/>
-      <c r="BL37" s="94"/>
-      <c r="BM37" s="94"/>
-      <c r="BN37" s="101"/>
-      <c r="BO37" s="101"/>
-      <c r="BP37" s="101"/>
-      <c r="BQ37" s="101"/>
-      <c r="BR37" s="101"/>
-      <c r="BS37" s="101"/>
-      <c r="BT37" s="101"/>
-      <c r="BU37" s="101"/>
-      <c r="BV37" s="94"/>
-      <c r="BW37" s="94"/>
-      <c r="BX37" s="94"/>
-      <c r="BY37" s="94"/>
-      <c r="BZ37" s="94"/>
-      <c r="CA37" s="94"/>
-      <c r="CB37" s="94"/>
-      <c r="CC37" s="94"/>
-      <c r="CD37" s="94"/>
-      <c r="CE37" s="94"/>
-      <c r="CF37" s="94"/>
-      <c r="CG37" s="94"/>
-      <c r="CH37" s="94"/>
-      <c r="CI37" s="94"/>
-      <c r="CJ37" s="94"/>
-      <c r="CK37" s="94"/>
-      <c r="CS37" s="89"/>
-      <c r="CT37" s="89"/>
-      <c r="CU37" s="89"/>
-      <c r="CV37" s="89"/>
-      <c r="CW37" s="89"/>
-      <c r="CX37" s="89"/>
-      <c r="CY37" s="89"/>
+      <c r="B37" s="95"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="95"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="95"/>
+      <c r="J37" s="95"/>
+      <c r="K37" s="95"/>
+      <c r="L37" s="95"/>
+      <c r="M37" s="95"/>
+      <c r="N37" s="95"/>
+      <c r="O37" s="95"/>
+      <c r="P37" s="95"/>
+      <c r="Q37" s="95"/>
+      <c r="R37" s="94"/>
+      <c r="S37" s="94"/>
+      <c r="T37" s="94"/>
+      <c r="U37" s="94"/>
+      <c r="V37" s="94"/>
+      <c r="W37" s="94"/>
+      <c r="X37" s="94"/>
+      <c r="Y37" s="94"/>
+      <c r="Z37" s="98"/>
+      <c r="AA37" s="98"/>
+      <c r="AB37" s="98"/>
+      <c r="AC37" s="98"/>
+      <c r="AD37" s="98"/>
+      <c r="AE37" s="98"/>
+      <c r="AF37" s="98"/>
+      <c r="AG37" s="98"/>
+      <c r="AH37" s="98"/>
+      <c r="AI37" s="98"/>
+      <c r="AJ37" s="98"/>
+      <c r="AK37" s="98"/>
+      <c r="AL37" s="98"/>
+      <c r="AM37" s="98"/>
+      <c r="AN37" s="98"/>
+      <c r="AO37" s="98"/>
+      <c r="AP37" s="99"/>
+      <c r="AQ37" s="99"/>
+      <c r="AR37" s="99"/>
+      <c r="AS37" s="99"/>
+      <c r="AT37" s="99"/>
+      <c r="AU37" s="99"/>
+      <c r="AV37" s="99"/>
+      <c r="AW37" s="99"/>
+      <c r="AX37" s="89"/>
+      <c r="AY37" s="89"/>
+      <c r="AZ37" s="89"/>
+      <c r="BA37" s="89"/>
+      <c r="BB37" s="89"/>
+      <c r="BC37" s="89"/>
+      <c r="BD37" s="89"/>
+      <c r="BE37" s="89"/>
+      <c r="BF37" s="89"/>
+      <c r="BG37" s="89"/>
+      <c r="BH37" s="89"/>
+      <c r="BI37" s="89"/>
+      <c r="BJ37" s="89"/>
+      <c r="BK37" s="89"/>
+      <c r="BL37" s="89"/>
+      <c r="BM37" s="89"/>
+      <c r="BN37" s="88"/>
+      <c r="BO37" s="88"/>
+      <c r="BP37" s="88"/>
+      <c r="BQ37" s="88"/>
+      <c r="BR37" s="88"/>
+      <c r="BS37" s="88"/>
+      <c r="BT37" s="88"/>
+      <c r="BU37" s="88"/>
+      <c r="BV37" s="89"/>
+      <c r="BW37" s="89"/>
+      <c r="BX37" s="89"/>
+      <c r="BY37" s="89"/>
+      <c r="BZ37" s="89"/>
+      <c r="CA37" s="89"/>
+      <c r="CB37" s="89"/>
+      <c r="CC37" s="89"/>
+      <c r="CD37" s="89"/>
+      <c r="CE37" s="89"/>
+      <c r="CF37" s="89"/>
+      <c r="CG37" s="89"/>
+      <c r="CH37" s="89"/>
+      <c r="CI37" s="89"/>
+      <c r="CJ37" s="89"/>
+      <c r="CK37" s="89"/>
+      <c r="CS37" s="94"/>
+      <c r="CT37" s="94"/>
+      <c r="CU37" s="94"/>
+      <c r="CV37" s="94"/>
+      <c r="CW37" s="94"/>
+      <c r="CX37" s="94"/>
+      <c r="CY37" s="94"/>
       <c r="CZ37" s="76"/>
     </row>
     <row r="38" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A38" s="63">
         <v>13</v>
       </c>
-      <c r="B38" s="90"/>
-      <c r="C38" s="90"/>
-      <c r="D38" s="90"/>
-      <c r="E38" s="90"/>
-      <c r="F38" s="90"/>
-      <c r="G38" s="90"/>
-      <c r="H38" s="90"/>
-      <c r="I38" s="90"/>
-      <c r="J38" s="90"/>
-      <c r="K38" s="90"/>
-      <c r="L38" s="90"/>
-      <c r="M38" s="90"/>
-      <c r="N38" s="90"/>
-      <c r="O38" s="90"/>
-      <c r="P38" s="90"/>
-      <c r="Q38" s="90"/>
-      <c r="R38" s="100"/>
-      <c r="S38" s="100"/>
-      <c r="T38" s="100"/>
-      <c r="U38" s="100"/>
-      <c r="V38" s="100"/>
-      <c r="W38" s="100"/>
-      <c r="X38" s="100"/>
-      <c r="Y38" s="100"/>
-      <c r="Z38" s="95"/>
-      <c r="AA38" s="95"/>
-      <c r="AB38" s="95"/>
-      <c r="AC38" s="95"/>
-      <c r="AD38" s="95"/>
-      <c r="AE38" s="95"/>
-      <c r="AF38" s="95"/>
-      <c r="AG38" s="95"/>
-      <c r="AH38" s="95"/>
-      <c r="AI38" s="95"/>
-      <c r="AJ38" s="95"/>
-      <c r="AK38" s="95"/>
-      <c r="AL38" s="95"/>
-      <c r="AM38" s="95"/>
-      <c r="AN38" s="95"/>
-      <c r="AO38" s="95"/>
-      <c r="AP38" s="102"/>
-      <c r="AQ38" s="102"/>
-      <c r="AR38" s="102"/>
-      <c r="AS38" s="102"/>
-      <c r="AT38" s="102"/>
-      <c r="AU38" s="102"/>
-      <c r="AV38" s="102"/>
-      <c r="AW38" s="102"/>
-      <c r="AX38" s="94"/>
-      <c r="AY38" s="94"/>
-      <c r="AZ38" s="94"/>
-      <c r="BA38" s="94"/>
-      <c r="BB38" s="94"/>
-      <c r="BC38" s="94"/>
-      <c r="BD38" s="94"/>
-      <c r="BE38" s="94"/>
-      <c r="BF38" s="94"/>
-      <c r="BG38" s="94"/>
-      <c r="BH38" s="94"/>
-      <c r="BI38" s="94"/>
-      <c r="BJ38" s="94"/>
-      <c r="BK38" s="94"/>
-      <c r="BL38" s="94"/>
-      <c r="BM38" s="94"/>
-      <c r="BN38" s="101"/>
-      <c r="BO38" s="101"/>
-      <c r="BP38" s="101"/>
-      <c r="BQ38" s="101"/>
-      <c r="BR38" s="101"/>
-      <c r="BS38" s="101"/>
-      <c r="BT38" s="101"/>
-      <c r="BU38" s="101"/>
-      <c r="CD38" s="94"/>
-      <c r="CE38" s="94"/>
-      <c r="CF38" s="94"/>
-      <c r="CG38" s="94"/>
-      <c r="CH38" s="94"/>
-      <c r="CI38" s="94"/>
-      <c r="CJ38" s="94"/>
-      <c r="CK38" s="94"/>
-      <c r="CS38" s="89"/>
-      <c r="CT38" s="89"/>
-      <c r="CU38" s="89"/>
-      <c r="CV38" s="89"/>
-      <c r="CW38" s="89"/>
-      <c r="CX38" s="89"/>
-      <c r="CY38" s="89"/>
+      <c r="B38" s="95"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="95"/>
+      <c r="E38" s="95"/>
+      <c r="F38" s="95"/>
+      <c r="G38" s="95"/>
+      <c r="H38" s="95"/>
+      <c r="I38" s="95"/>
+      <c r="J38" s="95"/>
+      <c r="K38" s="95"/>
+      <c r="L38" s="95"/>
+      <c r="M38" s="95"/>
+      <c r="N38" s="95"/>
+      <c r="O38" s="95"/>
+      <c r="P38" s="95"/>
+      <c r="Q38" s="95"/>
+      <c r="R38" s="93"/>
+      <c r="S38" s="93"/>
+      <c r="T38" s="93"/>
+      <c r="U38" s="93"/>
+      <c r="V38" s="93"/>
+      <c r="W38" s="93"/>
+      <c r="X38" s="93"/>
+      <c r="Y38" s="93"/>
+      <c r="Z38" s="98"/>
+      <c r="AA38" s="98"/>
+      <c r="AB38" s="98"/>
+      <c r="AC38" s="98"/>
+      <c r="AD38" s="98"/>
+      <c r="AE38" s="98"/>
+      <c r="AF38" s="98"/>
+      <c r="AG38" s="98"/>
+      <c r="AH38" s="98"/>
+      <c r="AI38" s="98"/>
+      <c r="AJ38" s="98"/>
+      <c r="AK38" s="98"/>
+      <c r="AL38" s="98"/>
+      <c r="AM38" s="98"/>
+      <c r="AN38" s="98"/>
+      <c r="AO38" s="98"/>
+      <c r="AP38" s="99"/>
+      <c r="AQ38" s="99"/>
+      <c r="AR38" s="99"/>
+      <c r="AS38" s="99"/>
+      <c r="AT38" s="99"/>
+      <c r="AU38" s="99"/>
+      <c r="AV38" s="99"/>
+      <c r="AW38" s="99"/>
+      <c r="AX38" s="89"/>
+      <c r="AY38" s="89"/>
+      <c r="AZ38" s="89"/>
+      <c r="BA38" s="89"/>
+      <c r="BB38" s="89"/>
+      <c r="BC38" s="89"/>
+      <c r="BD38" s="89"/>
+      <c r="BE38" s="89"/>
+      <c r="BF38" s="89"/>
+      <c r="BG38" s="89"/>
+      <c r="BH38" s="89"/>
+      <c r="BI38" s="89"/>
+      <c r="BJ38" s="89"/>
+      <c r="BK38" s="89"/>
+      <c r="BL38" s="89"/>
+      <c r="BM38" s="89"/>
+      <c r="BN38" s="88"/>
+      <c r="BO38" s="88"/>
+      <c r="BP38" s="88"/>
+      <c r="BQ38" s="88"/>
+      <c r="BR38" s="88"/>
+      <c r="BS38" s="88"/>
+      <c r="BT38" s="88"/>
+      <c r="BU38" s="88"/>
+      <c r="CD38" s="89"/>
+      <c r="CE38" s="89"/>
+      <c r="CF38" s="89"/>
+      <c r="CG38" s="89"/>
+      <c r="CH38" s="89"/>
+      <c r="CI38" s="89"/>
+      <c r="CJ38" s="89"/>
+      <c r="CK38" s="89"/>
+      <c r="CS38" s="94"/>
+      <c r="CT38" s="94"/>
+      <c r="CU38" s="94"/>
+      <c r="CV38" s="94"/>
+      <c r="CW38" s="94"/>
+      <c r="CX38" s="94"/>
+      <c r="CY38" s="94"/>
       <c r="CZ38" s="76"/>
     </row>
     <row r="39" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A39" s="63">
         <v>14</v>
       </c>
-      <c r="B39" s="90"/>
-      <c r="C39" s="90"/>
-      <c r="D39" s="90"/>
-      <c r="E39" s="90"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="90"/>
-      <c r="H39" s="90"/>
-      <c r="I39" s="90"/>
-      <c r="J39" s="90"/>
-      <c r="K39" s="90"/>
-      <c r="L39" s="90"/>
-      <c r="M39" s="90"/>
-      <c r="N39" s="90"/>
-      <c r="O39" s="90"/>
-      <c r="P39" s="90"/>
-      <c r="Q39" s="90"/>
-      <c r="R39" s="100"/>
-      <c r="S39" s="100"/>
-      <c r="T39" s="100"/>
-      <c r="U39" s="100"/>
-      <c r="V39" s="100"/>
-      <c r="W39" s="100"/>
-      <c r="X39" s="100"/>
-      <c r="Y39" s="100"/>
-      <c r="Z39" s="95"/>
-      <c r="AA39" s="95"/>
-      <c r="AB39" s="95"/>
-      <c r="AC39" s="95"/>
-      <c r="AD39" s="95"/>
-      <c r="AE39" s="95"/>
-      <c r="AF39" s="95"/>
-      <c r="AG39" s="95"/>
-      <c r="AH39" s="95"/>
-      <c r="AI39" s="95"/>
-      <c r="AJ39" s="95"/>
-      <c r="AK39" s="95"/>
-      <c r="AL39" s="95"/>
-      <c r="AM39" s="95"/>
-      <c r="AN39" s="95"/>
-      <c r="AO39" s="95"/>
-      <c r="AP39" s="102"/>
-      <c r="AQ39" s="102"/>
-      <c r="AR39" s="102"/>
-      <c r="AS39" s="102"/>
-      <c r="AT39" s="102"/>
-      <c r="AU39" s="102"/>
-      <c r="AV39" s="102"/>
-      <c r="AW39" s="102"/>
-      <c r="AX39" s="94"/>
-      <c r="AY39" s="94"/>
-      <c r="AZ39" s="94"/>
-      <c r="BA39" s="94"/>
-      <c r="BB39" s="94"/>
-      <c r="BC39" s="94"/>
-      <c r="BD39" s="94"/>
-      <c r="BE39" s="94"/>
-      <c r="BF39" s="94"/>
-      <c r="BG39" s="94"/>
-      <c r="BH39" s="94"/>
-      <c r="BI39" s="94"/>
-      <c r="BJ39" s="94"/>
-      <c r="BK39" s="94"/>
-      <c r="BL39" s="94"/>
-      <c r="BM39" s="94"/>
-      <c r="BN39" s="94"/>
-      <c r="BO39" s="94"/>
-      <c r="BP39" s="94"/>
-      <c r="BQ39" s="94"/>
-      <c r="BR39" s="94"/>
-      <c r="BS39" s="94"/>
-      <c r="BT39" s="94"/>
-      <c r="BU39" s="94"/>
-      <c r="BV39" s="94"/>
-      <c r="BW39" s="94"/>
-      <c r="BX39" s="94"/>
-      <c r="BY39" s="94"/>
-      <c r="BZ39" s="94"/>
-      <c r="CA39" s="94"/>
-      <c r="CB39" s="94"/>
-      <c r="CC39" s="94"/>
-      <c r="CD39" s="94"/>
-      <c r="CE39" s="94"/>
-      <c r="CF39" s="94"/>
-      <c r="CG39" s="94"/>
-      <c r="CH39" s="94"/>
-      <c r="CI39" s="94"/>
-      <c r="CJ39" s="94"/>
-      <c r="CK39" s="94"/>
-      <c r="CS39" s="89"/>
-      <c r="CT39" s="89"/>
-      <c r="CU39" s="89"/>
-      <c r="CV39" s="89"/>
-      <c r="CW39" s="89"/>
-      <c r="CX39" s="89"/>
-      <c r="CY39" s="89"/>
+      <c r="B39" s="95"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="95"/>
+      <c r="G39" s="95"/>
+      <c r="H39" s="95"/>
+      <c r="I39" s="95"/>
+      <c r="J39" s="95"/>
+      <c r="K39" s="95"/>
+      <c r="L39" s="95"/>
+      <c r="M39" s="95"/>
+      <c r="N39" s="95"/>
+      <c r="O39" s="95"/>
+      <c r="P39" s="95"/>
+      <c r="Q39" s="95"/>
+      <c r="R39" s="93"/>
+      <c r="S39" s="93"/>
+      <c r="T39" s="93"/>
+      <c r="U39" s="93"/>
+      <c r="V39" s="93"/>
+      <c r="W39" s="93"/>
+      <c r="X39" s="93"/>
+      <c r="Y39" s="93"/>
+      <c r="Z39" s="98"/>
+      <c r="AA39" s="98"/>
+      <c r="AB39" s="98"/>
+      <c r="AC39" s="98"/>
+      <c r="AD39" s="98"/>
+      <c r="AE39" s="98"/>
+      <c r="AF39" s="98"/>
+      <c r="AG39" s="98"/>
+      <c r="AH39" s="98"/>
+      <c r="AI39" s="98"/>
+      <c r="AJ39" s="98"/>
+      <c r="AK39" s="98"/>
+      <c r="AL39" s="98"/>
+      <c r="AM39" s="98"/>
+      <c r="AN39" s="98"/>
+      <c r="AO39" s="98"/>
+      <c r="AP39" s="99"/>
+      <c r="AQ39" s="99"/>
+      <c r="AR39" s="99"/>
+      <c r="AS39" s="99"/>
+      <c r="AT39" s="99"/>
+      <c r="AU39" s="99"/>
+      <c r="AV39" s="99"/>
+      <c r="AW39" s="99"/>
+      <c r="AX39" s="89"/>
+      <c r="AY39" s="89"/>
+      <c r="AZ39" s="89"/>
+      <c r="BA39" s="89"/>
+      <c r="BB39" s="89"/>
+      <c r="BC39" s="89"/>
+      <c r="BD39" s="89"/>
+      <c r="BE39" s="89"/>
+      <c r="BF39" s="89"/>
+      <c r="BG39" s="89"/>
+      <c r="BH39" s="89"/>
+      <c r="BI39" s="89"/>
+      <c r="BJ39" s="89"/>
+      <c r="BK39" s="89"/>
+      <c r="BL39" s="89"/>
+      <c r="BM39" s="89"/>
+      <c r="BN39" s="89"/>
+      <c r="BO39" s="89"/>
+      <c r="BP39" s="89"/>
+      <c r="BQ39" s="89"/>
+      <c r="BR39" s="89"/>
+      <c r="BS39" s="89"/>
+      <c r="BT39" s="89"/>
+      <c r="BU39" s="89"/>
+      <c r="BV39" s="89"/>
+      <c r="BW39" s="89"/>
+      <c r="BX39" s="89"/>
+      <c r="BY39" s="89"/>
+      <c r="BZ39" s="89"/>
+      <c r="CA39" s="89"/>
+      <c r="CB39" s="89"/>
+      <c r="CC39" s="89"/>
+      <c r="CD39" s="89"/>
+      <c r="CE39" s="89"/>
+      <c r="CF39" s="89"/>
+      <c r="CG39" s="89"/>
+      <c r="CH39" s="89"/>
+      <c r="CI39" s="89"/>
+      <c r="CJ39" s="89"/>
+      <c r="CK39" s="89"/>
+      <c r="CS39" s="94"/>
+      <c r="CT39" s="94"/>
+      <c r="CU39" s="94"/>
+      <c r="CV39" s="94"/>
+      <c r="CW39" s="94"/>
+      <c r="CX39" s="94"/>
+      <c r="CY39" s="94"/>
       <c r="CZ39" s="76"/>
     </row>
     <row r="40" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A40" s="63">
         <v>15</v>
       </c>
-      <c r="B40" s="90"/>
-      <c r="C40" s="90"/>
-      <c r="D40" s="90"/>
-      <c r="E40" s="90"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="90"/>
-      <c r="I40" s="90"/>
-      <c r="J40" s="90"/>
-      <c r="K40" s="90"/>
-      <c r="L40" s="90"/>
-      <c r="M40" s="90"/>
-      <c r="N40" s="90"/>
-      <c r="O40" s="90"/>
-      <c r="P40" s="90"/>
-      <c r="Q40" s="90"/>
-      <c r="R40" s="100"/>
-      <c r="S40" s="100"/>
-      <c r="T40" s="100"/>
-      <c r="U40" s="100"/>
-      <c r="V40" s="100"/>
-      <c r="W40" s="100"/>
-      <c r="X40" s="100"/>
-      <c r="Y40" s="100"/>
-      <c r="Z40" s="95"/>
-      <c r="AA40" s="95"/>
-      <c r="AB40" s="95"/>
-      <c r="AC40" s="95"/>
-      <c r="AD40" s="95"/>
-      <c r="AE40" s="95"/>
-      <c r="AF40" s="95"/>
-      <c r="AG40" s="95"/>
-      <c r="AH40" s="95"/>
-      <c r="AI40" s="95"/>
-      <c r="AJ40" s="95"/>
-      <c r="AK40" s="95"/>
-      <c r="AL40" s="95"/>
-      <c r="AM40" s="95"/>
-      <c r="AN40" s="95"/>
-      <c r="AO40" s="95"/>
-      <c r="AP40" s="102"/>
-      <c r="AQ40" s="102"/>
-      <c r="AR40" s="102"/>
-      <c r="AS40" s="102"/>
-      <c r="AT40" s="102"/>
-      <c r="AU40" s="102"/>
-      <c r="AV40" s="102"/>
-      <c r="AW40" s="102"/>
-      <c r="AX40" s="94"/>
-      <c r="AY40" s="94"/>
-      <c r="AZ40" s="94"/>
-      <c r="BA40" s="94"/>
-      <c r="BB40" s="94"/>
-      <c r="BC40" s="94"/>
-      <c r="BD40" s="94"/>
-      <c r="BE40" s="94"/>
-      <c r="BF40" s="94"/>
-      <c r="BG40" s="94"/>
-      <c r="BH40" s="94"/>
-      <c r="BI40" s="94"/>
-      <c r="BJ40" s="94"/>
-      <c r="BK40" s="94"/>
-      <c r="BL40" s="94"/>
-      <c r="BM40" s="94"/>
-      <c r="BN40" s="94"/>
-      <c r="BO40" s="94"/>
-      <c r="BP40" s="94"/>
-      <c r="BQ40" s="94"/>
-      <c r="BR40" s="94"/>
-      <c r="BS40" s="94"/>
-      <c r="BT40" s="94"/>
-      <c r="BU40" s="94"/>
-      <c r="BV40" s="94"/>
-      <c r="BW40" s="94"/>
-      <c r="BX40" s="94"/>
-      <c r="BY40" s="94"/>
-      <c r="BZ40" s="94"/>
-      <c r="CA40" s="94"/>
-      <c r="CB40" s="94"/>
-      <c r="CC40" s="94"/>
-      <c r="CD40" s="94"/>
-      <c r="CE40" s="94"/>
-      <c r="CF40" s="94"/>
-      <c r="CG40" s="94"/>
-      <c r="CH40" s="94"/>
-      <c r="CI40" s="94"/>
-      <c r="CJ40" s="94"/>
-      <c r="CK40" s="94"/>
-      <c r="CS40" s="89"/>
-      <c r="CT40" s="89"/>
-      <c r="CU40" s="89"/>
-      <c r="CV40" s="89"/>
-      <c r="CW40" s="89"/>
-      <c r="CX40" s="89"/>
-      <c r="CY40" s="89"/>
+      <c r="B40" s="95"/>
+      <c r="C40" s="95"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="95"/>
+      <c r="F40" s="95"/>
+      <c r="G40" s="95"/>
+      <c r="H40" s="95"/>
+      <c r="I40" s="95"/>
+      <c r="J40" s="95"/>
+      <c r="K40" s="95"/>
+      <c r="L40" s="95"/>
+      <c r="M40" s="95"/>
+      <c r="N40" s="95"/>
+      <c r="O40" s="95"/>
+      <c r="P40" s="95"/>
+      <c r="Q40" s="95"/>
+      <c r="R40" s="93"/>
+      <c r="S40" s="93"/>
+      <c r="T40" s="93"/>
+      <c r="U40" s="93"/>
+      <c r="V40" s="93"/>
+      <c r="W40" s="93"/>
+      <c r="X40" s="93"/>
+      <c r="Y40" s="93"/>
+      <c r="Z40" s="98"/>
+      <c r="AA40" s="98"/>
+      <c r="AB40" s="98"/>
+      <c r="AC40" s="98"/>
+      <c r="AD40" s="98"/>
+      <c r="AE40" s="98"/>
+      <c r="AF40" s="98"/>
+      <c r="AG40" s="98"/>
+      <c r="AH40" s="98"/>
+      <c r="AI40" s="98"/>
+      <c r="AJ40" s="98"/>
+      <c r="AK40" s="98"/>
+      <c r="AL40" s="98"/>
+      <c r="AM40" s="98"/>
+      <c r="AN40" s="98"/>
+      <c r="AO40" s="98"/>
+      <c r="AP40" s="99"/>
+      <c r="AQ40" s="99"/>
+      <c r="AR40" s="99"/>
+      <c r="AS40" s="99"/>
+      <c r="AT40" s="99"/>
+      <c r="AU40" s="99"/>
+      <c r="AV40" s="99"/>
+      <c r="AW40" s="99"/>
+      <c r="AX40" s="89"/>
+      <c r="AY40" s="89"/>
+      <c r="AZ40" s="89"/>
+      <c r="BA40" s="89"/>
+      <c r="BB40" s="89"/>
+      <c r="BC40" s="89"/>
+      <c r="BD40" s="89"/>
+      <c r="BE40" s="89"/>
+      <c r="BF40" s="89"/>
+      <c r="BG40" s="89"/>
+      <c r="BH40" s="89"/>
+      <c r="BI40" s="89"/>
+      <c r="BJ40" s="89"/>
+      <c r="BK40" s="89"/>
+      <c r="BL40" s="89"/>
+      <c r="BM40" s="89"/>
+      <c r="BN40" s="89"/>
+      <c r="BO40" s="89"/>
+      <c r="BP40" s="89"/>
+      <c r="BQ40" s="89"/>
+      <c r="BR40" s="89"/>
+      <c r="BS40" s="89"/>
+      <c r="BT40" s="89"/>
+      <c r="BU40" s="89"/>
+      <c r="BV40" s="89"/>
+      <c r="BW40" s="89"/>
+      <c r="BX40" s="89"/>
+      <c r="BY40" s="89"/>
+      <c r="BZ40" s="89"/>
+      <c r="CA40" s="89"/>
+      <c r="CB40" s="89"/>
+      <c r="CC40" s="89"/>
+      <c r="CD40" s="89"/>
+      <c r="CE40" s="89"/>
+      <c r="CF40" s="89"/>
+      <c r="CG40" s="89"/>
+      <c r="CH40" s="89"/>
+      <c r="CI40" s="89"/>
+      <c r="CJ40" s="89"/>
+      <c r="CK40" s="89"/>
+      <c r="CS40" s="94"/>
+      <c r="CT40" s="94"/>
+      <c r="CU40" s="94"/>
+      <c r="CV40" s="94"/>
+      <c r="CW40" s="94"/>
+      <c r="CX40" s="94"/>
+      <c r="CY40" s="94"/>
       <c r="CZ40" s="76"/>
     </row>
     <row r="41" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A41" s="63">
         <v>16</v>
       </c>
-      <c r="B41" s="90"/>
-      <c r="C41" s="90"/>
-      <c r="D41" s="90"/>
-      <c r="E41" s="90"/>
-      <c r="F41" s="90"/>
-      <c r="G41" s="90"/>
-      <c r="H41" s="90"/>
-      <c r="I41" s="90"/>
-      <c r="J41" s="90"/>
-      <c r="K41" s="90"/>
-      <c r="L41" s="90"/>
-      <c r="M41" s="90"/>
-      <c r="N41" s="90"/>
-      <c r="O41" s="90"/>
-      <c r="P41" s="90"/>
-      <c r="Q41" s="90"/>
-      <c r="R41" s="100"/>
-      <c r="S41" s="100"/>
-      <c r="T41" s="100"/>
-      <c r="U41" s="100"/>
-      <c r="V41" s="100"/>
-      <c r="W41" s="100"/>
-      <c r="X41" s="100"/>
-      <c r="Y41" s="100"/>
-      <c r="Z41" s="95"/>
-      <c r="AA41" s="95"/>
-      <c r="AB41" s="95"/>
-      <c r="AC41" s="95"/>
-      <c r="AD41" s="95"/>
-      <c r="AE41" s="95"/>
-      <c r="AF41" s="95"/>
-      <c r="AG41" s="95"/>
-      <c r="AH41" s="95"/>
-      <c r="AI41" s="95"/>
-      <c r="AJ41" s="95"/>
-      <c r="AK41" s="95"/>
-      <c r="AL41" s="95"/>
-      <c r="AM41" s="95"/>
-      <c r="AN41" s="95"/>
-      <c r="AO41" s="95"/>
-      <c r="AP41" s="102"/>
-      <c r="AQ41" s="102"/>
-      <c r="AR41" s="102"/>
-      <c r="AS41" s="102"/>
-      <c r="AT41" s="102"/>
-      <c r="AU41" s="102"/>
-      <c r="AV41" s="102"/>
-      <c r="AW41" s="102"/>
-      <c r="AX41" s="94"/>
-      <c r="AY41" s="94"/>
-      <c r="AZ41" s="94"/>
-      <c r="BA41" s="94"/>
-      <c r="BB41" s="94"/>
-      <c r="BC41" s="94"/>
-      <c r="BD41" s="94"/>
-      <c r="BE41" s="94"/>
-      <c r="BF41" s="94"/>
-      <c r="BG41" s="94"/>
-      <c r="BH41" s="94"/>
-      <c r="BI41" s="94"/>
-      <c r="BJ41" s="94"/>
-      <c r="BK41" s="94"/>
-      <c r="BL41" s="94"/>
-      <c r="BM41" s="94"/>
-      <c r="BN41" s="94"/>
-      <c r="BO41" s="94"/>
-      <c r="BP41" s="94"/>
-      <c r="BQ41" s="94"/>
-      <c r="BR41" s="94"/>
-      <c r="BS41" s="94"/>
-      <c r="BT41" s="94"/>
-      <c r="BU41" s="94"/>
-      <c r="CD41" s="94"/>
-      <c r="CE41" s="94"/>
-      <c r="CF41" s="94"/>
-      <c r="CG41" s="94"/>
-      <c r="CH41" s="94"/>
-      <c r="CI41" s="94"/>
-      <c r="CJ41" s="94"/>
-      <c r="CK41" s="94"/>
-      <c r="CS41" s="89"/>
-      <c r="CT41" s="89"/>
-      <c r="CU41" s="89"/>
-      <c r="CV41" s="89"/>
-      <c r="CW41" s="89"/>
-      <c r="CX41" s="89"/>
-      <c r="CY41" s="89"/>
+      <c r="B41" s="95"/>
+      <c r="C41" s="95"/>
+      <c r="D41" s="95"/>
+      <c r="E41" s="95"/>
+      <c r="F41" s="95"/>
+      <c r="G41" s="95"/>
+      <c r="H41" s="95"/>
+      <c r="I41" s="95"/>
+      <c r="J41" s="95"/>
+      <c r="K41" s="95"/>
+      <c r="L41" s="95"/>
+      <c r="M41" s="95"/>
+      <c r="N41" s="95"/>
+      <c r="O41" s="95"/>
+      <c r="P41" s="95"/>
+      <c r="Q41" s="95"/>
+      <c r="R41" s="93"/>
+      <c r="S41" s="93"/>
+      <c r="T41" s="93"/>
+      <c r="U41" s="93"/>
+      <c r="V41" s="93"/>
+      <c r="W41" s="93"/>
+      <c r="X41" s="93"/>
+      <c r="Y41" s="93"/>
+      <c r="Z41" s="98"/>
+      <c r="AA41" s="98"/>
+      <c r="AB41" s="98"/>
+      <c r="AC41" s="98"/>
+      <c r="AD41" s="98"/>
+      <c r="AE41" s="98"/>
+      <c r="AF41" s="98"/>
+      <c r="AG41" s="98"/>
+      <c r="AH41" s="98"/>
+      <c r="AI41" s="98"/>
+      <c r="AJ41" s="98"/>
+      <c r="AK41" s="98"/>
+      <c r="AL41" s="98"/>
+      <c r="AM41" s="98"/>
+      <c r="AN41" s="98"/>
+      <c r="AO41" s="98"/>
+      <c r="AP41" s="99"/>
+      <c r="AQ41" s="99"/>
+      <c r="AR41" s="99"/>
+      <c r="AS41" s="99"/>
+      <c r="AT41" s="99"/>
+      <c r="AU41" s="99"/>
+      <c r="AV41" s="99"/>
+      <c r="AW41" s="99"/>
+      <c r="AX41" s="89"/>
+      <c r="AY41" s="89"/>
+      <c r="AZ41" s="89"/>
+      <c r="BA41" s="89"/>
+      <c r="BB41" s="89"/>
+      <c r="BC41" s="89"/>
+      <c r="BD41" s="89"/>
+      <c r="BE41" s="89"/>
+      <c r="BF41" s="89"/>
+      <c r="BG41" s="89"/>
+      <c r="BH41" s="89"/>
+      <c r="BI41" s="89"/>
+      <c r="BJ41" s="89"/>
+      <c r="BK41" s="89"/>
+      <c r="BL41" s="89"/>
+      <c r="BM41" s="89"/>
+      <c r="BN41" s="89"/>
+      <c r="BO41" s="89"/>
+      <c r="BP41" s="89"/>
+      <c r="BQ41" s="89"/>
+      <c r="BR41" s="89"/>
+      <c r="BS41" s="89"/>
+      <c r="BT41" s="89"/>
+      <c r="BU41" s="89"/>
+      <c r="CD41" s="89"/>
+      <c r="CE41" s="89"/>
+      <c r="CF41" s="89"/>
+      <c r="CG41" s="89"/>
+      <c r="CH41" s="89"/>
+      <c r="CI41" s="89"/>
+      <c r="CJ41" s="89"/>
+      <c r="CK41" s="89"/>
+      <c r="CS41" s="94"/>
+      <c r="CT41" s="94"/>
+      <c r="CU41" s="94"/>
+      <c r="CV41" s="94"/>
+      <c r="CW41" s="94"/>
+      <c r="CX41" s="94"/>
+      <c r="CY41" s="94"/>
       <c r="CZ41" s="76"/>
     </row>
     <row r="42" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A42" s="63">
         <v>17</v>
       </c>
-      <c r="B42" s="90"/>
-      <c r="C42" s="90"/>
-      <c r="D42" s="90"/>
-      <c r="E42" s="90"/>
-      <c r="F42" s="90"/>
-      <c r="G42" s="90"/>
-      <c r="H42" s="90"/>
-      <c r="I42" s="90"/>
-      <c r="J42" s="116"/>
-      <c r="K42" s="116"/>
-      <c r="L42" s="116"/>
-      <c r="M42" s="116"/>
-      <c r="N42" s="116"/>
-      <c r="O42" s="116"/>
-      <c r="P42" s="116"/>
-      <c r="Q42" s="116"/>
-      <c r="R42" s="100"/>
-      <c r="S42" s="100"/>
-      <c r="T42" s="100"/>
-      <c r="U42" s="100"/>
-      <c r="V42" s="100"/>
-      <c r="W42" s="100"/>
-      <c r="X42" s="100"/>
-      <c r="Y42" s="100"/>
-      <c r="Z42" s="95"/>
-      <c r="AA42" s="95"/>
-      <c r="AB42" s="95"/>
-      <c r="AC42" s="95"/>
-      <c r="AD42" s="95"/>
-      <c r="AE42" s="95"/>
-      <c r="AF42" s="95"/>
-      <c r="AG42" s="95"/>
-      <c r="AH42" s="95"/>
-      <c r="AI42" s="95"/>
-      <c r="AJ42" s="95"/>
-      <c r="AK42" s="95"/>
-      <c r="AL42" s="95"/>
-      <c r="AM42" s="95"/>
-      <c r="AN42" s="95"/>
-      <c r="AO42" s="95"/>
-      <c r="AP42" s="102"/>
-      <c r="AQ42" s="102"/>
-      <c r="AR42" s="102"/>
-      <c r="AS42" s="102"/>
-      <c r="AT42" s="102"/>
-      <c r="AU42" s="102"/>
-      <c r="AV42" s="102"/>
-      <c r="AW42" s="102"/>
-      <c r="AX42" s="94"/>
-      <c r="AY42" s="94"/>
-      <c r="AZ42" s="94"/>
-      <c r="BA42" s="94"/>
-      <c r="BB42" s="94"/>
-      <c r="BC42" s="94"/>
-      <c r="BD42" s="94"/>
-      <c r="BE42" s="94"/>
-      <c r="BF42" s="94"/>
-      <c r="BG42" s="94"/>
-      <c r="BH42" s="94"/>
-      <c r="BI42" s="94"/>
-      <c r="BJ42" s="94"/>
-      <c r="BK42" s="94"/>
-      <c r="BL42" s="94"/>
-      <c r="BM42" s="94"/>
-      <c r="BN42" s="94"/>
-      <c r="BO42" s="94"/>
-      <c r="BP42" s="94"/>
-      <c r="BQ42" s="94"/>
-      <c r="BR42" s="94"/>
-      <c r="BS42" s="94"/>
-      <c r="BT42" s="94"/>
-      <c r="BU42" s="94"/>
-      <c r="CD42" s="94"/>
-      <c r="CE42" s="94"/>
-      <c r="CF42" s="94"/>
-      <c r="CG42" s="94"/>
-      <c r="CH42" s="94"/>
-      <c r="CI42" s="94"/>
-      <c r="CJ42" s="94"/>
-      <c r="CK42" s="94"/>
-      <c r="CS42" s="89"/>
-      <c r="CT42" s="89"/>
-      <c r="CU42" s="89"/>
-      <c r="CV42" s="89"/>
-      <c r="CW42" s="89"/>
-      <c r="CX42" s="89"/>
-      <c r="CY42" s="89"/>
+      <c r="B42" s="95"/>
+      <c r="C42" s="95"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="95"/>
+      <c r="I42" s="95"/>
+      <c r="J42" s="97"/>
+      <c r="K42" s="97"/>
+      <c r="L42" s="97"/>
+      <c r="M42" s="97"/>
+      <c r="N42" s="97"/>
+      <c r="O42" s="97"/>
+      <c r="P42" s="97"/>
+      <c r="Q42" s="97"/>
+      <c r="R42" s="93"/>
+      <c r="S42" s="93"/>
+      <c r="T42" s="93"/>
+      <c r="U42" s="93"/>
+      <c r="V42" s="93"/>
+      <c r="W42" s="93"/>
+      <c r="X42" s="93"/>
+      <c r="Y42" s="93"/>
+      <c r="Z42" s="98"/>
+      <c r="AA42" s="98"/>
+      <c r="AB42" s="98"/>
+      <c r="AC42" s="98"/>
+      <c r="AD42" s="98"/>
+      <c r="AE42" s="98"/>
+      <c r="AF42" s="98"/>
+      <c r="AG42" s="98"/>
+      <c r="AH42" s="98"/>
+      <c r="AI42" s="98"/>
+      <c r="AJ42" s="98"/>
+      <c r="AK42" s="98"/>
+      <c r="AL42" s="98"/>
+      <c r="AM42" s="98"/>
+      <c r="AN42" s="98"/>
+      <c r="AO42" s="98"/>
+      <c r="AP42" s="99"/>
+      <c r="AQ42" s="99"/>
+      <c r="AR42" s="99"/>
+      <c r="AS42" s="99"/>
+      <c r="AT42" s="99"/>
+      <c r="AU42" s="99"/>
+      <c r="AV42" s="99"/>
+      <c r="AW42" s="99"/>
+      <c r="AX42" s="89"/>
+      <c r="AY42" s="89"/>
+      <c r="AZ42" s="89"/>
+      <c r="BA42" s="89"/>
+      <c r="BB42" s="89"/>
+      <c r="BC42" s="89"/>
+      <c r="BD42" s="89"/>
+      <c r="BE42" s="89"/>
+      <c r="BF42" s="89"/>
+      <c r="BG42" s="89"/>
+      <c r="BH42" s="89"/>
+      <c r="BI42" s="89"/>
+      <c r="BJ42" s="89"/>
+      <c r="BK42" s="89"/>
+      <c r="BL42" s="89"/>
+      <c r="BM42" s="89"/>
+      <c r="BN42" s="89"/>
+      <c r="BO42" s="89"/>
+      <c r="BP42" s="89"/>
+      <c r="BQ42" s="89"/>
+      <c r="BR42" s="89"/>
+      <c r="BS42" s="89"/>
+      <c r="BT42" s="89"/>
+      <c r="BU42" s="89"/>
+      <c r="CD42" s="89"/>
+      <c r="CE42" s="89"/>
+      <c r="CF42" s="89"/>
+      <c r="CG42" s="89"/>
+      <c r="CH42" s="89"/>
+      <c r="CI42" s="89"/>
+      <c r="CJ42" s="89"/>
+      <c r="CK42" s="89"/>
+      <c r="CS42" s="94"/>
+      <c r="CT42" s="94"/>
+      <c r="CU42" s="94"/>
+      <c r="CV42" s="94"/>
+      <c r="CW42" s="94"/>
+      <c r="CX42" s="94"/>
+      <c r="CY42" s="94"/>
       <c r="CZ42" s="76"/>
     </row>
     <row r="43" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A43" s="63">
         <v>18</v>
       </c>
-      <c r="B43" s="90"/>
-      <c r="C43" s="90"/>
-      <c r="D43" s="90"/>
-      <c r="E43" s="90"/>
-      <c r="F43" s="90"/>
-      <c r="G43" s="90"/>
-      <c r="H43" s="90"/>
-      <c r="I43" s="90"/>
-      <c r="J43" s="116"/>
-      <c r="K43" s="116"/>
-      <c r="L43" s="116"/>
-      <c r="M43" s="116"/>
-      <c r="N43" s="116"/>
-      <c r="O43" s="116"/>
-      <c r="P43" s="116"/>
-      <c r="Q43" s="116"/>
-      <c r="R43" s="100"/>
-      <c r="S43" s="100"/>
-      <c r="T43" s="100"/>
-      <c r="U43" s="100"/>
-      <c r="V43" s="100"/>
-      <c r="W43" s="100"/>
-      <c r="X43" s="100"/>
-      <c r="Y43" s="100"/>
-      <c r="Z43" s="95"/>
-      <c r="AA43" s="95"/>
-      <c r="AB43" s="95"/>
-      <c r="AC43" s="95"/>
-      <c r="AD43" s="95"/>
-      <c r="AE43" s="95"/>
-      <c r="AF43" s="95"/>
-      <c r="AG43" s="95"/>
-      <c r="AH43" s="95"/>
-      <c r="AI43" s="95"/>
-      <c r="AJ43" s="95"/>
-      <c r="AK43" s="95"/>
-      <c r="AL43" s="95"/>
-      <c r="AM43" s="95"/>
-      <c r="AN43" s="95"/>
-      <c r="AO43" s="95"/>
-      <c r="AP43" s="102"/>
-      <c r="AQ43" s="102"/>
-      <c r="AR43" s="102"/>
-      <c r="AS43" s="102"/>
-      <c r="AT43" s="102"/>
-      <c r="AU43" s="102"/>
-      <c r="AV43" s="102"/>
-      <c r="AW43" s="102"/>
-      <c r="AX43" s="94"/>
-      <c r="AY43" s="94"/>
-      <c r="AZ43" s="94"/>
-      <c r="BA43" s="94"/>
-      <c r="BB43" s="94"/>
-      <c r="BC43" s="94"/>
-      <c r="BD43" s="94"/>
-      <c r="BE43" s="94"/>
-      <c r="BF43" s="94"/>
-      <c r="BG43" s="94"/>
-      <c r="BH43" s="94"/>
-      <c r="BI43" s="94"/>
-      <c r="BJ43" s="94"/>
-      <c r="BK43" s="94"/>
-      <c r="BL43" s="94"/>
-      <c r="BM43" s="94"/>
-      <c r="BN43" s="94"/>
-      <c r="BO43" s="94"/>
-      <c r="BP43" s="94"/>
-      <c r="BQ43" s="94"/>
-      <c r="BR43" s="94"/>
-      <c r="BS43" s="94"/>
-      <c r="BT43" s="94"/>
-      <c r="BU43" s="94"/>
-      <c r="CD43" s="94"/>
-      <c r="CE43" s="94"/>
-      <c r="CF43" s="94"/>
-      <c r="CG43" s="94"/>
-      <c r="CH43" s="94"/>
-      <c r="CI43" s="94"/>
-      <c r="CJ43" s="94"/>
-      <c r="CK43" s="94"/>
-      <c r="CS43" s="89"/>
-      <c r="CT43" s="89"/>
-      <c r="CU43" s="89"/>
-      <c r="CV43" s="89"/>
-      <c r="CW43" s="89"/>
-      <c r="CX43" s="89"/>
-      <c r="CY43" s="89"/>
+      <c r="B43" s="95"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="95"/>
+      <c r="H43" s="95"/>
+      <c r="I43" s="95"/>
+      <c r="J43" s="97"/>
+      <c r="K43" s="97"/>
+      <c r="L43" s="97"/>
+      <c r="M43" s="97"/>
+      <c r="N43" s="97"/>
+      <c r="O43" s="97"/>
+      <c r="P43" s="97"/>
+      <c r="Q43" s="97"/>
+      <c r="R43" s="93"/>
+      <c r="S43" s="93"/>
+      <c r="T43" s="93"/>
+      <c r="U43" s="93"/>
+      <c r="V43" s="93"/>
+      <c r="W43" s="93"/>
+      <c r="X43" s="93"/>
+      <c r="Y43" s="93"/>
+      <c r="Z43" s="98"/>
+      <c r="AA43" s="98"/>
+      <c r="AB43" s="98"/>
+      <c r="AC43" s="98"/>
+      <c r="AD43" s="98"/>
+      <c r="AE43" s="98"/>
+      <c r="AF43" s="98"/>
+      <c r="AG43" s="98"/>
+      <c r="AH43" s="98"/>
+      <c r="AI43" s="98"/>
+      <c r="AJ43" s="98"/>
+      <c r="AK43" s="98"/>
+      <c r="AL43" s="98"/>
+      <c r="AM43" s="98"/>
+      <c r="AN43" s="98"/>
+      <c r="AO43" s="98"/>
+      <c r="AP43" s="99"/>
+      <c r="AQ43" s="99"/>
+      <c r="AR43" s="99"/>
+      <c r="AS43" s="99"/>
+      <c r="AT43" s="99"/>
+      <c r="AU43" s="99"/>
+      <c r="AV43" s="99"/>
+      <c r="AW43" s="99"/>
+      <c r="AX43" s="89"/>
+      <c r="AY43" s="89"/>
+      <c r="AZ43" s="89"/>
+      <c r="BA43" s="89"/>
+      <c r="BB43" s="89"/>
+      <c r="BC43" s="89"/>
+      <c r="BD43" s="89"/>
+      <c r="BE43" s="89"/>
+      <c r="BF43" s="89"/>
+      <c r="BG43" s="89"/>
+      <c r="BH43" s="89"/>
+      <c r="BI43" s="89"/>
+      <c r="BJ43" s="89"/>
+      <c r="BK43" s="89"/>
+      <c r="BL43" s="89"/>
+      <c r="BM43" s="89"/>
+      <c r="BN43" s="89"/>
+      <c r="BO43" s="89"/>
+      <c r="BP43" s="89"/>
+      <c r="BQ43" s="89"/>
+      <c r="BR43" s="89"/>
+      <c r="BS43" s="89"/>
+      <c r="BT43" s="89"/>
+      <c r="BU43" s="89"/>
+      <c r="CD43" s="89"/>
+      <c r="CE43" s="89"/>
+      <c r="CF43" s="89"/>
+      <c r="CG43" s="89"/>
+      <c r="CH43" s="89"/>
+      <c r="CI43" s="89"/>
+      <c r="CJ43" s="89"/>
+      <c r="CK43" s="89"/>
+      <c r="CS43" s="94"/>
+      <c r="CT43" s="94"/>
+      <c r="CU43" s="94"/>
+      <c r="CV43" s="94"/>
+      <c r="CW43" s="94"/>
+      <c r="CX43" s="94"/>
+      <c r="CY43" s="94"/>
       <c r="CZ43" s="76"/>
     </row>
     <row r="44" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A44" s="63">
         <v>19</v>
       </c>
-      <c r="B44" s="90"/>
-      <c r="C44" s="90"/>
-      <c r="D44" s="90"/>
-      <c r="E44" s="90"/>
-      <c r="F44" s="90"/>
-      <c r="G44" s="90"/>
-      <c r="H44" s="90"/>
-      <c r="I44" s="90"/>
-      <c r="J44" s="116"/>
-      <c r="K44" s="116"/>
-      <c r="L44" s="116"/>
-      <c r="M44" s="116"/>
-      <c r="N44" s="116"/>
-      <c r="O44" s="116"/>
-      <c r="P44" s="116"/>
-      <c r="Q44" s="116"/>
-      <c r="R44" s="100"/>
-      <c r="S44" s="100"/>
-      <c r="T44" s="100"/>
-      <c r="U44" s="100"/>
-      <c r="V44" s="100"/>
-      <c r="W44" s="100"/>
-      <c r="X44" s="100"/>
-      <c r="Y44" s="100"/>
-      <c r="Z44" s="95"/>
-      <c r="AA44" s="95"/>
-      <c r="AB44" s="95"/>
-      <c r="AC44" s="95"/>
-      <c r="AD44" s="95"/>
-      <c r="AE44" s="95"/>
-      <c r="AF44" s="95"/>
-      <c r="AG44" s="95"/>
-      <c r="AH44" s="95"/>
-      <c r="AI44" s="95"/>
-      <c r="AJ44" s="95"/>
-      <c r="AK44" s="95"/>
-      <c r="AL44" s="95"/>
-      <c r="AM44" s="95"/>
-      <c r="AN44" s="95"/>
-      <c r="AO44" s="95"/>
-      <c r="AP44" s="102"/>
-      <c r="AQ44" s="102"/>
-      <c r="AR44" s="102"/>
-      <c r="AS44" s="102"/>
-      <c r="AT44" s="102"/>
-      <c r="AU44" s="102"/>
-      <c r="AV44" s="102"/>
-      <c r="AW44" s="102"/>
-      <c r="AX44" s="94"/>
-      <c r="AY44" s="94"/>
-      <c r="AZ44" s="94"/>
-      <c r="BA44" s="94"/>
-      <c r="BB44" s="94"/>
-      <c r="BC44" s="94"/>
-      <c r="BD44" s="94"/>
-      <c r="BE44" s="94"/>
-      <c r="BF44" s="94"/>
-      <c r="BG44" s="94"/>
-      <c r="BH44" s="94"/>
-      <c r="BI44" s="94"/>
-      <c r="BJ44" s="94"/>
-      <c r="BK44" s="94"/>
-      <c r="BL44" s="94"/>
-      <c r="BM44" s="94"/>
-      <c r="BN44" s="94"/>
-      <c r="BO44" s="94"/>
-      <c r="BP44" s="94"/>
-      <c r="BQ44" s="94"/>
-      <c r="BR44" s="94"/>
-      <c r="BS44" s="94"/>
-      <c r="BT44" s="94"/>
-      <c r="BU44" s="94"/>
-      <c r="BV44" s="94"/>
-      <c r="BW44" s="94"/>
-      <c r="BX44" s="94"/>
-      <c r="BY44" s="94"/>
-      <c r="BZ44" s="94"/>
-      <c r="CA44" s="94"/>
-      <c r="CB44" s="94"/>
-      <c r="CC44" s="94"/>
-      <c r="CD44" s="94"/>
-      <c r="CE44" s="94"/>
-      <c r="CF44" s="94"/>
-      <c r="CG44" s="94"/>
-      <c r="CH44" s="94"/>
-      <c r="CI44" s="94"/>
-      <c r="CJ44" s="94"/>
-      <c r="CK44" s="94"/>
-      <c r="CS44" s="89"/>
-      <c r="CT44" s="89"/>
-      <c r="CU44" s="89"/>
-      <c r="CV44" s="89"/>
-      <c r="CW44" s="89"/>
-      <c r="CX44" s="89"/>
-      <c r="CY44" s="89"/>
+      <c r="B44" s="95"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="95"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="95"/>
+      <c r="H44" s="95"/>
+      <c r="I44" s="95"/>
+      <c r="J44" s="97"/>
+      <c r="K44" s="97"/>
+      <c r="L44" s="97"/>
+      <c r="M44" s="97"/>
+      <c r="N44" s="97"/>
+      <c r="O44" s="97"/>
+      <c r="P44" s="97"/>
+      <c r="Q44" s="97"/>
+      <c r="R44" s="93"/>
+      <c r="S44" s="93"/>
+      <c r="T44" s="93"/>
+      <c r="U44" s="93"/>
+      <c r="V44" s="93"/>
+      <c r="W44" s="93"/>
+      <c r="X44" s="93"/>
+      <c r="Y44" s="93"/>
+      <c r="Z44" s="98"/>
+      <c r="AA44" s="98"/>
+      <c r="AB44" s="98"/>
+      <c r="AC44" s="98"/>
+      <c r="AD44" s="98"/>
+      <c r="AE44" s="98"/>
+      <c r="AF44" s="98"/>
+      <c r="AG44" s="98"/>
+      <c r="AH44" s="98"/>
+      <c r="AI44" s="98"/>
+      <c r="AJ44" s="98"/>
+      <c r="AK44" s="98"/>
+      <c r="AL44" s="98"/>
+      <c r="AM44" s="98"/>
+      <c r="AN44" s="98"/>
+      <c r="AO44" s="98"/>
+      <c r="AP44" s="99"/>
+      <c r="AQ44" s="99"/>
+      <c r="AR44" s="99"/>
+      <c r="AS44" s="99"/>
+      <c r="AT44" s="99"/>
+      <c r="AU44" s="99"/>
+      <c r="AV44" s="99"/>
+      <c r="AW44" s="99"/>
+      <c r="AX44" s="89"/>
+      <c r="AY44" s="89"/>
+      <c r="AZ44" s="89"/>
+      <c r="BA44" s="89"/>
+      <c r="BB44" s="89"/>
+      <c r="BC44" s="89"/>
+      <c r="BD44" s="89"/>
+      <c r="BE44" s="89"/>
+      <c r="BF44" s="89"/>
+      <c r="BG44" s="89"/>
+      <c r="BH44" s="89"/>
+      <c r="BI44" s="89"/>
+      <c r="BJ44" s="89"/>
+      <c r="BK44" s="89"/>
+      <c r="BL44" s="89"/>
+      <c r="BM44" s="89"/>
+      <c r="BN44" s="89"/>
+      <c r="BO44" s="89"/>
+      <c r="BP44" s="89"/>
+      <c r="BQ44" s="89"/>
+      <c r="BR44" s="89"/>
+      <c r="BS44" s="89"/>
+      <c r="BT44" s="89"/>
+      <c r="BU44" s="89"/>
+      <c r="BV44" s="89"/>
+      <c r="BW44" s="89"/>
+      <c r="BX44" s="89"/>
+      <c r="BY44" s="89"/>
+      <c r="BZ44" s="89"/>
+      <c r="CA44" s="89"/>
+      <c r="CB44" s="89"/>
+      <c r="CC44" s="89"/>
+      <c r="CD44" s="89"/>
+      <c r="CE44" s="89"/>
+      <c r="CF44" s="89"/>
+      <c r="CG44" s="89"/>
+      <c r="CH44" s="89"/>
+      <c r="CI44" s="89"/>
+      <c r="CJ44" s="89"/>
+      <c r="CK44" s="89"/>
+      <c r="CS44" s="94"/>
+      <c r="CT44" s="94"/>
+      <c r="CU44" s="94"/>
+      <c r="CV44" s="94"/>
+      <c r="CW44" s="94"/>
+      <c r="CX44" s="94"/>
+      <c r="CY44" s="94"/>
       <c r="CZ44" s="76"/>
     </row>
     <row r="45" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A45" s="63">
         <v>20</v>
       </c>
-      <c r="B45" s="90"/>
-      <c r="C45" s="90"/>
-      <c r="D45" s="90"/>
-      <c r="E45" s="90"/>
-      <c r="F45" s="90"/>
-      <c r="G45" s="90"/>
-      <c r="H45" s="90"/>
-      <c r="I45" s="90"/>
-      <c r="J45" s="116"/>
-      <c r="K45" s="116"/>
-      <c r="L45" s="116"/>
-      <c r="M45" s="116"/>
-      <c r="N45" s="116"/>
-      <c r="O45" s="116"/>
-      <c r="P45" s="116"/>
-      <c r="Q45" s="116"/>
-      <c r="R45" s="100"/>
-      <c r="S45" s="100"/>
-      <c r="T45" s="100"/>
-      <c r="U45" s="100"/>
-      <c r="V45" s="100"/>
-      <c r="W45" s="100"/>
-      <c r="X45" s="100"/>
-      <c r="Y45" s="100"/>
-      <c r="Z45" s="95"/>
-      <c r="AA45" s="95"/>
-      <c r="AB45" s="95"/>
-      <c r="AC45" s="95"/>
-      <c r="AD45" s="95"/>
-      <c r="AE45" s="95"/>
-      <c r="AF45" s="95"/>
-      <c r="AG45" s="95"/>
-      <c r="AH45" s="95"/>
-      <c r="AI45" s="95"/>
-      <c r="AJ45" s="95"/>
-      <c r="AK45" s="95"/>
-      <c r="AL45" s="95"/>
-      <c r="AM45" s="95"/>
-      <c r="AN45" s="95"/>
-      <c r="AO45" s="95"/>
-      <c r="AP45" s="102"/>
-      <c r="AQ45" s="102"/>
-      <c r="AR45" s="102"/>
-      <c r="AS45" s="102"/>
-      <c r="AT45" s="102"/>
-      <c r="AU45" s="102"/>
-      <c r="AV45" s="102"/>
-      <c r="AW45" s="102"/>
-      <c r="AX45" s="94"/>
-      <c r="AY45" s="94"/>
-      <c r="AZ45" s="94"/>
-      <c r="BA45" s="94"/>
-      <c r="BB45" s="94"/>
-      <c r="BC45" s="94"/>
-      <c r="BD45" s="94"/>
-      <c r="BE45" s="94"/>
-      <c r="BF45" s="94"/>
-      <c r="BG45" s="94"/>
-      <c r="BH45" s="94"/>
-      <c r="BI45" s="94"/>
-      <c r="BJ45" s="94"/>
-      <c r="BK45" s="94"/>
-      <c r="BL45" s="94"/>
-      <c r="BM45" s="94"/>
-      <c r="BN45" s="94"/>
-      <c r="BO45" s="94"/>
-      <c r="BP45" s="94"/>
-      <c r="BQ45" s="94"/>
-      <c r="BR45" s="94"/>
-      <c r="BS45" s="94"/>
-      <c r="BT45" s="94"/>
-      <c r="BU45" s="94"/>
-      <c r="BV45" s="94"/>
-      <c r="BW45" s="94"/>
-      <c r="BX45" s="94"/>
-      <c r="BY45" s="94"/>
-      <c r="BZ45" s="94"/>
-      <c r="CA45" s="94"/>
-      <c r="CB45" s="94"/>
-      <c r="CC45" s="94"/>
-      <c r="CD45" s="94"/>
-      <c r="CE45" s="94"/>
-      <c r="CF45" s="94"/>
-      <c r="CG45" s="94"/>
-      <c r="CH45" s="94"/>
-      <c r="CI45" s="94"/>
-      <c r="CJ45" s="94"/>
-      <c r="CK45" s="94"/>
-      <c r="CS45" s="89"/>
-      <c r="CT45" s="89"/>
-      <c r="CU45" s="89"/>
-      <c r="CV45" s="89"/>
-      <c r="CW45" s="89"/>
-      <c r="CX45" s="89"/>
-      <c r="CY45" s="89"/>
+      <c r="B45" s="95"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="95"/>
+      <c r="H45" s="95"/>
+      <c r="I45" s="95"/>
+      <c r="J45" s="97"/>
+      <c r="K45" s="97"/>
+      <c r="L45" s="97"/>
+      <c r="M45" s="97"/>
+      <c r="N45" s="97"/>
+      <c r="O45" s="97"/>
+      <c r="P45" s="97"/>
+      <c r="Q45" s="97"/>
+      <c r="R45" s="93"/>
+      <c r="S45" s="93"/>
+      <c r="T45" s="93"/>
+      <c r="U45" s="93"/>
+      <c r="V45" s="93"/>
+      <c r="W45" s="93"/>
+      <c r="X45" s="93"/>
+      <c r="Y45" s="93"/>
+      <c r="Z45" s="98"/>
+      <c r="AA45" s="98"/>
+      <c r="AB45" s="98"/>
+      <c r="AC45" s="98"/>
+      <c r="AD45" s="98"/>
+      <c r="AE45" s="98"/>
+      <c r="AF45" s="98"/>
+      <c r="AG45" s="98"/>
+      <c r="AH45" s="98"/>
+      <c r="AI45" s="98"/>
+      <c r="AJ45" s="98"/>
+      <c r="AK45" s="98"/>
+      <c r="AL45" s="98"/>
+      <c r="AM45" s="98"/>
+      <c r="AN45" s="98"/>
+      <c r="AO45" s="98"/>
+      <c r="AP45" s="99"/>
+      <c r="AQ45" s="99"/>
+      <c r="AR45" s="99"/>
+      <c r="AS45" s="99"/>
+      <c r="AT45" s="99"/>
+      <c r="AU45" s="99"/>
+      <c r="AV45" s="99"/>
+      <c r="AW45" s="99"/>
+      <c r="AX45" s="89"/>
+      <c r="AY45" s="89"/>
+      <c r="AZ45" s="89"/>
+      <c r="BA45" s="89"/>
+      <c r="BB45" s="89"/>
+      <c r="BC45" s="89"/>
+      <c r="BD45" s="89"/>
+      <c r="BE45" s="89"/>
+      <c r="BF45" s="89"/>
+      <c r="BG45" s="89"/>
+      <c r="BH45" s="89"/>
+      <c r="BI45" s="89"/>
+      <c r="BJ45" s="89"/>
+      <c r="BK45" s="89"/>
+      <c r="BL45" s="89"/>
+      <c r="BM45" s="89"/>
+      <c r="BN45" s="89"/>
+      <c r="BO45" s="89"/>
+      <c r="BP45" s="89"/>
+      <c r="BQ45" s="89"/>
+      <c r="BR45" s="89"/>
+      <c r="BS45" s="89"/>
+      <c r="BT45" s="89"/>
+      <c r="BU45" s="89"/>
+      <c r="BV45" s="89"/>
+      <c r="BW45" s="89"/>
+      <c r="BX45" s="89"/>
+      <c r="BY45" s="89"/>
+      <c r="BZ45" s="89"/>
+      <c r="CA45" s="89"/>
+      <c r="CB45" s="89"/>
+      <c r="CC45" s="89"/>
+      <c r="CD45" s="89"/>
+      <c r="CE45" s="89"/>
+      <c r="CF45" s="89"/>
+      <c r="CG45" s="89"/>
+      <c r="CH45" s="89"/>
+      <c r="CI45" s="89"/>
+      <c r="CJ45" s="89"/>
+      <c r="CK45" s="89"/>
+      <c r="CS45" s="94"/>
+      <c r="CT45" s="94"/>
+      <c r="CU45" s="94"/>
+      <c r="CV45" s="94"/>
+      <c r="CW45" s="94"/>
+      <c r="CX45" s="94"/>
+      <c r="CY45" s="94"/>
       <c r="CZ45" s="76"/>
     </row>
     <row r="46" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A46" s="63">
         <v>21</v>
       </c>
-      <c r="B46" s="90"/>
-      <c r="C46" s="90"/>
-      <c r="D46" s="90"/>
-      <c r="E46" s="90"/>
-      <c r="F46" s="90"/>
-      <c r="G46" s="90"/>
-      <c r="H46" s="90"/>
-      <c r="I46" s="90"/>
-      <c r="J46" s="116"/>
-      <c r="K46" s="116"/>
-      <c r="L46" s="116"/>
-      <c r="M46" s="116"/>
-      <c r="N46" s="116"/>
-      <c r="O46" s="116"/>
-      <c r="P46" s="116"/>
-      <c r="Q46" s="116"/>
-      <c r="R46" s="100"/>
-      <c r="S46" s="100"/>
-      <c r="T46" s="100"/>
-      <c r="U46" s="100"/>
-      <c r="V46" s="100"/>
-      <c r="W46" s="100"/>
-      <c r="X46" s="100"/>
-      <c r="Y46" s="100"/>
-      <c r="Z46" s="95"/>
-      <c r="AA46" s="95"/>
-      <c r="AB46" s="95"/>
-      <c r="AC46" s="95"/>
-      <c r="AD46" s="95"/>
-      <c r="AE46" s="95"/>
-      <c r="AF46" s="95"/>
-      <c r="AG46" s="95"/>
-      <c r="AH46" s="95"/>
-      <c r="AI46" s="95"/>
-      <c r="AJ46" s="95"/>
-      <c r="AK46" s="95"/>
-      <c r="AL46" s="95"/>
-      <c r="AM46" s="95"/>
-      <c r="AN46" s="95"/>
-      <c r="AO46" s="95"/>
-      <c r="AP46" s="102"/>
-      <c r="AQ46" s="102"/>
-      <c r="AR46" s="102"/>
-      <c r="AS46" s="102"/>
-      <c r="AT46" s="102"/>
-      <c r="AU46" s="102"/>
-      <c r="AV46" s="102"/>
-      <c r="AW46" s="102"/>
-      <c r="AX46" s="94"/>
-      <c r="AY46" s="94"/>
-      <c r="AZ46" s="94"/>
-      <c r="BA46" s="94"/>
-      <c r="BB46" s="94"/>
-      <c r="BC46" s="94"/>
-      <c r="BD46" s="94"/>
-      <c r="BE46" s="94"/>
-      <c r="BF46" s="94"/>
-      <c r="BG46" s="94"/>
-      <c r="BH46" s="94"/>
-      <c r="BI46" s="94"/>
-      <c r="BJ46" s="94"/>
-      <c r="BK46" s="94"/>
-      <c r="BL46" s="94"/>
-      <c r="BM46" s="94"/>
-      <c r="BN46" s="94"/>
-      <c r="BO46" s="94"/>
-      <c r="BP46" s="94"/>
-      <c r="BQ46" s="94"/>
-      <c r="BR46" s="94"/>
-      <c r="BS46" s="94"/>
-      <c r="BT46" s="94"/>
-      <c r="BU46" s="94"/>
-      <c r="BV46" s="94"/>
-      <c r="BW46" s="94"/>
-      <c r="BX46" s="94"/>
-      <c r="BY46" s="94"/>
-      <c r="BZ46" s="94"/>
-      <c r="CA46" s="94"/>
-      <c r="CB46" s="94"/>
-      <c r="CC46" s="94"/>
-      <c r="CD46" s="94"/>
-      <c r="CE46" s="94"/>
-      <c r="CF46" s="94"/>
-      <c r="CG46" s="94"/>
-      <c r="CH46" s="94"/>
-      <c r="CI46" s="94"/>
-      <c r="CJ46" s="94"/>
-      <c r="CK46" s="94"/>
-      <c r="CS46" s="89"/>
-      <c r="CT46" s="89"/>
-      <c r="CU46" s="89"/>
-      <c r="CV46" s="89"/>
-      <c r="CW46" s="89"/>
-      <c r="CX46" s="89"/>
-      <c r="CY46" s="89"/>
+      <c r="B46" s="95"/>
+      <c r="C46" s="95"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="95"/>
+      <c r="F46" s="95"/>
+      <c r="G46" s="95"/>
+      <c r="H46" s="95"/>
+      <c r="I46" s="95"/>
+      <c r="J46" s="97"/>
+      <c r="K46" s="97"/>
+      <c r="L46" s="97"/>
+      <c r="M46" s="97"/>
+      <c r="N46" s="97"/>
+      <c r="O46" s="97"/>
+      <c r="P46" s="97"/>
+      <c r="Q46" s="97"/>
+      <c r="R46" s="93"/>
+      <c r="S46" s="93"/>
+      <c r="T46" s="93"/>
+      <c r="U46" s="93"/>
+      <c r="V46" s="93"/>
+      <c r="W46" s="93"/>
+      <c r="X46" s="93"/>
+      <c r="Y46" s="93"/>
+      <c r="Z46" s="98"/>
+      <c r="AA46" s="98"/>
+      <c r="AB46" s="98"/>
+      <c r="AC46" s="98"/>
+      <c r="AD46" s="98"/>
+      <c r="AE46" s="98"/>
+      <c r="AF46" s="98"/>
+      <c r="AG46" s="98"/>
+      <c r="AH46" s="98"/>
+      <c r="AI46" s="98"/>
+      <c r="AJ46" s="98"/>
+      <c r="AK46" s="98"/>
+      <c r="AL46" s="98"/>
+      <c r="AM46" s="98"/>
+      <c r="AN46" s="98"/>
+      <c r="AO46" s="98"/>
+      <c r="AP46" s="99"/>
+      <c r="AQ46" s="99"/>
+      <c r="AR46" s="99"/>
+      <c r="AS46" s="99"/>
+      <c r="AT46" s="99"/>
+      <c r="AU46" s="99"/>
+      <c r="AV46" s="99"/>
+      <c r="AW46" s="99"/>
+      <c r="AX46" s="89"/>
+      <c r="AY46" s="89"/>
+      <c r="AZ46" s="89"/>
+      <c r="BA46" s="89"/>
+      <c r="BB46" s="89"/>
+      <c r="BC46" s="89"/>
+      <c r="BD46" s="89"/>
+      <c r="BE46" s="89"/>
+      <c r="BF46" s="89"/>
+      <c r="BG46" s="89"/>
+      <c r="BH46" s="89"/>
+      <c r="BI46" s="89"/>
+      <c r="BJ46" s="89"/>
+      <c r="BK46" s="89"/>
+      <c r="BL46" s="89"/>
+      <c r="BM46" s="89"/>
+      <c r="BN46" s="89"/>
+      <c r="BO46" s="89"/>
+      <c r="BP46" s="89"/>
+      <c r="BQ46" s="89"/>
+      <c r="BR46" s="89"/>
+      <c r="BS46" s="89"/>
+      <c r="BT46" s="89"/>
+      <c r="BU46" s="89"/>
+      <c r="BV46" s="89"/>
+      <c r="BW46" s="89"/>
+      <c r="BX46" s="89"/>
+      <c r="BY46" s="89"/>
+      <c r="BZ46" s="89"/>
+      <c r="CA46" s="89"/>
+      <c r="CB46" s="89"/>
+      <c r="CC46" s="89"/>
+      <c r="CD46" s="89"/>
+      <c r="CE46" s="89"/>
+      <c r="CF46" s="89"/>
+      <c r="CG46" s="89"/>
+      <c r="CH46" s="89"/>
+      <c r="CI46" s="89"/>
+      <c r="CJ46" s="89"/>
+      <c r="CK46" s="89"/>
+      <c r="CS46" s="94"/>
+      <c r="CT46" s="94"/>
+      <c r="CU46" s="94"/>
+      <c r="CV46" s="94"/>
+      <c r="CW46" s="94"/>
+      <c r="CX46" s="94"/>
+      <c r="CY46" s="94"/>
       <c r="CZ46" s="76"/>
     </row>
     <row r="47" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A47" s="63">
         <v>22</v>
       </c>
-      <c r="B47" s="90"/>
-      <c r="C47" s="90"/>
-      <c r="D47" s="90"/>
-      <c r="E47" s="90"/>
-      <c r="F47" s="90"/>
-      <c r="G47" s="90"/>
-      <c r="H47" s="90"/>
-      <c r="I47" s="90"/>
-      <c r="J47" s="116"/>
-      <c r="K47" s="116"/>
-      <c r="L47" s="116"/>
-      <c r="M47" s="116"/>
-      <c r="N47" s="116"/>
-      <c r="O47" s="116"/>
-      <c r="P47" s="116"/>
-      <c r="Q47" s="116"/>
-      <c r="R47" s="100"/>
-      <c r="S47" s="100"/>
-      <c r="T47" s="100"/>
-      <c r="U47" s="100"/>
-      <c r="V47" s="100"/>
-      <c r="W47" s="100"/>
-      <c r="X47" s="100"/>
-      <c r="Y47" s="100"/>
-      <c r="Z47" s="95"/>
-      <c r="AA47" s="95"/>
-      <c r="AB47" s="95"/>
-      <c r="AC47" s="95"/>
-      <c r="AD47" s="95"/>
-      <c r="AE47" s="95"/>
-      <c r="AF47" s="95"/>
-      <c r="AG47" s="95"/>
-      <c r="AH47" s="95"/>
-      <c r="AI47" s="95"/>
-      <c r="AJ47" s="95"/>
-      <c r="AK47" s="95"/>
-      <c r="AL47" s="95"/>
-      <c r="AM47" s="95"/>
-      <c r="AN47" s="95"/>
-      <c r="AO47" s="95"/>
-      <c r="AP47" s="102"/>
-      <c r="AQ47" s="102"/>
-      <c r="AR47" s="102"/>
-      <c r="AS47" s="102"/>
-      <c r="AT47" s="102"/>
-      <c r="AU47" s="102"/>
-      <c r="AV47" s="102"/>
-      <c r="AW47" s="102"/>
-      <c r="AX47" s="94"/>
-      <c r="AY47" s="94"/>
-      <c r="AZ47" s="94"/>
-      <c r="BA47" s="94"/>
-      <c r="BB47" s="94"/>
-      <c r="BC47" s="94"/>
-      <c r="BD47" s="94"/>
-      <c r="BE47" s="94"/>
-      <c r="BF47" s="94"/>
-      <c r="BG47" s="94"/>
-      <c r="BH47" s="94"/>
-      <c r="BI47" s="94"/>
-      <c r="BJ47" s="94"/>
-      <c r="BK47" s="94"/>
-      <c r="BL47" s="94"/>
-      <c r="BM47" s="94"/>
-      <c r="BN47" s="94"/>
-      <c r="BO47" s="94"/>
-      <c r="BP47" s="94"/>
-      <c r="BQ47" s="94"/>
-      <c r="BR47" s="94"/>
-      <c r="BS47" s="94"/>
-      <c r="BT47" s="94"/>
-      <c r="BU47" s="94"/>
-      <c r="BV47" s="94"/>
-      <c r="BW47" s="94"/>
-      <c r="BX47" s="94"/>
-      <c r="BY47" s="94"/>
-      <c r="BZ47" s="94"/>
-      <c r="CA47" s="94"/>
-      <c r="CB47" s="94"/>
-      <c r="CC47" s="94"/>
-      <c r="CD47" s="94"/>
-      <c r="CE47" s="94"/>
-      <c r="CF47" s="94"/>
-      <c r="CG47" s="94"/>
-      <c r="CH47" s="94"/>
-      <c r="CI47" s="94"/>
-      <c r="CJ47" s="94"/>
-      <c r="CK47" s="94"/>
-      <c r="CS47" s="89"/>
-      <c r="CT47" s="89"/>
-      <c r="CU47" s="89"/>
-      <c r="CV47" s="89"/>
-      <c r="CW47" s="89"/>
-      <c r="CX47" s="89"/>
-      <c r="CY47" s="89"/>
+      <c r="B47" s="95"/>
+      <c r="C47" s="95"/>
+      <c r="D47" s="95"/>
+      <c r="E47" s="95"/>
+      <c r="F47" s="95"/>
+      <c r="G47" s="95"/>
+      <c r="H47" s="95"/>
+      <c r="I47" s="95"/>
+      <c r="J47" s="97"/>
+      <c r="K47" s="97"/>
+      <c r="L47" s="97"/>
+      <c r="M47" s="97"/>
+      <c r="N47" s="97"/>
+      <c r="O47" s="97"/>
+      <c r="P47" s="97"/>
+      <c r="Q47" s="97"/>
+      <c r="R47" s="93"/>
+      <c r="S47" s="93"/>
+      <c r="T47" s="93"/>
+      <c r="U47" s="93"/>
+      <c r="V47" s="93"/>
+      <c r="W47" s="93"/>
+      <c r="X47" s="93"/>
+      <c r="Y47" s="93"/>
+      <c r="Z47" s="98"/>
+      <c r="AA47" s="98"/>
+      <c r="AB47" s="98"/>
+      <c r="AC47" s="98"/>
+      <c r="AD47" s="98"/>
+      <c r="AE47" s="98"/>
+      <c r="AF47" s="98"/>
+      <c r="AG47" s="98"/>
+      <c r="AH47" s="98"/>
+      <c r="AI47" s="98"/>
+      <c r="AJ47" s="98"/>
+      <c r="AK47" s="98"/>
+      <c r="AL47" s="98"/>
+      <c r="AM47" s="98"/>
+      <c r="AN47" s="98"/>
+      <c r="AO47" s="98"/>
+      <c r="AP47" s="99"/>
+      <c r="AQ47" s="99"/>
+      <c r="AR47" s="99"/>
+      <c r="AS47" s="99"/>
+      <c r="AT47" s="99"/>
+      <c r="AU47" s="99"/>
+      <c r="AV47" s="99"/>
+      <c r="AW47" s="99"/>
+      <c r="AX47" s="89"/>
+      <c r="AY47" s="89"/>
+      <c r="AZ47" s="89"/>
+      <c r="BA47" s="89"/>
+      <c r="BB47" s="89"/>
+      <c r="BC47" s="89"/>
+      <c r="BD47" s="89"/>
+      <c r="BE47" s="89"/>
+      <c r="BF47" s="89"/>
+      <c r="BG47" s="89"/>
+      <c r="BH47" s="89"/>
+      <c r="BI47" s="89"/>
+      <c r="BJ47" s="89"/>
+      <c r="BK47" s="89"/>
+      <c r="BL47" s="89"/>
+      <c r="BM47" s="89"/>
+      <c r="BN47" s="89"/>
+      <c r="BO47" s="89"/>
+      <c r="BP47" s="89"/>
+      <c r="BQ47" s="89"/>
+      <c r="BR47" s="89"/>
+      <c r="BS47" s="89"/>
+      <c r="BT47" s="89"/>
+      <c r="BU47" s="89"/>
+      <c r="BV47" s="89"/>
+      <c r="BW47" s="89"/>
+      <c r="BX47" s="89"/>
+      <c r="BY47" s="89"/>
+      <c r="BZ47" s="89"/>
+      <c r="CA47" s="89"/>
+      <c r="CB47" s="89"/>
+      <c r="CC47" s="89"/>
+      <c r="CD47" s="89"/>
+      <c r="CE47" s="89"/>
+      <c r="CF47" s="89"/>
+      <c r="CG47" s="89"/>
+      <c r="CH47" s="89"/>
+      <c r="CI47" s="89"/>
+      <c r="CJ47" s="89"/>
+      <c r="CK47" s="89"/>
+      <c r="CS47" s="94"/>
+      <c r="CT47" s="94"/>
+      <c r="CU47" s="94"/>
+      <c r="CV47" s="94"/>
+      <c r="CW47" s="94"/>
+      <c r="CX47" s="94"/>
+      <c r="CY47" s="94"/>
       <c r="CZ47" s="76"/>
     </row>
     <row r="48" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A48" s="63">
         <v>23</v>
       </c>
-      <c r="B48" s="90"/>
-      <c r="C48" s="90"/>
-      <c r="D48" s="90"/>
-      <c r="E48" s="90"/>
-      <c r="F48" s="90"/>
-      <c r="G48" s="90"/>
-      <c r="H48" s="90"/>
-      <c r="I48" s="90"/>
-      <c r="J48" s="116"/>
-      <c r="K48" s="116"/>
-      <c r="L48" s="116"/>
-      <c r="M48" s="116"/>
-      <c r="N48" s="116"/>
-      <c r="O48" s="116"/>
-      <c r="P48" s="116"/>
-      <c r="Q48" s="116"/>
-      <c r="R48" s="100"/>
-      <c r="S48" s="100"/>
-      <c r="T48" s="100"/>
-      <c r="U48" s="100"/>
-      <c r="V48" s="100"/>
-      <c r="W48" s="100"/>
-      <c r="X48" s="100"/>
-      <c r="Y48" s="100"/>
-      <c r="Z48" s="95"/>
-      <c r="AA48" s="95"/>
-      <c r="AB48" s="95"/>
-      <c r="AC48" s="95"/>
-      <c r="AD48" s="95"/>
-      <c r="AE48" s="95"/>
-      <c r="AF48" s="95"/>
-      <c r="AG48" s="95"/>
-      <c r="AH48" s="95"/>
-      <c r="AI48" s="95"/>
-      <c r="AJ48" s="95"/>
-      <c r="AK48" s="95"/>
-      <c r="AL48" s="95"/>
-      <c r="AM48" s="95"/>
-      <c r="AN48" s="95"/>
-      <c r="AO48" s="95"/>
-      <c r="AP48" s="102"/>
-      <c r="AQ48" s="102"/>
-      <c r="AR48" s="102"/>
-      <c r="AS48" s="102"/>
-      <c r="AT48" s="102"/>
-      <c r="AU48" s="102"/>
-      <c r="AV48" s="102"/>
-      <c r="AW48" s="102"/>
-      <c r="AX48" s="94"/>
-      <c r="AY48" s="94"/>
-      <c r="AZ48" s="94"/>
-      <c r="BA48" s="94"/>
-      <c r="BB48" s="94"/>
-      <c r="BC48" s="94"/>
-      <c r="BD48" s="94"/>
-      <c r="BE48" s="94"/>
-      <c r="BF48" s="94"/>
-      <c r="BG48" s="94"/>
-      <c r="BH48" s="94"/>
-      <c r="BI48" s="94"/>
-      <c r="BJ48" s="94"/>
-      <c r="BK48" s="94"/>
-      <c r="BL48" s="94"/>
-      <c r="BM48" s="94"/>
-      <c r="BN48" s="94"/>
-      <c r="BO48" s="94"/>
-      <c r="BP48" s="94"/>
-      <c r="BQ48" s="94"/>
-      <c r="BR48" s="94"/>
-      <c r="BS48" s="94"/>
-      <c r="BT48" s="94"/>
-      <c r="BU48" s="94"/>
-      <c r="BV48" s="94"/>
-      <c r="BW48" s="94"/>
-      <c r="BX48" s="94"/>
-      <c r="BY48" s="94"/>
-      <c r="BZ48" s="94"/>
-      <c r="CA48" s="94"/>
-      <c r="CB48" s="94"/>
-      <c r="CC48" s="94"/>
-      <c r="CD48" s="94"/>
-      <c r="CE48" s="94"/>
-      <c r="CF48" s="94"/>
-      <c r="CG48" s="94"/>
-      <c r="CH48" s="94"/>
-      <c r="CI48" s="94"/>
-      <c r="CJ48" s="94"/>
-      <c r="CK48" s="94"/>
-      <c r="CS48" s="88"/>
-      <c r="CT48" s="88"/>
-      <c r="CU48" s="88"/>
-      <c r="CV48" s="88"/>
-      <c r="CW48" s="88"/>
-      <c r="CX48" s="88"/>
-      <c r="CY48" s="88"/>
+      <c r="B48" s="95"/>
+      <c r="C48" s="95"/>
+      <c r="D48" s="95"/>
+      <c r="E48" s="95"/>
+      <c r="F48" s="95"/>
+      <c r="G48" s="95"/>
+      <c r="H48" s="95"/>
+      <c r="I48" s="95"/>
+      <c r="J48" s="97"/>
+      <c r="K48" s="97"/>
+      <c r="L48" s="97"/>
+      <c r="M48" s="97"/>
+      <c r="N48" s="97"/>
+      <c r="O48" s="97"/>
+      <c r="P48" s="97"/>
+      <c r="Q48" s="97"/>
+      <c r="R48" s="93"/>
+      <c r="S48" s="93"/>
+      <c r="T48" s="93"/>
+      <c r="U48" s="93"/>
+      <c r="V48" s="93"/>
+      <c r="W48" s="93"/>
+      <c r="X48" s="93"/>
+      <c r="Y48" s="93"/>
+      <c r="Z48" s="98"/>
+      <c r="AA48" s="98"/>
+      <c r="AB48" s="98"/>
+      <c r="AC48" s="98"/>
+      <c r="AD48" s="98"/>
+      <c r="AE48" s="98"/>
+      <c r="AF48" s="98"/>
+      <c r="AG48" s="98"/>
+      <c r="AH48" s="98"/>
+      <c r="AI48" s="98"/>
+      <c r="AJ48" s="98"/>
+      <c r="AK48" s="98"/>
+      <c r="AL48" s="98"/>
+      <c r="AM48" s="98"/>
+      <c r="AN48" s="98"/>
+      <c r="AO48" s="98"/>
+      <c r="AP48" s="99"/>
+      <c r="AQ48" s="99"/>
+      <c r="AR48" s="99"/>
+      <c r="AS48" s="99"/>
+      <c r="AT48" s="99"/>
+      <c r="AU48" s="99"/>
+      <c r="AV48" s="99"/>
+      <c r="AW48" s="99"/>
+      <c r="AX48" s="89"/>
+      <c r="AY48" s="89"/>
+      <c r="AZ48" s="89"/>
+      <c r="BA48" s="89"/>
+      <c r="BB48" s="89"/>
+      <c r="BC48" s="89"/>
+      <c r="BD48" s="89"/>
+      <c r="BE48" s="89"/>
+      <c r="BF48" s="89"/>
+      <c r="BG48" s="89"/>
+      <c r="BH48" s="89"/>
+      <c r="BI48" s="89"/>
+      <c r="BJ48" s="89"/>
+      <c r="BK48" s="89"/>
+      <c r="BL48" s="89"/>
+      <c r="BM48" s="89"/>
+      <c r="BN48" s="89"/>
+      <c r="BO48" s="89"/>
+      <c r="BP48" s="89"/>
+      <c r="BQ48" s="89"/>
+      <c r="BR48" s="89"/>
+      <c r="BS48" s="89"/>
+      <c r="BT48" s="89"/>
+      <c r="BU48" s="89"/>
+      <c r="BV48" s="89"/>
+      <c r="BW48" s="89"/>
+      <c r="BX48" s="89"/>
+      <c r="BY48" s="89"/>
+      <c r="BZ48" s="89"/>
+      <c r="CA48" s="89"/>
+      <c r="CB48" s="89"/>
+      <c r="CC48" s="89"/>
+      <c r="CD48" s="89"/>
+      <c r="CE48" s="89"/>
+      <c r="CF48" s="89"/>
+      <c r="CG48" s="89"/>
+      <c r="CH48" s="89"/>
+      <c r="CI48" s="89"/>
+      <c r="CJ48" s="89"/>
+      <c r="CK48" s="89"/>
+      <c r="CS48" s="106"/>
+      <c r="CT48" s="106"/>
+      <c r="CU48" s="106"/>
+      <c r="CV48" s="106"/>
+      <c r="CW48" s="106"/>
+      <c r="CX48" s="106"/>
+      <c r="CY48" s="106"/>
       <c r="CZ48" s="76"/>
     </row>
     <row r="49" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A49" s="63">
         <v>24</v>
       </c>
-      <c r="B49" s="90"/>
-      <c r="C49" s="90"/>
-      <c r="D49" s="90"/>
-      <c r="E49" s="90"/>
-      <c r="F49" s="90"/>
-      <c r="G49" s="90"/>
-      <c r="H49" s="90"/>
-      <c r="I49" s="90"/>
-      <c r="J49" s="116"/>
-      <c r="K49" s="116"/>
-      <c r="L49" s="116"/>
-      <c r="M49" s="116"/>
-      <c r="N49" s="116"/>
-      <c r="O49" s="116"/>
-      <c r="P49" s="116"/>
-      <c r="Q49" s="116"/>
-      <c r="R49" s="100"/>
-      <c r="S49" s="100"/>
-      <c r="T49" s="100"/>
-      <c r="U49" s="100"/>
-      <c r="V49" s="100"/>
-      <c r="W49" s="100"/>
-      <c r="X49" s="100"/>
-      <c r="Y49" s="100"/>
-      <c r="Z49" s="95"/>
-      <c r="AA49" s="95"/>
-      <c r="AB49" s="95"/>
-      <c r="AC49" s="95"/>
-      <c r="AD49" s="95"/>
-      <c r="AE49" s="95"/>
-      <c r="AF49" s="95"/>
-      <c r="AG49" s="95"/>
-      <c r="AH49" s="95"/>
-      <c r="AI49" s="95"/>
-      <c r="AJ49" s="95"/>
-      <c r="AK49" s="95"/>
-      <c r="AL49" s="95"/>
-      <c r="AM49" s="95"/>
-      <c r="AN49" s="95"/>
-      <c r="AO49" s="95"/>
-      <c r="AP49" s="102"/>
-      <c r="AQ49" s="102"/>
-      <c r="AR49" s="102"/>
-      <c r="AS49" s="102"/>
-      <c r="AT49" s="102"/>
-      <c r="AU49" s="102"/>
-      <c r="AV49" s="102"/>
-      <c r="AW49" s="102"/>
-      <c r="AX49" s="94"/>
-      <c r="AY49" s="94"/>
-      <c r="AZ49" s="94"/>
-      <c r="BA49" s="94"/>
-      <c r="BB49" s="94"/>
-      <c r="BC49" s="94"/>
-      <c r="BD49" s="94"/>
-      <c r="BE49" s="94"/>
-      <c r="BF49" s="94"/>
-      <c r="BG49" s="94"/>
-      <c r="BH49" s="94"/>
-      <c r="BI49" s="94"/>
-      <c r="BJ49" s="94"/>
-      <c r="BK49" s="94"/>
-      <c r="BL49" s="94"/>
-      <c r="BM49" s="94"/>
-      <c r="BN49" s="94"/>
-      <c r="BO49" s="94"/>
-      <c r="BP49" s="94"/>
-      <c r="BQ49" s="94"/>
-      <c r="BR49" s="94"/>
-      <c r="BS49" s="94"/>
-      <c r="BT49" s="94"/>
-      <c r="BU49" s="94"/>
+      <c r="B49" s="95"/>
+      <c r="C49" s="95"/>
+      <c r="D49" s="95"/>
+      <c r="E49" s="95"/>
+      <c r="F49" s="95"/>
+      <c r="G49" s="95"/>
+      <c r="H49" s="95"/>
+      <c r="I49" s="95"/>
+      <c r="J49" s="97"/>
+      <c r="K49" s="97"/>
+      <c r="L49" s="97"/>
+      <c r="M49" s="97"/>
+      <c r="N49" s="97"/>
+      <c r="O49" s="97"/>
+      <c r="P49" s="97"/>
+      <c r="Q49" s="97"/>
+      <c r="R49" s="93"/>
+      <c r="S49" s="93"/>
+      <c r="T49" s="93"/>
+      <c r="U49" s="93"/>
+      <c r="V49" s="93"/>
+      <c r="W49" s="93"/>
+      <c r="X49" s="93"/>
+      <c r="Y49" s="93"/>
+      <c r="Z49" s="98"/>
+      <c r="AA49" s="98"/>
+      <c r="AB49" s="98"/>
+      <c r="AC49" s="98"/>
+      <c r="AD49" s="98"/>
+      <c r="AE49" s="98"/>
+      <c r="AF49" s="98"/>
+      <c r="AG49" s="98"/>
+      <c r="AH49" s="98"/>
+      <c r="AI49" s="98"/>
+      <c r="AJ49" s="98"/>
+      <c r="AK49" s="98"/>
+      <c r="AL49" s="98"/>
+      <c r="AM49" s="98"/>
+      <c r="AN49" s="98"/>
+      <c r="AO49" s="98"/>
+      <c r="AP49" s="99"/>
+      <c r="AQ49" s="99"/>
+      <c r="AR49" s="99"/>
+      <c r="AS49" s="99"/>
+      <c r="AT49" s="99"/>
+      <c r="AU49" s="99"/>
+      <c r="AV49" s="99"/>
+      <c r="AW49" s="99"/>
+      <c r="AX49" s="89"/>
+      <c r="AY49" s="89"/>
+      <c r="AZ49" s="89"/>
+      <c r="BA49" s="89"/>
+      <c r="BB49" s="89"/>
+      <c r="BC49" s="89"/>
+      <c r="BD49" s="89"/>
+      <c r="BE49" s="89"/>
+      <c r="BF49" s="89"/>
+      <c r="BG49" s="89"/>
+      <c r="BH49" s="89"/>
+      <c r="BI49" s="89"/>
+      <c r="BJ49" s="89"/>
+      <c r="BK49" s="89"/>
+      <c r="BL49" s="89"/>
+      <c r="BM49" s="89"/>
+      <c r="BN49" s="89"/>
+      <c r="BO49" s="89"/>
+      <c r="BP49" s="89"/>
+      <c r="BQ49" s="89"/>
+      <c r="BR49" s="89"/>
+      <c r="BS49" s="89"/>
+      <c r="BT49" s="89"/>
+      <c r="BU49" s="89"/>
       <c r="BV49" s="73"/>
       <c r="BW49" s="73"/>
       <c r="BX49" s="73"/>
@@ -5658,99 +5658,99 @@
       <c r="CA49" s="73"/>
       <c r="CB49" s="73"/>
       <c r="CC49" s="73"/>
-      <c r="CD49" s="94"/>
-      <c r="CE49" s="94"/>
-      <c r="CF49" s="94"/>
-      <c r="CG49" s="94"/>
-      <c r="CH49" s="94"/>
-      <c r="CI49" s="94"/>
-      <c r="CJ49" s="94"/>
-      <c r="CK49" s="94"/>
-      <c r="CS49" s="88"/>
-      <c r="CT49" s="88"/>
-      <c r="CU49" s="88"/>
-      <c r="CV49" s="88"/>
-      <c r="CW49" s="88"/>
-      <c r="CX49" s="88"/>
-      <c r="CY49" s="88"/>
+      <c r="CD49" s="89"/>
+      <c r="CE49" s="89"/>
+      <c r="CF49" s="89"/>
+      <c r="CG49" s="89"/>
+      <c r="CH49" s="89"/>
+      <c r="CI49" s="89"/>
+      <c r="CJ49" s="89"/>
+      <c r="CK49" s="89"/>
+      <c r="CS49" s="106"/>
+      <c r="CT49" s="106"/>
+      <c r="CU49" s="106"/>
+      <c r="CV49" s="106"/>
+      <c r="CW49" s="106"/>
+      <c r="CX49" s="106"/>
+      <c r="CY49" s="106"/>
       <c r="CZ49" s="76"/>
     </row>
     <row r="50" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A50" s="63">
         <v>25</v>
       </c>
-      <c r="B50" s="90"/>
-      <c r="C50" s="90"/>
-      <c r="D50" s="90"/>
-      <c r="E50" s="90"/>
-      <c r="F50" s="90"/>
-      <c r="G50" s="90"/>
-      <c r="H50" s="90"/>
-      <c r="I50" s="90"/>
-      <c r="J50" s="116"/>
-      <c r="K50" s="116"/>
-      <c r="L50" s="116"/>
-      <c r="M50" s="116"/>
-      <c r="N50" s="116"/>
-      <c r="O50" s="116"/>
-      <c r="P50" s="116"/>
-      <c r="Q50" s="116"/>
-      <c r="R50" s="100"/>
-      <c r="S50" s="100"/>
-      <c r="T50" s="100"/>
-      <c r="U50" s="100"/>
-      <c r="V50" s="100"/>
-      <c r="W50" s="100"/>
-      <c r="X50" s="100"/>
-      <c r="Y50" s="100"/>
-      <c r="Z50" s="95"/>
-      <c r="AA50" s="95"/>
-      <c r="AB50" s="95"/>
-      <c r="AC50" s="95"/>
-      <c r="AD50" s="95"/>
-      <c r="AE50" s="95"/>
-      <c r="AF50" s="95"/>
-      <c r="AG50" s="95"/>
-      <c r="AH50" s="95"/>
-      <c r="AI50" s="95"/>
-      <c r="AJ50" s="95"/>
-      <c r="AK50" s="95"/>
-      <c r="AL50" s="95"/>
-      <c r="AM50" s="95"/>
-      <c r="AN50" s="95"/>
-      <c r="AO50" s="95"/>
-      <c r="AP50" s="102"/>
-      <c r="AQ50" s="102"/>
-      <c r="AR50" s="102"/>
-      <c r="AS50" s="102"/>
-      <c r="AT50" s="102"/>
-      <c r="AU50" s="102"/>
-      <c r="AV50" s="102"/>
-      <c r="AW50" s="102"/>
-      <c r="AX50" s="94"/>
-      <c r="AY50" s="94"/>
-      <c r="AZ50" s="94"/>
-      <c r="BA50" s="94"/>
-      <c r="BB50" s="94"/>
-      <c r="BC50" s="94"/>
-      <c r="BD50" s="94"/>
-      <c r="BE50" s="94"/>
-      <c r="BF50" s="94"/>
-      <c r="BG50" s="94"/>
-      <c r="BH50" s="94"/>
-      <c r="BI50" s="94"/>
-      <c r="BJ50" s="94"/>
-      <c r="BK50" s="94"/>
-      <c r="BL50" s="94"/>
-      <c r="BM50" s="94"/>
-      <c r="BN50" s="94"/>
-      <c r="BO50" s="94"/>
-      <c r="BP50" s="94"/>
-      <c r="BQ50" s="94"/>
-      <c r="BR50" s="94"/>
-      <c r="BS50" s="94"/>
-      <c r="BT50" s="94"/>
-      <c r="BU50" s="94"/>
+      <c r="B50" s="95"/>
+      <c r="C50" s="95"/>
+      <c r="D50" s="95"/>
+      <c r="E50" s="95"/>
+      <c r="F50" s="95"/>
+      <c r="G50" s="95"/>
+      <c r="H50" s="95"/>
+      <c r="I50" s="95"/>
+      <c r="J50" s="97"/>
+      <c r="K50" s="97"/>
+      <c r="L50" s="97"/>
+      <c r="M50" s="97"/>
+      <c r="N50" s="97"/>
+      <c r="O50" s="97"/>
+      <c r="P50" s="97"/>
+      <c r="Q50" s="97"/>
+      <c r="R50" s="93"/>
+      <c r="S50" s="93"/>
+      <c r="T50" s="93"/>
+      <c r="U50" s="93"/>
+      <c r="V50" s="93"/>
+      <c r="W50" s="93"/>
+      <c r="X50" s="93"/>
+      <c r="Y50" s="93"/>
+      <c r="Z50" s="98"/>
+      <c r="AA50" s="98"/>
+      <c r="AB50" s="98"/>
+      <c r="AC50" s="98"/>
+      <c r="AD50" s="98"/>
+      <c r="AE50" s="98"/>
+      <c r="AF50" s="98"/>
+      <c r="AG50" s="98"/>
+      <c r="AH50" s="98"/>
+      <c r="AI50" s="98"/>
+      <c r="AJ50" s="98"/>
+      <c r="AK50" s="98"/>
+      <c r="AL50" s="98"/>
+      <c r="AM50" s="98"/>
+      <c r="AN50" s="98"/>
+      <c r="AO50" s="98"/>
+      <c r="AP50" s="99"/>
+      <c r="AQ50" s="99"/>
+      <c r="AR50" s="99"/>
+      <c r="AS50" s="99"/>
+      <c r="AT50" s="99"/>
+      <c r="AU50" s="99"/>
+      <c r="AV50" s="99"/>
+      <c r="AW50" s="99"/>
+      <c r="AX50" s="89"/>
+      <c r="AY50" s="89"/>
+      <c r="AZ50" s="89"/>
+      <c r="BA50" s="89"/>
+      <c r="BB50" s="89"/>
+      <c r="BC50" s="89"/>
+      <c r="BD50" s="89"/>
+      <c r="BE50" s="89"/>
+      <c r="BF50" s="89"/>
+      <c r="BG50" s="89"/>
+      <c r="BH50" s="89"/>
+      <c r="BI50" s="89"/>
+      <c r="BJ50" s="89"/>
+      <c r="BK50" s="89"/>
+      <c r="BL50" s="89"/>
+      <c r="BM50" s="89"/>
+      <c r="BN50" s="89"/>
+      <c r="BO50" s="89"/>
+      <c r="BP50" s="89"/>
+      <c r="BQ50" s="89"/>
+      <c r="BR50" s="89"/>
+      <c r="BS50" s="89"/>
+      <c r="BT50" s="89"/>
+      <c r="BU50" s="89"/>
       <c r="BV50" s="73"/>
       <c r="BW50" s="73"/>
       <c r="BX50" s="73"/>
@@ -5759,99 +5759,99 @@
       <c r="CA50" s="73"/>
       <c r="CB50" s="73"/>
       <c r="CC50" s="73"/>
-      <c r="CD50" s="94"/>
-      <c r="CE50" s="94"/>
-      <c r="CF50" s="94"/>
-      <c r="CG50" s="94"/>
-      <c r="CH50" s="94"/>
-      <c r="CI50" s="94"/>
-      <c r="CJ50" s="94"/>
-      <c r="CK50" s="94"/>
-      <c r="CS50" s="89"/>
-      <c r="CT50" s="89"/>
-      <c r="CU50" s="89"/>
-      <c r="CV50" s="89"/>
-      <c r="CW50" s="89"/>
-      <c r="CX50" s="89"/>
-      <c r="CY50" s="89"/>
+      <c r="CD50" s="89"/>
+      <c r="CE50" s="89"/>
+      <c r="CF50" s="89"/>
+      <c r="CG50" s="89"/>
+      <c r="CH50" s="89"/>
+      <c r="CI50" s="89"/>
+      <c r="CJ50" s="89"/>
+      <c r="CK50" s="89"/>
+      <c r="CS50" s="94"/>
+      <c r="CT50" s="94"/>
+      <c r="CU50" s="94"/>
+      <c r="CV50" s="94"/>
+      <c r="CW50" s="94"/>
+      <c r="CX50" s="94"/>
+      <c r="CY50" s="94"/>
       <c r="CZ50" s="76"/>
     </row>
     <row r="51" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A51" s="63">
         <v>26</v>
       </c>
-      <c r="B51" s="90"/>
-      <c r="C51" s="90"/>
-      <c r="D51" s="90"/>
-      <c r="E51" s="90"/>
-      <c r="F51" s="90"/>
-      <c r="G51" s="90"/>
-      <c r="H51" s="90"/>
-      <c r="I51" s="90"/>
-      <c r="J51" s="116"/>
-      <c r="K51" s="116"/>
-      <c r="L51" s="116"/>
-      <c r="M51" s="116"/>
-      <c r="N51" s="116"/>
-      <c r="O51" s="116"/>
-      <c r="P51" s="116"/>
-      <c r="Q51" s="116"/>
-      <c r="R51" s="100"/>
-      <c r="S51" s="100"/>
-      <c r="T51" s="100"/>
-      <c r="U51" s="100"/>
-      <c r="V51" s="100"/>
-      <c r="W51" s="100"/>
-      <c r="X51" s="100"/>
-      <c r="Y51" s="100"/>
-      <c r="Z51" s="95"/>
-      <c r="AA51" s="95"/>
-      <c r="AB51" s="95"/>
-      <c r="AC51" s="95"/>
-      <c r="AD51" s="95"/>
-      <c r="AE51" s="95"/>
-      <c r="AF51" s="95"/>
-      <c r="AG51" s="95"/>
-      <c r="AH51" s="95"/>
-      <c r="AI51" s="95"/>
-      <c r="AJ51" s="95"/>
-      <c r="AK51" s="95"/>
-      <c r="AL51" s="95"/>
-      <c r="AM51" s="95"/>
-      <c r="AN51" s="95"/>
-      <c r="AO51" s="95"/>
-      <c r="AP51" s="102"/>
-      <c r="AQ51" s="102"/>
-      <c r="AR51" s="102"/>
-      <c r="AS51" s="102"/>
-      <c r="AT51" s="102"/>
-      <c r="AU51" s="102"/>
-      <c r="AV51" s="102"/>
-      <c r="AW51" s="102"/>
-      <c r="AX51" s="94"/>
-      <c r="AY51" s="94"/>
-      <c r="AZ51" s="94"/>
-      <c r="BA51" s="94"/>
-      <c r="BB51" s="94"/>
-      <c r="BC51" s="94"/>
-      <c r="BD51" s="94"/>
-      <c r="BE51" s="94"/>
-      <c r="BF51" s="94"/>
-      <c r="BG51" s="94"/>
-      <c r="BH51" s="94"/>
-      <c r="BI51" s="94"/>
-      <c r="BJ51" s="94"/>
-      <c r="BK51" s="94"/>
-      <c r="BL51" s="94"/>
-      <c r="BM51" s="94"/>
-      <c r="BN51" s="94"/>
-      <c r="BO51" s="94"/>
-      <c r="BP51" s="94"/>
-      <c r="BQ51" s="94"/>
-      <c r="BR51" s="94"/>
-      <c r="BS51" s="94"/>
-      <c r="BT51" s="94"/>
-      <c r="BU51" s="94"/>
+      <c r="B51" s="95"/>
+      <c r="C51" s="95"/>
+      <c r="D51" s="95"/>
+      <c r="E51" s="95"/>
+      <c r="F51" s="95"/>
+      <c r="G51" s="95"/>
+      <c r="H51" s="95"/>
+      <c r="I51" s="95"/>
+      <c r="J51" s="97"/>
+      <c r="K51" s="97"/>
+      <c r="L51" s="97"/>
+      <c r="M51" s="97"/>
+      <c r="N51" s="97"/>
+      <c r="O51" s="97"/>
+      <c r="P51" s="97"/>
+      <c r="Q51" s="97"/>
+      <c r="R51" s="93"/>
+      <c r="S51" s="93"/>
+      <c r="T51" s="93"/>
+      <c r="U51" s="93"/>
+      <c r="V51" s="93"/>
+      <c r="W51" s="93"/>
+      <c r="X51" s="93"/>
+      <c r="Y51" s="93"/>
+      <c r="Z51" s="98"/>
+      <c r="AA51" s="98"/>
+      <c r="AB51" s="98"/>
+      <c r="AC51" s="98"/>
+      <c r="AD51" s="98"/>
+      <c r="AE51" s="98"/>
+      <c r="AF51" s="98"/>
+      <c r="AG51" s="98"/>
+      <c r="AH51" s="98"/>
+      <c r="AI51" s="98"/>
+      <c r="AJ51" s="98"/>
+      <c r="AK51" s="98"/>
+      <c r="AL51" s="98"/>
+      <c r="AM51" s="98"/>
+      <c r="AN51" s="98"/>
+      <c r="AO51" s="98"/>
+      <c r="AP51" s="99"/>
+      <c r="AQ51" s="99"/>
+      <c r="AR51" s="99"/>
+      <c r="AS51" s="99"/>
+      <c r="AT51" s="99"/>
+      <c r="AU51" s="99"/>
+      <c r="AV51" s="99"/>
+      <c r="AW51" s="99"/>
+      <c r="AX51" s="89"/>
+      <c r="AY51" s="89"/>
+      <c r="AZ51" s="89"/>
+      <c r="BA51" s="89"/>
+      <c r="BB51" s="89"/>
+      <c r="BC51" s="89"/>
+      <c r="BD51" s="89"/>
+      <c r="BE51" s="89"/>
+      <c r="BF51" s="89"/>
+      <c r="BG51" s="89"/>
+      <c r="BH51" s="89"/>
+      <c r="BI51" s="89"/>
+      <c r="BJ51" s="89"/>
+      <c r="BK51" s="89"/>
+      <c r="BL51" s="89"/>
+      <c r="BM51" s="89"/>
+      <c r="BN51" s="89"/>
+      <c r="BO51" s="89"/>
+      <c r="BP51" s="89"/>
+      <c r="BQ51" s="89"/>
+      <c r="BR51" s="89"/>
+      <c r="BS51" s="89"/>
+      <c r="BT51" s="89"/>
+      <c r="BU51" s="89"/>
       <c r="BV51" s="73"/>
       <c r="BW51" s="73"/>
       <c r="BX51" s="73"/>
@@ -5860,98 +5860,98 @@
       <c r="CA51" s="73"/>
       <c r="CB51" s="73"/>
       <c r="CC51" s="73"/>
-      <c r="CD51" s="94"/>
-      <c r="CE51" s="94"/>
-      <c r="CF51" s="94"/>
-      <c r="CG51" s="94"/>
-      <c r="CH51" s="94"/>
-      <c r="CI51" s="94"/>
-      <c r="CJ51" s="94"/>
-      <c r="CK51" s="94"/>
-      <c r="CS51" s="88"/>
-      <c r="CT51" s="88"/>
-      <c r="CU51" s="88"/>
-      <c r="CV51" s="88"/>
-      <c r="CW51" s="88"/>
-      <c r="CX51" s="88"/>
-      <c r="CY51" s="88"/>
+      <c r="CD51" s="89"/>
+      <c r="CE51" s="89"/>
+      <c r="CF51" s="89"/>
+      <c r="CG51" s="89"/>
+      <c r="CH51" s="89"/>
+      <c r="CI51" s="89"/>
+      <c r="CJ51" s="89"/>
+      <c r="CK51" s="89"/>
+      <c r="CS51" s="106"/>
+      <c r="CT51" s="106"/>
+      <c r="CU51" s="106"/>
+      <c r="CV51" s="106"/>
+      <c r="CW51" s="106"/>
+      <c r="CX51" s="106"/>
+      <c r="CY51" s="106"/>
     </row>
     <row r="52" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A52" s="63">
         <v>27</v>
       </c>
-      <c r="B52" s="90"/>
-      <c r="C52" s="90"/>
-      <c r="D52" s="90"/>
-      <c r="E52" s="90"/>
-      <c r="F52" s="90"/>
-      <c r="G52" s="90"/>
-      <c r="H52" s="90"/>
-      <c r="I52" s="90"/>
-      <c r="J52" s="116"/>
-      <c r="K52" s="116"/>
-      <c r="L52" s="116"/>
-      <c r="M52" s="116"/>
-      <c r="N52" s="116"/>
-      <c r="O52" s="116"/>
-      <c r="P52" s="116"/>
-      <c r="Q52" s="116"/>
-      <c r="R52" s="100"/>
-      <c r="S52" s="100"/>
-      <c r="T52" s="100"/>
-      <c r="U52" s="100"/>
-      <c r="V52" s="100"/>
-      <c r="W52" s="100"/>
-      <c r="X52" s="100"/>
-      <c r="Y52" s="100"/>
-      <c r="Z52" s="95"/>
-      <c r="AA52" s="95"/>
-      <c r="AB52" s="95"/>
-      <c r="AC52" s="95"/>
-      <c r="AD52" s="95"/>
-      <c r="AE52" s="95"/>
-      <c r="AF52" s="95"/>
-      <c r="AG52" s="95"/>
-      <c r="AH52" s="95"/>
-      <c r="AI52" s="95"/>
-      <c r="AJ52" s="95"/>
-      <c r="AK52" s="95"/>
-      <c r="AL52" s="95"/>
-      <c r="AM52" s="95"/>
-      <c r="AN52" s="95"/>
-      <c r="AO52" s="95"/>
-      <c r="AP52" s="102"/>
-      <c r="AQ52" s="102"/>
-      <c r="AR52" s="102"/>
-      <c r="AS52" s="102"/>
-      <c r="AT52" s="102"/>
-      <c r="AU52" s="102"/>
-      <c r="AV52" s="102"/>
-      <c r="AW52" s="102"/>
-      <c r="AX52" s="94"/>
-      <c r="AY52" s="94"/>
-      <c r="AZ52" s="94"/>
-      <c r="BA52" s="94"/>
-      <c r="BB52" s="94"/>
-      <c r="BC52" s="94"/>
-      <c r="BD52" s="94"/>
-      <c r="BE52" s="94"/>
-      <c r="BF52" s="94"/>
-      <c r="BG52" s="94"/>
-      <c r="BH52" s="94"/>
-      <c r="BI52" s="94"/>
-      <c r="BJ52" s="94"/>
-      <c r="BK52" s="94"/>
-      <c r="BL52" s="94"/>
-      <c r="BM52" s="94"/>
-      <c r="BN52" s="94"/>
-      <c r="BO52" s="94"/>
-      <c r="BP52" s="94"/>
-      <c r="BQ52" s="94"/>
-      <c r="BR52" s="94"/>
-      <c r="BS52" s="94"/>
-      <c r="BT52" s="94"/>
-      <c r="BU52" s="94"/>
+      <c r="B52" s="95"/>
+      <c r="C52" s="95"/>
+      <c r="D52" s="95"/>
+      <c r="E52" s="95"/>
+      <c r="F52" s="95"/>
+      <c r="G52" s="95"/>
+      <c r="H52" s="95"/>
+      <c r="I52" s="95"/>
+      <c r="J52" s="97"/>
+      <c r="K52" s="97"/>
+      <c r="L52" s="97"/>
+      <c r="M52" s="97"/>
+      <c r="N52" s="97"/>
+      <c r="O52" s="97"/>
+      <c r="P52" s="97"/>
+      <c r="Q52" s="97"/>
+      <c r="R52" s="93"/>
+      <c r="S52" s="93"/>
+      <c r="T52" s="93"/>
+      <c r="U52" s="93"/>
+      <c r="V52" s="93"/>
+      <c r="W52" s="93"/>
+      <c r="X52" s="93"/>
+      <c r="Y52" s="93"/>
+      <c r="Z52" s="98"/>
+      <c r="AA52" s="98"/>
+      <c r="AB52" s="98"/>
+      <c r="AC52" s="98"/>
+      <c r="AD52" s="98"/>
+      <c r="AE52" s="98"/>
+      <c r="AF52" s="98"/>
+      <c r="AG52" s="98"/>
+      <c r="AH52" s="98"/>
+      <c r="AI52" s="98"/>
+      <c r="AJ52" s="98"/>
+      <c r="AK52" s="98"/>
+      <c r="AL52" s="98"/>
+      <c r="AM52" s="98"/>
+      <c r="AN52" s="98"/>
+      <c r="AO52" s="98"/>
+      <c r="AP52" s="99"/>
+      <c r="AQ52" s="99"/>
+      <c r="AR52" s="99"/>
+      <c r="AS52" s="99"/>
+      <c r="AT52" s="99"/>
+      <c r="AU52" s="99"/>
+      <c r="AV52" s="99"/>
+      <c r="AW52" s="99"/>
+      <c r="AX52" s="89"/>
+      <c r="AY52" s="89"/>
+      <c r="AZ52" s="89"/>
+      <c r="BA52" s="89"/>
+      <c r="BB52" s="89"/>
+      <c r="BC52" s="89"/>
+      <c r="BD52" s="89"/>
+      <c r="BE52" s="89"/>
+      <c r="BF52" s="89"/>
+      <c r="BG52" s="89"/>
+      <c r="BH52" s="89"/>
+      <c r="BI52" s="89"/>
+      <c r="BJ52" s="89"/>
+      <c r="BK52" s="89"/>
+      <c r="BL52" s="89"/>
+      <c r="BM52" s="89"/>
+      <c r="BN52" s="89"/>
+      <c r="BO52" s="89"/>
+      <c r="BP52" s="89"/>
+      <c r="BQ52" s="89"/>
+      <c r="BR52" s="89"/>
+      <c r="BS52" s="89"/>
+      <c r="BT52" s="89"/>
+      <c r="BU52" s="89"/>
       <c r="BV52" s="73"/>
       <c r="BW52" s="73"/>
       <c r="BX52" s="73"/>
@@ -5960,98 +5960,98 @@
       <c r="CA52" s="73"/>
       <c r="CB52" s="73"/>
       <c r="CC52" s="73"/>
-      <c r="CD52" s="94"/>
-      <c r="CE52" s="94"/>
-      <c r="CF52" s="94"/>
-      <c r="CG52" s="94"/>
-      <c r="CH52" s="94"/>
-      <c r="CI52" s="94"/>
-      <c r="CJ52" s="94"/>
-      <c r="CK52" s="94"/>
-      <c r="CS52" s="88"/>
-      <c r="CT52" s="88"/>
-      <c r="CU52" s="88"/>
-      <c r="CV52" s="88"/>
-      <c r="CW52" s="88"/>
-      <c r="CX52" s="88"/>
-      <c r="CY52" s="88"/>
+      <c r="CD52" s="89"/>
+      <c r="CE52" s="89"/>
+      <c r="CF52" s="89"/>
+      <c r="CG52" s="89"/>
+      <c r="CH52" s="89"/>
+      <c r="CI52" s="89"/>
+      <c r="CJ52" s="89"/>
+      <c r="CK52" s="89"/>
+      <c r="CS52" s="106"/>
+      <c r="CT52" s="106"/>
+      <c r="CU52" s="106"/>
+      <c r="CV52" s="106"/>
+      <c r="CW52" s="106"/>
+      <c r="CX52" s="106"/>
+      <c r="CY52" s="106"/>
     </row>
     <row r="53" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A53" s="63">
         <v>28</v>
       </c>
-      <c r="B53" s="90"/>
-      <c r="C53" s="90"/>
-      <c r="D53" s="90"/>
-      <c r="E53" s="90"/>
-      <c r="F53" s="90"/>
-      <c r="G53" s="90"/>
-      <c r="H53" s="90"/>
-      <c r="I53" s="90"/>
-      <c r="J53" s="116"/>
-      <c r="K53" s="116"/>
-      <c r="L53" s="116"/>
-      <c r="M53" s="116"/>
-      <c r="N53" s="116"/>
-      <c r="O53" s="116"/>
-      <c r="P53" s="116"/>
-      <c r="Q53" s="116"/>
-      <c r="R53" s="100"/>
-      <c r="S53" s="100"/>
-      <c r="T53" s="100"/>
-      <c r="U53" s="100"/>
-      <c r="V53" s="100"/>
-      <c r="W53" s="100"/>
-      <c r="X53" s="100"/>
-      <c r="Y53" s="100"/>
-      <c r="Z53" s="95"/>
-      <c r="AA53" s="95"/>
-      <c r="AB53" s="95"/>
-      <c r="AC53" s="95"/>
-      <c r="AD53" s="95"/>
-      <c r="AE53" s="95"/>
-      <c r="AF53" s="95"/>
-      <c r="AG53" s="95"/>
-      <c r="AH53" s="95"/>
-      <c r="AI53" s="95"/>
-      <c r="AJ53" s="95"/>
-      <c r="AK53" s="95"/>
-      <c r="AL53" s="95"/>
-      <c r="AM53" s="95"/>
-      <c r="AN53" s="95"/>
-      <c r="AO53" s="95"/>
-      <c r="AP53" s="102"/>
-      <c r="AQ53" s="102"/>
-      <c r="AR53" s="102"/>
-      <c r="AS53" s="102"/>
-      <c r="AT53" s="102"/>
-      <c r="AU53" s="102"/>
-      <c r="AV53" s="102"/>
-      <c r="AW53" s="102"/>
-      <c r="AX53" s="94"/>
-      <c r="AY53" s="94"/>
-      <c r="AZ53" s="94"/>
-      <c r="BA53" s="94"/>
-      <c r="BB53" s="94"/>
-      <c r="BC53" s="94"/>
-      <c r="BD53" s="94"/>
-      <c r="BE53" s="94"/>
-      <c r="BF53" s="94"/>
-      <c r="BG53" s="94"/>
-      <c r="BH53" s="94"/>
-      <c r="BI53" s="94"/>
-      <c r="BJ53" s="94"/>
-      <c r="BK53" s="94"/>
-      <c r="BL53" s="94"/>
-      <c r="BM53" s="94"/>
-      <c r="BN53" s="94"/>
-      <c r="BO53" s="94"/>
-      <c r="BP53" s="94"/>
-      <c r="BQ53" s="94"/>
-      <c r="BR53" s="94"/>
-      <c r="BS53" s="94"/>
-      <c r="BT53" s="94"/>
-      <c r="BU53" s="94"/>
+      <c r="B53" s="95"/>
+      <c r="C53" s="95"/>
+      <c r="D53" s="95"/>
+      <c r="E53" s="95"/>
+      <c r="F53" s="95"/>
+      <c r="G53" s="95"/>
+      <c r="H53" s="95"/>
+      <c r="I53" s="95"/>
+      <c r="J53" s="97"/>
+      <c r="K53" s="97"/>
+      <c r="L53" s="97"/>
+      <c r="M53" s="97"/>
+      <c r="N53" s="97"/>
+      <c r="O53" s="97"/>
+      <c r="P53" s="97"/>
+      <c r="Q53" s="97"/>
+      <c r="R53" s="93"/>
+      <c r="S53" s="93"/>
+      <c r="T53" s="93"/>
+      <c r="U53" s="93"/>
+      <c r="V53" s="93"/>
+      <c r="W53" s="93"/>
+      <c r="X53" s="93"/>
+      <c r="Y53" s="93"/>
+      <c r="Z53" s="98"/>
+      <c r="AA53" s="98"/>
+      <c r="AB53" s="98"/>
+      <c r="AC53" s="98"/>
+      <c r="AD53" s="98"/>
+      <c r="AE53" s="98"/>
+      <c r="AF53" s="98"/>
+      <c r="AG53" s="98"/>
+      <c r="AH53" s="98"/>
+      <c r="AI53" s="98"/>
+      <c r="AJ53" s="98"/>
+      <c r="AK53" s="98"/>
+      <c r="AL53" s="98"/>
+      <c r="AM53" s="98"/>
+      <c r="AN53" s="98"/>
+      <c r="AO53" s="98"/>
+      <c r="AP53" s="99"/>
+      <c r="AQ53" s="99"/>
+      <c r="AR53" s="99"/>
+      <c r="AS53" s="99"/>
+      <c r="AT53" s="99"/>
+      <c r="AU53" s="99"/>
+      <c r="AV53" s="99"/>
+      <c r="AW53" s="99"/>
+      <c r="AX53" s="89"/>
+      <c r="AY53" s="89"/>
+      <c r="AZ53" s="89"/>
+      <c r="BA53" s="89"/>
+      <c r="BB53" s="89"/>
+      <c r="BC53" s="89"/>
+      <c r="BD53" s="89"/>
+      <c r="BE53" s="89"/>
+      <c r="BF53" s="89"/>
+      <c r="BG53" s="89"/>
+      <c r="BH53" s="89"/>
+      <c r="BI53" s="89"/>
+      <c r="BJ53" s="89"/>
+      <c r="BK53" s="89"/>
+      <c r="BL53" s="89"/>
+      <c r="BM53" s="89"/>
+      <c r="BN53" s="89"/>
+      <c r="BO53" s="89"/>
+      <c r="BP53" s="89"/>
+      <c r="BQ53" s="89"/>
+      <c r="BR53" s="89"/>
+      <c r="BS53" s="89"/>
+      <c r="BT53" s="89"/>
+      <c r="BU53" s="89"/>
       <c r="BV53" s="73"/>
       <c r="BW53" s="73"/>
       <c r="BX53" s="73"/>
@@ -6060,14 +6060,14 @@
       <c r="CA53" s="73"/>
       <c r="CB53" s="73"/>
       <c r="CC53" s="73"/>
-      <c r="CD53" s="94"/>
-      <c r="CE53" s="94"/>
-      <c r="CF53" s="94"/>
-      <c r="CG53" s="94"/>
-      <c r="CH53" s="94"/>
-      <c r="CI53" s="94"/>
-      <c r="CJ53" s="94"/>
-      <c r="CK53" s="94"/>
+      <c r="CD53" s="89"/>
+      <c r="CE53" s="89"/>
+      <c r="CF53" s="89"/>
+      <c r="CG53" s="89"/>
+      <c r="CH53" s="89"/>
+      <c r="CI53" s="89"/>
+      <c r="CJ53" s="89"/>
+      <c r="CK53" s="89"/>
       <c r="CT53" s="76"/>
       <c r="CU53" s="76"/>
       <c r="CV53" s="76"/>
@@ -6079,78 +6079,78 @@
       <c r="A54" s="63">
         <v>29</v>
       </c>
-      <c r="B54" s="90"/>
-      <c r="C54" s="90"/>
-      <c r="D54" s="90"/>
-      <c r="E54" s="90"/>
-      <c r="F54" s="90"/>
-      <c r="G54" s="90"/>
-      <c r="H54" s="90"/>
-      <c r="I54" s="90"/>
-      <c r="J54" s="116"/>
-      <c r="K54" s="116"/>
-      <c r="L54" s="116"/>
-      <c r="M54" s="116"/>
-      <c r="N54" s="116"/>
-      <c r="O54" s="116"/>
-      <c r="P54" s="116"/>
-      <c r="Q54" s="116"/>
-      <c r="R54" s="100"/>
-      <c r="S54" s="100"/>
-      <c r="T54" s="100"/>
-      <c r="U54" s="100"/>
-      <c r="V54" s="100"/>
-      <c r="W54" s="100"/>
-      <c r="X54" s="100"/>
-      <c r="Y54" s="100"/>
-      <c r="Z54" s="95"/>
-      <c r="AA54" s="95"/>
-      <c r="AB54" s="95"/>
-      <c r="AC54" s="95"/>
-      <c r="AD54" s="95"/>
-      <c r="AE54" s="95"/>
-      <c r="AF54" s="95"/>
-      <c r="AG54" s="95"/>
-      <c r="AH54" s="95"/>
-      <c r="AI54" s="95"/>
-      <c r="AJ54" s="95"/>
-      <c r="AK54" s="95"/>
-      <c r="AL54" s="95"/>
-      <c r="AM54" s="95"/>
-      <c r="AN54" s="95"/>
-      <c r="AO54" s="95"/>
-      <c r="AP54" s="102"/>
-      <c r="AQ54" s="102"/>
-      <c r="AR54" s="102"/>
-      <c r="AS54" s="102"/>
-      <c r="AT54" s="102"/>
-      <c r="AU54" s="102"/>
-      <c r="AV54" s="102"/>
-      <c r="AW54" s="102"/>
-      <c r="AX54" s="94"/>
-      <c r="AY54" s="94"/>
-      <c r="AZ54" s="94"/>
-      <c r="BA54" s="94"/>
-      <c r="BB54" s="94"/>
-      <c r="BC54" s="94"/>
-      <c r="BD54" s="94"/>
-      <c r="BE54" s="94"/>
-      <c r="BF54" s="94"/>
-      <c r="BG54" s="94"/>
-      <c r="BH54" s="94"/>
-      <c r="BI54" s="94"/>
-      <c r="BJ54" s="94"/>
-      <c r="BK54" s="94"/>
-      <c r="BL54" s="94"/>
-      <c r="BM54" s="94"/>
-      <c r="BN54" s="94"/>
-      <c r="BO54" s="94"/>
-      <c r="BP54" s="94"/>
-      <c r="BQ54" s="94"/>
-      <c r="BR54" s="94"/>
-      <c r="BS54" s="94"/>
-      <c r="BT54" s="94"/>
-      <c r="BU54" s="94"/>
+      <c r="B54" s="95"/>
+      <c r="C54" s="95"/>
+      <c r="D54" s="95"/>
+      <c r="E54" s="95"/>
+      <c r="F54" s="95"/>
+      <c r="G54" s="95"/>
+      <c r="H54" s="95"/>
+      <c r="I54" s="95"/>
+      <c r="J54" s="97"/>
+      <c r="K54" s="97"/>
+      <c r="L54" s="97"/>
+      <c r="M54" s="97"/>
+      <c r="N54" s="97"/>
+      <c r="O54" s="97"/>
+      <c r="P54" s="97"/>
+      <c r="Q54" s="97"/>
+      <c r="R54" s="93"/>
+      <c r="S54" s="93"/>
+      <c r="T54" s="93"/>
+      <c r="U54" s="93"/>
+      <c r="V54" s="93"/>
+      <c r="W54" s="93"/>
+      <c r="X54" s="93"/>
+      <c r="Y54" s="93"/>
+      <c r="Z54" s="98"/>
+      <c r="AA54" s="98"/>
+      <c r="AB54" s="98"/>
+      <c r="AC54" s="98"/>
+      <c r="AD54" s="98"/>
+      <c r="AE54" s="98"/>
+      <c r="AF54" s="98"/>
+      <c r="AG54" s="98"/>
+      <c r="AH54" s="98"/>
+      <c r="AI54" s="98"/>
+      <c r="AJ54" s="98"/>
+      <c r="AK54" s="98"/>
+      <c r="AL54" s="98"/>
+      <c r="AM54" s="98"/>
+      <c r="AN54" s="98"/>
+      <c r="AO54" s="98"/>
+      <c r="AP54" s="99"/>
+      <c r="AQ54" s="99"/>
+      <c r="AR54" s="99"/>
+      <c r="AS54" s="99"/>
+      <c r="AT54" s="99"/>
+      <c r="AU54" s="99"/>
+      <c r="AV54" s="99"/>
+      <c r="AW54" s="99"/>
+      <c r="AX54" s="89"/>
+      <c r="AY54" s="89"/>
+      <c r="AZ54" s="89"/>
+      <c r="BA54" s="89"/>
+      <c r="BB54" s="89"/>
+      <c r="BC54" s="89"/>
+      <c r="BD54" s="89"/>
+      <c r="BE54" s="89"/>
+      <c r="BF54" s="89"/>
+      <c r="BG54" s="89"/>
+      <c r="BH54" s="89"/>
+      <c r="BI54" s="89"/>
+      <c r="BJ54" s="89"/>
+      <c r="BK54" s="89"/>
+      <c r="BL54" s="89"/>
+      <c r="BM54" s="89"/>
+      <c r="BN54" s="89"/>
+      <c r="BO54" s="89"/>
+      <c r="BP54" s="89"/>
+      <c r="BQ54" s="89"/>
+      <c r="BR54" s="89"/>
+      <c r="BS54" s="89"/>
+      <c r="BT54" s="89"/>
+      <c r="BU54" s="89"/>
       <c r="BV54" s="73"/>
       <c r="BW54" s="73"/>
       <c r="BX54" s="73"/>
@@ -6159,14 +6159,14 @@
       <c r="CA54" s="73"/>
       <c r="CB54" s="73"/>
       <c r="CC54" s="73"/>
-      <c r="CD54" s="94"/>
-      <c r="CE54" s="94"/>
-      <c r="CF54" s="94"/>
-      <c r="CG54" s="94"/>
-      <c r="CH54" s="94"/>
-      <c r="CI54" s="94"/>
-      <c r="CJ54" s="94"/>
-      <c r="CK54" s="94"/>
+      <c r="CD54" s="89"/>
+      <c r="CE54" s="89"/>
+      <c r="CF54" s="89"/>
+      <c r="CG54" s="89"/>
+      <c r="CH54" s="89"/>
+      <c r="CI54" s="89"/>
+      <c r="CJ54" s="89"/>
+      <c r="CK54" s="89"/>
       <c r="CT54" s="76"/>
       <c r="CU54" s="76"/>
       <c r="CV54" s="76"/>
@@ -6178,78 +6178,78 @@
       <c r="A55" s="63">
         <v>30</v>
       </c>
-      <c r="B55" s="90"/>
-      <c r="C55" s="90"/>
-      <c r="D55" s="90"/>
-      <c r="E55" s="90"/>
-      <c r="F55" s="90"/>
-      <c r="G55" s="90"/>
-      <c r="H55" s="90"/>
-      <c r="I55" s="90"/>
-      <c r="J55" s="116"/>
-      <c r="K55" s="116"/>
-      <c r="L55" s="116"/>
-      <c r="M55" s="116"/>
-      <c r="N55" s="116"/>
-      <c r="O55" s="116"/>
-      <c r="P55" s="116"/>
-      <c r="Q55" s="116"/>
-      <c r="R55" s="100"/>
-      <c r="S55" s="100"/>
-      <c r="T55" s="100"/>
-      <c r="U55" s="100"/>
-      <c r="V55" s="100"/>
-      <c r="W55" s="100"/>
-      <c r="X55" s="100"/>
-      <c r="Y55" s="100"/>
-      <c r="Z55" s="95"/>
-      <c r="AA55" s="95"/>
-      <c r="AB55" s="95"/>
-      <c r="AC55" s="95"/>
-      <c r="AD55" s="95"/>
-      <c r="AE55" s="95"/>
-      <c r="AF55" s="95"/>
-      <c r="AG55" s="95"/>
-      <c r="AH55" s="95"/>
-      <c r="AI55" s="95"/>
-      <c r="AJ55" s="95"/>
-      <c r="AK55" s="95"/>
-      <c r="AL55" s="95"/>
-      <c r="AM55" s="95"/>
-      <c r="AN55" s="95"/>
-      <c r="AO55" s="95"/>
-      <c r="AP55" s="102"/>
-      <c r="AQ55" s="102"/>
-      <c r="AR55" s="102"/>
-      <c r="AS55" s="102"/>
-      <c r="AT55" s="102"/>
-      <c r="AU55" s="102"/>
-      <c r="AV55" s="102"/>
-      <c r="AW55" s="102"/>
-      <c r="AX55" s="94"/>
-      <c r="AY55" s="94"/>
-      <c r="AZ55" s="94"/>
-      <c r="BA55" s="94"/>
-      <c r="BB55" s="94"/>
-      <c r="BC55" s="94"/>
-      <c r="BD55" s="94"/>
-      <c r="BE55" s="94"/>
-      <c r="BF55" s="94"/>
-      <c r="BG55" s="94"/>
-      <c r="BH55" s="94"/>
-      <c r="BI55" s="94"/>
-      <c r="BJ55" s="94"/>
-      <c r="BK55" s="94"/>
-      <c r="BL55" s="94"/>
-      <c r="BM55" s="94"/>
-      <c r="BN55" s="94"/>
-      <c r="BO55" s="94"/>
-      <c r="BP55" s="94"/>
-      <c r="BQ55" s="94"/>
-      <c r="BR55" s="94"/>
-      <c r="BS55" s="94"/>
-      <c r="BT55" s="94"/>
-      <c r="BU55" s="94"/>
+      <c r="B55" s="95"/>
+      <c r="C55" s="95"/>
+      <c r="D55" s="95"/>
+      <c r="E55" s="95"/>
+      <c r="F55" s="95"/>
+      <c r="G55" s="95"/>
+      <c r="H55" s="95"/>
+      <c r="I55" s="95"/>
+      <c r="J55" s="97"/>
+      <c r="K55" s="97"/>
+      <c r="L55" s="97"/>
+      <c r="M55" s="97"/>
+      <c r="N55" s="97"/>
+      <c r="O55" s="97"/>
+      <c r="P55" s="97"/>
+      <c r="Q55" s="97"/>
+      <c r="R55" s="93"/>
+      <c r="S55" s="93"/>
+      <c r="T55" s="93"/>
+      <c r="U55" s="93"/>
+      <c r="V55" s="93"/>
+      <c r="W55" s="93"/>
+      <c r="X55" s="93"/>
+      <c r="Y55" s="93"/>
+      <c r="Z55" s="98"/>
+      <c r="AA55" s="98"/>
+      <c r="AB55" s="98"/>
+      <c r="AC55" s="98"/>
+      <c r="AD55" s="98"/>
+      <c r="AE55" s="98"/>
+      <c r="AF55" s="98"/>
+      <c r="AG55" s="98"/>
+      <c r="AH55" s="98"/>
+      <c r="AI55" s="98"/>
+      <c r="AJ55" s="98"/>
+      <c r="AK55" s="98"/>
+      <c r="AL55" s="98"/>
+      <c r="AM55" s="98"/>
+      <c r="AN55" s="98"/>
+      <c r="AO55" s="98"/>
+      <c r="AP55" s="99"/>
+      <c r="AQ55" s="99"/>
+      <c r="AR55" s="99"/>
+      <c r="AS55" s="99"/>
+      <c r="AT55" s="99"/>
+      <c r="AU55" s="99"/>
+      <c r="AV55" s="99"/>
+      <c r="AW55" s="99"/>
+      <c r="AX55" s="89"/>
+      <c r="AY55" s="89"/>
+      <c r="AZ55" s="89"/>
+      <c r="BA55" s="89"/>
+      <c r="BB55" s="89"/>
+      <c r="BC55" s="89"/>
+      <c r="BD55" s="89"/>
+      <c r="BE55" s="89"/>
+      <c r="BF55" s="89"/>
+      <c r="BG55" s="89"/>
+      <c r="BH55" s="89"/>
+      <c r="BI55" s="89"/>
+      <c r="BJ55" s="89"/>
+      <c r="BK55" s="89"/>
+      <c r="BL55" s="89"/>
+      <c r="BM55" s="89"/>
+      <c r="BN55" s="89"/>
+      <c r="BO55" s="89"/>
+      <c r="BP55" s="89"/>
+      <c r="BQ55" s="89"/>
+      <c r="BR55" s="89"/>
+      <c r="BS55" s="89"/>
+      <c r="BT55" s="89"/>
+      <c r="BU55" s="89"/>
       <c r="BV55" s="73"/>
       <c r="BW55" s="73"/>
       <c r="BX55" s="73"/>
@@ -6258,14 +6258,14 @@
       <c r="CA55" s="73"/>
       <c r="CB55" s="73"/>
       <c r="CC55" s="73"/>
-      <c r="CD55" s="94"/>
-      <c r="CE55" s="94"/>
-      <c r="CF55" s="94"/>
-      <c r="CG55" s="94"/>
-      <c r="CH55" s="94"/>
-      <c r="CI55" s="94"/>
-      <c r="CJ55" s="94"/>
-      <c r="CK55" s="94"/>
+      <c r="CD55" s="89"/>
+      <c r="CE55" s="89"/>
+      <c r="CF55" s="89"/>
+      <c r="CG55" s="89"/>
+      <c r="CH55" s="89"/>
+      <c r="CI55" s="89"/>
+      <c r="CJ55" s="89"/>
+      <c r="CK55" s="89"/>
       <c r="CT55" s="76"/>
       <c r="CU55" s="76"/>
       <c r="CV55" s="76"/>
@@ -6277,78 +6277,78 @@
       <c r="A56" s="63">
         <v>31</v>
       </c>
-      <c r="B56" s="90"/>
-      <c r="C56" s="90"/>
-      <c r="D56" s="90"/>
-      <c r="E56" s="90"/>
-      <c r="F56" s="90"/>
-      <c r="G56" s="90"/>
-      <c r="H56" s="90"/>
-      <c r="I56" s="90"/>
-      <c r="J56" s="116"/>
-      <c r="K56" s="116"/>
-      <c r="L56" s="116"/>
-      <c r="M56" s="116"/>
-      <c r="N56" s="116"/>
-      <c r="O56" s="116"/>
-      <c r="P56" s="116"/>
-      <c r="Q56" s="116"/>
-      <c r="R56" s="100"/>
-      <c r="S56" s="100"/>
-      <c r="T56" s="100"/>
-      <c r="U56" s="100"/>
-      <c r="V56" s="100"/>
-      <c r="W56" s="100"/>
-      <c r="X56" s="100"/>
-      <c r="Y56" s="100"/>
-      <c r="Z56" s="95"/>
-      <c r="AA56" s="95"/>
-      <c r="AB56" s="95"/>
-      <c r="AC56" s="95"/>
-      <c r="AD56" s="95"/>
-      <c r="AE56" s="95"/>
-      <c r="AF56" s="95"/>
-      <c r="AG56" s="95"/>
-      <c r="AH56" s="95"/>
-      <c r="AI56" s="95"/>
-      <c r="AJ56" s="95"/>
-      <c r="AK56" s="95"/>
-      <c r="AL56" s="95"/>
-      <c r="AM56" s="95"/>
-      <c r="AN56" s="95"/>
-      <c r="AO56" s="95"/>
-      <c r="AP56" s="102"/>
-      <c r="AQ56" s="102"/>
-      <c r="AR56" s="102"/>
-      <c r="AS56" s="102"/>
-      <c r="AT56" s="102"/>
-      <c r="AU56" s="102"/>
-      <c r="AV56" s="102"/>
-      <c r="AW56" s="102"/>
-      <c r="AX56" s="94"/>
-      <c r="AY56" s="94"/>
-      <c r="AZ56" s="94"/>
-      <c r="BA56" s="94"/>
-      <c r="BB56" s="94"/>
-      <c r="BC56" s="94"/>
-      <c r="BD56" s="94"/>
-      <c r="BE56" s="94"/>
-      <c r="BF56" s="94"/>
-      <c r="BG56" s="94"/>
-      <c r="BH56" s="94"/>
-      <c r="BI56" s="94"/>
-      <c r="BJ56" s="94"/>
-      <c r="BK56" s="94"/>
-      <c r="BL56" s="94"/>
-      <c r="BM56" s="94"/>
-      <c r="BN56" s="94"/>
-      <c r="BO56" s="94"/>
-      <c r="BP56" s="94"/>
-      <c r="BQ56" s="94"/>
-      <c r="BR56" s="94"/>
-      <c r="BS56" s="94"/>
-      <c r="BT56" s="94"/>
-      <c r="BU56" s="94"/>
+      <c r="B56" s="95"/>
+      <c r="C56" s="95"/>
+      <c r="D56" s="95"/>
+      <c r="E56" s="95"/>
+      <c r="F56" s="95"/>
+      <c r="G56" s="95"/>
+      <c r="H56" s="95"/>
+      <c r="I56" s="95"/>
+      <c r="J56" s="97"/>
+      <c r="K56" s="97"/>
+      <c r="L56" s="97"/>
+      <c r="M56" s="97"/>
+      <c r="N56" s="97"/>
+      <c r="O56" s="97"/>
+      <c r="P56" s="97"/>
+      <c r="Q56" s="97"/>
+      <c r="R56" s="93"/>
+      <c r="S56" s="93"/>
+      <c r="T56" s="93"/>
+      <c r="U56" s="93"/>
+      <c r="V56" s="93"/>
+      <c r="W56" s="93"/>
+      <c r="X56" s="93"/>
+      <c r="Y56" s="93"/>
+      <c r="Z56" s="98"/>
+      <c r="AA56" s="98"/>
+      <c r="AB56" s="98"/>
+      <c r="AC56" s="98"/>
+      <c r="AD56" s="98"/>
+      <c r="AE56" s="98"/>
+      <c r="AF56" s="98"/>
+      <c r="AG56" s="98"/>
+      <c r="AH56" s="98"/>
+      <c r="AI56" s="98"/>
+      <c r="AJ56" s="98"/>
+      <c r="AK56" s="98"/>
+      <c r="AL56" s="98"/>
+      <c r="AM56" s="98"/>
+      <c r="AN56" s="98"/>
+      <c r="AO56" s="98"/>
+      <c r="AP56" s="99"/>
+      <c r="AQ56" s="99"/>
+      <c r="AR56" s="99"/>
+      <c r="AS56" s="99"/>
+      <c r="AT56" s="99"/>
+      <c r="AU56" s="99"/>
+      <c r="AV56" s="99"/>
+      <c r="AW56" s="99"/>
+      <c r="AX56" s="89"/>
+      <c r="AY56" s="89"/>
+      <c r="AZ56" s="89"/>
+      <c r="BA56" s="89"/>
+      <c r="BB56" s="89"/>
+      <c r="BC56" s="89"/>
+      <c r="BD56" s="89"/>
+      <c r="BE56" s="89"/>
+      <c r="BF56" s="89"/>
+      <c r="BG56" s="89"/>
+      <c r="BH56" s="89"/>
+      <c r="BI56" s="89"/>
+      <c r="BJ56" s="89"/>
+      <c r="BK56" s="89"/>
+      <c r="BL56" s="89"/>
+      <c r="BM56" s="89"/>
+      <c r="BN56" s="89"/>
+      <c r="BO56" s="89"/>
+      <c r="BP56" s="89"/>
+      <c r="BQ56" s="89"/>
+      <c r="BR56" s="89"/>
+      <c r="BS56" s="89"/>
+      <c r="BT56" s="89"/>
+      <c r="BU56" s="89"/>
       <c r="BV56" s="73"/>
       <c r="BW56" s="73"/>
       <c r="BX56" s="73"/>
@@ -6357,14 +6357,14 @@
       <c r="CA56" s="73"/>
       <c r="CB56" s="73"/>
       <c r="CC56" s="73"/>
-      <c r="CD56" s="94"/>
-      <c r="CE56" s="94"/>
-      <c r="CF56" s="94"/>
-      <c r="CG56" s="94"/>
-      <c r="CH56" s="94"/>
-      <c r="CI56" s="94"/>
-      <c r="CJ56" s="94"/>
-      <c r="CK56" s="94"/>
+      <c r="CD56" s="89"/>
+      <c r="CE56" s="89"/>
+      <c r="CF56" s="89"/>
+      <c r="CG56" s="89"/>
+      <c r="CH56" s="89"/>
+      <c r="CI56" s="89"/>
+      <c r="CJ56" s="89"/>
+      <c r="CK56" s="89"/>
       <c r="CT56" s="76"/>
       <c r="CU56" s="76"/>
       <c r="CV56" s="76"/>
@@ -6376,78 +6376,78 @@
       <c r="A57" s="63">
         <v>32</v>
       </c>
-      <c r="B57" s="90"/>
-      <c r="C57" s="90"/>
-      <c r="D57" s="90"/>
-      <c r="E57" s="90"/>
-      <c r="F57" s="90"/>
-      <c r="G57" s="90"/>
-      <c r="H57" s="90"/>
-      <c r="I57" s="90"/>
-      <c r="J57" s="116"/>
-      <c r="K57" s="116"/>
-      <c r="L57" s="116"/>
-      <c r="M57" s="116"/>
-      <c r="N57" s="116"/>
-      <c r="O57" s="116"/>
-      <c r="P57" s="116"/>
-      <c r="Q57" s="116"/>
-      <c r="R57" s="100"/>
-      <c r="S57" s="100"/>
-      <c r="T57" s="100"/>
-      <c r="U57" s="100"/>
-      <c r="V57" s="100"/>
-      <c r="W57" s="100"/>
-      <c r="X57" s="100"/>
-      <c r="Y57" s="100"/>
-      <c r="Z57" s="95"/>
-      <c r="AA57" s="95"/>
-      <c r="AB57" s="95"/>
-      <c r="AC57" s="95"/>
-      <c r="AD57" s="95"/>
-      <c r="AE57" s="95"/>
-      <c r="AF57" s="95"/>
-      <c r="AG57" s="95"/>
-      <c r="AH57" s="95"/>
-      <c r="AI57" s="95"/>
-      <c r="AJ57" s="95"/>
-      <c r="AK57" s="95"/>
-      <c r="AL57" s="95"/>
-      <c r="AM57" s="95"/>
-      <c r="AN57" s="95"/>
-      <c r="AO57" s="95"/>
-      <c r="AP57" s="102"/>
-      <c r="AQ57" s="102"/>
-      <c r="AR57" s="102"/>
-      <c r="AS57" s="102"/>
-      <c r="AT57" s="102"/>
-      <c r="AU57" s="102"/>
-      <c r="AV57" s="102"/>
-      <c r="AW57" s="102"/>
-      <c r="AX57" s="94"/>
-      <c r="AY57" s="94"/>
-      <c r="AZ57" s="94"/>
-      <c r="BA57" s="94"/>
-      <c r="BB57" s="94"/>
-      <c r="BC57" s="94"/>
-      <c r="BD57" s="94"/>
-      <c r="BE57" s="94"/>
-      <c r="BF57" s="94"/>
-      <c r="BG57" s="94"/>
-      <c r="BH57" s="94"/>
-      <c r="BI57" s="94"/>
-      <c r="BJ57" s="94"/>
-      <c r="BK57" s="94"/>
-      <c r="BL57" s="94"/>
-      <c r="BM57" s="94"/>
-      <c r="BN57" s="94"/>
-      <c r="BO57" s="94"/>
-      <c r="BP57" s="94"/>
-      <c r="BQ57" s="94"/>
-      <c r="BR57" s="94"/>
-      <c r="BS57" s="94"/>
-      <c r="BT57" s="94"/>
-      <c r="BU57" s="94"/>
+      <c r="B57" s="95"/>
+      <c r="C57" s="95"/>
+      <c r="D57" s="95"/>
+      <c r="E57" s="95"/>
+      <c r="F57" s="95"/>
+      <c r="G57" s="95"/>
+      <c r="H57" s="95"/>
+      <c r="I57" s="95"/>
+      <c r="J57" s="97"/>
+      <c r="K57" s="97"/>
+      <c r="L57" s="97"/>
+      <c r="M57" s="97"/>
+      <c r="N57" s="97"/>
+      <c r="O57" s="97"/>
+      <c r="P57" s="97"/>
+      <c r="Q57" s="97"/>
+      <c r="R57" s="93"/>
+      <c r="S57" s="93"/>
+      <c r="T57" s="93"/>
+      <c r="U57" s="93"/>
+      <c r="V57" s="93"/>
+      <c r="W57" s="93"/>
+      <c r="X57" s="93"/>
+      <c r="Y57" s="93"/>
+      <c r="Z57" s="98"/>
+      <c r="AA57" s="98"/>
+      <c r="AB57" s="98"/>
+      <c r="AC57" s="98"/>
+      <c r="AD57" s="98"/>
+      <c r="AE57" s="98"/>
+      <c r="AF57" s="98"/>
+      <c r="AG57" s="98"/>
+      <c r="AH57" s="98"/>
+      <c r="AI57" s="98"/>
+      <c r="AJ57" s="98"/>
+      <c r="AK57" s="98"/>
+      <c r="AL57" s="98"/>
+      <c r="AM57" s="98"/>
+      <c r="AN57" s="98"/>
+      <c r="AO57" s="98"/>
+      <c r="AP57" s="99"/>
+      <c r="AQ57" s="99"/>
+      <c r="AR57" s="99"/>
+      <c r="AS57" s="99"/>
+      <c r="AT57" s="99"/>
+      <c r="AU57" s="99"/>
+      <c r="AV57" s="99"/>
+      <c r="AW57" s="99"/>
+      <c r="AX57" s="89"/>
+      <c r="AY57" s="89"/>
+      <c r="AZ57" s="89"/>
+      <c r="BA57" s="89"/>
+      <c r="BB57" s="89"/>
+      <c r="BC57" s="89"/>
+      <c r="BD57" s="89"/>
+      <c r="BE57" s="89"/>
+      <c r="BF57" s="89"/>
+      <c r="BG57" s="89"/>
+      <c r="BH57" s="89"/>
+      <c r="BI57" s="89"/>
+      <c r="BJ57" s="89"/>
+      <c r="BK57" s="89"/>
+      <c r="BL57" s="89"/>
+      <c r="BM57" s="89"/>
+      <c r="BN57" s="89"/>
+      <c r="BO57" s="89"/>
+      <c r="BP57" s="89"/>
+      <c r="BQ57" s="89"/>
+      <c r="BR57" s="89"/>
+      <c r="BS57" s="89"/>
+      <c r="BT57" s="89"/>
+      <c r="BU57" s="89"/>
       <c r="BV57" s="73"/>
       <c r="BW57" s="73"/>
       <c r="BX57" s="73"/>
@@ -6456,91 +6456,91 @@
       <c r="CA57" s="73"/>
       <c r="CB57" s="73"/>
       <c r="CC57" s="73"/>
-      <c r="CD57" s="94"/>
-      <c r="CE57" s="94"/>
-      <c r="CF57" s="94"/>
-      <c r="CG57" s="94"/>
-      <c r="CH57" s="94"/>
-      <c r="CI57" s="94"/>
-      <c r="CJ57" s="94"/>
-      <c r="CK57" s="94"/>
+      <c r="CD57" s="89"/>
+      <c r="CE57" s="89"/>
+      <c r="CF57" s="89"/>
+      <c r="CG57" s="89"/>
+      <c r="CH57" s="89"/>
+      <c r="CI57" s="89"/>
+      <c r="CJ57" s="89"/>
+      <c r="CK57" s="89"/>
     </row>
     <row r="58" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A58" s="63">
         <v>33</v>
       </c>
-      <c r="B58" s="90"/>
-      <c r="C58" s="90"/>
-      <c r="D58" s="90"/>
-      <c r="E58" s="90"/>
-      <c r="F58" s="90"/>
-      <c r="G58" s="90"/>
-      <c r="H58" s="90"/>
-      <c r="I58" s="90"/>
-      <c r="J58" s="116"/>
-      <c r="K58" s="116"/>
-      <c r="L58" s="116"/>
-      <c r="M58" s="116"/>
-      <c r="N58" s="116"/>
-      <c r="O58" s="116"/>
-      <c r="P58" s="116"/>
-      <c r="Q58" s="116"/>
-      <c r="R58" s="100"/>
-      <c r="S58" s="100"/>
-      <c r="T58" s="100"/>
-      <c r="U58" s="100"/>
-      <c r="V58" s="100"/>
-      <c r="W58" s="100"/>
-      <c r="X58" s="100"/>
-      <c r="Y58" s="100"/>
-      <c r="Z58" s="95"/>
-      <c r="AA58" s="95"/>
-      <c r="AB58" s="95"/>
-      <c r="AC58" s="95"/>
-      <c r="AD58" s="95"/>
-      <c r="AE58" s="95"/>
-      <c r="AF58" s="95"/>
-      <c r="AG58" s="95"/>
-      <c r="AH58" s="95"/>
-      <c r="AI58" s="95"/>
-      <c r="AJ58" s="95"/>
-      <c r="AK58" s="95"/>
-      <c r="AL58" s="95"/>
-      <c r="AM58" s="95"/>
-      <c r="AN58" s="95"/>
-      <c r="AO58" s="95"/>
-      <c r="AP58" s="102"/>
-      <c r="AQ58" s="102"/>
-      <c r="AR58" s="102"/>
-      <c r="AS58" s="102"/>
-      <c r="AT58" s="102"/>
-      <c r="AU58" s="102"/>
-      <c r="AV58" s="102"/>
-      <c r="AW58" s="102"/>
-      <c r="AX58" s="94"/>
-      <c r="AY58" s="94"/>
-      <c r="AZ58" s="94"/>
-      <c r="BA58" s="94"/>
-      <c r="BB58" s="94"/>
-      <c r="BC58" s="94"/>
-      <c r="BD58" s="94"/>
-      <c r="BE58" s="94"/>
-      <c r="BF58" s="94"/>
-      <c r="BG58" s="94"/>
-      <c r="BH58" s="94"/>
-      <c r="BI58" s="94"/>
-      <c r="BJ58" s="94"/>
-      <c r="BK58" s="94"/>
-      <c r="BL58" s="94"/>
-      <c r="BM58" s="94"/>
-      <c r="BN58" s="94"/>
-      <c r="BO58" s="94"/>
-      <c r="BP58" s="94"/>
-      <c r="BQ58" s="94"/>
-      <c r="BR58" s="94"/>
-      <c r="BS58" s="94"/>
-      <c r="BT58" s="94"/>
-      <c r="BU58" s="94"/>
+      <c r="B58" s="95"/>
+      <c r="C58" s="95"/>
+      <c r="D58" s="95"/>
+      <c r="E58" s="95"/>
+      <c r="F58" s="95"/>
+      <c r="G58" s="95"/>
+      <c r="H58" s="95"/>
+      <c r="I58" s="95"/>
+      <c r="J58" s="97"/>
+      <c r="K58" s="97"/>
+      <c r="L58" s="97"/>
+      <c r="M58" s="97"/>
+      <c r="N58" s="97"/>
+      <c r="O58" s="97"/>
+      <c r="P58" s="97"/>
+      <c r="Q58" s="97"/>
+      <c r="R58" s="93"/>
+      <c r="S58" s="93"/>
+      <c r="T58" s="93"/>
+      <c r="U58" s="93"/>
+      <c r="V58" s="93"/>
+      <c r="W58" s="93"/>
+      <c r="X58" s="93"/>
+      <c r="Y58" s="93"/>
+      <c r="Z58" s="98"/>
+      <c r="AA58" s="98"/>
+      <c r="AB58" s="98"/>
+      <c r="AC58" s="98"/>
+      <c r="AD58" s="98"/>
+      <c r="AE58" s="98"/>
+      <c r="AF58" s="98"/>
+      <c r="AG58" s="98"/>
+      <c r="AH58" s="98"/>
+      <c r="AI58" s="98"/>
+      <c r="AJ58" s="98"/>
+      <c r="AK58" s="98"/>
+      <c r="AL58" s="98"/>
+      <c r="AM58" s="98"/>
+      <c r="AN58" s="98"/>
+      <c r="AO58" s="98"/>
+      <c r="AP58" s="99"/>
+      <c r="AQ58" s="99"/>
+      <c r="AR58" s="99"/>
+      <c r="AS58" s="99"/>
+      <c r="AT58" s="99"/>
+      <c r="AU58" s="99"/>
+      <c r="AV58" s="99"/>
+      <c r="AW58" s="99"/>
+      <c r="AX58" s="89"/>
+      <c r="AY58" s="89"/>
+      <c r="AZ58" s="89"/>
+      <c r="BA58" s="89"/>
+      <c r="BB58" s="89"/>
+      <c r="BC58" s="89"/>
+      <c r="BD58" s="89"/>
+      <c r="BE58" s="89"/>
+      <c r="BF58" s="89"/>
+      <c r="BG58" s="89"/>
+      <c r="BH58" s="89"/>
+      <c r="BI58" s="89"/>
+      <c r="BJ58" s="89"/>
+      <c r="BK58" s="89"/>
+      <c r="BL58" s="89"/>
+      <c r="BM58" s="89"/>
+      <c r="BN58" s="89"/>
+      <c r="BO58" s="89"/>
+      <c r="BP58" s="89"/>
+      <c r="BQ58" s="89"/>
+      <c r="BR58" s="89"/>
+      <c r="BS58" s="89"/>
+      <c r="BT58" s="89"/>
+      <c r="BU58" s="89"/>
       <c r="BV58" s="73"/>
       <c r="BW58" s="73"/>
       <c r="BX58" s="73"/>
@@ -6549,91 +6549,91 @@
       <c r="CA58" s="73"/>
       <c r="CB58" s="73"/>
       <c r="CC58" s="73"/>
-      <c r="CD58" s="94"/>
-      <c r="CE58" s="94"/>
-      <c r="CF58" s="94"/>
-      <c r="CG58" s="94"/>
-      <c r="CH58" s="94"/>
-      <c r="CI58" s="94"/>
-      <c r="CJ58" s="94"/>
-      <c r="CK58" s="94"/>
+      <c r="CD58" s="89"/>
+      <c r="CE58" s="89"/>
+      <c r="CF58" s="89"/>
+      <c r="CG58" s="89"/>
+      <c r="CH58" s="89"/>
+      <c r="CI58" s="89"/>
+      <c r="CJ58" s="89"/>
+      <c r="CK58" s="89"/>
     </row>
     <row r="59" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A59" s="63">
         <v>34</v>
       </c>
-      <c r="B59" s="90"/>
-      <c r="C59" s="90"/>
-      <c r="D59" s="90"/>
-      <c r="E59" s="90"/>
-      <c r="F59" s="90"/>
-      <c r="G59" s="90"/>
-      <c r="H59" s="90"/>
-      <c r="I59" s="90"/>
-      <c r="J59" s="116"/>
-      <c r="K59" s="116"/>
-      <c r="L59" s="116"/>
-      <c r="M59" s="116"/>
-      <c r="N59" s="116"/>
-      <c r="O59" s="116"/>
-      <c r="P59" s="116"/>
-      <c r="Q59" s="116"/>
-      <c r="R59" s="100"/>
-      <c r="S59" s="100"/>
-      <c r="T59" s="100"/>
-      <c r="U59" s="100"/>
-      <c r="V59" s="100"/>
-      <c r="W59" s="100"/>
-      <c r="X59" s="100"/>
-      <c r="Y59" s="100"/>
-      <c r="Z59" s="95"/>
-      <c r="AA59" s="95"/>
-      <c r="AB59" s="95"/>
-      <c r="AC59" s="95"/>
-      <c r="AD59" s="95"/>
-      <c r="AE59" s="95"/>
-      <c r="AF59" s="95"/>
-      <c r="AG59" s="95"/>
-      <c r="AH59" s="95"/>
-      <c r="AI59" s="95"/>
-      <c r="AJ59" s="95"/>
-      <c r="AK59" s="95"/>
-      <c r="AL59" s="95"/>
-      <c r="AM59" s="95"/>
-      <c r="AN59" s="95"/>
-      <c r="AO59" s="95"/>
-      <c r="AP59" s="102"/>
-      <c r="AQ59" s="102"/>
-      <c r="AR59" s="102"/>
-      <c r="AS59" s="102"/>
-      <c r="AT59" s="102"/>
-      <c r="AU59" s="102"/>
-      <c r="AV59" s="102"/>
-      <c r="AW59" s="102"/>
-      <c r="AX59" s="94"/>
-      <c r="AY59" s="94"/>
-      <c r="AZ59" s="94"/>
-      <c r="BA59" s="94"/>
-      <c r="BB59" s="94"/>
-      <c r="BC59" s="94"/>
-      <c r="BD59" s="94"/>
-      <c r="BE59" s="94"/>
-      <c r="BF59" s="94"/>
-      <c r="BG59" s="94"/>
-      <c r="BH59" s="94"/>
-      <c r="BI59" s="94"/>
-      <c r="BJ59" s="94"/>
-      <c r="BK59" s="94"/>
-      <c r="BL59" s="94"/>
-      <c r="BM59" s="94"/>
-      <c r="BN59" s="94"/>
-      <c r="BO59" s="94"/>
-      <c r="BP59" s="94"/>
-      <c r="BQ59" s="94"/>
-      <c r="BR59" s="94"/>
-      <c r="BS59" s="94"/>
-      <c r="BT59" s="94"/>
-      <c r="BU59" s="94"/>
+      <c r="B59" s="95"/>
+      <c r="C59" s="95"/>
+      <c r="D59" s="95"/>
+      <c r="E59" s="95"/>
+      <c r="F59" s="95"/>
+      <c r="G59" s="95"/>
+      <c r="H59" s="95"/>
+      <c r="I59" s="95"/>
+      <c r="J59" s="97"/>
+      <c r="K59" s="97"/>
+      <c r="L59" s="97"/>
+      <c r="M59" s="97"/>
+      <c r="N59" s="97"/>
+      <c r="O59" s="97"/>
+      <c r="P59" s="97"/>
+      <c r="Q59" s="97"/>
+      <c r="R59" s="93"/>
+      <c r="S59" s="93"/>
+      <c r="T59" s="93"/>
+      <c r="U59" s="93"/>
+      <c r="V59" s="93"/>
+      <c r="W59" s="93"/>
+      <c r="X59" s="93"/>
+      <c r="Y59" s="93"/>
+      <c r="Z59" s="98"/>
+      <c r="AA59" s="98"/>
+      <c r="AB59" s="98"/>
+      <c r="AC59" s="98"/>
+      <c r="AD59" s="98"/>
+      <c r="AE59" s="98"/>
+      <c r="AF59" s="98"/>
+      <c r="AG59" s="98"/>
+      <c r="AH59" s="98"/>
+      <c r="AI59" s="98"/>
+      <c r="AJ59" s="98"/>
+      <c r="AK59" s="98"/>
+      <c r="AL59" s="98"/>
+      <c r="AM59" s="98"/>
+      <c r="AN59" s="98"/>
+      <c r="AO59" s="98"/>
+      <c r="AP59" s="99"/>
+      <c r="AQ59" s="99"/>
+      <c r="AR59" s="99"/>
+      <c r="AS59" s="99"/>
+      <c r="AT59" s="99"/>
+      <c r="AU59" s="99"/>
+      <c r="AV59" s="99"/>
+      <c r="AW59" s="99"/>
+      <c r="AX59" s="89"/>
+      <c r="AY59" s="89"/>
+      <c r="AZ59" s="89"/>
+      <c r="BA59" s="89"/>
+      <c r="BB59" s="89"/>
+      <c r="BC59" s="89"/>
+      <c r="BD59" s="89"/>
+      <c r="BE59" s="89"/>
+      <c r="BF59" s="89"/>
+      <c r="BG59" s="89"/>
+      <c r="BH59" s="89"/>
+      <c r="BI59" s="89"/>
+      <c r="BJ59" s="89"/>
+      <c r="BK59" s="89"/>
+      <c r="BL59" s="89"/>
+      <c r="BM59" s="89"/>
+      <c r="BN59" s="89"/>
+      <c r="BO59" s="89"/>
+      <c r="BP59" s="89"/>
+      <c r="BQ59" s="89"/>
+      <c r="BR59" s="89"/>
+      <c r="BS59" s="89"/>
+      <c r="BT59" s="89"/>
+      <c r="BU59" s="89"/>
       <c r="BV59" s="73"/>
       <c r="BW59" s="73"/>
       <c r="BX59" s="73"/>
@@ -6642,91 +6642,91 @@
       <c r="CA59" s="73"/>
       <c r="CB59" s="73"/>
       <c r="CC59" s="73"/>
-      <c r="CD59" s="94"/>
-      <c r="CE59" s="94"/>
-      <c r="CF59" s="94"/>
-      <c r="CG59" s="94"/>
-      <c r="CH59" s="94"/>
-      <c r="CI59" s="94"/>
-      <c r="CJ59" s="94"/>
-      <c r="CK59" s="94"/>
+      <c r="CD59" s="89"/>
+      <c r="CE59" s="89"/>
+      <c r="CF59" s="89"/>
+      <c r="CG59" s="89"/>
+      <c r="CH59" s="89"/>
+      <c r="CI59" s="89"/>
+      <c r="CJ59" s="89"/>
+      <c r="CK59" s="89"/>
     </row>
     <row r="60" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A60" s="63">
         <v>35</v>
       </c>
-      <c r="B60" s="90"/>
-      <c r="C60" s="90"/>
-      <c r="D60" s="90"/>
-      <c r="E60" s="90"/>
-      <c r="F60" s="90"/>
-      <c r="G60" s="90"/>
-      <c r="H60" s="90"/>
-      <c r="I60" s="90"/>
-      <c r="J60" s="116"/>
-      <c r="K60" s="116"/>
-      <c r="L60" s="116"/>
-      <c r="M60" s="116"/>
-      <c r="N60" s="116"/>
-      <c r="O60" s="116"/>
-      <c r="P60" s="116"/>
-      <c r="Q60" s="116"/>
-      <c r="R60" s="100"/>
-      <c r="S60" s="100"/>
-      <c r="T60" s="100"/>
-      <c r="U60" s="100"/>
-      <c r="V60" s="100"/>
-      <c r="W60" s="100"/>
-      <c r="X60" s="100"/>
-      <c r="Y60" s="100"/>
-      <c r="Z60" s="95"/>
-      <c r="AA60" s="95"/>
-      <c r="AB60" s="95"/>
-      <c r="AC60" s="95"/>
-      <c r="AD60" s="95"/>
-      <c r="AE60" s="95"/>
-      <c r="AF60" s="95"/>
-      <c r="AG60" s="95"/>
-      <c r="AH60" s="95"/>
-      <c r="AI60" s="95"/>
-      <c r="AJ60" s="95"/>
-      <c r="AK60" s="95"/>
-      <c r="AL60" s="95"/>
-      <c r="AM60" s="95"/>
-      <c r="AN60" s="95"/>
-      <c r="AO60" s="95"/>
-      <c r="AP60" s="102"/>
-      <c r="AQ60" s="102"/>
-      <c r="AR60" s="102"/>
-      <c r="AS60" s="102"/>
-      <c r="AT60" s="102"/>
-      <c r="AU60" s="102"/>
-      <c r="AV60" s="102"/>
-      <c r="AW60" s="102"/>
-      <c r="AX60" s="94"/>
-      <c r="AY60" s="94"/>
-      <c r="AZ60" s="94"/>
-      <c r="BA60" s="94"/>
-      <c r="BB60" s="94"/>
-      <c r="BC60" s="94"/>
-      <c r="BD60" s="94"/>
-      <c r="BE60" s="94"/>
-      <c r="BF60" s="94"/>
-      <c r="BG60" s="94"/>
-      <c r="BH60" s="94"/>
-      <c r="BI60" s="94"/>
-      <c r="BJ60" s="94"/>
-      <c r="BK60" s="94"/>
-      <c r="BL60" s="94"/>
-      <c r="BM60" s="94"/>
-      <c r="BN60" s="94"/>
-      <c r="BO60" s="94"/>
-      <c r="BP60" s="94"/>
-      <c r="BQ60" s="94"/>
-      <c r="BR60" s="94"/>
-      <c r="BS60" s="94"/>
-      <c r="BT60" s="94"/>
-      <c r="BU60" s="94"/>
+      <c r="B60" s="95"/>
+      <c r="C60" s="95"/>
+      <c r="D60" s="95"/>
+      <c r="E60" s="95"/>
+      <c r="F60" s="95"/>
+      <c r="G60" s="95"/>
+      <c r="H60" s="95"/>
+      <c r="I60" s="95"/>
+      <c r="J60" s="97"/>
+      <c r="K60" s="97"/>
+      <c r="L60" s="97"/>
+      <c r="M60" s="97"/>
+      <c r="N60" s="97"/>
+      <c r="O60" s="97"/>
+      <c r="P60" s="97"/>
+      <c r="Q60" s="97"/>
+      <c r="R60" s="93"/>
+      <c r="S60" s="93"/>
+      <c r="T60" s="93"/>
+      <c r="U60" s="93"/>
+      <c r="V60" s="93"/>
+      <c r="W60" s="93"/>
+      <c r="X60" s="93"/>
+      <c r="Y60" s="93"/>
+      <c r="Z60" s="98"/>
+      <c r="AA60" s="98"/>
+      <c r="AB60" s="98"/>
+      <c r="AC60" s="98"/>
+      <c r="AD60" s="98"/>
+      <c r="AE60" s="98"/>
+      <c r="AF60" s="98"/>
+      <c r="AG60" s="98"/>
+      <c r="AH60" s="98"/>
+      <c r="AI60" s="98"/>
+      <c r="AJ60" s="98"/>
+      <c r="AK60" s="98"/>
+      <c r="AL60" s="98"/>
+      <c r="AM60" s="98"/>
+      <c r="AN60" s="98"/>
+      <c r="AO60" s="98"/>
+      <c r="AP60" s="99"/>
+      <c r="AQ60" s="99"/>
+      <c r="AR60" s="99"/>
+      <c r="AS60" s="99"/>
+      <c r="AT60" s="99"/>
+      <c r="AU60" s="99"/>
+      <c r="AV60" s="99"/>
+      <c r="AW60" s="99"/>
+      <c r="AX60" s="89"/>
+      <c r="AY60" s="89"/>
+      <c r="AZ60" s="89"/>
+      <c r="BA60" s="89"/>
+      <c r="BB60" s="89"/>
+      <c r="BC60" s="89"/>
+      <c r="BD60" s="89"/>
+      <c r="BE60" s="89"/>
+      <c r="BF60" s="89"/>
+      <c r="BG60" s="89"/>
+      <c r="BH60" s="89"/>
+      <c r="BI60" s="89"/>
+      <c r="BJ60" s="89"/>
+      <c r="BK60" s="89"/>
+      <c r="BL60" s="89"/>
+      <c r="BM60" s="89"/>
+      <c r="BN60" s="89"/>
+      <c r="BO60" s="89"/>
+      <c r="BP60" s="89"/>
+      <c r="BQ60" s="89"/>
+      <c r="BR60" s="89"/>
+      <c r="BS60" s="89"/>
+      <c r="BT60" s="89"/>
+      <c r="BU60" s="89"/>
       <c r="BV60" s="73"/>
       <c r="BW60" s="73"/>
       <c r="BX60" s="73"/>
@@ -6735,14 +6735,14 @@
       <c r="CA60" s="73"/>
       <c r="CB60" s="73"/>
       <c r="CC60" s="73"/>
-      <c r="CD60" s="94"/>
-      <c r="CE60" s="94"/>
-      <c r="CF60" s="94"/>
-      <c r="CG60" s="94"/>
-      <c r="CH60" s="94"/>
-      <c r="CI60" s="94"/>
-      <c r="CJ60" s="94"/>
-      <c r="CK60" s="94"/>
+      <c r="CD60" s="89"/>
+      <c r="CE60" s="89"/>
+      <c r="CF60" s="89"/>
+      <c r="CG60" s="89"/>
+      <c r="CH60" s="89"/>
+      <c r="CI60" s="89"/>
+      <c r="CJ60" s="89"/>
+      <c r="CK60" s="89"/>
     </row>
     <row r="61" spans="1:104" x14ac:dyDescent="0.25">
       <c r="E61" s="13"/>
@@ -6751,14 +6751,14 @@
       <c r="H61" s="65"/>
       <c r="I61" s="65"/>
       <c r="K61" s="13"/>
-      <c r="L61" s="115"/>
-      <c r="M61" s="115"/>
-      <c r="N61" s="115"/>
-      <c r="O61" s="115"/>
-      <c r="AP61" s="114"/>
-      <c r="AQ61" s="114"/>
-      <c r="AR61" s="114"/>
-      <c r="AS61" s="114"/>
+      <c r="L61" s="100"/>
+      <c r="M61" s="100"/>
+      <c r="N61" s="100"/>
+      <c r="O61" s="100"/>
+      <c r="AP61" s="101"/>
+      <c r="AQ61" s="101"/>
+      <c r="AR61" s="101"/>
+      <c r="AS61" s="101"/>
       <c r="BV61" s="73"/>
       <c r="BW61" s="73"/>
       <c r="BX61" s="73"/>
@@ -6769,27 +6769,413 @@
     </row>
     <row r="62" spans="1:104" x14ac:dyDescent="0.25">
       <c r="H62" s="13"/>
-      <c r="AM62" s="114"/>
-      <c r="AN62" s="114"/>
-      <c r="AO62" s="114"/>
-      <c r="AP62" s="114"/>
+      <c r="AM62" s="101"/>
+      <c r="AN62" s="101"/>
+      <c r="AO62" s="101"/>
+      <c r="AP62" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="438">
-    <mergeCell ref="BN29:BU29"/>
-    <mergeCell ref="BN30:BU30"/>
-    <mergeCell ref="BN31:BU31"/>
-    <mergeCell ref="BN32:BU32"/>
-    <mergeCell ref="BN33:BU33"/>
-    <mergeCell ref="BN34:BU34"/>
-    <mergeCell ref="BF27:BM27"/>
-    <mergeCell ref="BF28:BM28"/>
-    <mergeCell ref="BF29:BM29"/>
-    <mergeCell ref="BF30:BM30"/>
-    <mergeCell ref="BF31:BM31"/>
-    <mergeCell ref="BF32:BM32"/>
-    <mergeCell ref="BF33:BM33"/>
-    <mergeCell ref="BF34:BM34"/>
+    <mergeCell ref="CS52:CY52"/>
+    <mergeCell ref="CS27:CY27"/>
+    <mergeCell ref="CS28:CY28"/>
+    <mergeCell ref="CS29:CY29"/>
+    <mergeCell ref="CS30:CY30"/>
+    <mergeCell ref="CS31:CY31"/>
+    <mergeCell ref="CS32:CY32"/>
+    <mergeCell ref="CS33:CY33"/>
+    <mergeCell ref="CS34:CY34"/>
+    <mergeCell ref="CS35:CY35"/>
+    <mergeCell ref="CS36:CY36"/>
+    <mergeCell ref="CS37:CY37"/>
+    <mergeCell ref="CS38:CY38"/>
+    <mergeCell ref="CS39:CY39"/>
+    <mergeCell ref="CS40:CY40"/>
+    <mergeCell ref="CS41:CY41"/>
+    <mergeCell ref="CS42:CY42"/>
+    <mergeCell ref="CS26:CY26"/>
+    <mergeCell ref="CS43:CY43"/>
+    <mergeCell ref="CS44:CY44"/>
+    <mergeCell ref="CL25:CR25"/>
+    <mergeCell ref="CD58:CK58"/>
+    <mergeCell ref="CD59:CK59"/>
+    <mergeCell ref="CD60:CK60"/>
+    <mergeCell ref="CD53:CK53"/>
+    <mergeCell ref="CD54:CK54"/>
+    <mergeCell ref="CD55:CK55"/>
+    <mergeCell ref="CD51:CK51"/>
+    <mergeCell ref="CD52:CK52"/>
+    <mergeCell ref="CD45:CK45"/>
+    <mergeCell ref="CD46:CK46"/>
+    <mergeCell ref="CL30:CR30"/>
+    <mergeCell ref="CL31:CR31"/>
+    <mergeCell ref="CL32:CR32"/>
+    <mergeCell ref="CS45:CY45"/>
+    <mergeCell ref="CS46:CY46"/>
+    <mergeCell ref="CS47:CY47"/>
+    <mergeCell ref="CS48:CY48"/>
+    <mergeCell ref="CS49:CY49"/>
+    <mergeCell ref="CS50:CY50"/>
+    <mergeCell ref="CS51:CY51"/>
+    <mergeCell ref="AH50:AO50"/>
+    <mergeCell ref="AH51:AO51"/>
+    <mergeCell ref="AH52:AO52"/>
+    <mergeCell ref="CL26:CR26"/>
+    <mergeCell ref="CL27:CR27"/>
+    <mergeCell ref="CL28:CR28"/>
+    <mergeCell ref="CL29:CR29"/>
+    <mergeCell ref="CD56:CK56"/>
+    <mergeCell ref="CD57:CK57"/>
+    <mergeCell ref="CD30:CK30"/>
+    <mergeCell ref="CD31:CK31"/>
+    <mergeCell ref="CD32:CK32"/>
+    <mergeCell ref="CD33:CK33"/>
+    <mergeCell ref="CD34:CK34"/>
+    <mergeCell ref="CD35:CK35"/>
+    <mergeCell ref="BN57:BU57"/>
+    <mergeCell ref="BF53:BM53"/>
+    <mergeCell ref="BF54:BM54"/>
+    <mergeCell ref="BF55:BM55"/>
+    <mergeCell ref="BF56:BM56"/>
+    <mergeCell ref="BF57:BM57"/>
+    <mergeCell ref="AH53:AO53"/>
+    <mergeCell ref="AX41:BE41"/>
+    <mergeCell ref="AX42:BE42"/>
+    <mergeCell ref="B1:BI1"/>
+    <mergeCell ref="AF22:AO22"/>
+    <mergeCell ref="AP22:AX22"/>
+    <mergeCell ref="CD47:CK47"/>
+    <mergeCell ref="CD48:CK48"/>
+    <mergeCell ref="CD49:CK49"/>
+    <mergeCell ref="CD50:CK50"/>
+    <mergeCell ref="AH33:AO33"/>
+    <mergeCell ref="AH34:AO34"/>
+    <mergeCell ref="AH35:AO35"/>
+    <mergeCell ref="AH36:AO36"/>
+    <mergeCell ref="BV26:CC26"/>
+    <mergeCell ref="CD36:CK36"/>
+    <mergeCell ref="CD37:CK37"/>
+    <mergeCell ref="CD38:CK38"/>
+    <mergeCell ref="CD39:CK39"/>
+    <mergeCell ref="CD40:CK40"/>
+    <mergeCell ref="CD41:CK41"/>
+    <mergeCell ref="CD42:CK42"/>
+    <mergeCell ref="CD43:CK43"/>
+    <mergeCell ref="CD44:CK44"/>
+    <mergeCell ref="CD27:CK27"/>
+    <mergeCell ref="CD28:CK28"/>
+    <mergeCell ref="CD29:CK29"/>
+    <mergeCell ref="BN58:BU58"/>
+    <mergeCell ref="BN59:BU59"/>
+    <mergeCell ref="BN60:BU60"/>
+    <mergeCell ref="BV25:CC25"/>
+    <mergeCell ref="BV27:CC27"/>
+    <mergeCell ref="BV28:CC28"/>
+    <mergeCell ref="BV29:CC29"/>
+    <mergeCell ref="BV30:CC30"/>
+    <mergeCell ref="BV32:CC32"/>
+    <mergeCell ref="BV33:CC33"/>
+    <mergeCell ref="BV34:CC34"/>
+    <mergeCell ref="BV37:CC37"/>
+    <mergeCell ref="BV31:CC31"/>
+    <mergeCell ref="BV39:CC39"/>
+    <mergeCell ref="BV40:CC40"/>
+    <mergeCell ref="BV35:CC35"/>
+    <mergeCell ref="BV36:CC36"/>
+    <mergeCell ref="BV44:CC44"/>
+    <mergeCell ref="BV45:CC45"/>
+    <mergeCell ref="BV46:CC46"/>
+    <mergeCell ref="BV47:CC47"/>
+    <mergeCell ref="BV48:CC48"/>
+    <mergeCell ref="BN27:BU27"/>
+    <mergeCell ref="BN28:BU28"/>
+    <mergeCell ref="BF59:BM59"/>
+    <mergeCell ref="BF60:BM60"/>
+    <mergeCell ref="BN35:BU35"/>
+    <mergeCell ref="BN36:BU36"/>
+    <mergeCell ref="BN37:BU37"/>
+    <mergeCell ref="BN38:BU38"/>
+    <mergeCell ref="BN39:BU39"/>
+    <mergeCell ref="BN40:BU40"/>
+    <mergeCell ref="BN41:BU41"/>
+    <mergeCell ref="BN42:BU42"/>
+    <mergeCell ref="BN43:BU43"/>
+    <mergeCell ref="BN44:BU44"/>
+    <mergeCell ref="BN45:BU45"/>
+    <mergeCell ref="BN46:BU46"/>
+    <mergeCell ref="BN47:BU47"/>
+    <mergeCell ref="BN48:BU48"/>
+    <mergeCell ref="BN49:BU49"/>
+    <mergeCell ref="BN50:BU50"/>
+    <mergeCell ref="BN51:BU51"/>
+    <mergeCell ref="BN52:BU52"/>
+    <mergeCell ref="BN53:BU53"/>
+    <mergeCell ref="BN54:BU54"/>
+    <mergeCell ref="BN55:BU55"/>
+    <mergeCell ref="BN56:BU56"/>
+    <mergeCell ref="BF58:BM58"/>
+    <mergeCell ref="BF41:BM41"/>
+    <mergeCell ref="BF42:BM42"/>
+    <mergeCell ref="BF43:BM43"/>
+    <mergeCell ref="BF44:BM44"/>
+    <mergeCell ref="BF45:BM45"/>
+    <mergeCell ref="BF46:BM46"/>
+    <mergeCell ref="BF47:BM47"/>
+    <mergeCell ref="BF48:BM48"/>
+    <mergeCell ref="BF49:BM49"/>
+    <mergeCell ref="BF50:BM50"/>
+    <mergeCell ref="BF51:BM51"/>
+    <mergeCell ref="BF52:BM52"/>
+    <mergeCell ref="AH45:AO45"/>
+    <mergeCell ref="AH42:AO42"/>
+    <mergeCell ref="AH43:AO43"/>
+    <mergeCell ref="AH44:AO44"/>
+    <mergeCell ref="AH46:AO46"/>
+    <mergeCell ref="AH47:AO47"/>
+    <mergeCell ref="AH48:AO48"/>
+    <mergeCell ref="AH49:AO49"/>
+    <mergeCell ref="AX43:BE43"/>
+    <mergeCell ref="AX44:BE44"/>
+    <mergeCell ref="AX45:BE45"/>
+    <mergeCell ref="AX46:BE46"/>
+    <mergeCell ref="AX47:BE47"/>
+    <mergeCell ref="AX48:BE48"/>
+    <mergeCell ref="AX49:BE49"/>
+    <mergeCell ref="AP42:AW42"/>
+    <mergeCell ref="AP43:AW43"/>
+    <mergeCell ref="AP48:AW48"/>
+    <mergeCell ref="AP49:AW49"/>
+    <mergeCell ref="BV23:CC23"/>
+    <mergeCell ref="AP38:AW38"/>
+    <mergeCell ref="AP39:AW39"/>
+    <mergeCell ref="AP40:AW40"/>
+    <mergeCell ref="AP41:AW41"/>
+    <mergeCell ref="AX38:BE38"/>
+    <mergeCell ref="AP33:AW33"/>
+    <mergeCell ref="AP34:AW34"/>
+    <mergeCell ref="AP35:AW35"/>
+    <mergeCell ref="AP36:AW36"/>
+    <mergeCell ref="AP37:AW37"/>
+    <mergeCell ref="AP27:AW27"/>
+    <mergeCell ref="AP28:AW28"/>
+    <mergeCell ref="AP29:AW29"/>
+    <mergeCell ref="AX33:BE33"/>
+    <mergeCell ref="AX34:BE34"/>
+    <mergeCell ref="AX35:BE35"/>
+    <mergeCell ref="AX36:BE36"/>
+    <mergeCell ref="AX37:BE37"/>
+    <mergeCell ref="AX39:BE39"/>
+    <mergeCell ref="BF37:BM37"/>
+    <mergeCell ref="BF38:BM38"/>
+    <mergeCell ref="BF39:BM39"/>
+    <mergeCell ref="BF40:BM40"/>
+    <mergeCell ref="AH32:AO32"/>
+    <mergeCell ref="AX40:BE40"/>
+    <mergeCell ref="BF35:BM35"/>
+    <mergeCell ref="BF36:BM36"/>
+    <mergeCell ref="AH37:AO37"/>
+    <mergeCell ref="AH38:AO38"/>
+    <mergeCell ref="AH39:AO39"/>
+    <mergeCell ref="AH40:AO40"/>
+    <mergeCell ref="CD23:CK23"/>
+    <mergeCell ref="AH25:AO25"/>
+    <mergeCell ref="AH26:AO26"/>
+    <mergeCell ref="AP25:AW25"/>
+    <mergeCell ref="AP26:AW26"/>
+    <mergeCell ref="AX25:BE25"/>
+    <mergeCell ref="AX26:BE26"/>
+    <mergeCell ref="BN25:BU25"/>
+    <mergeCell ref="BN26:BU26"/>
+    <mergeCell ref="BF25:BM25"/>
+    <mergeCell ref="BF26:BM26"/>
+    <mergeCell ref="BF23:BM23"/>
+    <mergeCell ref="BN23:BU23"/>
+    <mergeCell ref="CD25:CK25"/>
+    <mergeCell ref="CD26:CK26"/>
+    <mergeCell ref="AP30:AW30"/>
+    <mergeCell ref="AP31:AW31"/>
+    <mergeCell ref="AX27:BE27"/>
+    <mergeCell ref="AX28:BE28"/>
+    <mergeCell ref="AX29:BE29"/>
+    <mergeCell ref="AX30:BE30"/>
+    <mergeCell ref="AX31:BE31"/>
+    <mergeCell ref="AX32:BE32"/>
+    <mergeCell ref="AP23:AW23"/>
+    <mergeCell ref="AX23:BE23"/>
+    <mergeCell ref="Z53:AG53"/>
+    <mergeCell ref="Z54:AG54"/>
+    <mergeCell ref="Z55:AG55"/>
+    <mergeCell ref="Z56:AG56"/>
+    <mergeCell ref="Z57:AG57"/>
+    <mergeCell ref="Z58:AG58"/>
+    <mergeCell ref="Z59:AG59"/>
+    <mergeCell ref="Z60:AG60"/>
+    <mergeCell ref="AH23:AO23"/>
+    <mergeCell ref="AH27:AO27"/>
+    <mergeCell ref="AH28:AO28"/>
+    <mergeCell ref="AH29:AO29"/>
+    <mergeCell ref="AH30:AO30"/>
+    <mergeCell ref="AH31:AO31"/>
+    <mergeCell ref="Z44:AG44"/>
+    <mergeCell ref="Z45:AG45"/>
+    <mergeCell ref="Z46:AG46"/>
+    <mergeCell ref="Z47:AG47"/>
+    <mergeCell ref="Z48:AG48"/>
+    <mergeCell ref="Z49:AG49"/>
+    <mergeCell ref="Z50:AG50"/>
+    <mergeCell ref="Z51:AG51"/>
+    <mergeCell ref="Z52:AG52"/>
+    <mergeCell ref="AH41:AO41"/>
+    <mergeCell ref="R53:Y53"/>
+    <mergeCell ref="R54:Y54"/>
+    <mergeCell ref="R55:Y55"/>
+    <mergeCell ref="R56:Y56"/>
+    <mergeCell ref="R57:Y57"/>
+    <mergeCell ref="R58:Y58"/>
+    <mergeCell ref="R59:Y59"/>
+    <mergeCell ref="R60:Y60"/>
+    <mergeCell ref="Z25:AG25"/>
+    <mergeCell ref="Z26:AG26"/>
+    <mergeCell ref="Z27:AG27"/>
+    <mergeCell ref="Z28:AG28"/>
+    <mergeCell ref="Z29:AG29"/>
+    <mergeCell ref="Z30:AG30"/>
+    <mergeCell ref="Z31:AG31"/>
+    <mergeCell ref="Z32:AG32"/>
+    <mergeCell ref="Z33:AG33"/>
+    <mergeCell ref="Z34:AG34"/>
+    <mergeCell ref="Z35:AG35"/>
+    <mergeCell ref="Z36:AG36"/>
+    <mergeCell ref="Z37:AG37"/>
+    <mergeCell ref="Z38:AG38"/>
+    <mergeCell ref="Z39:AG39"/>
+    <mergeCell ref="Z40:AG40"/>
+    <mergeCell ref="R44:Y44"/>
+    <mergeCell ref="R45:Y45"/>
+    <mergeCell ref="R46:Y46"/>
+    <mergeCell ref="R47:Y47"/>
+    <mergeCell ref="R48:Y48"/>
+    <mergeCell ref="R49:Y49"/>
+    <mergeCell ref="R50:Y50"/>
+    <mergeCell ref="R51:Y51"/>
+    <mergeCell ref="R52:Y52"/>
+    <mergeCell ref="R25:Y25"/>
+    <mergeCell ref="R26:Y26"/>
+    <mergeCell ref="R27:Y27"/>
+    <mergeCell ref="R28:Y28"/>
+    <mergeCell ref="R29:Y29"/>
+    <mergeCell ref="R30:Y30"/>
+    <mergeCell ref="R31:Y31"/>
+    <mergeCell ref="R32:Y32"/>
+    <mergeCell ref="R33:Y33"/>
+    <mergeCell ref="B55:I55"/>
+    <mergeCell ref="B56:I56"/>
+    <mergeCell ref="B57:I57"/>
+    <mergeCell ref="B58:I58"/>
+    <mergeCell ref="B59:I59"/>
+    <mergeCell ref="B60:I60"/>
+    <mergeCell ref="J23:Q23"/>
+    <mergeCell ref="R23:Y23"/>
+    <mergeCell ref="Z23:AG23"/>
+    <mergeCell ref="J25:Q25"/>
+    <mergeCell ref="J26:Q26"/>
+    <mergeCell ref="J27:Q27"/>
+    <mergeCell ref="J28:Q28"/>
+    <mergeCell ref="J29:Q29"/>
+    <mergeCell ref="J30:Q30"/>
+    <mergeCell ref="J31:Q31"/>
+    <mergeCell ref="J32:Q32"/>
+    <mergeCell ref="J33:Q33"/>
+    <mergeCell ref="J34:Q34"/>
+    <mergeCell ref="J35:Q35"/>
+    <mergeCell ref="J36:Q36"/>
+    <mergeCell ref="J37:Q37"/>
+    <mergeCell ref="J38:Q38"/>
+    <mergeCell ref="J39:Q39"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="B48:I48"/>
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="B51:I51"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="B53:I53"/>
+    <mergeCell ref="B54:I54"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="B41:I41"/>
+    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="AM62:AP62"/>
+    <mergeCell ref="AH54:AO54"/>
+    <mergeCell ref="AH55:AO55"/>
+    <mergeCell ref="AH56:AO56"/>
+    <mergeCell ref="AH57:AO57"/>
+    <mergeCell ref="AH58:AO58"/>
+    <mergeCell ref="AH59:AO59"/>
+    <mergeCell ref="AH60:AO60"/>
+    <mergeCell ref="AP52:AW52"/>
+    <mergeCell ref="AP53:AW53"/>
+    <mergeCell ref="AP54:AW54"/>
+    <mergeCell ref="AP55:AW55"/>
+    <mergeCell ref="AP56:AW56"/>
+    <mergeCell ref="AP57:AW57"/>
+    <mergeCell ref="AP58:AW58"/>
+    <mergeCell ref="AP61:AS61"/>
+    <mergeCell ref="AP44:AW44"/>
+    <mergeCell ref="AP45:AW45"/>
+    <mergeCell ref="AP46:AW46"/>
+    <mergeCell ref="AP47:AW47"/>
+    <mergeCell ref="AP59:AW59"/>
+    <mergeCell ref="AP60:AW60"/>
+    <mergeCell ref="AX50:BE50"/>
+    <mergeCell ref="AX51:BE51"/>
+    <mergeCell ref="AX52:BE52"/>
+    <mergeCell ref="AX53:BE53"/>
+    <mergeCell ref="AX54:BE54"/>
+    <mergeCell ref="AX55:BE55"/>
+    <mergeCell ref="AX56:BE56"/>
+    <mergeCell ref="AX57:BE57"/>
+    <mergeCell ref="AX58:BE58"/>
+    <mergeCell ref="AX59:BE59"/>
+    <mergeCell ref="AX60:BE60"/>
+    <mergeCell ref="AP50:AW50"/>
+    <mergeCell ref="AP51:AW51"/>
+    <mergeCell ref="L61:O61"/>
+    <mergeCell ref="J58:Q58"/>
+    <mergeCell ref="J59:Q59"/>
+    <mergeCell ref="J60:Q60"/>
+    <mergeCell ref="J44:Q44"/>
+    <mergeCell ref="J45:Q45"/>
+    <mergeCell ref="J46:Q46"/>
+    <mergeCell ref="J47:Q47"/>
+    <mergeCell ref="J48:Q48"/>
+    <mergeCell ref="J49:Q49"/>
+    <mergeCell ref="J50:Q50"/>
+    <mergeCell ref="J51:Q51"/>
+    <mergeCell ref="J52:Q52"/>
+    <mergeCell ref="J53:Q53"/>
+    <mergeCell ref="J54:Q54"/>
+    <mergeCell ref="J55:Q55"/>
+    <mergeCell ref="J56:Q56"/>
+    <mergeCell ref="J57:Q57"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B21:AA21"/>
     <mergeCell ref="A24:XFD24"/>
@@ -6814,406 +7200,20 @@
     <mergeCell ref="R40:Y40"/>
     <mergeCell ref="R34:Y34"/>
     <mergeCell ref="AP32:AW32"/>
-    <mergeCell ref="L61:O61"/>
-    <mergeCell ref="J58:Q58"/>
-    <mergeCell ref="J59:Q59"/>
-    <mergeCell ref="J60:Q60"/>
-    <mergeCell ref="J44:Q44"/>
-    <mergeCell ref="J45:Q45"/>
-    <mergeCell ref="J46:Q46"/>
-    <mergeCell ref="J47:Q47"/>
-    <mergeCell ref="J48:Q48"/>
-    <mergeCell ref="J49:Q49"/>
-    <mergeCell ref="J50:Q50"/>
-    <mergeCell ref="J51:Q51"/>
-    <mergeCell ref="J52:Q52"/>
-    <mergeCell ref="J53:Q53"/>
-    <mergeCell ref="J54:Q54"/>
-    <mergeCell ref="J55:Q55"/>
-    <mergeCell ref="J56:Q56"/>
-    <mergeCell ref="J57:Q57"/>
-    <mergeCell ref="AP59:AW59"/>
-    <mergeCell ref="AP60:AW60"/>
-    <mergeCell ref="AX50:BE50"/>
-    <mergeCell ref="AX51:BE51"/>
-    <mergeCell ref="AX52:BE52"/>
-    <mergeCell ref="AX53:BE53"/>
-    <mergeCell ref="AX54:BE54"/>
-    <mergeCell ref="AX55:BE55"/>
-    <mergeCell ref="AX56:BE56"/>
-    <mergeCell ref="AX57:BE57"/>
-    <mergeCell ref="AX58:BE58"/>
-    <mergeCell ref="AX59:BE59"/>
-    <mergeCell ref="AX60:BE60"/>
-    <mergeCell ref="AP50:AW50"/>
-    <mergeCell ref="AP51:AW51"/>
-    <mergeCell ref="B42:I42"/>
-    <mergeCell ref="B43:I43"/>
-    <mergeCell ref="B44:I44"/>
-    <mergeCell ref="B45:I45"/>
-    <mergeCell ref="AM62:AP62"/>
-    <mergeCell ref="AH54:AO54"/>
-    <mergeCell ref="AH55:AO55"/>
-    <mergeCell ref="AH56:AO56"/>
-    <mergeCell ref="AH57:AO57"/>
-    <mergeCell ref="AH58:AO58"/>
-    <mergeCell ref="AH59:AO59"/>
-    <mergeCell ref="AH60:AO60"/>
-    <mergeCell ref="AP52:AW52"/>
-    <mergeCell ref="AP53:AW53"/>
-    <mergeCell ref="AP54:AW54"/>
-    <mergeCell ref="AP55:AW55"/>
-    <mergeCell ref="AP56:AW56"/>
-    <mergeCell ref="AP57:AW57"/>
-    <mergeCell ref="AP58:AW58"/>
-    <mergeCell ref="AP61:AS61"/>
-    <mergeCell ref="AP44:AW44"/>
-    <mergeCell ref="AP45:AW45"/>
-    <mergeCell ref="AP46:AW46"/>
-    <mergeCell ref="AP47:AW47"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="B39:I39"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="B41:I41"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B46:I46"/>
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="B48:I48"/>
-    <mergeCell ref="B49:I49"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="B51:I51"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="B53:I53"/>
-    <mergeCell ref="B54:I54"/>
-    <mergeCell ref="B55:I55"/>
-    <mergeCell ref="B56:I56"/>
-    <mergeCell ref="B57:I57"/>
-    <mergeCell ref="B58:I58"/>
-    <mergeCell ref="B59:I59"/>
-    <mergeCell ref="B60:I60"/>
-    <mergeCell ref="J23:Q23"/>
-    <mergeCell ref="R23:Y23"/>
-    <mergeCell ref="Z23:AG23"/>
-    <mergeCell ref="J25:Q25"/>
-    <mergeCell ref="J26:Q26"/>
-    <mergeCell ref="J27:Q27"/>
-    <mergeCell ref="J28:Q28"/>
-    <mergeCell ref="J29:Q29"/>
-    <mergeCell ref="J30:Q30"/>
-    <mergeCell ref="J31:Q31"/>
-    <mergeCell ref="J32:Q32"/>
-    <mergeCell ref="J33:Q33"/>
-    <mergeCell ref="J34:Q34"/>
-    <mergeCell ref="J35:Q35"/>
-    <mergeCell ref="J36:Q36"/>
-    <mergeCell ref="J37:Q37"/>
-    <mergeCell ref="J38:Q38"/>
-    <mergeCell ref="J39:Q39"/>
-    <mergeCell ref="R25:Y25"/>
-    <mergeCell ref="R26:Y26"/>
-    <mergeCell ref="R27:Y27"/>
-    <mergeCell ref="R28:Y28"/>
-    <mergeCell ref="R29:Y29"/>
-    <mergeCell ref="R30:Y30"/>
-    <mergeCell ref="R31:Y31"/>
-    <mergeCell ref="R32:Y32"/>
-    <mergeCell ref="R33:Y33"/>
-    <mergeCell ref="R44:Y44"/>
-    <mergeCell ref="R45:Y45"/>
-    <mergeCell ref="R46:Y46"/>
-    <mergeCell ref="R47:Y47"/>
-    <mergeCell ref="R48:Y48"/>
-    <mergeCell ref="R49:Y49"/>
-    <mergeCell ref="R50:Y50"/>
-    <mergeCell ref="R51:Y51"/>
-    <mergeCell ref="R52:Y52"/>
-    <mergeCell ref="R53:Y53"/>
-    <mergeCell ref="R54:Y54"/>
-    <mergeCell ref="R55:Y55"/>
-    <mergeCell ref="R56:Y56"/>
-    <mergeCell ref="R57:Y57"/>
-    <mergeCell ref="R58:Y58"/>
-    <mergeCell ref="R59:Y59"/>
-    <mergeCell ref="R60:Y60"/>
-    <mergeCell ref="Z25:AG25"/>
-    <mergeCell ref="Z26:AG26"/>
-    <mergeCell ref="Z27:AG27"/>
-    <mergeCell ref="Z28:AG28"/>
-    <mergeCell ref="Z29:AG29"/>
-    <mergeCell ref="Z30:AG30"/>
-    <mergeCell ref="Z31:AG31"/>
-    <mergeCell ref="Z32:AG32"/>
-    <mergeCell ref="Z33:AG33"/>
-    <mergeCell ref="Z34:AG34"/>
-    <mergeCell ref="Z35:AG35"/>
-    <mergeCell ref="Z36:AG36"/>
-    <mergeCell ref="Z37:AG37"/>
-    <mergeCell ref="Z38:AG38"/>
-    <mergeCell ref="Z39:AG39"/>
-    <mergeCell ref="Z40:AG40"/>
-    <mergeCell ref="Z53:AG53"/>
-    <mergeCell ref="Z54:AG54"/>
-    <mergeCell ref="Z55:AG55"/>
-    <mergeCell ref="Z56:AG56"/>
-    <mergeCell ref="Z57:AG57"/>
-    <mergeCell ref="Z58:AG58"/>
-    <mergeCell ref="Z59:AG59"/>
-    <mergeCell ref="Z60:AG60"/>
-    <mergeCell ref="AH23:AO23"/>
-    <mergeCell ref="AH27:AO27"/>
-    <mergeCell ref="AH28:AO28"/>
-    <mergeCell ref="AH29:AO29"/>
-    <mergeCell ref="AH30:AO30"/>
-    <mergeCell ref="AH31:AO31"/>
-    <mergeCell ref="Z44:AG44"/>
-    <mergeCell ref="Z45:AG45"/>
-    <mergeCell ref="Z46:AG46"/>
-    <mergeCell ref="Z47:AG47"/>
-    <mergeCell ref="Z48:AG48"/>
-    <mergeCell ref="Z49:AG49"/>
-    <mergeCell ref="Z50:AG50"/>
-    <mergeCell ref="Z51:AG51"/>
-    <mergeCell ref="Z52:AG52"/>
-    <mergeCell ref="AH41:AO41"/>
-    <mergeCell ref="AP31:AW31"/>
-    <mergeCell ref="AX27:BE27"/>
-    <mergeCell ref="AX28:BE28"/>
-    <mergeCell ref="AX29:BE29"/>
-    <mergeCell ref="AX30:BE30"/>
-    <mergeCell ref="AX31:BE31"/>
-    <mergeCell ref="AX32:BE32"/>
-    <mergeCell ref="AP23:AW23"/>
-    <mergeCell ref="AX23:BE23"/>
-    <mergeCell ref="AH32:AO32"/>
-    <mergeCell ref="AX40:BE40"/>
-    <mergeCell ref="BF35:BM35"/>
-    <mergeCell ref="BF36:BM36"/>
-    <mergeCell ref="AH37:AO37"/>
-    <mergeCell ref="AH38:AO38"/>
-    <mergeCell ref="AH39:AO39"/>
-    <mergeCell ref="AH40:AO40"/>
-    <mergeCell ref="CD23:CK23"/>
-    <mergeCell ref="AH25:AO25"/>
-    <mergeCell ref="AH26:AO26"/>
-    <mergeCell ref="AP25:AW25"/>
-    <mergeCell ref="AP26:AW26"/>
-    <mergeCell ref="AX25:BE25"/>
-    <mergeCell ref="AX26:BE26"/>
-    <mergeCell ref="BN25:BU25"/>
-    <mergeCell ref="BN26:BU26"/>
-    <mergeCell ref="BF25:BM25"/>
-    <mergeCell ref="BF26:BM26"/>
-    <mergeCell ref="BF23:BM23"/>
-    <mergeCell ref="BN23:BU23"/>
-    <mergeCell ref="CD25:CK25"/>
-    <mergeCell ref="CD26:CK26"/>
-    <mergeCell ref="AP30:AW30"/>
-    <mergeCell ref="BV23:CC23"/>
-    <mergeCell ref="AP38:AW38"/>
-    <mergeCell ref="AP39:AW39"/>
-    <mergeCell ref="AP40:AW40"/>
-    <mergeCell ref="AP41:AW41"/>
-    <mergeCell ref="AX38:BE38"/>
-    <mergeCell ref="AP33:AW33"/>
-    <mergeCell ref="AP34:AW34"/>
-    <mergeCell ref="AP35:AW35"/>
-    <mergeCell ref="AP36:AW36"/>
-    <mergeCell ref="AP37:AW37"/>
-    <mergeCell ref="AP27:AW27"/>
-    <mergeCell ref="AP28:AW28"/>
-    <mergeCell ref="AP29:AW29"/>
-    <mergeCell ref="AX33:BE33"/>
-    <mergeCell ref="AX34:BE34"/>
-    <mergeCell ref="AX35:BE35"/>
-    <mergeCell ref="AX36:BE36"/>
-    <mergeCell ref="AX37:BE37"/>
-    <mergeCell ref="AX39:BE39"/>
-    <mergeCell ref="BF37:BM37"/>
-    <mergeCell ref="BF38:BM38"/>
-    <mergeCell ref="BF39:BM39"/>
-    <mergeCell ref="BF40:BM40"/>
-    <mergeCell ref="AH45:AO45"/>
-    <mergeCell ref="AH42:AO42"/>
-    <mergeCell ref="AH43:AO43"/>
-    <mergeCell ref="AH44:AO44"/>
-    <mergeCell ref="AH46:AO46"/>
-    <mergeCell ref="AH47:AO47"/>
-    <mergeCell ref="AH48:AO48"/>
-    <mergeCell ref="AH49:AO49"/>
-    <mergeCell ref="AX43:BE43"/>
-    <mergeCell ref="AX44:BE44"/>
-    <mergeCell ref="AX45:BE45"/>
-    <mergeCell ref="AX46:BE46"/>
-    <mergeCell ref="AX47:BE47"/>
-    <mergeCell ref="AX48:BE48"/>
-    <mergeCell ref="AX49:BE49"/>
-    <mergeCell ref="AP42:AW42"/>
-    <mergeCell ref="AP43:AW43"/>
-    <mergeCell ref="AP48:AW48"/>
-    <mergeCell ref="AP49:AW49"/>
-    <mergeCell ref="BF58:BM58"/>
-    <mergeCell ref="BF41:BM41"/>
-    <mergeCell ref="BF42:BM42"/>
-    <mergeCell ref="BF43:BM43"/>
-    <mergeCell ref="BF44:BM44"/>
-    <mergeCell ref="BF45:BM45"/>
-    <mergeCell ref="BF46:BM46"/>
-    <mergeCell ref="BF47:BM47"/>
-    <mergeCell ref="BF48:BM48"/>
-    <mergeCell ref="BF49:BM49"/>
-    <mergeCell ref="BF50:BM50"/>
-    <mergeCell ref="BF51:BM51"/>
-    <mergeCell ref="BF52:BM52"/>
-    <mergeCell ref="BF59:BM59"/>
-    <mergeCell ref="BF60:BM60"/>
-    <mergeCell ref="BN35:BU35"/>
-    <mergeCell ref="BN36:BU36"/>
-    <mergeCell ref="BN37:BU37"/>
-    <mergeCell ref="BN38:BU38"/>
-    <mergeCell ref="BN39:BU39"/>
-    <mergeCell ref="BN40:BU40"/>
-    <mergeCell ref="BN41:BU41"/>
-    <mergeCell ref="BN42:BU42"/>
-    <mergeCell ref="BN43:BU43"/>
-    <mergeCell ref="BN44:BU44"/>
-    <mergeCell ref="BN45:BU45"/>
-    <mergeCell ref="BN46:BU46"/>
-    <mergeCell ref="BN47:BU47"/>
-    <mergeCell ref="BN48:BU48"/>
-    <mergeCell ref="BN49:BU49"/>
-    <mergeCell ref="BN50:BU50"/>
-    <mergeCell ref="BN51:BU51"/>
-    <mergeCell ref="BN52:BU52"/>
-    <mergeCell ref="BN53:BU53"/>
-    <mergeCell ref="BN54:BU54"/>
-    <mergeCell ref="BN55:BU55"/>
-    <mergeCell ref="BN56:BU56"/>
-    <mergeCell ref="BN58:BU58"/>
-    <mergeCell ref="BN59:BU59"/>
-    <mergeCell ref="BN60:BU60"/>
-    <mergeCell ref="BV25:CC25"/>
-    <mergeCell ref="BV27:CC27"/>
-    <mergeCell ref="BV28:CC28"/>
-    <mergeCell ref="BV29:CC29"/>
-    <mergeCell ref="BV30:CC30"/>
-    <mergeCell ref="BV32:CC32"/>
-    <mergeCell ref="BV33:CC33"/>
-    <mergeCell ref="BV34:CC34"/>
-    <mergeCell ref="BV37:CC37"/>
-    <mergeCell ref="BV31:CC31"/>
-    <mergeCell ref="BV39:CC39"/>
-    <mergeCell ref="BV40:CC40"/>
-    <mergeCell ref="BV35:CC35"/>
-    <mergeCell ref="BV36:CC36"/>
-    <mergeCell ref="BV44:CC44"/>
-    <mergeCell ref="BV45:CC45"/>
-    <mergeCell ref="BV46:CC46"/>
-    <mergeCell ref="BV47:CC47"/>
-    <mergeCell ref="BV48:CC48"/>
-    <mergeCell ref="BN27:BU27"/>
-    <mergeCell ref="BN28:BU28"/>
-    <mergeCell ref="B1:BI1"/>
-    <mergeCell ref="AF22:AO22"/>
-    <mergeCell ref="AP22:AX22"/>
-    <mergeCell ref="CD47:CK47"/>
-    <mergeCell ref="CD48:CK48"/>
-    <mergeCell ref="CD49:CK49"/>
-    <mergeCell ref="CD50:CK50"/>
-    <mergeCell ref="AH33:AO33"/>
-    <mergeCell ref="AH34:AO34"/>
-    <mergeCell ref="AH35:AO35"/>
-    <mergeCell ref="AH36:AO36"/>
-    <mergeCell ref="BV26:CC26"/>
-    <mergeCell ref="CD36:CK36"/>
-    <mergeCell ref="CD37:CK37"/>
-    <mergeCell ref="CD38:CK38"/>
-    <mergeCell ref="CD39:CK39"/>
-    <mergeCell ref="CD40:CK40"/>
-    <mergeCell ref="CD41:CK41"/>
-    <mergeCell ref="CD42:CK42"/>
-    <mergeCell ref="CD43:CK43"/>
-    <mergeCell ref="CD44:CK44"/>
-    <mergeCell ref="CD27:CK27"/>
-    <mergeCell ref="CD28:CK28"/>
-    <mergeCell ref="CD29:CK29"/>
-    <mergeCell ref="AH50:AO50"/>
-    <mergeCell ref="AH51:AO51"/>
-    <mergeCell ref="AH52:AO52"/>
-    <mergeCell ref="CL26:CR26"/>
-    <mergeCell ref="CL27:CR27"/>
-    <mergeCell ref="CL28:CR28"/>
-    <mergeCell ref="CL29:CR29"/>
-    <mergeCell ref="CD56:CK56"/>
-    <mergeCell ref="CD57:CK57"/>
-    <mergeCell ref="CD30:CK30"/>
-    <mergeCell ref="CD31:CK31"/>
-    <mergeCell ref="CD32:CK32"/>
-    <mergeCell ref="CD33:CK33"/>
-    <mergeCell ref="CD34:CK34"/>
-    <mergeCell ref="CD35:CK35"/>
-    <mergeCell ref="BN57:BU57"/>
-    <mergeCell ref="BF53:BM53"/>
-    <mergeCell ref="BF54:BM54"/>
-    <mergeCell ref="BF55:BM55"/>
-    <mergeCell ref="BF56:BM56"/>
-    <mergeCell ref="BF57:BM57"/>
-    <mergeCell ref="AH53:AO53"/>
-    <mergeCell ref="AX41:BE41"/>
-    <mergeCell ref="AX42:BE42"/>
-    <mergeCell ref="CS26:CY26"/>
-    <mergeCell ref="CS43:CY43"/>
-    <mergeCell ref="CS44:CY44"/>
-    <mergeCell ref="CL25:CR25"/>
-    <mergeCell ref="CD58:CK58"/>
-    <mergeCell ref="CD59:CK59"/>
-    <mergeCell ref="CD60:CK60"/>
-    <mergeCell ref="CD53:CK53"/>
-    <mergeCell ref="CD54:CK54"/>
-    <mergeCell ref="CD55:CK55"/>
-    <mergeCell ref="CD51:CK51"/>
-    <mergeCell ref="CD52:CK52"/>
-    <mergeCell ref="CD45:CK45"/>
-    <mergeCell ref="CD46:CK46"/>
-    <mergeCell ref="CL30:CR30"/>
-    <mergeCell ref="CL31:CR31"/>
-    <mergeCell ref="CL32:CR32"/>
-    <mergeCell ref="CS45:CY45"/>
-    <mergeCell ref="CS46:CY46"/>
-    <mergeCell ref="CS47:CY47"/>
-    <mergeCell ref="CS48:CY48"/>
-    <mergeCell ref="CS49:CY49"/>
-    <mergeCell ref="CS50:CY50"/>
-    <mergeCell ref="CS51:CY51"/>
-    <mergeCell ref="CS52:CY52"/>
-    <mergeCell ref="CS27:CY27"/>
-    <mergeCell ref="CS28:CY28"/>
-    <mergeCell ref="CS29:CY29"/>
-    <mergeCell ref="CS30:CY30"/>
-    <mergeCell ref="CS31:CY31"/>
-    <mergeCell ref="CS32:CY32"/>
-    <mergeCell ref="CS33:CY33"/>
-    <mergeCell ref="CS34:CY34"/>
-    <mergeCell ref="CS35:CY35"/>
-    <mergeCell ref="CS36:CY36"/>
-    <mergeCell ref="CS37:CY37"/>
-    <mergeCell ref="CS38:CY38"/>
-    <mergeCell ref="CS39:CY39"/>
-    <mergeCell ref="CS40:CY40"/>
-    <mergeCell ref="CS41:CY41"/>
-    <mergeCell ref="CS42:CY42"/>
+    <mergeCell ref="BN29:BU29"/>
+    <mergeCell ref="BN30:BU30"/>
+    <mergeCell ref="BN31:BU31"/>
+    <mergeCell ref="BN32:BU32"/>
+    <mergeCell ref="BN33:BU33"/>
+    <mergeCell ref="BN34:BU34"/>
+    <mergeCell ref="BF27:BM27"/>
+    <mergeCell ref="BF28:BM28"/>
+    <mergeCell ref="BF29:BM29"/>
+    <mergeCell ref="BF30:BM30"/>
+    <mergeCell ref="BF31:BM31"/>
+    <mergeCell ref="BF32:BM32"/>
+    <mergeCell ref="BF33:BM33"/>
+    <mergeCell ref="BF34:BM34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
